--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC5B647-DE8A-FE43-B5F3-52186B24F572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E511BD-BEBD-0240-8A04-36199984167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49252,10 +49252,10 @@
   <dimension ref="A1:Y282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D274" sqref="D274"/>
+      <selection pane="bottomRight" activeCell="X272" sqref="X272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -62484,7 +62484,7 @@
         <v>10</v>
       </c>
       <c r="X271">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="15" customHeight="1">

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E511BD-BEBD-0240-8A04-36199984167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797CA09-B969-7D4F-BEEE-73889119CCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11829,9 +11829,6 @@
     <t>Final_imputation</t>
   </si>
   <si>
-    <t>237_key_variable</t>
-  </si>
-  <si>
     <t>Original_order</t>
   </si>
   <si>
@@ -11911,6 +11908,9 @@
   </si>
   <si>
     <t>Orderimp</t>
+  </si>
+  <si>
+    <t>key_237_variable</t>
   </si>
 </sst>
 </file>
@@ -49252,10 +49252,10 @@
   <dimension ref="A1:Y282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X272" sqref="X272"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49280,7 +49280,7 @@
         <v>111</v>
       </c>
       <c r="C1" s="258" t="s">
-        <v>3105</v>
+        <v>3132</v>
       </c>
       <c r="D1" s="257" t="s">
         <v>113</v>
@@ -49295,16 +49295,16 @@
         <v>3104</v>
       </c>
       <c r="H1" s="201" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="I1" s="200" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="J1" s="257" t="s">
+        <v>3109</v>
+      </c>
+      <c r="K1" s="257" t="s">
         <v>3110</v>
-      </c>
-      <c r="K1" s="257" t="s">
-        <v>3111</v>
       </c>
       <c r="L1" s="257" t="s">
         <v>0</v>
@@ -49322,13 +49322,13 @@
         <v>118</v>
       </c>
       <c r="Q1" s="209" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="R1" s="257" t="s">
+        <v>3106</v>
+      </c>
+      <c r="S1" s="257" t="s">
         <v>3107</v>
-      </c>
-      <c r="S1" s="257" t="s">
-        <v>3108</v>
       </c>
       <c r="T1" s="257" t="s">
         <v>2814</v>
@@ -49824,7 +49824,7 @@
         <v>120</v>
       </c>
       <c r="K12" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L12" s="177" t="s">
         <v>1155</v>
@@ -50042,7 +50042,7 @@
         <v>120</v>
       </c>
       <c r="K16" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L16" s="177" t="s">
         <v>1155</v>
@@ -52311,7 +52311,7 @@
         <v>2284</v>
       </c>
       <c r="K63" s="188" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="L63" s="177" t="s">
         <v>1155</v>
@@ -53211,7 +53211,7 @@
         <v>120</v>
       </c>
       <c r="K81" s="188" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L81" s="177" t="s">
         <v>1155</v>
@@ -54065,7 +54065,7 @@
         <v>120</v>
       </c>
       <c r="K97" s="177" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="L97" s="177" t="s">
         <v>15</v>
@@ -54348,7 +54348,7 @@
         <v>120</v>
       </c>
       <c r="K102" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L102" s="177" t="s">
         <v>15</v>
@@ -54469,7 +54469,7 @@
         <v>120</v>
       </c>
       <c r="K104" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L104" s="177" t="s">
         <v>15</v>
@@ -54527,7 +54527,7 @@
         <v>120</v>
       </c>
       <c r="K105" s="177" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="L105" s="177" t="s">
         <v>15</v>
@@ -54585,7 +54585,7 @@
         <v>120</v>
       </c>
       <c r="K106" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L106" s="177" t="s">
         <v>15</v>
@@ -54643,7 +54643,7 @@
         <v>120</v>
       </c>
       <c r="K107" s="177" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="L107" s="177" t="s">
         <v>15</v>
@@ -55272,7 +55272,7 @@
         <v>120</v>
       </c>
       <c r="K119" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L119" s="177" t="s">
         <v>20</v>
@@ -56333,7 +56333,7 @@
         <v>120</v>
       </c>
       <c r="K139" s="177" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L139" s="177" t="s">
         <v>20</v>
@@ -56447,7 +56447,7 @@
         <v>120</v>
       </c>
       <c r="K141" s="177" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L141" s="177" t="s">
         <v>20</v>
@@ -57427,7 +57427,7 @@
         <v>120</v>
       </c>
       <c r="K161" s="176" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L161" s="176" t="s">
         <v>1160</v>
@@ -57486,7 +57486,7 @@
         <v>120</v>
       </c>
       <c r="K162" s="176" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L162" s="176" t="s">
         <v>1160</v>
@@ -58890,7 +58890,7 @@
         <v>120</v>
       </c>
       <c r="K192" s="176" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L192" s="176" t="s">
         <v>1160</v>
@@ -60080,7 +60080,7 @@
         <v>120</v>
       </c>
       <c r="K217" s="176" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L217" s="176" t="s">
         <v>1664</v>
@@ -60182,7 +60182,7 @@
         <v>2284</v>
       </c>
       <c r="K219" s="176" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="L219" s="176" t="s">
         <v>1664</v>
@@ -60697,7 +60697,7 @@
         <v>120</v>
       </c>
       <c r="K229" s="176" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L229" s="176" t="s">
         <v>1664</v>
@@ -60958,7 +60958,7 @@
         <v>2284</v>
       </c>
       <c r="K235" s="274" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="L235" s="265" t="s">
         <v>2853</v>
@@ -61032,7 +61032,7 @@
         <v>2284</v>
       </c>
       <c r="K237" s="255" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="L237" s="272"/>
       <c r="M237" s="272"/>
@@ -61122,7 +61122,7 @@
         <v>120</v>
       </c>
       <c r="K239" s="272" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L239" s="272"/>
       <c r="M239" s="272"/>
@@ -61162,7 +61162,7 @@
         <v>120</v>
       </c>
       <c r="K240" s="272" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L240" s="272"/>
       <c r="M240" s="272"/>
@@ -61258,7 +61258,7 @@
         <v>2284</v>
       </c>
       <c r="K242" s="272" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="L242" s="272"/>
       <c r="M242" s="272"/>
@@ -61296,7 +61296,7 @@
         <v>2284</v>
       </c>
       <c r="K243" s="263" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="L243" s="272"/>
       <c r="M243" s="272"/>
@@ -61376,7 +61376,7 @@
         <v>2284</v>
       </c>
       <c r="K245" s="263" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="L245" s="272"/>
       <c r="M245" s="272"/>
@@ -61414,12 +61414,12 @@
         <v>2284</v>
       </c>
       <c r="K246" s="212" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L246" s="272"/>
       <c r="M246" s="272"/>
       <c r="N246" s="263" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="O246" s="272"/>
       <c r="P246" s="272"/>
@@ -61543,7 +61543,7 @@
         <v>120</v>
       </c>
       <c r="K249" s="272" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L249" s="272"/>
       <c r="M249" s="272"/>
@@ -61582,7 +61582,7 @@
         <v>120</v>
       </c>
       <c r="K250" s="272" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L250" s="272"/>
       <c r="M250" s="272"/>
@@ -61621,7 +61621,7 @@
         <v>120</v>
       </c>
       <c r="K251" s="272" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L251" s="272"/>
       <c r="M251" s="272"/>
@@ -61660,12 +61660,12 @@
         <v>120</v>
       </c>
       <c r="K252" s="272" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L252" s="272"/>
       <c r="M252" s="272"/>
       <c r="N252" s="272" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="O252" s="272"/>
       <c r="P252" s="272"/>
@@ -61699,7 +61699,7 @@
         <v>120</v>
       </c>
       <c r="K253" s="272" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L253" s="272"/>
       <c r="M253" s="272"/>
@@ -61743,12 +61743,12 @@
         <v>120</v>
       </c>
       <c r="K254" s="272" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L254" s="272"/>
       <c r="M254" s="272"/>
       <c r="N254" s="272" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="O254" s="272"/>
       <c r="P254" s="272"/>
@@ -61782,7 +61782,7 @@
         <v>120</v>
       </c>
       <c r="K255" s="272" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="L255" s="272"/>
       <c r="M255" s="272"/>
@@ -61826,7 +61826,7 @@
         <v>120</v>
       </c>
       <c r="K256" s="263" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="L256" s="272"/>
       <c r="M256" s="272"/>
@@ -61870,7 +61870,7 @@
         <v>120</v>
       </c>
       <c r="K257" s="83" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L257" s="272"/>
       <c r="M257" s="272"/>
@@ -61916,7 +61916,7 @@
         <v>120</v>
       </c>
       <c r="K258" s="272" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L258" s="272"/>
       <c r="M258" s="272"/>
@@ -61962,7 +61962,7 @@
         <v>120</v>
       </c>
       <c r="K259" s="263" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L259" s="272"/>
       <c r="M259" s="272"/>
@@ -62002,7 +62002,7 @@
         <v>2284</v>
       </c>
       <c r="K260" s="263" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="L260" s="272"/>
       <c r="M260" s="272"/>
@@ -62088,7 +62088,7 @@
         <v>2284</v>
       </c>
       <c r="K262" s="263" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="L262" s="272"/>
       <c r="M262" s="272"/>
@@ -62130,7 +62130,7 @@
         <v>2284</v>
       </c>
       <c r="K263" s="212" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="L263" s="272"/>
       <c r="M263" s="272"/>
@@ -62170,7 +62170,7 @@
         <v>2284</v>
       </c>
       <c r="K264" s="212" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="L264" s="272"/>
       <c r="M264" s="272"/>
@@ -62298,7 +62298,7 @@
         <v>2284</v>
       </c>
       <c r="K267" s="263" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="L267" s="272"/>
       <c r="M267" s="272"/>
@@ -62340,7 +62340,7 @@
         <v>120</v>
       </c>
       <c r="K268" s="83" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L268" s="272"/>
       <c r="M268" s="272"/>
@@ -62383,10 +62383,10 @@
         <v>120</v>
       </c>
       <c r="K269" s="263" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="N269" s="210" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="Q269" s="208">
         <v>99.299599771297906</v>
@@ -62470,7 +62470,7 @@
       <c r="L271" s="272"/>
       <c r="M271" s="272"/>
       <c r="N271" s="263" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="O271" s="272"/>
       <c r="P271" s="272"/>
@@ -62516,7 +62516,7 @@
     </row>
     <row r="273" spans="1:25" ht="15" customHeight="1">
       <c r="A273" s="250" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B273" s="272"/>
       <c r="C273" s="251" t="s">
@@ -62897,7 +62897,7 @@
         <v>3072</v>
       </c>
       <c r="H1" s="210" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797CA09-B969-7D4F-BEEE-73889119CCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7B905B-4B1F-C444-A47E-56A8349421F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$2:$Y$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$Y$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$T$67</definedName>
   </definedNames>
@@ -49252,10 +49252,10 @@
   <dimension ref="A1:Y282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="U283" sqref="U283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -59057,7 +59057,7 @@
       </c>
       <c r="T195" s="210"/>
       <c r="U195" s="263" t="s">
-        <v>328</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="15" customHeight="1">
@@ -59159,8 +59159,8 @@
         <v>1667</v>
       </c>
       <c r="T197" s="210"/>
-      <c r="U197" s="212" t="s">
-        <v>328</v>
+      <c r="U197" s="263" t="s">
+        <v>2861</v>
       </c>
       <c r="W197" s="83"/>
     </row>
@@ -59266,7 +59266,7 @@
       </c>
       <c r="T199" s="210"/>
       <c r="U199" s="212" t="s">
-        <v>328</v>
+        <v>2861</v>
       </c>
       <c r="W199" s="83"/>
     </row>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="T200" s="210"/>
       <c r="U200" s="212" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="15" customHeight="1">
@@ -62574,6 +62574,7 @@
       <c r="K282" s="210"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y283">
     <sortCondition ref="I2:I283"/>
   </sortState>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7B905B-4B1F-C444-A47E-56A8349421F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C00D89-4FE4-7E46-8A78-B68AB7790312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$Y$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$X$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$T$67</definedName>
   </definedNames>
@@ -11820,9 +11820,6 @@
     <t>who_name</t>
   </si>
   <si>
-    <t>flux_selected</t>
-  </si>
-  <si>
     <t>Flux_criteria</t>
   </si>
   <si>
@@ -11911,6 +11908,9 @@
   </si>
   <si>
     <t>key_237_variable</t>
+  </si>
+  <si>
+    <t>Type_imp</t>
   </si>
 </sst>
 </file>
@@ -49249,13 +49249,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U283" sqref="U283"/>
+      <selection pane="bottomRight" activeCell="Y273" sqref="Y273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49269,7 +49270,8 @@
     <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="208" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
-    <col min="19" max="24" width="10.83203125" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="24" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1">
@@ -49280,31 +49282,31 @@
         <v>111</v>
       </c>
       <c r="C1" s="258" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="D1" s="257" t="s">
         <v>113</v>
       </c>
       <c r="E1" s="257" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="F1" s="257" t="s">
         <v>2873</v>
       </c>
       <c r="G1" s="200" t="s">
+        <v>3103</v>
+      </c>
+      <c r="H1" s="201" t="s">
+        <v>3130</v>
+      </c>
+      <c r="I1" s="200" t="s">
         <v>3104</v>
       </c>
-      <c r="H1" s="201" t="s">
-        <v>3131</v>
-      </c>
-      <c r="I1" s="200" t="s">
-        <v>3105</v>
-      </c>
       <c r="J1" s="257" t="s">
+        <v>3108</v>
+      </c>
+      <c r="K1" s="257" t="s">
         <v>3109</v>
-      </c>
-      <c r="K1" s="257" t="s">
-        <v>3110</v>
       </c>
       <c r="L1" s="257" t="s">
         <v>0</v>
@@ -49322,13 +49324,13 @@
         <v>118</v>
       </c>
       <c r="Q1" s="209" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="R1" s="257" t="s">
+        <v>3105</v>
+      </c>
+      <c r="S1" s="257" t="s">
         <v>3106</v>
-      </c>
-      <c r="S1" s="257" t="s">
-        <v>3107</v>
       </c>
       <c r="T1" s="257" t="s">
         <v>2814</v>
@@ -49345,11 +49347,11 @@
       <c r="X1" s="257" t="s">
         <v>2841</v>
       </c>
-      <c r="Y1" s="257" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1">
+      <c r="Y1" s="201" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49396,9 +49398,8 @@
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49440,7 +49441,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49482,7 +49483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49521,7 +49522,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49561,7 +49562,7 @@
       </c>
       <c r="U6" s="272"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49601,7 +49602,7 @@
       </c>
       <c r="S7" s="210"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49642,7 +49643,7 @@
       <c r="S8" s="210"/>
       <c r="U8" s="272"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49682,7 +49683,7 @@
       </c>
       <c r="S9" s="210"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49791,7 +49792,7 @@
         <v>55</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1">
@@ -49824,7 +49825,7 @@
         <v>120</v>
       </c>
       <c r="K12" s="177" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L12" s="177" t="s">
         <v>1155</v>
@@ -49851,6 +49852,9 @@
       <c r="U12" s="210" t="s">
         <v>322</v>
       </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1">
       <c r="A13" s="192" t="s">
@@ -49907,6 +49911,9 @@
       <c r="U13" s="263" t="s">
         <v>322</v>
       </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="177" t="s">
@@ -49963,8 +49970,11 @@
       <c r="U14" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1">
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -50042,7 +50052,7 @@
         <v>120</v>
       </c>
       <c r="K16" s="177" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L16" s="177" t="s">
         <v>1155</v>
@@ -50069,8 +50079,11 @@
       <c r="U16" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -50113,7 +50126,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
+    <row r="18" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -50156,7 +50169,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
+    <row r="19" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -50200,7 +50213,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
+    <row r="20" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -50298,8 +50311,11 @@
       <c r="U21" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
+      <c r="Y21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -50401,10 +50417,10 @@
         <v>2861</v>
       </c>
       <c r="Y23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -50452,7 +50468,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1">
+    <row r="25" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -50554,10 +50570,10 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="192" t="s">
         <v>365</v>
       </c>
@@ -50604,9 +50620,6 @@
       <c r="W27">
         <v>1</v>
       </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="1:25" ht="15" customHeight="1">
       <c r="A28" s="192" t="s">
@@ -50657,10 +50670,10 @@
         <v>2861</v>
       </c>
       <c r="Y28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -50703,7 +50716,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1">
+    <row r="30" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -50747,7 +50760,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1">
+    <row r="31" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -50791,7 +50804,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1">
+    <row r="32" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -50834,7 +50847,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15" customHeight="1">
+    <row r="33" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="192" t="s">
         <v>380</v>
       </c>
@@ -50876,7 +50889,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15" customHeight="1">
+    <row r="34" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="192" t="s">
         <v>382</v>
       </c>
@@ -50920,7 +50933,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" customHeight="1">
+    <row r="35" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="192" t="s">
         <v>385</v>
       </c>
@@ -51016,10 +51029,10 @@
         <v>2861</v>
       </c>
       <c r="Y36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -51067,7 +51080,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15" customHeight="1">
+    <row r="38" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="203" t="s">
         <v>400</v>
       </c>
@@ -51113,7 +51126,7 @@
       </c>
       <c r="U38" s="272"/>
     </row>
-    <row r="39" spans="1:25" ht="15" customHeight="1">
+    <row r="39" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="192" t="s">
         <v>403</v>
       </c>
@@ -51155,7 +51168,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15" customHeight="1">
+    <row r="40" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="192" t="s">
         <v>405</v>
       </c>
@@ -51197,7 +51210,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" customHeight="1">
+    <row r="41" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="192" t="s">
         <v>408</v>
       </c>
@@ -51235,7 +51248,7 @@
       </c>
       <c r="U41" s="272"/>
     </row>
-    <row r="42" spans="1:25" ht="15" customHeight="1">
+    <row r="42" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -51283,7 +51296,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" customHeight="1">
+    <row r="43" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="192" t="s">
         <v>416</v>
       </c>
@@ -51333,7 +51346,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15" customHeight="1">
+    <row r="44" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -51381,7 +51394,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" customHeight="1">
+    <row r="45" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -51429,7 +51442,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" customHeight="1">
+    <row r="46" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -51477,7 +51490,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" customHeight="1">
+    <row r="47" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="192" t="s">
         <v>454</v>
       </c>
@@ -51525,7 +51538,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" customHeight="1">
+    <row r="48" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="192" t="s">
         <v>457</v>
       </c>
@@ -51567,7 +51580,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" customHeight="1">
+    <row r="49" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2647</v>
       </c>
@@ -51620,7 +51633,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15" customHeight="1">
+    <row r="50" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="192" t="s">
         <v>465</v>
       </c>
@@ -51679,7 +51692,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" customHeight="1">
+    <row r="51" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -51738,7 +51751,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15" customHeight="1">
+    <row r="52" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="192" t="s">
         <v>469</v>
       </c>
@@ -51790,7 +51803,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" customHeight="1">
+    <row r="53" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="192" t="s">
         <v>472</v>
       </c>
@@ -51838,7 +51851,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" customHeight="1">
+    <row r="54" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="203" t="s">
         <v>474</v>
       </c>
@@ -51888,7 +51901,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" customHeight="1">
+    <row r="55" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="203" t="s">
         <v>478</v>
       </c>
@@ -51984,10 +51997,10 @@
         <v>2861</v>
       </c>
       <c r="Y56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -52043,7 +52056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="15" customHeight="1">
+    <row r="58" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -52091,7 +52104,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15" customHeight="1">
+    <row r="59" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="205" t="s">
         <v>490</v>
       </c>
@@ -52141,7 +52154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15" customHeight="1">
+    <row r="60" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="203" t="s">
         <v>493</v>
       </c>
@@ -52189,7 +52202,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15" customHeight="1">
+    <row r="61" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -52237,7 +52250,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15" customHeight="1">
+    <row r="62" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -52285,7 +52298,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="15" customHeight="1">
+    <row r="63" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="192" t="s">
         <v>526</v>
       </c>
@@ -52311,7 +52324,7 @@
         <v>2284</v>
       </c>
       <c r="K63" s="188" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L63" s="177" t="s">
         <v>1155</v>
@@ -52341,7 +52354,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="15" customHeight="1">
+    <row r="64" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="203" t="s">
         <v>530</v>
       </c>
@@ -52389,7 +52402,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" customHeight="1">
+    <row r="65" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="192" t="s">
         <v>533</v>
       </c>
@@ -52437,7 +52450,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="15" customHeight="1">
+    <row r="66" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="203" t="s">
         <v>535</v>
       </c>
@@ -52536,13 +52549,13 @@
         <v>2809</v>
       </c>
       <c r="U67" s="210" t="s">
-        <v>2862</v>
+        <v>322</v>
       </c>
       <c r="Y67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="203" t="s">
         <v>539</v>
       </c>
@@ -52590,7 +52603,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15" customHeight="1">
+    <row r="69" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="203" t="s">
         <v>542</v>
       </c>
@@ -52632,7 +52645,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15" customHeight="1">
+    <row r="70" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="203" t="s">
         <v>544</v>
       </c>
@@ -52680,7 +52693,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15" customHeight="1">
+    <row r="71" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="203" t="s">
         <v>546</v>
       </c>
@@ -52728,7 +52741,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="15" customHeight="1">
+    <row r="72" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="203" t="s">
         <v>548</v>
       </c>
@@ -52776,7 +52789,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15" customHeight="1">
+    <row r="73" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -52824,7 +52837,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" customHeight="1">
+    <row r="74" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -52872,7 +52885,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15" customHeight="1">
+    <row r="75" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="203" t="s">
         <v>554</v>
       </c>
@@ -52920,7 +52933,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15" customHeight="1">
+    <row r="76" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="203" t="s">
         <v>556</v>
       </c>
@@ -52968,7 +52981,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15" customHeight="1">
+    <row r="77" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="203" t="s">
         <v>558</v>
       </c>
@@ -53016,7 +53029,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15" customHeight="1">
+    <row r="78" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="203" t="s">
         <v>560</v>
       </c>
@@ -53122,7 +53135,7 @@
         <v>2861</v>
       </c>
       <c r="Y79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="15" customHeight="1">
@@ -53180,6 +53193,9 @@
       <c r="U80" s="210" t="s">
         <v>2861</v>
       </c>
+      <c r="Y80">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="1:25" ht="15" customHeight="1">
       <c r="A81" s="192" t="s">
@@ -53211,7 +53227,7 @@
         <v>120</v>
       </c>
       <c r="K81" s="188" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L81" s="177" t="s">
         <v>1155</v>
@@ -53238,6 +53254,9 @@
       <c r="U81" s="210" t="s">
         <v>322</v>
       </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:25" ht="15" customHeight="1">
       <c r="A82" s="177" t="s">
@@ -53297,10 +53316,10 @@
         <v>2861</v>
       </c>
       <c r="Y82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53348,7 +53367,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="15" customHeight="1">
+    <row r="84" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53389,11 +53408,8 @@
       <c r="U84" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="Y84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" ht="15" customHeight="1">
+    </row>
+    <row r="85" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53450,7 +53466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="15" customHeight="1">
+    <row r="86" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -53498,7 +53514,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="15" customHeight="1">
+    <row r="87" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -53549,7 +53565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="15" customHeight="1">
+    <row r="88" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -53657,10 +53673,10 @@
         <v>2861</v>
       </c>
       <c r="Y89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -53714,7 +53730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15" customHeight="1">
+    <row r="91" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -53758,7 +53774,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15" customHeight="1">
+    <row r="92" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -53872,10 +53888,10 @@
         <v>2861</v>
       </c>
       <c r="Y93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -53929,7 +53945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15" customHeight="1">
+    <row r="95" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -53985,7 +54001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="15" customHeight="1">
+    <row r="96" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -54065,7 +54081,7 @@
         <v>120</v>
       </c>
       <c r="K97" s="177" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="L97" s="177" t="s">
         <v>15</v>
@@ -54092,8 +54108,11 @@
       <c r="U97" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" ht="15" customHeight="1">
+      <c r="Y97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -54205,10 +54224,10 @@
         <v>2861</v>
       </c>
       <c r="Y99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54317,6 +54336,9 @@
       <c r="U101" s="212" t="s">
         <v>2861</v>
       </c>
+      <c r="Y101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:25" ht="15" customHeight="1">
       <c r="A102" s="177" t="s">
@@ -54348,7 +54370,7 @@
         <v>120</v>
       </c>
       <c r="K102" s="177" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L102" s="177" t="s">
         <v>15</v>
@@ -54375,6 +54397,9 @@
       <c r="U102" s="263" t="s">
         <v>2861</v>
       </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:25" ht="15" customHeight="1">
       <c r="A103" s="177" t="s">
@@ -54436,7 +54461,7 @@
         <v>2861</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15" customHeight="1">
@@ -54469,7 +54494,7 @@
         <v>120</v>
       </c>
       <c r="K104" s="177" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L104" s="177" t="s">
         <v>15</v>
@@ -54496,6 +54521,9 @@
       <c r="U104" s="263" t="s">
         <v>2861</v>
       </c>
+      <c r="Y104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:25" ht="15" customHeight="1">
       <c r="A105" s="177" t="s">
@@ -54527,7 +54555,7 @@
         <v>120</v>
       </c>
       <c r="K105" s="177" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="L105" s="177" t="s">
         <v>15</v>
@@ -54554,6 +54582,9 @@
       <c r="U105" s="263" t="s">
         <v>2861</v>
       </c>
+      <c r="Y105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:25" ht="15" customHeight="1">
       <c r="A106" s="177" t="s">
@@ -54585,7 +54616,7 @@
         <v>120</v>
       </c>
       <c r="K106" s="177" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L106" s="177" t="s">
         <v>15</v>
@@ -54612,6 +54643,9 @@
       <c r="U106" s="210" t="s">
         <v>2861</v>
       </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:25" ht="15" customHeight="1">
       <c r="A107" s="177" t="s">
@@ -54643,7 +54677,7 @@
         <v>120</v>
       </c>
       <c r="K107" s="177" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="L107" s="177" t="s">
         <v>15</v>
@@ -54670,8 +54704,11 @@
       <c r="U107" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" ht="15" customHeight="1">
+      <c r="Y107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -54719,7 +54756,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="15" customHeight="1">
+    <row r="109" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -54767,7 +54804,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15" customHeight="1">
+    <row r="110" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -54821,7 +54858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="15" customHeight="1">
+    <row r="111" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -54866,7 +54903,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="15" customHeight="1">
+    <row r="112" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -54978,10 +55015,10 @@
         <v>46</v>
       </c>
       <c r="Y113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -55031,7 +55068,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="15" customHeight="1">
+    <row r="115" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -55077,11 +55114,8 @@
       <c r="U115" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="Y115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" ht="15" customHeight="1">
+    </row>
+    <row r="116" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -55139,11 +55173,8 @@
       <c r="X116">
         <v>46</v>
       </c>
-      <c r="Y116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" ht="15" customHeight="1">
+    </row>
+    <row r="117" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -55190,7 +55221,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="15" customHeight="1">
+    <row r="118" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -55238,9 +55269,6 @@
       <c r="U118" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="Y118">
-        <v>1</v>
-      </c>
     </row>
     <row r="119" spans="1:25" ht="15" customHeight="1">
       <c r="A119" s="193" t="s">
@@ -55272,7 +55300,7 @@
         <v>120</v>
       </c>
       <c r="K119" s="177" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L119" s="177" t="s">
         <v>20</v>
@@ -55310,8 +55338,11 @@
       <c r="X119">
         <v>100000</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" ht="15" customHeight="1">
+      <c r="Y119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -55412,10 +55443,10 @@
         <v>322</v>
       </c>
       <c r="Y121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -55473,11 +55504,8 @@
       <c r="X122">
         <v>46</v>
       </c>
-      <c r="Y122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" ht="15" customHeight="1">
+    </row>
+    <row r="123" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -55523,11 +55551,8 @@
       <c r="U123" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="Y123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" ht="15" customHeight="1">
+    </row>
+    <row r="124" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -55574,7 +55599,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15" customHeight="1">
+    <row r="125" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -55674,7 +55699,7 @@
         <v>322</v>
       </c>
       <c r="Y126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:25" ht="15" customHeight="1">
@@ -55729,6 +55754,9 @@
       <c r="U127" s="212" t="s">
         <v>322</v>
       </c>
+      <c r="Y127">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:25" ht="15" customHeight="1">
       <c r="A128" s="193" t="s">
@@ -55783,10 +55811,10 @@
         <v>322</v>
       </c>
       <c r="Y128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -55840,7 +55868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15" customHeight="1">
+    <row r="130" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -55888,7 +55916,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15" customHeight="1">
+    <row r="131" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -55941,7 +55969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15" customHeight="1">
+    <row r="132" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -55994,7 +56022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15" customHeight="1">
+    <row r="133" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -56041,7 +56069,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15" customHeight="1">
+    <row r="134" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -56097,7 +56125,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15" customHeight="1">
+    <row r="135" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -56150,7 +56178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15" customHeight="1">
+    <row r="136" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -56203,7 +56231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15" customHeight="1">
+    <row r="137" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -56253,7 +56281,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15" customHeight="1">
+    <row r="138" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -56333,7 +56361,7 @@
         <v>120</v>
       </c>
       <c r="K139" s="177" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="L139" s="177" t="s">
         <v>20</v>
@@ -56369,8 +56397,11 @@
       <c r="X139">
         <v>46</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" ht="15" customHeight="1">
+      <c r="Y139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -56447,7 +56478,7 @@
         <v>120</v>
       </c>
       <c r="K141" s="177" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L141" s="177" t="s">
         <v>20</v>
@@ -56480,10 +56511,10 @@
         <v>2861</v>
       </c>
       <c r="Y141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -56529,7 +56560,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15" customHeight="1">
+    <row r="143" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -56577,7 +56608,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15" customHeight="1">
+    <row r="144" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -56621,7 +56652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15" customHeight="1">
+    <row r="145" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="193" t="s">
         <v>934</v>
       </c>
@@ -56674,7 +56705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15" customHeight="1">
+    <row r="146" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="193" t="s">
         <v>938</v>
       </c>
@@ -56719,7 +56750,7 @@
       </c>
       <c r="U146" s="83"/>
     </row>
-    <row r="147" spans="1:25" ht="15" customHeight="1">
+    <row r="147" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="193" t="s">
         <v>941</v>
       </c>
@@ -56772,7 +56803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15" customHeight="1">
+    <row r="148" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="193" t="s">
         <v>945</v>
       </c>
@@ -56817,7 +56848,7 @@
       </c>
       <c r="U148" s="83"/>
     </row>
-    <row r="149" spans="1:25" ht="15" customHeight="1">
+    <row r="149" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="193" t="s">
         <v>947</v>
       </c>
@@ -56870,7 +56901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15" customHeight="1">
+    <row r="150" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="193" t="s">
         <v>949</v>
       </c>
@@ -56923,7 +56954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15" customHeight="1">
+    <row r="151" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="193" t="s">
         <v>960</v>
       </c>
@@ -56971,7 +57002,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15" customHeight="1">
+    <row r="152" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="193" t="s">
         <v>966</v>
       </c>
@@ -57016,7 +57047,7 @@
       </c>
       <c r="U152" s="272"/>
     </row>
-    <row r="153" spans="1:25" ht="15" customHeight="1">
+    <row r="153" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="193" t="s">
         <v>969</v>
       </c>
@@ -57069,7 +57100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="15" customHeight="1">
+    <row r="154" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="193" t="s">
         <v>973</v>
       </c>
@@ -57114,7 +57145,7 @@
       </c>
       <c r="U154" s="83"/>
     </row>
-    <row r="155" spans="1:25" ht="15" customHeight="1">
+    <row r="155" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="193" t="s">
         <v>976</v>
       </c>
@@ -57167,7 +57198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="15" customHeight="1">
+    <row r="156" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="193" t="s">
         <v>980</v>
       </c>
@@ -57213,7 +57244,7 @@
       </c>
       <c r="U156" s="83"/>
     </row>
-    <row r="157" spans="1:25" ht="15" customHeight="1">
+    <row r="157" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="193" t="s">
         <v>983</v>
       </c>
@@ -57266,7 +57297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="15" customHeight="1">
+    <row r="158" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="199" t="s">
         <v>1663</v>
       </c>
@@ -57306,7 +57337,7 @@
       </c>
       <c r="U158" s="83"/>
     </row>
-    <row r="159" spans="1:25" ht="15" customHeight="1">
+    <row r="159" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="199" t="s">
         <v>1660</v>
       </c>
@@ -57368,7 +57399,7 @@
       <c r="F160" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="G160" s="177" t="s">
+      <c r="G160" s="247" t="s">
         <v>120</v>
       </c>
       <c r="H160" s="177">
@@ -57395,11 +57426,14 @@
       <c r="Q160" s="208">
         <v>7.3189907797870104</v>
       </c>
+      <c r="U160" s="248" t="s">
+        <v>2861</v>
+      </c>
       <c r="Y160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="15" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -57427,7 +57461,7 @@
         <v>120</v>
       </c>
       <c r="K161" s="176" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L161" s="176" t="s">
         <v>1160</v>
@@ -57457,8 +57491,11 @@
       <c r="U161" s="271" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" ht="15" customHeight="1">
+      <c r="Y161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="15" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -57486,7 +57523,7 @@
         <v>120</v>
       </c>
       <c r="K162" s="176" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L162" s="176" t="s">
         <v>1160</v>
@@ -57518,8 +57555,11 @@
       <c r="U162" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" ht="15" customHeight="1">
+      <c r="Y162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -57563,7 +57603,7 @@
       </c>
       <c r="U163" s="83"/>
     </row>
-    <row r="164" spans="1:24" ht="15" customHeight="1">
+    <row r="164" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -57618,7 +57658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="15" customHeight="1">
+    <row r="165" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -57656,7 +57696,7 @@
       </c>
       <c r="U165" s="83"/>
     </row>
-    <row r="166" spans="1:24" ht="15" customHeight="1">
+    <row r="166" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -57694,7 +57734,7 @@
       </c>
       <c r="U166" s="272"/>
     </row>
-    <row r="167" spans="1:24" ht="15" customHeight="1">
+    <row r="167" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -57733,7 +57773,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="15" customHeight="1">
+    <row r="168" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -57771,7 +57811,7 @@
       </c>
       <c r="U168" s="272"/>
     </row>
-    <row r="169" spans="1:24" ht="15" customHeight="1">
+    <row r="169" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -57809,7 +57849,7 @@
       </c>
       <c r="U169" s="272"/>
     </row>
-    <row r="170" spans="1:24" ht="15" customHeight="1">
+    <row r="170" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -57847,7 +57887,7 @@
       </c>
       <c r="U170" s="272"/>
     </row>
-    <row r="171" spans="1:24" ht="15" customHeight="1">
+    <row r="171" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -57890,7 +57930,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="15" customHeight="1">
+    <row r="172" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -57936,7 +57976,7 @@
       </c>
       <c r="U172" s="210"/>
     </row>
-    <row r="173" spans="1:24" ht="15" customHeight="1">
+    <row r="173" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -57985,7 +58025,7 @@
       </c>
       <c r="U173" s="210"/>
     </row>
-    <row r="174" spans="1:24" ht="15" customHeight="1">
+    <row r="174" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -58031,7 +58071,7 @@
       </c>
       <c r="U174" s="263"/>
     </row>
-    <row r="175" spans="1:24" ht="15" customHeight="1">
+    <row r="175" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="207" t="s">
         <v>1508</v>
       </c>
@@ -58080,7 +58120,7 @@
       </c>
       <c r="U175" s="210"/>
     </row>
-    <row r="176" spans="1:24" ht="15" customHeight="1">
+    <row r="176" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -58129,7 +58169,7 @@
       </c>
       <c r="U176" s="210"/>
     </row>
-    <row r="177" spans="1:23" ht="15" customHeight="1">
+    <row r="177" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -58179,7 +58219,7 @@
       <c r="U177" s="263"/>
       <c r="W177" s="272"/>
     </row>
-    <row r="178" spans="1:23" ht="15" customHeight="1">
+    <row r="178" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -58228,7 +58268,7 @@
       </c>
       <c r="U178" s="210"/>
     </row>
-    <row r="179" spans="1:23" ht="15" customHeight="1">
+    <row r="179" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -58277,7 +58317,7 @@
       </c>
       <c r="U179" s="210"/>
     </row>
-    <row r="180" spans="1:23" ht="15" customHeight="1">
+    <row r="180" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -58326,7 +58366,7 @@
       </c>
       <c r="U180" s="263"/>
     </row>
-    <row r="181" spans="1:23" ht="15" customHeight="1">
+    <row r="181" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -58375,7 +58415,7 @@
       </c>
       <c r="U181" s="210"/>
     </row>
-    <row r="182" spans="1:23" ht="15" customHeight="1">
+    <row r="182" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -58424,7 +58464,7 @@
       </c>
       <c r="U182" s="263"/>
     </row>
-    <row r="183" spans="1:23" ht="15" customHeight="1">
+    <row r="183" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -58470,7 +58510,7 @@
       </c>
       <c r="U183" s="210"/>
     </row>
-    <row r="184" spans="1:23" ht="15" customHeight="1">
+    <row r="184" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -58519,7 +58559,7 @@
       </c>
       <c r="U184" s="210"/>
     </row>
-    <row r="185" spans="1:23" ht="15" customHeight="1">
+    <row r="185" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -58568,7 +58608,7 @@
       </c>
       <c r="U185" s="210"/>
     </row>
-    <row r="186" spans="1:23" ht="15" customHeight="1">
+    <row r="186" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -58617,7 +58657,7 @@
       </c>
       <c r="U186" s="210"/>
     </row>
-    <row r="187" spans="1:23" ht="15" customHeight="1">
+    <row r="187" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -58666,7 +58706,7 @@
       </c>
       <c r="U187" s="210"/>
     </row>
-    <row r="188" spans="1:23" ht="15" customHeight="1">
+    <row r="188" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -58715,7 +58755,7 @@
       </c>
       <c r="U188" s="210"/>
     </row>
-    <row r="189" spans="1:23" ht="15" customHeight="1">
+    <row r="189" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -58764,7 +58804,7 @@
       </c>
       <c r="U189" s="210"/>
     </row>
-    <row r="190" spans="1:23" ht="15" customHeight="1">
+    <row r="190" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -58813,7 +58853,7 @@
       </c>
       <c r="U190" s="210"/>
     </row>
-    <row r="191" spans="1:23" ht="15" customHeight="1">
+    <row r="191" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -58862,7 +58902,7 @@
       </c>
       <c r="U191" s="210"/>
     </row>
-    <row r="192" spans="1:23" ht="15" customHeight="1">
+    <row r="192" spans="1:25" ht="15" customHeight="1">
       <c r="A192" s="197" t="s">
         <v>1191</v>
       </c>
@@ -58877,7 +58917,7 @@
       <c r="F192" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="G192" s="177" t="s">
+      <c r="G192" s="247" t="s">
         <v>120</v>
       </c>
       <c r="H192" s="177">
@@ -58890,7 +58930,7 @@
         <v>120</v>
       </c>
       <c r="K192" s="176" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L192" s="176" t="s">
         <v>1160</v>
@@ -58920,8 +58960,11 @@
       <c r="U192" s="271" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" ht="15" customHeight="1">
+      <c r="Y192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="197" t="s">
         <v>1189</v>
       </c>
@@ -58972,7 +59015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="15" customHeight="1">
+    <row r="194" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -59013,7 +59056,7 @@
       <c r="U194" s="212"/>
       <c r="W194" s="83"/>
     </row>
-    <row r="195" spans="1:24" ht="15" customHeight="1">
+    <row r="195" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="197" t="s">
         <v>1183</v>
       </c>
@@ -59060,7 +59103,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="15" customHeight="1">
+    <row r="196" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -59116,7 +59159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="15" customHeight="1">
+    <row r="197" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="197" t="s">
         <v>1178</v>
       </c>
@@ -59164,7 +59207,7 @@
       </c>
       <c r="W197" s="83"/>
     </row>
-    <row r="198" spans="1:24" ht="15" customHeight="1">
+    <row r="198" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -59220,7 +59263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="15" customHeight="1">
+    <row r="199" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="199" t="s">
         <v>1174</v>
       </c>
@@ -59270,7 +59313,7 @@
       </c>
       <c r="W199" s="83"/>
     </row>
-    <row r="200" spans="1:24" ht="15" customHeight="1">
+    <row r="200" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="199" t="s">
         <v>1171</v>
       </c>
@@ -59319,7 +59362,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="15" customHeight="1">
+    <row r="201" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -59375,7 +59418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="15" customHeight="1">
+    <row r="202" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="199" t="s">
         <v>1666</v>
       </c>
@@ -59464,7 +59507,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="15" customHeight="1">
+    <row r="204" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -59505,7 +59548,7 @@
       <c r="T204" s="210"/>
       <c r="U204" s="263"/>
     </row>
-    <row r="205" spans="1:24" ht="15" customHeight="1">
+    <row r="205" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -59546,7 +59589,7 @@
       <c r="T205" s="210"/>
       <c r="U205" s="263"/>
     </row>
-    <row r="206" spans="1:24" ht="15" customHeight="1">
+    <row r="206" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -59587,7 +59630,7 @@
       <c r="T206" s="210"/>
       <c r="U206" s="210"/>
     </row>
-    <row r="207" spans="1:24" ht="15" customHeight="1">
+    <row r="207" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -59629,7 +59672,7 @@
       <c r="T207" s="210"/>
       <c r="U207" s="210"/>
     </row>
-    <row r="208" spans="1:24" ht="15" customHeight="1">
+    <row r="208" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -59671,7 +59714,7 @@
       <c r="T208" s="210"/>
       <c r="U208" s="263"/>
     </row>
-    <row r="209" spans="1:24" ht="15" customHeight="1">
+    <row r="209" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -59712,7 +59755,7 @@
       <c r="T209" s="210"/>
       <c r="U209" s="263"/>
     </row>
-    <row r="210" spans="1:24" ht="15" customHeight="1">
+    <row r="210" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -59753,7 +59796,7 @@
       <c r="T210" s="210"/>
       <c r="U210" s="263"/>
     </row>
-    <row r="211" spans="1:24" ht="15" customHeight="1">
+    <row r="211" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="199" t="s">
         <v>1683</v>
       </c>
@@ -59792,7 +59835,7 @@
       <c r="T211" s="210"/>
       <c r="U211" s="210"/>
     </row>
-    <row r="212" spans="1:24" ht="15" customHeight="1">
+    <row r="212" spans="1:25" ht="15" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -59857,8 +59900,11 @@
       <c r="X212">
         <v>46</v>
       </c>
-    </row>
-    <row r="213" spans="1:24" ht="15" customHeight="1">
+      <c r="Y212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -59899,7 +59945,7 @@
       <c r="T213" s="210"/>
       <c r="U213" s="212"/>
     </row>
-    <row r="214" spans="1:24" ht="15" customHeight="1">
+    <row r="214" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="199" t="s">
         <v>1697</v>
       </c>
@@ -59938,7 +59984,7 @@
       <c r="T214" s="210"/>
       <c r="U214" s="210"/>
     </row>
-    <row r="215" spans="1:24" ht="15" customHeight="1">
+    <row r="215" spans="1:25" ht="15" customHeight="1">
       <c r="A215" s="199" t="s">
         <v>1716</v>
       </c>
@@ -60003,8 +60049,11 @@
       <c r="X215">
         <v>6000</v>
       </c>
-    </row>
-    <row r="216" spans="1:24" ht="15" customHeight="1">
+      <c r="Y215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="199" t="s">
         <v>1719</v>
       </c>
@@ -60056,7 +60105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="15" customHeight="1">
+    <row r="217" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A217" s="199" t="s">
         <v>1731</v>
       </c>
@@ -60080,7 +60129,7 @@
         <v>120</v>
       </c>
       <c r="K217" s="176" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L217" s="176" t="s">
         <v>1664</v>
@@ -60109,7 +60158,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="15" customHeight="1">
+    <row r="218" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="199" t="s">
         <v>1734</v>
       </c>
@@ -60158,7 +60207,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="15" customHeight="1">
+    <row r="219" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="199" t="s">
         <v>1736</v>
       </c>
@@ -60182,7 +60231,7 @@
         <v>2284</v>
       </c>
       <c r="K219" s="176" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="L219" s="176" t="s">
         <v>1664</v>
@@ -60215,7 +60264,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="15" customHeight="1">
+    <row r="220" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="199" t="s">
         <v>1743</v>
       </c>
@@ -60260,7 +60309,7 @@
       <c r="T220" s="210"/>
       <c r="U220" s="212"/>
     </row>
-    <row r="221" spans="1:24" ht="15" customHeight="1">
+    <row r="221" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="199" t="s">
         <v>1750</v>
       </c>
@@ -60305,7 +60354,7 @@
       <c r="T221" s="210"/>
       <c r="U221" s="263"/>
     </row>
-    <row r="222" spans="1:24" ht="15" customHeight="1">
+    <row r="222" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="199" t="s">
         <v>1755</v>
       </c>
@@ -60350,7 +60399,7 @@
       <c r="T222" s="210"/>
       <c r="U222" s="210"/>
     </row>
-    <row r="223" spans="1:24" ht="15" customHeight="1">
+    <row r="223" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="199" t="s">
         <v>1759</v>
       </c>
@@ -60395,7 +60444,7 @@
       <c r="T223" s="210"/>
       <c r="U223" s="210"/>
     </row>
-    <row r="224" spans="1:24" ht="15" customHeight="1">
+    <row r="224" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="199" t="s">
         <v>1763</v>
       </c>
@@ -60440,7 +60489,7 @@
       <c r="T224" s="210"/>
       <c r="U224" s="263"/>
     </row>
-    <row r="225" spans="1:25" ht="15" customHeight="1">
+    <row r="225" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -60550,10 +60599,10 @@
         <v>2865</v>
       </c>
       <c r="Y226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:25" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -60612,7 +60661,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="15" customHeight="1">
+    <row r="228" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -60697,7 +60746,7 @@
         <v>120</v>
       </c>
       <c r="K229" s="176" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L229" s="176" t="s">
         <v>1664</v>
@@ -60725,8 +60774,11 @@
       <c r="U229" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="230" spans="1:25" ht="15" customHeight="1">
+      <c r="Y229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -60773,7 +60825,7 @@
       <c r="T230" s="210"/>
       <c r="U230" s="212"/>
     </row>
-    <row r="231" spans="1:25" ht="15" customHeight="1">
+    <row r="231" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -60818,7 +60870,7 @@
       <c r="T231" s="210"/>
       <c r="U231" s="210"/>
     </row>
-    <row r="232" spans="1:25" ht="15" customHeight="1">
+    <row r="232" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -60856,7 +60908,7 @@
       </c>
       <c r="U232" s="272"/>
     </row>
-    <row r="233" spans="1:25" ht="15" customHeight="1">
+    <row r="233" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -60894,7 +60946,7 @@
       </c>
       <c r="U233" s="272"/>
     </row>
-    <row r="234" spans="1:25" ht="15" customHeight="1">
+    <row r="234" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -60934,7 +60986,7 @@
       </c>
       <c r="U234" s="272"/>
     </row>
-    <row r="235" spans="1:25" ht="15" customHeight="1">
+    <row r="235" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="259" t="s">
         <v>2605</v>
       </c>
@@ -60958,7 +61010,7 @@
         <v>2284</v>
       </c>
       <c r="K235" s="274" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="L235" s="265" t="s">
         <v>2853</v>
@@ -60970,7 +61022,7 @@
       <c r="O235" s="254"/>
       <c r="P235" s="254"/>
     </row>
-    <row r="236" spans="1:25" ht="15" customHeight="1">
+    <row r="236" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="256" t="s">
         <v>2870</v>
       </c>
@@ -60978,13 +61030,9 @@
       <c r="C236" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D236" s="263" t="s">
-        <v>121</v>
-      </c>
+      <c r="D236" s="263"/>
       <c r="E236" s="263"/>
-      <c r="F236" s="272" t="s">
-        <v>120</v>
-      </c>
+      <c r="F236" s="272"/>
       <c r="G236" s="177"/>
       <c r="H236" s="223"/>
       <c r="I236" s="177">
@@ -61008,7 +61056,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="15" customHeight="1">
+    <row r="237" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A237" s="221" t="s">
         <v>2886</v>
       </c>
@@ -61032,7 +61080,7 @@
         <v>2284</v>
       </c>
       <c r="K237" s="255" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="L237" s="272"/>
       <c r="M237" s="272"/>
@@ -61097,8 +61145,11 @@
       <c r="U238" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" ht="15" customHeight="1">
+      <c r="Y238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2881</v>
       </c>
@@ -61122,7 +61173,7 @@
         <v>120</v>
       </c>
       <c r="K239" s="272" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L239" s="272"/>
       <c r="M239" s="272"/>
@@ -61138,7 +61189,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="15" customHeight="1">
+    <row r="240" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A240" s="221" t="s">
         <v>2882</v>
       </c>
@@ -61162,7 +61213,7 @@
         <v>120</v>
       </c>
       <c r="K240" s="272" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L240" s="272"/>
       <c r="M240" s="272"/>
@@ -61184,7 +61235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="15" customHeight="1">
+    <row r="241" spans="1:25" ht="15" customHeight="1">
       <c r="A241" s="221" t="s">
         <v>2888</v>
       </c>
@@ -61233,8 +61284,11 @@
       <c r="X241">
         <v>46</v>
       </c>
-    </row>
-    <row r="242" spans="1:24" ht="15" customHeight="1">
+      <c r="Y241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2889</v>
       </c>
@@ -61258,7 +61312,7 @@
         <v>2284</v>
       </c>
       <c r="K242" s="272" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="L242" s="272"/>
       <c r="M242" s="272"/>
@@ -61274,7 +61328,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="15" customHeight="1">
+    <row r="243" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A243" s="221" t="s">
         <v>2890</v>
       </c>
@@ -61296,7 +61350,7 @@
         <v>2284</v>
       </c>
       <c r="K243" s="263" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="L243" s="272"/>
       <c r="M243" s="272"/>
@@ -61312,7 +61366,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="15" customHeight="1">
+    <row r="244" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A244" s="221" t="s">
         <v>2891</v>
       </c>
@@ -61348,7 +61402,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="15" customHeight="1">
+    <row r="245" spans="1:25" ht="15" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2884</v>
       </c>
@@ -61376,7 +61430,7 @@
         <v>2284</v>
       </c>
       <c r="K245" s="263" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="L245" s="272"/>
       <c r="M245" s="272"/>
@@ -61391,8 +61445,11 @@
       <c r="U245" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="246" spans="1:24" ht="15" customHeight="1">
+      <c r="Y245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A246" s="221" t="s">
         <v>2892</v>
       </c>
@@ -61414,12 +61471,12 @@
         <v>2284</v>
       </c>
       <c r="K246" s="212" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L246" s="272"/>
       <c r="M246" s="272"/>
       <c r="N246" s="263" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="O246" s="272"/>
       <c r="P246" s="272"/>
@@ -61437,7 +61494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="15" customHeight="1">
+    <row r="247" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A247" s="221" t="s">
         <v>2885</v>
       </c>
@@ -61473,7 +61530,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="15" customHeight="1">
+    <row r="248" spans="1:25" ht="15" customHeight="1">
       <c r="A248" s="221" t="s">
         <v>2900</v>
       </c>
@@ -61514,8 +61571,11 @@
       <c r="U248" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="249" spans="1:24" ht="15" customHeight="1">
+      <c r="Y248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" ht="15" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2874</v>
       </c>
@@ -61543,7 +61603,7 @@
         <v>120</v>
       </c>
       <c r="K249" s="272" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L249" s="272"/>
       <c r="M249" s="272"/>
@@ -61559,8 +61619,11 @@
       <c r="U249" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="250" spans="1:24" ht="15" customHeight="1">
+      <c r="Y249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="221" t="s">
         <v>2901</v>
       </c>
@@ -61582,7 +61645,7 @@
         <v>120</v>
       </c>
       <c r="K250" s="272" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L250" s="272"/>
       <c r="M250" s="272"/>
@@ -61599,7 +61662,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="15" customHeight="1">
+    <row r="251" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="221" t="s">
         <v>2902</v>
       </c>
@@ -61621,7 +61684,7 @@
         <v>120</v>
       </c>
       <c r="K251" s="272" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L251" s="272"/>
       <c r="M251" s="272"/>
@@ -61638,7 +61701,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="15" customHeight="1">
+    <row r="252" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="221" t="s">
         <v>2903</v>
       </c>
@@ -61660,12 +61723,12 @@
         <v>120</v>
       </c>
       <c r="K252" s="272" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L252" s="272"/>
       <c r="M252" s="272"/>
       <c r="N252" s="272" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="O252" s="272"/>
       <c r="P252" s="272"/>
@@ -61677,7 +61740,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="15" customHeight="1">
+    <row r="253" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="221" t="s">
         <v>2904</v>
       </c>
@@ -61699,7 +61762,7 @@
         <v>120</v>
       </c>
       <c r="K253" s="272" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L253" s="272"/>
       <c r="M253" s="272"/>
@@ -61715,7 +61778,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="15" customHeight="1">
+    <row r="254" spans="1:25" ht="15" customHeight="1">
       <c r="A254" s="221" t="s">
         <v>2905</v>
       </c>
@@ -61743,12 +61806,12 @@
         <v>120</v>
       </c>
       <c r="K254" s="272" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L254" s="272"/>
       <c r="M254" s="272"/>
       <c r="N254" s="272" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="O254" s="272"/>
       <c r="P254" s="272"/>
@@ -61759,8 +61822,11 @@
         <v>2861</v>
       </c>
       <c r="W254" s="272"/>
-    </row>
-    <row r="255" spans="1:24" ht="15" customHeight="1">
+      <c r="Y254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A255" s="221" t="s">
         <v>2906</v>
       </c>
@@ -61782,7 +61848,7 @@
         <v>120</v>
       </c>
       <c r="K255" s="272" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="L255" s="272"/>
       <c r="M255" s="272"/>
@@ -61798,7 +61864,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="15" customHeight="1">
+    <row r="256" spans="1:25" ht="15" customHeight="1">
       <c r="A256" s="221" t="s">
         <v>2893</v>
       </c>
@@ -61826,7 +61892,7 @@
         <v>120</v>
       </c>
       <c r="K256" s="263" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="L256" s="272"/>
       <c r="M256" s="272"/>
@@ -61841,8 +61907,11 @@
       <c r="U256" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="257" spans="1:24" ht="15" customHeight="1">
+      <c r="Y256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" ht="15" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2907</v>
       </c>
@@ -61870,7 +61939,7 @@
         <v>120</v>
       </c>
       <c r="K257" s="83" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L257" s="272"/>
       <c r="M257" s="272"/>
@@ -61885,8 +61954,11 @@
       <c r="U257" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="258" spans="1:24" ht="15" customHeight="1">
+      <c r="Y257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" ht="15" customHeight="1">
       <c r="A258" s="221" t="s">
         <v>2871</v>
       </c>
@@ -61916,7 +61988,7 @@
         <v>120</v>
       </c>
       <c r="K258" s="272" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L258" s="272"/>
       <c r="M258" s="272"/>
@@ -61931,8 +62003,11 @@
       <c r="U258" s="248" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="259" spans="1:24" ht="15" customHeight="1">
+      <c r="Y258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" ht="15" customHeight="1">
       <c r="A259" s="221" t="s">
         <v>2883</v>
       </c>
@@ -61962,7 +62037,7 @@
         <v>120</v>
       </c>
       <c r="K259" s="263" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L259" s="272"/>
       <c r="M259" s="272"/>
@@ -61977,8 +62052,11 @@
       <c r="U259" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="260" spans="1:24" ht="15" customHeight="1">
+      <c r="Y259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="223" t="s">
         <v>2894</v>
       </c>
@@ -62002,7 +62080,7 @@
         <v>2284</v>
       </c>
       <c r="K260" s="263" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="L260" s="272"/>
       <c r="M260" s="272"/>
@@ -62018,7 +62096,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="15" customHeight="1">
+    <row r="261" spans="1:25" ht="15" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2895</v>
       </c>
@@ -62061,8 +62139,11 @@
       <c r="U261" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="262" spans="1:24" ht="15" customHeight="1">
+      <c r="Y261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2896</v>
       </c>
@@ -62088,7 +62169,7 @@
         <v>2284</v>
       </c>
       <c r="K262" s="263" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="L262" s="272"/>
       <c r="M262" s="272"/>
@@ -62104,7 +62185,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="15" customHeight="1">
+    <row r="263" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2897</v>
       </c>
@@ -62130,7 +62211,7 @@
         <v>2284</v>
       </c>
       <c r="K263" s="212" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="L263" s="272"/>
       <c r="M263" s="272"/>
@@ -62146,7 +62227,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="15" customHeight="1">
+    <row r="264" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="221" t="s">
         <v>2898</v>
       </c>
@@ -62170,7 +62251,7 @@
         <v>2284</v>
       </c>
       <c r="K264" s="212" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="L264" s="272"/>
       <c r="M264" s="272"/>
@@ -62186,7 +62267,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="15" customHeight="1">
+    <row r="265" spans="1:25" ht="15" customHeight="1">
       <c r="A265" s="221" t="s">
         <v>2876</v>
       </c>
@@ -62227,8 +62308,11 @@
       <c r="U265" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="266" spans="1:24" ht="15" customHeight="1">
+      <c r="Y265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" ht="15" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2877</v>
       </c>
@@ -62269,8 +62353,11 @@
       <c r="U266" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="267" spans="1:24" ht="15" customHeight="1">
+      <c r="Y266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" ht="15" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2908</v>
       </c>
@@ -62298,7 +62385,7 @@
         <v>2284</v>
       </c>
       <c r="K267" s="263" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="L267" s="272"/>
       <c r="M267" s="272"/>
@@ -62311,8 +62398,11 @@
       <c r="U267" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="268" spans="1:24" ht="15" customHeight="1">
+      <c r="Y267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" ht="15" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2875</v>
       </c>
@@ -62340,7 +62430,7 @@
         <v>120</v>
       </c>
       <c r="K268" s="83" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L268" s="272"/>
       <c r="M268" s="272"/>
@@ -62355,8 +62445,11 @@
       <c r="U268" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="269" spans="1:24" ht="15" customHeight="1">
+      <c r="Y268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" ht="15" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2879</v>
       </c>
@@ -62383,10 +62476,10 @@
         <v>120</v>
       </c>
       <c r="K269" s="263" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="N269" s="210" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="Q269" s="208">
         <v>99.299599771297906</v>
@@ -62394,8 +62487,11 @@
       <c r="U269" s="248" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="270" spans="1:24" ht="15" customHeight="1">
+      <c r="Y269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" ht="15" customHeight="1">
       <c r="A270" s="221" t="s">
         <v>2878</v>
       </c>
@@ -62438,8 +62534,11 @@
       <c r="U270" s="248" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="271" spans="1:24" ht="15" customHeight="1">
+      <c r="Y270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" ht="15" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2819</v>
       </c>
@@ -62470,7 +62569,7 @@
       <c r="L271" s="272"/>
       <c r="M271" s="272"/>
       <c r="N271" s="263" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="O271" s="272"/>
       <c r="P271" s="272"/>
@@ -62486,8 +62585,11 @@
       <c r="X271">
         <v>50</v>
       </c>
-    </row>
-    <row r="272" spans="1:24" ht="15" customHeight="1">
+      <c r="Y271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A272" s="221" t="s">
         <v>2988</v>
       </c>
@@ -62514,9 +62616,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="15" customHeight="1">
+    <row r="273" spans="1:24" ht="15" customHeight="1">
       <c r="A273" s="250" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B273" s="272"/>
       <c r="C273" s="251" t="s">
@@ -62551,31 +62653,43 @@
       <c r="R273" s="272"/>
       <c r="S273" s="272"/>
       <c r="T273" s="272"/>
-      <c r="U273" s="272"/>
+      <c r="U273" s="248" t="s">
+        <v>2864</v>
+      </c>
       <c r="V273" s="272"/>
       <c r="W273" s="272"/>
       <c r="X273" s="272"/>
-      <c r="Y273" s="272"/>
-    </row>
-    <row r="277" spans="1:25" ht="15" customHeight="1">
+    </row>
+    <row r="274" spans="1:24" ht="15" hidden="1" customHeight="1"/>
+    <row r="275" spans="1:24" ht="15" hidden="1" customHeight="1"/>
+    <row r="276" spans="1:24" ht="15" hidden="1" customHeight="1"/>
+    <row r="277" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="J277" s="210"/>
       <c r="K277" s="210"/>
     </row>
-    <row r="279" spans="1:25" ht="15" customHeight="1">
+    <row r="278" spans="1:24" ht="15" hidden="1" customHeight="1"/>
+    <row r="279" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="J279" s="210"/>
       <c r="K279" s="210"/>
     </row>
-    <row r="281" spans="1:25" ht="15" customHeight="1">
+    <row r="280" spans="1:24" ht="15" hidden="1" customHeight="1"/>
+    <row r="281" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="J281" s="210"/>
       <c r="K281" s="210"/>
     </row>
-    <row r="282" spans="1:25" ht="15" customHeight="1">
+    <row r="282" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="J282" s="210"/>
       <c r="K282" s="210"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y283">
+  <autoFilter ref="A1:X282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X283">
     <sortCondition ref="I2:I283"/>
   </sortState>
   <conditionalFormatting sqref="D86:H89 D115:H118 D30:H36 D29 D38:H56 D37 D58:H67 D57 D69:H79 D68 D80 D84:H84 D83 D91:H93 D90 D94 D100 D104 D119 F119:H119 D123:H126 D122 D127:D129 D143:H158 D142 F29:H29 F37:H37 F57:H57 F68:H68 F80:H80 D81:H82 F83:H83 F90:H90 F94:H94 D95:H99 F100:H100 D101:H103 F104:H104 D105:H113 D120:H121 F122:H122 F127:H129 D130:H141 F142:H142 D3:I5 I6:I273 D6:H28">
@@ -62898,7 +63012,7 @@
         <v>3072</v>
       </c>
       <c r="H1" s="210" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C00D89-4FE4-7E46-8A78-B68AB7790312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6663F6-777E-704C-A979-4772FB06FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$X$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$T$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$R$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12889" uniqueCount="3133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12895" uniqueCount="3140">
   <si>
     <t>Tab</t>
   </si>
@@ -11912,6 +11912,27 @@
   <si>
     <t>Type_imp</t>
   </si>
+  <si>
+    <t>Mabel's notes</t>
+  </si>
+  <si>
+    <t>Only used immunoassays not PCR</t>
+  </si>
+  <si>
+    <t>Used immunoassays and PRNT but not PCR</t>
+  </si>
+  <si>
+    <t>Non applicable for PCR in pregnant women beacuase it is a cohort of only children But did PCR for children</t>
+  </si>
+  <si>
+    <t>Used immunoassays and symptoms of the mother but not PCR</t>
+  </si>
+  <si>
+    <t>Non applicable for PCR in pregnant women beacuase it is a Children's only cohort</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -11921,7 +11942,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="70">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -12352,8 +12373,20 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12446,24 +12479,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -12596,58 +12617,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -13261,70 +13230,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="16" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -13397,195 +13310,59 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -49205,27 +48982,27 @@
   </sheetData>
   <autoFilter ref="A1:M992" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="C2:D218">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:D252">
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C219))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:D321">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C253))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C322:D346">
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C322))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C347:C388">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C347))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49252,8 +49029,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Y273" sqref="Y273"/>
@@ -49275,22 +49052,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="233" t="s">
         <v>3101</v>
       </c>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="258" t="s">
+      <c r="C1" s="238" t="s">
         <v>3131</v>
       </c>
-      <c r="D1" s="257" t="s">
+      <c r="D1" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="257" t="s">
+      <c r="E1" s="237" t="s">
         <v>3102</v>
       </c>
-      <c r="F1" s="257" t="s">
+      <c r="F1" s="237" t="s">
         <v>2873</v>
       </c>
       <c r="G1" s="200" t="s">
@@ -49302,49 +49079,49 @@
       <c r="I1" s="200" t="s">
         <v>3104</v>
       </c>
-      <c r="J1" s="257" t="s">
+      <c r="J1" s="237" t="s">
         <v>3108</v>
       </c>
-      <c r="K1" s="257" t="s">
+      <c r="K1" s="237" t="s">
         <v>3109</v>
       </c>
-      <c r="L1" s="257" t="s">
+      <c r="L1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="257" t="s">
+      <c r="M1" s="237" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="257" t="s">
+      <c r="N1" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="257" t="s">
+      <c r="O1" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="257" t="s">
+      <c r="P1" s="237" t="s">
         <v>118</v>
       </c>
       <c r="Q1" s="209" t="s">
         <v>3124</v>
       </c>
-      <c r="R1" s="257" t="s">
+      <c r="R1" s="237" t="s">
         <v>3105</v>
       </c>
-      <c r="S1" s="257" t="s">
+      <c r="S1" s="237" t="s">
         <v>3106</v>
       </c>
-      <c r="T1" s="257" t="s">
+      <c r="T1" s="237" t="s">
         <v>2814</v>
       </c>
-      <c r="U1" s="257" t="s">
+      <c r="U1" s="237" t="s">
         <v>2863</v>
       </c>
-      <c r="V1" s="257" t="s">
+      <c r="V1" s="237" t="s">
         <v>2839</v>
       </c>
-      <c r="W1" s="257" t="s">
+      <c r="W1" s="237" t="s">
         <v>2840</v>
       </c>
-      <c r="X1" s="257" t="s">
+      <c r="X1" s="237" t="s">
         <v>2841</v>
       </c>
       <c r="Y1" s="201" t="s">
@@ -49385,7 +49162,7 @@
       <c r="O2" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="276"/>
+      <c r="P2" s="256"/>
       <c r="Q2" s="208">
         <v>0.31448788506897302</v>
       </c>
@@ -49560,7 +49337,7 @@
       <c r="Q6" s="208">
         <v>77.342577371167195</v>
       </c>
-      <c r="U6" s="272"/>
+      <c r="U6" s="252"/>
     </row>
     <row r="7" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
@@ -49641,7 +49418,7 @@
         <v>88.249589021513799</v>
       </c>
       <c r="S8" s="210"/>
-      <c r="U8" s="272"/>
+      <c r="U8" s="252"/>
     </row>
     <row r="9" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
@@ -49773,7 +49550,7 @@
       <c r="Q11" s="208">
         <v>39.608347627215601</v>
       </c>
-      <c r="R11" s="255" t="s">
+      <c r="R11" s="235" t="s">
         <v>2806</v>
       </c>
       <c r="S11" s="210" t="s">
@@ -49843,7 +49620,7 @@
       <c r="Q12" s="208">
         <v>80.717552887364207</v>
       </c>
-      <c r="R12" s="269" t="s">
+      <c r="R12" s="249" t="s">
         <v>2805</v>
       </c>
       <c r="S12" s="210" t="s">
@@ -49908,7 +49685,7 @@
       <c r="S13" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U13" s="263" t="s">
+      <c r="U13" s="243" t="s">
         <v>322</v>
       </c>
       <c r="Y13">
@@ -49961,7 +49738,7 @@
       <c r="Q14" s="208">
         <v>52.7015437392796</v>
       </c>
-      <c r="R14" s="263" t="s">
+      <c r="R14" s="243" t="s">
         <v>2807</v>
       </c>
       <c r="S14" s="210" t="s">
@@ -50122,7 +49899,7 @@
         <v>76.1203630905582</v>
       </c>
       <c r="S17" s="210"/>
-      <c r="U17" s="263" t="s">
+      <c r="U17" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -50207,7 +49984,7 @@
       <c r="Q19" s="208">
         <v>97.798584804517205</v>
       </c>
-      <c r="R19" s="272"/>
+      <c r="R19" s="252"/>
       <c r="S19" s="210"/>
       <c r="U19" s="210" t="s">
         <v>322</v>
@@ -50252,7 +50029,7 @@
         <v>99.942820384532894</v>
       </c>
       <c r="S20" s="210"/>
-      <c r="U20" s="263" t="s">
+      <c r="U20" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -50359,7 +50136,7 @@
       <c r="S22" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U22" s="263" t="s">
+      <c r="U22" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -50512,7 +50289,7 @@
       <c r="S25" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U25" s="263" t="s">
+      <c r="U25" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -50634,7 +50411,7 @@
       <c r="D28" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="247" t="s">
+      <c r="E28" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F28" s="177"/>
@@ -50712,7 +50489,7 @@
         <v>66.599957115288404</v>
       </c>
       <c r="S29" s="210"/>
-      <c r="U29" s="263" t="s">
+      <c r="U29" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -50800,7 +50577,7 @@
       </c>
       <c r="R31" s="210"/>
       <c r="S31" s="210"/>
-      <c r="U31" s="263" t="s">
+      <c r="U31" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -50843,7 +50620,7 @@
         <v>85.483525123293603</v>
       </c>
       <c r="S32" s="210"/>
-      <c r="U32" s="263" t="s">
+      <c r="U32" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -50929,7 +50706,7 @@
       <c r="Q34" s="208">
         <v>99.842756057465493</v>
       </c>
-      <c r="U34" s="263" t="s">
+      <c r="U34" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -50988,7 +50765,7 @@
       <c r="D36" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="247" t="s">
+      <c r="E36" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="177"/>
@@ -51076,7 +50853,7 @@
       <c r="S37" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U37" s="263" t="s">
+      <c r="U37" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -51124,7 +50901,7 @@
       <c r="S38" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U38" s="272"/>
+      <c r="U38" s="252"/>
     </row>
     <row r="39" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="192" t="s">
@@ -51246,7 +51023,7 @@
       <c r="Q41" s="208">
         <v>98.499035093988994</v>
       </c>
-      <c r="U41" s="272"/>
+      <c r="U41" s="252"/>
     </row>
     <row r="42" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="177" t="s">
@@ -51342,7 +51119,7 @@
       <c r="S43" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U43" s="263" t="s">
+      <c r="U43" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -51390,7 +51167,7 @@
       <c r="S44" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U44" s="263" t="s">
+      <c r="U44" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -51534,7 +51311,7 @@
       <c r="S47" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U47" s="263" t="s">
+      <c r="U47" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -51576,7 +51353,7 @@
       <c r="Q48" s="208">
         <v>100</v>
       </c>
-      <c r="U48" s="263" t="s">
+      <c r="U48" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -51620,7 +51397,7 @@
       <c r="Q49" s="208">
         <v>79.236649999999997</v>
       </c>
-      <c r="U49" s="263" t="s">
+      <c r="U49" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V49" t="s">
@@ -51679,7 +51456,7 @@
       <c r="S50" t="s">
         <v>2809</v>
       </c>
-      <c r="U50" s="263" t="s">
+      <c r="U50" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V50" t="s">
@@ -51732,10 +51509,10 @@
       <c r="Q51" s="208">
         <v>57.8157386891573</v>
       </c>
-      <c r="R51" s="255" t="s">
+      <c r="R51" s="235" t="s">
         <v>2819</v>
       </c>
-      <c r="S51" s="255" t="s">
+      <c r="S51" s="235" t="s">
         <v>2809</v>
       </c>
       <c r="U51" s="210" t="s">
@@ -51791,9 +51568,9 @@
       <c r="Q52" s="208">
         <v>98.7063112000572</v>
       </c>
-      <c r="R52" s="268"/>
-      <c r="S52" s="268"/>
-      <c r="U52" s="263" t="s">
+      <c r="R52" s="248"/>
+      <c r="S52" s="248"/>
+      <c r="U52" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V52" t="s">
@@ -51847,7 +51624,7 @@
       <c r="S53" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U53" s="263" t="s">
+      <c r="U53" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -51897,7 +51674,7 @@
       <c r="S54" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U54" s="263" t="s">
+      <c r="U54" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -51941,8 +51718,8 @@
       <c r="Q55" s="208">
         <v>94.246301193624504</v>
       </c>
-      <c r="R55" s="272"/>
-      <c r="U55" s="263" t="s">
+      <c r="R55" s="252"/>
+      <c r="U55" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -51959,7 +51736,7 @@
       <c r="D56" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="247" t="s">
+      <c r="E56" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="188"/>
@@ -52100,7 +51877,7 @@
       <c r="S58" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U58" s="263" t="s">
+      <c r="U58" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -52144,7 +51921,7 @@
       <c r="Q59" s="208">
         <v>100</v>
       </c>
-      <c r="U59" s="263" t="s">
+      <c r="U59" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V59" t="s">
@@ -52294,7 +52071,7 @@
       <c r="S62" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U62" s="263" t="s">
+      <c r="U62" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -52350,7 +52127,7 @@
       <c r="S63" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U63" s="263" t="s">
+      <c r="U63" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -52398,7 +52175,7 @@
       <c r="S64" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U64" s="263" t="s">
+      <c r="U64" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -52494,7 +52271,7 @@
       <c r="S66" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U66" s="263" t="s">
+      <c r="U66" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -52511,7 +52288,7 @@
       <c r="D67" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="247" t="s">
+      <c r="E67" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F67" s="188"/>
@@ -52599,7 +52376,7 @@
       <c r="S68" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U68" s="263" t="s">
+      <c r="U68" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -52641,7 +52418,7 @@
       <c r="Q69" s="208">
         <v>99.892788220999194</v>
       </c>
-      <c r="U69" s="263" t="s">
+      <c r="U69" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -52833,7 +52610,7 @@
       <c r="S73" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U73" s="263" t="s">
+      <c r="U73" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -52881,7 +52658,7 @@
       <c r="S74" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U74" s="263" t="s">
+      <c r="U74" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -52929,7 +52706,7 @@
       <c r="S75" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U75" s="263" t="s">
+      <c r="U75" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -52977,7 +52754,7 @@
       <c r="S76" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U76" s="263" t="s">
+      <c r="U76" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -53025,7 +52802,7 @@
       <c r="S77" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U77" s="263" t="s">
+      <c r="U77" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -53073,7 +52850,7 @@
       <c r="S78" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U78" s="263" t="s">
+      <c r="U78" s="243" t="s">
         <v>2862</v>
       </c>
     </row>
@@ -53090,7 +52867,7 @@
       <c r="D79" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="247" t="s">
+      <c r="E79" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F79" s="188" t="s">
@@ -53271,7 +53048,7 @@
       <c r="D82" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="247" t="s">
+      <c r="E82" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F82" s="177" t="s">
@@ -53347,7 +53124,7 @@
       <c r="M83" s="177" t="s">
         <v>701</v>
       </c>
-      <c r="N83" s="255" t="s">
+      <c r="N83" s="235" t="s">
         <v>705</v>
       </c>
       <c r="O83" s="191" t="s">
@@ -53363,7 +53140,7 @@
       <c r="S83" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U83" s="263" t="s">
+      <c r="U83" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -53453,7 +53230,7 @@
       <c r="S85" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U85" s="263" t="s">
+      <c r="U85" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V85" t="s">
@@ -53554,7 +53331,7 @@
       <c r="Q87" s="208">
         <v>75.691515974555102</v>
       </c>
-      <c r="R87" s="272"/>
+      <c r="R87" s="252"/>
       <c r="U87" s="212" t="s">
         <v>328</v>
       </c>
@@ -53628,7 +53405,7 @@
       <c r="D89" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E89" s="247" t="s">
+      <c r="E89" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F89" s="177" t="s">
@@ -53720,7 +53497,7 @@
       <c r="S90" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U90" s="263" t="s">
+      <c r="U90" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V90" t="s">
@@ -53814,7 +53591,7 @@
       <c r="Q92" s="208">
         <v>94.303480809091596</v>
       </c>
-      <c r="R92" s="263" t="s">
+      <c r="R92" s="243" t="s">
         <v>2838</v>
       </c>
       <c r="S92" s="210" t="s">
@@ -53843,7 +53620,7 @@
       <c r="D93" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E93" s="247" t="s">
+      <c r="E93" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F93" s="177" t="s">
@@ -53919,7 +53696,7 @@
       <c r="M94" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="N94" s="255" t="s">
+      <c r="N94" s="235" t="s">
         <v>745</v>
       </c>
       <c r="O94" s="176" t="s">
@@ -53935,7 +53712,7 @@
       <c r="S94" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U94" s="263" t="s">
+      <c r="U94" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V94" t="s">
@@ -54029,7 +53806,7 @@
       <c r="M96" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="N96" s="255" t="s">
+      <c r="N96" s="235" t="s">
         <v>749</v>
       </c>
       <c r="O96" s="176" t="s">
@@ -54156,7 +53933,7 @@
       <c r="S98" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U98" s="263" t="s">
+      <c r="U98" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V98" t="s">
@@ -54179,7 +53956,7 @@
       <c r="D99" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E99" s="247" t="s">
+      <c r="E99" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F99" s="177" t="s">
@@ -54271,7 +54048,7 @@
       <c r="S100" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U100" s="263" t="s">
+      <c r="U100" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V100" t="s">
@@ -54394,7 +54171,7 @@
       <c r="S102" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U102" s="263" t="s">
+      <c r="U102" s="243" t="s">
         <v>2861</v>
       </c>
       <c r="Y102">
@@ -54414,7 +54191,7 @@
       <c r="D103" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E103" s="247" t="s">
+      <c r="E103" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F103" s="177" t="s">
@@ -54518,7 +54295,7 @@
       <c r="S104" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U104" s="263" t="s">
+      <c r="U104" s="243" t="s">
         <v>2861</v>
       </c>
       <c r="Y104">
@@ -54579,7 +54356,7 @@
       <c r="S105" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U105" s="263" t="s">
+      <c r="U105" s="243" t="s">
         <v>2861</v>
       </c>
       <c r="Y105">
@@ -54752,7 +54529,7 @@
       <c r="S108" t="s">
         <v>124</v>
       </c>
-      <c r="U108" s="263" t="s">
+      <c r="U108" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -54963,7 +54740,7 @@
       <c r="D113" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E113" s="247" t="s">
+      <c r="E113" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F113" s="224"/>
@@ -55002,7 +54779,7 @@
       <c r="S113" t="s">
         <v>124</v>
       </c>
-      <c r="U113" s="263" t="s">
+      <c r="U113" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V113" t="s">
@@ -55161,7 +54938,7 @@
       <c r="S116" t="s">
         <v>124</v>
       </c>
-      <c r="U116" s="263" t="s">
+      <c r="U116" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V116" t="s">
@@ -55234,7 +55011,7 @@
       <c r="D118" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E118" s="247" t="s">
+      <c r="E118" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F118" s="177"/>
@@ -55320,7 +55097,7 @@
       <c r="Q119" s="208">
         <v>99.949971412235598</v>
       </c>
-      <c r="R119" s="267" t="s">
+      <c r="R119" s="247" t="s">
         <v>2835</v>
       </c>
       <c r="S119" t="s">
@@ -55382,11 +55159,11 @@
       <c r="Q120" s="208">
         <v>98.920734758058799</v>
       </c>
-      <c r="R120" s="268"/>
+      <c r="R120" s="248"/>
       <c r="S120" t="s">
         <v>124</v>
       </c>
-      <c r="U120" s="248" t="s">
+      <c r="U120" s="228" t="s">
         <v>328</v>
       </c>
     </row>
@@ -55403,7 +55180,7 @@
       <c r="D121" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E121" s="247" t="s">
+      <c r="E121" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F121" s="177"/>
@@ -55595,7 +55372,7 @@
       <c r="S124" t="s">
         <v>124</v>
       </c>
-      <c r="U124" s="263" t="s">
+      <c r="U124" s="243" t="s">
         <v>322</v>
       </c>
     </row>
@@ -55659,7 +55436,7 @@
       <c r="D126" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E126" s="247" t="s">
+      <c r="E126" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F126" s="177"/>
@@ -55715,7 +55492,7 @@
       <c r="D127" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E127" s="247" t="s">
+      <c r="E127" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F127" s="177"/>
@@ -55771,7 +55548,7 @@
       <c r="D128" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E128" s="247" t="s">
+      <c r="E128" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F128" s="177"/>
@@ -55854,7 +55631,7 @@
       <c r="Q129" s="208">
         <v>97.405474948180995</v>
       </c>
-      <c r="R129" s="272"/>
+      <c r="R129" s="252"/>
       <c r="S129" t="s">
         <v>124</v>
       </c>
@@ -55908,7 +55685,7 @@
       <c r="Q130" s="208">
         <v>92.9311700378815</v>
       </c>
-      <c r="R130" s="272"/>
+      <c r="R130" s="252"/>
       <c r="S130" t="s">
         <v>124</v>
       </c>
@@ -56112,7 +55889,7 @@
       <c r="S134" t="s">
         <v>124</v>
       </c>
-      <c r="U134" s="263" t="s">
+      <c r="U134" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V134" t="s">
@@ -56459,7 +56236,7 @@
       <c r="D141" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E141" s="247" t="s">
+      <c r="E141" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F141" s="177" t="s">
@@ -56498,7 +56275,7 @@
       <c r="Q141" s="208">
         <v>12.5571755288736</v>
       </c>
-      <c r="R141" s="255" t="s">
+      <c r="R141" s="235" t="s">
         <v>2802</v>
       </c>
       <c r="S141" t="s">
@@ -56552,7 +56329,7 @@
       <c r="Q142" s="208">
         <v>55.814452147809298</v>
       </c>
-      <c r="R142" s="268"/>
+      <c r="R142" s="248"/>
       <c r="S142" t="s">
         <v>124</v>
       </c>
@@ -56604,7 +56381,7 @@
       <c r="S143" t="s">
         <v>124</v>
       </c>
-      <c r="U143" s="263" t="s">
+      <c r="U143" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -56695,7 +56472,7 @@
       <c r="S145" t="s">
         <v>124</v>
       </c>
-      <c r="U145" s="263" t="s">
+      <c r="U145" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V145" t="s">
@@ -56793,7 +56570,7 @@
       <c r="S147" t="s">
         <v>124</v>
       </c>
-      <c r="U147" s="263" t="s">
+      <c r="U147" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V147" t="s">
@@ -56891,7 +56668,7 @@
       <c r="S149" t="s">
         <v>124</v>
       </c>
-      <c r="U149" s="263" t="s">
+      <c r="U149" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V149" t="s">
@@ -57045,7 +56822,7 @@
       <c r="S152" t="s">
         <v>124</v>
       </c>
-      <c r="U152" s="272"/>
+      <c r="U152" s="252"/>
     </row>
     <row r="153" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="193" t="s">
@@ -57090,7 +56867,7 @@
       <c r="S153" t="s">
         <v>124</v>
       </c>
-      <c r="U153" s="263" t="s">
+      <c r="U153" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V153" t="s">
@@ -57188,7 +56965,7 @@
       <c r="S155" t="s">
         <v>124</v>
       </c>
-      <c r="U155" s="263" t="s">
+      <c r="U155" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V155" t="s">
@@ -57238,7 +57015,7 @@
       <c r="Q156" s="208">
         <v>92.366521335144</v>
       </c>
-      <c r="R156" s="272"/>
+      <c r="R156" s="252"/>
       <c r="S156" t="s">
         <v>124</v>
       </c>
@@ -57287,7 +57064,7 @@
       <c r="S157" t="s">
         <v>124</v>
       </c>
-      <c r="U157" s="263" t="s">
+      <c r="U157" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V157" t="s">
@@ -57307,18 +57084,18 @@
       <c r="C158" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="D158" s="261" t="s">
+      <c r="D158" s="241" t="s">
         <v>121</v>
       </c>
-      <c r="E158" s="261"/>
-      <c r="F158" s="261"/>
-      <c r="G158" s="261"/>
-      <c r="H158" s="261"/>
+      <c r="E158" s="241"/>
+      <c r="F158" s="241"/>
+      <c r="G158" s="241"/>
+      <c r="H158" s="241"/>
       <c r="I158" s="177">
         <v>157</v>
       </c>
       <c r="J158" s="188"/>
-      <c r="K158" s="261"/>
+      <c r="K158" s="241"/>
       <c r="L158" s="176" t="s">
         <v>1160</v>
       </c>
@@ -57347,18 +57124,18 @@
       <c r="C159" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="D159" s="255" t="s">
+      <c r="D159" s="235" t="s">
         <v>121</v>
       </c>
-      <c r="E159" s="255"/>
-      <c r="F159" s="255"/>
-      <c r="G159" s="255"/>
-      <c r="H159" s="255"/>
+      <c r="E159" s="235"/>
+      <c r="F159" s="235"/>
+      <c r="G159" s="235"/>
+      <c r="H159" s="235"/>
       <c r="I159" s="177">
         <v>158</v>
       </c>
       <c r="J159" s="188"/>
-      <c r="K159" s="255"/>
+      <c r="K159" s="235"/>
       <c r="L159" s="176" t="s">
         <v>1160</v>
       </c>
@@ -57375,7 +57152,7 @@
       <c r="Q159" s="208">
         <v>13.4086198270317</v>
       </c>
-      <c r="R159" s="272"/>
+      <c r="R159" s="252"/>
       <c r="U159" s="210" t="s">
         <v>2864</v>
       </c>
@@ -57393,13 +57170,13 @@
       <c r="D160" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="E160" s="247" t="s">
+      <c r="E160" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F160" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="G160" s="247" t="s">
+      <c r="G160" s="227" t="s">
         <v>120</v>
       </c>
       <c r="H160" s="177">
@@ -57426,7 +57203,7 @@
       <c r="Q160" s="208">
         <v>7.3189907797870104</v>
       </c>
-      <c r="U160" s="248" t="s">
+      <c r="U160" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y160">
@@ -57488,7 +57265,7 @@
       <c r="T161" s="210" t="s">
         <v>2832</v>
       </c>
-      <c r="U161" s="271" t="s">
+      <c r="U161" s="251" t="s">
         <v>2861</v>
       </c>
       <c r="Y161">
@@ -57552,7 +57329,7 @@
       <c r="T162" s="210" t="s">
         <v>2827</v>
       </c>
-      <c r="U162" s="248" t="s">
+      <c r="U162" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y162">
@@ -57582,7 +57359,7 @@
       <c r="L163" s="176" t="s">
         <v>1160</v>
       </c>
-      <c r="M163" s="266" t="s">
+      <c r="M163" s="246" t="s">
         <v>1629</v>
       </c>
       <c r="N163" s="184" t="s">
@@ -57645,7 +57422,7 @@
       <c r="S164" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="U164" s="263" t="s">
+      <c r="U164" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V164" t="s">
@@ -57732,7 +57509,7 @@
       <c r="Q166" s="208">
         <v>99.635479951397301</v>
       </c>
-      <c r="U166" s="272"/>
+      <c r="U166" s="252"/>
     </row>
     <row r="167" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="199" t="s">
@@ -57809,7 +57586,7 @@
       <c r="Q168" s="208">
         <v>98.827817882924705</v>
       </c>
-      <c r="U168" s="272"/>
+      <c r="U168" s="252"/>
     </row>
     <row r="169" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="199" t="s">
@@ -57847,7 +57624,7 @@
       <c r="Q169" s="208">
         <v>99.849903509398899</v>
       </c>
-      <c r="U169" s="272"/>
+      <c r="U169" s="252"/>
     </row>
     <row r="170" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="199" t="s">
@@ -57885,7 +57662,7 @@
       <c r="Q170" s="208">
         <v>99.978557644199896</v>
       </c>
-      <c r="U170" s="272"/>
+      <c r="U170" s="252"/>
     </row>
     <row r="171" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="199" t="s">
@@ -57968,7 +57745,7 @@
       <c r="Q172" s="208">
         <v>93.560145808019499</v>
       </c>
-      <c r="R172" s="263" t="s">
+      <c r="R172" s="243" t="s">
         <v>2831</v>
       </c>
       <c r="T172" s="210" t="s">
@@ -58014,7 +57791,7 @@
       <c r="Q173" s="208">
         <v>98.413265670788405</v>
       </c>
-      <c r="R173" s="270" t="s">
+      <c r="R173" s="250" t="s">
         <v>2813</v>
       </c>
       <c r="S173" s="210" t="s">
@@ -58063,13 +57840,13 @@
       <c r="Q174" s="208">
         <v>91.208634121935503</v>
       </c>
-      <c r="R174" s="269" t="s">
+      <c r="R174" s="249" t="s">
         <v>2831</v>
       </c>
       <c r="T174" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U174" s="263"/>
+      <c r="U174" s="243"/>
     </row>
     <row r="175" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="207" t="s">
@@ -58109,7 +57886,7 @@
       <c r="Q175" s="208">
         <v>93.631620327353303</v>
       </c>
-      <c r="R175" s="270" t="s">
+      <c r="R175" s="250" t="s">
         <v>2825</v>
       </c>
       <c r="S175" s="210" t="s">
@@ -58216,8 +57993,8 @@
       <c r="T177" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U177" s="263"/>
-      <c r="W177" s="272"/>
+      <c r="U177" s="243"/>
+      <c r="W177" s="252"/>
     </row>
     <row r="178" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="207" t="s">
@@ -58364,7 +58141,7 @@
       <c r="T180" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U180" s="263"/>
+      <c r="U180" s="243"/>
     </row>
     <row r="181" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="207" t="s">
@@ -58462,7 +58239,7 @@
       <c r="T182" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U182" s="263"/>
+      <c r="U182" s="243"/>
     </row>
     <row r="183" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="199" t="s">
@@ -58548,7 +58325,7 @@
       <c r="Q184" s="208">
         <v>93.381459509684802</v>
       </c>
-      <c r="R184" s="270" t="s">
+      <c r="R184" s="250" t="s">
         <v>2825</v>
       </c>
       <c r="S184" s="210" t="s">
@@ -58917,7 +58694,7 @@
       <c r="F192" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="G192" s="247" t="s">
+      <c r="G192" s="227" t="s">
         <v>120</v>
       </c>
       <c r="H192" s="177">
@@ -58957,7 +58734,7 @@
       <c r="T192" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U192" s="271" t="s">
+      <c r="U192" s="251" t="s">
         <v>2861</v>
       </c>
       <c r="Y192">
@@ -59000,7 +58777,7 @@
       <c r="Q193" s="208">
         <v>97.741405189050099</v>
       </c>
-      <c r="R193" s="263"/>
+      <c r="R193" s="243"/>
       <c r="T193" s="210"/>
       <c r="U193" s="212" t="s">
         <v>328</v>
@@ -59008,7 +58785,7 @@
       <c r="V193" s="210" t="s">
         <v>2845</v>
       </c>
-      <c r="W193" s="263" t="s">
+      <c r="W193" s="243" t="s">
         <v>2865</v>
       </c>
       <c r="X193">
@@ -59051,7 +58828,7 @@
       <c r="Q194" s="208">
         <v>97.148166678579102</v>
       </c>
-      <c r="R194" s="263"/>
+      <c r="R194" s="243"/>
       <c r="T194" s="210"/>
       <c r="U194" s="212"/>
       <c r="W194" s="83"/>
@@ -59099,7 +58876,7 @@
         <v>1667</v>
       </c>
       <c r="T195" s="210"/>
-      <c r="U195" s="263" t="s">
+      <c r="U195" s="243" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -59152,7 +58929,7 @@
       <c r="V196" t="s">
         <v>2845</v>
       </c>
-      <c r="W196" s="263" t="s">
+      <c r="W196" s="243" t="s">
         <v>2865</v>
       </c>
       <c r="X196">
@@ -59195,14 +58972,14 @@
       <c r="Q197" s="208">
         <v>82.767493388606994</v>
       </c>
-      <c r="R197" s="263" t="s">
+      <c r="R197" s="243" t="s">
         <v>2815</v>
       </c>
       <c r="S197" s="210" t="s">
         <v>1667</v>
       </c>
       <c r="T197" s="210"/>
-      <c r="U197" s="263" t="s">
+      <c r="U197" s="243" t="s">
         <v>2861</v>
       </c>
       <c r="W197" s="83"/>
@@ -59256,7 +59033,7 @@
       <c r="V198" t="s">
         <v>2845</v>
       </c>
-      <c r="W198" s="263" t="s">
+      <c r="W198" s="243" t="s">
         <v>2865</v>
       </c>
       <c r="X198">
@@ -59301,7 +59078,7 @@
       <c r="Q199" s="208">
         <v>15.6100350225145</v>
       </c>
-      <c r="R199" s="267" t="s">
+      <c r="R199" s="247" t="s">
         <v>2812</v>
       </c>
       <c r="S199" s="210" t="s">
@@ -59456,7 +59233,7 @@
       <c r="Q202" s="208">
         <v>11.7718533342863</v>
       </c>
-      <c r="R202" s="268"/>
+      <c r="R202" s="248"/>
       <c r="T202" s="210"/>
       <c r="U202" s="212"/>
     </row>
@@ -59546,7 +59323,7 @@
         <v>80.187263240654701</v>
       </c>
       <c r="T204" s="210"/>
-      <c r="U204" s="263"/>
+      <c r="U204" s="243"/>
     </row>
     <row r="205" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="199" t="s">
@@ -59587,7 +59364,7 @@
         <v>87.734972482310098</v>
       </c>
       <c r="T205" s="210"/>
-      <c r="U205" s="263"/>
+      <c r="U205" s="243"/>
     </row>
     <row r="206" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="199" t="s">
@@ -59668,7 +59445,7 @@
       <c r="Q207" s="208">
         <v>93.367164605818004</v>
       </c>
-      <c r="R207" s="272"/>
+      <c r="R207" s="252"/>
       <c r="T207" s="210"/>
       <c r="U207" s="210"/>
     </row>
@@ -59710,9 +59487,9 @@
       <c r="Q208" s="208">
         <v>94.339218068758498</v>
       </c>
-      <c r="R208" s="272"/>
+      <c r="R208" s="252"/>
       <c r="T208" s="210"/>
-      <c r="U208" s="263"/>
+      <c r="U208" s="243"/>
     </row>
     <row r="209" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="199" t="s">
@@ -59753,7 +59530,7 @@
         <v>96.919448216710805</v>
       </c>
       <c r="T209" s="210"/>
-      <c r="U209" s="263"/>
+      <c r="U209" s="243"/>
     </row>
     <row r="210" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="199" t="s">
@@ -59794,7 +59571,7 @@
         <v>98.870702594525099</v>
       </c>
       <c r="T210" s="210"/>
-      <c r="U210" s="263"/>
+      <c r="U210" s="243"/>
     </row>
     <row r="211" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="199" t="s">
@@ -59888,7 +59665,7 @@
         <v>1667</v>
       </c>
       <c r="T212" s="210"/>
-      <c r="U212" s="263" t="s">
+      <c r="U212" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V212" t="s">
@@ -59940,8 +59717,8 @@
       <c r="Q213" s="208">
         <v>41.862625973840302</v>
       </c>
-      <c r="R213" s="272"/>
-      <c r="S213" s="272"/>
+      <c r="R213" s="252"/>
+      <c r="S213" s="252"/>
       <c r="T213" s="210"/>
       <c r="U213" s="212"/>
     </row>
@@ -59977,7 +59754,7 @@
       <c r="O214" s="198" t="s">
         <v>1699</v>
       </c>
-      <c r="P214" s="277"/>
+      <c r="P214" s="257"/>
       <c r="Q214" s="208">
         <v>19.784146951611699</v>
       </c>
@@ -60037,7 +59814,7 @@
         <v>1667</v>
       </c>
       <c r="T215" s="210"/>
-      <c r="U215" s="263" t="s">
+      <c r="U215" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V215" t="s">
@@ -60154,7 +59931,7 @@
         <v>1667</v>
       </c>
       <c r="T217" s="210"/>
-      <c r="U217" s="248" t="s">
+      <c r="U217" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -60203,7 +59980,7 @@
       <c r="T218" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U218" s="248" t="s">
+      <c r="U218" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -60260,7 +60037,7 @@
       <c r="T219" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U219" s="248" t="s">
+      <c r="U219" s="228" t="s">
         <v>322</v>
       </c>
     </row>
@@ -60296,11 +60073,11 @@
       <c r="O220" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="P220" s="255"/>
+      <c r="P220" s="235"/>
       <c r="Q220" s="208">
         <v>61.125008934314899</v>
       </c>
-      <c r="R220" s="270" t="s">
+      <c r="R220" s="250" t="s">
         <v>2825</v>
       </c>
       <c r="S220" s="210" t="s">
@@ -60352,7 +60129,7 @@
         <v>1667</v>
       </c>
       <c r="T221" s="210"/>
-      <c r="U221" s="263"/>
+      <c r="U221" s="243"/>
     </row>
     <row r="222" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="199" t="s">
@@ -60487,7 +60264,7 @@
         <v>1667</v>
       </c>
       <c r="T224" s="210"/>
-      <c r="U224" s="263"/>
+      <c r="U224" s="243"/>
     </row>
     <row r="225" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="199" t="s">
@@ -60547,7 +60324,7 @@
       <c r="D226" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="E226" s="247" t="s">
+      <c r="E226" s="227" t="s">
         <v>120</v>
       </c>
       <c r="F226" s="224" t="s">
@@ -60580,7 +60357,7 @@
       <c r="Q226" s="208">
         <v>21.442355800157198</v>
       </c>
-      <c r="R226" s="269" t="s">
+      <c r="R226" s="249" t="s">
         <v>2813</v>
       </c>
       <c r="S226" s="210" t="s">
@@ -60589,7 +60366,7 @@
       <c r="T226" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U226" s="263" t="s">
+      <c r="U226" s="243" t="s">
         <v>328</v>
       </c>
       <c r="V226" t="s">
@@ -60771,7 +60548,7 @@
         <v>1667</v>
       </c>
       <c r="T229" s="210"/>
-      <c r="U229" s="248" t="s">
+      <c r="U229" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y229">
@@ -60906,7 +60683,7 @@
       <c r="Q232" s="208">
         <v>100</v>
       </c>
-      <c r="U232" s="272"/>
+      <c r="U232" s="252"/>
     </row>
     <row r="233" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="199" t="s">
@@ -60944,7 +60721,7 @@
       <c r="Q233" s="208">
         <v>100</v>
       </c>
-      <c r="U233" s="272"/>
+      <c r="U233" s="252"/>
     </row>
     <row r="234" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="197" t="s">
@@ -60956,17 +60733,17 @@
       <c r="C234" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="D234" s="260"/>
-      <c r="E234" s="260"/>
-      <c r="F234" s="260"/>
-      <c r="G234" s="260"/>
-      <c r="H234" s="260"/>
+      <c r="D234" s="240"/>
+      <c r="E234" s="240"/>
+      <c r="F234" s="240"/>
+      <c r="G234" s="240"/>
+      <c r="H234" s="240"/>
       <c r="I234" s="177">
         <v>233</v>
       </c>
       <c r="J234" s="188"/>
-      <c r="K234" s="264"/>
-      <c r="L234" s="264" t="s">
+      <c r="K234" s="244"/>
+      <c r="L234" s="244" t="s">
         <v>2192</v>
       </c>
       <c r="M234" s="192" t="s">
@@ -60984,55 +60761,55 @@
       <c r="Q234" s="208">
         <v>97.012365091844799</v>
       </c>
-      <c r="U234" s="272"/>
+      <c r="U234" s="252"/>
     </row>
     <row r="235" spans="1:25" ht="15" hidden="1" customHeight="1">
-      <c r="A235" s="259" t="s">
+      <c r="A235" s="239" t="s">
         <v>2605</v>
       </c>
       <c r="B235" s="176"/>
       <c r="C235" s="176" t="s">
         <v>2869</v>
       </c>
-      <c r="D235" s="274" t="s">
+      <c r="D235" s="254" t="s">
         <v>121</v>
       </c>
-      <c r="E235" s="274"/>
-      <c r="F235" s="274" t="s">
+      <c r="E235" s="254"/>
+      <c r="F235" s="254" t="s">
         <v>153</v>
       </c>
-      <c r="G235" s="252"/>
-      <c r="H235" s="252"/>
+      <c r="G235" s="232"/>
+      <c r="H235" s="232"/>
       <c r="I235" s="177">
         <v>234</v>
       </c>
       <c r="J235" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K235" s="274" t="s">
+      <c r="K235" s="254" t="s">
         <v>3116</v>
       </c>
-      <c r="L235" s="265" t="s">
+      <c r="L235" s="245" t="s">
         <v>2853</v>
       </c>
       <c r="M235" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="N235" s="254"/>
-      <c r="O235" s="254"/>
-      <c r="P235" s="254"/>
+      <c r="N235" s="234"/>
+      <c r="O235" s="234"/>
+      <c r="P235" s="234"/>
     </row>
     <row r="236" spans="1:25" ht="15" hidden="1" customHeight="1">
-      <c r="A236" s="256" t="s">
+      <c r="A236" s="236" t="s">
         <v>2870</v>
       </c>
-      <c r="B236" s="273"/>
+      <c r="B236" s="253"/>
       <c r="C236" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D236" s="263"/>
-      <c r="E236" s="263"/>
-      <c r="F236" s="272"/>
+      <c r="D236" s="243"/>
+      <c r="E236" s="243"/>
+      <c r="F236" s="252"/>
       <c r="G236" s="177"/>
       <c r="H236" s="223"/>
       <c r="I236" s="177">
@@ -61042,17 +60819,17 @@
         <v>120</v>
       </c>
       <c r="K236" s="212"/>
-      <c r="L236" s="273"/>
-      <c r="M236" s="254"/>
-      <c r="N236" s="255" t="s">
+      <c r="L236" s="253"/>
+      <c r="M236" s="234"/>
+      <c r="N236" s="235" t="s">
         <v>2911</v>
       </c>
-      <c r="O236" s="272"/>
-      <c r="P236" s="272"/>
+      <c r="O236" s="252"/>
+      <c r="P236" s="252"/>
       <c r="Q236" s="208">
         <v>7.1469411092052598E-3</v>
       </c>
-      <c r="U236" s="271" t="s">
+      <c r="U236" s="251" t="s">
         <v>322</v>
       </c>
     </row>
@@ -61060,18 +60837,18 @@
       <c r="A237" s="221" t="s">
         <v>2886</v>
       </c>
-      <c r="B237" s="272"/>
+      <c r="B237" s="252"/>
       <c r="C237" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D237" s="263" t="s">
+      <c r="D237" s="243" t="s">
         <v>153</v>
       </c>
-      <c r="E237" s="263"/>
-      <c r="F237" s="263" t="s">
+      <c r="E237" s="243"/>
+      <c r="F237" s="243" t="s">
         <v>153</v>
       </c>
-      <c r="G237" s="259"/>
+      <c r="G237" s="239"/>
       <c r="H237" s="212"/>
       <c r="I237" s="177">
         <v>236</v>
@@ -61079,16 +60856,16 @@
       <c r="J237" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K237" s="255" t="s">
+      <c r="K237" s="235" t="s">
         <v>3117</v>
       </c>
-      <c r="L237" s="272"/>
-      <c r="M237" s="272"/>
+      <c r="L237" s="252"/>
+      <c r="M237" s="252"/>
       <c r="N237" s="211" t="s">
         <v>2915</v>
       </c>
-      <c r="O237" s="272"/>
-      <c r="P237" s="272"/>
+      <c r="O237" s="252"/>
+      <c r="P237" s="252"/>
       <c r="Q237" s="208">
         <v>42.617209834191002</v>
       </c>
@@ -61106,23 +60883,23 @@
       <c r="A238" s="221" t="s">
         <v>2887</v>
       </c>
-      <c r="B238" s="272"/>
+      <c r="B238" s="252"/>
       <c r="C238" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D238" s="263" t="s">
+      <c r="D238" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E238" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F238" s="263" t="s">
+      <c r="E238" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F238" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="G238" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H238" s="256">
+      <c r="G238" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H238" s="236">
         <v>3</v>
       </c>
       <c r="I238" s="177">
@@ -61132,17 +60909,17 @@
         <v>120</v>
       </c>
       <c r="K238" s="83"/>
-      <c r="L238" s="272"/>
-      <c r="M238" s="272"/>
-      <c r="N238" s="268" t="s">
+      <c r="L238" s="252"/>
+      <c r="M238" s="252"/>
+      <c r="N238" s="248" t="s">
         <v>2920</v>
       </c>
-      <c r="O238" s="272"/>
-      <c r="P238" s="272"/>
+      <c r="O238" s="252"/>
+      <c r="P238" s="252"/>
       <c r="Q238" s="208">
         <v>11.270726129216699</v>
       </c>
-      <c r="U238" s="248" t="s">
+      <c r="U238" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y238">
@@ -61153,39 +60930,39 @@
       <c r="A239" s="221" t="s">
         <v>2881</v>
       </c>
-      <c r="B239" s="272"/>
+      <c r="B239" s="252"/>
       <c r="C239" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D239" s="263" t="s">
+      <c r="D239" s="243" t="s">
         <v>153</v>
       </c>
-      <c r="E239" s="259"/>
-      <c r="F239" s="271" t="s">
+      <c r="E239" s="239"/>
+      <c r="F239" s="251" t="s">
         <v>153</v>
       </c>
-      <c r="G239" s="262"/>
-      <c r="H239" s="248"/>
+      <c r="G239" s="242"/>
+      <c r="H239" s="228"/>
       <c r="I239" s="177">
         <v>238</v>
       </c>
       <c r="J239" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K239" s="272" t="s">
+      <c r="K239" s="252" t="s">
         <v>3114</v>
       </c>
-      <c r="L239" s="272"/>
-      <c r="M239" s="272"/>
-      <c r="N239" s="272" t="s">
+      <c r="L239" s="252"/>
+      <c r="M239" s="252"/>
+      <c r="N239" s="252" t="s">
         <v>2916</v>
       </c>
-      <c r="O239" s="272"/>
-      <c r="P239" s="272"/>
+      <c r="O239" s="252"/>
+      <c r="P239" s="252"/>
       <c r="Q239" s="208">
         <v>11.270726129216699</v>
       </c>
-      <c r="U239" s="248" t="s">
+      <c r="U239" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -61193,14 +60970,14 @@
       <c r="A240" s="221" t="s">
         <v>2882</v>
       </c>
-      <c r="B240" s="272"/>
+      <c r="B240" s="252"/>
       <c r="C240" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D240" s="263" t="s">
+      <c r="D240" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E240" s="263"/>
+      <c r="E240" s="243"/>
       <c r="F240" s="83" t="s">
         <v>121</v>
       </c>
@@ -61212,16 +60989,16 @@
       <c r="J240" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K240" s="272" t="s">
+      <c r="K240" s="252" t="s">
         <v>3114</v>
       </c>
-      <c r="L240" s="272"/>
-      <c r="M240" s="272"/>
-      <c r="N240" s="272" t="s">
+      <c r="L240" s="252"/>
+      <c r="M240" s="252"/>
+      <c r="N240" s="252" t="s">
         <v>2917</v>
       </c>
-      <c r="O240" s="272"/>
-      <c r="P240" s="272"/>
+      <c r="O240" s="252"/>
+      <c r="P240" s="252"/>
       <c r="Q240" s="208">
         <v>84.991423670668993</v>
       </c>
@@ -61239,23 +61016,23 @@
       <c r="A241" s="221" t="s">
         <v>2888</v>
       </c>
-      <c r="B241" s="272"/>
+      <c r="B241" s="252"/>
       <c r="C241" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D241" s="263" t="s">
+      <c r="D241" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E241" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F241" s="271" t="s">
-        <v>120</v>
-      </c>
-      <c r="G241" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H241" s="256">
+      <c r="E241" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F241" s="251" t="s">
+        <v>120</v>
+      </c>
+      <c r="G241" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H241" s="236">
         <v>5</v>
       </c>
       <c r="I241" s="177">
@@ -61264,14 +61041,14 @@
       <c r="J241" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K241" s="272"/>
-      <c r="L241" s="272"/>
-      <c r="M241" s="272"/>
-      <c r="N241" s="272" t="s">
+      <c r="K241" s="252"/>
+      <c r="L241" s="252"/>
+      <c r="M241" s="252"/>
+      <c r="N241" s="252" t="s">
         <v>2918</v>
       </c>
-      <c r="O241" s="272"/>
-      <c r="P241" s="272"/>
+      <c r="O241" s="252"/>
+      <c r="P241" s="252"/>
       <c r="Q241" s="208">
         <v>14.944253859348199</v>
       </c>
@@ -61292,18 +61069,18 @@
       <c r="A242" s="221" t="s">
         <v>2889</v>
       </c>
-      <c r="B242" s="272"/>
+      <c r="B242" s="252"/>
       <c r="C242" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D242" s="263" t="s">
+      <c r="D242" s="243" t="s">
         <v>153</v>
       </c>
       <c r="E242" s="212"/>
       <c r="F242" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="G242" s="254"/>
+      <c r="G242" s="234"/>
       <c r="H242" s="83"/>
       <c r="I242" s="177">
         <v>241</v>
@@ -61311,16 +61088,16 @@
       <c r="J242" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K242" s="272" t="s">
+      <c r="K242" s="252" t="s">
         <v>3117</v>
       </c>
-      <c r="L242" s="272"/>
-      <c r="M242" s="272"/>
-      <c r="N242" s="272" t="s">
+      <c r="L242" s="252"/>
+      <c r="M242" s="252"/>
+      <c r="N242" s="252" t="s">
         <v>2919</v>
       </c>
-      <c r="O242" s="272"/>
-      <c r="P242" s="272"/>
+      <c r="O242" s="252"/>
+      <c r="P242" s="252"/>
       <c r="Q242" s="208">
         <v>26.472269868496301</v>
       </c>
@@ -61332,37 +61109,37 @@
       <c r="A243" s="221" t="s">
         <v>2890</v>
       </c>
-      <c r="B243" s="272"/>
+      <c r="B243" s="252"/>
       <c r="C243" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D243" s="263" t="s">
+      <c r="D243" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E243" s="263"/>
-      <c r="F243" s="272"/>
-      <c r="G243" s="272"/>
-      <c r="H243" s="272"/>
+      <c r="E243" s="243"/>
+      <c r="F243" s="252"/>
+      <c r="G243" s="252"/>
+      <c r="H243" s="252"/>
       <c r="I243" s="177">
         <v>242</v>
       </c>
       <c r="J243" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K243" s="263" t="s">
+      <c r="K243" s="243" t="s">
         <v>3117</v>
       </c>
-      <c r="L243" s="272"/>
-      <c r="M243" s="272"/>
-      <c r="N243" s="272" t="s">
+      <c r="L243" s="252"/>
+      <c r="M243" s="252"/>
+      <c r="N243" s="252" t="s">
         <v>2914</v>
       </c>
-      <c r="O243" s="272"/>
-      <c r="P243" s="272"/>
+      <c r="O243" s="252"/>
+      <c r="P243" s="252"/>
       <c r="Q243" s="208">
         <v>26.472269868496301</v>
       </c>
-      <c r="U243" s="248" t="s">
+      <c r="U243" s="228" t="s">
         <v>322</v>
       </c>
     </row>
@@ -61370,17 +61147,17 @@
       <c r="A244" s="221" t="s">
         <v>2891</v>
       </c>
-      <c r="B244" s="272"/>
+      <c r="B244" s="252"/>
       <c r="C244" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D244" s="263" t="s">
+      <c r="D244" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E244" s="263"/>
-      <c r="F244" s="272"/>
-      <c r="G244" s="272"/>
-      <c r="H244" s="272"/>
+      <c r="E244" s="243"/>
+      <c r="F244" s="252"/>
+      <c r="G244" s="252"/>
+      <c r="H244" s="252"/>
       <c r="I244" s="177">
         <v>243</v>
       </c>
@@ -61388,17 +61165,17 @@
         <v>120</v>
       </c>
       <c r="K244" s="83"/>
-      <c r="L244" s="272"/>
-      <c r="M244" s="272"/>
-      <c r="N244" s="263" t="s">
+      <c r="L244" s="252"/>
+      <c r="M244" s="252"/>
+      <c r="N244" s="243" t="s">
         <v>2909</v>
       </c>
-      <c r="O244" s="272"/>
-      <c r="P244" s="272"/>
+      <c r="O244" s="252"/>
+      <c r="P244" s="252"/>
       <c r="Q244" s="208">
         <v>22.398513436249299</v>
       </c>
-      <c r="U244" s="248" t="s">
+      <c r="U244" s="228" t="s">
         <v>322</v>
       </c>
     </row>
@@ -61406,21 +61183,21 @@
       <c r="A245" s="221" t="s">
         <v>2884</v>
       </c>
-      <c r="B245" s="272"/>
+      <c r="B245" s="252"/>
       <c r="C245" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D245" s="263" t="s">
+      <c r="D245" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E245" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F245" s="272"/>
-      <c r="G245" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H245" s="256">
+      <c r="E245" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F245" s="252"/>
+      <c r="G245" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H245" s="236">
         <v>6</v>
       </c>
       <c r="I245" s="177">
@@ -61429,20 +61206,20 @@
       <c r="J245" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K245" s="263" t="s">
+      <c r="K245" s="243" t="s">
         <v>3118</v>
       </c>
-      <c r="L245" s="272"/>
-      <c r="M245" s="272"/>
-      <c r="N245" s="272" t="s">
+      <c r="L245" s="252"/>
+      <c r="M245" s="252"/>
+      <c r="N245" s="252" t="s">
         <v>2909</v>
       </c>
-      <c r="O245" s="272"/>
-      <c r="P245" s="272"/>
+      <c r="O245" s="252"/>
+      <c r="P245" s="252"/>
       <c r="Q245" s="208">
         <v>16.559462550028599</v>
       </c>
-      <c r="U245" s="248" t="s">
+      <c r="U245" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y245">
@@ -61453,16 +61230,16 @@
       <c r="A246" s="221" t="s">
         <v>2892</v>
       </c>
-      <c r="B246" s="272"/>
+      <c r="B246" s="252"/>
       <c r="C246" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D246" s="263" t="s">
+      <c r="D246" s="243" t="s">
         <v>121</v>
       </c>
       <c r="E246" s="212"/>
-      <c r="F246" s="272"/>
-      <c r="G246" s="254"/>
+      <c r="F246" s="252"/>
+      <c r="G246" s="234"/>
       <c r="H246" s="83"/>
       <c r="I246" s="177">
         <v>245</v>
@@ -61473,17 +61250,17 @@
       <c r="K246" s="212" t="s">
         <v>3110</v>
       </c>
-      <c r="L246" s="272"/>
-      <c r="M246" s="272"/>
-      <c r="N246" s="263" t="s">
+      <c r="L246" s="252"/>
+      <c r="M246" s="252"/>
+      <c r="N246" s="243" t="s">
         <v>3125</v>
       </c>
-      <c r="O246" s="272"/>
-      <c r="P246" s="272"/>
+      <c r="O246" s="252"/>
+      <c r="P246" s="252"/>
       <c r="Q246" s="208">
         <v>97.770154373927994</v>
       </c>
-      <c r="R246" s="272"/>
+      <c r="R246" s="252"/>
       <c r="U246" s="212" t="s">
         <v>328</v>
       </c>
@@ -61498,17 +61275,17 @@
       <c r="A247" s="221" t="s">
         <v>2885</v>
       </c>
-      <c r="B247" s="272"/>
+      <c r="B247" s="252"/>
       <c r="C247" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D247" s="263" t="s">
+      <c r="D247" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E247" s="263"/>
-      <c r="F247" s="272"/>
-      <c r="G247" s="272"/>
-      <c r="H247" s="272"/>
+      <c r="E247" s="243"/>
+      <c r="F247" s="252"/>
+      <c r="G247" s="252"/>
+      <c r="H247" s="252"/>
       <c r="I247" s="177">
         <v>246</v>
       </c>
@@ -61516,17 +61293,17 @@
         <v>120</v>
       </c>
       <c r="K247" s="83"/>
-      <c r="L247" s="272"/>
-      <c r="M247" s="272"/>
-      <c r="N247" s="272" t="s">
+      <c r="L247" s="252"/>
+      <c r="M247" s="252"/>
+      <c r="N247" s="252" t="s">
         <v>2910</v>
       </c>
-      <c r="O247" s="272"/>
-      <c r="P247" s="272"/>
+      <c r="O247" s="252"/>
+      <c r="P247" s="252"/>
       <c r="Q247" s="208">
         <v>66.938250428816502</v>
       </c>
-      <c r="U247" s="248" t="s">
+      <c r="U247" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -61534,21 +61311,21 @@
       <c r="A248" s="221" t="s">
         <v>2900</v>
       </c>
-      <c r="B248" s="272"/>
+      <c r="B248" s="252"/>
       <c r="C248" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D248" s="263" t="s">
+      <c r="D248" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E248" s="263"/>
-      <c r="F248" s="272" t="s">
-        <v>120</v>
-      </c>
-      <c r="G248" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H248" s="256">
+      <c r="E248" s="243"/>
+      <c r="F248" s="252" t="s">
+        <v>120</v>
+      </c>
+      <c r="G248" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H248" s="236">
         <v>33</v>
       </c>
       <c r="I248" s="177">
@@ -61557,18 +61334,18 @@
       <c r="J248" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K248" s="272"/>
-      <c r="L248" s="272"/>
-      <c r="M248" s="272"/>
-      <c r="N248" s="272" t="s">
+      <c r="K248" s="252"/>
+      <c r="L248" s="252"/>
+      <c r="M248" s="252"/>
+      <c r="N248" s="252" t="s">
         <v>2912</v>
       </c>
-      <c r="O248" s="272"/>
-      <c r="P248" s="272"/>
+      <c r="O248" s="252"/>
+      <c r="P248" s="252"/>
       <c r="Q248" s="208">
         <v>54.638364779874202</v>
       </c>
-      <c r="U248" s="248" t="s">
+      <c r="U248" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y248">
@@ -61579,15 +61356,15 @@
       <c r="A249" s="221" t="s">
         <v>2874</v>
       </c>
-      <c r="B249" s="272"/>
+      <c r="B249" s="252"/>
       <c r="C249" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D249" s="263" t="s">
+      <c r="D249" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E249" s="263"/>
-      <c r="F249" s="272" t="s">
+      <c r="E249" s="243"/>
+      <c r="F249" s="252" t="s">
         <v>120</v>
       </c>
       <c r="G249" s="177" t="s">
@@ -61602,21 +61379,21 @@
       <c r="J249" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K249" s="272" t="s">
+      <c r="K249" s="252" t="s">
         <v>3110</v>
       </c>
-      <c r="L249" s="272"/>
-      <c r="M249" s="272"/>
-      <c r="N249" s="272" t="s">
+      <c r="L249" s="252"/>
+      <c r="M249" s="252"/>
+      <c r="N249" s="252" t="s">
         <v>2923</v>
       </c>
-      <c r="O249" s="272"/>
-      <c r="P249" s="272"/>
+      <c r="O249" s="252"/>
+      <c r="P249" s="252"/>
       <c r="Q249" s="208">
         <v>93.696397941680999</v>
       </c>
-      <c r="R249" s="272"/>
-      <c r="U249" s="248" t="s">
+      <c r="R249" s="252"/>
+      <c r="U249" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y249">
@@ -61627,16 +61404,16 @@
       <c r="A250" s="221" t="s">
         <v>2901</v>
       </c>
-      <c r="B250" s="272"/>
+      <c r="B250" s="252"/>
       <c r="C250" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D250" s="263" t="s">
+      <c r="D250" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E250" s="263"/>
-      <c r="F250" s="272"/>
-      <c r="G250" s="254"/>
+      <c r="E250" s="243"/>
+      <c r="F250" s="252"/>
+      <c r="G250" s="234"/>
       <c r="H250" s="83"/>
       <c r="I250" s="177">
         <v>249</v>
@@ -61644,21 +61421,21 @@
       <c r="J250" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K250" s="272" t="s">
+      <c r="K250" s="252" t="s">
         <v>3110</v>
       </c>
-      <c r="L250" s="272"/>
-      <c r="M250" s="272"/>
-      <c r="N250" s="272" t="s">
+      <c r="L250" s="252"/>
+      <c r="M250" s="252"/>
+      <c r="N250" s="252" t="s">
         <v>2913</v>
       </c>
-      <c r="O250" s="272"/>
-      <c r="P250" s="272"/>
+      <c r="O250" s="252"/>
+      <c r="P250" s="252"/>
       <c r="Q250" s="208">
         <v>93.610634648370507</v>
       </c>
-      <c r="R250" s="272"/>
-      <c r="U250" s="248" t="s">
+      <c r="R250" s="252"/>
+      <c r="U250" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -61666,38 +61443,38 @@
       <c r="A251" s="221" t="s">
         <v>2902</v>
       </c>
-      <c r="B251" s="272"/>
+      <c r="B251" s="252"/>
       <c r="C251" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D251" s="263" t="s">
+      <c r="D251" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E251" s="263"/>
-      <c r="F251" s="272"/>
-      <c r="G251" s="272"/>
-      <c r="H251" s="272"/>
+      <c r="E251" s="243"/>
+      <c r="F251" s="252"/>
+      <c r="G251" s="252"/>
+      <c r="H251" s="252"/>
       <c r="I251" s="177">
         <v>250</v>
       </c>
       <c r="J251" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K251" s="272" t="s">
+      <c r="K251" s="252" t="s">
         <v>3110</v>
       </c>
-      <c r="L251" s="272"/>
-      <c r="M251" s="272"/>
-      <c r="N251" s="272" t="s">
+      <c r="L251" s="252"/>
+      <c r="M251" s="252"/>
+      <c r="N251" s="252" t="s">
         <v>2921</v>
       </c>
-      <c r="O251" s="272"/>
-      <c r="P251" s="272"/>
+      <c r="O251" s="252"/>
+      <c r="P251" s="252"/>
       <c r="Q251" s="208">
         <v>93.653516295025696</v>
       </c>
-      <c r="R251" s="272"/>
-      <c r="U251" s="248" t="s">
+      <c r="R251" s="252"/>
+      <c r="U251" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -61705,38 +61482,38 @@
       <c r="A252" s="221" t="s">
         <v>2903</v>
       </c>
-      <c r="B252" s="272"/>
+      <c r="B252" s="252"/>
       <c r="C252" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D252" s="263" t="s">
+      <c r="D252" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E252" s="263"/>
-      <c r="F252" s="272"/>
-      <c r="G252" s="272"/>
-      <c r="H252" s="272"/>
+      <c r="E252" s="243"/>
+      <c r="F252" s="252"/>
+      <c r="G252" s="252"/>
+      <c r="H252" s="252"/>
       <c r="I252" s="177">
         <v>251</v>
       </c>
       <c r="J252" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K252" s="272" t="s">
+      <c r="K252" s="252" t="s">
         <v>3110</v>
       </c>
-      <c r="L252" s="272"/>
-      <c r="M252" s="272"/>
-      <c r="N252" s="272" t="s">
+      <c r="L252" s="252"/>
+      <c r="M252" s="252"/>
+      <c r="N252" s="252" t="s">
         <v>3126</v>
       </c>
-      <c r="O252" s="272"/>
-      <c r="P252" s="272"/>
+      <c r="O252" s="252"/>
+      <c r="P252" s="252"/>
       <c r="Q252" s="208">
         <v>93.6392224128073</v>
       </c>
-      <c r="R252" s="272"/>
-      <c r="U252" s="248" t="s">
+      <c r="R252" s="252"/>
+      <c r="U252" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -61744,37 +61521,37 @@
       <c r="A253" s="221" t="s">
         <v>2904</v>
       </c>
-      <c r="B253" s="272"/>
+      <c r="B253" s="252"/>
       <c r="C253" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D253" s="263" t="s">
+      <c r="D253" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E253" s="263"/>
-      <c r="F253" s="272"/>
-      <c r="G253" s="272"/>
-      <c r="H253" s="272"/>
+      <c r="E253" s="243"/>
+      <c r="F253" s="252"/>
+      <c r="G253" s="252"/>
+      <c r="H253" s="252"/>
       <c r="I253" s="177">
         <v>252</v>
       </c>
       <c r="J253" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K253" s="272" t="s">
+      <c r="K253" s="252" t="s">
         <v>3110</v>
       </c>
-      <c r="L253" s="272"/>
-      <c r="M253" s="272"/>
-      <c r="N253" s="272" t="s">
+      <c r="L253" s="252"/>
+      <c r="M253" s="252"/>
+      <c r="N253" s="252" t="s">
         <v>2922</v>
       </c>
-      <c r="O253" s="272"/>
-      <c r="P253" s="272"/>
+      <c r="O253" s="252"/>
+      <c r="P253" s="252"/>
       <c r="Q253" s="208">
         <v>94.711263579188099</v>
       </c>
-      <c r="U253" s="248" t="s">
+      <c r="U253" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -61782,21 +61559,21 @@
       <c r="A254" s="221" t="s">
         <v>2905</v>
       </c>
-      <c r="B254" s="272"/>
+      <c r="B254" s="252"/>
       <c r="C254" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D254" s="263" t="s">
+      <c r="D254" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E254" s="263"/>
-      <c r="F254" s="272" t="s">
-        <v>120</v>
-      </c>
-      <c r="G254" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H254" s="256">
+      <c r="E254" s="243"/>
+      <c r="F254" s="252" t="s">
+        <v>120</v>
+      </c>
+      <c r="G254" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H254" s="236">
         <v>57</v>
       </c>
       <c r="I254" s="177">
@@ -61805,23 +61582,23 @@
       <c r="J254" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K254" s="272" t="s">
+      <c r="K254" s="252" t="s">
         <v>3110</v>
       </c>
-      <c r="L254" s="272"/>
-      <c r="M254" s="272"/>
-      <c r="N254" s="272" t="s">
+      <c r="L254" s="252"/>
+      <c r="M254" s="252"/>
+      <c r="N254" s="252" t="s">
         <v>3127</v>
       </c>
-      <c r="O254" s="272"/>
-      <c r="P254" s="272"/>
+      <c r="O254" s="252"/>
+      <c r="P254" s="252"/>
       <c r="Q254" s="208">
         <v>94.153802172670098</v>
       </c>
-      <c r="U254" s="248" t="s">
+      <c r="U254" s="228" t="s">
         <v>2861</v>
       </c>
-      <c r="W254" s="272"/>
+      <c r="W254" s="252"/>
       <c r="Y254">
         <v>1</v>
       </c>
@@ -61830,16 +61607,16 @@
       <c r="A255" s="221" t="s">
         <v>2906</v>
       </c>
-      <c r="B255" s="272"/>
+      <c r="B255" s="252"/>
       <c r="C255" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D255" s="263" t="s">
+      <c r="D255" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E255" s="263"/>
-      <c r="F255" s="272"/>
-      <c r="G255" s="254"/>
+      <c r="E255" s="243"/>
+      <c r="F255" s="252"/>
+      <c r="G255" s="234"/>
       <c r="H255" s="83"/>
       <c r="I255" s="177">
         <v>254</v>
@@ -61847,20 +61624,20 @@
       <c r="J255" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K255" s="272" t="s">
+      <c r="K255" s="252" t="s">
         <v>3119</v>
       </c>
-      <c r="L255" s="272"/>
-      <c r="M255" s="272"/>
-      <c r="N255" s="272" t="s">
+      <c r="L255" s="252"/>
+      <c r="M255" s="252"/>
+      <c r="N255" s="252" t="s">
         <v>2924</v>
       </c>
-      <c r="O255" s="272"/>
-      <c r="P255" s="272"/>
+      <c r="O255" s="252"/>
+      <c r="P255" s="252"/>
       <c r="Q255" s="208">
         <v>93.532018296169198</v>
       </c>
-      <c r="U255" s="248" t="s">
+      <c r="U255" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -61868,21 +61645,21 @@
       <c r="A256" s="221" t="s">
         <v>2893</v>
       </c>
-      <c r="B256" s="272"/>
+      <c r="B256" s="252"/>
       <c r="C256" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D256" s="263" t="s">
+      <c r="D256" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E256" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F256" s="272"/>
-      <c r="G256" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H256" s="256">
+      <c r="E256" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F256" s="252"/>
+      <c r="G256" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H256" s="236">
         <v>29</v>
       </c>
       <c r="I256" s="177">
@@ -61891,20 +61668,20 @@
       <c r="J256" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K256" s="263" t="s">
+      <c r="K256" s="243" t="s">
         <v>3120</v>
       </c>
-      <c r="L256" s="272"/>
-      <c r="M256" s="272"/>
-      <c r="N256" s="272" t="s">
+      <c r="L256" s="252"/>
+      <c r="M256" s="252"/>
+      <c r="N256" s="252" t="s">
         <v>2925</v>
       </c>
-      <c r="O256" s="272"/>
-      <c r="P256" s="272"/>
+      <c r="O256" s="252"/>
+      <c r="P256" s="252"/>
       <c r="Q256" s="208">
         <v>48.1132075471698</v>
       </c>
-      <c r="U256" s="248" t="s">
+      <c r="U256" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y256">
@@ -61915,15 +61692,15 @@
       <c r="A257" s="221" t="s">
         <v>2907</v>
       </c>
-      <c r="B257" s="272"/>
+      <c r="B257" s="252"/>
       <c r="C257" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D257" s="263" t="s">
+      <c r="D257" s="243" t="s">
         <v>121</v>
       </c>
       <c r="E257" s="212"/>
-      <c r="F257" s="272" t="s">
+      <c r="F257" s="252" t="s">
         <v>120</v>
       </c>
       <c r="G257" s="177" t="s">
@@ -61941,17 +61718,17 @@
       <c r="K257" s="83" t="s">
         <v>3110</v>
       </c>
-      <c r="L257" s="272"/>
-      <c r="M257" s="272"/>
-      <c r="N257" s="272" t="s">
+      <c r="L257" s="252"/>
+      <c r="M257" s="252"/>
+      <c r="N257" s="252" t="s">
         <v>2926</v>
       </c>
-      <c r="O257" s="272"/>
-      <c r="P257" s="272"/>
+      <c r="O257" s="252"/>
+      <c r="P257" s="252"/>
       <c r="Q257" s="208">
         <v>91.5523156089194</v>
       </c>
-      <c r="U257" s="248" t="s">
+      <c r="U257" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y257">
@@ -61962,17 +61739,17 @@
       <c r="A258" s="221" t="s">
         <v>2871</v>
       </c>
-      <c r="B258" s="272"/>
+      <c r="B258" s="252"/>
       <c r="C258" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D258" s="263" t="s">
+      <c r="D258" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E258" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F258" s="272" t="s">
+      <c r="E258" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F258" s="252" t="s">
         <v>120</v>
       </c>
       <c r="G258" s="177" t="s">
@@ -61987,20 +61764,20 @@
       <c r="J258" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K258" s="272" t="s">
+      <c r="K258" s="252" t="s">
         <v>3114</v>
       </c>
-      <c r="L258" s="272"/>
-      <c r="M258" s="272"/>
-      <c r="N258" s="272" t="s">
+      <c r="L258" s="252"/>
+      <c r="M258" s="252"/>
+      <c r="N258" s="252" t="s">
         <v>2872</v>
       </c>
-      <c r="O258" s="272"/>
-      <c r="P258" s="272"/>
+      <c r="O258" s="252"/>
+      <c r="P258" s="252"/>
       <c r="Q258" s="208">
         <v>53.6878216123499</v>
       </c>
-      <c r="U258" s="248" t="s">
+      <c r="U258" s="228" t="s">
         <v>322</v>
       </c>
       <c r="Y258">
@@ -62011,17 +61788,17 @@
       <c r="A259" s="221" t="s">
         <v>2883</v>
       </c>
-      <c r="B259" s="272"/>
+      <c r="B259" s="252"/>
       <c r="C259" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D259" s="263" t="s">
+      <c r="D259" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E259" s="249" t="s">
-        <v>120</v>
-      </c>
-      <c r="F259" s="263" t="s">
+      <c r="E259" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="F259" s="243" t="s">
         <v>120</v>
       </c>
       <c r="G259" s="177" t="s">
@@ -62036,20 +61813,20 @@
       <c r="J259" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K259" s="263" t="s">
+      <c r="K259" s="243" t="s">
         <v>3114</v>
       </c>
-      <c r="L259" s="272"/>
-      <c r="M259" s="272"/>
-      <c r="N259" s="272" t="s">
+      <c r="L259" s="252"/>
+      <c r="M259" s="252"/>
+      <c r="N259" s="252" t="s">
         <v>2899</v>
       </c>
-      <c r="O259" s="272"/>
-      <c r="P259" s="272"/>
+      <c r="O259" s="252"/>
+      <c r="P259" s="252"/>
       <c r="Q259" s="208">
         <v>45.890508862207</v>
       </c>
-      <c r="U259" s="248" t="s">
+      <c r="U259" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y259">
@@ -62060,18 +61837,18 @@
       <c r="A260" s="223" t="s">
         <v>2894</v>
       </c>
-      <c r="B260" s="272"/>
+      <c r="B260" s="252"/>
       <c r="C260" s="222" t="s">
         <v>2869</v>
       </c>
-      <c r="D260" s="263" t="s">
+      <c r="D260" s="243" t="s">
         <v>121</v>
       </c>
       <c r="E260" s="212"/>
-      <c r="F260" s="263" t="s">
+      <c r="F260" s="243" t="s">
         <v>2284</v>
       </c>
-      <c r="G260" s="259"/>
+      <c r="G260" s="239"/>
       <c r="H260" s="212"/>
       <c r="I260" s="177">
         <v>259</v>
@@ -62079,20 +61856,20 @@
       <c r="J260" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K260" s="263" t="s">
+      <c r="K260" s="243" t="s">
         <v>3121</v>
       </c>
-      <c r="L260" s="272"/>
-      <c r="M260" s="272"/>
-      <c r="N260" s="272" t="s">
+      <c r="L260" s="252"/>
+      <c r="M260" s="252"/>
+      <c r="N260" s="252" t="s">
         <v>2934</v>
       </c>
-      <c r="O260" s="272"/>
-      <c r="P260" s="272"/>
+      <c r="O260" s="252"/>
+      <c r="P260" s="252"/>
       <c r="Q260" s="208">
         <v>53.7449971412236</v>
       </c>
-      <c r="U260" s="248" t="s">
+      <c r="U260" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -62100,23 +61877,23 @@
       <c r="A261" s="221" t="s">
         <v>2895</v>
       </c>
-      <c r="B261" s="272"/>
+      <c r="B261" s="252"/>
       <c r="C261" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D261" s="263" t="s">
+      <c r="D261" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E261" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F261" s="272" t="s">
-        <v>120</v>
-      </c>
-      <c r="G261" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H261" s="256">
+      <c r="E261" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F261" s="252" t="s">
+        <v>120</v>
+      </c>
+      <c r="G261" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H261" s="236">
         <v>13</v>
       </c>
       <c r="I261" s="177">
@@ -62126,17 +61903,17 @@
         <v>120</v>
       </c>
       <c r="K261" s="83"/>
-      <c r="L261" s="272"/>
-      <c r="M261" s="272"/>
-      <c r="N261" s="272" t="s">
+      <c r="L261" s="252"/>
+      <c r="M261" s="252"/>
+      <c r="N261" s="252" t="s">
         <v>2930</v>
       </c>
-      <c r="O261" s="272"/>
-      <c r="P261" s="272"/>
+      <c r="O261" s="252"/>
+      <c r="P261" s="252"/>
       <c r="Q261" s="208">
         <v>27.394225271583799</v>
       </c>
-      <c r="U261" s="248" t="s">
+      <c r="U261" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y261">
@@ -62147,20 +61924,20 @@
       <c r="A262" s="221" t="s">
         <v>2896</v>
       </c>
-      <c r="B262" s="272"/>
+      <c r="B262" s="252"/>
       <c r="C262" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D262" s="263" t="s">
+      <c r="D262" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E262" s="249" t="s">
-        <v>120</v>
-      </c>
-      <c r="F262" s="272" t="s">
+      <c r="E262" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="F262" s="252" t="s">
         <v>2284</v>
       </c>
-      <c r="G262" s="254"/>
+      <c r="G262" s="234"/>
       <c r="H262" s="83"/>
       <c r="I262" s="177">
         <v>261</v>
@@ -62168,20 +61945,20 @@
       <c r="J262" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K262" s="263" t="s">
+      <c r="K262" s="243" t="s">
         <v>3122</v>
       </c>
-      <c r="L262" s="272"/>
-      <c r="M262" s="272"/>
-      <c r="N262" s="272" t="s">
+      <c r="L262" s="252"/>
+      <c r="M262" s="252"/>
+      <c r="N262" s="252" t="s">
         <v>2931</v>
       </c>
-      <c r="O262" s="272"/>
-      <c r="P262" s="272"/>
+      <c r="O262" s="252"/>
+      <c r="P262" s="252"/>
       <c r="Q262" s="208">
         <v>18.138936535162902</v>
       </c>
-      <c r="U262" s="248" t="s">
+      <c r="U262" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -62189,21 +61966,21 @@
       <c r="A263" s="221" t="s">
         <v>2897</v>
       </c>
-      <c r="B263" s="272"/>
+      <c r="B263" s="252"/>
       <c r="C263" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D263" s="263" t="s">
+      <c r="D263" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E263" s="249" t="s">
-        <v>120</v>
-      </c>
-      <c r="F263" s="272" t="s">
+      <c r="E263" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="F263" s="252" t="s">
         <v>2284</v>
       </c>
-      <c r="G263" s="272"/>
-      <c r="H263" s="272"/>
+      <c r="G263" s="252"/>
+      <c r="H263" s="252"/>
       <c r="I263" s="177">
         <v>262</v>
       </c>
@@ -62213,17 +61990,17 @@
       <c r="K263" s="212" t="s">
         <v>3122</v>
       </c>
-      <c r="L263" s="272"/>
-      <c r="M263" s="272"/>
-      <c r="N263" s="272" t="s">
+      <c r="L263" s="252"/>
+      <c r="M263" s="252"/>
+      <c r="N263" s="252" t="s">
         <v>2932</v>
       </c>
-      <c r="O263" s="272"/>
-      <c r="P263" s="272"/>
+      <c r="O263" s="252"/>
+      <c r="P263" s="252"/>
       <c r="Q263" s="208">
         <v>7.3256146369353896</v>
       </c>
-      <c r="U263" s="248" t="s">
+      <c r="U263" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -62231,19 +62008,19 @@
       <c r="A264" s="221" t="s">
         <v>2898</v>
       </c>
-      <c r="B264" s="272"/>
+      <c r="B264" s="252"/>
       <c r="C264" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D264" s="263" t="s">
+      <c r="D264" s="243" t="s">
         <v>121</v>
       </c>
       <c r="E264" s="212"/>
-      <c r="F264" s="272" t="s">
+      <c r="F264" s="252" t="s">
         <v>2284</v>
       </c>
-      <c r="G264" s="272"/>
-      <c r="H264" s="272"/>
+      <c r="G264" s="252"/>
+      <c r="H264" s="252"/>
       <c r="I264" s="177">
         <v>263</v>
       </c>
@@ -62253,17 +62030,17 @@
       <c r="K264" s="212" t="s">
         <v>3122</v>
       </c>
-      <c r="L264" s="272"/>
-      <c r="M264" s="272"/>
-      <c r="N264" s="272" t="s">
+      <c r="L264" s="252"/>
+      <c r="M264" s="252"/>
+      <c r="N264" s="252" t="s">
         <v>2933</v>
       </c>
-      <c r="O264" s="272"/>
-      <c r="P264" s="272"/>
+      <c r="O264" s="252"/>
+      <c r="P264" s="252"/>
       <c r="Q264" s="208">
         <v>52.3084619782733</v>
       </c>
-      <c r="U264" s="248" t="s">
+      <c r="U264" s="228" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -62271,21 +62048,21 @@
       <c r="A265" s="221" t="s">
         <v>2876</v>
       </c>
-      <c r="B265" s="272"/>
+      <c r="B265" s="252"/>
       <c r="C265" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D265" s="263" t="s">
+      <c r="D265" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E265" s="263"/>
-      <c r="F265" s="272" t="s">
-        <v>120</v>
-      </c>
-      <c r="G265" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H265" s="256">
+      <c r="E265" s="243"/>
+      <c r="F265" s="252" t="s">
+        <v>120</v>
+      </c>
+      <c r="G265" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H265" s="236">
         <v>37</v>
       </c>
       <c r="I265" s="177">
@@ -62295,17 +62072,17 @@
         <v>120</v>
       </c>
       <c r="K265" s="83"/>
-      <c r="L265" s="272"/>
-      <c r="M265" s="272"/>
-      <c r="N265" s="272" t="s">
+      <c r="L265" s="252"/>
+      <c r="M265" s="252"/>
+      <c r="N265" s="252" t="s">
         <v>2927</v>
       </c>
-      <c r="O265" s="272"/>
-      <c r="P265" s="272"/>
+      <c r="O265" s="252"/>
+      <c r="P265" s="252"/>
       <c r="Q265" s="208">
         <v>62.056889651229298</v>
       </c>
-      <c r="U265" s="248" t="s">
+      <c r="U265" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y265">
@@ -62316,15 +62093,15 @@
       <c r="A266" s="221" t="s">
         <v>2877</v>
       </c>
-      <c r="B266" s="272"/>
+      <c r="B266" s="252"/>
       <c r="C266" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D266" s="263" t="s">
+      <c r="D266" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E266" s="263"/>
-      <c r="F266" s="272" t="s">
+      <c r="E266" s="243"/>
+      <c r="F266" s="252" t="s">
         <v>120</v>
       </c>
       <c r="G266" s="177" t="s">
@@ -62339,18 +62116,18 @@
       <c r="J266" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K266" s="272"/>
-      <c r="L266" s="272"/>
-      <c r="M266" s="272"/>
-      <c r="N266" s="272" t="s">
+      <c r="K266" s="252"/>
+      <c r="L266" s="252"/>
+      <c r="M266" s="252"/>
+      <c r="N266" s="252" t="s">
         <v>2928</v>
       </c>
-      <c r="O266" s="272"/>
-      <c r="P266" s="272"/>
+      <c r="O266" s="252"/>
+      <c r="P266" s="252"/>
       <c r="Q266" s="208">
         <v>60.513150371640897</v>
       </c>
-      <c r="U266" s="248" t="s">
+      <c r="U266" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y266">
@@ -62361,17 +62138,17 @@
       <c r="A267" s="221" t="s">
         <v>2908</v>
       </c>
-      <c r="B267" s="272"/>
+      <c r="B267" s="252"/>
       <c r="C267" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D267" s="263" t="s">
+      <c r="D267" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E267" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F267" s="272"/>
+      <c r="E267" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F267" s="252"/>
       <c r="G267" s="177" t="s">
         <v>120</v>
       </c>
@@ -62384,18 +62161,18 @@
       <c r="J267" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K267" s="263" t="s">
+      <c r="K267" s="243" t="s">
         <v>3123</v>
       </c>
-      <c r="L267" s="272"/>
-      <c r="M267" s="272"/>
-      <c r="N267" s="272"/>
-      <c r="O267" s="272"/>
-      <c r="P267" s="272"/>
+      <c r="L267" s="252"/>
+      <c r="M267" s="252"/>
+      <c r="N267" s="252"/>
+      <c r="O267" s="252"/>
+      <c r="P267" s="252"/>
       <c r="Q267" s="208">
         <v>41.616638078902199</v>
       </c>
-      <c r="U267" s="248" t="s">
+      <c r="U267" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y267">
@@ -62406,15 +62183,15 @@
       <c r="A268" s="221" t="s">
         <v>2875</v>
       </c>
-      <c r="B268" s="272"/>
+      <c r="B268" s="252"/>
       <c r="C268" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D268" s="263" t="s">
+      <c r="D268" s="243" t="s">
         <v>121</v>
       </c>
       <c r="E268" s="212"/>
-      <c r="F268" s="272" t="s">
+      <c r="F268" s="252" t="s">
         <v>120</v>
       </c>
       <c r="G268" s="177" t="s">
@@ -62432,17 +62209,17 @@
       <c r="K268" s="83" t="s">
         <v>3110</v>
       </c>
-      <c r="L268" s="272"/>
-      <c r="M268" s="272"/>
-      <c r="N268" s="272" t="s">
+      <c r="L268" s="252"/>
+      <c r="M268" s="252"/>
+      <c r="N268" s="252" t="s">
         <v>2822</v>
       </c>
-      <c r="O268" s="272"/>
-      <c r="P268" s="272"/>
+      <c r="O268" s="252"/>
+      <c r="P268" s="252"/>
       <c r="Q268" s="208">
         <v>89.8656375071469</v>
       </c>
-      <c r="U268" s="248" t="s">
+      <c r="U268" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y268">
@@ -62459,7 +62236,7 @@
       <c r="D269" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E269" s="263"/>
+      <c r="E269" s="243"/>
       <c r="F269" t="s">
         <v>120</v>
       </c>
@@ -62475,7 +62252,7 @@
       <c r="J269" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K269" s="263" t="s">
+      <c r="K269" s="243" t="s">
         <v>3110</v>
       </c>
       <c r="N269" s="210" t="s">
@@ -62484,7 +62261,7 @@
       <c r="Q269" s="208">
         <v>99.299599771297906</v>
       </c>
-      <c r="U269" s="248" t="s">
+      <c r="U269" s="228" t="s">
         <v>322</v>
       </c>
       <c r="Y269">
@@ -62495,17 +62272,17 @@
       <c r="A270" s="221" t="s">
         <v>2878</v>
       </c>
-      <c r="B270" s="272"/>
+      <c r="B270" s="252"/>
       <c r="C270" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D270" s="263" t="s">
+      <c r="D270" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E270" s="275" t="s">
-        <v>120</v>
-      </c>
-      <c r="F270" s="272" t="s">
+      <c r="E270" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F270" s="252" t="s">
         <v>120</v>
       </c>
       <c r="G270" s="177" t="s">
@@ -62521,17 +62298,17 @@
         <v>120</v>
       </c>
       <c r="K270" s="83"/>
-      <c r="L270" s="272"/>
-      <c r="M270" s="272"/>
-      <c r="N270" s="272" t="s">
+      <c r="L270" s="252"/>
+      <c r="M270" s="252"/>
+      <c r="N270" s="252" t="s">
         <v>2929</v>
       </c>
-      <c r="O270" s="272"/>
-      <c r="P270" s="272"/>
+      <c r="O270" s="252"/>
+      <c r="P270" s="252"/>
       <c r="Q270" s="208">
         <v>33.8979416809605</v>
       </c>
-      <c r="U270" s="248" t="s">
+      <c r="U270" s="228" t="s">
         <v>2861</v>
       </c>
       <c r="Y270">
@@ -62542,15 +62319,15 @@
       <c r="A271" s="221" t="s">
         <v>2819</v>
       </c>
-      <c r="B271" s="272"/>
+      <c r="B271" s="252"/>
       <c r="C271" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D271" s="263" t="s">
+      <c r="D271" s="243" t="s">
         <v>121</v>
       </c>
       <c r="E271" s="212"/>
-      <c r="F271" s="272" t="s">
+      <c r="F271" s="252" t="s">
         <v>120</v>
       </c>
       <c r="G271" s="177" t="s">
@@ -62565,18 +62342,18 @@
       <c r="J271" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K271" s="272"/>
-      <c r="L271" s="272"/>
-      <c r="M271" s="272"/>
-      <c r="N271" s="263" t="s">
+      <c r="K271" s="252"/>
+      <c r="L271" s="252"/>
+      <c r="M271" s="252"/>
+      <c r="N271" s="243" t="s">
         <v>3129</v>
       </c>
-      <c r="O271" s="272"/>
-      <c r="P271" s="272"/>
+      <c r="O271" s="252"/>
+      <c r="P271" s="252"/>
       <c r="Q271" s="208">
         <v>78.930817610062903</v>
       </c>
-      <c r="U271" s="248" t="s">
+      <c r="U271" s="228" t="s">
         <v>322</v>
       </c>
       <c r="W271">
@@ -62600,12 +62377,12 @@
         <v>121</v>
       </c>
       <c r="E272" s="210"/>
-      <c r="G272" s="254"/>
+      <c r="G272" s="234"/>
       <c r="H272" s="83"/>
       <c r="I272" s="177">
         <v>271</v>
       </c>
-      <c r="J272" s="254"/>
+      <c r="J272" s="234"/>
       <c r="U272" s="212" t="s">
         <v>328</v>
       </c>
@@ -62617,48 +62394,48 @@
       </c>
     </row>
     <row r="273" spans="1:24" ht="15" customHeight="1">
-      <c r="A273" s="250" t="s">
+      <c r="A273" s="230" t="s">
         <v>3107</v>
       </c>
-      <c r="B273" s="272"/>
-      <c r="C273" s="251" t="s">
+      <c r="B273" s="252"/>
+      <c r="C273" s="231" t="s">
         <v>2869</v>
       </c>
-      <c r="D273" s="263" t="s">
+      <c r="D273" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="E273" s="272"/>
-      <c r="F273" s="263" t="s">
+      <c r="E273" s="252"/>
+      <c r="F273" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="G273" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="H273" s="256">
+      <c r="G273" s="236" t="s">
+        <v>120</v>
+      </c>
+      <c r="H273" s="236">
         <v>-2</v>
       </c>
       <c r="I273" s="177">
         <v>272</v>
       </c>
-      <c r="J273" s="272"/>
-      <c r="K273" s="272"/>
-      <c r="L273" s="272"/>
-      <c r="M273" s="272"/>
-      <c r="N273" s="272"/>
-      <c r="O273" s="272"/>
-      <c r="P273" s="272"/>
+      <c r="J273" s="252"/>
+      <c r="K273" s="252"/>
+      <c r="L273" s="252"/>
+      <c r="M273" s="252"/>
+      <c r="N273" s="252"/>
+      <c r="O273" s="252"/>
+      <c r="P273" s="252"/>
       <c r="Q273" s="208">
         <v>0</v>
       </c>
-      <c r="R273" s="272"/>
-      <c r="S273" s="272"/>
-      <c r="T273" s="272"/>
-      <c r="U273" s="248" t="s">
+      <c r="R273" s="252"/>
+      <c r="S273" s="252"/>
+      <c r="T273" s="252"/>
+      <c r="U273" s="228" t="s">
         <v>2864</v>
       </c>
-      <c r="V273" s="272"/>
-      <c r="W273" s="272"/>
-      <c r="X273" s="272"/>
+      <c r="V273" s="252"/>
+      <c r="W273" s="252"/>
+      <c r="X273" s="252"/>
     </row>
     <row r="274" spans="1:24" ht="15" hidden="1" customHeight="1"/>
     <row r="275" spans="1:24" ht="15" hidden="1" customHeight="1"/>
@@ -62693,217 +62470,217 @@
     <sortCondition ref="I2:I283"/>
   </sortState>
   <conditionalFormatting sqref="D86:H89 D115:H118 D30:H36 D29 D38:H56 D37 D58:H67 D57 D69:H79 D68 D80 D84:H84 D83 D91:H93 D90 D94 D100 D104 D119 F119:H119 D123:H126 D122 D127:D129 D143:H158 D142 F29:H29 F37:H37 F57:H57 F68:H68 F80:H80 D81:H82 F83:H83 F90:H90 F94:H94 D95:H99 F100:H100 D101:H103 F104:H104 D105:H113 D120:H121 F122:H122 F127:H129 D130:H141 F142:H142 D3:I5 I6:I273 D6:H28">
-    <cfRule type="containsText" dxfId="68" priority="52" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:E85">
-    <cfRule type="containsText" dxfId="67" priority="51" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D85))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="containsText" dxfId="66" priority="50" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D114))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114:H114">
-    <cfRule type="containsText" dxfId="65" priority="46" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G114))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161:H161">
-    <cfRule type="containsText" dxfId="64" priority="45" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G161))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162:H162">
-    <cfRule type="containsText" dxfId="63" priority="44" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G162))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:H163">
-    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G163))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193">
-    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="60" priority="41" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:H204">
-    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213:H213">
-    <cfRule type="containsText" dxfId="58" priority="39" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G213))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G216:H216">
-    <cfRule type="containsText" dxfId="57" priority="38" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G216))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:H218">
-    <cfRule type="containsText" dxfId="56" priority="37" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G218))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227:H227">
-    <cfRule type="containsText" dxfId="55" priority="36" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G227))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G230:H230">
-    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G230))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G239:H239">
-    <cfRule type="containsText" dxfId="53" priority="34" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G239))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G242:H242">
-    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G242))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G246:H246">
-    <cfRule type="containsText" dxfId="51" priority="32" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G246))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G237:H237">
-    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G237))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249:H249">
-    <cfRule type="containsText" dxfId="49" priority="30" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G250:H250">
-    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G250))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G255:H255">
-    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G255))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G257:H257">
-    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G257))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G258:H258">
-    <cfRule type="containsText" dxfId="45" priority="26" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G258))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:H259">
-    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G259))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G260:H260">
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G260))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262:H262">
-    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G266:H266">
-    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G266))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G267:H267">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G267))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G269:H269">
-    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G269))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G268:H268">
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G268))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G270:H270">
-    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G270))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G271:H272">
-    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G271))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236:H236">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G236))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J272">
-    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J108">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J158">
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K82">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:K108">
-    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K109:K158">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L82">
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83:L108">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109:L158">
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L109))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62920,12 +62697,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62972,1148 +62749,1050 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="242"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="260"/>
+    <col min="2" max="2" width="31.33203125" style="258" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="258"/>
+    <col min="4" max="4" width="23.6640625" style="258" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="258" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="258" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" style="258" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="258"/>
+    <col min="10" max="10" width="33.33203125" style="258" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1">
-      <c r="A1" s="239" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="261" t="s">
         <v>2801</v>
       </c>
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="262" t="s">
         <v>3068</v>
       </c>
-      <c r="C1" s="228" t="s">
+      <c r="C1" s="263" t="s">
         <v>3069</v>
       </c>
-      <c r="D1" s="229" t="s">
+      <c r="D1" s="263" t="s">
         <v>3070</v>
       </c>
-      <c r="E1" s="229" t="s">
+      <c r="E1" s="263" t="s">
         <v>2870</v>
       </c>
-      <c r="F1" s="210" t="s">
+      <c r="F1" s="264" t="s">
         <v>3071</v>
       </c>
-      <c r="G1" s="210" t="s">
+      <c r="G1" s="264" t="s">
         <v>3072</v>
       </c>
-      <c r="H1" s="210" t="s">
+      <c r="H1" s="264" t="s">
         <v>3107</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="243" t="s">
+      <c r="I1" s="265" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14">
+      <c r="A2" s="266" t="s">
         <v>3073</v>
       </c>
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="262" t="s">
         <v>2989</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="262" t="s">
         <v>2942</v>
       </c>
-      <c r="D2" s="233" t="s">
+      <c r="D2" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E2" s="233" t="s">
+      <c r="E2" s="267" t="s">
         <v>2941</v>
       </c>
-      <c r="F2" s="237" t="s">
+      <c r="F2" s="268" t="s">
         <v>3054</v>
       </c>
-      <c r="G2" s="238" t="s">
+      <c r="G2" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="237">
+      <c r="H2" s="268">
         <v>2</v>
       </c>
-      <c r="K2" s="237"/>
-      <c r="L2" s="238"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="243" t="s">
+      <c r="I2" s="268"/>
+      <c r="J2" s="259"/>
+    </row>
+    <row r="3" spans="1:10" ht="14">
+      <c r="A3" s="266" t="s">
         <v>3074</v>
       </c>
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="262" t="s">
         <v>2990</v>
       </c>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="262" t="s">
         <v>2940</v>
       </c>
-      <c r="D3" s="233" t="s">
+      <c r="D3" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E3" s="233" t="s">
+      <c r="E3" s="267" t="s">
         <v>2939</v>
       </c>
-      <c r="F3" s="237" t="s">
+      <c r="F3" s="268" t="s">
         <v>3053</v>
       </c>
-      <c r="G3" s="238" t="s">
+      <c r="G3" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="237">
+      <c r="H3" s="268">
         <v>10</v>
       </c>
-      <c r="K3" s="237"/>
-      <c r="L3" s="238"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
-      <c r="A4" s="243" t="s">
+      <c r="I3" s="268"/>
+      <c r="J3" s="259"/>
+    </row>
+    <row r="4" spans="1:10" ht="56">
+      <c r="A4" s="266" t="s">
         <v>3075</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="262" t="s">
         <v>2991</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="262" t="s">
         <v>2992</v>
       </c>
-      <c r="D4" s="233" t="s">
+      <c r="D4" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E4" s="233" t="s">
+      <c r="E4" s="267" t="s">
         <v>2935</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="F4" s="268" t="s">
         <v>2854</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="237">
+      <c r="H4" s="268">
         <v>14</v>
       </c>
-      <c r="K4" s="237"/>
-      <c r="L4" s="238"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
-      <c r="A5" s="243" t="s">
+      <c r="I4" s="268" t="s">
+        <v>3134</v>
+      </c>
+      <c r="J4" s="259"/>
+    </row>
+    <row r="5" spans="1:10" ht="14">
+      <c r="A5" s="266" t="s">
         <v>3076</v>
       </c>
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="262" t="s">
         <v>2993</v>
       </c>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="262" t="s">
         <v>2938</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E5" s="233" t="s">
+      <c r="E5" s="267" t="s">
         <v>2937</v>
       </c>
-      <c r="F5" s="237" t="s">
+      <c r="F5" s="268" t="s">
         <v>3055</v>
       </c>
-      <c r="G5" s="238" t="s">
+      <c r="G5" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="237">
+      <c r="H5" s="268">
         <v>1</v>
       </c>
-      <c r="K5" s="237"/>
-      <c r="L5" s="238"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" s="243" t="s">
+      <c r="I5" s="268"/>
+      <c r="J5" s="259"/>
+    </row>
+    <row r="6" spans="1:10" ht="14">
+      <c r="A6" s="266" t="s">
         <v>3077</v>
       </c>
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="262" t="s">
         <v>2994</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="262" t="s">
         <v>2995</v>
       </c>
-      <c r="D6" s="233" t="s">
+      <c r="D6" s="267" t="s">
         <v>2944</v>
       </c>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="267" t="s">
         <v>2943</v>
       </c>
-      <c r="F6" s="237" t="s">
+      <c r="F6" s="268" t="s">
         <v>2855</v>
       </c>
-      <c r="G6" s="238" t="s">
+      <c r="G6" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="237">
+      <c r="H6" s="268">
         <v>7</v>
       </c>
-      <c r="K6" s="237"/>
-      <c r="L6" s="238"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="243" t="s">
+      <c r="I6" s="268"/>
+      <c r="J6" s="259"/>
+    </row>
+    <row r="7" spans="1:10" ht="14">
+      <c r="A7" s="266" t="s">
         <v>3078</v>
       </c>
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="262" t="s">
         <v>2996</v>
       </c>
-      <c r="C7" s="231" t="s">
+      <c r="C7" s="262" t="s">
         <v>2946</v>
       </c>
-      <c r="D7" s="233" t="s">
+      <c r="D7" s="267" t="s">
         <v>2947</v>
       </c>
-      <c r="E7" s="233" t="s">
+      <c r="E7" s="267" t="s">
         <v>2945</v>
       </c>
-      <c r="F7" s="237" t="s">
+      <c r="F7" s="268" t="s">
         <v>2856</v>
       </c>
-      <c r="G7" s="238" t="s">
+      <c r="G7" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="237">
+      <c r="H7" s="268">
         <v>3</v>
       </c>
-      <c r="K7" s="237"/>
-      <c r="L7" s="238"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" s="243" t="s">
+      <c r="I7" s="268"/>
+      <c r="J7" s="259"/>
+    </row>
+    <row r="8" spans="1:10" ht="14">
+      <c r="A8" s="266" t="s">
         <v>3079</v>
       </c>
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="262" t="s">
         <v>2997</v>
       </c>
-      <c r="C8" s="231" t="s">
+      <c r="C8" s="262" t="s">
         <v>2949</v>
       </c>
-      <c r="D8" s="233" t="s">
+      <c r="D8" s="267" t="s">
         <v>2950</v>
       </c>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="267" t="s">
         <v>2948</v>
       </c>
-      <c r="F8" s="237" t="s">
+      <c r="F8" s="268" t="s">
         <v>2857</v>
       </c>
-      <c r="G8" s="238" t="s">
+      <c r="G8" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="237">
+      <c r="H8" s="268">
         <v>5</v>
       </c>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9" s="243" t="s">
+      <c r="I8" s="268"/>
+      <c r="J8" s="259"/>
+    </row>
+    <row r="9" spans="1:10" ht="14">
+      <c r="A9" s="266" t="s">
         <v>3080</v>
       </c>
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="262" t="s">
         <v>2998</v>
       </c>
-      <c r="C9" s="231" t="s">
+      <c r="C9" s="262" t="s">
         <v>2952</v>
       </c>
-      <c r="D9" s="233" t="s">
+      <c r="D9" s="267" t="s">
         <v>2950</v>
       </c>
-      <c r="E9" s="233" t="s">
+      <c r="E9" s="267" t="s">
         <v>2951</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="268" t="s">
         <v>2858</v>
       </c>
-      <c r="G9" s="238" t="s">
+      <c r="G9" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="237">
+      <c r="H9" s="268">
         <v>4</v>
       </c>
-      <c r="K9" s="237"/>
-      <c r="L9" s="238"/>
-    </row>
-    <row r="10" spans="1:12" ht="17" customHeight="1" thickBot="1">
-      <c r="A10" s="243" t="s">
+      <c r="I9" s="268"/>
+      <c r="J9" s="259"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" customHeight="1">
+      <c r="A10" s="266" t="s">
         <v>3081</v>
       </c>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="262" t="s">
         <v>2999</v>
       </c>
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="262" t="s">
         <v>2954</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="267" t="s">
         <v>2955</v>
       </c>
-      <c r="E10" s="233" t="s">
+      <c r="E10" s="267" t="s">
         <v>2953</v>
       </c>
-      <c r="F10" s="237" t="s">
+      <c r="F10" s="268" t="s">
         <v>2859</v>
       </c>
-      <c r="G10" s="238" t="s">
+      <c r="G10" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="237">
+      <c r="H10" s="268">
         <v>12</v>
       </c>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" s="243" t="s">
+      <c r="I10" s="268"/>
+      <c r="J10" s="259"/>
+    </row>
+    <row r="11" spans="1:10" ht="14">
+      <c r="A11" s="266" t="s">
         <v>3082</v>
       </c>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="262" t="s">
         <v>3000</v>
       </c>
-      <c r="C11" s="231" t="s">
+      <c r="C11" s="262" t="s">
         <v>2995</v>
       </c>
-      <c r="D11" s="233" t="s">
+      <c r="D11" s="267" t="s">
         <v>2957</v>
       </c>
-      <c r="E11" s="233" t="s">
+      <c r="E11" s="267" t="s">
         <v>2956</v>
       </c>
-      <c r="F11" s="237" t="s">
+      <c r="F11" s="268" t="s">
         <v>2860</v>
       </c>
-      <c r="G11" s="238" t="s">
+      <c r="G11" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="237">
+      <c r="H11" s="268">
         <v>8</v>
       </c>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="243" t="s">
+      <c r="I11" s="268"/>
+      <c r="J11" s="259"/>
+    </row>
+    <row r="12" spans="1:10" ht="14">
+      <c r="A12" s="266" t="s">
         <v>3083</v>
       </c>
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="262" t="s">
         <v>3001</v>
       </c>
-      <c r="C12" s="231" t="s">
+      <c r="C12" s="262" t="s">
         <v>3002</v>
       </c>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E12" s="233" t="s">
+      <c r="E12" s="267" t="s">
         <v>2971</v>
       </c>
-      <c r="F12" s="237" t="s">
+      <c r="F12" s="268" t="s">
         <v>3062</v>
       </c>
-      <c r="G12" s="238" t="s">
+      <c r="G12" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="237">
+      <c r="H12" s="268">
         <v>13</v>
       </c>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="243" t="s">
+      <c r="I12" s="268"/>
+      <c r="J12" s="259"/>
+    </row>
+    <row r="13" spans="1:10" ht="14">
+      <c r="A13" s="266" t="s">
         <v>3084</v>
       </c>
-      <c r="B13" s="230" t="s">
+      <c r="B13" s="262" t="s">
         <v>3003</v>
       </c>
-      <c r="C13" s="231" t="s">
+      <c r="C13" s="262" t="s">
         <v>2959</v>
       </c>
-      <c r="D13" s="233" t="s">
+      <c r="D13" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E13" s="233" t="s">
+      <c r="E13" s="267" t="s">
         <v>2958</v>
       </c>
-      <c r="F13" s="237" t="s">
+      <c r="F13" s="268" t="s">
         <v>3056</v>
       </c>
-      <c r="G13" s="238" t="s">
+      <c r="G13" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="237">
+      <c r="H13" s="268">
         <v>11</v>
       </c>
-      <c r="K13" s="237"/>
-      <c r="L13" s="238"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="243" t="s">
+      <c r="I13" s="268"/>
+      <c r="J13" s="259"/>
+    </row>
+    <row r="14" spans="1:10" ht="14">
+      <c r="A14" s="266" t="s">
         <v>3085</v>
       </c>
-      <c r="B14" s="234" t="s">
+      <c r="B14" s="262" t="s">
         <v>3004</v>
       </c>
-      <c r="C14" s="231" t="s">
+      <c r="C14" s="262" t="s">
         <v>3005</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="267" t="s">
         <v>2944</v>
       </c>
-      <c r="E14" s="233" t="s">
+      <c r="E14" s="267" t="s">
         <v>2972</v>
       </c>
-      <c r="F14" s="237" t="s">
+      <c r="F14" s="268" t="s">
         <v>3059</v>
       </c>
-      <c r="G14" s="238" t="s">
+      <c r="G14" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="237">
+      <c r="H14" s="268">
         <v>6</v>
       </c>
-      <c r="K14" s="237"/>
-      <c r="L14" s="238"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="243" t="s">
+      <c r="I14" s="268"/>
+      <c r="J14" s="259"/>
+    </row>
+    <row r="15" spans="1:10" ht="14">
+      <c r="A15" s="266" t="s">
         <v>3086</v>
       </c>
-      <c r="B15" s="230" t="s">
+      <c r="B15" s="262" t="s">
         <v>3006</v>
       </c>
-      <c r="C15" s="231" t="s">
+      <c r="C15" s="262" t="s">
         <v>2961</v>
       </c>
-      <c r="D15" s="233" t="s">
+      <c r="D15" s="267" t="s">
         <v>2962</v>
       </c>
-      <c r="E15" s="233" t="s">
+      <c r="E15" s="267" t="s">
         <v>2960</v>
       </c>
-      <c r="F15" s="237" t="s">
+      <c r="F15" s="268" t="s">
         <v>3061</v>
       </c>
-      <c r="G15" s="238" t="s">
+      <c r="G15" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="237">
+      <c r="H15" s="268">
         <v>9</v>
       </c>
-      <c r="K15" s="237"/>
-      <c r="L15" s="238"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16" s="244" t="s">
+      <c r="I15" s="268"/>
+      <c r="J15" s="259"/>
+    </row>
+    <row r="16" spans="1:10" ht="14">
+      <c r="A16" s="270" t="s">
         <v>3087</v>
       </c>
-      <c r="B16" s="230" t="s">
+      <c r="B16" s="262" t="s">
         <v>3007</v>
       </c>
-      <c r="C16" s="231" t="s">
+      <c r="C16" s="262" t="s">
         <v>2964</v>
       </c>
-      <c r="D16" s="232" t="s">
+      <c r="D16" s="262" t="s">
         <v>2965</v>
       </c>
-      <c r="E16" s="232" t="s">
+      <c r="E16" s="262" t="s">
         <v>2963</v>
       </c>
-      <c r="F16" s="237" t="s">
+      <c r="F16" s="268" t="s">
         <v>3064</v>
       </c>
-      <c r="G16" s="238" t="s">
+      <c r="G16" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="237">
+      <c r="H16" s="268">
         <v>16</v>
       </c>
-      <c r="K16" s="237"/>
-      <c r="L16" s="238"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" s="243" t="s">
+      <c r="I16" s="268"/>
+      <c r="J16" s="259"/>
+    </row>
+    <row r="17" spans="1:10" ht="70">
+      <c r="A17" s="266" t="s">
         <v>3088</v>
       </c>
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="262" t="s">
         <v>3008</v>
       </c>
-      <c r="C17" s="231" t="s">
+      <c r="C17" s="262" t="s">
         <v>2970</v>
       </c>
-      <c r="D17" s="233" t="s">
+      <c r="D17" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E17" s="233" t="s">
+      <c r="E17" s="267" t="s">
         <v>2969</v>
       </c>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="268" t="s">
         <v>3047</v>
       </c>
-      <c r="G17" s="238" t="s">
+      <c r="G17" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="237">
+      <c r="H17" s="268">
         <v>15</v>
       </c>
-      <c r="K17" s="237"/>
-      <c r="L17" s="238"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1">
-      <c r="A18" s="243" t="s">
+      <c r="I17" s="268" t="s">
+        <v>3135</v>
+      </c>
+      <c r="J17" s="259"/>
+    </row>
+    <row r="18" spans="1:10" ht="14">
+      <c r="A18" s="266" t="s">
         <v>3089</v>
       </c>
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="262" t="s">
         <v>3009</v>
       </c>
-      <c r="C18" s="231" t="s">
+      <c r="C18" s="262" t="s">
         <v>2979</v>
       </c>
-      <c r="D18" s="233" t="s">
+      <c r="D18" s="267" t="s">
         <v>2944</v>
       </c>
-      <c r="E18" s="233" t="s">
+      <c r="E18" s="267" t="s">
         <v>2978</v>
       </c>
-      <c r="F18" s="237" t="s">
+      <c r="F18" s="268" t="s">
         <v>3060</v>
       </c>
-      <c r="G18" s="238" t="s">
+      <c r="G18" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="237">
+      <c r="H18" s="268">
         <v>18</v>
       </c>
-      <c r="K18" s="237"/>
-      <c r="L18" s="238"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
-      <c r="A19" s="243" t="s">
+      <c r="I18" s="268"/>
+      <c r="J18" s="259"/>
+    </row>
+    <row r="19" spans="1:10" ht="182">
+      <c r="A19" s="266" t="s">
         <v>3090</v>
       </c>
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="262" t="s">
         <v>3010</v>
       </c>
-      <c r="C19" s="231" t="s">
+      <c r="C19" s="262" t="s">
         <v>2974</v>
       </c>
-      <c r="D19" s="233" t="s">
+      <c r="D19" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E19" s="233" t="s">
+      <c r="E19" s="267" t="s">
         <v>2973</v>
       </c>
-      <c r="F19" s="237" t="s">
+      <c r="F19" s="268" t="s">
         <v>3048</v>
       </c>
-      <c r="G19" s="238" t="s">
+      <c r="G19" s="271" t="s">
+        <v>3139</v>
+      </c>
+      <c r="H19" s="268">
+        <v>19</v>
+      </c>
+      <c r="I19" s="272" t="s">
+        <v>3136</v>
+      </c>
+      <c r="J19" s="259"/>
+    </row>
+    <row r="20" spans="1:10" ht="98">
+      <c r="A20" s="266" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B20" s="262" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C20" s="262" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D20" s="267" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E20" s="267" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F20" s="268" t="s">
+        <v>3049</v>
+      </c>
+      <c r="G20" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="237">
-        <v>19</v>
-      </c>
-      <c r="K19" s="237"/>
-      <c r="L19" s="238"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" s="243" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B20" s="230" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C20" s="231" t="s">
-        <v>2976</v>
-      </c>
-      <c r="D20" s="233" t="s">
+      <c r="H20" s="268">
+        <v>20</v>
+      </c>
+      <c r="I20" s="268" t="s">
+        <v>3137</v>
+      </c>
+      <c r="J20" s="259"/>
+    </row>
+    <row r="21" spans="1:10" ht="126">
+      <c r="A21" s="266" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B21" s="262" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C21" s="262" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D21" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E20" s="233" t="s">
-        <v>2975</v>
-      </c>
-      <c r="F20" s="237" t="s">
-        <v>3049</v>
-      </c>
-      <c r="G20" s="238" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="237">
-        <v>20</v>
-      </c>
-      <c r="K20" s="237"/>
-      <c r="L20" s="238"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1">
-      <c r="A21" s="243" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B21" s="230" t="s">
-        <v>3012</v>
-      </c>
-      <c r="C21" s="231" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D21" s="233" t="s">
+      <c r="E21" s="267" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F21" s="268" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G21" s="271" t="s">
+        <v>3139</v>
+      </c>
+      <c r="H21" s="268">
+        <v>23</v>
+      </c>
+      <c r="I21" s="272" t="s">
+        <v>3138</v>
+      </c>
+      <c r="J21" s="259"/>
+    </row>
+    <row r="22" spans="1:10" ht="14">
+      <c r="A22" s="266" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B22" s="262" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C22" s="262" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D22" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E21" s="233" t="s">
-        <v>2984</v>
-      </c>
-      <c r="F21" s="237" t="s">
-        <v>3051</v>
-      </c>
-      <c r="G21" s="238" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="237">
-        <v>23</v>
-      </c>
-      <c r="K21" s="237"/>
-      <c r="L21" s="238"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1">
-      <c r="A22" s="243" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B22" s="230" t="s">
-        <v>3013</v>
-      </c>
-      <c r="C22" s="231" t="s">
-        <v>2983</v>
-      </c>
-      <c r="D22" s="233" t="s">
+      <c r="E22" s="267" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F22" s="268" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G22" s="269" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="268">
+        <v>22</v>
+      </c>
+      <c r="I22" s="268"/>
+      <c r="J22" s="259"/>
+    </row>
+    <row r="23" spans="1:10" ht="14">
+      <c r="A23" s="266" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B23" s="262" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C23" s="262" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D23" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E22" s="233" t="s">
-        <v>2982</v>
-      </c>
-      <c r="F22" s="237" t="s">
-        <v>3057</v>
-      </c>
-      <c r="G22" s="238" t="s">
+      <c r="E23" s="267" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F23" s="268" t="s">
+        <v>3058</v>
+      </c>
+      <c r="G23" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="237">
-        <v>22</v>
-      </c>
-      <c r="K22" s="237"/>
-      <c r="L22" s="238"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
-      <c r="A23" s="245" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B23" s="230" t="s">
-        <v>3014</v>
-      </c>
-      <c r="C23" s="231" t="s">
-        <v>2987</v>
-      </c>
-      <c r="D23" s="235" t="s">
+      <c r="H23" s="268">
+        <v>25</v>
+      </c>
+      <c r="I23" s="268"/>
+      <c r="J23" s="259"/>
+    </row>
+    <row r="24" spans="1:10" ht="14">
+      <c r="A24" s="266" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B24" s="262" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C24" s="262" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D24" s="267" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E24" s="267" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F24" s="268" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G24" s="269" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="268">
+        <v>21</v>
+      </c>
+      <c r="I24" s="268"/>
+      <c r="J24" s="259"/>
+    </row>
+    <row r="25" spans="1:10" ht="14">
+      <c r="A25" s="266" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B25" s="262"/>
+      <c r="C25" s="262"/>
+      <c r="D25" s="267" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E25" s="267" t="s">
+        <v>3046</v>
+      </c>
+      <c r="F25" s="268" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G25" s="269" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="268">
+        <v>17</v>
+      </c>
+      <c r="I25" s="268"/>
+      <c r="J25" s="259"/>
+    </row>
+    <row r="26" spans="1:10" ht="14">
+      <c r="A26" s="273"/>
+      <c r="B26" s="262" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C26" s="262" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D26" s="267" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E26" s="267" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F26" s="274"/>
+      <c r="G26" s="274"/>
+      <c r="H26" s="274"/>
+      <c r="I26" s="274"/>
+      <c r="J26" s="259"/>
+    </row>
+    <row r="27" spans="1:10" ht="14">
+      <c r="A27" s="275"/>
+      <c r="B27" s="262" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C27" s="262" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D27" s="267" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E27" s="276" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F27" s="274"/>
+      <c r="G27" s="274"/>
+      <c r="H27" s="274"/>
+      <c r="I27" s="274"/>
+      <c r="J27" s="259"/>
+    </row>
+    <row r="28" spans="1:10" ht="14">
+      <c r="A28" s="273"/>
+      <c r="B28" s="262" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C28" s="262" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D28" s="267" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E28" s="267" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F28" s="274"/>
+      <c r="G28" s="274"/>
+      <c r="H28" s="274"/>
+      <c r="I28" s="274"/>
+      <c r="J28" s="259"/>
+    </row>
+    <row r="29" spans="1:10" ht="14">
+      <c r="A29" s="273"/>
+      <c r="B29" s="262" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C29" s="262" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D29" s="267" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E29" s="267" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F29" s="274"/>
+      <c r="G29" s="274"/>
+      <c r="H29" s="274"/>
+      <c r="I29" s="274"/>
+      <c r="J29" s="259"/>
+    </row>
+    <row r="30" spans="1:10" ht="14">
+      <c r="A30" s="273"/>
+      <c r="B30" s="262" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C30" s="262" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D30" s="267" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E30" s="267" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="274"/>
+      <c r="J30" s="259"/>
+    </row>
+    <row r="31" spans="1:10" ht="14">
+      <c r="A31" s="273"/>
+      <c r="B31" s="262" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C31" s="262" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D31" s="267" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E31" s="267" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F31" s="274"/>
+      <c r="G31" s="274"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="274"/>
+      <c r="J31" s="259"/>
+    </row>
+    <row r="32" spans="1:10" ht="14">
+      <c r="A32" s="273"/>
+      <c r="B32" s="262" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C32" s="262" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D32" s="267" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E32" s="267" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F32" s="274"/>
+      <c r="G32" s="274"/>
+      <c r="H32" s="274"/>
+      <c r="I32" s="274"/>
+      <c r="J32" s="259"/>
+    </row>
+    <row r="33" spans="1:10" ht="14">
+      <c r="A33" s="266" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B33" s="262" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C33" s="262" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D33" s="267" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E33" s="267" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F33" s="268" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G33" s="269" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="268">
+        <v>26</v>
+      </c>
+      <c r="I33" s="268"/>
+      <c r="J33" s="259"/>
+    </row>
+    <row r="34" spans="1:10" ht="14">
+      <c r="A34" s="266" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B34" s="262" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C34" s="262" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D34" s="267" t="s">
         <v>2936</v>
       </c>
-      <c r="E23" s="235" t="s">
-        <v>2986</v>
-      </c>
-      <c r="F23" s="237" t="s">
-        <v>3058</v>
-      </c>
-      <c r="G23" s="238" t="s">
+      <c r="E34" s="267" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F34" s="268" t="s">
+        <v>3052</v>
+      </c>
+      <c r="G34" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="237">
-        <v>25</v>
-      </c>
-      <c r="K23" s="237"/>
-      <c r="L23" s="238"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" s="243" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B24" s="234" t="s">
-        <v>3015</v>
-      </c>
-      <c r="C24" s="231" t="s">
-        <v>3016</v>
-      </c>
-      <c r="D24" s="233" t="s">
-        <v>2981</v>
-      </c>
-      <c r="E24" s="233" t="s">
-        <v>2980</v>
-      </c>
-      <c r="F24" s="237" t="s">
-        <v>3066</v>
-      </c>
-      <c r="G24" s="238" t="s">
+      <c r="H34" s="268">
+        <v>27</v>
+      </c>
+      <c r="I34" s="268"/>
+      <c r="J34" s="259"/>
+    </row>
+    <row r="35" spans="1:10" ht="14">
+      <c r="A35" s="277" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B35" s="262" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C35" s="262" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D35" s="267" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E35" s="276" t="s">
+        <v>3042</v>
+      </c>
+      <c r="F35" s="268" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G35" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="237">
-        <v>21</v>
-      </c>
-      <c r="K24" s="237"/>
-      <c r="L24" s="238"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1">
-      <c r="A25" s="243" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B25" s="234"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="233" t="s">
-        <v>2977</v>
-      </c>
-      <c r="E25" s="233" t="s">
-        <v>3046</v>
-      </c>
-      <c r="F25" s="237" t="s">
-        <v>3067</v>
-      </c>
-      <c r="G25" s="238" t="s">
+      <c r="H35" s="268">
+        <v>24</v>
+      </c>
+      <c r="I35" s="268"/>
+      <c r="J35" s="259"/>
+    </row>
+    <row r="36" spans="1:10" ht="14">
+      <c r="A36" s="277" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B36" s="262" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C36" s="262" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D36" s="267" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E36" s="276" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F36" s="268" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G36" s="269" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="237">
-        <v>17</v>
-      </c>
-      <c r="K25" s="237"/>
-      <c r="L25" s="238"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1">
-      <c r="A26" s="240"/>
-      <c r="B26" s="230" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C26" s="231" t="s">
-        <v>2967</v>
-      </c>
-      <c r="D26" s="233" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E26" s="233" t="s">
-        <v>2966</v>
-      </c>
-      <c r="K26" s="237"/>
-      <c r="L26" s="238"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" s="241"/>
-      <c r="B27" s="234" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C27" s="231" t="s">
-        <v>3019</v>
-      </c>
-      <c r="D27" s="233" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E27" s="236" t="s">
-        <v>3020</v>
-      </c>
-      <c r="K27" s="237"/>
-      <c r="L27" s="238"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" s="240"/>
-      <c r="B28" s="230" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C28" s="231" t="s">
-        <v>3021</v>
-      </c>
-      <c r="D28" s="233" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E28" s="233" t="s">
-        <v>3022</v>
-      </c>
-      <c r="K28" s="237"/>
-      <c r="L28" s="238"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1">
-      <c r="A29" s="240"/>
-      <c r="B29" s="230" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C29" s="231" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D29" s="233" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E29" s="233" t="s">
-        <v>3024</v>
-      </c>
-      <c r="K29" s="237"/>
-      <c r="L29" s="238"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1">
-      <c r="A30" s="240"/>
-      <c r="B30" s="230" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C30" s="231" t="s">
-        <v>3025</v>
-      </c>
-      <c r="D30" s="233" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E30" s="233" t="s">
-        <v>3026</v>
-      </c>
-      <c r="K30" s="237"/>
-      <c r="L30" s="238"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1">
-      <c r="A31" s="240"/>
-      <c r="B31" s="230" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C31" s="231" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D31" s="233" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E31" s="233" t="s">
-        <v>3028</v>
-      </c>
-      <c r="K31" s="237"/>
-      <c r="L31" s="238"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1">
-      <c r="A32" s="240"/>
-      <c r="B32" s="230" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C32" s="231" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D32" s="233" t="s">
-        <v>3030</v>
-      </c>
-      <c r="E32" s="233" t="s">
-        <v>3031</v>
-      </c>
-      <c r="K32" s="237"/>
-      <c r="L32" s="238"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" s="243" t="s">
-        <v>3097</v>
-      </c>
-      <c r="B33" s="230" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C33" s="231" t="s">
-        <v>3033</v>
-      </c>
-      <c r="D33" s="233" t="s">
-        <v>3034</v>
-      </c>
-      <c r="E33" s="233" t="s">
-        <v>3035</v>
-      </c>
-      <c r="F33" s="237" t="s">
-        <v>3065</v>
-      </c>
-      <c r="G33" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="237">
-        <v>26</v>
-      </c>
-      <c r="K33" s="237"/>
-      <c r="L33" s="238"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1">
-      <c r="A34" s="243" t="s">
-        <v>3098</v>
-      </c>
-      <c r="B34" s="230" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C34" s="231" t="s">
-        <v>3037</v>
-      </c>
-      <c r="D34" s="233" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E34" s="233" t="s">
-        <v>3038</v>
-      </c>
-      <c r="F34" s="237" t="s">
-        <v>3052</v>
-      </c>
-      <c r="G34" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="237">
-        <v>27</v>
-      </c>
-      <c r="K34" s="237"/>
-      <c r="L34" s="238"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1">
-      <c r="A35" s="246" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B35" s="230" t="s">
-        <v>3039</v>
-      </c>
-      <c r="C35" s="231" t="s">
-        <v>3040</v>
-      </c>
-      <c r="D35" s="233" t="s">
-        <v>3041</v>
-      </c>
-      <c r="E35" s="236" t="s">
-        <v>3042</v>
-      </c>
-      <c r="F35" s="237" t="s">
-        <v>3063</v>
-      </c>
-      <c r="G35" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="237">
-        <v>24</v>
-      </c>
-      <c r="K35" s="237"/>
-      <c r="L35" s="238"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1">
-      <c r="A36" s="246" t="s">
-        <v>3100</v>
-      </c>
-      <c r="B36" s="230" t="s">
-        <v>3043</v>
-      </c>
-      <c r="C36" s="231" t="s">
-        <v>3044</v>
-      </c>
-      <c r="D36" s="233" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E36" s="236" t="s">
-        <v>3045</v>
-      </c>
-      <c r="F36" s="237" t="s">
-        <v>3050</v>
-      </c>
-      <c r="G36" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="237">
+      <c r="H36" s="268">
         <v>28</v>
       </c>
-      <c r="K36" s="237"/>
-      <c r="L36" s="238"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="K37" s="237"/>
-      <c r="L37" s="238"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="K38" s="237"/>
-      <c r="L38" s="238"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="K39" s="237"/>
-      <c r="L39" s="238"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="K40" s="237"/>
-      <c r="L40" s="238"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="K41" s="237"/>
-      <c r="L41" s="238"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="K42" s="237"/>
-      <c r="L42" s="238"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="K43" s="237"/>
-      <c r="L43" s="238"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="K44" s="237"/>
-      <c r="L44" s="238"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="K45" s="237"/>
-      <c r="L45" s="238"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="K46" s="237"/>
-      <c r="L46" s="238"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="K47" s="237"/>
-      <c r="L47" s="238"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="K48" s="237"/>
-      <c r="L48" s="238"/>
-    </row>
-    <row r="49" spans="11:12">
-      <c r="K49" s="237"/>
-      <c r="L49" s="238"/>
-    </row>
-    <row r="50" spans="11:12">
-      <c r="K50" s="237"/>
-      <c r="L50" s="238"/>
-    </row>
-    <row r="51" spans="11:12">
-      <c r="K51" s="237"/>
-      <c r="L51" s="238"/>
-    </row>
-    <row r="52" spans="11:12">
-      <c r="K52" s="237"/>
-      <c r="L52" s="238"/>
-    </row>
-    <row r="53" spans="11:12">
-      <c r="K53" s="237"/>
-      <c r="L53" s="238"/>
-    </row>
-    <row r="54" spans="11:12">
-      <c r="K54" s="237"/>
-      <c r="L54" s="238"/>
-    </row>
-    <row r="55" spans="11:12">
-      <c r="K55" s="237"/>
-      <c r="L55" s="238"/>
-    </row>
-    <row r="56" spans="11:12">
-      <c r="K56" s="237"/>
-      <c r="L56" s="238"/>
+      <c r="I36" s="268"/>
+      <c r="J36" s="259"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="J37" s="259"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="J38" s="259"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="J39" s="259"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="J40" s="259"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="J41" s="259"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="J42" s="259"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="J43" s="259"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="J44" s="259"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="J45" s="259"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="J46" s="259"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="J47" s="259"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="J48" s="259"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="259"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="259"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="259"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="259"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="259"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="259"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="259"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="259"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T67" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}"/>
-  <conditionalFormatting sqref="L2:L56">
-    <cfRule type="containsBlanks" dxfId="23" priority="24">
-      <formula>LEN(TRIM(N2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="22" priority="23">
-      <formula>LEN(TRIM(I2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsBlanks" dxfId="21" priority="22">
-      <formula>LEN(TRIM(I4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
-      <formula>LEN(TRIM(I3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsBlanks" dxfId="19" priority="20">
-      <formula>LEN(TRIM(I5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsBlanks" dxfId="18" priority="19">
-      <formula>LEN(TRIM(I6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
-      <formula>LEN(TRIM(I7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsBlanks" dxfId="16" priority="17">
-      <formula>LEN(TRIM(I8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G11">
-    <cfRule type="containsBlanks" dxfId="15" priority="16">
-      <formula>LEN(TRIM(I10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
-      <formula>LEN(TRIM(I12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsBlanks" dxfId="13" priority="14">
-      <formula>LEN(TRIM(I13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(I14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G16">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
-      <formula>LEN(TRIM(I15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(I17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G20">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
-      <formula>LEN(TRIM(I19))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(I21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(I22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(I23))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(I24))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(I25))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(I33))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(I34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(I35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
+  <autoFilter ref="A1:R67" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}"/>
+  <conditionalFormatting sqref="G2:G25 G33:G36">
+    <cfRule type="containsBlanks" dxfId="0" priority="54">
+      <formula>LEN(TRIM(#REF!))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6663F6-777E-704C-A979-4772FB06FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE519CD-49C9-4245-B170-56ADE53EBF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12895" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12896" uniqueCount="3140">
   <si>
     <t>Tab</t>
   </si>
@@ -49029,11 +49029,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y282"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y273" sqref="Y273"/>
+      <selection pane="bottomRight" activeCell="E286" sqref="E286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49500,7 +49500,7 @@
       </c>
       <c r="S10" s="210"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="177" t="s">
         <v>167</v>
       </c>
@@ -49572,7 +49572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1">
+    <row r="12" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49633,7 +49633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1">
+    <row r="13" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="192" t="s">
         <v>174</v>
       </c>
@@ -49692,7 +49692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1">
+    <row r="14" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="177" t="s">
         <v>177</v>
       </c>
@@ -49799,7 +49799,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1">
+    <row r="16" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -50033,7 +50033,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
+    <row r="21" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="192" t="s">
         <v>267</v>
       </c>
@@ -50140,7 +50140,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
+    <row r="23" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="192" t="s">
         <v>309</v>
       </c>
@@ -50293,7 +50293,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1">
+    <row r="26" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -50398,7 +50398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
+    <row r="28" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -50752,7 +50752,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15" customHeight="1">
+    <row r="36" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="204" t="s">
         <v>395</v>
       </c>
@@ -51723,7 +51723,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="15" customHeight="1">
+    <row r="56" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -52275,7 +52275,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="15" customHeight="1">
+    <row r="67" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="203" t="s">
         <v>537</v>
       </c>
@@ -52854,7 +52854,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15" customHeight="1">
+    <row r="79" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="203" t="s">
         <v>562</v>
       </c>
@@ -52915,7 +52915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15" customHeight="1">
+    <row r="80" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="203" t="s">
         <v>565</v>
       </c>
@@ -52974,7 +52974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15" customHeight="1">
+    <row r="81" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53035,7 +53035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="15" customHeight="1">
+    <row r="82" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="177" t="s">
         <v>702</v>
       </c>
@@ -53392,7 +53392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15" customHeight="1">
+    <row r="89" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -53607,7 +53607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" customHeight="1">
+    <row r="93" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -53828,7 +53828,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15" customHeight="1">
+    <row r="97" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -53943,7 +53943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="15" customHeight="1">
+    <row r="99" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -54058,7 +54058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15" customHeight="1">
+    <row r="101" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="177" t="s">
         <v>759</v>
       </c>
@@ -54117,7 +54117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="15" customHeight="1">
+    <row r="102" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -54178,7 +54178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="15" customHeight="1">
+    <row r="103" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -54241,7 +54241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15" customHeight="1">
+    <row r="104" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -54302,7 +54302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="15" customHeight="1">
+    <row r="105" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -54363,7 +54363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15" customHeight="1">
+    <row r="106" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -54424,7 +54424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="15" customHeight="1">
+    <row r="107" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -54727,7 +54727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="15" customHeight="1">
+    <row r="113" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="193" t="s">
         <v>811</v>
       </c>
@@ -55047,7 +55047,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15" customHeight="1">
+    <row r="119" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -55167,7 +55167,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="15" customHeight="1">
+    <row r="121" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="193" t="s">
         <v>846</v>
       </c>
@@ -55423,7 +55423,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15" customHeight="1">
+    <row r="126" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="193" t="s">
         <v>860</v>
       </c>
@@ -55479,7 +55479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="15" customHeight="1">
+    <row r="127" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="193" t="s">
         <v>864</v>
       </c>
@@ -55535,7 +55535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15" customHeight="1">
+    <row r="128" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="193" t="s">
         <v>870</v>
       </c>
@@ -56108,7 +56108,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15" customHeight="1">
+    <row r="139" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="193" t="s">
         <v>913</v>
       </c>
@@ -56223,7 +56223,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15" customHeight="1">
+    <row r="141" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="193" t="s">
         <v>918</v>
       </c>
@@ -57157,7 +57157,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="15" customHeight="1">
+    <row r="160" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="199" t="s">
         <v>1658</v>
       </c>
@@ -57210,7 +57210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="15" customHeight="1">
+    <row r="161" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -57272,7 +57272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="15" customHeight="1">
+    <row r="162" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -58679,7 +58679,7 @@
       </c>
       <c r="U191" s="210"/>
     </row>
-    <row r="192" spans="1:25" ht="15" customHeight="1">
+    <row r="192" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A192" s="197" t="s">
         <v>1191</v>
       </c>
@@ -59237,7 +59237,7 @@
       <c r="T202" s="210"/>
       <c r="U202" s="212"/>
     </row>
-    <row r="203" spans="1:24" ht="15" customHeight="1">
+    <row r="203" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A203" s="199" t="s">
         <v>1669</v>
       </c>
@@ -59612,7 +59612,7 @@
       <c r="T211" s="210"/>
       <c r="U211" s="210"/>
     </row>
-    <row r="212" spans="1:25" ht="15" customHeight="1">
+    <row r="212" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -59761,7 +59761,7 @@
       <c r="T214" s="210"/>
       <c r="U214" s="210"/>
     </row>
-    <row r="215" spans="1:25" ht="15" customHeight="1">
+    <row r="215" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A215" s="199" t="s">
         <v>1716</v>
       </c>
@@ -60311,7 +60311,7 @@
       <c r="T225" s="210"/>
       <c r="U225" s="210"/>
     </row>
-    <row r="226" spans="1:25" ht="15" customHeight="1">
+    <row r="226" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -60495,7 +60495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="15" customHeight="1">
+    <row r="229" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -60763,7 +60763,7 @@
       </c>
       <c r="U234" s="252"/>
     </row>
-    <row r="235" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="235" spans="1:25" ht="15" customHeight="1">
       <c r="A235" s="239" t="s">
         <v>2605</v>
       </c>
@@ -60799,7 +60799,7 @@
       <c r="O235" s="234"/>
       <c r="P235" s="234"/>
     </row>
-    <row r="236" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="236" spans="1:25" ht="15" customHeight="1">
       <c r="A236" s="236" t="s">
         <v>2870</v>
       </c>
@@ -60807,7 +60807,9 @@
       <c r="C236" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D236" s="243"/>
+      <c r="D236" s="243" t="s">
+        <v>121</v>
+      </c>
       <c r="E236" s="243"/>
       <c r="F236" s="252"/>
       <c r="G236" s="177"/>
@@ -60879,7 +60881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="15" customHeight="1">
+    <row r="238" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A238" s="221" t="s">
         <v>2887</v>
       </c>
@@ -61012,7 +61014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="15" customHeight="1">
+    <row r="241" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A241" s="221" t="s">
         <v>2888</v>
       </c>
@@ -61179,7 +61181,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="15" customHeight="1">
+    <row r="245" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2884</v>
       </c>
@@ -61307,7 +61309,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="15" customHeight="1">
+    <row r="248" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="221" t="s">
         <v>2900</v>
       </c>
@@ -61352,7 +61354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="15" customHeight="1">
+    <row r="249" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2874</v>
       </c>
@@ -61555,7 +61557,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="15" customHeight="1">
+    <row r="254" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A254" s="221" t="s">
         <v>2905</v>
       </c>
@@ -61641,7 +61643,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="15" customHeight="1">
+    <row r="256" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="221" t="s">
         <v>2893</v>
       </c>
@@ -61688,7 +61690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="15" customHeight="1">
+    <row r="257" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2907</v>
       </c>
@@ -61735,7 +61737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="15" customHeight="1">
+    <row r="258" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A258" s="221" t="s">
         <v>2871</v>
       </c>
@@ -61784,7 +61786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="15" customHeight="1">
+    <row r="259" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="221" t="s">
         <v>2883</v>
       </c>
@@ -61873,7 +61875,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="15" customHeight="1">
+    <row r="261" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2895</v>
       </c>
@@ -62044,7 +62046,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="15" customHeight="1">
+    <row r="265" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A265" s="221" t="s">
         <v>2876</v>
       </c>
@@ -62089,7 +62091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="15" customHeight="1">
+    <row r="266" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2877</v>
       </c>
@@ -62134,7 +62136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="15" customHeight="1">
+    <row r="267" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2908</v>
       </c>
@@ -62179,7 +62181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="15" customHeight="1">
+    <row r="268" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2875</v>
       </c>
@@ -62226,7 +62228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="15" customHeight="1">
+    <row r="269" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2879</v>
       </c>
@@ -62268,7 +62270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="15" customHeight="1">
+    <row r="270" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A270" s="221" t="s">
         <v>2878</v>
       </c>
@@ -62315,7 +62317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="15" customHeight="1">
+    <row r="271" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2819</v>
       </c>
@@ -62460,10 +62462,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="studycode"/>
+        <filter val="studyimp"/>
+        <filter val="studyname"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X283">
@@ -62751,7 +62755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE519CD-49C9-4245-B170-56ADE53EBF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48C4D1-3DB5-D74C-A8ED-C9B371F514FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12896" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12892" uniqueCount="3141">
   <si>
     <t>Tab</t>
   </si>
@@ -11932,6 +11932,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>npred</t>
   </si>
 </sst>
 </file>
@@ -49027,13 +49030,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y282"/>
+  <dimension ref="A1:Z282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B235" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E286" sqref="E286"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49047,11 +49050,10 @@
     <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="208" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
-    <col min="19" max="21" width="10.83203125" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="19" max="24" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1">
+    <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="233" t="s">
         <v>3101</v>
       </c>
@@ -49127,8 +49129,11 @@
       <c r="Y1" s="201" t="s">
         <v>3132</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z1" s="201" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49176,7 +49181,7 @@
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
     </row>
-    <row r="3" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49218,7 +49223,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49260,7 +49265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49299,7 +49304,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49339,7 +49344,7 @@
       </c>
       <c r="U6" s="252"/>
     </row>
-    <row r="7" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49379,7 +49384,7 @@
       </c>
       <c r="S7" s="210"/>
     </row>
-    <row r="8" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49420,7 +49425,7 @@
       <c r="S8" s="210"/>
       <c r="U8" s="252"/>
     </row>
-    <row r="9" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49460,7 +49465,7 @@
       </c>
       <c r="S9" s="210"/>
     </row>
-    <row r="10" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49500,7 +49505,7 @@
       </c>
       <c r="S10" s="210"/>
     </row>
-    <row r="11" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="177" t="s">
         <v>167</v>
       </c>
@@ -49572,7 +49577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49633,7 +49638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="192" t="s">
         <v>174</v>
       </c>
@@ -49692,7 +49697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="177" t="s">
         <v>177</v>
       </c>
@@ -49751,7 +49756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -49799,7 +49804,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -49857,6 +49862,9 @@
         <v>322</v>
       </c>
       <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
       </c>
     </row>
@@ -50398,7 +50406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:25" ht="15" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -50415,9 +50423,7 @@
         <v>120</v>
       </c>
       <c r="F28" s="177"/>
-      <c r="G28" s="177" t="s">
-        <v>120</v>
-      </c>
+      <c r="G28" s="177"/>
       <c r="H28" s="177">
         <v>9</v>
       </c>
@@ -52974,7 +52980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53034,8 +53040,11 @@
       <c r="Y81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="177" t="s">
         <v>702</v>
       </c>
@@ -53096,7 +53105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53144,7 +53153,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53186,7 +53195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53243,7 +53252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -53291,7 +53300,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -53342,7 +53351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -53392,7 +53401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -53453,7 +53462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -53507,7 +53516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -53551,7 +53560,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -53607,7 +53616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -53668,7 +53677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -53722,7 +53731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -53778,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -53828,7 +53837,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -53889,7 +53898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -53943,7 +53952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -54004,7 +54013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54058,7 +54067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="177" t="s">
         <v>759</v>
       </c>
@@ -54117,7 +54126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -54177,8 +54186,11 @@
       <c r="Y102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -54241,7 +54253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -54301,8 +54313,11 @@
       <c r="Y104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -54363,7 +54378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -54423,8 +54438,11 @@
       <c r="Y106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -54485,7 +54503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -54533,7 +54551,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -54581,7 +54599,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -54635,7 +54653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -54680,7 +54698,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -54727,7 +54745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="193" t="s">
         <v>811</v>
       </c>
@@ -54792,10 +54810,10 @@
         <v>46</v>
       </c>
       <c r="Y113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" ht="15" hidden="1" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -54845,7 +54863,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -54892,7 +54910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -54951,7 +54969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -54998,7 +55016,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -55047,7 +55065,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -55118,8 +55136,11 @@
       <c r="Y119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -55167,7 +55188,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="193" t="s">
         <v>846</v>
       </c>
@@ -55223,7 +55244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -55282,7 +55303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -55329,7 +55350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -55376,7 +55397,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -55423,7 +55444,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="193" t="s">
         <v>860</v>
       </c>
@@ -55479,7 +55500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="193" t="s">
         <v>864</v>
       </c>
@@ -55535,7 +55556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="193" t="s">
         <v>870</v>
       </c>
@@ -57210,7 +57231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -57271,8 +57292,11 @@
       <c r="Y161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -57335,8 +57359,11 @@
       <c r="Y162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -57380,7 +57407,7 @@
       </c>
       <c r="U163" s="83"/>
     </row>
-    <row r="164" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -57435,7 +57462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -57473,7 +57500,7 @@
       </c>
       <c r="U165" s="83"/>
     </row>
-    <row r="166" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -57511,7 +57538,7 @@
       </c>
       <c r="U166" s="252"/>
     </row>
-    <row r="167" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -57550,7 +57577,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -57588,7 +57615,7 @@
       </c>
       <c r="U168" s="252"/>
     </row>
-    <row r="169" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -57626,7 +57653,7 @@
       </c>
       <c r="U169" s="252"/>
     </row>
-    <row r="170" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -57664,7 +57691,7 @@
       </c>
       <c r="U170" s="252"/>
     </row>
-    <row r="171" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -57707,7 +57734,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -57753,7 +57780,7 @@
       </c>
       <c r="U172" s="210"/>
     </row>
-    <row r="173" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -57802,7 +57829,7 @@
       </c>
       <c r="U173" s="210"/>
     </row>
-    <row r="174" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -57848,7 +57875,7 @@
       </c>
       <c r="U174" s="243"/>
     </row>
-    <row r="175" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="207" t="s">
         <v>1508</v>
       </c>
@@ -57897,7 +57924,7 @@
       </c>
       <c r="U175" s="210"/>
     </row>
-    <row r="176" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -59624,12 +59651,8 @@
       </c>
       <c r="D212" s="194"/>
       <c r="E212" s="194"/>
-      <c r="F212" s="176" t="s">
-        <v>121</v>
-      </c>
-      <c r="G212" s="177" t="s">
-        <v>120</v>
-      </c>
+      <c r="F212" s="176"/>
+      <c r="G212" s="177"/>
       <c r="H212" s="177">
         <v>7</v>
       </c>
@@ -59773,12 +59796,8 @@
       </c>
       <c r="D215" s="194"/>
       <c r="E215" s="194"/>
-      <c r="F215" s="176" t="s">
-        <v>120</v>
-      </c>
-      <c r="G215" s="177" t="s">
-        <v>120</v>
-      </c>
+      <c r="F215" s="176"/>
+      <c r="G215" s="177"/>
       <c r="H215" s="177">
         <v>8</v>
       </c>
@@ -60763,7 +60782,7 @@
       </c>
       <c r="U234" s="252"/>
     </row>
-    <row r="235" spans="1:25" ht="15" customHeight="1">
+    <row r="235" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="239" t="s">
         <v>2605</v>
       </c>
@@ -60799,7 +60818,7 @@
       <c r="O235" s="234"/>
       <c r="P235" s="234"/>
     </row>
-    <row r="236" spans="1:25" ht="15" customHeight="1">
+    <row r="236" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="236" t="s">
         <v>2870</v>
       </c>
@@ -61014,7 +61033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="241" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A241" s="221" t="s">
         <v>2888</v>
       </c>
@@ -61067,7 +61086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="242" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2889</v>
       </c>
@@ -61107,7 +61126,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="243" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A243" s="221" t="s">
         <v>2890</v>
       </c>
@@ -61145,7 +61164,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="244" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A244" s="221" t="s">
         <v>2891</v>
       </c>
@@ -61181,7 +61200,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="245" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2884</v>
       </c>
@@ -61228,7 +61247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="246" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A246" s="221" t="s">
         <v>2892</v>
       </c>
@@ -61273,7 +61292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="247" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A247" s="221" t="s">
         <v>2885</v>
       </c>
@@ -61309,7 +61328,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="248" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="221" t="s">
         <v>2900</v>
       </c>
@@ -61354,7 +61373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="249" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2874</v>
       </c>
@@ -61401,8 +61420,11 @@
       <c r="Y249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="221" t="s">
         <v>2901</v>
       </c>
@@ -61441,7 +61463,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="251" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="221" t="s">
         <v>2902</v>
       </c>
@@ -61480,7 +61502,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="252" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="221" t="s">
         <v>2903</v>
       </c>
@@ -61519,7 +61541,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="253" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="221" t="s">
         <v>2904</v>
       </c>
@@ -61557,7 +61579,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="254" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A254" s="221" t="s">
         <v>2905</v>
       </c>
@@ -61604,8 +61626,11 @@
       <c r="Y254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A255" s="221" t="s">
         <v>2906</v>
       </c>
@@ -61643,7 +61668,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="256" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="221" t="s">
         <v>2893</v>
       </c>
@@ -61690,7 +61715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="257" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2907</v>
       </c>
@@ -61736,8 +61761,11 @@
       <c r="Y257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A258" s="221" t="s">
         <v>2871</v>
       </c>
@@ -61786,7 +61814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="259" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="221" t="s">
         <v>2883</v>
       </c>
@@ -61835,7 +61863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="260" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="223" t="s">
         <v>2894</v>
       </c>
@@ -61875,7 +61903,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="261" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2895</v>
       </c>
@@ -61922,7 +61950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="262" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2896</v>
       </c>
@@ -61964,7 +61992,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="263" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2897</v>
       </c>
@@ -62006,7 +62034,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="264" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="221" t="s">
         <v>2898</v>
       </c>
@@ -62046,7 +62074,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="265" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A265" s="221" t="s">
         <v>2876</v>
       </c>
@@ -62091,7 +62119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="266" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2877</v>
       </c>
@@ -62136,7 +62164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="267" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2908</v>
       </c>
@@ -62181,7 +62209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="268" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2875</v>
       </c>
@@ -62227,8 +62255,11 @@
       <c r="Y268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2879</v>
       </c>
@@ -62269,8 +62300,11 @@
       <c r="Y269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="Z269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A270" s="221" t="s">
         <v>2878</v>
       </c>
@@ -62317,7 +62351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="271" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2819</v>
       </c>
@@ -62356,7 +62390,7 @@
         <v>78.930817610062903</v>
       </c>
       <c r="U271" s="228" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="W271">
         <v>10</v>
@@ -62368,7 +62402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="272" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A272" s="221" t="s">
         <v>2988</v>
       </c>
@@ -62395,7 +62429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="15" customHeight="1">
+    <row r="273" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A273" s="230" t="s">
         <v>3107</v>
       </c>
@@ -62464,10 +62498,13 @@
   <autoFilter ref="A1:X282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
     <filterColumn colId="0">
       <filters>
-        <filter val="studycode"/>
-        <filter val="studyimp"/>
-        <filter val="studyname"/>
+        <filter val="prev_pregloss"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X283">

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48C4D1-3DB5-D74C-A8ED-C9B371F514FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C84E1-272F-7243-A505-BAEBA98446FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49033,10 +49033,10 @@
   <dimension ref="A1:Z282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="Y286" sqref="Y286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -50406,7 +50406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
+    <row r="28" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -52921,7 +52921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:25" ht="15" customHeight="1">
       <c r="A80" s="203" t="s">
         <v>565</v>
       </c>
@@ -52977,7 +52977,7 @@
         <v>2861</v>
       </c>
       <c r="Y80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="15" hidden="1" customHeight="1">
@@ -62498,7 +62498,7 @@
   <autoFilter ref="A1:X282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
     <filterColumn colId="0">
       <filters>
-        <filter val="prev_pregloss"/>
+        <filter val="drugs_bin"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C84E1-272F-7243-A505-BAEBA98446FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E7B60-ADFD-4D45-9FE7-5225A78F3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,15 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$X$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$Z$273</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$R$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12892" uniqueCount="3141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12963" uniqueCount="3142">
   <si>
     <t>Tab</t>
   </si>
@@ -11935,6 +11935,9 @@
   </si>
   <si>
     <t>npred</t>
+  </si>
+  <si>
+    <t>Imputation_included</t>
   </si>
 </sst>
 </file>
@@ -12626,7 +12629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13239,20 +13242,10 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13262,13 +13255,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13281,30 +13274,26 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13313,59 +13302,81 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -48985,27 +48996,27 @@
   </sheetData>
   <autoFilter ref="A1:M992" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="C2:D218">
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:D252">
-    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C219))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:D321">
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C253))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C322:D346">
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C322))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C347:C388">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C347))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49029,20 +49040,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z282"/>
+  <dimension ref="A1:AA282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="S247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y286" sqref="Y286"/>
+      <selection pane="bottomRight" activeCell="AA255" sqref="AA255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="11" width="10.83203125" customWidth="1"/>
+    <col min="2" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
     <col min="12" max="12" width="22.1640625" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="37.1640625" customWidth="1"/>
@@ -49051,25 +49062,26 @@
     <col min="17" max="17" width="10.83203125" style="208" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
     <col min="19" max="24" width="10.83203125" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="233" t="s">
+    <row r="1" spans="1:27" ht="15" customHeight="1">
+      <c r="A1" s="229" t="s">
         <v>3101</v>
       </c>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="233" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="238" t="s">
+      <c r="C1" s="234" t="s">
         <v>3131</v>
       </c>
-      <c r="D1" s="237" t="s">
+      <c r="D1" s="233" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="237" t="s">
+      <c r="E1" s="233" t="s">
         <v>3102</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="233" t="s">
         <v>2873</v>
       </c>
       <c r="G1" s="200" t="s">
@@ -49081,49 +49093,49 @@
       <c r="I1" s="200" t="s">
         <v>3104</v>
       </c>
-      <c r="J1" s="237" t="s">
+      <c r="J1" s="233" t="s">
         <v>3108</v>
       </c>
-      <c r="K1" s="237" t="s">
+      <c r="K1" s="233" t="s">
         <v>3109</v>
       </c>
-      <c r="L1" s="237" t="s">
+      <c r="L1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="237" t="s">
+      <c r="M1" s="233" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="237" t="s">
+      <c r="N1" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="237" t="s">
+      <c r="O1" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="237" t="s">
+      <c r="P1" s="233" t="s">
         <v>118</v>
       </c>
       <c r="Q1" s="209" t="s">
         <v>3124</v>
       </c>
-      <c r="R1" s="237" t="s">
+      <c r="R1" s="233" t="s">
         <v>3105</v>
       </c>
-      <c r="S1" s="237" t="s">
+      <c r="S1" s="233" t="s">
         <v>3106</v>
       </c>
-      <c r="T1" s="237" t="s">
+      <c r="T1" s="233" t="s">
         <v>2814</v>
       </c>
-      <c r="U1" s="237" t="s">
+      <c r="U1" s="233" t="s">
         <v>2863</v>
       </c>
-      <c r="V1" s="237" t="s">
+      <c r="V1" s="233" t="s">
         <v>2839</v>
       </c>
-      <c r="W1" s="237" t="s">
+      <c r="W1" s="233" t="s">
         <v>2840</v>
       </c>
-      <c r="X1" s="237" t="s">
+      <c r="X1" s="233" t="s">
         <v>2841</v>
       </c>
       <c r="Y1" s="201" t="s">
@@ -49132,8 +49144,11 @@
       <c r="Z1" s="201" t="s">
         <v>3140</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA1" s="200" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49167,7 +49182,7 @@
       <c r="O2" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="256"/>
+      <c r="P2" s="248"/>
       <c r="Q2" s="208">
         <v>0.31448788506897302</v>
       </c>
@@ -49180,8 +49195,9 @@
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA2" s="177"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49222,8 +49238,9 @@
       <c r="U3" s="210" t="s">
         <v>2864</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA3" s="177"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49264,8 +49281,9 @@
       <c r="U4" s="210" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA4" s="177"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49303,8 +49321,9 @@
       <c r="Q5" s="208">
         <v>76.291901936959505</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA5" s="177"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49342,9 +49361,9 @@
       <c r="Q6" s="208">
         <v>77.342577371167195</v>
       </c>
-      <c r="U6" s="252"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA6" s="177"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49383,8 +49402,9 @@
         <v>83.732399399614096</v>
       </c>
       <c r="S7" s="210"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA7" s="177"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49423,9 +49443,9 @@
         <v>88.249589021513799</v>
       </c>
       <c r="S8" s="210"/>
-      <c r="U8" s="252"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA8" s="177"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49464,8 +49484,9 @@
         <v>94.617968694160595</v>
       </c>
       <c r="S9" s="210"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA9" s="177"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49504,8 +49525,9 @@
         <v>92.116360517475499</v>
       </c>
       <c r="S10" s="210"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA10" s="177"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="177" t="s">
         <v>167</v>
       </c>
@@ -49555,7 +49577,7 @@
       <c r="Q11" s="208">
         <v>39.608347627215601</v>
       </c>
-      <c r="R11" s="235" t="s">
+      <c r="R11" s="231" t="s">
         <v>2806</v>
       </c>
       <c r="S11" s="210" t="s">
@@ -49576,8 +49598,11 @@
       <c r="Y11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA11" s="177" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49625,7 +49650,7 @@
       <c r="Q12" s="208">
         <v>80.717552887364207</v>
       </c>
-      <c r="R12" s="249" t="s">
+      <c r="R12" s="243" t="s">
         <v>2805</v>
       </c>
       <c r="S12" s="210" t="s">
@@ -49637,8 +49662,11 @@
       <c r="Y12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA12" s="177" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="192" t="s">
         <v>174</v>
       </c>
@@ -49690,14 +49718,17 @@
       <c r="S13" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U13" s="243" t="s">
+      <c r="U13" s="210" t="s">
         <v>322</v>
       </c>
       <c r="Y13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA13" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1">
       <c r="A14" s="177" t="s">
         <v>177</v>
       </c>
@@ -49743,7 +49774,7 @@
       <c r="Q14" s="208">
         <v>52.7015437392796</v>
       </c>
-      <c r="R14" s="243" t="s">
+      <c r="R14" s="210" t="s">
         <v>2807</v>
       </c>
       <c r="S14" s="210" t="s">
@@ -49755,8 +49786,11 @@
       <c r="Y14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA14" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -49803,8 +49837,9 @@
       <c r="U15" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA15" s="188"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -49867,8 +49902,11 @@
       <c r="Z16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA16" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -49907,11 +49945,12 @@
         <v>76.1203630905582</v>
       </c>
       <c r="S17" s="210"/>
-      <c r="U17" s="243" t="s">
+      <c r="U17" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA17" s="188"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -49953,8 +49992,9 @@
       <c r="U18" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA18" s="188"/>
+    </row>
+    <row r="19" spans="1:27" ht="15" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -49992,13 +50032,13 @@
       <c r="Q19" s="208">
         <v>97.798584804517205</v>
       </c>
-      <c r="R19" s="252"/>
       <c r="S19" s="210"/>
       <c r="U19" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA19" s="188"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -50037,11 +50077,12 @@
         <v>99.942820384532894</v>
       </c>
       <c r="S20" s="210"/>
-      <c r="U20" s="243" t="s">
+      <c r="U20" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA20" s="188"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1">
       <c r="A21" s="192" t="s">
         <v>267</v>
       </c>
@@ -50099,8 +50140,11 @@
       <c r="Y21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA21" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -50144,11 +50188,12 @@
       <c r="S22" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U22" s="243" t="s">
+      <c r="U22" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA22" s="188"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1">
       <c r="A23" s="192" t="s">
         <v>309</v>
       </c>
@@ -50204,8 +50249,9 @@
       <c r="Y23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA23" s="188"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -50252,8 +50298,9 @@
       <c r="U24" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA24" s="188"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -50297,11 +50344,12 @@
       <c r="S25" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U25" s="243" t="s">
+      <c r="U25" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA25" s="188"/>
+    </row>
+    <row r="26" spans="1:27" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -50357,8 +50405,9 @@
       <c r="Y26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA26" s="188"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" customHeight="1">
       <c r="A27" s="192" t="s">
         <v>365</v>
       </c>
@@ -50405,8 +50454,9 @@
       <c r="W27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA27" s="188"/>
+    </row>
+    <row r="28" spans="1:27" ht="15" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -50419,7 +50469,7 @@
       <c r="D28" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="227" t="s">
+      <c r="E28" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F28" s="177"/>
@@ -50455,8 +50505,9 @@
       <c r="Y28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA28" s="188"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -50495,11 +50546,12 @@
         <v>66.599957115288404</v>
       </c>
       <c r="S29" s="210"/>
-      <c r="U29" s="243" t="s">
+      <c r="U29" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA29" s="188"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -50542,8 +50594,9 @@
       <c r="U30" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA30" s="188"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -50583,11 +50636,12 @@
       </c>
       <c r="R31" s="210"/>
       <c r="S31" s="210"/>
-      <c r="U31" s="243" t="s">
+      <c r="U31" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA31" s="188"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -50626,11 +50680,12 @@
         <v>85.483525123293603</v>
       </c>
       <c r="S32" s="210"/>
-      <c r="U32" s="243" t="s">
+      <c r="U32" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA32" s="188"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1">
       <c r="A33" s="192" t="s">
         <v>380</v>
       </c>
@@ -50671,8 +50726,9 @@
       <c r="U33" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA33" s="188"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1">
       <c r="A34" s="192" t="s">
         <v>382</v>
       </c>
@@ -50712,11 +50768,12 @@
       <c r="Q34" s="208">
         <v>99.842756057465493</v>
       </c>
-      <c r="U34" s="243" t="s">
+      <c r="U34" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA34" s="188"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1">
       <c r="A35" s="192" t="s">
         <v>385</v>
       </c>
@@ -50757,8 +50814,9 @@
       <c r="U35" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA35" s="188"/>
+    </row>
+    <row r="36" spans="1:27" ht="15" customHeight="1">
       <c r="A36" s="204" t="s">
         <v>395</v>
       </c>
@@ -50771,7 +50829,7 @@
       <c r="D36" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="227" t="s">
+      <c r="E36" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="177"/>
@@ -50814,8 +50872,9 @@
       <c r="Y36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA36" s="188"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -50859,11 +50918,12 @@
       <c r="S37" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U37" s="243" t="s">
+      <c r="U37" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA37" s="188"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1">
       <c r="A38" s="203" t="s">
         <v>400</v>
       </c>
@@ -50907,9 +50967,9 @@
       <c r="S38" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U38" s="252"/>
-    </row>
-    <row r="39" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA38" s="188"/>
+    </row>
+    <row r="39" spans="1:27" ht="15" customHeight="1">
       <c r="A39" s="192" t="s">
         <v>403</v>
       </c>
@@ -50950,8 +51010,9 @@
       <c r="U39" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA39" s="188"/>
+    </row>
+    <row r="40" spans="1:27" ht="15" customHeight="1">
       <c r="A40" s="192" t="s">
         <v>405</v>
       </c>
@@ -50992,8 +51053,9 @@
       <c r="U40" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA40" s="188"/>
+    </row>
+    <row r="41" spans="1:27" ht="15" customHeight="1">
       <c r="A41" s="192" t="s">
         <v>408</v>
       </c>
@@ -51029,9 +51091,9 @@
       <c r="Q41" s="208">
         <v>98.499035093988994</v>
       </c>
-      <c r="U41" s="252"/>
-    </row>
-    <row r="42" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA41" s="188"/>
+    </row>
+    <row r="42" spans="1:27" ht="15" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -51078,8 +51140,9 @@
       <c r="U42" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA42" s="188"/>
+    </row>
+    <row r="43" spans="1:27" ht="15" customHeight="1">
       <c r="A43" s="192" t="s">
         <v>416</v>
       </c>
@@ -51125,11 +51188,12 @@
       <c r="S43" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U43" s="243" t="s">
+      <c r="U43" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA43" s="188"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -51173,11 +51237,12 @@
       <c r="S44" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U44" s="243" t="s">
+      <c r="U44" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA44" s="188"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -51224,8 +51289,9 @@
       <c r="U45" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA45" s="188"/>
+    </row>
+    <row r="46" spans="1:27" ht="15" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -51272,8 +51338,9 @@
       <c r="U46" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA46" s="188"/>
+    </row>
+    <row r="47" spans="1:27" ht="15" customHeight="1">
       <c r="A47" s="192" t="s">
         <v>454</v>
       </c>
@@ -51317,11 +51384,12 @@
       <c r="S47" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U47" s="243" t="s">
+      <c r="U47" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA47" s="188"/>
+    </row>
+    <row r="48" spans="1:27" ht="15" customHeight="1">
       <c r="A48" s="192" t="s">
         <v>457</v>
       </c>
@@ -51359,11 +51427,12 @@
       <c r="Q48" s="208">
         <v>100</v>
       </c>
-      <c r="U48" s="243" t="s">
+      <c r="U48" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA48" s="188"/>
+    </row>
+    <row r="49" spans="1:27" ht="15" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2647</v>
       </c>
@@ -51403,7 +51472,7 @@
       <c r="Q49" s="208">
         <v>79.236649999999997</v>
       </c>
-      <c r="U49" s="243" t="s">
+      <c r="U49" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V49" t="s">
@@ -51415,8 +51484,9 @@
       <c r="X49">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA49" s="188"/>
+    </row>
+    <row r="50" spans="1:27" ht="15" customHeight="1">
       <c r="A50" s="192" t="s">
         <v>465</v>
       </c>
@@ -51462,7 +51532,7 @@
       <c r="S50" t="s">
         <v>2809</v>
       </c>
-      <c r="U50" s="243" t="s">
+      <c r="U50" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V50" t="s">
@@ -51474,8 +51544,9 @@
       <c r="X50">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA50" s="188"/>
+    </row>
+    <row r="51" spans="1:27" ht="15" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -51515,10 +51586,10 @@
       <c r="Q51" s="208">
         <v>57.8157386891573</v>
       </c>
-      <c r="R51" s="235" t="s">
+      <c r="R51" s="231" t="s">
         <v>2819</v>
       </c>
-      <c r="S51" s="235" t="s">
+      <c r="S51" s="231" t="s">
         <v>2809</v>
       </c>
       <c r="U51" s="210" t="s">
@@ -51533,8 +51604,9 @@
       <c r="X51">
         <v>210</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA51" s="188"/>
+    </row>
+    <row r="52" spans="1:27" ht="15" customHeight="1">
       <c r="A52" s="192" t="s">
         <v>469</v>
       </c>
@@ -51574,9 +51646,9 @@
       <c r="Q52" s="208">
         <v>98.7063112000572</v>
       </c>
-      <c r="R52" s="248"/>
-      <c r="S52" s="248"/>
-      <c r="U52" s="243" t="s">
+      <c r="R52" s="242"/>
+      <c r="S52" s="242"/>
+      <c r="U52" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V52" t="s">
@@ -51585,8 +51657,9 @@
       <c r="W52" s="210" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA52" s="188"/>
+    </row>
+    <row r="53" spans="1:27" ht="15" customHeight="1">
       <c r="A53" s="192" t="s">
         <v>472</v>
       </c>
@@ -51630,11 +51703,12 @@
       <c r="S53" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U53" s="243" t="s">
+      <c r="U53" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA53" s="188"/>
+    </row>
+    <row r="54" spans="1:27" ht="15" customHeight="1">
       <c r="A54" s="203" t="s">
         <v>474</v>
       </c>
@@ -51680,11 +51754,12 @@
       <c r="S54" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U54" s="243" t="s">
+      <c r="U54" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA54" s="188"/>
+    </row>
+    <row r="55" spans="1:27" ht="15" customHeight="1">
       <c r="A55" s="203" t="s">
         <v>478</v>
       </c>
@@ -51724,12 +51799,12 @@
       <c r="Q55" s="208">
         <v>94.246301193624504</v>
       </c>
-      <c r="R55" s="252"/>
-      <c r="U55" s="243" t="s">
+      <c r="U55" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA55" s="188"/>
+    </row>
+    <row r="56" spans="1:27" ht="15" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -51742,7 +51817,7 @@
       <c r="D56" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="227" t="s">
+      <c r="E56" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="188"/>
@@ -51782,8 +51857,9 @@
       <c r="Y56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA56" s="188"/>
+    </row>
+    <row r="57" spans="1:27" ht="15" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -51838,8 +51914,9 @@
       <c r="X57">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA57" s="188"/>
+    </row>
+    <row r="58" spans="1:27" ht="15" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -51883,11 +51960,12 @@
       <c r="S58" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U58" s="243" t="s">
+      <c r="U58" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA58" s="188"/>
+    </row>
+    <row r="59" spans="1:27" ht="15" customHeight="1">
       <c r="A59" s="205" t="s">
         <v>490</v>
       </c>
@@ -51927,7 +52005,7 @@
       <c r="Q59" s="208">
         <v>100</v>
       </c>
-      <c r="U59" s="243" t="s">
+      <c r="U59" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V59" t="s">
@@ -51936,8 +52014,9 @@
       <c r="W59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA59" s="188"/>
+    </row>
+    <row r="60" spans="1:27" ht="15" customHeight="1">
       <c r="A60" s="203" t="s">
         <v>493</v>
       </c>
@@ -51984,8 +52063,9 @@
       <c r="U60" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA60" s="188"/>
+    </row>
+    <row r="61" spans="1:27" ht="15" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -52032,8 +52112,9 @@
       <c r="U61" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA61" s="188"/>
+    </row>
+    <row r="62" spans="1:27" ht="15" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -52077,11 +52158,12 @@
       <c r="S62" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U62" s="243" t="s">
+      <c r="U62" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA62" s="188"/>
+    </row>
+    <row r="63" spans="1:27" ht="15" customHeight="1">
       <c r="A63" s="192" t="s">
         <v>526</v>
       </c>
@@ -52133,11 +52215,14 @@
       <c r="S63" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U63" s="243" t="s">
+      <c r="U63" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA63" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="15" customHeight="1">
       <c r="A64" s="203" t="s">
         <v>530</v>
       </c>
@@ -52181,11 +52266,12 @@
       <c r="S64" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U64" s="243" t="s">
+      <c r="U64" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA64" s="188"/>
+    </row>
+    <row r="65" spans="1:27" ht="15" customHeight="1">
       <c r="A65" s="192" t="s">
         <v>533</v>
       </c>
@@ -52232,8 +52318,9 @@
       <c r="U65" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA65" s="188"/>
+    </row>
+    <row r="66" spans="1:27" ht="15" customHeight="1">
       <c r="A66" s="203" t="s">
         <v>535</v>
       </c>
@@ -52277,11 +52364,12 @@
       <c r="S66" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U66" s="243" t="s">
+      <c r="U66" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA66" s="188"/>
+    </row>
+    <row r="67" spans="1:27" ht="15" customHeight="1">
       <c r="A67" s="203" t="s">
         <v>537</v>
       </c>
@@ -52294,7 +52382,7 @@
       <c r="D67" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="227" t="s">
+      <c r="E67" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F67" s="188"/>
@@ -52337,8 +52425,9 @@
       <c r="Y67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA67" s="188"/>
+    </row>
+    <row r="68" spans="1:27" ht="15" customHeight="1">
       <c r="A68" s="203" t="s">
         <v>539</v>
       </c>
@@ -52382,11 +52471,12 @@
       <c r="S68" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U68" s="243" t="s">
+      <c r="U68" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA68" s="188"/>
+    </row>
+    <row r="69" spans="1:27" ht="15" customHeight="1">
       <c r="A69" s="203" t="s">
         <v>542</v>
       </c>
@@ -52424,11 +52514,12 @@
       <c r="Q69" s="208">
         <v>99.892788220999194</v>
       </c>
-      <c r="U69" s="243" t="s">
+      <c r="U69" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA69" s="188"/>
+    </row>
+    <row r="70" spans="1:27" ht="15" customHeight="1">
       <c r="A70" s="203" t="s">
         <v>544</v>
       </c>
@@ -52475,8 +52566,9 @@
       <c r="U70" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA70" s="188"/>
+    </row>
+    <row r="71" spans="1:27" ht="15" customHeight="1">
       <c r="A71" s="203" t="s">
         <v>546</v>
       </c>
@@ -52523,8 +52615,9 @@
       <c r="U71" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA71" s="188"/>
+    </row>
+    <row r="72" spans="1:27" ht="15" customHeight="1">
       <c r="A72" s="203" t="s">
         <v>548</v>
       </c>
@@ -52571,8 +52664,9 @@
       <c r="U72" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA72" s="188"/>
+    </row>
+    <row r="73" spans="1:27" ht="15" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -52616,11 +52710,12 @@
       <c r="S73" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U73" s="243" t="s">
+      <c r="U73" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA73" s="188"/>
+    </row>
+    <row r="74" spans="1:27" ht="15" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -52664,11 +52759,12 @@
       <c r="S74" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U74" s="243" t="s">
+      <c r="U74" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA74" s="188"/>
+    </row>
+    <row r="75" spans="1:27" ht="15" customHeight="1">
       <c r="A75" s="203" t="s">
         <v>554</v>
       </c>
@@ -52712,11 +52808,12 @@
       <c r="S75" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U75" s="243" t="s">
+      <c r="U75" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA75" s="188"/>
+    </row>
+    <row r="76" spans="1:27" ht="15" customHeight="1">
       <c r="A76" s="203" t="s">
         <v>556</v>
       </c>
@@ -52760,11 +52857,12 @@
       <c r="S76" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U76" s="243" t="s">
+      <c r="U76" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA76" s="188"/>
+    </row>
+    <row r="77" spans="1:27" ht="15" customHeight="1">
       <c r="A77" s="203" t="s">
         <v>558</v>
       </c>
@@ -52808,11 +52906,12 @@
       <c r="S77" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U77" s="243" t="s">
+      <c r="U77" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA77" s="188"/>
+    </row>
+    <row r="78" spans="1:27" ht="15" customHeight="1">
       <c r="A78" s="203" t="s">
         <v>560</v>
       </c>
@@ -52856,11 +52955,12 @@
       <c r="S78" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U78" s="243" t="s">
+      <c r="U78" s="210" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA78" s="188"/>
+    </row>
+    <row r="79" spans="1:27" ht="15" customHeight="1">
       <c r="A79" s="203" t="s">
         <v>562</v>
       </c>
@@ -52873,7 +52973,7 @@
       <c r="D79" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="227" t="s">
+      <c r="E79" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F79" s="188" t="s">
@@ -52920,8 +53020,11 @@
       <c r="Y79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" ht="15" customHeight="1">
+      <c r="AA79" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="15" customHeight="1">
       <c r="A80" s="203" t="s">
         <v>565</v>
       </c>
@@ -52979,8 +53082,11 @@
       <c r="Y80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA80" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" ht="15" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53043,8 +53149,11 @@
       <c r="Z81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA81" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="15" customHeight="1">
       <c r="A82" s="177" t="s">
         <v>702</v>
       </c>
@@ -53057,7 +53166,7 @@
       <c r="D82" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="227" t="s">
+      <c r="E82" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F82" s="177" t="s">
@@ -53104,8 +53213,11 @@
       <c r="Y82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA82" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" ht="15" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53133,7 +53245,7 @@
       <c r="M83" s="177" t="s">
         <v>701</v>
       </c>
-      <c r="N83" s="235" t="s">
+      <c r="N83" s="231" t="s">
         <v>705</v>
       </c>
       <c r="O83" s="191" t="s">
@@ -53149,11 +53261,12 @@
       <c r="S83" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U83" s="243" t="s">
+      <c r="U83" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA83" s="188"/>
+    </row>
+    <row r="84" spans="1:27" ht="15" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53167,9 +53280,9 @@
         <v>153</v>
       </c>
       <c r="E84" s="225"/>
-      <c r="F84" s="226"/>
-      <c r="G84" s="226"/>
-      <c r="H84" s="226"/>
+      <c r="F84" s="176"/>
+      <c r="G84" s="176"/>
+      <c r="H84" s="176"/>
       <c r="I84" s="177">
         <v>83</v>
       </c>
@@ -53194,8 +53307,9 @@
       <c r="U84" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA84" s="188"/>
+    </row>
+    <row r="85" spans="1:27" ht="15" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53239,7 +53353,7 @@
       <c r="S85" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U85" s="243" t="s">
+      <c r="U85" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V85" t="s">
@@ -53251,8 +53365,9 @@
       <c r="X85">
         <v>46</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA85" s="188"/>
+    </row>
+    <row r="86" spans="1:27" ht="15" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -53299,8 +53414,9 @@
       <c r="U86" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA86" s="188"/>
+    </row>
+    <row r="87" spans="1:27" ht="15" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -53340,7 +53456,6 @@
       <c r="Q87" s="208">
         <v>75.691515974555102</v>
       </c>
-      <c r="R87" s="252"/>
       <c r="U87" s="212" t="s">
         <v>328</v>
       </c>
@@ -53350,8 +53465,9 @@
       <c r="W87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA87" s="188"/>
+    </row>
+    <row r="88" spans="1:27" ht="15" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -53400,8 +53516,9 @@
       <c r="W88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA88" s="188"/>
+    </row>
+    <row r="89" spans="1:27" ht="15" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -53414,7 +53531,7 @@
       <c r="D89" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E89" s="227" t="s">
+      <c r="E89" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F89" s="177" t="s">
@@ -53461,8 +53578,11 @@
       <c r="Y89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA89" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" ht="15" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -53506,7 +53626,7 @@
       <c r="S90" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U90" s="243" t="s">
+      <c r="U90" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V90" t="s">
@@ -53515,8 +53635,9 @@
       <c r="W90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA90" s="188"/>
+    </row>
+    <row r="91" spans="1:27" ht="15" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -53559,8 +53680,9 @@
       <c r="U91" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA91" s="188"/>
+    </row>
+    <row r="92" spans="1:27" ht="15" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -53600,7 +53722,7 @@
       <c r="Q92" s="208">
         <v>94.303480809091596</v>
       </c>
-      <c r="R92" s="243" t="s">
+      <c r="R92" s="210" t="s">
         <v>2838</v>
       </c>
       <c r="S92" s="210" t="s">
@@ -53615,8 +53737,9 @@
       <c r="W92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA92" s="188"/>
+    </row>
+    <row r="93" spans="1:27" ht="15" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -53629,7 +53752,7 @@
       <c r="D93" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E93" s="227" t="s">
+      <c r="E93" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F93" s="177" t="s">
@@ -53676,8 +53799,11 @@
       <c r="Y93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA93" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="15" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -53705,7 +53831,7 @@
       <c r="M94" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="N94" s="235" t="s">
+      <c r="N94" s="231" t="s">
         <v>745</v>
       </c>
       <c r="O94" s="176" t="s">
@@ -53721,7 +53847,7 @@
       <c r="S94" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U94" s="243" t="s">
+      <c r="U94" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V94" t="s">
@@ -53730,8 +53856,9 @@
       <c r="W94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA94" s="188"/>
+    </row>
+    <row r="95" spans="1:27" ht="15" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -53786,8 +53913,9 @@
       <c r="W95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA95" s="188"/>
+    </row>
+    <row r="96" spans="1:27" ht="15" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -53815,7 +53943,7 @@
       <c r="M96" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="N96" s="235" t="s">
+      <c r="N96" s="231" t="s">
         <v>749</v>
       </c>
       <c r="O96" s="176" t="s">
@@ -53836,8 +53964,9 @@
       <c r="U96" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA96" s="188"/>
+    </row>
+    <row r="97" spans="1:27" ht="15" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -53897,8 +54026,11 @@
       <c r="Y97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA97" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="15" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -53942,7 +54074,7 @@
       <c r="S98" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U98" s="243" t="s">
+      <c r="U98" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V98" t="s">
@@ -53951,8 +54083,9 @@
       <c r="W98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA98" s="188"/>
+    </row>
+    <row r="99" spans="1:27" ht="15" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -53965,7 +54098,7 @@
       <c r="D99" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E99" s="227" t="s">
+      <c r="E99" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F99" s="177" t="s">
@@ -54012,8 +54145,11 @@
       <c r="Y99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA99" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" ht="15" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54057,7 +54193,7 @@
       <c r="S100" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U100" s="243" t="s">
+      <c r="U100" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V100" t="s">
@@ -54066,8 +54202,9 @@
       <c r="W100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA100" s="188"/>
+    </row>
+    <row r="101" spans="1:27" ht="15" customHeight="1">
       <c r="A101" s="177" t="s">
         <v>759</v>
       </c>
@@ -54125,8 +54262,11 @@
       <c r="Y101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA101" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="15" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -54180,7 +54320,7 @@
       <c r="S102" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U102" s="243" t="s">
+      <c r="U102" s="210" t="s">
         <v>2861</v>
       </c>
       <c r="Y102">
@@ -54189,8 +54329,11 @@
       <c r="Z102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA102" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" ht="15" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -54203,7 +54346,7 @@
       <c r="D103" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E103" s="227" t="s">
+      <c r="E103" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F103" s="177" t="s">
@@ -54252,8 +54395,11 @@
       <c r="Y103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA103" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="15" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -54307,7 +54453,7 @@
       <c r="S104" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U104" s="243" t="s">
+      <c r="U104" s="210" t="s">
         <v>2861</v>
       </c>
       <c r="Y104">
@@ -54316,8 +54462,11 @@
       <c r="Z104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA104" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="15" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -54371,14 +54520,17 @@
       <c r="S105" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="U105" s="243" t="s">
+      <c r="U105" s="210" t="s">
         <v>2861</v>
       </c>
       <c r="Y105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA105" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="15" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -54441,8 +54593,11 @@
       <c r="Z106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA106" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="15" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -54502,8 +54657,11 @@
       <c r="Y107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA107" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="15" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -54547,11 +54705,12 @@
       <c r="S108" t="s">
         <v>124</v>
       </c>
-      <c r="U108" s="243" t="s">
+      <c r="U108" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA108" s="188"/>
+    </row>
+    <row r="109" spans="1:27" ht="15" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -54598,8 +54757,9 @@
       <c r="U109" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA109" s="188"/>
+    </row>
+    <row r="110" spans="1:27" ht="15" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -54652,8 +54812,9 @@
       <c r="X110">
         <v>46</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA110" s="188"/>
+    </row>
+    <row r="111" spans="1:27" ht="15" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -54697,8 +54858,9 @@
       <c r="U111" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA111" s="188"/>
+    </row>
+    <row r="112" spans="1:27" ht="15" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -54744,8 +54906,9 @@
       <c r="U112" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA112" s="188"/>
+    </row>
+    <row r="113" spans="1:27" ht="15" customHeight="1">
       <c r="A113" s="193" t="s">
         <v>811</v>
       </c>
@@ -54758,7 +54921,7 @@
       <c r="D113" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E113" s="227" t="s">
+      <c r="E113" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F113" s="224"/>
@@ -54797,7 +54960,7 @@
       <c r="S113" t="s">
         <v>124</v>
       </c>
-      <c r="U113" s="243" t="s">
+      <c r="U113" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V113" t="s">
@@ -54812,8 +54975,9 @@
       <c r="Y113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA113" s="188"/>
+    </row>
+    <row r="114" spans="1:27" ht="15" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -54862,8 +55026,9 @@
       <c r="U114" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA114" s="188"/>
+    </row>
+    <row r="115" spans="1:27" ht="15" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -54909,8 +55074,9 @@
       <c r="U115" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA115" s="188"/>
+    </row>
+    <row r="116" spans="1:27" ht="15" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -54956,7 +55122,7 @@
       <c r="S116" t="s">
         <v>124</v>
       </c>
-      <c r="U116" s="243" t="s">
+      <c r="U116" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V116" t="s">
@@ -54968,8 +55134,9 @@
       <c r="X116">
         <v>46</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA116" s="188"/>
+    </row>
+    <row r="117" spans="1:27" ht="15" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -55015,8 +55182,9 @@
       <c r="U117" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA117" s="188"/>
+    </row>
+    <row r="118" spans="1:27" ht="15" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -55029,7 +55197,7 @@
       <c r="D118" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E118" s="227" t="s">
+      <c r="E118" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F118" s="177"/>
@@ -55064,8 +55232,9 @@
       <c r="U118" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA118" s="188"/>
+    </row>
+    <row r="119" spans="1:27" ht="15" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -55115,7 +55284,7 @@
       <c r="Q119" s="208">
         <v>99.949971412235598</v>
       </c>
-      <c r="R119" s="247" t="s">
+      <c r="R119" s="241" t="s">
         <v>2835</v>
       </c>
       <c r="S119" t="s">
@@ -55139,8 +55308,11 @@
       <c r="Z119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA119" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" ht="15" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -55180,15 +55352,16 @@
       <c r="Q120" s="208">
         <v>98.920734758058799</v>
       </c>
-      <c r="R120" s="248"/>
+      <c r="R120" s="242"/>
       <c r="S120" t="s">
         <v>124</v>
       </c>
-      <c r="U120" s="228" t="s">
+      <c r="U120" s="212" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA120" s="188"/>
+    </row>
+    <row r="121" spans="1:27" ht="15" customHeight="1">
       <c r="A121" s="193" t="s">
         <v>846</v>
       </c>
@@ -55201,7 +55374,7 @@
       <c r="D121" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E121" s="227" t="s">
+      <c r="E121" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F121" s="177"/>
@@ -55243,8 +55416,9 @@
       <c r="Y121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA121" s="188"/>
+    </row>
+    <row r="122" spans="1:27" ht="15" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -55302,8 +55476,9 @@
       <c r="X122">
         <v>46</v>
       </c>
-    </row>
-    <row r="123" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA122" s="188"/>
+    </row>
+    <row r="123" spans="1:27" ht="15" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -55349,8 +55524,9 @@
       <c r="U123" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA123" s="188"/>
+    </row>
+    <row r="124" spans="1:27" ht="15" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -55393,11 +55569,12 @@
       <c r="S124" t="s">
         <v>124</v>
       </c>
-      <c r="U124" s="243" t="s">
+      <c r="U124" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="125" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA124" s="188"/>
+    </row>
+    <row r="125" spans="1:27" ht="15" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -55443,8 +55620,9 @@
       <c r="U125" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="126" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA125" s="188"/>
+    </row>
+    <row r="126" spans="1:27" ht="15" customHeight="1">
       <c r="A126" s="193" t="s">
         <v>860</v>
       </c>
@@ -55457,7 +55635,7 @@
       <c r="D126" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E126" s="227" t="s">
+      <c r="E126" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F126" s="177"/>
@@ -55499,8 +55677,9 @@
       <c r="Y126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA126" s="188"/>
+    </row>
+    <row r="127" spans="1:27" ht="15" customHeight="1">
       <c r="A127" s="193" t="s">
         <v>864</v>
       </c>
@@ -55513,7 +55692,7 @@
       <c r="D127" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E127" s="227" t="s">
+      <c r="E127" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F127" s="177"/>
@@ -55555,8 +55734,9 @@
       <c r="Y127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA127" s="188"/>
+    </row>
+    <row r="128" spans="1:27" ht="15" customHeight="1">
       <c r="A128" s="193" t="s">
         <v>870</v>
       </c>
@@ -55569,7 +55749,7 @@
       <c r="D128" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E128" s="227" t="s">
+      <c r="E128" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F128" s="177"/>
@@ -55611,8 +55791,9 @@
       <c r="Y128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA128" s="188"/>
+    </row>
+    <row r="129" spans="1:27" ht="15" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -55652,7 +55833,6 @@
       <c r="Q129" s="208">
         <v>97.405474948180995</v>
       </c>
-      <c r="R129" s="252"/>
       <c r="S129" t="s">
         <v>124</v>
       </c>
@@ -55665,8 +55845,9 @@
       <c r="W129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA129" s="188"/>
+    </row>
+    <row r="130" spans="1:27" ht="15" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -55706,15 +55887,15 @@
       <c r="Q130" s="208">
         <v>92.9311700378815</v>
       </c>
-      <c r="R130" s="252"/>
       <c r="S130" t="s">
         <v>124</v>
       </c>
       <c r="U130" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA130" s="188"/>
+    </row>
+    <row r="131" spans="1:27" ht="15" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -55766,8 +55947,9 @@
       <c r="W131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA131" s="188"/>
+    </row>
+    <row r="132" spans="1:27" ht="15" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -55819,8 +56001,9 @@
       <c r="W132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA132" s="188"/>
+    </row>
+    <row r="133" spans="1:27" ht="15" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -55866,8 +56049,9 @@
       <c r="U133" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA133" s="188"/>
+    </row>
+    <row r="134" spans="1:27" ht="15" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -55910,7 +56094,7 @@
       <c r="S134" t="s">
         <v>124</v>
       </c>
-      <c r="U134" s="243" t="s">
+      <c r="U134" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V134" t="s">
@@ -55922,8 +56106,9 @@
       <c r="X134">
         <v>640</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA134" s="188"/>
+    </row>
+    <row r="135" spans="1:27" ht="15" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -55975,8 +56160,9 @@
       <c r="W135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA135" s="188"/>
+    </row>
+    <row r="136" spans="1:27" ht="15" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -56028,8 +56214,9 @@
       <c r="W136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA136" s="188"/>
+    </row>
+    <row r="137" spans="1:27" ht="15" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -56078,8 +56265,9 @@
       <c r="V137" t="s">
         <v>2852</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA137" s="188"/>
+    </row>
+    <row r="138" spans="1:27" ht="15" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -56128,8 +56316,9 @@
       <c r="V138" t="s">
         <v>2852</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA138" s="188"/>
+    </row>
+    <row r="139" spans="1:27" ht="15" customHeight="1">
       <c r="A139" s="193" t="s">
         <v>913</v>
       </c>
@@ -56198,8 +56387,11 @@
       <c r="Y139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA139" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" ht="15" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -56243,8 +56435,9 @@
       <c r="U140" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA140" s="188"/>
+    </row>
+    <row r="141" spans="1:27" ht="15" customHeight="1">
       <c r="A141" s="193" t="s">
         <v>918</v>
       </c>
@@ -56257,7 +56450,7 @@
       <c r="D141" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E141" s="227" t="s">
+      <c r="E141" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F141" s="177" t="s">
@@ -56296,7 +56489,7 @@
       <c r="Q141" s="208">
         <v>12.5571755288736</v>
       </c>
-      <c r="R141" s="235" t="s">
+      <c r="R141" s="231" t="s">
         <v>2802</v>
       </c>
       <c r="S141" t="s">
@@ -56311,8 +56504,11 @@
       <c r="Y141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA141" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="15" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -56350,15 +56546,16 @@
       <c r="Q142" s="208">
         <v>55.814452147809298</v>
       </c>
-      <c r="R142" s="248"/>
+      <c r="R142" s="242"/>
       <c r="S142" t="s">
         <v>124</v>
       </c>
       <c r="U142" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA142" s="188"/>
+    </row>
+    <row r="143" spans="1:27" ht="15" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -56402,11 +56599,12 @@
       <c r="S143" t="s">
         <v>124</v>
       </c>
-      <c r="U143" s="243" t="s">
+      <c r="U143" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA143" s="188"/>
+    </row>
+    <row r="144" spans="1:27" ht="15" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -56449,8 +56647,9 @@
       <c r="S144" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA144" s="188"/>
+    </row>
+    <row r="145" spans="1:27" ht="15" customHeight="1">
       <c r="A145" s="193" t="s">
         <v>934</v>
       </c>
@@ -56493,7 +56692,7 @@
       <c r="S145" t="s">
         <v>124</v>
       </c>
-      <c r="U145" s="243" t="s">
+      <c r="U145" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V145" t="s">
@@ -56502,8 +56701,9 @@
       <c r="W145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA145" s="188"/>
+    </row>
+    <row r="146" spans="1:27" ht="15" customHeight="1">
       <c r="A146" s="193" t="s">
         <v>938</v>
       </c>
@@ -56547,8 +56747,9 @@
         <v>124</v>
       </c>
       <c r="U146" s="83"/>
-    </row>
-    <row r="147" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA146" s="188"/>
+    </row>
+    <row r="147" spans="1:27" ht="15" customHeight="1">
       <c r="A147" s="193" t="s">
         <v>941</v>
       </c>
@@ -56591,7 +56792,7 @@
       <c r="S147" t="s">
         <v>124</v>
       </c>
-      <c r="U147" s="243" t="s">
+      <c r="U147" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V147" t="s">
@@ -56600,8 +56801,9 @@
       <c r="W147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA147" s="188"/>
+    </row>
+    <row r="148" spans="1:27" ht="15" customHeight="1">
       <c r="A148" s="193" t="s">
         <v>945</v>
       </c>
@@ -56645,8 +56847,9 @@
         <v>124</v>
       </c>
       <c r="U148" s="83"/>
-    </row>
-    <row r="149" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA148" s="188"/>
+    </row>
+    <row r="149" spans="1:27" ht="15" customHeight="1">
       <c r="A149" s="193" t="s">
         <v>947</v>
       </c>
@@ -56689,7 +56892,7 @@
       <c r="S149" t="s">
         <v>124</v>
       </c>
-      <c r="U149" s="243" t="s">
+      <c r="U149" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V149" t="s">
@@ -56698,8 +56901,9 @@
       <c r="W149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA149" s="188"/>
+    </row>
+    <row r="150" spans="1:27" ht="15" customHeight="1">
       <c r="A150" s="193" t="s">
         <v>949</v>
       </c>
@@ -56751,8 +56955,9 @@
       <c r="W150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA150" s="188"/>
+    </row>
+    <row r="151" spans="1:27" ht="15" customHeight="1">
       <c r="A151" s="193" t="s">
         <v>960</v>
       </c>
@@ -56799,8 +57004,9 @@
       <c r="U151" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA151" s="188"/>
+    </row>
+    <row r="152" spans="1:27" ht="15" customHeight="1">
       <c r="A152" s="193" t="s">
         <v>966</v>
       </c>
@@ -56843,9 +57049,9 @@
       <c r="S152" t="s">
         <v>124</v>
       </c>
-      <c r="U152" s="252"/>
-    </row>
-    <row r="153" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA152" s="188"/>
+    </row>
+    <row r="153" spans="1:27" ht="15" customHeight="1">
       <c r="A153" s="193" t="s">
         <v>969</v>
       </c>
@@ -56888,7 +57094,7 @@
       <c r="S153" t="s">
         <v>124</v>
       </c>
-      <c r="U153" s="243" t="s">
+      <c r="U153" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V153" t="s">
@@ -56897,8 +57103,9 @@
       <c r="W153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA153" s="188"/>
+    </row>
+    <row r="154" spans="1:27" ht="15" customHeight="1">
       <c r="A154" s="193" t="s">
         <v>973</v>
       </c>
@@ -56942,8 +57149,9 @@
         <v>124</v>
       </c>
       <c r="U154" s="83"/>
-    </row>
-    <row r="155" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA154" s="188"/>
+    </row>
+    <row r="155" spans="1:27" ht="15" customHeight="1">
       <c r="A155" s="193" t="s">
         <v>976</v>
       </c>
@@ -56986,7 +57194,7 @@
       <c r="S155" t="s">
         <v>124</v>
       </c>
-      <c r="U155" s="243" t="s">
+      <c r="U155" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V155" t="s">
@@ -56995,8 +57203,9 @@
       <c r="W155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA155" s="188"/>
+    </row>
+    <row r="156" spans="1:27" ht="15" customHeight="1">
       <c r="A156" s="193" t="s">
         <v>980</v>
       </c>
@@ -57036,13 +57245,13 @@
       <c r="Q156" s="208">
         <v>92.366521335144</v>
       </c>
-      <c r="R156" s="252"/>
       <c r="S156" t="s">
         <v>124</v>
       </c>
       <c r="U156" s="83"/>
-    </row>
-    <row r="157" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA156" s="188"/>
+    </row>
+    <row r="157" spans="1:27" ht="15" customHeight="1">
       <c r="A157" s="193" t="s">
         <v>983</v>
       </c>
@@ -57085,7 +57294,7 @@
       <c r="S157" t="s">
         <v>124</v>
       </c>
-      <c r="U157" s="243" t="s">
+      <c r="U157" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V157" t="s">
@@ -57094,8 +57303,9 @@
       <c r="W157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA157" s="188"/>
+    </row>
+    <row r="158" spans="1:27" ht="15" customHeight="1">
       <c r="A158" s="199" t="s">
         <v>1663</v>
       </c>
@@ -57105,18 +57315,18 @@
       <c r="C158" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="D158" s="241" t="s">
+      <c r="D158" s="237" t="s">
         <v>121</v>
       </c>
-      <c r="E158" s="241"/>
-      <c r="F158" s="241"/>
-      <c r="G158" s="241"/>
-      <c r="H158" s="241"/>
+      <c r="E158" s="237"/>
+      <c r="F158" s="237"/>
+      <c r="G158" s="237"/>
+      <c r="H158" s="237"/>
       <c r="I158" s="177">
         <v>157</v>
       </c>
       <c r="J158" s="188"/>
-      <c r="K158" s="241"/>
+      <c r="K158" s="237"/>
       <c r="L158" s="176" t="s">
         <v>1160</v>
       </c>
@@ -57134,8 +57344,9 @@
         <v>13.4086198270317</v>
       </c>
       <c r="U158" s="83"/>
-    </row>
-    <row r="159" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA158" s="188"/>
+    </row>
+    <row r="159" spans="1:27" ht="15" customHeight="1">
       <c r="A159" s="199" t="s">
         <v>1660</v>
       </c>
@@ -57145,18 +57356,18 @@
       <c r="C159" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="D159" s="235" t="s">
+      <c r="D159" s="231" t="s">
         <v>121</v>
       </c>
-      <c r="E159" s="235"/>
-      <c r="F159" s="235"/>
-      <c r="G159" s="235"/>
-      <c r="H159" s="235"/>
+      <c r="E159" s="231"/>
+      <c r="F159" s="231"/>
+      <c r="G159" s="231"/>
+      <c r="H159" s="231"/>
       <c r="I159" s="177">
         <v>158</v>
       </c>
       <c r="J159" s="188"/>
-      <c r="K159" s="235"/>
+      <c r="K159" s="231"/>
       <c r="L159" s="176" t="s">
         <v>1160</v>
       </c>
@@ -57173,12 +57384,12 @@
       <c r="Q159" s="208">
         <v>13.4086198270317</v>
       </c>
-      <c r="R159" s="252"/>
       <c r="U159" s="210" t="s">
         <v>2864</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA159" s="188"/>
+    </row>
+    <row r="160" spans="1:27" ht="15" customHeight="1">
       <c r="A160" s="199" t="s">
         <v>1658</v>
       </c>
@@ -57191,13 +57402,13 @@
       <c r="D160" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="E160" s="227" t="s">
+      <c r="E160" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F160" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="G160" s="227" t="s">
+      <c r="G160" s="226" t="s">
         <v>120</v>
       </c>
       <c r="H160" s="177">
@@ -57224,14 +57435,15 @@
       <c r="Q160" s="208">
         <v>7.3189907797870104</v>
       </c>
-      <c r="U160" s="228" t="s">
+      <c r="U160" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA160" s="188"/>
+    </row>
+    <row r="161" spans="1:27" ht="15" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -57286,7 +57498,7 @@
       <c r="T161" s="210" t="s">
         <v>2832</v>
       </c>
-      <c r="U161" s="251" t="s">
+      <c r="U161" s="210" t="s">
         <v>2861</v>
       </c>
       <c r="Y161">
@@ -57295,8 +57507,11 @@
       <c r="Z161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA161" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="15" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -57353,7 +57568,7 @@
       <c r="T162" s="210" t="s">
         <v>2827</v>
       </c>
-      <c r="U162" s="228" t="s">
+      <c r="U162" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y162">
@@ -57362,8 +57577,11 @@
       <c r="Z162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA162" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" ht="15" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -57386,7 +57604,7 @@
       <c r="L163" s="176" t="s">
         <v>1160</v>
       </c>
-      <c r="M163" s="246" t="s">
+      <c r="M163" s="240" t="s">
         <v>1629</v>
       </c>
       <c r="N163" s="184" t="s">
@@ -57406,8 +57624,9 @@
         <v>124</v>
       </c>
       <c r="U163" s="83"/>
-    </row>
-    <row r="164" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA163" s="188"/>
+    </row>
+    <row r="164" spans="1:27" ht="15" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -57449,7 +57668,7 @@
       <c r="S164" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="U164" s="243" t="s">
+      <c r="U164" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V164" t="s">
@@ -57461,8 +57680,9 @@
       <c r="X164">
         <v>46</v>
       </c>
-    </row>
-    <row r="165" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA164" s="188"/>
+    </row>
+    <row r="165" spans="1:27" ht="15" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -57499,8 +57719,9 @@
         <v>99.749839182331499</v>
       </c>
       <c r="U165" s="83"/>
-    </row>
-    <row r="166" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA165" s="188"/>
+    </row>
+    <row r="166" spans="1:27" ht="15" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -57536,9 +57757,9 @@
       <c r="Q166" s="208">
         <v>99.635479951397301</v>
       </c>
-      <c r="U166" s="252"/>
-    </row>
-    <row r="167" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA166" s="188"/>
+    </row>
+    <row r="167" spans="1:27" ht="15" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -57576,8 +57797,9 @@
       <c r="Q167" s="208">
         <v>97.920091487384795</v>
       </c>
-    </row>
-    <row r="168" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA167" s="188"/>
+    </row>
+    <row r="168" spans="1:27" ht="15" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -57613,9 +57835,9 @@
       <c r="Q168" s="208">
         <v>98.827817882924705</v>
       </c>
-      <c r="U168" s="252"/>
-    </row>
-    <row r="169" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA168" s="188"/>
+    </row>
+    <row r="169" spans="1:27" ht="15" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -57651,9 +57873,9 @@
       <c r="Q169" s="208">
         <v>99.849903509398899</v>
       </c>
-      <c r="U169" s="252"/>
-    </row>
-    <row r="170" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA169" s="188"/>
+    </row>
+    <row r="170" spans="1:27" ht="15" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -57689,9 +57911,9 @@
       <c r="Q170" s="208">
         <v>99.978557644199896</v>
       </c>
-      <c r="U170" s="252"/>
-    </row>
-    <row r="171" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA170" s="188"/>
+    </row>
+    <row r="171" spans="1:27" ht="15" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -57733,8 +57955,9 @@
       <c r="S171" s="210" t="s">
         <v>2809</v>
       </c>
-    </row>
-    <row r="172" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA171" s="188"/>
+    </row>
+    <row r="172" spans="1:27" ht="15" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -57772,15 +57995,16 @@
       <c r="Q172" s="208">
         <v>93.560145808019499</v>
       </c>
-      <c r="R172" s="243" t="s">
+      <c r="R172" s="210" t="s">
         <v>2831</v>
       </c>
       <c r="T172" s="210" t="s">
         <v>2826</v>
       </c>
       <c r="U172" s="210"/>
-    </row>
-    <row r="173" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA172" s="188"/>
+    </row>
+    <row r="173" spans="1:27" ht="15" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -57818,7 +58042,7 @@
       <c r="Q173" s="208">
         <v>98.413265670788405</v>
       </c>
-      <c r="R173" s="250" t="s">
+      <c r="R173" s="244" t="s">
         <v>2813</v>
       </c>
       <c r="S173" s="210" t="s">
@@ -57828,8 +58052,9 @@
         <v>2813</v>
       </c>
       <c r="U173" s="210"/>
-    </row>
-    <row r="174" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA173" s="188"/>
+    </row>
+    <row r="174" spans="1:27" ht="15" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -57867,15 +58092,16 @@
       <c r="Q174" s="208">
         <v>91.208634121935503</v>
       </c>
-      <c r="R174" s="249" t="s">
+      <c r="R174" s="243" t="s">
         <v>2831</v>
       </c>
       <c r="T174" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U174" s="243"/>
-    </row>
-    <row r="175" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="U174" s="210"/>
+      <c r="AA174" s="188"/>
+    </row>
+    <row r="175" spans="1:27" ht="15" customHeight="1">
       <c r="A175" s="207" t="s">
         <v>1508</v>
       </c>
@@ -57913,7 +58139,7 @@
       <c r="Q175" s="208">
         <v>93.631620327353303</v>
       </c>
-      <c r="R175" s="250" t="s">
+      <c r="R175" s="244" t="s">
         <v>2825</v>
       </c>
       <c r="S175" s="210" t="s">
@@ -57923,8 +58149,9 @@
         <v>2826</v>
       </c>
       <c r="U175" s="210"/>
-    </row>
-    <row r="176" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA175" s="188"/>
+    </row>
+    <row r="176" spans="1:27" ht="15" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -57972,8 +58199,9 @@
         <v>2826</v>
       </c>
       <c r="U176" s="210"/>
-    </row>
-    <row r="177" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA176" s="188"/>
+    </row>
+    <row r="177" spans="1:27" ht="15" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -58020,10 +58248,10 @@
       <c r="T177" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U177" s="243"/>
-      <c r="W177" s="252"/>
-    </row>
-    <row r="178" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U177" s="210"/>
+      <c r="AA177" s="188"/>
+    </row>
+    <row r="178" spans="1:27" ht="15" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -58071,8 +58299,9 @@
         <v>2826</v>
       </c>
       <c r="U178" s="210"/>
-    </row>
-    <row r="179" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA178" s="188"/>
+    </row>
+    <row r="179" spans="1:27" ht="15" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -58120,8 +58349,9 @@
         <v>2826</v>
       </c>
       <c r="U179" s="210"/>
-    </row>
-    <row r="180" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA179" s="188"/>
+    </row>
+    <row r="180" spans="1:27" ht="15" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -58168,9 +58398,10 @@
       <c r="T180" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U180" s="243"/>
-    </row>
-    <row r="181" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U180" s="210"/>
+      <c r="AA180" s="188"/>
+    </row>
+    <row r="181" spans="1:27" ht="15" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -58218,8 +58449,9 @@
         <v>2826</v>
       </c>
       <c r="U181" s="210"/>
-    </row>
-    <row r="182" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA181" s="188"/>
+    </row>
+    <row r="182" spans="1:27" ht="15" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -58266,9 +58498,10 @@
       <c r="T182" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="U182" s="243"/>
-    </row>
-    <row r="183" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U182" s="210"/>
+      <c r="AA182" s="188"/>
+    </row>
+    <row r="183" spans="1:27" ht="15" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -58313,8 +58546,9 @@
         <v>2826</v>
       </c>
       <c r="U183" s="210"/>
-    </row>
-    <row r="184" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA183" s="188"/>
+    </row>
+    <row r="184" spans="1:27" ht="15" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -58352,7 +58586,7 @@
       <c r="Q184" s="208">
         <v>93.381459509684802</v>
       </c>
-      <c r="R184" s="250" t="s">
+      <c r="R184" s="244" t="s">
         <v>2825</v>
       </c>
       <c r="S184" s="210" t="s">
@@ -58362,8 +58596,9 @@
         <v>2826</v>
       </c>
       <c r="U184" s="210"/>
-    </row>
-    <row r="185" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA184" s="188"/>
+    </row>
+    <row r="185" spans="1:27" ht="15" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -58411,8 +58646,9 @@
         <v>2826</v>
       </c>
       <c r="U185" s="210"/>
-    </row>
-    <row r="186" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA185" s="188"/>
+    </row>
+    <row r="186" spans="1:27" ht="15" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -58460,8 +58696,9 @@
         <v>2826</v>
       </c>
       <c r="U186" s="210"/>
-    </row>
-    <row r="187" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA186" s="188"/>
+    </row>
+    <row r="187" spans="1:27" ht="15" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -58509,8 +58746,9 @@
         <v>2826</v>
       </c>
       <c r="U187" s="210"/>
-    </row>
-    <row r="188" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA187" s="188"/>
+    </row>
+    <row r="188" spans="1:27" ht="15" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -58558,8 +58796,9 @@
         <v>2826</v>
       </c>
       <c r="U188" s="210"/>
-    </row>
-    <row r="189" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA188" s="188"/>
+    </row>
+    <row r="189" spans="1:27" ht="15" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -58607,8 +58846,9 @@
         <v>2826</v>
       </c>
       <c r="U189" s="210"/>
-    </row>
-    <row r="190" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA189" s="188"/>
+    </row>
+    <row r="190" spans="1:27" ht="15" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -58656,8 +58896,9 @@
         <v>2826</v>
       </c>
       <c r="U190" s="210"/>
-    </row>
-    <row r="191" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA190" s="188"/>
+    </row>
+    <row r="191" spans="1:27" ht="15" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -58705,8 +58946,9 @@
         <v>2826</v>
       </c>
       <c r="U191" s="210"/>
-    </row>
-    <row r="192" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA191" s="188"/>
+    </row>
+    <row r="192" spans="1:27" ht="15" customHeight="1">
       <c r="A192" s="197" t="s">
         <v>1191</v>
       </c>
@@ -58721,7 +58963,7 @@
       <c r="F192" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="G192" s="227" t="s">
+      <c r="G192" s="226" t="s">
         <v>120</v>
       </c>
       <c r="H192" s="177">
@@ -58761,14 +59003,17 @@
       <c r="T192" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U192" s="251" t="s">
+      <c r="U192" s="210" t="s">
         <v>2861</v>
       </c>
       <c r="Y192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA192" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" ht="15" customHeight="1">
       <c r="A193" s="197" t="s">
         <v>1189</v>
       </c>
@@ -58804,7 +59049,7 @@
       <c r="Q193" s="208">
         <v>97.741405189050099</v>
       </c>
-      <c r="R193" s="243"/>
+      <c r="R193" s="210"/>
       <c r="T193" s="210"/>
       <c r="U193" s="212" t="s">
         <v>328</v>
@@ -58812,14 +59057,15 @@
       <c r="V193" s="210" t="s">
         <v>2845</v>
       </c>
-      <c r="W193" s="243" t="s">
+      <c r="W193" s="210" t="s">
         <v>2865</v>
       </c>
       <c r="X193">
         <v>46</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA193" s="188"/>
+    </row>
+    <row r="194" spans="1:27" ht="15" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -58855,12 +59101,13 @@
       <c r="Q194" s="208">
         <v>97.148166678579102</v>
       </c>
-      <c r="R194" s="243"/>
+      <c r="R194" s="210"/>
       <c r="T194" s="210"/>
       <c r="U194" s="212"/>
       <c r="W194" s="83"/>
-    </row>
-    <row r="195" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA194" s="188"/>
+    </row>
+    <row r="195" spans="1:27" ht="15" customHeight="1">
       <c r="A195" s="197" t="s">
         <v>1183</v>
       </c>
@@ -58903,11 +59150,12 @@
         <v>1667</v>
       </c>
       <c r="T195" s="210"/>
-      <c r="U195" s="243" t="s">
+      <c r="U195" s="210" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA195" s="188"/>
+    </row>
+    <row r="196" spans="1:27" ht="15" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -58956,14 +59204,15 @@
       <c r="V196" t="s">
         <v>2845</v>
       </c>
-      <c r="W196" s="243" t="s">
+      <c r="W196" s="210" t="s">
         <v>2865</v>
       </c>
       <c r="X196">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA196" s="188"/>
+    </row>
+    <row r="197" spans="1:27" ht="15" customHeight="1">
       <c r="A197" s="197" t="s">
         <v>1178</v>
       </c>
@@ -58999,19 +59248,20 @@
       <c r="Q197" s="208">
         <v>82.767493388606994</v>
       </c>
-      <c r="R197" s="243" t="s">
+      <c r="R197" s="210" t="s">
         <v>2815</v>
       </c>
       <c r="S197" s="210" t="s">
         <v>1667</v>
       </c>
       <c r="T197" s="210"/>
-      <c r="U197" s="243" t="s">
+      <c r="U197" s="210" t="s">
         <v>2861</v>
       </c>
       <c r="W197" s="83"/>
-    </row>
-    <row r="198" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA197" s="188"/>
+    </row>
+    <row r="198" spans="1:27" ht="15" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -59060,14 +59310,15 @@
       <c r="V198" t="s">
         <v>2845</v>
       </c>
-      <c r="W198" s="243" t="s">
+      <c r="W198" s="210" t="s">
         <v>2865</v>
       </c>
       <c r="X198">
         <v>46</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA198" s="188"/>
+    </row>
+    <row r="199" spans="1:27" ht="15" customHeight="1">
       <c r="A199" s="199" t="s">
         <v>1174</v>
       </c>
@@ -59105,7 +59356,7 @@
       <c r="Q199" s="208">
         <v>15.6100350225145</v>
       </c>
-      <c r="R199" s="247" t="s">
+      <c r="R199" s="241" t="s">
         <v>2812</v>
       </c>
       <c r="S199" s="210" t="s">
@@ -59116,8 +59367,9 @@
         <v>2861</v>
       </c>
       <c r="W199" s="83"/>
-    </row>
-    <row r="200" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA199" s="188"/>
+    </row>
+    <row r="200" spans="1:27" ht="15" customHeight="1">
       <c r="A200" s="199" t="s">
         <v>1171</v>
       </c>
@@ -59165,8 +59417,9 @@
       <c r="U200" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA200" s="188"/>
+    </row>
+    <row r="201" spans="1:27" ht="15" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -59221,8 +59474,9 @@
       <c r="X201">
         <v>46</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA201" s="188"/>
+    </row>
+    <row r="202" spans="1:27" ht="15" customHeight="1">
       <c r="A202" s="199" t="s">
         <v>1666</v>
       </c>
@@ -59260,11 +59514,12 @@
       <c r="Q202" s="208">
         <v>11.7718533342863</v>
       </c>
-      <c r="R202" s="248"/>
+      <c r="R202" s="242"/>
       <c r="T202" s="210"/>
       <c r="U202" s="212"/>
-    </row>
-    <row r="203" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA202" s="188"/>
+    </row>
+    <row r="203" spans="1:27" ht="15" customHeight="1">
       <c r="A203" s="199" t="s">
         <v>1669</v>
       </c>
@@ -59310,8 +59565,9 @@
       <c r="U203" s="210" t="s">
         <v>2864</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA203" s="188"/>
+    </row>
+    <row r="204" spans="1:27" ht="15" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -59350,9 +59606,10 @@
         <v>80.187263240654701</v>
       </c>
       <c r="T204" s="210"/>
-      <c r="U204" s="243"/>
-    </row>
-    <row r="205" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="U204" s="210"/>
+      <c r="AA204" s="188"/>
+    </row>
+    <row r="205" spans="1:27" ht="15" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -59391,9 +59648,10 @@
         <v>87.734972482310098</v>
       </c>
       <c r="T205" s="210"/>
-      <c r="U205" s="243"/>
-    </row>
-    <row r="206" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="U205" s="210"/>
+      <c r="AA205" s="188"/>
+    </row>
+    <row r="206" spans="1:27" ht="15" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -59433,8 +59691,9 @@
       </c>
       <c r="T206" s="210"/>
       <c r="U206" s="210"/>
-    </row>
-    <row r="207" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA206" s="188"/>
+    </row>
+    <row r="207" spans="1:27" ht="15" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -59472,11 +59731,11 @@
       <c r="Q207" s="208">
         <v>93.367164605818004</v>
       </c>
-      <c r="R207" s="252"/>
       <c r="T207" s="210"/>
       <c r="U207" s="210"/>
-    </row>
-    <row r="208" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA207" s="188"/>
+    </row>
+    <row r="208" spans="1:27" ht="15" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -59514,11 +59773,11 @@
       <c r="Q208" s="208">
         <v>94.339218068758498</v>
       </c>
-      <c r="R208" s="252"/>
       <c r="T208" s="210"/>
-      <c r="U208" s="243"/>
-    </row>
-    <row r="209" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U208" s="210"/>
+      <c r="AA208" s="188"/>
+    </row>
+    <row r="209" spans="1:27" ht="15" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -59557,9 +59816,10 @@
         <v>96.919448216710805</v>
       </c>
       <c r="T209" s="210"/>
-      <c r="U209" s="243"/>
-    </row>
-    <row r="210" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U209" s="210"/>
+      <c r="AA209" s="188"/>
+    </row>
+    <row r="210" spans="1:27" ht="15" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -59598,9 +59858,10 @@
         <v>98.870702594525099</v>
       </c>
       <c r="T210" s="210"/>
-      <c r="U210" s="243"/>
-    </row>
-    <row r="211" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U210" s="210"/>
+      <c r="AA210" s="188"/>
+    </row>
+    <row r="211" spans="1:27" ht="15" customHeight="1">
       <c r="A211" s="199" t="s">
         <v>1683</v>
       </c>
@@ -59638,8 +59899,9 @@
       </c>
       <c r="T211" s="210"/>
       <c r="U211" s="210"/>
-    </row>
-    <row r="212" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA211" s="188"/>
+    </row>
+    <row r="212" spans="1:27" ht="15" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -59688,7 +59950,7 @@
         <v>1667</v>
       </c>
       <c r="T212" s="210"/>
-      <c r="U212" s="243" t="s">
+      <c r="U212" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V212" t="s">
@@ -59703,8 +59965,11 @@
       <c r="Y212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA212" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" ht="15" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -59740,12 +60005,11 @@
       <c r="Q213" s="208">
         <v>41.862625973840302</v>
       </c>
-      <c r="R213" s="252"/>
-      <c r="S213" s="252"/>
       <c r="T213" s="210"/>
       <c r="U213" s="212"/>
-    </row>
-    <row r="214" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA213" s="188"/>
+    </row>
+    <row r="214" spans="1:27" ht="15" customHeight="1">
       <c r="A214" s="199" t="s">
         <v>1697</v>
       </c>
@@ -59777,14 +60041,15 @@
       <c r="O214" s="198" t="s">
         <v>1699</v>
       </c>
-      <c r="P214" s="257"/>
+      <c r="P214" s="249"/>
       <c r="Q214" s="208">
         <v>19.784146951611699</v>
       </c>
       <c r="T214" s="210"/>
       <c r="U214" s="210"/>
-    </row>
-    <row r="215" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA214" s="188"/>
+    </row>
+    <row r="215" spans="1:27" ht="15" customHeight="1">
       <c r="A215" s="199" t="s">
         <v>1716</v>
       </c>
@@ -59833,7 +60098,7 @@
         <v>1667</v>
       </c>
       <c r="T215" s="210"/>
-      <c r="U215" s="243" t="s">
+      <c r="U215" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V215" t="s">
@@ -59848,8 +60113,11 @@
       <c r="Y215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA215" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" ht="15" customHeight="1">
       <c r="A216" s="199" t="s">
         <v>1719</v>
       </c>
@@ -59900,8 +60168,9 @@
       <c r="X216">
         <v>70</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA216" s="188"/>
+    </row>
+    <row r="217" spans="1:27" ht="15" customHeight="1">
       <c r="A217" s="199" t="s">
         <v>1731</v>
       </c>
@@ -59950,11 +60219,14 @@
         <v>1667</v>
       </c>
       <c r="T217" s="210"/>
-      <c r="U217" s="228" t="s">
+      <c r="U217" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA217" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27" ht="15" customHeight="1">
       <c r="A218" s="199" t="s">
         <v>1734</v>
       </c>
@@ -59999,11 +60271,12 @@
       <c r="T218" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U218" s="228" t="s">
+      <c r="U218" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA218" s="188"/>
+    </row>
+    <row r="219" spans="1:27" ht="15" customHeight="1">
       <c r="A219" s="199" t="s">
         <v>1736</v>
       </c>
@@ -60056,11 +60329,14 @@
       <c r="T219" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U219" s="228" t="s">
+      <c r="U219" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA219" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" ht="15" customHeight="1">
       <c r="A220" s="199" t="s">
         <v>1743</v>
       </c>
@@ -60092,11 +60368,11 @@
       <c r="O220" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="P220" s="235"/>
+      <c r="P220" s="231"/>
       <c r="Q220" s="208">
         <v>61.125008934314899</v>
       </c>
-      <c r="R220" s="250" t="s">
+      <c r="R220" s="244" t="s">
         <v>2825</v>
       </c>
       <c r="S220" s="210" t="s">
@@ -60104,8 +60380,9 @@
       </c>
       <c r="T220" s="210"/>
       <c r="U220" s="212"/>
-    </row>
-    <row r="221" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA220" s="188"/>
+    </row>
+    <row r="221" spans="1:27" ht="15" customHeight="1">
       <c r="A221" s="199" t="s">
         <v>1750</v>
       </c>
@@ -60148,9 +60425,10 @@
         <v>1667</v>
       </c>
       <c r="T221" s="210"/>
-      <c r="U221" s="243"/>
-    </row>
-    <row r="222" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U221" s="210"/>
+      <c r="AA221" s="188"/>
+    </row>
+    <row r="222" spans="1:27" ht="15" customHeight="1">
       <c r="A222" s="199" t="s">
         <v>1755</v>
       </c>
@@ -60194,8 +60472,9 @@
       </c>
       <c r="T222" s="210"/>
       <c r="U222" s="210"/>
-    </row>
-    <row r="223" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA222" s="188"/>
+    </row>
+    <row r="223" spans="1:27" ht="15" customHeight="1">
       <c r="A223" s="199" t="s">
         <v>1759</v>
       </c>
@@ -60239,8 +60518,9 @@
       </c>
       <c r="T223" s="210"/>
       <c r="U223" s="210"/>
-    </row>
-    <row r="224" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA223" s="188"/>
+    </row>
+    <row r="224" spans="1:27" ht="15" customHeight="1">
       <c r="A224" s="199" t="s">
         <v>1763</v>
       </c>
@@ -60283,9 +60563,10 @@
         <v>1667</v>
       </c>
       <c r="T224" s="210"/>
-      <c r="U224" s="243"/>
-    </row>
-    <row r="225" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="U224" s="210"/>
+      <c r="AA224" s="188"/>
+    </row>
+    <row r="225" spans="1:27" ht="15" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -60329,8 +60610,9 @@
       </c>
       <c r="T225" s="210"/>
       <c r="U225" s="210"/>
-    </row>
-    <row r="226" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA225" s="188"/>
+    </row>
+    <row r="226" spans="1:27" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -60343,7 +60625,7 @@
       <c r="D226" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="E226" s="227" t="s">
+      <c r="E226" s="226" t="s">
         <v>120</v>
       </c>
       <c r="F226" s="224" t="s">
@@ -60376,7 +60658,7 @@
       <c r="Q226" s="208">
         <v>21.442355800157198</v>
       </c>
-      <c r="R226" s="249" t="s">
+      <c r="R226" s="243" t="s">
         <v>2813</v>
       </c>
       <c r="S226" s="210" t="s">
@@ -60385,7 +60667,7 @@
       <c r="T226" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="U226" s="243" t="s">
+      <c r="U226" s="210" t="s">
         <v>328</v>
       </c>
       <c r="V226" t="s">
@@ -60397,8 +60679,9 @@
       <c r="Y226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA226" s="188"/>
+    </row>
+    <row r="227" spans="1:27" ht="15" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -60456,8 +60739,9 @@
       <c r="W227" s="210" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="228" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA227" s="188"/>
+    </row>
+    <row r="228" spans="1:27" ht="15" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -60513,8 +60797,9 @@
       <c r="W228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA228" s="188"/>
+    </row>
+    <row r="229" spans="1:27" ht="15" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -60567,14 +60852,17 @@
         <v>1667</v>
       </c>
       <c r="T229" s="210"/>
-      <c r="U229" s="228" t="s">
+      <c r="U229" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA229" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27" ht="15" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -60620,8 +60908,9 @@
       </c>
       <c r="T230" s="210"/>
       <c r="U230" s="212"/>
-    </row>
-    <row r="231" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA230" s="188"/>
+    </row>
+    <row r="231" spans="1:27" ht="15" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -60665,8 +60954,9 @@
       </c>
       <c r="T231" s="210"/>
       <c r="U231" s="210"/>
-    </row>
-    <row r="232" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA231" s="188"/>
+    </row>
+    <row r="232" spans="1:27" ht="15" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -60702,9 +60992,9 @@
       <c r="Q232" s="208">
         <v>100</v>
       </c>
-      <c r="U232" s="252"/>
-    </row>
-    <row r="233" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA232" s="188"/>
+    </row>
+    <row r="233" spans="1:27" ht="15" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -60740,9 +61030,9 @@
       <c r="Q233" s="208">
         <v>100</v>
       </c>
-      <c r="U233" s="252"/>
-    </row>
-    <row r="234" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA233" s="188"/>
+    </row>
+    <row r="234" spans="1:27" ht="15" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -60752,17 +61042,17 @@
       <c r="C234" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="D234" s="240"/>
-      <c r="E234" s="240"/>
-      <c r="F234" s="240"/>
-      <c r="G234" s="240"/>
-      <c r="H234" s="240"/>
+      <c r="D234" s="236"/>
+      <c r="E234" s="236"/>
+      <c r="F234" s="236"/>
+      <c r="G234" s="236"/>
+      <c r="H234" s="236"/>
       <c r="I234" s="177">
         <v>233</v>
       </c>
       <c r="J234" s="188"/>
-      <c r="K234" s="244"/>
-      <c r="L234" s="244" t="s">
+      <c r="K234" s="238"/>
+      <c r="L234" s="238" t="s">
         <v>2192</v>
       </c>
       <c r="M234" s="192" t="s">
@@ -60780,57 +61070,59 @@
       <c r="Q234" s="208">
         <v>97.012365091844799</v>
       </c>
-      <c r="U234" s="252"/>
-    </row>
-    <row r="235" spans="1:25" ht="15" hidden="1" customHeight="1">
-      <c r="A235" s="239" t="s">
+      <c r="AA234" s="188"/>
+    </row>
+    <row r="235" spans="1:27" ht="15" customHeight="1">
+      <c r="A235" s="235" t="s">
         <v>2605</v>
       </c>
       <c r="B235" s="176"/>
       <c r="C235" s="176" t="s">
         <v>2869</v>
       </c>
-      <c r="D235" s="254" t="s">
+      <c r="D235" s="246" t="s">
         <v>121</v>
       </c>
-      <c r="E235" s="254"/>
-      <c r="F235" s="254" t="s">
+      <c r="E235" s="246"/>
+      <c r="F235" s="246" t="s">
         <v>153</v>
       </c>
-      <c r="G235" s="232"/>
-      <c r="H235" s="232"/>
+      <c r="G235" s="228"/>
+      <c r="H235" s="228"/>
       <c r="I235" s="177">
         <v>234</v>
       </c>
       <c r="J235" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K235" s="254" t="s">
+      <c r="K235" s="246" t="s">
         <v>3116</v>
       </c>
-      <c r="L235" s="245" t="s">
+      <c r="L235" s="239" t="s">
         <v>2853</v>
       </c>
       <c r="M235" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="N235" s="234"/>
-      <c r="O235" s="234"/>
-      <c r="P235" s="234"/>
-    </row>
-    <row r="236" spans="1:25" ht="15" hidden="1" customHeight="1">
-      <c r="A236" s="236" t="s">
+      <c r="N235" s="230"/>
+      <c r="O235" s="230"/>
+      <c r="P235" s="230"/>
+      <c r="AA235" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27" ht="15" customHeight="1">
+      <c r="A236" s="232" t="s">
         <v>2870</v>
       </c>
-      <c r="B236" s="253"/>
+      <c r="B236" s="245"/>
       <c r="C236" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D236" s="243" t="s">
+      <c r="D236" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E236" s="243"/>
-      <c r="F236" s="252"/>
+      <c r="E236" s="210"/>
       <c r="G236" s="177"/>
       <c r="H236" s="223"/>
       <c r="I236" s="177">
@@ -60840,36 +61132,36 @@
         <v>120</v>
       </c>
       <c r="K236" s="212"/>
-      <c r="L236" s="253"/>
-      <c r="M236" s="234"/>
-      <c r="N236" s="235" t="s">
+      <c r="L236" s="245"/>
+      <c r="M236" s="230"/>
+      <c r="N236" s="231" t="s">
         <v>2911</v>
       </c>
-      <c r="O236" s="252"/>
-      <c r="P236" s="252"/>
       <c r="Q236" s="208">
         <v>7.1469411092052598E-3</v>
       </c>
-      <c r="U236" s="251" t="s">
+      <c r="U236" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="237" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA236" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27" ht="15" customHeight="1">
       <c r="A237" s="221" t="s">
         <v>2886</v>
       </c>
-      <c r="B237" s="252"/>
       <c r="C237" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D237" s="243" t="s">
+      <c r="D237" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="E237" s="243"/>
-      <c r="F237" s="243" t="s">
+      <c r="E237" s="210"/>
+      <c r="F237" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="G237" s="239"/>
+      <c r="G237" s="235"/>
       <c r="H237" s="212"/>
       <c r="I237" s="177">
         <v>236</v>
@@ -60877,16 +61169,12 @@
       <c r="J237" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K237" s="235" t="s">
+      <c r="K237" s="231" t="s">
         <v>3117</v>
       </c>
-      <c r="L237" s="252"/>
-      <c r="M237" s="252"/>
       <c r="N237" s="211" t="s">
         <v>2915</v>
       </c>
-      <c r="O237" s="252"/>
-      <c r="P237" s="252"/>
       <c r="Q237" s="208">
         <v>42.617209834191002</v>
       </c>
@@ -60899,28 +61187,30 @@
       <c r="X237">
         <v>46</v>
       </c>
-    </row>
-    <row r="238" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA237" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27" ht="15" customHeight="1">
       <c r="A238" s="221" t="s">
         <v>2887</v>
       </c>
-      <c r="B238" s="252"/>
       <c r="C238" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D238" s="243" t="s">
+      <c r="D238" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E238" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F238" s="243" t="s">
+      <c r="E238" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="F238" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="G238" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H238" s="236">
+      <c r="G238" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H238" s="232">
         <v>3</v>
       </c>
       <c r="I238" s="177">
@@ -60930,75 +61220,71 @@
         <v>120</v>
       </c>
       <c r="K238" s="83"/>
-      <c r="L238" s="252"/>
-      <c r="M238" s="252"/>
-      <c r="N238" s="248" t="s">
+      <c r="N238" s="242" t="s">
         <v>2920</v>
       </c>
-      <c r="O238" s="252"/>
-      <c r="P238" s="252"/>
       <c r="Q238" s="208">
         <v>11.270726129216699</v>
       </c>
-      <c r="U238" s="228" t="s">
+      <c r="U238" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA238" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" ht="15" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2881</v>
       </c>
-      <c r="B239" s="252"/>
       <c r="C239" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D239" s="243" t="s">
+      <c r="D239" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="E239" s="239"/>
-      <c r="F239" s="251" t="s">
+      <c r="E239" s="235"/>
+      <c r="F239" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="G239" s="242"/>
-      <c r="H239" s="228"/>
+      <c r="G239" s="235"/>
+      <c r="H239" s="212"/>
       <c r="I239" s="177">
         <v>238</v>
       </c>
       <c r="J239" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K239" s="252" t="s">
+      <c r="K239" t="s">
         <v>3114</v>
       </c>
-      <c r="L239" s="252"/>
-      <c r="M239" s="252"/>
-      <c r="N239" s="252" t="s">
+      <c r="N239" t="s">
         <v>2916</v>
       </c>
-      <c r="O239" s="252"/>
-      <c r="P239" s="252"/>
       <c r="Q239" s="208">
         <v>11.270726129216699</v>
       </c>
-      <c r="U239" s="228" t="s">
+      <c r="U239" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="240" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="AA239" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27" ht="15" customHeight="1">
       <c r="A240" s="221" t="s">
         <v>2882</v>
       </c>
-      <c r="B240" s="252"/>
       <c r="C240" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D240" s="243" t="s">
+      <c r="D240" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E240" s="243"/>
+      <c r="E240" s="210"/>
       <c r="F240" s="83" t="s">
         <v>121</v>
       </c>
@@ -61010,16 +61296,12 @@
       <c r="J240" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K240" s="252" t="s">
+      <c r="K240" t="s">
         <v>3114</v>
       </c>
-      <c r="L240" s="252"/>
-      <c r="M240" s="252"/>
-      <c r="N240" s="252" t="s">
+      <c r="N240" t="s">
         <v>2917</v>
       </c>
-      <c r="O240" s="252"/>
-      <c r="P240" s="252"/>
       <c r="Q240" s="208">
         <v>84.991423670668993</v>
       </c>
@@ -61032,28 +61314,30 @@
       <c r="X240">
         <v>46</v>
       </c>
-    </row>
-    <row r="241" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA240" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" ht="15" customHeight="1">
       <c r="A241" s="221" t="s">
         <v>2888</v>
       </c>
-      <c r="B241" s="252"/>
       <c r="C241" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D241" s="243" t="s">
+      <c r="D241" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E241" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F241" s="251" t="s">
-        <v>120</v>
-      </c>
-      <c r="G241" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H241" s="236">
+      <c r="E241" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="F241" s="210" t="s">
+        <v>120</v>
+      </c>
+      <c r="G241" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H241" s="232">
         <v>5</v>
       </c>
       <c r="I241" s="177">
@@ -61062,14 +61346,9 @@
       <c r="J241" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K241" s="252"/>
-      <c r="L241" s="252"/>
-      <c r="M241" s="252"/>
-      <c r="N241" s="252" t="s">
+      <c r="N241" t="s">
         <v>2918</v>
       </c>
-      <c r="O241" s="252"/>
-      <c r="P241" s="252"/>
       <c r="Q241" s="208">
         <v>14.944253859348199</v>
       </c>
@@ -61085,23 +61364,25 @@
       <c r="Y241">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA241" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27" ht="15" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2889</v>
       </c>
-      <c r="B242" s="252"/>
       <c r="C242" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D242" s="243" t="s">
+      <c r="D242" s="210" t="s">
         <v>153</v>
       </c>
       <c r="E242" s="212"/>
       <c r="F242" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="G242" s="234"/>
+      <c r="G242" s="230"/>
       <c r="H242" s="83"/>
       <c r="I242" s="177">
         <v>241</v>
@@ -61109,76 +61390,66 @@
       <c r="J242" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K242" s="252" t="s">
+      <c r="K242" t="s">
         <v>3117</v>
       </c>
-      <c r="L242" s="252"/>
-      <c r="M242" s="252"/>
-      <c r="N242" s="252" t="s">
+      <c r="N242" t="s">
         <v>2919</v>
       </c>
-      <c r="O242" s="252"/>
-      <c r="P242" s="252"/>
       <c r="Q242" s="208">
         <v>26.472269868496301</v>
       </c>
       <c r="U242" s="212" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="243" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA242" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" ht="15" customHeight="1">
       <c r="A243" s="221" t="s">
         <v>2890</v>
       </c>
-      <c r="B243" s="252"/>
       <c r="C243" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D243" s="243" t="s">
+      <c r="D243" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E243" s="243"/>
-      <c r="F243" s="252"/>
-      <c r="G243" s="252"/>
-      <c r="H243" s="252"/>
+      <c r="E243" s="210"/>
       <c r="I243" s="177">
         <v>242</v>
       </c>
       <c r="J243" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K243" s="243" t="s">
+      <c r="K243" s="210" t="s">
         <v>3117</v>
       </c>
-      <c r="L243" s="252"/>
-      <c r="M243" s="252"/>
-      <c r="N243" s="252" t="s">
+      <c r="N243" t="s">
         <v>2914</v>
       </c>
-      <c r="O243" s="252"/>
-      <c r="P243" s="252"/>
       <c r="Q243" s="208">
         <v>26.472269868496301</v>
       </c>
-      <c r="U243" s="228" t="s">
+      <c r="U243" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="244" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA243" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27" ht="15" customHeight="1">
       <c r="A244" s="221" t="s">
         <v>2891</v>
       </c>
-      <c r="B244" s="252"/>
       <c r="C244" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D244" s="243" t="s">
+      <c r="D244" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E244" s="243"/>
-      <c r="F244" s="252"/>
-      <c r="G244" s="252"/>
-      <c r="H244" s="252"/>
+      <c r="E244" s="210"/>
       <c r="I244" s="177">
         <v>243</v>
       </c>
@@ -61186,39 +61457,36 @@
         <v>120</v>
       </c>
       <c r="K244" s="83"/>
-      <c r="L244" s="252"/>
-      <c r="M244" s="252"/>
-      <c r="N244" s="243" t="s">
+      <c r="N244" s="210" t="s">
         <v>2909</v>
       </c>
-      <c r="O244" s="252"/>
-      <c r="P244" s="252"/>
       <c r="Q244" s="208">
         <v>22.398513436249299</v>
       </c>
-      <c r="U244" s="228" t="s">
+      <c r="U244" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="245" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA244" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" ht="15" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2884</v>
       </c>
-      <c r="B245" s="252"/>
       <c r="C245" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D245" s="243" t="s">
+      <c r="D245" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E245" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F245" s="252"/>
-      <c r="G245" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H245" s="236">
+      <c r="E245" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="G245" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H245" s="232">
         <v>6</v>
       </c>
       <c r="I245" s="177">
@@ -61227,40 +61495,37 @@
       <c r="J245" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K245" s="243" t="s">
+      <c r="K245" s="210" t="s">
         <v>3118</v>
       </c>
-      <c r="L245" s="252"/>
-      <c r="M245" s="252"/>
-      <c r="N245" s="252" t="s">
+      <c r="N245" t="s">
         <v>2909</v>
       </c>
-      <c r="O245" s="252"/>
-      <c r="P245" s="252"/>
       <c r="Q245" s="208">
         <v>16.559462550028599</v>
       </c>
-      <c r="U245" s="228" t="s">
+      <c r="U245" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y245">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA245" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27" ht="15" customHeight="1">
       <c r="A246" s="221" t="s">
         <v>2892</v>
       </c>
-      <c r="B246" s="252"/>
       <c r="C246" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D246" s="243" t="s">
+      <c r="D246" s="210" t="s">
         <v>121</v>
       </c>
       <c r="E246" s="212"/>
-      <c r="F246" s="252"/>
-      <c r="G246" s="234"/>
+      <c r="G246" s="230"/>
       <c r="H246" s="83"/>
       <c r="I246" s="177">
         <v>245</v>
@@ -61271,17 +61536,12 @@
       <c r="K246" s="212" t="s">
         <v>3110</v>
       </c>
-      <c r="L246" s="252"/>
-      <c r="M246" s="252"/>
-      <c r="N246" s="243" t="s">
+      <c r="N246" s="210" t="s">
         <v>3125</v>
       </c>
-      <c r="O246" s="252"/>
-      <c r="P246" s="252"/>
       <c r="Q246" s="208">
         <v>97.770154373927994</v>
       </c>
-      <c r="R246" s="252"/>
       <c r="U246" s="212" t="s">
         <v>328</v>
       </c>
@@ -61291,22 +61551,21 @@
       <c r="X246">
         <v>46</v>
       </c>
-    </row>
-    <row r="247" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA246" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" ht="15" customHeight="1">
       <c r="A247" s="221" t="s">
         <v>2885</v>
       </c>
-      <c r="B247" s="252"/>
       <c r="C247" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D247" s="243" t="s">
+      <c r="D247" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E247" s="243"/>
-      <c r="F247" s="252"/>
-      <c r="G247" s="252"/>
-      <c r="H247" s="252"/>
+      <c r="E247" s="210"/>
       <c r="I247" s="177">
         <v>246</v>
       </c>
@@ -61314,39 +61573,37 @@
         <v>120</v>
       </c>
       <c r="K247" s="83"/>
-      <c r="L247" s="252"/>
-      <c r="M247" s="252"/>
-      <c r="N247" s="252" t="s">
+      <c r="N247" t="s">
         <v>2910</v>
       </c>
-      <c r="O247" s="252"/>
-      <c r="P247" s="252"/>
       <c r="Q247" s="208">
         <v>66.938250428816502</v>
       </c>
-      <c r="U247" s="228" t="s">
+      <c r="U247" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="248" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA247" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27" ht="15" customHeight="1">
       <c r="A248" s="221" t="s">
         <v>2900</v>
       </c>
-      <c r="B248" s="252"/>
       <c r="C248" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D248" s="243" t="s">
+      <c r="D248" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E248" s="243"/>
-      <c r="F248" s="252" t="s">
-        <v>120</v>
-      </c>
-      <c r="G248" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H248" s="236">
+      <c r="E248" s="210"/>
+      <c r="F248" t="s">
+        <v>120</v>
+      </c>
+      <c r="G248" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H248" s="232">
         <v>33</v>
       </c>
       <c r="I248" s="177">
@@ -61355,37 +61612,34 @@
       <c r="J248" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K248" s="252"/>
-      <c r="L248" s="252"/>
-      <c r="M248" s="252"/>
-      <c r="N248" s="252" t="s">
+      <c r="N248" t="s">
         <v>2912</v>
       </c>
-      <c r="O248" s="252"/>
-      <c r="P248" s="252"/>
       <c r="Q248" s="208">
         <v>54.638364779874202</v>
       </c>
-      <c r="U248" s="228" t="s">
+      <c r="U248" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA248" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27" ht="15" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2874</v>
       </c>
-      <c r="B249" s="252"/>
       <c r="C249" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D249" s="243" t="s">
+      <c r="D249" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E249" s="243"/>
-      <c r="F249" s="252" t="s">
+      <c r="E249" s="210"/>
+      <c r="F249" t="s">
         <v>120</v>
       </c>
       <c r="G249" s="177" t="s">
@@ -61400,21 +61654,16 @@
       <c r="J249" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K249" s="252" t="s">
+      <c r="K249" t="s">
         <v>3110</v>
       </c>
-      <c r="L249" s="252"/>
-      <c r="M249" s="252"/>
-      <c r="N249" s="252" t="s">
+      <c r="N249" t="s">
         <v>2923</v>
       </c>
-      <c r="O249" s="252"/>
-      <c r="P249" s="252"/>
       <c r="Q249" s="208">
         <v>93.696397941680999</v>
       </c>
-      <c r="R249" s="252"/>
-      <c r="U249" s="228" t="s">
+      <c r="U249" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y249">
@@ -61423,21 +61672,22 @@
       <c r="Z249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA249" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27" ht="15" customHeight="1">
       <c r="A250" s="221" t="s">
         <v>2901</v>
       </c>
-      <c r="B250" s="252"/>
       <c r="C250" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D250" s="243" t="s">
+      <c r="D250" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E250" s="243"/>
-      <c r="F250" s="252"/>
-      <c r="G250" s="234"/>
+      <c r="E250" s="210"/>
+      <c r="G250" s="230"/>
       <c r="H250" s="83"/>
       <c r="I250" s="177">
         <v>249</v>
@@ -61445,159 +61695,139 @@
       <c r="J250" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K250" s="252" t="s">
+      <c r="K250" t="s">
         <v>3110</v>
       </c>
-      <c r="L250" s="252"/>
-      <c r="M250" s="252"/>
-      <c r="N250" s="252" t="s">
+      <c r="N250" t="s">
         <v>2913</v>
       </c>
-      <c r="O250" s="252"/>
-      <c r="P250" s="252"/>
       <c r="Q250" s="208">
         <v>93.610634648370507</v>
       </c>
-      <c r="R250" s="252"/>
-      <c r="U250" s="228" t="s">
+      <c r="U250" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="251" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA250" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27" ht="15" customHeight="1">
       <c r="A251" s="221" t="s">
         <v>2902</v>
       </c>
-      <c r="B251" s="252"/>
       <c r="C251" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D251" s="243" t="s">
+      <c r="D251" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E251" s="243"/>
-      <c r="F251" s="252"/>
-      <c r="G251" s="252"/>
-      <c r="H251" s="252"/>
+      <c r="E251" s="210"/>
       <c r="I251" s="177">
         <v>250</v>
       </c>
       <c r="J251" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K251" s="252" t="s">
+      <c r="K251" t="s">
         <v>3110</v>
       </c>
-      <c r="L251" s="252"/>
-      <c r="M251" s="252"/>
-      <c r="N251" s="252" t="s">
+      <c r="N251" t="s">
         <v>2921</v>
       </c>
-      <c r="O251" s="252"/>
-      <c r="P251" s="252"/>
       <c r="Q251" s="208">
         <v>93.653516295025696</v>
       </c>
-      <c r="R251" s="252"/>
-      <c r="U251" s="228" t="s">
+      <c r="U251" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="252" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA251" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27" ht="15" customHeight="1">
       <c r="A252" s="221" t="s">
         <v>2903</v>
       </c>
-      <c r="B252" s="252"/>
       <c r="C252" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D252" s="243" t="s">
+      <c r="D252" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E252" s="243"/>
-      <c r="F252" s="252"/>
-      <c r="G252" s="252"/>
-      <c r="H252" s="252"/>
+      <c r="E252" s="210"/>
       <c r="I252" s="177">
         <v>251</v>
       </c>
       <c r="J252" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K252" s="252" t="s">
+      <c r="K252" t="s">
         <v>3110</v>
       </c>
-      <c r="L252" s="252"/>
-      <c r="M252" s="252"/>
-      <c r="N252" s="252" t="s">
+      <c r="N252" t="s">
         <v>3126</v>
       </c>
-      <c r="O252" s="252"/>
-      <c r="P252" s="252"/>
       <c r="Q252" s="208">
         <v>93.6392224128073</v>
       </c>
-      <c r="R252" s="252"/>
-      <c r="U252" s="228" t="s">
+      <c r="U252" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="253" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA252" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" ht="15" customHeight="1">
       <c r="A253" s="221" t="s">
         <v>2904</v>
       </c>
-      <c r="B253" s="252"/>
       <c r="C253" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D253" s="243" t="s">
+      <c r="D253" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E253" s="243"/>
-      <c r="F253" s="252"/>
-      <c r="G253" s="252"/>
-      <c r="H253" s="252"/>
+      <c r="E253" s="210"/>
       <c r="I253" s="177">
         <v>252</v>
       </c>
       <c r="J253" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K253" s="252" t="s">
+      <c r="K253" t="s">
         <v>3110</v>
       </c>
-      <c r="L253" s="252"/>
-      <c r="M253" s="252"/>
-      <c r="N253" s="252" t="s">
+      <c r="N253" t="s">
         <v>2922</v>
       </c>
-      <c r="O253" s="252"/>
-      <c r="P253" s="252"/>
       <c r="Q253" s="208">
         <v>94.711263579188099</v>
       </c>
-      <c r="U253" s="228" t="s">
+      <c r="U253" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="254" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA253" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27" ht="15" customHeight="1">
       <c r="A254" s="221" t="s">
         <v>2905</v>
       </c>
-      <c r="B254" s="252"/>
       <c r="C254" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D254" s="243" t="s">
+      <c r="D254" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E254" s="243"/>
-      <c r="F254" s="252" t="s">
-        <v>120</v>
-      </c>
-      <c r="G254" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H254" s="236">
+      <c r="E254" s="210"/>
+      <c r="F254" t="s">
+        <v>120</v>
+      </c>
+      <c r="G254" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H254" s="232">
         <v>57</v>
       </c>
       <c r="I254" s="177">
@@ -61606,44 +61836,40 @@
       <c r="J254" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K254" s="252" t="s">
+      <c r="K254" t="s">
         <v>3110</v>
       </c>
-      <c r="L254" s="252"/>
-      <c r="M254" s="252"/>
-      <c r="N254" s="252" t="s">
+      <c r="N254" t="s">
         <v>3127</v>
       </c>
-      <c r="O254" s="252"/>
-      <c r="P254" s="252"/>
       <c r="Q254" s="208">
         <v>94.153802172670098</v>
       </c>
-      <c r="U254" s="228" t="s">
+      <c r="U254" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="W254" s="252"/>
       <c r="Y254">
         <v>1</v>
       </c>
       <c r="Z254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA254" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" ht="15" customHeight="1">
       <c r="A255" s="221" t="s">
         <v>2906</v>
       </c>
-      <c r="B255" s="252"/>
       <c r="C255" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D255" s="243" t="s">
+      <c r="D255" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E255" s="243"/>
-      <c r="F255" s="252"/>
-      <c r="G255" s="234"/>
+      <c r="E255" s="210"/>
+      <c r="G255" s="230"/>
       <c r="H255" s="83"/>
       <c r="I255" s="177">
         <v>254</v>
@@ -61651,42 +61877,39 @@
       <c r="J255" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K255" s="252" t="s">
+      <c r="K255" t="s">
         <v>3119</v>
       </c>
-      <c r="L255" s="252"/>
-      <c r="M255" s="252"/>
-      <c r="N255" s="252" t="s">
+      <c r="N255" t="s">
         <v>2924</v>
       </c>
-      <c r="O255" s="252"/>
-      <c r="P255" s="252"/>
       <c r="Q255" s="208">
         <v>93.532018296169198</v>
       </c>
-      <c r="U255" s="228" t="s">
+      <c r="U255" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="256" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA255" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27" ht="15" customHeight="1">
       <c r="A256" s="221" t="s">
         <v>2893</v>
       </c>
-      <c r="B256" s="252"/>
       <c r="C256" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D256" s="243" t="s">
+      <c r="D256" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E256" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F256" s="252"/>
-      <c r="G256" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H256" s="236">
+      <c r="E256" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="G256" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H256" s="232">
         <v>29</v>
       </c>
       <c r="I256" s="177">
@@ -61695,39 +61918,37 @@
       <c r="J256" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K256" s="243" t="s">
+      <c r="K256" s="210" t="s">
         <v>3120</v>
       </c>
-      <c r="L256" s="252"/>
-      <c r="M256" s="252"/>
-      <c r="N256" s="252" t="s">
+      <c r="N256" t="s">
         <v>2925</v>
       </c>
-      <c r="O256" s="252"/>
-      <c r="P256" s="252"/>
       <c r="Q256" s="208">
         <v>48.1132075471698</v>
       </c>
-      <c r="U256" s="228" t="s">
+      <c r="U256" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA256" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" ht="15" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2907</v>
       </c>
-      <c r="B257" s="252"/>
       <c r="C257" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D257" s="243" t="s">
+      <c r="D257" s="210" t="s">
         <v>121</v>
       </c>
       <c r="E257" s="212"/>
-      <c r="F257" s="252" t="s">
+      <c r="F257" t="s">
         <v>120</v>
       </c>
       <c r="G257" s="177" t="s">
@@ -61745,17 +61966,13 @@
       <c r="K257" s="83" t="s">
         <v>3110</v>
       </c>
-      <c r="L257" s="252"/>
-      <c r="M257" s="252"/>
-      <c r="N257" s="252" t="s">
+      <c r="N257" t="s">
         <v>2926</v>
       </c>
-      <c r="O257" s="252"/>
-      <c r="P257" s="252"/>
       <c r="Q257" s="208">
         <v>91.5523156089194</v>
       </c>
-      <c r="U257" s="228" t="s">
+      <c r="U257" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y257">
@@ -61764,22 +61981,24 @@
       <c r="Z257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA257" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27" ht="15" customHeight="1">
       <c r="A258" s="221" t="s">
         <v>2871</v>
       </c>
-      <c r="B258" s="252"/>
       <c r="C258" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D258" s="243" t="s">
+      <c r="D258" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E258" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F258" s="252" t="s">
+      <c r="E258" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="F258" t="s">
         <v>120</v>
       </c>
       <c r="G258" s="177" t="s">
@@ -61794,41 +62013,39 @@
       <c r="J258" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K258" s="252" t="s">
+      <c r="K258" t="s">
         <v>3114</v>
       </c>
-      <c r="L258" s="252"/>
-      <c r="M258" s="252"/>
-      <c r="N258" s="252" t="s">
+      <c r="N258" t="s">
         <v>2872</v>
       </c>
-      <c r="O258" s="252"/>
-      <c r="P258" s="252"/>
       <c r="Q258" s="208">
         <v>53.6878216123499</v>
       </c>
-      <c r="U258" s="228" t="s">
+      <c r="U258" s="212" t="s">
         <v>322</v>
       </c>
       <c r="Y258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA258" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" ht="15" customHeight="1">
       <c r="A259" s="221" t="s">
         <v>2883</v>
       </c>
-      <c r="B259" s="252"/>
       <c r="C259" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D259" s="243" t="s">
+      <c r="D259" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E259" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="F259" s="243" t="s">
+      <c r="E259" s="227" t="s">
+        <v>120</v>
+      </c>
+      <c r="F259" s="210" t="s">
         <v>120</v>
       </c>
       <c r="G259" s="177" t="s">
@@ -61843,42 +62060,40 @@
       <c r="J259" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K259" s="243" t="s">
+      <c r="K259" s="210" t="s">
         <v>3114</v>
       </c>
-      <c r="L259" s="252"/>
-      <c r="M259" s="252"/>
-      <c r="N259" s="252" t="s">
+      <c r="N259" t="s">
         <v>2899</v>
       </c>
-      <c r="O259" s="252"/>
-      <c r="P259" s="252"/>
       <c r="Q259" s="208">
         <v>45.890508862207</v>
       </c>
-      <c r="U259" s="228" t="s">
+      <c r="U259" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA259" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27" ht="15" customHeight="1">
       <c r="A260" s="223" t="s">
         <v>2894</v>
       </c>
-      <c r="B260" s="252"/>
       <c r="C260" s="222" t="s">
         <v>2869</v>
       </c>
-      <c r="D260" s="243" t="s">
+      <c r="D260" s="210" t="s">
         <v>121</v>
       </c>
       <c r="E260" s="212"/>
-      <c r="F260" s="243" t="s">
+      <c r="F260" s="210" t="s">
         <v>2284</v>
       </c>
-      <c r="G260" s="239"/>
+      <c r="G260" s="235"/>
       <c r="H260" s="212"/>
       <c r="I260" s="177">
         <v>259</v>
@@ -61886,44 +62101,42 @@
       <c r="J260" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K260" s="243" t="s">
+      <c r="K260" s="210" t="s">
         <v>3121</v>
       </c>
-      <c r="L260" s="252"/>
-      <c r="M260" s="252"/>
-      <c r="N260" s="252" t="s">
+      <c r="N260" t="s">
         <v>2934</v>
       </c>
-      <c r="O260" s="252"/>
-      <c r="P260" s="252"/>
       <c r="Q260" s="208">
         <v>53.7449971412236</v>
       </c>
-      <c r="U260" s="228" t="s">
+      <c r="U260" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="261" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA260" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27" ht="15" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2895</v>
       </c>
-      <c r="B261" s="252"/>
       <c r="C261" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D261" s="243" t="s">
+      <c r="D261" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E261" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F261" s="252" t="s">
-        <v>120</v>
-      </c>
-      <c r="G261" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H261" s="236">
+      <c r="E261" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="F261" t="s">
+        <v>120</v>
+      </c>
+      <c r="G261" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H261" s="232">
         <v>13</v>
       </c>
       <c r="I261" s="177">
@@ -61933,41 +62146,39 @@
         <v>120</v>
       </c>
       <c r="K261" s="83"/>
-      <c r="L261" s="252"/>
-      <c r="M261" s="252"/>
-      <c r="N261" s="252" t="s">
+      <c r="N261" t="s">
         <v>2930</v>
       </c>
-      <c r="O261" s="252"/>
-      <c r="P261" s="252"/>
       <c r="Q261" s="208">
         <v>27.394225271583799</v>
       </c>
-      <c r="U261" s="228" t="s">
+      <c r="U261" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y261">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA261" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27" ht="15" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2896</v>
       </c>
-      <c r="B262" s="252"/>
       <c r="C262" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D262" s="243" t="s">
+      <c r="D262" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E262" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="F262" s="252" t="s">
+      <c r="E262" s="227" t="s">
+        <v>120</v>
+      </c>
+      <c r="F262" t="s">
         <v>2284</v>
       </c>
-      <c r="G262" s="234"/>
+      <c r="G262" s="230"/>
       <c r="H262" s="83"/>
       <c r="I262" s="177">
         <v>261</v>
@@ -61975,42 +62186,38 @@
       <c r="J262" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K262" s="243" t="s">
+      <c r="K262" s="210" t="s">
         <v>3122</v>
       </c>
-      <c r="L262" s="252"/>
-      <c r="M262" s="252"/>
-      <c r="N262" s="252" t="s">
+      <c r="N262" t="s">
         <v>2931</v>
       </c>
-      <c r="O262" s="252"/>
-      <c r="P262" s="252"/>
       <c r="Q262" s="208">
         <v>18.138936535162902</v>
       </c>
-      <c r="U262" s="228" t="s">
+      <c r="U262" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="263" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA262" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27" ht="15" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2897</v>
       </c>
-      <c r="B263" s="252"/>
       <c r="C263" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D263" s="243" t="s">
+      <c r="D263" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E263" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="F263" s="252" t="s">
+      <c r="E263" s="227" t="s">
+        <v>120</v>
+      </c>
+      <c r="F263" t="s">
         <v>2284</v>
       </c>
-      <c r="G263" s="252"/>
-      <c r="H263" s="252"/>
       <c r="I263" s="177">
         <v>262</v>
       </c>
@@ -62020,37 +62227,33 @@
       <c r="K263" s="212" t="s">
         <v>3122</v>
       </c>
-      <c r="L263" s="252"/>
-      <c r="M263" s="252"/>
-      <c r="N263" s="252" t="s">
+      <c r="N263" t="s">
         <v>2932</v>
       </c>
-      <c r="O263" s="252"/>
-      <c r="P263" s="252"/>
       <c r="Q263" s="208">
         <v>7.3256146369353896</v>
       </c>
-      <c r="U263" s="228" t="s">
+      <c r="U263" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="264" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA263" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27" ht="15" customHeight="1">
       <c r="A264" s="221" t="s">
         <v>2898</v>
       </c>
-      <c r="B264" s="252"/>
       <c r="C264" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D264" s="243" t="s">
+      <c r="D264" s="210" t="s">
         <v>121</v>
       </c>
       <c r="E264" s="212"/>
-      <c r="F264" s="252" t="s">
+      <c r="F264" t="s">
         <v>2284</v>
       </c>
-      <c r="G264" s="252"/>
-      <c r="H264" s="252"/>
       <c r="I264" s="177">
         <v>263</v>
       </c>
@@ -62060,39 +62263,37 @@
       <c r="K264" s="212" t="s">
         <v>3122</v>
       </c>
-      <c r="L264" s="252"/>
-      <c r="M264" s="252"/>
-      <c r="N264" s="252" t="s">
+      <c r="N264" t="s">
         <v>2933</v>
       </c>
-      <c r="O264" s="252"/>
-      <c r="P264" s="252"/>
       <c r="Q264" s="208">
         <v>52.3084619782733</v>
       </c>
-      <c r="U264" s="228" t="s">
+      <c r="U264" s="212" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="265" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA264" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27" ht="15" customHeight="1">
       <c r="A265" s="221" t="s">
         <v>2876</v>
       </c>
-      <c r="B265" s="252"/>
       <c r="C265" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D265" s="243" t="s">
+      <c r="D265" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E265" s="243"/>
-      <c r="F265" s="252" t="s">
-        <v>120</v>
-      </c>
-      <c r="G265" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H265" s="236">
+      <c r="E265" s="210"/>
+      <c r="F265" t="s">
+        <v>120</v>
+      </c>
+      <c r="G265" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H265" s="232">
         <v>37</v>
       </c>
       <c r="I265" s="177">
@@ -62102,36 +62303,34 @@
         <v>120</v>
       </c>
       <c r="K265" s="83"/>
-      <c r="L265" s="252"/>
-      <c r="M265" s="252"/>
-      <c r="N265" s="252" t="s">
+      <c r="N265" t="s">
         <v>2927</v>
       </c>
-      <c r="O265" s="252"/>
-      <c r="P265" s="252"/>
       <c r="Q265" s="208">
         <v>62.056889651229298</v>
       </c>
-      <c r="U265" s="228" t="s">
+      <c r="U265" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y265">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA265" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27" ht="15" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2877</v>
       </c>
-      <c r="B266" s="252"/>
       <c r="C266" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D266" s="243" t="s">
+      <c r="D266" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E266" s="243"/>
-      <c r="F266" s="252" t="s">
+      <c r="E266" s="210"/>
+      <c r="F266" t="s">
         <v>120</v>
       </c>
       <c r="G266" s="177" t="s">
@@ -62146,39 +62345,35 @@
       <c r="J266" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K266" s="252"/>
-      <c r="L266" s="252"/>
-      <c r="M266" s="252"/>
-      <c r="N266" s="252" t="s">
+      <c r="N266" t="s">
         <v>2928</v>
       </c>
-      <c r="O266" s="252"/>
-      <c r="P266" s="252"/>
       <c r="Q266" s="208">
         <v>60.513150371640897</v>
       </c>
-      <c r="U266" s="228" t="s">
+      <c r="U266" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y266">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA266" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27" ht="15" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2908</v>
       </c>
-      <c r="B267" s="252"/>
       <c r="C267" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D267" s="243" t="s">
+      <c r="D267" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E267" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F267" s="252"/>
+      <c r="E267" s="247" t="s">
+        <v>120</v>
+      </c>
       <c r="G267" s="177" t="s">
         <v>120</v>
       </c>
@@ -62191,37 +62386,34 @@
       <c r="J267" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K267" s="243" t="s">
+      <c r="K267" s="210" t="s">
         <v>3123</v>
       </c>
-      <c r="L267" s="252"/>
-      <c r="M267" s="252"/>
-      <c r="N267" s="252"/>
-      <c r="O267" s="252"/>
-      <c r="P267" s="252"/>
       <c r="Q267" s="208">
         <v>41.616638078902199</v>
       </c>
-      <c r="U267" s="228" t="s">
+      <c r="U267" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y267">
         <v>2</v>
       </c>
-    </row>
-    <row r="268" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA267" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27" ht="15" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2875</v>
       </c>
-      <c r="B268" s="252"/>
       <c r="C268" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D268" s="243" t="s">
+      <c r="D268" s="210" t="s">
         <v>121</v>
       </c>
       <c r="E268" s="212"/>
-      <c r="F268" s="252" t="s">
+      <c r="F268" t="s">
         <v>120</v>
       </c>
       <c r="G268" s="177" t="s">
@@ -62239,17 +62431,13 @@
       <c r="K268" s="83" t="s">
         <v>3110</v>
       </c>
-      <c r="L268" s="252"/>
-      <c r="M268" s="252"/>
-      <c r="N268" s="252" t="s">
+      <c r="N268" t="s">
         <v>2822</v>
       </c>
-      <c r="O268" s="252"/>
-      <c r="P268" s="252"/>
       <c r="Q268" s="208">
         <v>89.8656375071469</v>
       </c>
-      <c r="U268" s="228" t="s">
+      <c r="U268" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y268">
@@ -62258,8 +62446,11 @@
       <c r="Z268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA268" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27" ht="15" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2879</v>
       </c>
@@ -62269,7 +62460,7 @@
       <c r="D269" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E269" s="243"/>
+      <c r="E269" s="210"/>
       <c r="F269" t="s">
         <v>120</v>
       </c>
@@ -62285,7 +62476,7 @@
       <c r="J269" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K269" s="243" t="s">
+      <c r="K269" s="210" t="s">
         <v>3110</v>
       </c>
       <c r="N269" s="210" t="s">
@@ -62294,7 +62485,7 @@
       <c r="Q269" s="208">
         <v>99.299599771297906</v>
       </c>
-      <c r="U269" s="228" t="s">
+      <c r="U269" s="212" t="s">
         <v>322</v>
       </c>
       <c r="Y269">
@@ -62303,22 +62494,24 @@
       <c r="Z269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA269" s="188" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27" ht="15" customHeight="1">
       <c r="A270" s="221" t="s">
         <v>2878</v>
       </c>
-      <c r="B270" s="252"/>
       <c r="C270" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D270" s="243" t="s">
+      <c r="D270" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E270" s="255" t="s">
-        <v>120</v>
-      </c>
-      <c r="F270" s="252" t="s">
+      <c r="E270" s="247" t="s">
+        <v>120</v>
+      </c>
+      <c r="F270" t="s">
         <v>120</v>
       </c>
       <c r="G270" s="177" t="s">
@@ -62334,36 +62527,34 @@
         <v>120</v>
       </c>
       <c r="K270" s="83"/>
-      <c r="L270" s="252"/>
-      <c r="M270" s="252"/>
-      <c r="N270" s="252" t="s">
+      <c r="N270" t="s">
         <v>2929</v>
       </c>
-      <c r="O270" s="252"/>
-      <c r="P270" s="252"/>
       <c r="Q270" s="208">
         <v>33.8979416809605</v>
       </c>
-      <c r="U270" s="228" t="s">
+      <c r="U270" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="Y270">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA270" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27" ht="15" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2819</v>
       </c>
-      <c r="B271" s="252"/>
       <c r="C271" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D271" s="243" t="s">
+      <c r="D271" s="210" t="s">
         <v>121</v>
       </c>
       <c r="E271" s="212"/>
-      <c r="F271" s="252" t="s">
+      <c r="F271" t="s">
         <v>120</v>
       </c>
       <c r="G271" s="177" t="s">
@@ -62378,18 +62569,13 @@
       <c r="J271" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K271" s="252"/>
-      <c r="L271" s="252"/>
-      <c r="M271" s="252"/>
-      <c r="N271" s="243" t="s">
+      <c r="N271" s="210" t="s">
         <v>3129</v>
       </c>
-      <c r="O271" s="252"/>
-      <c r="P271" s="252"/>
       <c r="Q271" s="208">
         <v>78.930817610062903</v>
       </c>
-      <c r="U271" s="228" t="s">
+      <c r="U271" s="212" t="s">
         <v>328</v>
       </c>
       <c r="W271">
@@ -62401,8 +62587,11 @@
       <c r="Y271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AA271" s="188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27" ht="15" customHeight="1">
       <c r="A272" s="221" t="s">
         <v>2988</v>
       </c>
@@ -62413,12 +62602,12 @@
         <v>121</v>
       </c>
       <c r="E272" s="210"/>
-      <c r="G272" s="234"/>
+      <c r="G272" s="230"/>
       <c r="H272" s="83"/>
       <c r="I272" s="177">
         <v>271</v>
       </c>
-      <c r="J272" s="234"/>
+      <c r="J272" s="230"/>
       <c r="U272" s="212" t="s">
         <v>328</v>
       </c>
@@ -62429,303 +62618,298 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="15" hidden="1" customHeight="1">
-      <c r="A273" s="230" t="s">
+    <row r="273" spans="1:27" ht="15" customHeight="1">
+      <c r="A273" s="221" t="s">
         <v>3107</v>
       </c>
-      <c r="B273" s="252"/>
-      <c r="C273" s="231" t="s">
+      <c r="C273" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="D273" s="243" t="s">
+      <c r="D273" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E273" s="252"/>
-      <c r="F273" s="243" t="s">
+      <c r="F273" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="G273" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="H273" s="236">
+      <c r="G273" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H273" s="232">
         <v>-2</v>
       </c>
       <c r="I273" s="177">
         <v>272</v>
       </c>
-      <c r="J273" s="252"/>
-      <c r="K273" s="252"/>
-      <c r="L273" s="252"/>
-      <c r="M273" s="252"/>
-      <c r="N273" s="252"/>
-      <c r="O273" s="252"/>
-      <c r="P273" s="252"/>
       <c r="Q273" s="208">
         <v>0</v>
       </c>
-      <c r="R273" s="252"/>
-      <c r="S273" s="252"/>
-      <c r="T273" s="252"/>
-      <c r="U273" s="228" t="s">
+      <c r="U273" s="212" t="s">
         <v>2864</v>
       </c>
-      <c r="V273" s="252"/>
-      <c r="W273" s="252"/>
-      <c r="X273" s="252"/>
-    </row>
-    <row r="274" spans="1:24" ht="15" hidden="1" customHeight="1"/>
-    <row r="275" spans="1:24" ht="15" hidden="1" customHeight="1"/>
-    <row r="276" spans="1:24" ht="15" hidden="1" customHeight="1"/>
-    <row r="277" spans="1:24" ht="15" hidden="1" customHeight="1">
+    </row>
+    <row r="277" spans="1:27" ht="15" customHeight="1">
       <c r="J277" s="210"/>
       <c r="K277" s="210"/>
-    </row>
-    <row r="278" spans="1:24" ht="15" hidden="1" customHeight="1"/>
-    <row r="279" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA277" s="210"/>
+    </row>
+    <row r="279" spans="1:27" ht="15" customHeight="1">
       <c r="J279" s="210"/>
       <c r="K279" s="210"/>
-    </row>
-    <row r="280" spans="1:24" ht="15" hidden="1" customHeight="1"/>
-    <row r="281" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA279" s="210"/>
+    </row>
+    <row r="281" spans="1:27" ht="15" customHeight="1">
       <c r="J281" s="210"/>
       <c r="K281" s="210"/>
-    </row>
-    <row r="282" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="AA281" s="210"/>
+    </row>
+    <row r="282" spans="1:27" ht="15" customHeight="1">
       <c r="J282" s="210"/>
       <c r="K282" s="210"/>
+      <c r="AA282" s="210"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X282" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="drugs_bin"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z273" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X283">
     <sortCondition ref="I2:I283"/>
   </sortState>
   <conditionalFormatting sqref="D86:H89 D115:H118 D30:H36 D29 D38:H56 D37 D58:H67 D57 D69:H79 D68 D80 D84:H84 D83 D91:H93 D90 D94 D100 D104 D119 F119:H119 D123:H126 D122 D127:D129 D143:H158 D142 F29:H29 F37:H37 F57:H57 F68:H68 F80:H80 D81:H82 F83:H83 F90:H90 F94:H94 D95:H99 F100:H100 D101:H103 F104:H104 D105:H113 D120:H121 F122:H122 F127:H129 D130:H141 F142:H142 D3:I5 I6:I273 D6:H28">
-    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:E85">
-    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D85))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D114))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114:H114">
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G114))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161:H161">
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G161))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162:H162">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G162))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:H163">
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G163))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193">
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:H204">
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213:H213">
-    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G213))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G216:H216">
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G216))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:H218">
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G218))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227:H227">
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G227))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G230:H230">
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G230))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G239:H239">
-    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G239))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G242:H242">
-    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G242))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G246:H246">
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G246))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G237:H237">
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G237))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249:H249">
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G250:H250">
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G250))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G255:H255">
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G255))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G257:H257">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G257))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G258:H258">
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G258))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:H259">
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G259))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G260:H260">
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G260))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262:H262">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G266:H266">
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G266))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G267:H267">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G267))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G269:H269">
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G269))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G268:H268">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G268))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G270:H270">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G270))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G271:H272">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G271))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236:H236">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G236))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J272">
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J108">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J158">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K82">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:K108">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K109:K158">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L82">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83:L108">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109:L158">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q272">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -62737,18 +62921,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(G1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Q273:Q276">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -62759,20 +62933,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q273:Q276">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="AA2:AA271">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(AA2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA82:AA107">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(AA82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA108:AA157">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(AA108))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="I3:I273 J3:L158 G114:H114 E143:E158 D3:D158 E3:E28 E30:E36 E38:E56 E58:E67 E69:E79 E81:E82 E84:E89 E91:E93 E95:E99 E101:E103 E105:E113 E115:E118 E120:E121 E123:E126 E130:E141 F86:H113 F115:H158 G161:H163 G193:H193 G203:H204 G213:H213 G216:H216 G218:H218 G227:H227 G230:H230 G239:H239 G242:H242 G246:H246 G236:H237 G249:H250 G255:H255 G257:H260 G262:H262 G266:H272 F3:H84 G1:I1" xr:uid="{C25E2909-9A0E-B247-AB1D-C899C2A71044}">
+    <dataValidation type="list" allowBlank="1" sqref="I3:I273 J3:L158 G114:H114 E143:E158 D3:D158 E3:E28 E30:E36 E38:E56 E58:E67 E69:E79 E81:E82 E84:E89 E91:E93 E95:E99 E101:E103 E105:E113 E115:E118 E120:E121 E123:E126 E130:E141 F86:H113 F115:H158 G161:H163 G193:H193 G203:H204 G213:H213 G216:H216 G218:H218 G227:H227 G230:H230 G239:H239 G242:H242 G246:H246 G236:H237 G249:H250 G255:H255 G257:H260 G262:H262 G266:H272 F3:H84 G1:I1 AA2:AA157" xr:uid="{C25E2909-9A0E-B247-AB1D-C899C2A71044}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B3:B235" xr:uid="{1DAB8B17-2C58-894B-BCE2-974A5C94530B}">
@@ -62798,1041 +62975,1038 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="260"/>
-    <col min="2" max="2" width="31.33203125" style="258" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="258"/>
-    <col min="4" max="4" width="23.6640625" style="258" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="258" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="258" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" style="258" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="258"/>
-    <col min="10" max="10" width="33.33203125" style="258" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="258"/>
+    <col min="1" max="1" width="10.83203125" style="251"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="252" t="s">
         <v>2801</v>
       </c>
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="253" t="s">
         <v>3068</v>
       </c>
-      <c r="C1" s="263" t="s">
+      <c r="C1" s="254" t="s">
         <v>3069</v>
       </c>
-      <c r="D1" s="263" t="s">
+      <c r="D1" s="254" t="s">
         <v>3070</v>
       </c>
-      <c r="E1" s="263" t="s">
+      <c r="E1" s="254" t="s">
         <v>2870</v>
       </c>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="80" t="s">
         <v>3071</v>
       </c>
-      <c r="G1" s="264" t="s">
+      <c r="G1" s="80" t="s">
         <v>3072</v>
       </c>
-      <c r="H1" s="264" t="s">
+      <c r="H1" s="80" t="s">
         <v>3107</v>
       </c>
-      <c r="I1" s="265" t="s">
+      <c r="I1" s="255" t="s">
         <v>3133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="256" t="s">
         <v>3073</v>
       </c>
-      <c r="B2" s="262" t="s">
+      <c r="B2" s="253" t="s">
         <v>2989</v>
       </c>
-      <c r="C2" s="262" t="s">
+      <c r="C2" s="253" t="s">
         <v>2942</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E2" s="267" t="s">
+      <c r="E2" s="257" t="s">
         <v>2941</v>
       </c>
-      <c r="F2" s="268" t="s">
+      <c r="F2" s="258" t="s">
         <v>3054</v>
       </c>
-      <c r="G2" s="269" t="s">
+      <c r="G2" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="268">
+      <c r="H2" s="258">
         <v>2</v>
       </c>
-      <c r="I2" s="268"/>
-      <c r="J2" s="259"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="250"/>
     </row>
     <row r="3" spans="1:10" ht="14">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="256" t="s">
         <v>3074</v>
       </c>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="253" t="s">
         <v>2990</v>
       </c>
-      <c r="C3" s="262" t="s">
+      <c r="C3" s="253" t="s">
         <v>2940</v>
       </c>
-      <c r="D3" s="267" t="s">
+      <c r="D3" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E3" s="267" t="s">
+      <c r="E3" s="257" t="s">
         <v>2939</v>
       </c>
-      <c r="F3" s="268" t="s">
+      <c r="F3" s="258" t="s">
         <v>3053</v>
       </c>
-      <c r="G3" s="269" t="s">
+      <c r="G3" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="268">
+      <c r="H3" s="258">
         <v>10</v>
       </c>
-      <c r="I3" s="268"/>
-      <c r="J3" s="259"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="250"/>
     </row>
     <row r="4" spans="1:10" ht="56">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="256" t="s">
         <v>3075</v>
       </c>
-      <c r="B4" s="262" t="s">
+      <c r="B4" s="253" t="s">
         <v>2991</v>
       </c>
-      <c r="C4" s="262" t="s">
+      <c r="C4" s="253" t="s">
         <v>2992</v>
       </c>
-      <c r="D4" s="267" t="s">
+      <c r="D4" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E4" s="267" t="s">
+      <c r="E4" s="257" t="s">
         <v>2935</v>
       </c>
-      <c r="F4" s="268" t="s">
+      <c r="F4" s="258" t="s">
         <v>2854</v>
       </c>
-      <c r="G4" s="269" t="s">
+      <c r="G4" s="259" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="268">
+      <c r="H4" s="258">
         <v>14</v>
       </c>
-      <c r="I4" s="268" t="s">
+      <c r="I4" s="258" t="s">
         <v>3134</v>
       </c>
-      <c r="J4" s="259"/>
+      <c r="J4" s="250"/>
     </row>
     <row r="5" spans="1:10" ht="14">
-      <c r="A5" s="266" t="s">
+      <c r="A5" s="256" t="s">
         <v>3076</v>
       </c>
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="253" t="s">
         <v>2993</v>
       </c>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="253" t="s">
         <v>2938</v>
       </c>
-      <c r="D5" s="267" t="s">
+      <c r="D5" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E5" s="267" t="s">
+      <c r="E5" s="257" t="s">
         <v>2937</v>
       </c>
-      <c r="F5" s="268" t="s">
+      <c r="F5" s="258" t="s">
         <v>3055</v>
       </c>
-      <c r="G5" s="269" t="s">
+      <c r="G5" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="268">
+      <c r="H5" s="258">
         <v>1</v>
       </c>
-      <c r="I5" s="268"/>
-      <c r="J5" s="259"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="250"/>
     </row>
     <row r="6" spans="1:10" ht="14">
-      <c r="A6" s="266" t="s">
+      <c r="A6" s="256" t="s">
         <v>3077</v>
       </c>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="253" t="s">
         <v>2994</v>
       </c>
-      <c r="C6" s="262" t="s">
+      <c r="C6" s="253" t="s">
         <v>2995</v>
       </c>
-      <c r="D6" s="267" t="s">
+      <c r="D6" s="257" t="s">
         <v>2944</v>
       </c>
-      <c r="E6" s="267" t="s">
+      <c r="E6" s="257" t="s">
         <v>2943</v>
       </c>
-      <c r="F6" s="268" t="s">
+      <c r="F6" s="258" t="s">
         <v>2855</v>
       </c>
-      <c r="G6" s="269" t="s">
+      <c r="G6" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="268">
+      <c r="H6" s="258">
         <v>7</v>
       </c>
-      <c r="I6" s="268"/>
-      <c r="J6" s="259"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="250"/>
     </row>
     <row r="7" spans="1:10" ht="14">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="256" t="s">
         <v>3078</v>
       </c>
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="253" t="s">
         <v>2996</v>
       </c>
-      <c r="C7" s="262" t="s">
+      <c r="C7" s="253" t="s">
         <v>2946</v>
       </c>
-      <c r="D7" s="267" t="s">
+      <c r="D7" s="257" t="s">
         <v>2947</v>
       </c>
-      <c r="E7" s="267" t="s">
+      <c r="E7" s="257" t="s">
         <v>2945</v>
       </c>
-      <c r="F7" s="268" t="s">
+      <c r="F7" s="258" t="s">
         <v>2856</v>
       </c>
-      <c r="G7" s="269" t="s">
+      <c r="G7" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="268">
+      <c r="H7" s="258">
         <v>3</v>
       </c>
-      <c r="I7" s="268"/>
-      <c r="J7" s="259"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="250"/>
     </row>
     <row r="8" spans="1:10" ht="14">
-      <c r="A8" s="266" t="s">
+      <c r="A8" s="256" t="s">
         <v>3079</v>
       </c>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="253" t="s">
         <v>2997</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="253" t="s">
         <v>2949</v>
       </c>
-      <c r="D8" s="267" t="s">
+      <c r="D8" s="257" t="s">
         <v>2950</v>
       </c>
-      <c r="E8" s="267" t="s">
+      <c r="E8" s="257" t="s">
         <v>2948</v>
       </c>
-      <c r="F8" s="268" t="s">
+      <c r="F8" s="258" t="s">
         <v>2857</v>
       </c>
-      <c r="G8" s="269" t="s">
+      <c r="G8" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="268">
+      <c r="H8" s="258">
         <v>5</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="259"/>
+      <c r="I8" s="258"/>
+      <c r="J8" s="250"/>
     </row>
     <row r="9" spans="1:10" ht="14">
-      <c r="A9" s="266" t="s">
+      <c r="A9" s="256" t="s">
         <v>3080</v>
       </c>
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="253" t="s">
         <v>2998</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="253" t="s">
         <v>2952</v>
       </c>
-      <c r="D9" s="267" t="s">
+      <c r="D9" s="257" t="s">
         <v>2950</v>
       </c>
-      <c r="E9" s="267" t="s">
+      <c r="E9" s="257" t="s">
         <v>2951</v>
       </c>
-      <c r="F9" s="268" t="s">
+      <c r="F9" s="258" t="s">
         <v>2858</v>
       </c>
-      <c r="G9" s="269" t="s">
+      <c r="G9" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="268">
+      <c r="H9" s="258">
         <v>4</v>
       </c>
-      <c r="I9" s="268"/>
-      <c r="J9" s="259"/>
+      <c r="I9" s="258"/>
+      <c r="J9" s="250"/>
     </row>
     <row r="10" spans="1:10" ht="17" customHeight="1">
-      <c r="A10" s="266" t="s">
+      <c r="A10" s="256" t="s">
         <v>3081</v>
       </c>
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="253" t="s">
         <v>2999</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="253" t="s">
         <v>2954</v>
       </c>
-      <c r="D10" s="267" t="s">
+      <c r="D10" s="257" t="s">
         <v>2955</v>
       </c>
-      <c r="E10" s="267" t="s">
+      <c r="E10" s="257" t="s">
         <v>2953</v>
       </c>
-      <c r="F10" s="268" t="s">
+      <c r="F10" s="258" t="s">
         <v>2859</v>
       </c>
-      <c r="G10" s="269" t="s">
+      <c r="G10" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="268">
+      <c r="H10" s="258">
         <v>12</v>
       </c>
-      <c r="I10" s="268"/>
-      <c r="J10" s="259"/>
+      <c r="I10" s="258"/>
+      <c r="J10" s="250"/>
     </row>
     <row r="11" spans="1:10" ht="14">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="256" t="s">
         <v>3082</v>
       </c>
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="253" t="s">
         <v>3000</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="253" t="s">
         <v>2995</v>
       </c>
-      <c r="D11" s="267" t="s">
+      <c r="D11" s="257" t="s">
         <v>2957</v>
       </c>
-      <c r="E11" s="267" t="s">
+      <c r="E11" s="257" t="s">
         <v>2956</v>
       </c>
-      <c r="F11" s="268" t="s">
+      <c r="F11" s="258" t="s">
         <v>2860</v>
       </c>
-      <c r="G11" s="269" t="s">
+      <c r="G11" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="268">
+      <c r="H11" s="258">
         <v>8</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="259"/>
+      <c r="I11" s="258"/>
+      <c r="J11" s="250"/>
     </row>
     <row r="12" spans="1:10" ht="14">
-      <c r="A12" s="266" t="s">
+      <c r="A12" s="256" t="s">
         <v>3083</v>
       </c>
-      <c r="B12" s="262" t="s">
+      <c r="B12" s="253" t="s">
         <v>3001</v>
       </c>
-      <c r="C12" s="262" t="s">
+      <c r="C12" s="253" t="s">
         <v>3002</v>
       </c>
-      <c r="D12" s="267" t="s">
+      <c r="D12" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E12" s="267" t="s">
+      <c r="E12" s="257" t="s">
         <v>2971</v>
       </c>
-      <c r="F12" s="268" t="s">
+      <c r="F12" s="258" t="s">
         <v>3062</v>
       </c>
-      <c r="G12" s="269" t="s">
+      <c r="G12" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="268">
+      <c r="H12" s="258">
         <v>13</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="259"/>
+      <c r="I12" s="258"/>
+      <c r="J12" s="250"/>
     </row>
     <row r="13" spans="1:10" ht="14">
-      <c r="A13" s="266" t="s">
+      <c r="A13" s="256" t="s">
         <v>3084</v>
       </c>
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="253" t="s">
         <v>3003</v>
       </c>
-      <c r="C13" s="262" t="s">
+      <c r="C13" s="253" t="s">
         <v>2959</v>
       </c>
-      <c r="D13" s="267" t="s">
+      <c r="D13" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E13" s="267" t="s">
+      <c r="E13" s="257" t="s">
         <v>2958</v>
       </c>
-      <c r="F13" s="268" t="s">
+      <c r="F13" s="258" t="s">
         <v>3056</v>
       </c>
-      <c r="G13" s="269" t="s">
+      <c r="G13" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="268">
+      <c r="H13" s="258">
         <v>11</v>
       </c>
-      <c r="I13" s="268"/>
-      <c r="J13" s="259"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="250"/>
     </row>
     <row r="14" spans="1:10" ht="14">
-      <c r="A14" s="266" t="s">
+      <c r="A14" s="256" t="s">
         <v>3085</v>
       </c>
-      <c r="B14" s="262" t="s">
+      <c r="B14" s="253" t="s">
         <v>3004</v>
       </c>
-      <c r="C14" s="262" t="s">
+      <c r="C14" s="253" t="s">
         <v>3005</v>
       </c>
-      <c r="D14" s="267" t="s">
+      <c r="D14" s="257" t="s">
         <v>2944</v>
       </c>
-      <c r="E14" s="267" t="s">
+      <c r="E14" s="257" t="s">
         <v>2972</v>
       </c>
-      <c r="F14" s="268" t="s">
+      <c r="F14" s="258" t="s">
         <v>3059</v>
       </c>
-      <c r="G14" s="269" t="s">
+      <c r="G14" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="268">
+      <c r="H14" s="258">
         <v>6</v>
       </c>
-      <c r="I14" s="268"/>
-      <c r="J14" s="259"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="250"/>
     </row>
     <row r="15" spans="1:10" ht="14">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="256" t="s">
         <v>3086</v>
       </c>
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="253" t="s">
         <v>3006</v>
       </c>
-      <c r="C15" s="262" t="s">
+      <c r="C15" s="253" t="s">
         <v>2961</v>
       </c>
-      <c r="D15" s="267" t="s">
+      <c r="D15" s="257" t="s">
         <v>2962</v>
       </c>
-      <c r="E15" s="267" t="s">
+      <c r="E15" s="257" t="s">
         <v>2960</v>
       </c>
-      <c r="F15" s="268" t="s">
+      <c r="F15" s="258" t="s">
         <v>3061</v>
       </c>
-      <c r="G15" s="269" t="s">
+      <c r="G15" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="268">
+      <c r="H15" s="258">
         <v>9</v>
       </c>
-      <c r="I15" s="268"/>
-      <c r="J15" s="259"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="250"/>
     </row>
     <row r="16" spans="1:10" ht="14">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="260" t="s">
         <v>3087</v>
       </c>
-      <c r="B16" s="262" t="s">
+      <c r="B16" s="253" t="s">
         <v>3007</v>
       </c>
-      <c r="C16" s="262" t="s">
+      <c r="C16" s="253" t="s">
         <v>2964</v>
       </c>
-      <c r="D16" s="262" t="s">
+      <c r="D16" s="253" t="s">
         <v>2965</v>
       </c>
-      <c r="E16" s="262" t="s">
+      <c r="E16" s="253" t="s">
         <v>2963</v>
       </c>
-      <c r="F16" s="268" t="s">
+      <c r="F16" s="258" t="s">
         <v>3064</v>
       </c>
-      <c r="G16" s="269" t="s">
+      <c r="G16" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="268">
+      <c r="H16" s="258">
         <v>16</v>
       </c>
-      <c r="I16" s="268"/>
-      <c r="J16" s="259"/>
+      <c r="I16" s="258"/>
+      <c r="J16" s="250"/>
     </row>
     <row r="17" spans="1:10" ht="70">
-      <c r="A17" s="266" t="s">
+      <c r="A17" s="256" t="s">
         <v>3088</v>
       </c>
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="253" t="s">
         <v>3008</v>
       </c>
-      <c r="C17" s="262" t="s">
+      <c r="C17" s="253" t="s">
         <v>2970</v>
       </c>
-      <c r="D17" s="267" t="s">
+      <c r="D17" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E17" s="267" t="s">
+      <c r="E17" s="257" t="s">
         <v>2969</v>
       </c>
-      <c r="F17" s="268" t="s">
+      <c r="F17" s="258" t="s">
         <v>3047</v>
       </c>
-      <c r="G17" s="269" t="s">
+      <c r="G17" s="259" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="268">
+      <c r="H17" s="258">
         <v>15</v>
       </c>
-      <c r="I17" s="268" t="s">
+      <c r="I17" s="258" t="s">
         <v>3135</v>
       </c>
-      <c r="J17" s="259"/>
+      <c r="J17" s="250"/>
     </row>
     <row r="18" spans="1:10" ht="14">
-      <c r="A18" s="266" t="s">
+      <c r="A18" s="256" t="s">
         <v>3089</v>
       </c>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="253" t="s">
         <v>3009</v>
       </c>
-      <c r="C18" s="262" t="s">
+      <c r="C18" s="253" t="s">
         <v>2979</v>
       </c>
-      <c r="D18" s="267" t="s">
+      <c r="D18" s="257" t="s">
         <v>2944</v>
       </c>
-      <c r="E18" s="267" t="s">
+      <c r="E18" s="257" t="s">
         <v>2978</v>
       </c>
-      <c r="F18" s="268" t="s">
+      <c r="F18" s="258" t="s">
         <v>3060</v>
       </c>
-      <c r="G18" s="269" t="s">
+      <c r="G18" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="268">
+      <c r="H18" s="258">
         <v>18</v>
       </c>
-      <c r="I18" s="268"/>
-      <c r="J18" s="259"/>
-    </row>
-    <row r="19" spans="1:10" ht="182">
-      <c r="A19" s="266" t="s">
+      <c r="I18" s="258"/>
+      <c r="J18" s="250"/>
+    </row>
+    <row r="19" spans="1:10" ht="154">
+      <c r="A19" s="256" t="s">
         <v>3090</v>
       </c>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="253" t="s">
         <v>3010</v>
       </c>
-      <c r="C19" s="262" t="s">
+      <c r="C19" s="253" t="s">
         <v>2974</v>
       </c>
-      <c r="D19" s="267" t="s">
+      <c r="D19" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E19" s="267" t="s">
+      <c r="E19" s="257" t="s">
         <v>2973</v>
       </c>
-      <c r="F19" s="268" t="s">
+      <c r="F19" s="258" t="s">
         <v>3048</v>
       </c>
-      <c r="G19" s="271" t="s">
+      <c r="G19" s="261" t="s">
         <v>3139</v>
       </c>
-      <c r="H19" s="268">
+      <c r="H19" s="258">
         <v>19</v>
       </c>
-      <c r="I19" s="272" t="s">
+      <c r="I19" s="262" t="s">
         <v>3136</v>
       </c>
-      <c r="J19" s="259"/>
+      <c r="J19" s="250"/>
     </row>
     <row r="20" spans="1:10" ht="98">
-      <c r="A20" s="266" t="s">
+      <c r="A20" s="256" t="s">
         <v>3091</v>
       </c>
-      <c r="B20" s="262" t="s">
+      <c r="B20" s="253" t="s">
         <v>3011</v>
       </c>
-      <c r="C20" s="262" t="s">
+      <c r="C20" s="253" t="s">
         <v>2976</v>
       </c>
-      <c r="D20" s="267" t="s">
+      <c r="D20" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E20" s="267" t="s">
+      <c r="E20" s="257" t="s">
         <v>2975</v>
       </c>
-      <c r="F20" s="268" t="s">
+      <c r="F20" s="258" t="s">
         <v>3049</v>
       </c>
-      <c r="G20" s="269" t="s">
+      <c r="G20" s="259" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="268">
+      <c r="H20" s="258">
         <v>20</v>
       </c>
-      <c r="I20" s="268" t="s">
+      <c r="I20" s="258" t="s">
         <v>3137</v>
       </c>
-      <c r="J20" s="259"/>
+      <c r="J20" s="250"/>
     </row>
     <row r="21" spans="1:10" ht="126">
-      <c r="A21" s="266" t="s">
+      <c r="A21" s="256" t="s">
         <v>3092</v>
       </c>
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="253" t="s">
         <v>3012</v>
       </c>
-      <c r="C21" s="262" t="s">
+      <c r="C21" s="253" t="s">
         <v>2985</v>
       </c>
-      <c r="D21" s="267" t="s">
+      <c r="D21" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E21" s="267" t="s">
+      <c r="E21" s="257" t="s">
         <v>2984</v>
       </c>
-      <c r="F21" s="268" t="s">
+      <c r="F21" s="258" t="s">
         <v>3051</v>
       </c>
-      <c r="G21" s="271" t="s">
+      <c r="G21" s="261" t="s">
         <v>3139</v>
       </c>
-      <c r="H21" s="268">
+      <c r="H21" s="258">
         <v>23</v>
       </c>
-      <c r="I21" s="272" t="s">
+      <c r="I21" s="262" t="s">
         <v>3138</v>
       </c>
-      <c r="J21" s="259"/>
+      <c r="J21" s="250"/>
     </row>
     <row r="22" spans="1:10" ht="14">
-      <c r="A22" s="266" t="s">
+      <c r="A22" s="256" t="s">
         <v>3093</v>
       </c>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="253" t="s">
         <v>3013</v>
       </c>
-      <c r="C22" s="262" t="s">
+      <c r="C22" s="253" t="s">
         <v>2983</v>
       </c>
-      <c r="D22" s="267" t="s">
+      <c r="D22" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E22" s="267" t="s">
+      <c r="E22" s="257" t="s">
         <v>2982</v>
       </c>
-      <c r="F22" s="268" t="s">
+      <c r="F22" s="258" t="s">
         <v>3057</v>
       </c>
-      <c r="G22" s="269" t="s">
+      <c r="G22" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="268">
+      <c r="H22" s="258">
         <v>22</v>
       </c>
-      <c r="I22" s="268"/>
-      <c r="J22" s="259"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="250"/>
     </row>
     <row r="23" spans="1:10" ht="14">
-      <c r="A23" s="266" t="s">
+      <c r="A23" s="256" t="s">
         <v>3094</v>
       </c>
-      <c r="B23" s="262" t="s">
+      <c r="B23" s="253" t="s">
         <v>3014</v>
       </c>
-      <c r="C23" s="262" t="s">
+      <c r="C23" s="253" t="s">
         <v>2987</v>
       </c>
-      <c r="D23" s="267" t="s">
+      <c r="D23" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E23" s="267" t="s">
+      <c r="E23" s="257" t="s">
         <v>2986</v>
       </c>
-      <c r="F23" s="268" t="s">
+      <c r="F23" s="258" t="s">
         <v>3058</v>
       </c>
-      <c r="G23" s="269" t="s">
+      <c r="G23" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="268">
+      <c r="H23" s="258">
         <v>25</v>
       </c>
-      <c r="I23" s="268"/>
-      <c r="J23" s="259"/>
+      <c r="I23" s="258"/>
+      <c r="J23" s="250"/>
     </row>
     <row r="24" spans="1:10" ht="14">
-      <c r="A24" s="266" t="s">
+      <c r="A24" s="256" t="s">
         <v>3095</v>
       </c>
-      <c r="B24" s="262" t="s">
+      <c r="B24" s="253" t="s">
         <v>3015</v>
       </c>
-      <c r="C24" s="262" t="s">
+      <c r="C24" s="253" t="s">
         <v>3016</v>
       </c>
-      <c r="D24" s="267" t="s">
+      <c r="D24" s="257" t="s">
         <v>2981</v>
       </c>
-      <c r="E24" s="267" t="s">
+      <c r="E24" s="257" t="s">
         <v>2980</v>
       </c>
-      <c r="F24" s="268" t="s">
+      <c r="F24" s="258" t="s">
         <v>3066</v>
       </c>
-      <c r="G24" s="269" t="s">
+      <c r="G24" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="268">
+      <c r="H24" s="258">
         <v>21</v>
       </c>
-      <c r="I24" s="268"/>
-      <c r="J24" s="259"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="250"/>
     </row>
     <row r="25" spans="1:10" ht="14">
-      <c r="A25" s="266" t="s">
+      <c r="A25" s="256" t="s">
         <v>3096</v>
       </c>
-      <c r="B25" s="262"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="267" t="s">
+      <c r="B25" s="253"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="257" t="s">
         <v>2977</v>
       </c>
-      <c r="E25" s="267" t="s">
+      <c r="E25" s="257" t="s">
         <v>3046</v>
       </c>
-      <c r="F25" s="268" t="s">
+      <c r="F25" s="258" t="s">
         <v>3067</v>
       </c>
-      <c r="G25" s="269" t="s">
+      <c r="G25" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="268">
+      <c r="H25" s="258">
         <v>17</v>
       </c>
-      <c r="I25" s="268"/>
-      <c r="J25" s="259"/>
+      <c r="I25" s="258"/>
+      <c r="J25" s="250"/>
     </row>
     <row r="26" spans="1:10" ht="14">
-      <c r="A26" s="273"/>
-      <c r="B26" s="262" t="s">
+      <c r="A26" s="263"/>
+      <c r="B26" s="253" t="s">
         <v>3017</v>
       </c>
-      <c r="C26" s="262" t="s">
+      <c r="C26" s="253" t="s">
         <v>2967</v>
       </c>
-      <c r="D26" s="267" t="s">
+      <c r="D26" s="257" t="s">
         <v>2968</v>
       </c>
-      <c r="E26" s="267" t="s">
+      <c r="E26" s="257" t="s">
         <v>2966</v>
       </c>
-      <c r="F26" s="274"/>
-      <c r="G26" s="274"/>
-      <c r="H26" s="274"/>
-      <c r="I26" s="274"/>
-      <c r="J26" s="259"/>
+      <c r="F26" s="264"/>
+      <c r="G26" s="264"/>
+      <c r="H26" s="264"/>
+      <c r="I26" s="264"/>
+      <c r="J26" s="250"/>
     </row>
     <row r="27" spans="1:10" ht="14">
-      <c r="A27" s="275"/>
-      <c r="B27" s="262" t="s">
+      <c r="A27" s="265"/>
+      <c r="B27" s="253" t="s">
         <v>3018</v>
       </c>
-      <c r="C27" s="262" t="s">
+      <c r="C27" s="253" t="s">
         <v>3019</v>
       </c>
-      <c r="D27" s="267" t="s">
+      <c r="D27" s="257" t="s">
         <v>2968</v>
       </c>
-      <c r="E27" s="276" t="s">
+      <c r="E27" s="266" t="s">
         <v>3020</v>
       </c>
-      <c r="F27" s="274"/>
-      <c r="G27" s="274"/>
-      <c r="H27" s="274"/>
-      <c r="I27" s="274"/>
-      <c r="J27" s="259"/>
+      <c r="F27" s="264"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="264"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="250"/>
     </row>
     <row r="28" spans="1:10" ht="14">
-      <c r="A28" s="273"/>
-      <c r="B28" s="262" t="s">
+      <c r="A28" s="263"/>
+      <c r="B28" s="253" t="s">
         <v>3018</v>
       </c>
-      <c r="C28" s="262" t="s">
+      <c r="C28" s="253" t="s">
         <v>3021</v>
       </c>
-      <c r="D28" s="267" t="s">
+      <c r="D28" s="257" t="s">
         <v>2968</v>
       </c>
-      <c r="E28" s="267" t="s">
+      <c r="E28" s="257" t="s">
         <v>3022</v>
       </c>
-      <c r="F28" s="274"/>
-      <c r="G28" s="274"/>
-      <c r="H28" s="274"/>
-      <c r="I28" s="274"/>
-      <c r="J28" s="259"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="264"/>
+      <c r="I28" s="264"/>
+      <c r="J28" s="250"/>
     </row>
     <row r="29" spans="1:10" ht="14">
-      <c r="A29" s="273"/>
-      <c r="B29" s="262" t="s">
+      <c r="A29" s="263"/>
+      <c r="B29" s="253" t="s">
         <v>3018</v>
       </c>
-      <c r="C29" s="262" t="s">
+      <c r="C29" s="253" t="s">
         <v>3023</v>
       </c>
-      <c r="D29" s="267" t="s">
+      <c r="D29" s="257" t="s">
         <v>2968</v>
       </c>
-      <c r="E29" s="267" t="s">
+      <c r="E29" s="257" t="s">
         <v>3024</v>
       </c>
-      <c r="F29" s="274"/>
-      <c r="G29" s="274"/>
-      <c r="H29" s="274"/>
-      <c r="I29" s="274"/>
-      <c r="J29" s="259"/>
+      <c r="F29" s="264"/>
+      <c r="G29" s="264"/>
+      <c r="H29" s="264"/>
+      <c r="I29" s="264"/>
+      <c r="J29" s="250"/>
     </row>
     <row r="30" spans="1:10" ht="14">
-      <c r="A30" s="273"/>
-      <c r="B30" s="262" t="s">
+      <c r="A30" s="263"/>
+      <c r="B30" s="253" t="s">
         <v>3018</v>
       </c>
-      <c r="C30" s="262" t="s">
+      <c r="C30" s="253" t="s">
         <v>3025</v>
       </c>
-      <c r="D30" s="267" t="s">
+      <c r="D30" s="257" t="s">
         <v>2968</v>
       </c>
-      <c r="E30" s="267" t="s">
+      <c r="E30" s="257" t="s">
         <v>3026</v>
       </c>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="274"/>
-      <c r="J30" s="259"/>
+      <c r="F30" s="264"/>
+      <c r="G30" s="264"/>
+      <c r="H30" s="264"/>
+      <c r="I30" s="264"/>
+      <c r="J30" s="250"/>
     </row>
     <row r="31" spans="1:10" ht="14">
-      <c r="A31" s="273"/>
-      <c r="B31" s="262" t="s">
+      <c r="A31" s="263"/>
+      <c r="B31" s="253" t="s">
         <v>3018</v>
       </c>
-      <c r="C31" s="262" t="s">
+      <c r="C31" s="253" t="s">
         <v>3027</v>
       </c>
-      <c r="D31" s="267" t="s">
+      <c r="D31" s="257" t="s">
         <v>2968</v>
       </c>
-      <c r="E31" s="267" t="s">
+      <c r="E31" s="257" t="s">
         <v>3028</v>
       </c>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="274"/>
-      <c r="I31" s="274"/>
-      <c r="J31" s="259"/>
+      <c r="F31" s="264"/>
+      <c r="G31" s="264"/>
+      <c r="H31" s="264"/>
+      <c r="I31" s="264"/>
+      <c r="J31" s="250"/>
     </row>
     <row r="32" spans="1:10" ht="14">
-      <c r="A32" s="273"/>
-      <c r="B32" s="262" t="s">
+      <c r="A32" s="263"/>
+      <c r="B32" s="253" t="s">
         <v>3017</v>
       </c>
-      <c r="C32" s="262" t="s">
+      <c r="C32" s="253" t="s">
         <v>3029</v>
       </c>
-      <c r="D32" s="267" t="s">
+      <c r="D32" s="257" t="s">
         <v>3030</v>
       </c>
-      <c r="E32" s="267" t="s">
+      <c r="E32" s="257" t="s">
         <v>3031</v>
       </c>
-      <c r="F32" s="274"/>
-      <c r="G32" s="274"/>
-      <c r="H32" s="274"/>
-      <c r="I32" s="274"/>
-      <c r="J32" s="259"/>
+      <c r="F32" s="264"/>
+      <c r="G32" s="264"/>
+      <c r="H32" s="264"/>
+      <c r="I32" s="264"/>
+      <c r="J32" s="250"/>
     </row>
     <row r="33" spans="1:10" ht="14">
-      <c r="A33" s="266" t="s">
+      <c r="A33" s="256" t="s">
         <v>3097</v>
       </c>
-      <c r="B33" s="262" t="s">
+      <c r="B33" s="253" t="s">
         <v>3032</v>
       </c>
-      <c r="C33" s="262" t="s">
+      <c r="C33" s="253" t="s">
         <v>3033</v>
       </c>
-      <c r="D33" s="267" t="s">
+      <c r="D33" s="257" t="s">
         <v>3034</v>
       </c>
-      <c r="E33" s="267" t="s">
+      <c r="E33" s="257" t="s">
         <v>3035</v>
       </c>
-      <c r="F33" s="268" t="s">
+      <c r="F33" s="258" t="s">
         <v>3065</v>
       </c>
-      <c r="G33" s="269" t="s">
+      <c r="G33" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="268">
+      <c r="H33" s="258">
         <v>26</v>
       </c>
-      <c r="I33" s="268"/>
-      <c r="J33" s="259"/>
+      <c r="I33" s="258"/>
+      <c r="J33" s="250"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="266" t="s">
+      <c r="A34" s="256" t="s">
         <v>3098</v>
       </c>
-      <c r="B34" s="262" t="s">
+      <c r="B34" s="253" t="s">
         <v>3036</v>
       </c>
-      <c r="C34" s="262" t="s">
+      <c r="C34" s="253" t="s">
         <v>3037</v>
       </c>
-      <c r="D34" s="267" t="s">
+      <c r="D34" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E34" s="267" t="s">
+      <c r="E34" s="257" t="s">
         <v>3038</v>
       </c>
-      <c r="F34" s="268" t="s">
+      <c r="F34" s="258" t="s">
         <v>3052</v>
       </c>
-      <c r="G34" s="269" t="s">
+      <c r="G34" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="268">
+      <c r="H34" s="258">
         <v>27</v>
       </c>
-      <c r="I34" s="268"/>
-      <c r="J34" s="259"/>
+      <c r="I34" s="258"/>
+      <c r="J34" s="250"/>
     </row>
     <row r="35" spans="1:10" ht="14">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="267" t="s">
         <v>3099</v>
       </c>
-      <c r="B35" s="262" t="s">
+      <c r="B35" s="253" t="s">
         <v>3039</v>
       </c>
-      <c r="C35" s="262" t="s">
+      <c r="C35" s="253" t="s">
         <v>3040</v>
       </c>
-      <c r="D35" s="267" t="s">
+      <c r="D35" s="257" t="s">
         <v>3041</v>
       </c>
-      <c r="E35" s="276" t="s">
+      <c r="E35" s="266" t="s">
         <v>3042</v>
       </c>
-      <c r="F35" s="268" t="s">
+      <c r="F35" s="258" t="s">
         <v>3063</v>
       </c>
-      <c r="G35" s="269" t="s">
+      <c r="G35" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="268">
+      <c r="H35" s="258">
         <v>24</v>
       </c>
-      <c r="I35" s="268"/>
-      <c r="J35" s="259"/>
+      <c r="I35" s="258"/>
+      <c r="J35" s="250"/>
     </row>
     <row r="36" spans="1:10" ht="14">
-      <c r="A36" s="277" t="s">
+      <c r="A36" s="267" t="s">
         <v>3100</v>
       </c>
-      <c r="B36" s="262" t="s">
+      <c r="B36" s="253" t="s">
         <v>3043</v>
       </c>
-      <c r="C36" s="262" t="s">
+      <c r="C36" s="253" t="s">
         <v>3044</v>
       </c>
-      <c r="D36" s="267" t="s">
+      <c r="D36" s="257" t="s">
         <v>2936</v>
       </c>
-      <c r="E36" s="276" t="s">
+      <c r="E36" s="266" t="s">
         <v>3045</v>
       </c>
-      <c r="F36" s="268" t="s">
+      <c r="F36" s="258" t="s">
         <v>3050</v>
       </c>
-      <c r="G36" s="269" t="s">
+      <c r="G36" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="268">
+      <c r="H36" s="258">
         <v>28</v>
       </c>
-      <c r="I36" s="268"/>
-      <c r="J36" s="259"/>
+      <c r="I36" s="258"/>
+      <c r="J36" s="250"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="J37" s="259"/>
+      <c r="J37" s="250"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="J38" s="259"/>
+      <c r="J38" s="250"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="J39" s="259"/>
+      <c r="J39" s="250"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="J40" s="259"/>
+      <c r="J40" s="250"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="J41" s="259"/>
+      <c r="J41" s="250"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="J42" s="259"/>
+      <c r="J42" s="250"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="J43" s="259"/>
+      <c r="J43" s="250"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="J44" s="259"/>
+      <c r="J44" s="250"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="J45" s="259"/>
+      <c r="J45" s="250"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="J46" s="259"/>
+      <c r="J46" s="250"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="J47" s="259"/>
+      <c r="J47" s="250"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="J48" s="259"/>
+      <c r="J48" s="250"/>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="259"/>
+      <c r="J49" s="250"/>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="259"/>
+      <c r="J50" s="250"/>
     </row>
     <row r="51" spans="10:10">
-      <c r="J51" s="259"/>
+      <c r="J51" s="250"/>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="259"/>
+      <c r="J52" s="250"/>
     </row>
     <row r="53" spans="10:10">
-      <c r="J53" s="259"/>
+      <c r="J53" s="250"/>
     </row>
     <row r="54" spans="10:10">
-      <c r="J54" s="259"/>
+      <c r="J54" s="250"/>
     </row>
     <row r="55" spans="10:10">
-      <c r="J55" s="259"/>
+      <c r="J55" s="250"/>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="259"/>
+      <c r="J56" s="250"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R67" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}"/>
   <conditionalFormatting sqref="G2:G25 G33:G36">
-    <cfRule type="containsBlanks" dxfId="0" priority="54">
+    <cfRule type="containsBlanks" dxfId="3" priority="54">
       <formula>LEN(TRIM(#REF!))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E7B60-ADFD-4D45-9FE7-5225A78F3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD74196-9713-3F4E-8F95-6504DDB275B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="24440" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26800" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12963" uniqueCount="3142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12911" uniqueCount="3145">
   <si>
     <t>Tab</t>
   </si>
@@ -11118,9 +11118,6 @@
     <t>ZIKA status following definitions provided by Ximenes et al.</t>
   </si>
   <si>
-    <t>Imputation considered</t>
-  </si>
-  <si>
     <t>contractures</t>
   </si>
   <si>
@@ -11937,7 +11934,19 @@
     <t>npred</t>
   </si>
   <si>
-    <t>Imputation_included</t>
+    <t>Imputation_included (Anneke)</t>
+  </si>
+  <si>
+    <t>Essential variable but taken from czs</t>
+  </si>
+  <si>
+    <t>called as studyimp for imputation matters</t>
+  </si>
+  <si>
+    <t>Essential variable taken from birth</t>
+  </si>
+  <si>
+    <t>Essential variable taken from end_ga</t>
   </si>
 </sst>
 </file>
@@ -13236,9 +13245,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13348,11 +13354,28 @@
     <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -13382,6 +13405,30 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE599"/>
           <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -48996,27 +49043,27 @@
   </sheetData>
   <autoFilter ref="A1:M992" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="C2:D218">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:D252">
-    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C219))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:D321">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C253))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C322:D346">
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="55" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C322))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C347:C388">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C347))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49040,13 +49087,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <dimension ref="A1:AA282"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="S247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA255" sqref="AA255"/>
+      <selection pane="bottomRight" activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49062,93 +49110,89 @@
     <col min="17" max="17" width="10.83203125" style="208" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
     <col min="19" max="24" width="10.83203125" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1">
-      <c r="A1" s="229" t="s">
+    <row r="1" spans="1:26" ht="15" customHeight="1">
+      <c r="A1" s="228" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B1" s="232" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="233" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1" s="232" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="232" t="s">
         <v>3101</v>
       </c>
-      <c r="B1" s="233" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="234" t="s">
+      <c r="F1" s="200" t="s">
+        <v>3140</v>
+      </c>
+      <c r="G1" s="200" t="s">
+        <v>3102</v>
+      </c>
+      <c r="H1" s="201" t="s">
+        <v>3129</v>
+      </c>
+      <c r="I1" s="200" t="s">
+        <v>3103</v>
+      </c>
+      <c r="J1" s="232" t="s">
+        <v>3107</v>
+      </c>
+      <c r="K1" s="232" t="s">
+        <v>3108</v>
+      </c>
+      <c r="L1" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="232" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="232" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="232" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="209" t="s">
+        <v>3123</v>
+      </c>
+      <c r="R1" s="232" t="s">
+        <v>3104</v>
+      </c>
+      <c r="S1" s="232" t="s">
+        <v>3105</v>
+      </c>
+      <c r="T1" s="232" t="s">
+        <v>2814</v>
+      </c>
+      <c r="U1" s="232" t="s">
+        <v>2863</v>
+      </c>
+      <c r="V1" s="232" t="s">
+        <v>2839</v>
+      </c>
+      <c r="W1" s="232" t="s">
+        <v>2840</v>
+      </c>
+      <c r="X1" s="232" t="s">
+        <v>2841</v>
+      </c>
+      <c r="Y1" s="201" t="s">
         <v>3131</v>
       </c>
-      <c r="D1" s="233" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="233" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F1" s="233" t="s">
-        <v>2873</v>
-      </c>
-      <c r="G1" s="200" t="s">
-        <v>3103</v>
-      </c>
-      <c r="H1" s="201" t="s">
-        <v>3130</v>
-      </c>
-      <c r="I1" s="200" t="s">
-        <v>3104</v>
-      </c>
-      <c r="J1" s="233" t="s">
-        <v>3108</v>
-      </c>
-      <c r="K1" s="233" t="s">
-        <v>3109</v>
-      </c>
-      <c r="L1" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="233" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="233" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="233" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="233" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="209" t="s">
-        <v>3124</v>
-      </c>
-      <c r="R1" s="233" t="s">
-        <v>3105</v>
-      </c>
-      <c r="S1" s="233" t="s">
-        <v>3106</v>
-      </c>
-      <c r="T1" s="233" t="s">
-        <v>2814</v>
-      </c>
-      <c r="U1" s="233" t="s">
-        <v>2863</v>
-      </c>
-      <c r="V1" s="233" t="s">
-        <v>2839</v>
-      </c>
-      <c r="W1" s="233" t="s">
-        <v>2840</v>
-      </c>
-      <c r="X1" s="233" t="s">
-        <v>2841</v>
-      </c>
-      <c r="Y1" s="201" t="s">
-        <v>3132</v>
-      </c>
       <c r="Z1" s="201" t="s">
-        <v>3140</v>
-      </c>
-      <c r="AA1" s="200" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49182,7 +49226,7 @@
       <c r="O2" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="248"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="208">
         <v>0.31448788506897302</v>
       </c>
@@ -49195,9 +49239,8 @@
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
-      <c r="AA2" s="177"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49238,9 +49281,8 @@
       <c r="U3" s="210" t="s">
         <v>2864</v>
       </c>
-      <c r="AA3" s="177"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49250,10 +49292,10 @@
       <c r="C4" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="225" t="s">
+      <c r="D4" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="225"/>
+      <c r="E4" s="224"/>
       <c r="F4" s="177"/>
       <c r="G4" s="177"/>
       <c r="H4" s="177"/>
@@ -49281,9 +49323,8 @@
       <c r="U4" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="177"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="5" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49321,9 +49362,8 @@
       <c r="Q5" s="208">
         <v>76.291901936959505</v>
       </c>
-      <c r="AA5" s="177"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="6" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49361,9 +49401,8 @@
       <c r="Q6" s="208">
         <v>77.342577371167195</v>
       </c>
-      <c r="AA6" s="177"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49402,9 +49441,8 @@
         <v>83.732399399614096</v>
       </c>
       <c r="S7" s="210"/>
-      <c r="AA7" s="177"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="8" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49443,9 +49481,8 @@
         <v>88.249589021513799</v>
       </c>
       <c r="S8" s="210"/>
-      <c r="AA8" s="177"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="9" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49484,9 +49521,8 @@
         <v>94.617968694160595</v>
       </c>
       <c r="S9" s="210"/>
-      <c r="AA9" s="177"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49525,9 +49561,8 @@
         <v>92.116360517475499</v>
       </c>
       <c r="S10" s="210"/>
-      <c r="AA10" s="177"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="177" t="s">
         <v>167</v>
       </c>
@@ -49577,7 +49612,7 @@
       <c r="Q11" s="208">
         <v>39.608347627215601</v>
       </c>
-      <c r="R11" s="231" t="s">
+      <c r="R11" s="230" t="s">
         <v>2806</v>
       </c>
       <c r="S11" s="210" t="s">
@@ -49598,11 +49633,8 @@
       <c r="Y11">
         <v>2</v>
       </c>
-      <c r="AA11" s="177" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49617,10 +49649,10 @@
       </c>
       <c r="E12" s="177"/>
       <c r="F12" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="G12" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H12" s="177">
         <v>45</v>
@@ -49632,7 +49664,7 @@
         <v>120</v>
       </c>
       <c r="K12" s="177" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L12" s="177" t="s">
         <v>1155</v>
@@ -49650,7 +49682,7 @@
       <c r="Q12" s="208">
         <v>80.717552887364207</v>
       </c>
-      <c r="R12" s="243" t="s">
+      <c r="R12" s="242" t="s">
         <v>2805</v>
       </c>
       <c r="S12" s="210" t="s">
@@ -49662,11 +49694,8 @@
       <c r="Y12">
         <v>1</v>
       </c>
-      <c r="AA12" s="177" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="192" t="s">
         <v>174</v>
       </c>
@@ -49680,7 +49709,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="177"/>
-      <c r="F13" s="177" t="s">
+      <c r="F13" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G13" s="177" t="s">
@@ -49724,11 +49753,8 @@
       <c r="Y13">
         <v>2</v>
       </c>
-      <c r="AA13" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="177" t="s">
         <v>177</v>
       </c>
@@ -49742,7 +49768,7 @@
         <v>121</v>
       </c>
       <c r="E14" s="177"/>
-      <c r="F14" s="177" t="s">
+      <c r="F14" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="177" t="s">
@@ -49786,11 +49812,8 @@
       <c r="Y14">
         <v>2</v>
       </c>
-      <c r="AA14" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -49804,7 +49827,7 @@
         <v>121</v>
       </c>
       <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="177"/>
       <c r="H15" s="177"/>
       <c r="I15" s="177">
@@ -49837,9 +49860,8 @@
       <c r="U15" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA15" s="188"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -49853,11 +49875,11 @@
         <v>121</v>
       </c>
       <c r="E16" s="177"/>
-      <c r="F16" s="177" t="s">
-        <v>120</v>
+      <c r="F16" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G16" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H16" s="177">
         <v>52</v>
@@ -49869,7 +49891,7 @@
         <v>120</v>
       </c>
       <c r="K16" s="177" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L16" s="177" t="s">
         <v>1155</v>
@@ -49902,11 +49924,8 @@
       <c r="Z16">
         <v>1</v>
       </c>
-      <c r="AA16" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -49920,7 +49939,7 @@
         <v>121</v>
       </c>
       <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
+      <c r="F17" s="188"/>
       <c r="G17" s="177"/>
       <c r="H17" s="177"/>
       <c r="I17" s="177">
@@ -49948,9 +49967,8 @@
       <c r="U17" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA17" s="188"/>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -49964,7 +49982,7 @@
         <v>121</v>
       </c>
       <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
+      <c r="F18" s="188"/>
       <c r="G18" s="177"/>
       <c r="H18" s="177"/>
       <c r="I18" s="177">
@@ -49992,9 +50010,8 @@
       <c r="U18" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA18" s="188"/>
-    </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -50008,7 +50025,7 @@
         <v>121</v>
       </c>
       <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
+      <c r="F19" s="188"/>
       <c r="G19" s="177"/>
       <c r="H19" s="177"/>
       <c r="I19" s="177">
@@ -50036,9 +50053,8 @@
       <c r="U19" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA19" s="188"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -50052,7 +50068,7 @@
         <v>121</v>
       </c>
       <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
+      <c r="F20" s="188"/>
       <c r="G20" s="177"/>
       <c r="H20" s="177"/>
       <c r="I20" s="177">
@@ -50080,9 +50096,8 @@
       <c r="U20" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA20" s="188"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="192" t="s">
         <v>267</v>
       </c>
@@ -50096,7 +50111,7 @@
         <v>121</v>
       </c>
       <c r="E21" s="177"/>
-      <c r="F21" s="177" t="s">
+      <c r="F21" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G21" s="177" t="s">
@@ -50140,11 +50155,8 @@
       <c r="Y21">
         <v>2</v>
       </c>
-      <c r="AA21" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -50158,7 +50170,7 @@
         <v>121</v>
       </c>
       <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
+      <c r="F22" s="188"/>
       <c r="G22" s="186"/>
       <c r="H22" s="186"/>
       <c r="I22" s="177">
@@ -50191,9 +50203,8 @@
       <c r="U22" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA22" s="188"/>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="192" t="s">
         <v>309</v>
       </c>
@@ -50209,7 +50220,7 @@
       <c r="E23" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="177"/>
+      <c r="F23" s="188"/>
       <c r="G23" s="177" t="s">
         <v>120</v>
       </c>
@@ -50249,9 +50260,8 @@
       <c r="Y23">
         <v>2</v>
       </c>
-      <c r="AA23" s="188"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -50265,7 +50275,7 @@
         <v>121</v>
       </c>
       <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
+      <c r="F24" s="188"/>
       <c r="G24" s="177"/>
       <c r="H24" s="177"/>
       <c r="I24" s="177">
@@ -50298,9 +50308,8 @@
       <c r="U24" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA24" s="188"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -50314,7 +50323,7 @@
         <v>121</v>
       </c>
       <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
+      <c r="F25" s="188"/>
       <c r="G25" s="177"/>
       <c r="H25" s="177"/>
       <c r="I25" s="177">
@@ -50347,9 +50356,8 @@
       <c r="U25" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA25" s="188"/>
-    </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:25" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -50365,7 +50373,7 @@
       <c r="E26" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="177"/>
+      <c r="F26" s="188"/>
       <c r="G26" s="177" t="s">
         <v>120</v>
       </c>
@@ -50405,9 +50413,8 @@
       <c r="Y26">
         <v>2</v>
       </c>
-      <c r="AA26" s="188"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="27" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="192" t="s">
         <v>365</v>
       </c>
@@ -50421,7 +50428,7 @@
         <v>121</v>
       </c>
       <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
       <c r="I27" s="177">
@@ -50454,9 +50461,8 @@
       <c r="W27">
         <v>1</v>
       </c>
-      <c r="AA27" s="188"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -50469,10 +50475,10 @@
       <c r="D28" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="177"/>
+      <c r="E28" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="188"/>
       <c r="G28" s="177"/>
       <c r="H28" s="177">
         <v>9</v>
@@ -50505,9 +50511,8 @@
       <c r="Y28">
         <v>2</v>
       </c>
-      <c r="AA28" s="188"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -50521,7 +50526,7 @@
         <v>121</v>
       </c>
       <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
+      <c r="F29" s="188"/>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
       <c r="I29" s="177">
@@ -50549,9 +50554,8 @@
       <c r="U29" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA29" s="188"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -50565,7 +50569,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
       <c r="I30" s="177">
@@ -50594,9 +50598,8 @@
       <c r="U30" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA30" s="188"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="31" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -50610,7 +50613,7 @@
         <v>121</v>
       </c>
       <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
+      <c r="F31" s="188"/>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
       <c r="I31" s="177">
@@ -50639,9 +50642,8 @@
       <c r="U31" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA31" s="188"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -50655,7 +50657,7 @@
         <v>121</v>
       </c>
       <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
+      <c r="F32" s="188"/>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
       <c r="I32" s="177">
@@ -50683,9 +50685,8 @@
       <c r="U32" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA32" s="188"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="33" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="192" t="s">
         <v>380</v>
       </c>
@@ -50699,7 +50700,7 @@
         <v>121</v>
       </c>
       <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
+      <c r="F33" s="188"/>
       <c r="G33" s="177"/>
       <c r="H33" s="177"/>
       <c r="I33" s="177">
@@ -50726,9 +50727,8 @@
       <c r="U33" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA33" s="188"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="34" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="192" t="s">
         <v>382</v>
       </c>
@@ -50742,7 +50742,7 @@
         <v>121</v>
       </c>
       <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="177"/>
       <c r="H34" s="177"/>
       <c r="I34" s="177">
@@ -50771,9 +50771,8 @@
       <c r="U34" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA34" s="188"/>
-    </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="35" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="192" t="s">
         <v>385</v>
       </c>
@@ -50787,7 +50786,7 @@
         <v>121</v>
       </c>
       <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
+      <c r="F35" s="188"/>
       <c r="G35" s="177"/>
       <c r="H35" s="177"/>
       <c r="I35" s="177">
@@ -50814,9 +50813,8 @@
       <c r="U35" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA35" s="188"/>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="36" spans="1:25" ht="15" customHeight="1">
       <c r="A36" s="204" t="s">
         <v>395</v>
       </c>
@@ -50829,10 +50827,10 @@
       <c r="D36" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="177"/>
+      <c r="E36" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="188"/>
       <c r="G36" s="177" t="s">
         <v>120</v>
       </c>
@@ -50872,9 +50870,8 @@
       <c r="Y36">
         <v>2</v>
       </c>
-      <c r="AA36" s="188"/>
-    </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="37" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -50888,7 +50885,7 @@
         <v>121</v>
       </c>
       <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
+      <c r="F37" s="188"/>
       <c r="G37" s="177"/>
       <c r="H37" s="177"/>
       <c r="I37" s="177">
@@ -50906,7 +50903,7 @@
         <v>398</v>
       </c>
       <c r="O37" s="180" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="P37" s="176"/>
       <c r="Q37" s="208">
@@ -50921,9 +50918,8 @@
       <c r="U37" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA37" s="188"/>
-    </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="38" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="203" t="s">
         <v>400</v>
       </c>
@@ -50967,9 +50963,8 @@
       <c r="S38" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="AA38" s="188"/>
-    </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="39" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="192" t="s">
         <v>403</v>
       </c>
@@ -50983,7 +50978,7 @@
         <v>121</v>
       </c>
       <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
+      <c r="F39" s="188"/>
       <c r="G39" s="177"/>
       <c r="H39" s="177"/>
       <c r="I39" s="177">
@@ -51010,9 +51005,8 @@
       <c r="U39" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA39" s="188"/>
-    </row>
-    <row r="40" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="40" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="192" t="s">
         <v>405</v>
       </c>
@@ -51026,7 +51020,7 @@
         <v>121</v>
       </c>
       <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
+      <c r="F40" s="188"/>
       <c r="G40" s="177"/>
       <c r="H40" s="177"/>
       <c r="I40" s="177">
@@ -51053,9 +51047,8 @@
       <c r="U40" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA40" s="188"/>
-    </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="41" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="192" t="s">
         <v>408</v>
       </c>
@@ -51069,7 +51062,7 @@
         <v>153</v>
       </c>
       <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
+      <c r="F41" s="188"/>
       <c r="G41" s="177"/>
       <c r="H41" s="177"/>
       <c r="I41" s="177">
@@ -51091,9 +51084,8 @@
       <c r="Q41" s="208">
         <v>98.499035093988994</v>
       </c>
-      <c r="AA41" s="188"/>
-    </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="42" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -51107,7 +51099,7 @@
         <v>121</v>
       </c>
       <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
+      <c r="F42" s="188"/>
       <c r="G42" s="177"/>
       <c r="H42" s="177"/>
       <c r="I42" s="177">
@@ -51140,9 +51132,8 @@
       <c r="U42" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA42" s="188"/>
-    </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="43" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="192" t="s">
         <v>416</v>
       </c>
@@ -51156,7 +51147,7 @@
         <v>121</v>
       </c>
       <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
+      <c r="F43" s="188"/>
       <c r="G43" s="177"/>
       <c r="H43" s="177"/>
       <c r="I43" s="177">
@@ -51191,9 +51182,8 @@
       <c r="U43" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA43" s="188"/>
-    </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="44" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -51207,7 +51197,7 @@
         <v>121</v>
       </c>
       <c r="E44" s="177"/>
-      <c r="F44" s="177"/>
+      <c r="F44" s="188"/>
       <c r="G44" s="177"/>
       <c r="H44" s="177"/>
       <c r="I44" s="177">
@@ -51240,9 +51230,8 @@
       <c r="U44" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA44" s="188"/>
-    </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="45" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -51256,7 +51245,7 @@
         <v>121</v>
       </c>
       <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
+      <c r="F45" s="188"/>
       <c r="G45" s="177"/>
       <c r="H45" s="177"/>
       <c r="I45" s="177">
@@ -51289,9 +51278,8 @@
       <c r="U45" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA45" s="188"/>
-    </row>
-    <row r="46" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="46" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -51305,7 +51293,7 @@
         <v>121</v>
       </c>
       <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
+      <c r="F46" s="188"/>
       <c r="G46" s="177"/>
       <c r="H46" s="177"/>
       <c r="I46" s="177">
@@ -51338,9 +51326,8 @@
       <c r="U46" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA46" s="188"/>
-    </row>
-    <row r="47" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="47" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="192" t="s">
         <v>454</v>
       </c>
@@ -51354,7 +51341,7 @@
         <v>121</v>
       </c>
       <c r="E47" s="177"/>
-      <c r="F47" s="177"/>
+      <c r="F47" s="188"/>
       <c r="G47" s="177"/>
       <c r="H47" s="177"/>
       <c r="I47" s="177">
@@ -51387,9 +51374,8 @@
       <c r="U47" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA47" s="188"/>
-    </row>
-    <row r="48" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="48" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="192" t="s">
         <v>457</v>
       </c>
@@ -51403,7 +51389,7 @@
         <v>121</v>
       </c>
       <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
+      <c r="F48" s="188"/>
       <c r="G48" s="177"/>
       <c r="H48" s="177"/>
       <c r="I48" s="177">
@@ -51430,9 +51416,8 @@
       <c r="U48" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA48" s="188"/>
-    </row>
-    <row r="49" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="49" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2647</v>
       </c>
@@ -51446,7 +51431,7 @@
         <v>121</v>
       </c>
       <c r="E49" s="177"/>
-      <c r="F49" s="177"/>
+      <c r="F49" s="188"/>
       <c r="G49" s="177"/>
       <c r="H49" s="177"/>
       <c r="I49" s="177">
@@ -51484,9 +51469,8 @@
       <c r="X49">
         <v>200</v>
       </c>
-      <c r="AA49" s="188"/>
-    </row>
-    <row r="50" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="50" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="192" t="s">
         <v>465</v>
       </c>
@@ -51500,7 +51484,7 @@
         <v>121</v>
       </c>
       <c r="E50" s="177"/>
-      <c r="F50" s="177"/>
+      <c r="F50" s="188"/>
       <c r="G50" s="177"/>
       <c r="H50" s="177"/>
       <c r="I50" s="177">
@@ -51544,9 +51528,8 @@
       <c r="X50">
         <v>200</v>
       </c>
-      <c r="AA50" s="188"/>
-    </row>
-    <row r="51" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="51" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -51560,7 +51543,7 @@
         <v>121</v>
       </c>
       <c r="E51" s="177"/>
-      <c r="F51" s="177"/>
+      <c r="F51" s="188"/>
       <c r="G51" s="177"/>
       <c r="H51" s="177"/>
       <c r="I51" s="177">
@@ -51586,10 +51569,10 @@
       <c r="Q51" s="208">
         <v>57.8157386891573</v>
       </c>
-      <c r="R51" s="231" t="s">
+      <c r="R51" s="230" t="s">
         <v>2819</v>
       </c>
-      <c r="S51" s="231" t="s">
+      <c r="S51" s="230" t="s">
         <v>2809</v>
       </c>
       <c r="U51" s="210" t="s">
@@ -51604,9 +51587,8 @@
       <c r="X51">
         <v>210</v>
       </c>
-      <c r="AA51" s="188"/>
-    </row>
-    <row r="52" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="52" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="192" t="s">
         <v>469</v>
       </c>
@@ -51620,7 +51602,7 @@
         <v>121</v>
       </c>
       <c r="E52" s="177"/>
-      <c r="F52" s="177"/>
+      <c r="F52" s="188"/>
       <c r="G52" s="177"/>
       <c r="H52" s="177"/>
       <c r="I52" s="177">
@@ -51646,8 +51628,8 @@
       <c r="Q52" s="208">
         <v>98.7063112000572</v>
       </c>
-      <c r="R52" s="242"/>
-      <c r="S52" s="242"/>
+      <c r="R52" s="241"/>
+      <c r="S52" s="241"/>
       <c r="U52" s="210" t="s">
         <v>328</v>
       </c>
@@ -51657,9 +51639,8 @@
       <c r="W52" s="210" t="s">
         <v>2865</v>
       </c>
-      <c r="AA52" s="188"/>
-    </row>
-    <row r="53" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="53" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="192" t="s">
         <v>472</v>
       </c>
@@ -51673,7 +51654,7 @@
         <v>121</v>
       </c>
       <c r="E53" s="177"/>
-      <c r="F53" s="177"/>
+      <c r="F53" s="188"/>
       <c r="G53" s="177"/>
       <c r="H53" s="177"/>
       <c r="I53" s="177">
@@ -51706,9 +51687,8 @@
       <c r="U53" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA53" s="188"/>
-    </row>
-    <row r="54" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="54" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="203" t="s">
         <v>474</v>
       </c>
@@ -51757,9 +51737,8 @@
       <c r="U54" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA54" s="188"/>
-    </row>
-    <row r="55" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="55" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="203" t="s">
         <v>478</v>
       </c>
@@ -51802,9 +51781,8 @@
       <c r="U55" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA55" s="188"/>
-    </row>
-    <row r="56" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="56" spans="1:25" ht="15" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -51817,7 +51795,7 @@
       <c r="D56" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="226" t="s">
+      <c r="E56" s="225" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="188"/>
@@ -51857,9 +51835,8 @@
       <c r="Y56">
         <v>2</v>
       </c>
-      <c r="AA56" s="188"/>
-    </row>
-    <row r="57" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="57" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -51914,9 +51891,8 @@
       <c r="X57">
         <v>46</v>
       </c>
-      <c r="AA57" s="188"/>
-    </row>
-    <row r="58" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="58" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -51963,9 +51939,8 @@
       <c r="U58" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA58" s="188"/>
-    </row>
-    <row r="59" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="59" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="205" t="s">
         <v>490</v>
       </c>
@@ -52014,9 +51989,8 @@
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="AA59" s="188"/>
-    </row>
-    <row r="60" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="60" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="203" t="s">
         <v>493</v>
       </c>
@@ -52063,9 +52037,8 @@
       <c r="U60" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA60" s="188"/>
-    </row>
-    <row r="61" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="61" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -52112,9 +52085,8 @@
       <c r="U61" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA61" s="188"/>
-    </row>
-    <row r="62" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="62" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -52161,9 +52133,8 @@
       <c r="U62" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA62" s="188"/>
-    </row>
-    <row r="63" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="63" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="192" t="s">
         <v>526</v>
       </c>
@@ -52189,7 +52160,7 @@
         <v>2284</v>
       </c>
       <c r="K63" s="188" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="L63" s="177" t="s">
         <v>1155</v>
@@ -52218,11 +52189,8 @@
       <c r="U63" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA63" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="64" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="203" t="s">
         <v>530</v>
       </c>
@@ -52269,9 +52237,8 @@
       <c r="U64" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA64" s="188"/>
-    </row>
-    <row r="65" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="65" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="192" t="s">
         <v>533</v>
       </c>
@@ -52318,9 +52285,8 @@
       <c r="U65" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA65" s="188"/>
-    </row>
-    <row r="66" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="66" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="203" t="s">
         <v>535</v>
       </c>
@@ -52367,9 +52333,8 @@
       <c r="U66" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA66" s="188"/>
-    </row>
-    <row r="67" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="67" spans="1:25" ht="15" customHeight="1">
       <c r="A67" s="203" t="s">
         <v>537</v>
       </c>
@@ -52382,7 +52347,7 @@
       <c r="D67" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="226" t="s">
+      <c r="E67" s="225" t="s">
         <v>120</v>
       </c>
       <c r="F67" s="188"/>
@@ -52425,9 +52390,8 @@
       <c r="Y67">
         <v>2</v>
       </c>
-      <c r="AA67" s="188"/>
-    </row>
-    <row r="68" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="68" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="203" t="s">
         <v>539</v>
       </c>
@@ -52474,9 +52438,8 @@
       <c r="U68" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA68" s="188"/>
-    </row>
-    <row r="69" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="69" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="203" t="s">
         <v>542</v>
       </c>
@@ -52517,9 +52480,8 @@
       <c r="U69" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA69" s="188"/>
-    </row>
-    <row r="70" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="70" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="203" t="s">
         <v>544</v>
       </c>
@@ -52566,9 +52528,8 @@
       <c r="U70" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA70" s="188"/>
-    </row>
-    <row r="71" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="71" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="203" t="s">
         <v>546</v>
       </c>
@@ -52615,9 +52576,8 @@
       <c r="U71" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA71" s="188"/>
-    </row>
-    <row r="72" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="72" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="203" t="s">
         <v>548</v>
       </c>
@@ -52664,9 +52624,8 @@
       <c r="U72" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA72" s="188"/>
-    </row>
-    <row r="73" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="73" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -52713,9 +52672,8 @@
       <c r="U73" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA73" s="188"/>
-    </row>
-    <row r="74" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="74" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -52762,9 +52720,8 @@
       <c r="U74" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA74" s="188"/>
-    </row>
-    <row r="75" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="75" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="203" t="s">
         <v>554</v>
       </c>
@@ -52811,9 +52768,8 @@
       <c r="U75" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA75" s="188"/>
-    </row>
-    <row r="76" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="76" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="203" t="s">
         <v>556</v>
       </c>
@@ -52860,9 +52816,8 @@
       <c r="U76" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA76" s="188"/>
-    </row>
-    <row r="77" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="77" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="203" t="s">
         <v>558</v>
       </c>
@@ -52909,9 +52864,8 @@
       <c r="U77" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA77" s="188"/>
-    </row>
-    <row r="78" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="78" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="203" t="s">
         <v>560</v>
       </c>
@@ -52958,9 +52912,8 @@
       <c r="U78" s="210" t="s">
         <v>2862</v>
       </c>
-      <c r="AA78" s="188"/>
-    </row>
-    <row r="79" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="79" spans="1:25" ht="15" customHeight="1">
       <c r="A79" s="203" t="s">
         <v>562</v>
       </c>
@@ -52973,7 +52926,7 @@
       <c r="D79" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="226" t="s">
+      <c r="E79" s="225" t="s">
         <v>120</v>
       </c>
       <c r="F79" s="188" t="s">
@@ -53020,11 +52973,8 @@
       <c r="Y79">
         <v>2</v>
       </c>
-      <c r="AA79" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="80" spans="1:25" ht="15" customHeight="1">
       <c r="A80" s="203" t="s">
         <v>565</v>
       </c>
@@ -53082,11 +53032,8 @@
       <c r="Y80">
         <v>1</v>
       </c>
-      <c r="AA80" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="81" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53101,10 +53048,10 @@
       </c>
       <c r="E81" s="188"/>
       <c r="F81" s="188" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="G81" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H81" s="177">
         <v>58</v>
@@ -53116,7 +53063,7 @@
         <v>120</v>
       </c>
       <c r="K81" s="188" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L81" s="177" t="s">
         <v>1155</v>
@@ -53149,11 +53096,8 @@
       <c r="Z81">
         <v>1</v>
       </c>
-      <c r="AA81" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="82" spans="1:26" ht="15" customHeight="1">
       <c r="A82" s="177" t="s">
         <v>702</v>
       </c>
@@ -53166,10 +53110,10 @@
       <c r="D82" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F82" s="177" t="s">
+      <c r="E82" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G82" s="177" t="s">
@@ -53213,11 +53157,8 @@
       <c r="Y82">
         <v>2</v>
       </c>
-      <c r="AA82" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="83" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53231,7 +53172,7 @@
         <v>121</v>
       </c>
       <c r="E83" s="177"/>
-      <c r="F83" s="177"/>
+      <c r="F83" s="188"/>
       <c r="G83" s="177"/>
       <c r="H83" s="177"/>
       <c r="I83" s="177">
@@ -53245,7 +53186,7 @@
       <c r="M83" s="177" t="s">
         <v>701</v>
       </c>
-      <c r="N83" s="231" t="s">
+      <c r="N83" s="230" t="s">
         <v>705</v>
       </c>
       <c r="O83" s="191" t="s">
@@ -53264,9 +53205,8 @@
       <c r="U83" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA83" s="188"/>
-    </row>
-    <row r="84" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="84" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53276,11 +53216,11 @@
       <c r="C84" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="D84" s="225" t="s">
+      <c r="D84" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="225"/>
-      <c r="F84" s="176"/>
+      <c r="E84" s="224"/>
+      <c r="F84" s="188"/>
       <c r="G84" s="176"/>
       <c r="H84" s="176"/>
       <c r="I84" s="177">
@@ -53307,9 +53247,8 @@
       <c r="U84" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="AA84" s="188"/>
-    </row>
-    <row r="85" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="85" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53323,7 +53262,7 @@
         <v>121</v>
       </c>
       <c r="E85" s="177"/>
-      <c r="F85" s="177"/>
+      <c r="F85" s="188"/>
       <c r="G85" s="177"/>
       <c r="H85" s="177"/>
       <c r="I85" s="177">
@@ -53365,9 +53304,8 @@
       <c r="X85">
         <v>46</v>
       </c>
-      <c r="AA85" s="188"/>
-    </row>
-    <row r="86" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="86" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -53381,7 +53319,7 @@
         <v>121</v>
       </c>
       <c r="E86" s="177"/>
-      <c r="F86" s="177"/>
+      <c r="F86" s="188"/>
       <c r="G86" s="177"/>
       <c r="H86" s="177"/>
       <c r="I86" s="177">
@@ -53414,9 +53352,8 @@
       <c r="U86" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA86" s="188"/>
-    </row>
-    <row r="87" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="87" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -53430,7 +53367,7 @@
         <v>121</v>
       </c>
       <c r="E87" s="177"/>
-      <c r="F87" s="177"/>
+      <c r="F87" s="188"/>
       <c r="G87" s="177"/>
       <c r="H87" s="177"/>
       <c r="I87" s="177">
@@ -53465,9 +53402,8 @@
       <c r="W87">
         <v>0</v>
       </c>
-      <c r="AA87" s="188"/>
-    </row>
-    <row r="88" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="88" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -53481,7 +53417,7 @@
         <v>121</v>
       </c>
       <c r="E88" s="177"/>
-      <c r="F88" s="177"/>
+      <c r="F88" s="188"/>
       <c r="G88" s="177"/>
       <c r="H88" s="177"/>
       <c r="I88" s="177">
@@ -53516,9 +53452,8 @@
       <c r="W88">
         <v>0</v>
       </c>
-      <c r="AA88" s="188"/>
-    </row>
-    <row r="89" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="89" spans="1:26" ht="15" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -53531,10 +53466,10 @@
       <c r="D89" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E89" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="177" t="s">
+      <c r="E89" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G89" s="177" t="s">
@@ -53578,11 +53513,8 @@
       <c r="Y89">
         <v>2</v>
       </c>
-      <c r="AA89" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="90" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -53596,7 +53528,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="177"/>
-      <c r="F90" s="177"/>
+      <c r="F90" s="188"/>
       <c r="G90" s="177"/>
       <c r="H90" s="177"/>
       <c r="I90" s="177">
@@ -53635,9 +53567,8 @@
       <c r="W90">
         <v>0</v>
       </c>
-      <c r="AA90" s="188"/>
-    </row>
-    <row r="91" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="91" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -53651,7 +53582,7 @@
         <v>121</v>
       </c>
       <c r="E91" s="177"/>
-      <c r="F91" s="177"/>
+      <c r="F91" s="188"/>
       <c r="G91" s="177"/>
       <c r="H91" s="177"/>
       <c r="I91" s="177">
@@ -53680,9 +53611,8 @@
       <c r="U91" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA91" s="188"/>
-    </row>
-    <row r="92" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="92" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -53696,7 +53626,7 @@
         <v>121</v>
       </c>
       <c r="E92" s="177"/>
-      <c r="F92" s="177"/>
+      <c r="F92" s="188"/>
       <c r="G92" s="177"/>
       <c r="H92" s="177"/>
       <c r="I92" s="177">
@@ -53737,9 +53667,8 @@
       <c r="W92">
         <v>0</v>
       </c>
-      <c r="AA92" s="188"/>
-    </row>
-    <row r="93" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="93" spans="1:26" ht="15" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -53752,10 +53681,10 @@
       <c r="D93" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E93" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F93" s="177" t="s">
+      <c r="E93" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G93" s="177" t="s">
@@ -53799,11 +53728,8 @@
       <c r="Y93">
         <v>2</v>
       </c>
-      <c r="AA93" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="94" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -53817,7 +53743,7 @@
         <v>121</v>
       </c>
       <c r="E94" s="177"/>
-      <c r="F94" s="177"/>
+      <c r="F94" s="188"/>
       <c r="G94" s="177"/>
       <c r="H94" s="177"/>
       <c r="I94" s="177">
@@ -53831,7 +53757,7 @@
       <c r="M94" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="N94" s="231" t="s">
+      <c r="N94" s="230" t="s">
         <v>745</v>
       </c>
       <c r="O94" s="176" t="s">
@@ -53856,9 +53782,8 @@
       <c r="W94">
         <v>0</v>
       </c>
-      <c r="AA94" s="188"/>
-    </row>
-    <row r="95" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="95" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -53872,7 +53797,7 @@
         <v>121</v>
       </c>
       <c r="E95" s="177"/>
-      <c r="F95" s="177"/>
+      <c r="F95" s="188"/>
       <c r="G95" s="177"/>
       <c r="H95" s="177"/>
       <c r="I95" s="177">
@@ -53913,9 +53838,8 @@
       <c r="W95">
         <v>0</v>
       </c>
-      <c r="AA95" s="188"/>
-    </row>
-    <row r="96" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="96" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -53929,7 +53853,7 @@
         <v>121</v>
       </c>
       <c r="E96" s="177"/>
-      <c r="F96" s="177"/>
+      <c r="F96" s="188"/>
       <c r="G96" s="177"/>
       <c r="H96" s="177"/>
       <c r="I96" s="177">
@@ -53943,7 +53867,7 @@
       <c r="M96" s="177" t="s">
         <v>724</v>
       </c>
-      <c r="N96" s="231" t="s">
+      <c r="N96" s="230" t="s">
         <v>749</v>
       </c>
       <c r="O96" s="176" t="s">
@@ -53964,9 +53888,8 @@
       <c r="U96" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA96" s="188"/>
-    </row>
-    <row r="97" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="97" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -53980,11 +53903,11 @@
         <v>121</v>
       </c>
       <c r="E97" s="177"/>
-      <c r="F97" s="177" t="s">
-        <v>120</v>
+      <c r="F97" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G97" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H97" s="177">
         <v>38</v>
@@ -53996,7 +53919,7 @@
         <v>120</v>
       </c>
       <c r="K97" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L97" s="177" t="s">
         <v>15</v>
@@ -54026,11 +53949,8 @@
       <c r="Y97">
         <v>1</v>
       </c>
-      <c r="AA97" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="98" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -54044,7 +53964,7 @@
         <v>121</v>
       </c>
       <c r="E98" s="177"/>
-      <c r="F98" s="177"/>
+      <c r="F98" s="188"/>
       <c r="G98" s="177"/>
       <c r="H98" s="177"/>
       <c r="I98" s="177">
@@ -54083,9 +54003,8 @@
       <c r="W98">
         <v>0</v>
       </c>
-      <c r="AA98" s="188"/>
-    </row>
-    <row r="99" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="99" spans="1:26" ht="15" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -54098,10 +54017,10 @@
       <c r="D99" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E99" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F99" s="177" t="s">
+      <c r="E99" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G99" s="177" t="s">
@@ -54145,11 +54064,8 @@
       <c r="Y99">
         <v>2</v>
       </c>
-      <c r="AA99" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="100" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54163,7 +54079,7 @@
         <v>121</v>
       </c>
       <c r="E100" s="177"/>
-      <c r="F100" s="177"/>
+      <c r="F100" s="188"/>
       <c r="G100" s="177"/>
       <c r="H100" s="177"/>
       <c r="I100" s="177">
@@ -54202,9 +54118,8 @@
       <c r="W100">
         <v>0</v>
       </c>
-      <c r="AA100" s="188"/>
-    </row>
-    <row r="101" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="101" spans="1:26" ht="15" customHeight="1">
       <c r="A101" s="177" t="s">
         <v>759</v>
       </c>
@@ -54218,7 +54133,7 @@
         <v>121</v>
       </c>
       <c r="E101" s="177"/>
-      <c r="F101" s="177" t="s">
+      <c r="F101" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G101" s="177" t="s">
@@ -54262,11 +54177,8 @@
       <c r="Y101">
         <v>2</v>
       </c>
-      <c r="AA101" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="102" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -54280,11 +54192,11 @@
         <v>121</v>
       </c>
       <c r="E102" s="177"/>
-      <c r="F102" s="177" t="s">
-        <v>120</v>
+      <c r="F102" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G102" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H102" s="177">
         <v>47</v>
@@ -54296,7 +54208,7 @@
         <v>120</v>
       </c>
       <c r="K102" s="177" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L102" s="177" t="s">
         <v>15</v>
@@ -54329,11 +54241,8 @@
       <c r="Z102">
         <v>1</v>
       </c>
-      <c r="AA102" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="103" spans="1:26" ht="15" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -54346,10 +54255,10 @@
       <c r="D103" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E103" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F103" s="177" t="s">
+      <c r="E103" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F103" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G103" s="177" t="s">
@@ -54395,11 +54304,8 @@
       <c r="Y103">
         <v>2</v>
       </c>
-      <c r="AA103" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="104" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -54413,11 +54319,11 @@
         <v>121</v>
       </c>
       <c r="E104" s="177"/>
-      <c r="F104" s="177" t="s">
-        <v>120</v>
+      <c r="F104" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G104" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H104" s="177">
         <v>49</v>
@@ -54429,7 +54335,7 @@
         <v>120</v>
       </c>
       <c r="K104" s="177" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L104" s="177" t="s">
         <v>15</v>
@@ -54462,11 +54368,8 @@
       <c r="Z104">
         <v>1</v>
       </c>
-      <c r="AA104" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="105" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -54480,11 +54383,11 @@
         <v>121</v>
       </c>
       <c r="E105" s="177"/>
-      <c r="F105" s="177" t="s">
-        <v>120</v>
+      <c r="F105" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G105" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H105" s="177">
         <v>42</v>
@@ -54496,7 +54399,7 @@
         <v>120</v>
       </c>
       <c r="K105" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L105" s="177" t="s">
         <v>15</v>
@@ -54526,11 +54429,8 @@
       <c r="Y105">
         <v>1</v>
       </c>
-      <c r="AA105" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="106" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -54544,11 +54444,11 @@
         <v>121</v>
       </c>
       <c r="E106" s="177"/>
-      <c r="F106" s="177" t="s">
-        <v>120</v>
+      <c r="F106" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G106" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H106" s="177">
         <v>50</v>
@@ -54560,7 +54460,7 @@
         <v>120</v>
       </c>
       <c r="K106" s="177" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L106" s="177" t="s">
         <v>15</v>
@@ -54593,11 +54493,8 @@
       <c r="Z106">
         <v>1</v>
       </c>
-      <c r="AA106" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="107" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -54611,11 +54508,11 @@
         <v>121</v>
       </c>
       <c r="E107" s="177"/>
-      <c r="F107" s="177" t="s">
-        <v>120</v>
+      <c r="F107" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G107" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H107" s="177">
         <v>41</v>
@@ -54627,7 +54524,7 @@
         <v>120</v>
       </c>
       <c r="K107" s="177" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="L107" s="177" t="s">
         <v>15</v>
@@ -54657,11 +54554,8 @@
       <c r="Y107">
         <v>1</v>
       </c>
-      <c r="AA107" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="108" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -54675,7 +54569,7 @@
         <v>121</v>
       </c>
       <c r="E108" s="177"/>
-      <c r="F108" s="177"/>
+      <c r="F108" s="188"/>
       <c r="G108" s="177"/>
       <c r="H108" s="177"/>
       <c r="I108" s="177">
@@ -54708,9 +54602,8 @@
       <c r="U108" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA108" s="188"/>
-    </row>
-    <row r="109" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="109" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -54724,7 +54617,7 @@
         <v>121</v>
       </c>
       <c r="E109" s="177"/>
-      <c r="F109" s="177"/>
+      <c r="F109" s="188"/>
       <c r="G109" s="177"/>
       <c r="H109" s="177"/>
       <c r="I109" s="177">
@@ -54757,9 +54650,8 @@
       <c r="U109" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA109" s="188"/>
-    </row>
-    <row r="110" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="110" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -54773,7 +54665,7 @@
         <v>121</v>
       </c>
       <c r="E110" s="177"/>
-      <c r="F110" s="177"/>
+      <c r="F110" s="188"/>
       <c r="G110" s="177"/>
       <c r="H110" s="177"/>
       <c r="I110" s="177">
@@ -54812,9 +54704,8 @@
       <c r="X110">
         <v>46</v>
       </c>
-      <c r="AA110" s="188"/>
-    </row>
-    <row r="111" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="111" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -54828,7 +54719,7 @@
         <v>121</v>
       </c>
       <c r="E111" s="177"/>
-      <c r="F111" s="177"/>
+      <c r="F111" s="188"/>
       <c r="G111" s="177"/>
       <c r="H111" s="177"/>
       <c r="I111" s="177">
@@ -54858,9 +54749,8 @@
       <c r="U111" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA111" s="188"/>
-    </row>
-    <row r="112" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="112" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -54870,11 +54760,11 @@
       <c r="C112" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="D112" s="225" t="s">
+      <c r="D112" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="E112" s="225"/>
-      <c r="F112" s="177"/>
+      <c r="E112" s="224"/>
+      <c r="F112" s="188"/>
       <c r="G112" s="177"/>
       <c r="H112" s="177"/>
       <c r="I112" s="177">
@@ -54906,9 +54796,8 @@
       <c r="U112" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="AA112" s="188"/>
-    </row>
-    <row r="113" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="113" spans="1:26" ht="15" customHeight="1">
       <c r="A113" s="193" t="s">
         <v>811</v>
       </c>
@@ -54921,10 +54810,10 @@
       <c r="D113" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E113" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F113" s="224"/>
+      <c r="E113" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F113" s="188"/>
       <c r="G113" s="177" t="s">
         <v>120</v>
       </c>
@@ -54975,9 +54864,8 @@
       <c r="Y113">
         <v>1</v>
       </c>
-      <c r="AA113" s="188"/>
-    </row>
-    <row r="114" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="114" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -54991,7 +54879,7 @@
         <v>121</v>
       </c>
       <c r="E114" s="177"/>
-      <c r="F114" s="177"/>
+      <c r="F114" s="188"/>
       <c r="G114" s="177"/>
       <c r="H114" s="177"/>
       <c r="I114" s="177">
@@ -55026,9 +54914,8 @@
       <c r="U114" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA114" s="188"/>
-    </row>
-    <row r="115" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="115" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -55038,11 +54925,11 @@
       <c r="C115" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="D115" s="225" t="s">
+      <c r="D115" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="E115" s="225"/>
-      <c r="F115" s="177"/>
+      <c r="E115" s="224"/>
+      <c r="F115" s="188"/>
       <c r="G115" s="177"/>
       <c r="H115" s="177"/>
       <c r="I115" s="177">
@@ -55074,9 +54961,8 @@
       <c r="U115" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="AA115" s="188"/>
-    </row>
-    <row r="116" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="116" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -55090,7 +54976,7 @@
         <v>121</v>
       </c>
       <c r="E116" s="177"/>
-      <c r="F116" s="177"/>
+      <c r="F116" s="188"/>
       <c r="G116" s="177"/>
       <c r="H116" s="177"/>
       <c r="I116" s="177">
@@ -55134,9 +55020,8 @@
       <c r="X116">
         <v>46</v>
       </c>
-      <c r="AA116" s="188"/>
-    </row>
-    <row r="117" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="117" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -55150,7 +55035,7 @@
         <v>121</v>
       </c>
       <c r="E117" s="177"/>
-      <c r="F117" s="177"/>
+      <c r="F117" s="188"/>
       <c r="G117" s="177"/>
       <c r="H117" s="177"/>
       <c r="I117" s="177">
@@ -55182,9 +55067,8 @@
       <c r="U117" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA117" s="188"/>
-    </row>
-    <row r="118" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="118" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -55197,10 +55081,10 @@
       <c r="D118" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E118" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" s="177"/>
+      <c r="E118" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" s="188"/>
       <c r="G118" s="177"/>
       <c r="H118" s="177"/>
       <c r="I118" s="177">
@@ -55232,9 +55116,8 @@
       <c r="U118" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA118" s="188"/>
-    </row>
-    <row r="119" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="119" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -55248,11 +55131,11 @@
         <v>121</v>
       </c>
       <c r="E119" s="177"/>
-      <c r="F119" s="177" t="s">
-        <v>120</v>
+      <c r="F119" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G119" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H119" s="177">
         <v>60</v>
@@ -55264,7 +55147,7 @@
         <v>120</v>
       </c>
       <c r="K119" s="177" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L119" s="177" t="s">
         <v>20</v>
@@ -55284,7 +55167,7 @@
       <c r="Q119" s="208">
         <v>99.949971412235598</v>
       </c>
-      <c r="R119" s="241" t="s">
+      <c r="R119" s="240" t="s">
         <v>2835</v>
       </c>
       <c r="S119" t="s">
@@ -55308,11 +55191,8 @@
       <c r="Z119">
         <v>1</v>
       </c>
-      <c r="AA119" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="120" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -55326,7 +55206,7 @@
         <v>153</v>
       </c>
       <c r="E120" s="177"/>
-      <c r="F120" s="177"/>
+      <c r="F120" s="188"/>
       <c r="G120" s="177"/>
       <c r="H120" s="177"/>
       <c r="I120" s="177">
@@ -55352,16 +55232,15 @@
       <c r="Q120" s="208">
         <v>98.920734758058799</v>
       </c>
-      <c r="R120" s="242"/>
+      <c r="R120" s="241"/>
       <c r="S120" t="s">
         <v>124</v>
       </c>
       <c r="U120" s="212" t="s">
         <v>328</v>
       </c>
-      <c r="AA120" s="188"/>
-    </row>
-    <row r="121" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="121" spans="1:26" ht="15" customHeight="1">
       <c r="A121" s="193" t="s">
         <v>846</v>
       </c>
@@ -55374,10 +55253,10 @@
       <c r="D121" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E121" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F121" s="177"/>
+      <c r="E121" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F121" s="188"/>
       <c r="G121" s="177" t="s">
         <v>120</v>
       </c>
@@ -55416,9 +55295,8 @@
       <c r="Y121">
         <v>2</v>
       </c>
-      <c r="AA121" s="188"/>
-    </row>
-    <row r="122" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="122" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -55432,7 +55310,7 @@
         <v>121</v>
       </c>
       <c r="E122" s="177"/>
-      <c r="F122" s="177"/>
+      <c r="F122" s="188"/>
       <c r="G122" s="177"/>
       <c r="H122" s="177"/>
       <c r="I122" s="177">
@@ -55476,9 +55354,8 @@
       <c r="X122">
         <v>46</v>
       </c>
-      <c r="AA122" s="188"/>
-    </row>
-    <row r="123" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="123" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -55488,11 +55365,11 @@
       <c r="C123" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="D123" s="225" t="s">
+      <c r="D123" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="E123" s="225"/>
-      <c r="F123" s="177"/>
+      <c r="E123" s="224"/>
+      <c r="F123" s="188"/>
       <c r="G123" s="177"/>
       <c r="H123" s="177"/>
       <c r="I123" s="177">
@@ -55524,9 +55401,8 @@
       <c r="U123" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="AA123" s="188"/>
-    </row>
-    <row r="124" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="124" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -55540,7 +55416,7 @@
         <v>121</v>
       </c>
       <c r="E124" s="177"/>
-      <c r="F124" s="177"/>
+      <c r="F124" s="188"/>
       <c r="G124" s="177"/>
       <c r="H124" s="177"/>
       <c r="I124" s="177">
@@ -55572,9 +55448,8 @@
       <c r="U124" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA124" s="188"/>
-    </row>
-    <row r="125" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="125" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -55588,7 +55463,7 @@
         <v>121</v>
       </c>
       <c r="E125" s="177"/>
-      <c r="F125" s="177"/>
+      <c r="F125" s="188"/>
       <c r="G125" s="177"/>
       <c r="H125" s="177"/>
       <c r="I125" s="177">
@@ -55620,9 +55495,8 @@
       <c r="U125" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA125" s="188"/>
-    </row>
-    <row r="126" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="126" spans="1:26" ht="15" customHeight="1">
       <c r="A126" s="193" t="s">
         <v>860</v>
       </c>
@@ -55635,10 +55509,10 @@
       <c r="D126" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E126" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F126" s="177"/>
+      <c r="E126" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F126" s="188"/>
       <c r="G126" s="177" t="s">
         <v>120</v>
       </c>
@@ -55677,9 +55551,8 @@
       <c r="Y126">
         <v>2</v>
       </c>
-      <c r="AA126" s="188"/>
-    </row>
-    <row r="127" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="127" spans="1:26" ht="15" customHeight="1">
       <c r="A127" s="193" t="s">
         <v>864</v>
       </c>
@@ -55692,10 +55565,10 @@
       <c r="D127" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E127" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F127" s="177"/>
+      <c r="E127" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F127" s="188"/>
       <c r="G127" s="177" t="s">
         <v>120</v>
       </c>
@@ -55734,9 +55607,8 @@
       <c r="Y127">
         <v>2</v>
       </c>
-      <c r="AA127" s="188"/>
-    </row>
-    <row r="128" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="128" spans="1:26" ht="15" customHeight="1">
       <c r="A128" s="193" t="s">
         <v>870</v>
       </c>
@@ -55749,10 +55621,10 @@
       <c r="D128" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E128" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F128" s="177"/>
+      <c r="E128" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F128" s="188"/>
       <c r="G128" s="177" t="s">
         <v>120</v>
       </c>
@@ -55791,9 +55663,8 @@
       <c r="Y128">
         <v>2</v>
       </c>
-      <c r="AA128" s="188"/>
-    </row>
-    <row r="129" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="129" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -55807,7 +55678,7 @@
         <v>121</v>
       </c>
       <c r="E129" s="177"/>
-      <c r="F129" s="177"/>
+      <c r="F129" s="188"/>
       <c r="G129" s="177"/>
       <c r="H129" s="177"/>
       <c r="I129" s="177">
@@ -55845,9 +55716,8 @@
       <c r="W129">
         <v>0</v>
       </c>
-      <c r="AA129" s="188"/>
-    </row>
-    <row r="130" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="130" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -55861,7 +55731,7 @@
         <v>121</v>
       </c>
       <c r="E130" s="177"/>
-      <c r="F130" s="177"/>
+      <c r="F130" s="188"/>
       <c r="G130" s="177"/>
       <c r="H130" s="177"/>
       <c r="I130" s="177">
@@ -55893,9 +55763,8 @@
       <c r="U130" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA130" s="188"/>
-    </row>
-    <row r="131" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="131" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -55909,7 +55778,7 @@
         <v>121</v>
       </c>
       <c r="E131" s="177"/>
-      <c r="F131" s="177"/>
+      <c r="F131" s="188"/>
       <c r="G131" s="177"/>
       <c r="H131" s="177"/>
       <c r="I131" s="177">
@@ -55947,9 +55816,8 @@
       <c r="W131">
         <v>0</v>
       </c>
-      <c r="AA131" s="188"/>
-    </row>
-    <row r="132" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="132" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -55963,7 +55831,7 @@
         <v>121</v>
       </c>
       <c r="E132" s="177"/>
-      <c r="F132" s="177"/>
+      <c r="F132" s="188"/>
       <c r="G132" s="177"/>
       <c r="H132" s="177"/>
       <c r="I132" s="177">
@@ -56001,9 +55869,8 @@
       <c r="W132">
         <v>0</v>
       </c>
-      <c r="AA132" s="188"/>
-    </row>
-    <row r="133" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="133" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -56017,7 +55884,7 @@
         <v>121</v>
       </c>
       <c r="E133" s="177"/>
-      <c r="F133" s="177"/>
+      <c r="F133" s="188"/>
       <c r="G133" s="177"/>
       <c r="H133" s="177"/>
       <c r="I133" s="177">
@@ -56049,9 +55916,8 @@
       <c r="U133" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA133" s="188"/>
-    </row>
-    <row r="134" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="134" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -56065,7 +55931,7 @@
         <v>121</v>
       </c>
       <c r="E134" s="177"/>
-      <c r="F134" s="177"/>
+      <c r="F134" s="188"/>
       <c r="G134" s="177"/>
       <c r="H134" s="177"/>
       <c r="I134" s="177">
@@ -56106,9 +55972,8 @@
       <c r="X134">
         <v>640</v>
       </c>
-      <c r="AA134" s="188"/>
-    </row>
-    <row r="135" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="135" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -56122,7 +55987,7 @@
         <v>121</v>
       </c>
       <c r="E135" s="177"/>
-      <c r="F135" s="177"/>
+      <c r="F135" s="188"/>
       <c r="G135" s="177"/>
       <c r="H135" s="177"/>
       <c r="I135" s="177">
@@ -56160,9 +56025,8 @@
       <c r="W135">
         <v>0</v>
       </c>
-      <c r="AA135" s="188"/>
-    </row>
-    <row r="136" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="136" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -56176,7 +56040,7 @@
         <v>121</v>
       </c>
       <c r="E136" s="177"/>
-      <c r="F136" s="177"/>
+      <c r="F136" s="188"/>
       <c r="G136" s="177"/>
       <c r="H136" s="177"/>
       <c r="I136" s="177">
@@ -56214,9 +56078,8 @@
       <c r="W136">
         <v>0</v>
       </c>
-      <c r="AA136" s="188"/>
-    </row>
-    <row r="137" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="137" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -56230,7 +56093,7 @@
         <v>121</v>
       </c>
       <c r="E137" s="177"/>
-      <c r="F137" s="177"/>
+      <c r="F137" s="188"/>
       <c r="G137" s="177"/>
       <c r="H137" s="177"/>
       <c r="I137" s="177">
@@ -56265,9 +56128,8 @@
       <c r="V137" t="s">
         <v>2852</v>
       </c>
-      <c r="AA137" s="188"/>
-    </row>
-    <row r="138" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="138" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -56281,7 +56143,7 @@
         <v>121</v>
       </c>
       <c r="E138" s="177"/>
-      <c r="F138" s="177"/>
+      <c r="F138" s="188"/>
       <c r="G138" s="177"/>
       <c r="H138" s="177"/>
       <c r="I138" s="177">
@@ -56316,9 +56178,8 @@
       <c r="V138" t="s">
         <v>2852</v>
       </c>
-      <c r="AA138" s="188"/>
-    </row>
-    <row r="139" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="139" spans="1:25" ht="15" customHeight="1">
       <c r="A139" s="193" t="s">
         <v>913</v>
       </c>
@@ -56332,7 +56193,7 @@
         <v>121</v>
       </c>
       <c r="E139" s="177"/>
-      <c r="F139" s="177" t="s">
+      <c r="F139" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G139" s="177" t="s">
@@ -56348,7 +56209,7 @@
         <v>120</v>
       </c>
       <c r="K139" s="177" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="L139" s="177" t="s">
         <v>20</v>
@@ -56387,11 +56248,8 @@
       <c r="Y139">
         <v>1</v>
       </c>
-      <c r="AA139" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="140" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -56405,7 +56263,7 @@
         <v>121</v>
       </c>
       <c r="E140" s="177"/>
-      <c r="F140" s="177"/>
+      <c r="F140" s="188"/>
       <c r="G140" s="177"/>
       <c r="H140" s="177"/>
       <c r="I140" s="177">
@@ -56435,9 +56293,8 @@
       <c r="U140" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA140" s="188"/>
-    </row>
-    <row r="141" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="141" spans="1:25" ht="15" customHeight="1">
       <c r="A141" s="193" t="s">
         <v>918</v>
       </c>
@@ -56450,10 +56307,10 @@
       <c r="D141" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="E141" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F141" s="177" t="s">
+      <c r="E141" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G141" s="177" t="s">
@@ -56469,7 +56326,7 @@
         <v>120</v>
       </c>
       <c r="K141" s="177" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="L141" s="177" t="s">
         <v>20</v>
@@ -56489,7 +56346,7 @@
       <c r="Q141" s="208">
         <v>12.5571755288736</v>
       </c>
-      <c r="R141" s="231" t="s">
+      <c r="R141" s="230" t="s">
         <v>2802</v>
       </c>
       <c r="S141" t="s">
@@ -56504,11 +56361,8 @@
       <c r="Y141">
         <v>2</v>
       </c>
-      <c r="AA141" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="142" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -56522,7 +56376,7 @@
         <v>121</v>
       </c>
       <c r="E142" s="177"/>
-      <c r="F142" s="177"/>
+      <c r="F142" s="188"/>
       <c r="G142" s="177"/>
       <c r="H142" s="177"/>
       <c r="I142" s="177">
@@ -56546,16 +56400,15 @@
       <c r="Q142" s="208">
         <v>55.814452147809298</v>
       </c>
-      <c r="R142" s="242"/>
+      <c r="R142" s="241"/>
       <c r="S142" t="s">
         <v>124</v>
       </c>
       <c r="U142" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA142" s="188"/>
-    </row>
-    <row r="143" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="143" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -56569,7 +56422,7 @@
         <v>121</v>
       </c>
       <c r="E143" s="177"/>
-      <c r="F143" s="177"/>
+      <c r="F143" s="188"/>
       <c r="G143" s="177"/>
       <c r="H143" s="177"/>
       <c r="I143" s="177">
@@ -56602,9 +56455,8 @@
       <c r="U143" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA143" s="188"/>
-    </row>
-    <row r="144" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="144" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -56618,7 +56470,7 @@
         <v>153</v>
       </c>
       <c r="E144" s="177"/>
-      <c r="F144" s="177"/>
+      <c r="F144" s="188"/>
       <c r="G144" s="177"/>
       <c r="H144" s="177"/>
       <c r="I144" s="177">
@@ -56647,9 +56499,8 @@
       <c r="S144" t="s">
         <v>124</v>
       </c>
-      <c r="AA144" s="188"/>
-    </row>
-    <row r="145" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="145" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="193" t="s">
         <v>934</v>
       </c>
@@ -56663,7 +56514,7 @@
         <v>121</v>
       </c>
       <c r="E145" s="177"/>
-      <c r="F145" s="177"/>
+      <c r="F145" s="188"/>
       <c r="G145" s="177"/>
       <c r="H145" s="177"/>
       <c r="I145" s="177">
@@ -56701,9 +56552,8 @@
       <c r="W145">
         <v>0</v>
       </c>
-      <c r="AA145" s="188"/>
-    </row>
-    <row r="146" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="146" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="193" t="s">
         <v>938</v>
       </c>
@@ -56717,7 +56567,7 @@
         <v>153</v>
       </c>
       <c r="E146" s="177"/>
-      <c r="F146" s="177"/>
+      <c r="F146" s="188"/>
       <c r="G146" s="177"/>
       <c r="H146" s="177"/>
       <c r="I146" s="177">
@@ -56747,9 +56597,8 @@
         <v>124</v>
       </c>
       <c r="U146" s="83"/>
-      <c r="AA146" s="188"/>
-    </row>
-    <row r="147" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="147" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="193" t="s">
         <v>941</v>
       </c>
@@ -56763,7 +56612,7 @@
         <v>121</v>
       </c>
       <c r="E147" s="177"/>
-      <c r="F147" s="177"/>
+      <c r="F147" s="188"/>
       <c r="G147" s="177"/>
       <c r="H147" s="177"/>
       <c r="I147" s="177">
@@ -56801,9 +56650,8 @@
       <c r="W147">
         <v>0</v>
       </c>
-      <c r="AA147" s="188"/>
-    </row>
-    <row r="148" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="148" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="193" t="s">
         <v>945</v>
       </c>
@@ -56817,7 +56665,7 @@
         <v>153</v>
       </c>
       <c r="E148" s="177"/>
-      <c r="F148" s="177"/>
+      <c r="F148" s="188"/>
       <c r="G148" s="177"/>
       <c r="H148" s="177"/>
       <c r="I148" s="177">
@@ -56847,9 +56695,8 @@
         <v>124</v>
       </c>
       <c r="U148" s="83"/>
-      <c r="AA148" s="188"/>
-    </row>
-    <row r="149" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="149" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="193" t="s">
         <v>947</v>
       </c>
@@ -56863,7 +56710,7 @@
         <v>121</v>
       </c>
       <c r="E149" s="177"/>
-      <c r="F149" s="177"/>
+      <c r="F149" s="188"/>
       <c r="G149" s="177"/>
       <c r="H149" s="177"/>
       <c r="I149" s="177">
@@ -56901,9 +56748,8 @@
       <c r="W149">
         <v>0</v>
       </c>
-      <c r="AA149" s="188"/>
-    </row>
-    <row r="150" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="150" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="193" t="s">
         <v>949</v>
       </c>
@@ -56917,7 +56763,7 @@
         <v>121</v>
       </c>
       <c r="E150" s="177"/>
-      <c r="F150" s="177"/>
+      <c r="F150" s="188"/>
       <c r="G150" s="177"/>
       <c r="H150" s="177"/>
       <c r="I150" s="177">
@@ -56955,9 +56801,8 @@
       <c r="W150">
         <v>0</v>
       </c>
-      <c r="AA150" s="188"/>
-    </row>
-    <row r="151" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="151" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="193" t="s">
         <v>960</v>
       </c>
@@ -56971,7 +56816,7 @@
         <v>121</v>
       </c>
       <c r="E151" s="177"/>
-      <c r="F151" s="177"/>
+      <c r="F151" s="188"/>
       <c r="G151" s="177"/>
       <c r="H151" s="177"/>
       <c r="I151" s="177">
@@ -57004,9 +56849,8 @@
       <c r="U151" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA151" s="188"/>
-    </row>
-    <row r="152" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="152" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="193" t="s">
         <v>966</v>
       </c>
@@ -57020,7 +56864,7 @@
         <v>153</v>
       </c>
       <c r="E152" s="177"/>
-      <c r="F152" s="177"/>
+      <c r="F152" s="188"/>
       <c r="G152" s="177"/>
       <c r="H152" s="177"/>
       <c r="I152" s="177">
@@ -57049,9 +56893,8 @@
       <c r="S152" t="s">
         <v>124</v>
       </c>
-      <c r="AA152" s="188"/>
-    </row>
-    <row r="153" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="153" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="193" t="s">
         <v>969</v>
       </c>
@@ -57065,7 +56908,7 @@
         <v>121</v>
       </c>
       <c r="E153" s="177"/>
-      <c r="F153" s="177"/>
+      <c r="F153" s="188"/>
       <c r="G153" s="177"/>
       <c r="H153" s="177"/>
       <c r="I153" s="177">
@@ -57103,9 +56946,8 @@
       <c r="W153">
         <v>0</v>
       </c>
-      <c r="AA153" s="188"/>
-    </row>
-    <row r="154" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="154" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="193" t="s">
         <v>973</v>
       </c>
@@ -57119,7 +56961,7 @@
         <v>153</v>
       </c>
       <c r="E154" s="177"/>
-      <c r="F154" s="177"/>
+      <c r="F154" s="188"/>
       <c r="G154" s="177"/>
       <c r="H154" s="177"/>
       <c r="I154" s="177">
@@ -57149,9 +56991,8 @@
         <v>124</v>
       </c>
       <c r="U154" s="83"/>
-      <c r="AA154" s="188"/>
-    </row>
-    <row r="155" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="155" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="193" t="s">
         <v>976</v>
       </c>
@@ -57165,7 +57006,7 @@
         <v>121</v>
       </c>
       <c r="E155" s="177"/>
-      <c r="F155" s="177"/>
+      <c r="F155" s="188"/>
       <c r="G155" s="177"/>
       <c r="H155" s="177"/>
       <c r="I155" s="177">
@@ -57203,9 +57044,8 @@
       <c r="W155">
         <v>0</v>
       </c>
-      <c r="AA155" s="188"/>
-    </row>
-    <row r="156" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="156" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="193" t="s">
         <v>980</v>
       </c>
@@ -57219,7 +57059,7 @@
         <v>153</v>
       </c>
       <c r="E156" s="177"/>
-      <c r="F156" s="177"/>
+      <c r="F156" s="188"/>
       <c r="G156" s="177"/>
       <c r="H156" s="177"/>
       <c r="I156" s="177">
@@ -57249,9 +57089,8 @@
         <v>124</v>
       </c>
       <c r="U156" s="83"/>
-      <c r="AA156" s="188"/>
-    </row>
-    <row r="157" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="157" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="193" t="s">
         <v>983</v>
       </c>
@@ -57265,7 +57104,7 @@
         <v>121</v>
       </c>
       <c r="E157" s="177"/>
-      <c r="F157" s="177"/>
+      <c r="F157" s="188"/>
       <c r="G157" s="177"/>
       <c r="H157" s="177"/>
       <c r="I157" s="177">
@@ -57303,9 +57142,8 @@
       <c r="W157">
         <v>0</v>
       </c>
-      <c r="AA157" s="188"/>
-    </row>
-    <row r="158" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="158" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="199" t="s">
         <v>1663</v>
       </c>
@@ -57315,18 +57153,18 @@
       <c r="C158" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="D158" s="237" t="s">
+      <c r="D158" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="E158" s="237"/>
-      <c r="F158" s="237"/>
-      <c r="G158" s="237"/>
-      <c r="H158" s="237"/>
+      <c r="E158" s="236"/>
+      <c r="F158" s="188"/>
+      <c r="G158" s="236"/>
+      <c r="H158" s="236"/>
       <c r="I158" s="177">
         <v>157</v>
       </c>
       <c r="J158" s="188"/>
-      <c r="K158" s="237"/>
+      <c r="K158" s="236"/>
       <c r="L158" s="176" t="s">
         <v>1160</v>
       </c>
@@ -57344,9 +57182,8 @@
         <v>13.4086198270317</v>
       </c>
       <c r="U158" s="83"/>
-      <c r="AA158" s="188"/>
-    </row>
-    <row r="159" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="159" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="199" t="s">
         <v>1660</v>
       </c>
@@ -57356,18 +57193,18 @@
       <c r="C159" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="D159" s="231" t="s">
+      <c r="D159" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="E159" s="231"/>
-      <c r="F159" s="231"/>
-      <c r="G159" s="231"/>
-      <c r="H159" s="231"/>
+      <c r="E159" s="230"/>
+      <c r="F159" s="188"/>
+      <c r="G159" s="230"/>
+      <c r="H159" s="230"/>
       <c r="I159" s="177">
         <v>158</v>
       </c>
       <c r="J159" s="188"/>
-      <c r="K159" s="231"/>
+      <c r="K159" s="230"/>
       <c r="L159" s="176" t="s">
         <v>1160</v>
       </c>
@@ -57387,9 +57224,8 @@
       <c r="U159" s="210" t="s">
         <v>2864</v>
       </c>
-      <c r="AA159" s="188"/>
-    </row>
-    <row r="160" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="160" spans="1:25" ht="15" customHeight="1">
       <c r="A160" s="199" t="s">
         <v>1658</v>
       </c>
@@ -57402,13 +57238,11 @@
       <c r="D160" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="E160" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F160" s="176" t="s">
-        <v>120</v>
-      </c>
-      <c r="G160" s="226" t="s">
+      <c r="E160" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F160" s="188"/>
+      <c r="G160" s="225" t="s">
         <v>120</v>
       </c>
       <c r="H160" s="177">
@@ -57441,9 +57275,8 @@
       <c r="Y160">
         <v>2</v>
       </c>
-      <c r="AA160" s="188"/>
-    </row>
-    <row r="161" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="161" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -57455,11 +57288,11 @@
       </c>
       <c r="D161" s="194"/>
       <c r="E161" s="194"/>
-      <c r="F161" s="176" t="s">
-        <v>120</v>
+      <c r="F161" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G161" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H161" s="177">
         <v>54</v>
@@ -57471,7 +57304,7 @@
         <v>120</v>
       </c>
       <c r="K161" s="176" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L161" s="176" t="s">
         <v>1160</v>
@@ -57507,11 +57340,8 @@
       <c r="Z161">
         <v>1</v>
       </c>
-      <c r="AA161" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="162" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -57523,11 +57353,11 @@
       </c>
       <c r="D162" s="194"/>
       <c r="E162" s="194"/>
-      <c r="F162" s="176" t="s">
-        <v>120</v>
+      <c r="F162" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G162" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H162" s="177">
         <v>55</v>
@@ -57539,7 +57369,7 @@
         <v>120</v>
       </c>
       <c r="K162" s="176" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L162" s="176" t="s">
         <v>1160</v>
@@ -57577,11 +57407,8 @@
       <c r="Z162">
         <v>1</v>
       </c>
-      <c r="AA162" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="163" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -57593,7 +57420,7 @@
       </c>
       <c r="D163" s="206"/>
       <c r="E163" s="206"/>
-      <c r="F163" s="206"/>
+      <c r="F163" s="188"/>
       <c r="G163" s="194"/>
       <c r="H163" s="194"/>
       <c r="I163" s="177">
@@ -57604,7 +57431,7 @@
       <c r="L163" s="176" t="s">
         <v>1160</v>
       </c>
-      <c r="M163" s="240" t="s">
+      <c r="M163" s="239" t="s">
         <v>1629</v>
       </c>
       <c r="N163" s="184" t="s">
@@ -57624,9 +57451,8 @@
         <v>124</v>
       </c>
       <c r="U163" s="83"/>
-      <c r="AA163" s="188"/>
-    </row>
-    <row r="164" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="164" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -57638,7 +57464,7 @@
       </c>
       <c r="D164" s="194"/>
       <c r="E164" s="194"/>
-      <c r="F164" s="194"/>
+      <c r="F164" s="188"/>
       <c r="G164" s="194"/>
       <c r="H164" s="194"/>
       <c r="I164" s="177">
@@ -57680,9 +57506,8 @@
       <c r="X164">
         <v>46</v>
       </c>
-      <c r="AA164" s="188"/>
-    </row>
-    <row r="165" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="165" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -57694,7 +57519,7 @@
       </c>
       <c r="D165" s="194"/>
       <c r="E165" s="194"/>
-      <c r="F165" s="194"/>
+      <c r="F165" s="188"/>
       <c r="G165" s="194"/>
       <c r="H165" s="194"/>
       <c r="I165" s="177">
@@ -57719,9 +57544,8 @@
         <v>99.749839182331499</v>
       </c>
       <c r="U165" s="83"/>
-      <c r="AA165" s="188"/>
-    </row>
-    <row r="166" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="166" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -57733,7 +57557,7 @@
       </c>
       <c r="D166" s="194"/>
       <c r="E166" s="194"/>
-      <c r="F166" s="194"/>
+      <c r="F166" s="188"/>
       <c r="G166" s="194"/>
       <c r="H166" s="194"/>
       <c r="I166" s="177">
@@ -57757,9 +57581,8 @@
       <c r="Q166" s="208">
         <v>99.635479951397301</v>
       </c>
-      <c r="AA166" s="188"/>
-    </row>
-    <row r="167" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="167" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -57771,7 +57594,7 @@
       </c>
       <c r="D167" s="194"/>
       <c r="E167" s="194"/>
-      <c r="F167" s="194"/>
+      <c r="F167" s="188"/>
       <c r="G167" s="194"/>
       <c r="H167" s="194"/>
       <c r="I167" s="177">
@@ -57797,9 +57620,8 @@
       <c r="Q167" s="208">
         <v>97.920091487384795</v>
       </c>
-      <c r="AA167" s="188"/>
-    </row>
-    <row r="168" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="168" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -57811,7 +57633,7 @@
       </c>
       <c r="D168" s="194"/>
       <c r="E168" s="194"/>
-      <c r="F168" s="194"/>
+      <c r="F168" s="188"/>
       <c r="G168" s="194"/>
       <c r="H168" s="194"/>
       <c r="I168" s="177">
@@ -57835,9 +57657,8 @@
       <c r="Q168" s="208">
         <v>98.827817882924705</v>
       </c>
-      <c r="AA168" s="188"/>
-    </row>
-    <row r="169" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="169" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -57849,7 +57670,7 @@
       </c>
       <c r="D169" s="194"/>
       <c r="E169" s="194"/>
-      <c r="F169" s="194"/>
+      <c r="F169" s="188"/>
       <c r="G169" s="194"/>
       <c r="H169" s="194"/>
       <c r="I169" s="177">
@@ -57873,9 +57694,8 @@
       <c r="Q169" s="208">
         <v>99.849903509398899</v>
       </c>
-      <c r="AA169" s="188"/>
-    </row>
-    <row r="170" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="170" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -57887,7 +57707,7 @@
       </c>
       <c r="D170" s="194"/>
       <c r="E170" s="194"/>
-      <c r="F170" s="194"/>
+      <c r="F170" s="188"/>
       <c r="G170" s="194"/>
       <c r="H170" s="194"/>
       <c r="I170" s="177">
@@ -57911,9 +57731,8 @@
       <c r="Q170" s="208">
         <v>99.978557644199896</v>
       </c>
-      <c r="AA170" s="188"/>
-    </row>
-    <row r="171" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="171" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -57925,7 +57744,7 @@
       </c>
       <c r="D171" s="194"/>
       <c r="E171" s="194"/>
-      <c r="F171" s="194"/>
+      <c r="F171" s="188"/>
       <c r="G171" s="194"/>
       <c r="H171" s="194"/>
       <c r="I171" s="177">
@@ -57955,9 +57774,8 @@
       <c r="S171" s="210" t="s">
         <v>2809</v>
       </c>
-      <c r="AA171" s="188"/>
-    </row>
-    <row r="172" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="172" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -57969,7 +57787,7 @@
       </c>
       <c r="D172" s="196"/>
       <c r="E172" s="196"/>
-      <c r="F172" s="196"/>
+      <c r="F172" s="188"/>
       <c r="G172" s="196"/>
       <c r="H172" s="196"/>
       <c r="I172" s="177">
@@ -58002,9 +57820,8 @@
         <v>2826</v>
       </c>
       <c r="U172" s="210"/>
-      <c r="AA172" s="188"/>
-    </row>
-    <row r="173" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="173" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -58016,7 +57833,7 @@
       </c>
       <c r="D173" s="194"/>
       <c r="E173" s="194"/>
-      <c r="F173" s="194"/>
+      <c r="F173" s="188"/>
       <c r="G173" s="194"/>
       <c r="H173" s="194"/>
       <c r="I173" s="177">
@@ -58042,7 +57859,7 @@
       <c r="Q173" s="208">
         <v>98.413265670788405</v>
       </c>
-      <c r="R173" s="244" t="s">
+      <c r="R173" s="243" t="s">
         <v>2813</v>
       </c>
       <c r="S173" s="210" t="s">
@@ -58052,9 +57869,8 @@
         <v>2813</v>
       </c>
       <c r="U173" s="210"/>
-      <c r="AA173" s="188"/>
-    </row>
-    <row r="174" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="174" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -58066,7 +57882,7 @@
       </c>
       <c r="D174" s="194"/>
       <c r="E174" s="194"/>
-      <c r="F174" s="194"/>
+      <c r="F174" s="188"/>
       <c r="G174" s="194"/>
       <c r="H174" s="194"/>
       <c r="I174" s="177">
@@ -58092,16 +57908,15 @@
       <c r="Q174" s="208">
         <v>91.208634121935503</v>
       </c>
-      <c r="R174" s="243" t="s">
+      <c r="R174" s="242" t="s">
         <v>2831</v>
       </c>
       <c r="T174" s="210" t="s">
         <v>2826</v>
       </c>
       <c r="U174" s="210"/>
-      <c r="AA174" s="188"/>
-    </row>
-    <row r="175" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="175" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="207" t="s">
         <v>1508</v>
       </c>
@@ -58113,7 +57928,7 @@
       </c>
       <c r="D175" s="194"/>
       <c r="E175" s="194"/>
-      <c r="F175" s="194"/>
+      <c r="F175" s="188"/>
       <c r="G175" s="194"/>
       <c r="H175" s="194"/>
       <c r="I175" s="177">
@@ -58139,7 +57954,7 @@
       <c r="Q175" s="208">
         <v>93.631620327353303</v>
       </c>
-      <c r="R175" s="244" t="s">
+      <c r="R175" s="243" t="s">
         <v>2825</v>
       </c>
       <c r="S175" s="210" t="s">
@@ -58149,9 +57964,8 @@
         <v>2826</v>
       </c>
       <c r="U175" s="210"/>
-      <c r="AA175" s="188"/>
-    </row>
-    <row r="176" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="176" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -58163,7 +57977,7 @@
       </c>
       <c r="D176" s="194"/>
       <c r="E176" s="194"/>
-      <c r="F176" s="194"/>
+      <c r="F176" s="188"/>
       <c r="G176" s="194"/>
       <c r="H176" s="194"/>
       <c r="I176" s="177">
@@ -58199,9 +58013,8 @@
         <v>2826</v>
       </c>
       <c r="U176" s="210"/>
-      <c r="AA176" s="188"/>
-    </row>
-    <row r="177" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="177" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -58213,7 +58026,7 @@
       </c>
       <c r="D177" s="194"/>
       <c r="E177" s="194"/>
-      <c r="F177" s="194"/>
+      <c r="F177" s="188"/>
       <c r="G177" s="194"/>
       <c r="H177" s="194"/>
       <c r="I177" s="177">
@@ -58249,9 +58062,8 @@
         <v>2826</v>
       </c>
       <c r="U177" s="210"/>
-      <c r="AA177" s="188"/>
-    </row>
-    <row r="178" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="178" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -58263,7 +58075,7 @@
       </c>
       <c r="D178" s="194"/>
       <c r="E178" s="194"/>
-      <c r="F178" s="194"/>
+      <c r="F178" s="188"/>
       <c r="G178" s="194"/>
       <c r="H178" s="194"/>
       <c r="I178" s="177">
@@ -58299,9 +58111,8 @@
         <v>2826</v>
       </c>
       <c r="U178" s="210"/>
-      <c r="AA178" s="188"/>
-    </row>
-    <row r="179" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="179" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -58313,7 +58124,7 @@
       </c>
       <c r="D179" s="194"/>
       <c r="E179" s="194"/>
-      <c r="F179" s="194"/>
+      <c r="F179" s="188"/>
       <c r="G179" s="194"/>
       <c r="H179" s="194"/>
       <c r="I179" s="177">
@@ -58349,9 +58160,8 @@
         <v>2826</v>
       </c>
       <c r="U179" s="210"/>
-      <c r="AA179" s="188"/>
-    </row>
-    <row r="180" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="180" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -58363,7 +58173,7 @@
       </c>
       <c r="D180" s="194"/>
       <c r="E180" s="194"/>
-      <c r="F180" s="194"/>
+      <c r="F180" s="188"/>
       <c r="G180" s="194"/>
       <c r="H180" s="194"/>
       <c r="I180" s="177">
@@ -58399,9 +58209,8 @@
         <v>2826</v>
       </c>
       <c r="U180" s="210"/>
-      <c r="AA180" s="188"/>
-    </row>
-    <row r="181" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="181" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -58413,7 +58222,7 @@
       </c>
       <c r="D181" s="194"/>
       <c r="E181" s="194"/>
-      <c r="F181" s="194"/>
+      <c r="F181" s="188"/>
       <c r="G181" s="194"/>
       <c r="H181" s="194"/>
       <c r="I181" s="177">
@@ -58449,9 +58258,8 @@
         <v>2826</v>
       </c>
       <c r="U181" s="210"/>
-      <c r="AA181" s="188"/>
-    </row>
-    <row r="182" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="182" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -58463,7 +58271,7 @@
       </c>
       <c r="D182" s="194"/>
       <c r="E182" s="194"/>
-      <c r="F182" s="194"/>
+      <c r="F182" s="188"/>
       <c r="G182" s="194"/>
       <c r="H182" s="194"/>
       <c r="I182" s="177">
@@ -58499,9 +58307,8 @@
         <v>2826</v>
       </c>
       <c r="U182" s="210"/>
-      <c r="AA182" s="188"/>
-    </row>
-    <row r="183" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="183" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -58513,7 +58320,7 @@
       </c>
       <c r="D183" s="194"/>
       <c r="E183" s="194"/>
-      <c r="F183" s="194"/>
+      <c r="F183" s="188"/>
       <c r="G183" s="194"/>
       <c r="H183" s="194"/>
       <c r="I183" s="177">
@@ -58546,9 +58353,8 @@
         <v>2826</v>
       </c>
       <c r="U183" s="210"/>
-      <c r="AA183" s="188"/>
-    </row>
-    <row r="184" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="184" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -58560,7 +58366,7 @@
       </c>
       <c r="D184" s="194"/>
       <c r="E184" s="194"/>
-      <c r="F184" s="194"/>
+      <c r="F184" s="188"/>
       <c r="G184" s="194"/>
       <c r="H184" s="194"/>
       <c r="I184" s="177">
@@ -58586,7 +58392,7 @@
       <c r="Q184" s="208">
         <v>93.381459509684802</v>
       </c>
-      <c r="R184" s="244" t="s">
+      <c r="R184" s="243" t="s">
         <v>2825</v>
       </c>
       <c r="S184" s="210" t="s">
@@ -58596,9 +58402,8 @@
         <v>2826</v>
       </c>
       <c r="U184" s="210"/>
-      <c r="AA184" s="188"/>
-    </row>
-    <row r="185" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="185" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -58610,7 +58415,7 @@
       </c>
       <c r="D185" s="194"/>
       <c r="E185" s="194"/>
-      <c r="F185" s="194"/>
+      <c r="F185" s="188"/>
       <c r="G185" s="194"/>
       <c r="H185" s="194"/>
       <c r="I185" s="177">
@@ -58646,9 +58451,8 @@
         <v>2826</v>
       </c>
       <c r="U185" s="210"/>
-      <c r="AA185" s="188"/>
-    </row>
-    <row r="186" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="186" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -58660,7 +58464,7 @@
       </c>
       <c r="D186" s="194"/>
       <c r="E186" s="194"/>
-      <c r="F186" s="194"/>
+      <c r="F186" s="188"/>
       <c r="G186" s="194"/>
       <c r="H186" s="194"/>
       <c r="I186" s="177">
@@ -58696,9 +58500,8 @@
         <v>2826</v>
       </c>
       <c r="U186" s="210"/>
-      <c r="AA186" s="188"/>
-    </row>
-    <row r="187" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="187" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -58710,7 +58513,7 @@
       </c>
       <c r="D187" s="194"/>
       <c r="E187" s="194"/>
-      <c r="F187" s="194"/>
+      <c r="F187" s="188"/>
       <c r="G187" s="194"/>
       <c r="H187" s="194"/>
       <c r="I187" s="177">
@@ -58746,9 +58549,8 @@
         <v>2826</v>
       </c>
       <c r="U187" s="210"/>
-      <c r="AA187" s="188"/>
-    </row>
-    <row r="188" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="188" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -58760,7 +58562,7 @@
       </c>
       <c r="D188" s="194"/>
       <c r="E188" s="194"/>
-      <c r="F188" s="194"/>
+      <c r="F188" s="188"/>
       <c r="G188" s="194"/>
       <c r="H188" s="194"/>
       <c r="I188" s="177">
@@ -58796,9 +58598,8 @@
         <v>2826</v>
       </c>
       <c r="U188" s="210"/>
-      <c r="AA188" s="188"/>
-    </row>
-    <row r="189" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="189" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -58810,7 +58611,7 @@
       </c>
       <c r="D189" s="194"/>
       <c r="E189" s="194"/>
-      <c r="F189" s="194"/>
+      <c r="F189" s="188"/>
       <c r="G189" s="194"/>
       <c r="H189" s="194"/>
       <c r="I189" s="177">
@@ -58846,9 +58647,8 @@
         <v>2826</v>
       </c>
       <c r="U189" s="210"/>
-      <c r="AA189" s="188"/>
-    </row>
-    <row r="190" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="190" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -58860,7 +58660,7 @@
       </c>
       <c r="D190" s="194"/>
       <c r="E190" s="194"/>
-      <c r="F190" s="194"/>
+      <c r="F190" s="188"/>
       <c r="G190" s="194"/>
       <c r="H190" s="194"/>
       <c r="I190" s="177">
@@ -58896,9 +58696,8 @@
         <v>2826</v>
       </c>
       <c r="U190" s="210"/>
-      <c r="AA190" s="188"/>
-    </row>
-    <row r="191" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="191" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -58910,7 +58709,7 @@
       </c>
       <c r="D191" s="194"/>
       <c r="E191" s="194"/>
-      <c r="F191" s="194"/>
+      <c r="F191" s="188"/>
       <c r="G191" s="194"/>
       <c r="H191" s="194"/>
       <c r="I191" s="177">
@@ -58946,9 +58745,8 @@
         <v>2826</v>
       </c>
       <c r="U191" s="210"/>
-      <c r="AA191" s="188"/>
-    </row>
-    <row r="192" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="192" spans="1:25" ht="15" customHeight="1">
       <c r="A192" s="197" t="s">
         <v>1191</v>
       </c>
@@ -58960,10 +58758,10 @@
       </c>
       <c r="D192" s="194"/>
       <c r="E192" s="194"/>
-      <c r="F192" s="176" t="s">
-        <v>120</v>
-      </c>
-      <c r="G192" s="226" t="s">
+      <c r="F192" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G192" s="225" t="s">
         <v>120</v>
       </c>
       <c r="H192" s="177">
@@ -58976,7 +58774,7 @@
         <v>120</v>
       </c>
       <c r="K192" s="176" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="L192" s="176" t="s">
         <v>1160</v>
@@ -59009,11 +58807,8 @@
       <c r="Y192">
         <v>1</v>
       </c>
-      <c r="AA192" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="193" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="197" t="s">
         <v>1189</v>
       </c>
@@ -59025,7 +58820,7 @@
       </c>
       <c r="D193" s="194"/>
       <c r="E193" s="194"/>
-      <c r="F193" s="194"/>
+      <c r="F193" s="188"/>
       <c r="G193" s="194"/>
       <c r="H193" s="194"/>
       <c r="I193" s="177">
@@ -59063,9 +58858,8 @@
       <c r="X193">
         <v>46</v>
       </c>
-      <c r="AA193" s="188"/>
-    </row>
-    <row r="194" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="194" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -59077,7 +58871,7 @@
       </c>
       <c r="D194" s="194"/>
       <c r="E194" s="194"/>
-      <c r="F194" s="194"/>
+      <c r="F194" s="188"/>
       <c r="G194" s="194"/>
       <c r="H194" s="194"/>
       <c r="I194" s="177">
@@ -59105,9 +58899,8 @@
       <c r="T194" s="210"/>
       <c r="U194" s="212"/>
       <c r="W194" s="83"/>
-      <c r="AA194" s="188"/>
-    </row>
-    <row r="195" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="195" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="197" t="s">
         <v>1183</v>
       </c>
@@ -59119,7 +58912,7 @@
       </c>
       <c r="D195" s="194"/>
       <c r="E195" s="194"/>
-      <c r="F195" s="194"/>
+      <c r="F195" s="188"/>
       <c r="G195" s="194"/>
       <c r="H195" s="194"/>
       <c r="I195" s="177">
@@ -59153,9 +58946,8 @@
       <c r="U195" s="210" t="s">
         <v>2861</v>
       </c>
-      <c r="AA195" s="188"/>
-    </row>
-    <row r="196" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="196" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -59167,7 +58959,7 @@
       </c>
       <c r="D196" s="194"/>
       <c r="E196" s="194"/>
-      <c r="F196" s="194"/>
+      <c r="F196" s="188"/>
       <c r="G196" s="194"/>
       <c r="H196" s="194"/>
       <c r="I196" s="177">
@@ -59210,9 +59002,8 @@
       <c r="X196">
         <v>20</v>
       </c>
-      <c r="AA196" s="188"/>
-    </row>
-    <row r="197" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="197" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="197" t="s">
         <v>1178</v>
       </c>
@@ -59224,7 +59015,7 @@
       </c>
       <c r="D197" s="194"/>
       <c r="E197" s="194"/>
-      <c r="F197" s="194"/>
+      <c r="F197" s="188"/>
       <c r="G197" s="194"/>
       <c r="H197" s="194"/>
       <c r="I197" s="177">
@@ -59259,9 +59050,8 @@
         <v>2861</v>
       </c>
       <c r="W197" s="83"/>
-      <c r="AA197" s="188"/>
-    </row>
-    <row r="198" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="198" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -59273,7 +59063,7 @@
       </c>
       <c r="D198" s="194"/>
       <c r="E198" s="194"/>
-      <c r="F198" s="194"/>
+      <c r="F198" s="188"/>
       <c r="G198" s="194"/>
       <c r="H198" s="194"/>
       <c r="I198" s="177">
@@ -59316,9 +59106,8 @@
       <c r="X198">
         <v>46</v>
       </c>
-      <c r="AA198" s="188"/>
-    </row>
-    <row r="199" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="199" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="199" t="s">
         <v>1174</v>
       </c>
@@ -59330,7 +59119,7 @@
       </c>
       <c r="D199" s="194"/>
       <c r="E199" s="194"/>
-      <c r="F199" s="194"/>
+      <c r="F199" s="188"/>
       <c r="G199" s="194"/>
       <c r="H199" s="194"/>
       <c r="I199" s="177">
@@ -59356,7 +59145,7 @@
       <c r="Q199" s="208">
         <v>15.6100350225145</v>
       </c>
-      <c r="R199" s="241" t="s">
+      <c r="R199" s="240" t="s">
         <v>2812</v>
       </c>
       <c r="S199" s="210" t="s">
@@ -59367,9 +59156,8 @@
         <v>2861</v>
       </c>
       <c r="W199" s="83"/>
-      <c r="AA199" s="188"/>
-    </row>
-    <row r="200" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="200" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="199" t="s">
         <v>1171</v>
       </c>
@@ -59381,7 +59169,7 @@
       </c>
       <c r="D200" s="194"/>
       <c r="E200" s="194"/>
-      <c r="F200" s="194"/>
+      <c r="F200" s="188"/>
       <c r="G200" s="194"/>
       <c r="H200" s="194"/>
       <c r="I200" s="177">
@@ -59417,9 +59205,8 @@
       <c r="U200" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA200" s="188"/>
-    </row>
-    <row r="201" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="201" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -59431,7 +59218,7 @@
       </c>
       <c r="D201" s="194"/>
       <c r="E201" s="194"/>
-      <c r="F201" s="194"/>
+      <c r="F201" s="188"/>
       <c r="G201" s="194"/>
       <c r="H201" s="194"/>
       <c r="I201" s="177">
@@ -59474,9 +59261,8 @@
       <c r="X201">
         <v>46</v>
       </c>
-      <c r="AA201" s="188"/>
-    </row>
-    <row r="202" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="202" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="199" t="s">
         <v>1666</v>
       </c>
@@ -59490,7 +59276,7 @@
         <v>121</v>
       </c>
       <c r="E202" s="176"/>
-      <c r="F202" s="176"/>
+      <c r="F202" s="188"/>
       <c r="G202" s="177"/>
       <c r="H202" s="177"/>
       <c r="I202" s="177">
@@ -59514,12 +59300,11 @@
       <c r="Q202" s="208">
         <v>11.7718533342863</v>
       </c>
-      <c r="R202" s="242"/>
+      <c r="R202" s="241"/>
       <c r="T202" s="210"/>
       <c r="U202" s="212"/>
-      <c r="AA202" s="188"/>
-    </row>
-    <row r="203" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="203" spans="1:24" ht="15" customHeight="1">
       <c r="A203" s="199" t="s">
         <v>1669</v>
       </c>
@@ -59533,7 +59318,7 @@
         <v>121</v>
       </c>
       <c r="E203" s="176"/>
-      <c r="F203" s="176"/>
+      <c r="F203" s="188"/>
       <c r="G203" s="177" t="s">
         <v>120</v>
       </c>
@@ -59565,9 +59350,8 @@
       <c r="U203" s="210" t="s">
         <v>2864</v>
       </c>
-      <c r="AA203" s="188"/>
-    </row>
-    <row r="204" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="204" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -59579,7 +59363,7 @@
       </c>
       <c r="D204" s="194"/>
       <c r="E204" s="194"/>
-      <c r="F204" s="194"/>
+      <c r="F204" s="188"/>
       <c r="G204" s="194"/>
       <c r="H204" s="194"/>
       <c r="I204" s="177">
@@ -59607,9 +59391,8 @@
       </c>
       <c r="T204" s="210"/>
       <c r="U204" s="210"/>
-      <c r="AA204" s="188"/>
-    </row>
-    <row r="205" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="205" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -59621,7 +59404,7 @@
       </c>
       <c r="D205" s="194"/>
       <c r="E205" s="194"/>
-      <c r="F205" s="194"/>
+      <c r="F205" s="188"/>
       <c r="G205" s="194"/>
       <c r="H205" s="194"/>
       <c r="I205" s="177">
@@ -59649,9 +59432,8 @@
       </c>
       <c r="T205" s="210"/>
       <c r="U205" s="210"/>
-      <c r="AA205" s="188"/>
-    </row>
-    <row r="206" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="206" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -59663,7 +59445,7 @@
       </c>
       <c r="D206" s="194"/>
       <c r="E206" s="194"/>
-      <c r="F206" s="194"/>
+      <c r="F206" s="188"/>
       <c r="G206" s="194"/>
       <c r="H206" s="194"/>
       <c r="I206" s="177">
@@ -59691,9 +59473,8 @@
       </c>
       <c r="T206" s="210"/>
       <c r="U206" s="210"/>
-      <c r="AA206" s="188"/>
-    </row>
-    <row r="207" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="207" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -59705,7 +59486,7 @@
       </c>
       <c r="D207" s="194"/>
       <c r="E207" s="194"/>
-      <c r="F207" s="194"/>
+      <c r="F207" s="188"/>
       <c r="G207" s="194"/>
       <c r="H207" s="194"/>
       <c r="I207" s="177">
@@ -59733,9 +59514,8 @@
       </c>
       <c r="T207" s="210"/>
       <c r="U207" s="210"/>
-      <c r="AA207" s="188"/>
-    </row>
-    <row r="208" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="208" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -59747,7 +59527,7 @@
       </c>
       <c r="D208" s="194"/>
       <c r="E208" s="194"/>
-      <c r="F208" s="194"/>
+      <c r="F208" s="188"/>
       <c r="G208" s="194"/>
       <c r="H208" s="194"/>
       <c r="I208" s="177">
@@ -59775,9 +59555,8 @@
       </c>
       <c r="T208" s="210"/>
       <c r="U208" s="210"/>
-      <c r="AA208" s="188"/>
-    </row>
-    <row r="209" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="209" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -59789,7 +59568,7 @@
       </c>
       <c r="D209" s="194"/>
       <c r="E209" s="194"/>
-      <c r="F209" s="194"/>
+      <c r="F209" s="188"/>
       <c r="G209" s="194"/>
       <c r="H209" s="194"/>
       <c r="I209" s="177">
@@ -59817,9 +59596,8 @@
       </c>
       <c r="T209" s="210"/>
       <c r="U209" s="210"/>
-      <c r="AA209" s="188"/>
-    </row>
-    <row r="210" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="210" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -59831,7 +59609,7 @@
       </c>
       <c r="D210" s="194"/>
       <c r="E210" s="194"/>
-      <c r="F210" s="194"/>
+      <c r="F210" s="188"/>
       <c r="G210" s="194"/>
       <c r="H210" s="194"/>
       <c r="I210" s="177">
@@ -59859,9 +59637,8 @@
       </c>
       <c r="T210" s="210"/>
       <c r="U210" s="210"/>
-      <c r="AA210" s="188"/>
-    </row>
-    <row r="211" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="211" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="199" t="s">
         <v>1683</v>
       </c>
@@ -59873,7 +59650,7 @@
       </c>
       <c r="D211" s="194"/>
       <c r="E211" s="194"/>
-      <c r="F211" s="194"/>
+      <c r="F211" s="188"/>
       <c r="G211" s="194"/>
       <c r="H211" s="194"/>
       <c r="I211" s="177">
@@ -59899,9 +59676,8 @@
       </c>
       <c r="T211" s="210"/>
       <c r="U211" s="210"/>
-      <c r="AA211" s="188"/>
-    </row>
-    <row r="212" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="212" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -59913,7 +59689,9 @@
       </c>
       <c r="D212" s="194"/>
       <c r="E212" s="194"/>
-      <c r="F212" s="176"/>
+      <c r="F212" s="188" t="s">
+        <v>120</v>
+      </c>
       <c r="G212" s="177"/>
       <c r="H212" s="177">
         <v>7</v>
@@ -59924,7 +59702,9 @@
       <c r="J212" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K212" s="176"/>
+      <c r="K212" s="176" t="s">
+        <v>2887</v>
+      </c>
       <c r="L212" s="176" t="s">
         <v>1664</v>
       </c>
@@ -59965,11 +59745,8 @@
       <c r="Y212">
         <v>2</v>
       </c>
-      <c r="AA212" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="213" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -59981,7 +59758,7 @@
       </c>
       <c r="D213" s="194"/>
       <c r="E213" s="194"/>
-      <c r="F213" s="194"/>
+      <c r="F213" s="188"/>
       <c r="G213" s="194"/>
       <c r="H213" s="194"/>
       <c r="I213" s="177">
@@ -60007,9 +59784,8 @@
       </c>
       <c r="T213" s="210"/>
       <c r="U213" s="212"/>
-      <c r="AA213" s="188"/>
-    </row>
-    <row r="214" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="214" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="199" t="s">
         <v>1697</v>
       </c>
@@ -60021,7 +59797,7 @@
       </c>
       <c r="D214" s="194"/>
       <c r="E214" s="194"/>
-      <c r="F214" s="194"/>
+      <c r="F214" s="188"/>
       <c r="G214" s="194"/>
       <c r="H214" s="194"/>
       <c r="I214" s="177">
@@ -60041,15 +59817,14 @@
       <c r="O214" s="198" t="s">
         <v>1699</v>
       </c>
-      <c r="P214" s="249"/>
+      <c r="P214" s="248"/>
       <c r="Q214" s="208">
         <v>19.784146951611699</v>
       </c>
       <c r="T214" s="210"/>
       <c r="U214" s="210"/>
-      <c r="AA214" s="188"/>
-    </row>
-    <row r="215" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="215" spans="1:25" ht="15" customHeight="1">
       <c r="A215" s="199" t="s">
         <v>1716</v>
       </c>
@@ -60061,8 +59836,12 @@
       </c>
       <c r="D215" s="194"/>
       <c r="E215" s="194"/>
-      <c r="F215" s="176"/>
-      <c r="G215" s="177"/>
+      <c r="F215" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G215" s="177" t="s">
+        <v>120</v>
+      </c>
       <c r="H215" s="177">
         <v>8</v>
       </c>
@@ -60113,11 +59892,8 @@
       <c r="Y215">
         <v>2</v>
       </c>
-      <c r="AA215" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="216" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="199" t="s">
         <v>1719</v>
       </c>
@@ -60129,7 +59905,7 @@
       </c>
       <c r="D216" s="194"/>
       <c r="E216" s="194"/>
-      <c r="F216" s="194"/>
+      <c r="F216" s="188"/>
       <c r="G216" s="194"/>
       <c r="H216" s="194"/>
       <c r="I216" s="177">
@@ -60168,9 +59944,8 @@
       <c r="X216">
         <v>70</v>
       </c>
-      <c r="AA216" s="188"/>
-    </row>
-    <row r="217" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="217" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A217" s="199" t="s">
         <v>1731</v>
       </c>
@@ -60182,7 +59957,7 @@
       </c>
       <c r="D217" s="194"/>
       <c r="E217" s="194"/>
-      <c r="F217" s="176" t="s">
+      <c r="F217" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G217" s="177"/>
@@ -60194,7 +59969,7 @@
         <v>120</v>
       </c>
       <c r="K217" s="176" t="s">
-        <v>3114</v>
+        <v>3141</v>
       </c>
       <c r="L217" s="176" t="s">
         <v>1664</v>
@@ -60222,11 +59997,8 @@
       <c r="U217" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA217" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="218" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="199" t="s">
         <v>1734</v>
       </c>
@@ -60238,7 +60010,7 @@
       </c>
       <c r="D218" s="194"/>
       <c r="E218" s="194"/>
-      <c r="F218" s="176"/>
+      <c r="F218" s="188"/>
       <c r="G218" s="176"/>
       <c r="H218" s="176"/>
       <c r="I218" s="177">
@@ -60274,9 +60046,8 @@
       <c r="U218" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA218" s="188"/>
-    </row>
-    <row r="219" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="219" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="199" t="s">
         <v>1736</v>
       </c>
@@ -60288,8 +60059,8 @@
       </c>
       <c r="D219" s="194"/>
       <c r="E219" s="194"/>
-      <c r="F219" s="176" t="s">
-        <v>120</v>
+      <c r="F219" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G219" s="176"/>
       <c r="H219" s="176"/>
@@ -60300,7 +60071,7 @@
         <v>2284</v>
       </c>
       <c r="K219" s="176" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="L219" s="176" t="s">
         <v>1664</v>
@@ -60332,11 +60103,8 @@
       <c r="U219" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA219" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="220" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="199" t="s">
         <v>1743</v>
       </c>
@@ -60348,7 +60116,7 @@
       </c>
       <c r="D220" s="194"/>
       <c r="E220" s="194"/>
-      <c r="F220" s="194"/>
+      <c r="F220" s="188"/>
       <c r="G220" s="194"/>
       <c r="H220" s="194"/>
       <c r="I220" s="177">
@@ -60368,11 +60136,11 @@
       <c r="O220" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="P220" s="231"/>
+      <c r="P220" s="230"/>
       <c r="Q220" s="208">
         <v>61.125008934314899</v>
       </c>
-      <c r="R220" s="244" t="s">
+      <c r="R220" s="243" t="s">
         <v>2825</v>
       </c>
       <c r="S220" s="210" t="s">
@@ -60380,9 +60148,8 @@
       </c>
       <c r="T220" s="210"/>
       <c r="U220" s="212"/>
-      <c r="AA220" s="188"/>
-    </row>
-    <row r="221" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="221" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="199" t="s">
         <v>1750</v>
       </c>
@@ -60394,7 +60161,7 @@
       </c>
       <c r="D221" s="194"/>
       <c r="E221" s="194"/>
-      <c r="F221" s="194"/>
+      <c r="F221" s="188"/>
       <c r="G221" s="194"/>
       <c r="H221" s="194"/>
       <c r="I221" s="177">
@@ -60426,9 +60193,8 @@
       </c>
       <c r="T221" s="210"/>
       <c r="U221" s="210"/>
-      <c r="AA221" s="188"/>
-    </row>
-    <row r="222" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="222" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="199" t="s">
         <v>1755</v>
       </c>
@@ -60440,7 +60206,7 @@
       </c>
       <c r="D222" s="194"/>
       <c r="E222" s="194"/>
-      <c r="F222" s="194"/>
+      <c r="F222" s="188"/>
       <c r="G222" s="194"/>
       <c r="H222" s="194"/>
       <c r="I222" s="177">
@@ -60472,9 +60238,8 @@
       </c>
       <c r="T222" s="210"/>
       <c r="U222" s="210"/>
-      <c r="AA222" s="188"/>
-    </row>
-    <row r="223" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="223" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="199" t="s">
         <v>1759</v>
       </c>
@@ -60486,7 +60251,7 @@
       </c>
       <c r="D223" s="194"/>
       <c r="E223" s="194"/>
-      <c r="F223" s="194"/>
+      <c r="F223" s="188"/>
       <c r="G223" s="194"/>
       <c r="H223" s="194"/>
       <c r="I223" s="177">
@@ -60518,9 +60283,8 @@
       </c>
       <c r="T223" s="210"/>
       <c r="U223" s="210"/>
-      <c r="AA223" s="188"/>
-    </row>
-    <row r="224" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="224" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="199" t="s">
         <v>1763</v>
       </c>
@@ -60532,7 +60296,7 @@
       </c>
       <c r="D224" s="194"/>
       <c r="E224" s="194"/>
-      <c r="F224" s="194"/>
+      <c r="F224" s="188"/>
       <c r="G224" s="194"/>
       <c r="H224" s="194"/>
       <c r="I224" s="177">
@@ -60564,9 +60328,8 @@
       </c>
       <c r="T224" s="210"/>
       <c r="U224" s="210"/>
-      <c r="AA224" s="188"/>
-    </row>
-    <row r="225" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="225" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -60578,7 +60341,7 @@
       </c>
       <c r="D225" s="194"/>
       <c r="E225" s="194"/>
-      <c r="F225" s="194"/>
+      <c r="F225" s="188"/>
       <c r="G225" s="194"/>
       <c r="H225" s="194"/>
       <c r="I225" s="177">
@@ -60610,9 +60373,8 @@
       </c>
       <c r="T225" s="210"/>
       <c r="U225" s="210"/>
-      <c r="AA225" s="188"/>
-    </row>
-    <row r="226" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="226" spans="1:25" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -60625,12 +60387,10 @@
       <c r="D226" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="E226" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="F226" s="224" t="s">
-        <v>120</v>
-      </c>
+      <c r="E226" s="225" t="s">
+        <v>120</v>
+      </c>
+      <c r="F226" s="188"/>
       <c r="G226" s="177" t="s">
         <v>120</v>
       </c>
@@ -60658,7 +60418,7 @@
       <c r="Q226" s="208">
         <v>21.442355800157198</v>
       </c>
-      <c r="R226" s="243" t="s">
+      <c r="R226" s="242" t="s">
         <v>2813</v>
       </c>
       <c r="S226" s="210" t="s">
@@ -60679,9 +60439,8 @@
       <c r="Y226">
         <v>2</v>
       </c>
-      <c r="AA226" s="188"/>
-    </row>
-    <row r="227" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="227" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -60695,7 +60454,7 @@
         <v>121</v>
       </c>
       <c r="E227" s="176"/>
-      <c r="F227" s="176"/>
+      <c r="F227" s="188"/>
       <c r="G227" s="176"/>
       <c r="H227" s="176"/>
       <c r="I227" s="177">
@@ -60739,9 +60498,8 @@
       <c r="W227" s="210" t="s">
         <v>2865</v>
       </c>
-      <c r="AA227" s="188"/>
-    </row>
-    <row r="228" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="228" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -60755,7 +60513,7 @@
         <v>121</v>
       </c>
       <c r="E228" s="176"/>
-      <c r="F228" s="176"/>
+      <c r="F228" s="188"/>
       <c r="G228" s="176"/>
       <c r="H228" s="176"/>
       <c r="I228" s="177">
@@ -60797,9 +60555,8 @@
       <c r="W228">
         <v>0</v>
       </c>
-      <c r="AA228" s="188"/>
-    </row>
-    <row r="229" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="229" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -60811,11 +60568,11 @@
       </c>
       <c r="D229" s="194"/>
       <c r="E229" s="194"/>
-      <c r="F229" s="176" t="s">
-        <v>120</v>
+      <c r="F229" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G229" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H229" s="177">
         <v>48</v>
@@ -60827,7 +60584,7 @@
         <v>120</v>
       </c>
       <c r="K229" s="176" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L229" s="176" t="s">
         <v>1664</v>
@@ -60858,11 +60615,8 @@
       <c r="Y229">
         <v>1</v>
       </c>
-      <c r="AA229" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="230" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -60874,7 +60628,7 @@
       </c>
       <c r="D230" s="194"/>
       <c r="E230" s="194"/>
-      <c r="F230" s="194"/>
+      <c r="F230" s="188"/>
       <c r="G230" s="194"/>
       <c r="H230" s="194"/>
       <c r="I230" s="177">
@@ -60908,9 +60662,8 @@
       </c>
       <c r="T230" s="210"/>
       <c r="U230" s="212"/>
-      <c r="AA230" s="188"/>
-    </row>
-    <row r="231" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="231" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -60922,7 +60675,7 @@
       </c>
       <c r="D231" s="194"/>
       <c r="E231" s="194"/>
-      <c r="F231" s="194"/>
+      <c r="F231" s="188"/>
       <c r="G231" s="194"/>
       <c r="H231" s="194"/>
       <c r="I231" s="177">
@@ -60954,9 +60707,8 @@
       </c>
       <c r="T231" s="210"/>
       <c r="U231" s="210"/>
-      <c r="AA231" s="188"/>
-    </row>
-    <row r="232" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="232" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -60968,7 +60720,7 @@
       </c>
       <c r="D232" s="194"/>
       <c r="E232" s="194"/>
-      <c r="F232" s="194"/>
+      <c r="F232" s="188"/>
       <c r="G232" s="194"/>
       <c r="H232" s="194"/>
       <c r="I232" s="177">
@@ -60992,9 +60744,8 @@
       <c r="Q232" s="208">
         <v>100</v>
       </c>
-      <c r="AA232" s="188"/>
-    </row>
-    <row r="233" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="233" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -61006,7 +60757,7 @@
       </c>
       <c r="D233" s="194"/>
       <c r="E233" s="194"/>
-      <c r="F233" s="194"/>
+      <c r="F233" s="188"/>
       <c r="G233" s="194"/>
       <c r="H233" s="194"/>
       <c r="I233" s="177">
@@ -61030,9 +60781,8 @@
       <c r="Q233" s="208">
         <v>100</v>
       </c>
-      <c r="AA233" s="188"/>
-    </row>
-    <row r="234" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="234" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -61042,17 +60792,17 @@
       <c r="C234" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="D234" s="236"/>
-      <c r="E234" s="236"/>
-      <c r="F234" s="236"/>
-      <c r="G234" s="236"/>
-      <c r="H234" s="236"/>
+      <c r="D234" s="235"/>
+      <c r="E234" s="235"/>
+      <c r="F234" s="188"/>
+      <c r="G234" s="235"/>
+      <c r="H234" s="235"/>
       <c r="I234" s="177">
         <v>233</v>
       </c>
       <c r="J234" s="188"/>
-      <c r="K234" s="238"/>
-      <c r="L234" s="238" t="s">
+      <c r="K234" s="237"/>
+      <c r="L234" s="237" t="s">
         <v>2192</v>
       </c>
       <c r="M234" s="192" t="s">
@@ -61070,52 +60820,48 @@
       <c r="Q234" s="208">
         <v>97.012365091844799</v>
       </c>
-      <c r="AA234" s="188"/>
-    </row>
-    <row r="235" spans="1:27" ht="15" customHeight="1">
-      <c r="A235" s="235" t="s">
+    </row>
+    <row r="235" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="A235" s="234" t="s">
         <v>2605</v>
       </c>
       <c r="B235" s="176"/>
       <c r="C235" s="176" t="s">
         <v>2869</v>
       </c>
-      <c r="D235" s="246" t="s">
+      <c r="D235" s="245" t="s">
         <v>121</v>
       </c>
-      <c r="E235" s="246"/>
-      <c r="F235" s="246" t="s">
-        <v>153</v>
-      </c>
-      <c r="G235" s="228"/>
-      <c r="H235" s="228"/>
+      <c r="E235" s="245"/>
+      <c r="F235" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G235" s="227"/>
+      <c r="H235" s="227"/>
       <c r="I235" s="177">
         <v>234</v>
       </c>
       <c r="J235" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K235" s="246" t="s">
-        <v>3116</v>
-      </c>
-      <c r="L235" s="239" t="s">
+      <c r="K235" s="245" t="s">
+        <v>3115</v>
+      </c>
+      <c r="L235" s="238" t="s">
         <v>2853</v>
       </c>
       <c r="M235" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="N235" s="230"/>
-      <c r="O235" s="230"/>
-      <c r="P235" s="230"/>
-      <c r="AA235" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" ht="15" customHeight="1">
-      <c r="A236" s="232" t="s">
+      <c r="N235" s="229"/>
+      <c r="O235" s="229"/>
+      <c r="P235" s="229"/>
+    </row>
+    <row r="236" spans="1:25" ht="15" hidden="1" customHeight="1">
+      <c r="A236" s="231" t="s">
         <v>2870</v>
       </c>
-      <c r="B236" s="245"/>
+      <c r="B236" s="244"/>
       <c r="C236" s="218" t="s">
         <v>2869</v>
       </c>
@@ -61123,6 +60869,9 @@
         <v>121</v>
       </c>
       <c r="E236" s="210"/>
+      <c r="F236" s="188" t="s">
+        <v>120</v>
+      </c>
       <c r="G236" s="177"/>
       <c r="H236" s="223"/>
       <c r="I236" s="177">
@@ -61131,11 +60880,13 @@
       <c r="J236" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K236" s="212"/>
-      <c r="L236" s="245"/>
-      <c r="M236" s="230"/>
-      <c r="N236" s="231" t="s">
-        <v>2911</v>
+      <c r="K236" s="212" t="s">
+        <v>3142</v>
+      </c>
+      <c r="L236" s="244"/>
+      <c r="M236" s="229"/>
+      <c r="N236" s="230" t="s">
+        <v>2910</v>
       </c>
       <c r="Q236" s="208">
         <v>7.1469411092052598E-3</v>
@@ -61143,13 +60894,10 @@
       <c r="U236" s="210" t="s">
         <v>322</v>
       </c>
-      <c r="AA236" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="237" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A237" s="221" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C237" s="218" t="s">
         <v>2869</v>
@@ -61158,10 +60906,10 @@
         <v>153</v>
       </c>
       <c r="E237" s="210"/>
-      <c r="F237" s="210" t="s">
-        <v>153</v>
-      </c>
-      <c r="G237" s="235"/>
+      <c r="F237" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G237" s="234"/>
       <c r="H237" s="212"/>
       <c r="I237" s="177">
         <v>236</v>
@@ -61169,11 +60917,11 @@
       <c r="J237" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="K237" s="231" t="s">
-        <v>3117</v>
+      <c r="K237" s="230" t="s">
+        <v>3116</v>
       </c>
       <c r="N237" s="211" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="Q237" s="208">
         <v>42.617209834191002</v>
@@ -61187,13 +60935,10 @@
       <c r="X237">
         <v>46</v>
       </c>
-      <c r="AA237" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="238" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="238" spans="1:25" ht="15" customHeight="1">
       <c r="A238" s="221" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C238" s="218" t="s">
         <v>2869</v>
@@ -61201,16 +60946,16 @@
       <c r="D238" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E238" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="F238" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="G238" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H238" s="232">
+      <c r="E238" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F238" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G238" s="231" t="s">
+        <v>120</v>
+      </c>
+      <c r="H238" s="231">
         <v>3</v>
       </c>
       <c r="I238" s="177">
@@ -61220,8 +60965,8 @@
         <v>120</v>
       </c>
       <c r="K238" s="83"/>
-      <c r="N238" s="242" t="s">
-        <v>2920</v>
+      <c r="N238" s="241" t="s">
+        <v>2919</v>
       </c>
       <c r="Q238" s="208">
         <v>11.270726129216699</v>
@@ -61232,13 +60977,10 @@
       <c r="Y238">
         <v>2</v>
       </c>
-      <c r="AA238" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="239" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="239" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="221" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C239" s="218" t="s">
         <v>2869</v>
@@ -61246,11 +60988,11 @@
       <c r="D239" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="E239" s="235"/>
-      <c r="F239" s="210" t="s">
-        <v>153</v>
-      </c>
-      <c r="G239" s="235"/>
+      <c r="E239" s="234"/>
+      <c r="F239" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G239" s="234"/>
       <c r="H239" s="212"/>
       <c r="I239" s="177">
         <v>238</v>
@@ -61258,11 +61000,11 @@
       <c r="J239" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K239" t="s">
-        <v>3114</v>
+      <c r="K239" s="210" t="s">
+        <v>3143</v>
       </c>
       <c r="N239" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="Q239" s="208">
         <v>11.270726129216699</v>
@@ -61270,13 +61012,10 @@
       <c r="U239" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA239" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="240" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="240" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A240" s="221" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C240" s="218" t="s">
         <v>2869</v>
@@ -61285,8 +61024,8 @@
         <v>121</v>
       </c>
       <c r="E240" s="210"/>
-      <c r="F240" s="83" t="s">
-        <v>121</v>
+      <c r="F240" s="188" t="s">
+        <v>120</v>
       </c>
       <c r="G240" s="83"/>
       <c r="H240" s="83"/>
@@ -61296,11 +61035,11 @@
       <c r="J240" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="K240" t="s">
-        <v>3114</v>
+      <c r="K240" s="210" t="s">
+        <v>3144</v>
       </c>
       <c r="N240" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="Q240" s="208">
         <v>84.991423670668993</v>
@@ -61314,13 +61053,10 @@
       <c r="X240">
         <v>46</v>
       </c>
-      <c r="AA240" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="241" spans="1:26" ht="15" customHeight="1">
       <c r="A241" s="221" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C241" s="218" t="s">
         <v>2869</v>
@@ -61328,16 +61064,16 @@
       <c r="D241" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E241" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="F241" s="210" t="s">
-        <v>120</v>
-      </c>
-      <c r="G241" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H241" s="232">
+      <c r="E241" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F241" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G241" s="231" t="s">
+        <v>120</v>
+      </c>
+      <c r="H241" s="231">
         <v>5</v>
       </c>
       <c r="I241" s="177">
@@ -61347,7 +61083,7 @@
         <v>120</v>
       </c>
       <c r="N241" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="Q241" s="208">
         <v>14.944253859348199</v>
@@ -61364,13 +61100,10 @@
       <c r="Y241">
         <v>2</v>
       </c>
-      <c r="AA241" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="242" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="221" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="C242" s="218" t="s">
         <v>2869</v>
@@ -61379,10 +61112,10 @@
         <v>153</v>
       </c>
       <c r="E242" s="212"/>
-      <c r="F242" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="G242" s="230"/>
+      <c r="F242" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G242" s="229"/>
       <c r="H242" s="83"/>
       <c r="I242" s="177">
         <v>241</v>
@@ -61391,10 +61124,10 @@
         <v>2284</v>
       </c>
       <c r="K242" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="N242" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="Q242" s="208">
         <v>26.472269868496301</v>
@@ -61402,13 +61135,10 @@
       <c r="U242" s="212" t="s">
         <v>328</v>
       </c>
-      <c r="AA242" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="243" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A243" s="221" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C243" s="218" t="s">
         <v>2869</v>
@@ -61417,6 +61147,9 @@
         <v>121</v>
       </c>
       <c r="E243" s="210"/>
+      <c r="F243" s="188" t="s">
+        <v>2284</v>
+      </c>
       <c r="I243" s="177">
         <v>242</v>
       </c>
@@ -61424,10 +61157,10 @@
         <v>2284</v>
       </c>
       <c r="K243" s="210" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="N243" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="Q243" s="208">
         <v>26.472269868496301</v>
@@ -61435,13 +61168,10 @@
       <c r="U243" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA243" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="244" spans="1:26" ht="15" customHeight="1">
       <c r="A244" s="221" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="C244" s="218" t="s">
         <v>2869</v>
@@ -61449,7 +61179,18 @@
       <c r="D244" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E244" s="210"/>
+      <c r="E244" s="226" t="s">
+        <v>120</v>
+      </c>
+      <c r="F244" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G244" s="210" t="s">
+        <v>120</v>
+      </c>
+      <c r="H244">
+        <v>5.5</v>
+      </c>
       <c r="I244" s="177">
         <v>243</v>
       </c>
@@ -61458,7 +61199,7 @@
       </c>
       <c r="K244" s="83"/>
       <c r="N244" s="210" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="Q244" s="208">
         <v>22.398513436249299</v>
@@ -61466,13 +61207,10 @@
       <c r="U244" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="AA244" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="245" spans="1:26" ht="15" customHeight="1">
       <c r="A245" s="221" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C245" s="218" t="s">
         <v>2869</v>
@@ -61480,13 +61218,16 @@
       <c r="D245" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E245" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="G245" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H245" s="232">
+      <c r="E245" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F245" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G245" s="231" t="s">
+        <v>120</v>
+      </c>
+      <c r="H245" s="231">
         <v>6</v>
       </c>
       <c r="I245" s="177">
@@ -61496,10 +61237,10 @@
         <v>2284</v>
       </c>
       <c r="K245" s="210" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="N245" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="Q245" s="208">
         <v>16.559462550028599</v>
@@ -61510,13 +61251,10 @@
       <c r="Y245">
         <v>2</v>
       </c>
-      <c r="AA245" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="246" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A246" s="221" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="C246" s="218" t="s">
         <v>2869</v>
@@ -61525,7 +61263,10 @@
         <v>121</v>
       </c>
       <c r="E246" s="212"/>
-      <c r="G246" s="230"/>
+      <c r="F246" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G246" s="229"/>
       <c r="H246" s="83"/>
       <c r="I246" s="177">
         <v>245</v>
@@ -61534,10 +61275,10 @@
         <v>2284</v>
       </c>
       <c r="K246" s="212" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N246" s="210" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="Q246" s="208">
         <v>97.770154373927994</v>
@@ -61551,13 +61292,10 @@
       <c r="X246">
         <v>46</v>
       </c>
-      <c r="AA246" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="247" spans="1:26" ht="15" customHeight="1">
       <c r="A247" s="221" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C247" s="218" t="s">
         <v>2869</v>
@@ -61566,6 +61304,15 @@
         <v>121</v>
       </c>
       <c r="E247" s="210"/>
+      <c r="F247" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G247" s="267" t="s">
+        <v>120</v>
+      </c>
+      <c r="H247">
+        <v>6.5</v>
+      </c>
       <c r="I247" s="177">
         <v>246</v>
       </c>
@@ -61574,7 +61321,7 @@
       </c>
       <c r="K247" s="83"/>
       <c r="N247" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="Q247" s="208">
         <v>66.938250428816502</v>
@@ -61582,13 +61329,10 @@
       <c r="U247" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA247" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="248" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="248" spans="1:26" ht="15" customHeight="1">
       <c r="A248" s="221" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C248" s="218" t="s">
         <v>2869</v>
@@ -61597,13 +61341,13 @@
         <v>121</v>
       </c>
       <c r="E248" s="210"/>
-      <c r="F248" t="s">
-        <v>120</v>
-      </c>
-      <c r="G248" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H248" s="232">
+      <c r="F248" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G248" s="231" t="s">
+        <v>120</v>
+      </c>
+      <c r="H248" s="231">
         <v>33</v>
       </c>
       <c r="I248" s="177">
@@ -61613,7 +61357,7 @@
         <v>120</v>
       </c>
       <c r="N248" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="Q248" s="208">
         <v>54.638364779874202</v>
@@ -61624,13 +61368,10 @@
       <c r="Y248">
         <v>2</v>
       </c>
-      <c r="AA248" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="249" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="249" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="221" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C249" s="218" t="s">
         <v>2869</v>
@@ -61639,11 +61380,11 @@
         <v>121</v>
       </c>
       <c r="E249" s="210"/>
-      <c r="F249" t="s">
-        <v>120</v>
+      <c r="F249" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G249" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H249" s="223">
         <v>56</v>
@@ -61655,10 +61396,10 @@
         <v>120</v>
       </c>
       <c r="K249" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N249" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="Q249" s="208">
         <v>93.696397941680999</v>
@@ -61672,13 +61413,10 @@
       <c r="Z249">
         <v>1</v>
       </c>
-      <c r="AA249" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="250" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="250" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="221" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="C250" s="218" t="s">
         <v>2869</v>
@@ -61687,7 +61425,10 @@
         <v>121</v>
       </c>
       <c r="E250" s="210"/>
-      <c r="G250" s="230"/>
+      <c r="F250" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G250" s="229"/>
       <c r="H250" s="83"/>
       <c r="I250" s="177">
         <v>249</v>
@@ -61696,10 +61437,10 @@
         <v>120</v>
       </c>
       <c r="K250" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N250" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="Q250" s="208">
         <v>93.610634648370507</v>
@@ -61707,13 +61448,10 @@
       <c r="U250" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA250" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="251" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="251" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="221" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="C251" s="218" t="s">
         <v>2869</v>
@@ -61722,6 +61460,9 @@
         <v>121</v>
       </c>
       <c r="E251" s="210"/>
+      <c r="F251" s="188" t="s">
+        <v>2284</v>
+      </c>
       <c r="I251" s="177">
         <v>250</v>
       </c>
@@ -61729,10 +61470,10 @@
         <v>120</v>
       </c>
       <c r="K251" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N251" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="Q251" s="208">
         <v>93.653516295025696</v>
@@ -61740,13 +61481,10 @@
       <c r="U251" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA251" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="252" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="252" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="221" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="C252" s="218" t="s">
         <v>2869</v>
@@ -61755,6 +61493,9 @@
         <v>121</v>
       </c>
       <c r="E252" s="210"/>
+      <c r="F252" s="188" t="s">
+        <v>2284</v>
+      </c>
       <c r="I252" s="177">
         <v>251</v>
       </c>
@@ -61762,10 +61503,10 @@
         <v>120</v>
       </c>
       <c r="K252" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N252" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="Q252" s="208">
         <v>93.6392224128073</v>
@@ -61773,13 +61514,10 @@
       <c r="U252" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA252" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="253" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="253" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="221" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="C253" s="218" t="s">
         <v>2869</v>
@@ -61788,6 +61526,9 @@
         <v>121</v>
       </c>
       <c r="E253" s="210"/>
+      <c r="F253" s="188" t="s">
+        <v>2284</v>
+      </c>
       <c r="I253" s="177">
         <v>252</v>
       </c>
@@ -61795,10 +61536,10 @@
         <v>120</v>
       </c>
       <c r="K253" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N253" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="Q253" s="208">
         <v>94.711263579188099</v>
@@ -61806,13 +61547,10 @@
       <c r="U253" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA253" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="254" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="254" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A254" s="221" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="C254" s="218" t="s">
         <v>2869</v>
@@ -61821,13 +61559,13 @@
         <v>121</v>
       </c>
       <c r="E254" s="210"/>
-      <c r="F254" t="s">
-        <v>120</v>
-      </c>
-      <c r="G254" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H254" s="232">
+      <c r="F254" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G254" s="231" t="s">
+        <v>2284</v>
+      </c>
+      <c r="H254" s="231">
         <v>57</v>
       </c>
       <c r="I254" s="177">
@@ -61837,10 +61575,10 @@
         <v>120</v>
       </c>
       <c r="K254" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N254" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="Q254" s="208">
         <v>94.153802172670098</v>
@@ -61854,13 +61592,10 @@
       <c r="Z254">
         <v>1</v>
       </c>
-      <c r="AA254" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="255" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="255" spans="1:26" ht="15" customHeight="1">
       <c r="A255" s="221" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="C255" s="218" t="s">
         <v>2869</v>
@@ -61869,8 +61604,15 @@
         <v>121</v>
       </c>
       <c r="E255" s="210"/>
-      <c r="G255" s="230"/>
-      <c r="H255" s="83"/>
+      <c r="F255" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G255" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H255" s="83">
+        <v>53</v>
+      </c>
       <c r="I255" s="177">
         <v>254</v>
       </c>
@@ -61878,10 +61620,10 @@
         <v>120</v>
       </c>
       <c r="K255" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="N255" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="Q255" s="208">
         <v>93.532018296169198</v>
@@ -61889,13 +61631,10 @@
       <c r="U255" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA255" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="256" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="256" spans="1:26" ht="15" customHeight="1">
       <c r="A256" s="221" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="C256" s="218" t="s">
         <v>2869</v>
@@ -61903,13 +61642,16 @@
       <c r="D256" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E256" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="G256" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H256" s="232">
+      <c r="E256" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F256" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G256" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H256" s="231">
         <v>29</v>
       </c>
       <c r="I256" s="177">
@@ -61919,10 +61661,10 @@
         <v>120</v>
       </c>
       <c r="K256" s="210" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="N256" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="Q256" s="208">
         <v>48.1132075471698</v>
@@ -61933,13 +61675,10 @@
       <c r="Y256">
         <v>2</v>
       </c>
-      <c r="AA256" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="257" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A257" s="221" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="C257" s="218" t="s">
         <v>2869</v>
@@ -61948,11 +61687,11 @@
         <v>121</v>
       </c>
       <c r="E257" s="212"/>
-      <c r="F257" t="s">
-        <v>120</v>
+      <c r="F257" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G257" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H257" s="223">
         <v>53</v>
@@ -61964,10 +61703,10 @@
         <v>120</v>
       </c>
       <c r="K257" s="83" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N257" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="Q257" s="208">
         <v>91.5523156089194</v>
@@ -61981,11 +61720,8 @@
       <c r="Z257">
         <v>1</v>
       </c>
-      <c r="AA257" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="258" spans="1:26" ht="15" customHeight="1">
       <c r="A258" s="221" t="s">
         <v>2871</v>
       </c>
@@ -61995,10 +61731,10 @@
       <c r="D258" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E258" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="F258" t="s">
+      <c r="E258" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F258" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G258" s="177" t="s">
@@ -62014,7 +61750,7 @@
         <v>120</v>
       </c>
       <c r="K258" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="N258" t="s">
         <v>2872</v>
@@ -62028,13 +61764,10 @@
       <c r="Y258">
         <v>2</v>
       </c>
-      <c r="AA258" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="259" spans="1:26" ht="15" customHeight="1">
       <c r="A259" s="221" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C259" s="218" t="s">
         <v>2869</v>
@@ -62042,10 +61775,10 @@
       <c r="D259" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E259" s="227" t="s">
-        <v>120</v>
-      </c>
-      <c r="F259" s="210" t="s">
+      <c r="E259" s="226" t="s">
+        <v>120</v>
+      </c>
+      <c r="F259" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G259" s="177" t="s">
@@ -62061,10 +61794,10 @@
         <v>120</v>
       </c>
       <c r="K259" s="210" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="N259" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="Q259" s="208">
         <v>45.890508862207</v>
@@ -62075,13 +61808,10 @@
       <c r="Y259">
         <v>2</v>
       </c>
-      <c r="AA259" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="260" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="223" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C260" s="222" t="s">
         <v>2869</v>
@@ -62090,10 +61820,10 @@
         <v>121</v>
       </c>
       <c r="E260" s="212"/>
-      <c r="F260" s="210" t="s">
+      <c r="F260" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="G260" s="235"/>
+      <c r="G260" s="234"/>
       <c r="H260" s="212"/>
       <c r="I260" s="177">
         <v>259</v>
@@ -62102,10 +61832,10 @@
         <v>2284</v>
       </c>
       <c r="K260" s="210" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="N260" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="Q260" s="208">
         <v>53.7449971412236</v>
@@ -62113,13 +61843,10 @@
       <c r="U260" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA260" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="261" spans="1:26" ht="15" customHeight="1">
       <c r="A261" s="221" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C261" s="218" t="s">
         <v>2869</v>
@@ -62127,16 +61854,16 @@
       <c r="D261" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E261" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="F261" t="s">
-        <v>120</v>
-      </c>
-      <c r="G261" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H261" s="232">
+      <c r="E261" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F261" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G261" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H261" s="231">
         <v>13</v>
       </c>
       <c r="I261" s="177">
@@ -62147,7 +61874,7 @@
       </c>
       <c r="K261" s="83"/>
       <c r="N261" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="Q261" s="208">
         <v>27.394225271583799</v>
@@ -62158,13 +61885,10 @@
       <c r="Y261">
         <v>2</v>
       </c>
-      <c r="AA261" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="262" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="262" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="221" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C262" s="218" t="s">
         <v>2869</v>
@@ -62172,13 +61896,13 @@
       <c r="D262" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E262" s="227" t="s">
-        <v>120</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="E262" s="226" t="s">
+        <v>120</v>
+      </c>
+      <c r="F262" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="G262" s="230"/>
+      <c r="G262" s="229"/>
       <c r="H262" s="83"/>
       <c r="I262" s="177">
         <v>261</v>
@@ -62187,10 +61911,10 @@
         <v>2284</v>
       </c>
       <c r="K262" s="210" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="N262" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="Q262" s="208">
         <v>18.138936535162902</v>
@@ -62198,13 +61922,10 @@
       <c r="U262" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA262" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="263" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="263" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="221" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C263" s="218" t="s">
         <v>2869</v>
@@ -62212,10 +61933,10 @@
       <c r="D263" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E263" s="227" t="s">
-        <v>120</v>
-      </c>
-      <c r="F263" t="s">
+      <c r="E263" s="226" t="s">
+        <v>120</v>
+      </c>
+      <c r="F263" s="188" t="s">
         <v>2284</v>
       </c>
       <c r="I263" s="177">
@@ -62225,10 +61946,10 @@
         <v>2284</v>
       </c>
       <c r="K263" s="212" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="N263" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="Q263" s="208">
         <v>7.3256146369353896</v>
@@ -62236,13 +61957,10 @@
       <c r="U263" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA263" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="264" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="264" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="221" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C264" s="218" t="s">
         <v>2869</v>
@@ -62251,7 +61969,7 @@
         <v>121</v>
       </c>
       <c r="E264" s="212"/>
-      <c r="F264" t="s">
+      <c r="F264" s="188" t="s">
         <v>2284</v>
       </c>
       <c r="I264" s="177">
@@ -62261,10 +61979,10 @@
         <v>2284</v>
       </c>
       <c r="K264" s="212" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="N264" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="Q264" s="208">
         <v>52.3084619782733</v>
@@ -62272,13 +61990,10 @@
       <c r="U264" s="212" t="s">
         <v>2861</v>
       </c>
-      <c r="AA264" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="265" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="265" spans="1:26" ht="15" customHeight="1">
       <c r="A265" s="221" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C265" s="218" t="s">
         <v>2869</v>
@@ -62287,13 +62002,13 @@
         <v>121</v>
       </c>
       <c r="E265" s="210"/>
-      <c r="F265" t="s">
-        <v>120</v>
-      </c>
-      <c r="G265" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H265" s="232">
+      <c r="F265" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G265" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H265" s="231">
         <v>37</v>
       </c>
       <c r="I265" s="177">
@@ -62304,7 +62019,7 @@
       </c>
       <c r="K265" s="83"/>
       <c r="N265" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="Q265" s="208">
         <v>62.056889651229298</v>
@@ -62315,13 +62030,10 @@
       <c r="Y265">
         <v>2</v>
       </c>
-      <c r="AA265" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="266" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="266" spans="1:26" ht="15" customHeight="1">
       <c r="A266" s="221" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C266" s="218" t="s">
         <v>2869</v>
@@ -62330,7 +62042,7 @@
         <v>121</v>
       </c>
       <c r="E266" s="210"/>
-      <c r="F266" t="s">
+      <c r="F266" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G266" s="177" t="s">
@@ -62346,7 +62058,7 @@
         <v>120</v>
       </c>
       <c r="N266" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="Q266" s="208">
         <v>60.513150371640897</v>
@@ -62357,13 +62069,10 @@
       <c r="Y266">
         <v>2</v>
       </c>
-      <c r="AA266" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="267" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="267" spans="1:26" ht="15" customHeight="1">
       <c r="A267" s="221" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="C267" s="218" t="s">
         <v>2869</v>
@@ -62371,8 +62080,11 @@
       <c r="D267" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E267" s="247" t="s">
-        <v>120</v>
+      <c r="E267" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F267" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G267" s="177" t="s">
         <v>120</v>
@@ -62387,7 +62099,7 @@
         <v>2284</v>
       </c>
       <c r="K267" s="210" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="Q267" s="208">
         <v>41.616638078902199</v>
@@ -62398,13 +62110,10 @@
       <c r="Y267">
         <v>2</v>
       </c>
-      <c r="AA267" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="268" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="268" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="221" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C268" s="218" t="s">
         <v>2869</v>
@@ -62413,11 +62122,11 @@
         <v>121</v>
       </c>
       <c r="E268" s="212"/>
-      <c r="F268" t="s">
-        <v>120</v>
+      <c r="F268" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G268" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H268" s="223">
         <v>51</v>
@@ -62429,7 +62138,7 @@
         <v>120</v>
       </c>
       <c r="K268" s="83" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N268" t="s">
         <v>2822</v>
@@ -62446,13 +62155,10 @@
       <c r="Z268">
         <v>1</v>
       </c>
-      <c r="AA268" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="269" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="269" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A269" s="221" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C269" s="218" t="s">
         <v>2869</v>
@@ -62461,11 +62167,11 @@
         <v>121</v>
       </c>
       <c r="E269" s="210"/>
-      <c r="F269" t="s">
-        <v>120</v>
+      <c r="F269" s="188" t="s">
+        <v>2284</v>
       </c>
       <c r="G269" s="177" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H269" s="223">
         <v>59</v>
@@ -62477,10 +62183,10 @@
         <v>120</v>
       </c>
       <c r="K269" s="210" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="N269" s="210" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="Q269" s="208">
         <v>99.299599771297906</v>
@@ -62494,13 +62200,10 @@
       <c r="Z269">
         <v>1</v>
       </c>
-      <c r="AA269" s="188" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="270" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="270" spans="1:26" ht="15" customHeight="1">
       <c r="A270" s="221" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C270" s="218" t="s">
         <v>2869</v>
@@ -62508,10 +62211,10 @@
       <c r="D270" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="E270" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="F270" t="s">
+      <c r="E270" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="F270" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G270" s="177" t="s">
@@ -62528,7 +62231,7 @@
       </c>
       <c r="K270" s="83"/>
       <c r="N270" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="Q270" s="208">
         <v>33.8979416809605</v>
@@ -62539,11 +62242,8 @@
       <c r="Y270">
         <v>2</v>
       </c>
-      <c r="AA270" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="271" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="271" spans="1:26" ht="15" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2819</v>
       </c>
@@ -62554,7 +62254,7 @@
         <v>121</v>
       </c>
       <c r="E271" s="212"/>
-      <c r="F271" t="s">
+      <c r="F271" s="188" t="s">
         <v>120</v>
       </c>
       <c r="G271" s="177" t="s">
@@ -62570,7 +62270,7 @@
         <v>120</v>
       </c>
       <c r="N271" s="210" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="Q271" s="208">
         <v>78.930817610062903</v>
@@ -62587,13 +62287,10 @@
       <c r="Y271">
         <v>1</v>
       </c>
-      <c r="AA271" s="188" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="272" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="272" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A272" s="221" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="C272" s="218" t="s">
         <v>2869</v>
@@ -62602,12 +62299,12 @@
         <v>121</v>
       </c>
       <c r="E272" s="210"/>
-      <c r="G272" s="230"/>
+      <c r="G272" s="229"/>
       <c r="H272" s="83"/>
       <c r="I272" s="177">
         <v>271</v>
       </c>
-      <c r="J272" s="230"/>
+      <c r="J272" s="229"/>
       <c r="U272" s="212" t="s">
         <v>328</v>
       </c>
@@ -62618,9 +62315,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="15" customHeight="1">
+    <row r="273" spans="1:21" ht="15" customHeight="1">
       <c r="A273" s="221" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="C273" s="218" t="s">
         <v>2869</v>
@@ -62628,13 +62325,10 @@
       <c r="D273" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="F273" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="G273" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="H273" s="232">
+      <c r="G273" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H273" s="231">
         <v>-2</v>
       </c>
       <c r="I273" s="177">
@@ -62647,248 +62341,254 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="15" customHeight="1">
+    <row r="277" spans="1:21" ht="15" customHeight="1">
+      <c r="F277" s="210"/>
       <c r="J277" s="210"/>
       <c r="K277" s="210"/>
-      <c r="AA277" s="210"/>
-    </row>
-    <row r="279" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="279" spans="1:21" ht="15" customHeight="1">
+      <c r="F279" s="210"/>
       <c r="J279" s="210"/>
       <c r="K279" s="210"/>
-      <c r="AA279" s="210"/>
-    </row>
-    <row r="281" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="281" spans="1:21" ht="15" customHeight="1">
+      <c r="F281" s="210"/>
       <c r="J281" s="210"/>
       <c r="K281" s="210"/>
-      <c r="AA281" s="210"/>
-    </row>
-    <row r="282" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="282" spans="1:21" ht="15" customHeight="1">
+      <c r="F282" s="210"/>
       <c r="J282" s="210"/>
       <c r="K282" s="210"/>
-      <c r="AA282" s="210"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z273" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
+  <autoFilter ref="A1:Z273" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X283">
     <sortCondition ref="I2:I283"/>
   </sortState>
-  <conditionalFormatting sqref="D86:H89 D115:H118 D30:H36 D29 D38:H56 D37 D58:H67 D57 D69:H79 D68 D80 D84:H84 D83 D91:H93 D90 D94 D100 D104 D119 F119:H119 D123:H126 D122 D127:D129 D143:H158 D142 F29:H29 F37:H37 F57:H57 F68:H68 F80:H80 D81:H82 F83:H83 F90:H90 F94:H94 D95:H99 F100:H100 D101:H103 F104:H104 D105:H113 D120:H121 F122:H122 F127:H129 D130:H141 F142:H142 D3:I5 I6:I273 D6:H28">
-    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="D29 D37 D57 D68 D80 D83 D90 D94 D100 D104 D119 D122 D127:D129 D142 I6:I273 D86:E89 D115:E118 D30:E36 D38:E56 D58:E67 D69:E79 D84:E84 D91:E93 D123:E126 D143:E158 D81:E82 F29:H84 D95:E99 D101:E103 F86:H104 D105:H113 D120:E121 D130:E141 F115:H158 D3:I5 D6:H28">
+    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:E85">
-    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D85))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D114))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114:H114">
-    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G114))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161:H161">
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G161))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162:H162">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G162))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:H163">
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="51" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G163))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193">
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:H204">
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213:H213">
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G213))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G216:H216">
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G216))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:H218">
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G218))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227:H227">
-    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G227))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G230:H230">
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G230))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G239:H239">
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G239))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G242:H242">
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G242))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G246:H246">
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G246))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G237:H237">
-    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G237))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249:H249">
-    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G250:H250">
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G250))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G255:H255">
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(G255))))</formula>
+  <conditionalFormatting sqref="H255">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(H255))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G257:H257">
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G257))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G258:H258">
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G258))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:H259">
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G259))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G260:H260">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G260))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G262:H262">
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G262))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G266:H266">
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G266))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G267:H267">
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G267))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G269:H269">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G269))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G268:H268">
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G268))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G270:H270">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G270))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G271:H272">
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G271))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236:H236">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G236))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J272">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J108">
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J158">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K82">
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:K108">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K109:K158">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(K109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L82">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83:L108">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109:L158">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q272">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -62900,17 +62600,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -62922,7 +62622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q273:Q276">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -62933,23 +62633,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA271">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(AA2))))</formula>
+  <conditionalFormatting sqref="F2:F271">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA82:AA107">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(AA82))))</formula>
+  <conditionalFormatting sqref="F82:F107">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(F82))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA108:AA157">
+  <conditionalFormatting sqref="F108:F157">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(F108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G255">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G255))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G256">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G256))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G261">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G261))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G265">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G265))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G273">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(AA108))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G273))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="I3:I273 J3:L158 G114:H114 E143:E158 D3:D158 E3:E28 E30:E36 E38:E56 E58:E67 E69:E79 E81:E82 E84:E89 E91:E93 E95:E99 E101:E103 E105:E113 E115:E118 E120:E121 E123:E126 E130:E141 F86:H113 F115:H158 G161:H163 G193:H193 G203:H204 G213:H213 G216:H216 G218:H218 G227:H227 G230:H230 G239:H239 G242:H242 G246:H246 G236:H237 G249:H250 G255:H255 G257:H260 G262:H262 G266:H272 F3:H84 G1:I1 AA2:AA157" xr:uid="{C25E2909-9A0E-B247-AB1D-C899C2A71044}">
+    <dataValidation type="list" allowBlank="1" sqref="I3:I273 J3:L158 G114:H114 E143:E158 D3:D158 E3:E28 E30:E36 E38:E56 E58:E67 E69:E79 E81:E82 E84:E89 E91:E93 E95:E99 E101:E103 E105:E113 E115:E118 E120:E121 E123:E126 E130:E141 G161:H163 G193:H193 G203:H204 G213:H213 G216:H216 G218:H218 G227:H227 G230:H230 G239:H239 G242:H242 G246:H246 G236:H237 G249:H250 F86:H113 G257:H260 G262:H262 G266:H272 G1:I1 F2:F157 F3:H84 F115:H158 G255:H255 G256 G261 G265 G273" xr:uid="{C25E2909-9A0E-B247-AB1D-C899C2A71044}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B3:B235" xr:uid="{1DAB8B17-2C58-894B-BCE2-974A5C94530B}">
@@ -62975,7 +62700,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="251"/>
+    <col min="1" max="1" width="10.83203125" style="250"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
@@ -62985,1028 +62710,1028 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="251" t="s">
         <v>2801</v>
       </c>
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="252" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1" s="253" t="s">
         <v>3068</v>
       </c>
-      <c r="C1" s="254" t="s">
+      <c r="D1" s="253" t="s">
         <v>3069</v>
       </c>
-      <c r="D1" s="254" t="s">
+      <c r="E1" s="253" t="s">
+        <v>2870</v>
+      </c>
+      <c r="F1" s="80" t="s">
         <v>3070</v>
       </c>
-      <c r="E1" s="254" t="s">
-        <v>2870</v>
-      </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>3071</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="H1" s="80" t="s">
+        <v>3106</v>
+      </c>
+      <c r="I1" s="254" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14">
+      <c r="A2" s="255" t="s">
         <v>3072</v>
       </c>
-      <c r="H1" s="80" t="s">
-        <v>3107</v>
-      </c>
-      <c r="I1" s="255" t="s">
+      <c r="B2" s="252" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C2" s="252" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D2" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E2" s="256" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F2" s="257" t="s">
+        <v>3053</v>
+      </c>
+      <c r="G2" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="257">
+        <v>2</v>
+      </c>
+      <c r="I2" s="257"/>
+      <c r="J2" s="249"/>
+    </row>
+    <row r="3" spans="1:10" ht="14">
+      <c r="A3" s="255" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B3" s="252" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C3" s="252" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D3" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E3" s="256" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F3" s="257" t="s">
+        <v>3052</v>
+      </c>
+      <c r="G3" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="257">
+        <v>10</v>
+      </c>
+      <c r="I3" s="257"/>
+      <c r="J3" s="249"/>
+    </row>
+    <row r="4" spans="1:10" ht="56">
+      <c r="A4" s="255" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B4" s="252" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C4" s="252" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D4" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E4" s="256" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F4" s="257" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G4" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="257">
+        <v>14</v>
+      </c>
+      <c r="I4" s="257" t="s">
         <v>3133</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14">
-      <c r="A2" s="256" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B2" s="253" t="s">
-        <v>2989</v>
-      </c>
-      <c r="C2" s="253" t="s">
+      <c r="J4" s="249"/>
+    </row>
+    <row r="5" spans="1:10" ht="14">
+      <c r="A5" s="255" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B5" s="252" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C5" s="252" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D5" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E5" s="256" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F5" s="257" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G5" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="257">
+        <v>1</v>
+      </c>
+      <c r="I5" s="257"/>
+      <c r="J5" s="249"/>
+    </row>
+    <row r="6" spans="1:10" ht="14">
+      <c r="A6" s="255" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B6" s="252" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C6" s="252" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D6" s="256" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E6" s="256" t="s">
         <v>2942</v>
       </c>
-      <c r="D2" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E2" s="257" t="s">
-        <v>2941</v>
-      </c>
-      <c r="F2" s="258" t="s">
-        <v>3054</v>
-      </c>
-      <c r="G2" s="259" t="s">
+      <c r="F6" s="257" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G6" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="258">
-        <v>2</v>
-      </c>
-      <c r="I2" s="258"/>
-      <c r="J2" s="250"/>
-    </row>
-    <row r="3" spans="1:10" ht="14">
-      <c r="A3" s="256" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B3" s="253" t="s">
-        <v>2990</v>
-      </c>
-      <c r="C3" s="253" t="s">
-        <v>2940</v>
-      </c>
-      <c r="D3" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E3" s="257" t="s">
-        <v>2939</v>
-      </c>
-      <c r="F3" s="258" t="s">
-        <v>3053</v>
-      </c>
-      <c r="G3" s="259" t="s">
+      <c r="H6" s="257">
+        <v>7</v>
+      </c>
+      <c r="I6" s="257"/>
+      <c r="J6" s="249"/>
+    </row>
+    <row r="7" spans="1:10" ht="14">
+      <c r="A7" s="255" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B7" s="252" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C7" s="252" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D7" s="256" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E7" s="256" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F7" s="257" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G7" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="258">
-        <v>10</v>
-      </c>
-      <c r="I3" s="258"/>
-      <c r="J3" s="250"/>
-    </row>
-    <row r="4" spans="1:10" ht="56">
-      <c r="A4" s="256" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B4" s="253" t="s">
-        <v>2991</v>
-      </c>
-      <c r="C4" s="253" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D4" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E4" s="257" t="s">
+      <c r="H7" s="257">
+        <v>3</v>
+      </c>
+      <c r="I7" s="257"/>
+      <c r="J7" s="249"/>
+    </row>
+    <row r="8" spans="1:10" ht="14">
+      <c r="A8" s="255" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B8" s="252" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C8" s="252" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D8" s="256" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E8" s="256" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F8" s="257" t="s">
+        <v>2857</v>
+      </c>
+      <c r="G8" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="257">
+        <v>5</v>
+      </c>
+      <c r="I8" s="257"/>
+      <c r="J8" s="249"/>
+    </row>
+    <row r="9" spans="1:10" ht="14">
+      <c r="A9" s="255" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B9" s="252" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C9" s="252" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D9" s="256" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E9" s="256" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F9" s="257" t="s">
+        <v>2858</v>
+      </c>
+      <c r="G9" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="257">
+        <v>4</v>
+      </c>
+      <c r="I9" s="257"/>
+      <c r="J9" s="249"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" customHeight="1">
+      <c r="A10" s="255" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B10" s="252" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C10" s="252" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D10" s="256" t="s">
+        <v>2954</v>
+      </c>
+      <c r="E10" s="256" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F10" s="257" t="s">
+        <v>2859</v>
+      </c>
+      <c r="G10" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="257">
+        <v>12</v>
+      </c>
+      <c r="I10" s="257"/>
+      <c r="J10" s="249"/>
+    </row>
+    <row r="11" spans="1:10" ht="14">
+      <c r="A11" s="255" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B11" s="252" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D11" s="256" t="s">
+        <v>2956</v>
+      </c>
+      <c r="E11" s="256" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F11" s="257" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G11" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="257">
+        <v>8</v>
+      </c>
+      <c r="I11" s="257"/>
+      <c r="J11" s="249"/>
+    </row>
+    <row r="12" spans="1:10" ht="14">
+      <c r="A12" s="255" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B12" s="252" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="252" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D12" s="256" t="s">
         <v>2935</v>
       </c>
-      <c r="F4" s="258" t="s">
-        <v>2854</v>
-      </c>
-      <c r="G4" s="259" t="s">
+      <c r="E12" s="256" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F12" s="257" t="s">
+        <v>3061</v>
+      </c>
+      <c r="G12" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="257">
+        <v>13</v>
+      </c>
+      <c r="I12" s="257"/>
+      <c r="J12" s="249"/>
+    </row>
+    <row r="13" spans="1:10" ht="14">
+      <c r="A13" s="255" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B13" s="252" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C13" s="252" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D13" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E13" s="256" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F13" s="257" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G13" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="257">
+        <v>11</v>
+      </c>
+      <c r="I13" s="257"/>
+      <c r="J13" s="249"/>
+    </row>
+    <row r="14" spans="1:10" ht="14">
+      <c r="A14" s="255" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B14" s="252" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C14" s="252" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D14" s="256" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E14" s="256" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F14" s="257" t="s">
+        <v>3058</v>
+      </c>
+      <c r="G14" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="257">
+        <v>6</v>
+      </c>
+      <c r="I14" s="257"/>
+      <c r="J14" s="249"/>
+    </row>
+    <row r="15" spans="1:10" ht="14">
+      <c r="A15" s="255" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B15" s="252" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C15" s="252" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D15" s="256" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E15" s="256" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F15" s="257" t="s">
+        <v>3060</v>
+      </c>
+      <c r="G15" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="257">
+        <v>9</v>
+      </c>
+      <c r="I15" s="257"/>
+      <c r="J15" s="249"/>
+    </row>
+    <row r="16" spans="1:10" ht="14">
+      <c r="A16" s="259" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B16" s="252" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C16" s="252" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D16" s="252" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E16" s="252" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F16" s="257" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G16" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="257">
+        <v>16</v>
+      </c>
+      <c r="I16" s="257"/>
+      <c r="J16" s="249"/>
+    </row>
+    <row r="17" spans="1:10" ht="70">
+      <c r="A17" s="255" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B17" s="252" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C17" s="252" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D17" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E17" s="256" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F17" s="257" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G17" s="258" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="258">
-        <v>14</v>
-      </c>
-      <c r="I4" s="258" t="s">
+      <c r="H17" s="257">
+        <v>15</v>
+      </c>
+      <c r="I17" s="257" t="s">
         <v>3134</v>
       </c>
-      <c r="J4" s="250"/>
-    </row>
-    <row r="5" spans="1:10" ht="14">
-      <c r="A5" s="256" t="s">
-        <v>3076</v>
-      </c>
-      <c r="B5" s="253" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C5" s="253" t="s">
-        <v>2938</v>
-      </c>
-      <c r="D5" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E5" s="257" t="s">
-        <v>2937</v>
-      </c>
-      <c r="F5" s="258" t="s">
-        <v>3055</v>
-      </c>
-      <c r="G5" s="259" t="s">
+      <c r="J17" s="249"/>
+    </row>
+    <row r="18" spans="1:10" ht="14">
+      <c r="A18" s="255" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B18" s="252" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C18" s="252" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D18" s="256" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E18" s="256" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F18" s="257" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G18" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="258">
-        <v>1</v>
-      </c>
-      <c r="I5" s="258"/>
-      <c r="J5" s="250"/>
-    </row>
-    <row r="6" spans="1:10" ht="14">
-      <c r="A6" s="256" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B6" s="253" t="s">
-        <v>2994</v>
-      </c>
-      <c r="C6" s="253" t="s">
-        <v>2995</v>
-      </c>
-      <c r="D6" s="257" t="s">
-        <v>2944</v>
-      </c>
-      <c r="E6" s="257" t="s">
-        <v>2943</v>
-      </c>
-      <c r="F6" s="258" t="s">
-        <v>2855</v>
-      </c>
-      <c r="G6" s="259" t="s">
+      <c r="H18" s="257">
+        <v>18</v>
+      </c>
+      <c r="I18" s="257"/>
+      <c r="J18" s="249"/>
+    </row>
+    <row r="19" spans="1:10" ht="182">
+      <c r="A19" s="255" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B19" s="252" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C19" s="252" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D19" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E19" s="256" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F19" s="257" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G19" s="260" t="s">
+        <v>3138</v>
+      </c>
+      <c r="H19" s="257">
+        <v>19</v>
+      </c>
+      <c r="I19" s="261" t="s">
+        <v>3135</v>
+      </c>
+      <c r="J19" s="249"/>
+    </row>
+    <row r="20" spans="1:10" ht="98">
+      <c r="A20" s="255" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B20" s="252" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C20" s="252" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D20" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E20" s="256" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F20" s="257" t="s">
+        <v>3048</v>
+      </c>
+      <c r="G20" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="257">
+        <v>20</v>
+      </c>
+      <c r="I20" s="257" t="s">
+        <v>3136</v>
+      </c>
+      <c r="J20" s="249"/>
+    </row>
+    <row r="21" spans="1:10" ht="126">
+      <c r="A21" s="255" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B21" s="252" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C21" s="252" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D21" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E21" s="256" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F21" s="257" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G21" s="260" t="s">
+        <v>3138</v>
+      </c>
+      <c r="H21" s="257">
+        <v>23</v>
+      </c>
+      <c r="I21" s="261" t="s">
+        <v>3137</v>
+      </c>
+      <c r="J21" s="249"/>
+    </row>
+    <row r="22" spans="1:10" ht="14">
+      <c r="A22" s="255" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B22" s="252" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C22" s="252" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D22" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E22" s="256" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F22" s="257" t="s">
+        <v>3056</v>
+      </c>
+      <c r="G22" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="258">
-        <v>7</v>
-      </c>
-      <c r="I6" s="258"/>
-      <c r="J6" s="250"/>
-    </row>
-    <row r="7" spans="1:10" ht="14">
-      <c r="A7" s="256" t="s">
-        <v>3078</v>
-      </c>
-      <c r="B7" s="253" t="s">
-        <v>2996</v>
-      </c>
-      <c r="C7" s="253" t="s">
-        <v>2946</v>
-      </c>
-      <c r="D7" s="257" t="s">
-        <v>2947</v>
-      </c>
-      <c r="E7" s="257" t="s">
-        <v>2945</v>
-      </c>
-      <c r="F7" s="258" t="s">
-        <v>2856</v>
-      </c>
-      <c r="G7" s="259" t="s">
+      <c r="H22" s="257">
+        <v>22</v>
+      </c>
+      <c r="I22" s="257"/>
+      <c r="J22" s="249"/>
+    </row>
+    <row r="23" spans="1:10" ht="14">
+      <c r="A23" s="255" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B23" s="252" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C23" s="252" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D23" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E23" s="256" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F23" s="257" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G23" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="258">
-        <v>3</v>
-      </c>
-      <c r="I7" s="258"/>
-      <c r="J7" s="250"/>
-    </row>
-    <row r="8" spans="1:10" ht="14">
-      <c r="A8" s="256" t="s">
-        <v>3079</v>
-      </c>
-      <c r="B8" s="253" t="s">
-        <v>2997</v>
-      </c>
-      <c r="C8" s="253" t="s">
-        <v>2949</v>
-      </c>
-      <c r="D8" s="257" t="s">
-        <v>2950</v>
-      </c>
-      <c r="E8" s="257" t="s">
-        <v>2948</v>
-      </c>
-      <c r="F8" s="258" t="s">
-        <v>2857</v>
-      </c>
-      <c r="G8" s="259" t="s">
+      <c r="H23" s="257">
+        <v>25</v>
+      </c>
+      <c r="I23" s="257"/>
+      <c r="J23" s="249"/>
+    </row>
+    <row r="24" spans="1:10" ht="14">
+      <c r="A24" s="255" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B24" s="252" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C24" s="252" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D24" s="256" t="s">
+        <v>2980</v>
+      </c>
+      <c r="E24" s="256" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F24" s="257" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G24" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="258">
-        <v>5</v>
-      </c>
-      <c r="I8" s="258"/>
-      <c r="J8" s="250"/>
-    </row>
-    <row r="9" spans="1:10" ht="14">
-      <c r="A9" s="256" t="s">
-        <v>3080</v>
-      </c>
-      <c r="B9" s="253" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C9" s="253" t="s">
-        <v>2952</v>
-      </c>
-      <c r="D9" s="257" t="s">
-        <v>2950</v>
-      </c>
-      <c r="E9" s="257" t="s">
-        <v>2951</v>
-      </c>
-      <c r="F9" s="258" t="s">
-        <v>2858</v>
-      </c>
-      <c r="G9" s="259" t="s">
+      <c r="H24" s="257">
+        <v>21</v>
+      </c>
+      <c r="I24" s="257"/>
+      <c r="J24" s="249"/>
+    </row>
+    <row r="25" spans="1:10" ht="14">
+      <c r="A25" s="255" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B25" s="252"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="256" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E25" s="256" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F25" s="257" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G25" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="258">
-        <v>4</v>
-      </c>
-      <c r="I9" s="258"/>
-      <c r="J9" s="250"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" customHeight="1">
-      <c r="A10" s="256" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B10" s="253" t="s">
-        <v>2999</v>
-      </c>
-      <c r="C10" s="253" t="s">
-        <v>2954</v>
-      </c>
-      <c r="D10" s="257" t="s">
-        <v>2955</v>
-      </c>
-      <c r="E10" s="257" t="s">
-        <v>2953</v>
-      </c>
-      <c r="F10" s="258" t="s">
-        <v>2859</v>
-      </c>
-      <c r="G10" s="259" t="s">
+      <c r="H25" s="257">
+        <v>17</v>
+      </c>
+      <c r="I25" s="257"/>
+      <c r="J25" s="249"/>
+    </row>
+    <row r="26" spans="1:10" ht="14">
+      <c r="A26" s="262"/>
+      <c r="B26" s="252" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C26" s="252" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D26" s="256" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E26" s="256" t="s">
+        <v>2965</v>
+      </c>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="263"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="249"/>
+    </row>
+    <row r="27" spans="1:10" ht="14">
+      <c r="A27" s="264"/>
+      <c r="B27" s="252" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C27" s="252" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D27" s="256" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E27" s="265" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="249"/>
+    </row>
+    <row r="28" spans="1:10" ht="14">
+      <c r="A28" s="262"/>
+      <c r="B28" s="252" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C28" s="252" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D28" s="256" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E28" s="256" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="263"/>
+      <c r="I28" s="263"/>
+      <c r="J28" s="249"/>
+    </row>
+    <row r="29" spans="1:10" ht="14">
+      <c r="A29" s="262"/>
+      <c r="B29" s="252" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C29" s="252" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D29" s="256" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E29" s="256" t="s">
+        <v>3023</v>
+      </c>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="263"/>
+      <c r="I29" s="263"/>
+      <c r="J29" s="249"/>
+    </row>
+    <row r="30" spans="1:10" ht="14">
+      <c r="A30" s="262"/>
+      <c r="B30" s="252" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C30" s="252" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D30" s="256" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E30" s="256" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="263"/>
+      <c r="I30" s="263"/>
+      <c r="J30" s="249"/>
+    </row>
+    <row r="31" spans="1:10" ht="14">
+      <c r="A31" s="262"/>
+      <c r="B31" s="252" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C31" s="252" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D31" s="256" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E31" s="256" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="263"/>
+      <c r="I31" s="263"/>
+      <c r="J31" s="249"/>
+    </row>
+    <row r="32" spans="1:10" ht="14">
+      <c r="A32" s="262"/>
+      <c r="B32" s="252" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C32" s="252" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D32" s="256" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E32" s="256" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F32" s="263"/>
+      <c r="G32" s="263"/>
+      <c r="H32" s="263"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="249"/>
+    </row>
+    <row r="33" spans="1:10" ht="14">
+      <c r="A33" s="255" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B33" s="252" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C33" s="252" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D33" s="256" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E33" s="256" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F33" s="257" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G33" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="258">
-        <v>12</v>
-      </c>
-      <c r="I10" s="258"/>
-      <c r="J10" s="250"/>
-    </row>
-    <row r="11" spans="1:10" ht="14">
-      <c r="A11" s="256" t="s">
-        <v>3082</v>
-      </c>
-      <c r="B11" s="253" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C11" s="253" t="s">
-        <v>2995</v>
-      </c>
-      <c r="D11" s="257" t="s">
-        <v>2957</v>
-      </c>
-      <c r="E11" s="257" t="s">
-        <v>2956</v>
-      </c>
-      <c r="F11" s="258" t="s">
-        <v>2860</v>
-      </c>
-      <c r="G11" s="259" t="s">
+      <c r="H33" s="257">
+        <v>26</v>
+      </c>
+      <c r="I33" s="257"/>
+      <c r="J33" s="249"/>
+    </row>
+    <row r="34" spans="1:10" ht="14">
+      <c r="A34" s="255" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B34" s="252" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C34" s="252" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D34" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E34" s="256" t="s">
+        <v>3037</v>
+      </c>
+      <c r="F34" s="257" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G34" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="258">
-        <v>8</v>
-      </c>
-      <c r="I11" s="258"/>
-      <c r="J11" s="250"/>
-    </row>
-    <row r="12" spans="1:10" ht="14">
-      <c r="A12" s="256" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B12" s="253" t="s">
-        <v>3001</v>
-      </c>
-      <c r="C12" s="253" t="s">
-        <v>3002</v>
-      </c>
-      <c r="D12" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E12" s="257" t="s">
-        <v>2971</v>
-      </c>
-      <c r="F12" s="258" t="s">
+      <c r="H34" s="257">
+        <v>27</v>
+      </c>
+      <c r="I34" s="257"/>
+      <c r="J34" s="249"/>
+    </row>
+    <row r="35" spans="1:10" ht="14">
+      <c r="A35" s="266" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B35" s="252" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C35" s="252" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D35" s="256" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E35" s="265" t="s">
+        <v>3041</v>
+      </c>
+      <c r="F35" s="257" t="s">
         <v>3062</v>
       </c>
-      <c r="G12" s="259" t="s">
+      <c r="G35" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="258">
-        <v>13</v>
-      </c>
-      <c r="I12" s="258"/>
-      <c r="J12" s="250"/>
-    </row>
-    <row r="13" spans="1:10" ht="14">
-      <c r="A13" s="256" t="s">
-        <v>3084</v>
-      </c>
-      <c r="B13" s="253" t="s">
-        <v>3003</v>
-      </c>
-      <c r="C13" s="253" t="s">
-        <v>2959</v>
-      </c>
-      <c r="D13" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E13" s="257" t="s">
-        <v>2958</v>
-      </c>
-      <c r="F13" s="258" t="s">
-        <v>3056</v>
-      </c>
-      <c r="G13" s="259" t="s">
+      <c r="H35" s="257">
+        <v>24</v>
+      </c>
+      <c r="I35" s="257"/>
+      <c r="J35" s="249"/>
+    </row>
+    <row r="36" spans="1:10" ht="14">
+      <c r="A36" s="266" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B36" s="252" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C36" s="252" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D36" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E36" s="265" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F36" s="257" t="s">
+        <v>3049</v>
+      </c>
+      <c r="G36" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="258">
-        <v>11</v>
-      </c>
-      <c r="I13" s="258"/>
-      <c r="J13" s="250"/>
-    </row>
-    <row r="14" spans="1:10" ht="14">
-      <c r="A14" s="256" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B14" s="253" t="s">
-        <v>3004</v>
-      </c>
-      <c r="C14" s="253" t="s">
-        <v>3005</v>
-      </c>
-      <c r="D14" s="257" t="s">
-        <v>2944</v>
-      </c>
-      <c r="E14" s="257" t="s">
-        <v>2972</v>
-      </c>
-      <c r="F14" s="258" t="s">
-        <v>3059</v>
-      </c>
-      <c r="G14" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="258">
-        <v>6</v>
-      </c>
-      <c r="I14" s="258"/>
-      <c r="J14" s="250"/>
-    </row>
-    <row r="15" spans="1:10" ht="14">
-      <c r="A15" s="256" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B15" s="253" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C15" s="253" t="s">
-        <v>2961</v>
-      </c>
-      <c r="D15" s="257" t="s">
-        <v>2962</v>
-      </c>
-      <c r="E15" s="257" t="s">
-        <v>2960</v>
-      </c>
-      <c r="F15" s="258" t="s">
-        <v>3061</v>
-      </c>
-      <c r="G15" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="258">
-        <v>9</v>
-      </c>
-      <c r="I15" s="258"/>
-      <c r="J15" s="250"/>
-    </row>
-    <row r="16" spans="1:10" ht="14">
-      <c r="A16" s="260" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B16" s="253" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C16" s="253" t="s">
-        <v>2964</v>
-      </c>
-      <c r="D16" s="253" t="s">
-        <v>2965</v>
-      </c>
-      <c r="E16" s="253" t="s">
-        <v>2963</v>
-      </c>
-      <c r="F16" s="258" t="s">
-        <v>3064</v>
-      </c>
-      <c r="G16" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="258">
-        <v>16</v>
-      </c>
-      <c r="I16" s="258"/>
-      <c r="J16" s="250"/>
-    </row>
-    <row r="17" spans="1:10" ht="70">
-      <c r="A17" s="256" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B17" s="253" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C17" s="253" t="s">
-        <v>2970</v>
-      </c>
-      <c r="D17" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E17" s="257" t="s">
-        <v>2969</v>
-      </c>
-      <c r="F17" s="258" t="s">
-        <v>3047</v>
-      </c>
-      <c r="G17" s="259" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="258">
-        <v>15</v>
-      </c>
-      <c r="I17" s="258" t="s">
-        <v>3135</v>
-      </c>
-      <c r="J17" s="250"/>
-    </row>
-    <row r="18" spans="1:10" ht="14">
-      <c r="A18" s="256" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B18" s="253" t="s">
-        <v>3009</v>
-      </c>
-      <c r="C18" s="253" t="s">
-        <v>2979</v>
-      </c>
-      <c r="D18" s="257" t="s">
-        <v>2944</v>
-      </c>
-      <c r="E18" s="257" t="s">
-        <v>2978</v>
-      </c>
-      <c r="F18" s="258" t="s">
-        <v>3060</v>
-      </c>
-      <c r="G18" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="258">
-        <v>18</v>
-      </c>
-      <c r="I18" s="258"/>
-      <c r="J18" s="250"/>
-    </row>
-    <row r="19" spans="1:10" ht="154">
-      <c r="A19" s="256" t="s">
-        <v>3090</v>
-      </c>
-      <c r="B19" s="253" t="s">
-        <v>3010</v>
-      </c>
-      <c r="C19" s="253" t="s">
-        <v>2974</v>
-      </c>
-      <c r="D19" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E19" s="257" t="s">
-        <v>2973</v>
-      </c>
-      <c r="F19" s="258" t="s">
-        <v>3048</v>
-      </c>
-      <c r="G19" s="261" t="s">
-        <v>3139</v>
-      </c>
-      <c r="H19" s="258">
-        <v>19</v>
-      </c>
-      <c r="I19" s="262" t="s">
-        <v>3136</v>
-      </c>
-      <c r="J19" s="250"/>
-    </row>
-    <row r="20" spans="1:10" ht="98">
-      <c r="A20" s="256" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B20" s="253" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C20" s="253" t="s">
-        <v>2976</v>
-      </c>
-      <c r="D20" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E20" s="257" t="s">
-        <v>2975</v>
-      </c>
-      <c r="F20" s="258" t="s">
-        <v>3049</v>
-      </c>
-      <c r="G20" s="259" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="258">
-        <v>20</v>
-      </c>
-      <c r="I20" s="258" t="s">
-        <v>3137</v>
-      </c>
-      <c r="J20" s="250"/>
-    </row>
-    <row r="21" spans="1:10" ht="126">
-      <c r="A21" s="256" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B21" s="253" t="s">
-        <v>3012</v>
-      </c>
-      <c r="C21" s="253" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D21" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E21" s="257" t="s">
-        <v>2984</v>
-      </c>
-      <c r="F21" s="258" t="s">
-        <v>3051</v>
-      </c>
-      <c r="G21" s="261" t="s">
-        <v>3139</v>
-      </c>
-      <c r="H21" s="258">
-        <v>23</v>
-      </c>
-      <c r="I21" s="262" t="s">
-        <v>3138</v>
-      </c>
-      <c r="J21" s="250"/>
-    </row>
-    <row r="22" spans="1:10" ht="14">
-      <c r="A22" s="256" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B22" s="253" t="s">
-        <v>3013</v>
-      </c>
-      <c r="C22" s="253" t="s">
-        <v>2983</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E22" s="257" t="s">
-        <v>2982</v>
-      </c>
-      <c r="F22" s="258" t="s">
-        <v>3057</v>
-      </c>
-      <c r="G22" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="258">
-        <v>22</v>
-      </c>
-      <c r="I22" s="258"/>
-      <c r="J22" s="250"/>
-    </row>
-    <row r="23" spans="1:10" ht="14">
-      <c r="A23" s="256" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B23" s="253" t="s">
-        <v>3014</v>
-      </c>
-      <c r="C23" s="253" t="s">
-        <v>2987</v>
-      </c>
-      <c r="D23" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E23" s="257" t="s">
-        <v>2986</v>
-      </c>
-      <c r="F23" s="258" t="s">
-        <v>3058</v>
-      </c>
-      <c r="G23" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="258">
-        <v>25</v>
-      </c>
-      <c r="I23" s="258"/>
-      <c r="J23" s="250"/>
-    </row>
-    <row r="24" spans="1:10" ht="14">
-      <c r="A24" s="256" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B24" s="253" t="s">
-        <v>3015</v>
-      </c>
-      <c r="C24" s="253" t="s">
-        <v>3016</v>
-      </c>
-      <c r="D24" s="257" t="s">
-        <v>2981</v>
-      </c>
-      <c r="E24" s="257" t="s">
-        <v>2980</v>
-      </c>
-      <c r="F24" s="258" t="s">
-        <v>3066</v>
-      </c>
-      <c r="G24" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="258">
-        <v>21</v>
-      </c>
-      <c r="I24" s="258"/>
-      <c r="J24" s="250"/>
-    </row>
-    <row r="25" spans="1:10" ht="14">
-      <c r="A25" s="256" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="257" t="s">
-        <v>2977</v>
-      </c>
-      <c r="E25" s="257" t="s">
-        <v>3046</v>
-      </c>
-      <c r="F25" s="258" t="s">
-        <v>3067</v>
-      </c>
-      <c r="G25" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="258">
-        <v>17</v>
-      </c>
-      <c r="I25" s="258"/>
-      <c r="J25" s="250"/>
-    </row>
-    <row r="26" spans="1:10" ht="14">
-      <c r="A26" s="263"/>
-      <c r="B26" s="253" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C26" s="253" t="s">
-        <v>2967</v>
-      </c>
-      <c r="D26" s="257" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E26" s="257" t="s">
-        <v>2966</v>
-      </c>
-      <c r="F26" s="264"/>
-      <c r="G26" s="264"/>
-      <c r="H26" s="264"/>
-      <c r="I26" s="264"/>
-      <c r="J26" s="250"/>
-    </row>
-    <row r="27" spans="1:10" ht="14">
-      <c r="A27" s="265"/>
-      <c r="B27" s="253" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C27" s="253" t="s">
-        <v>3019</v>
-      </c>
-      <c r="D27" s="257" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E27" s="266" t="s">
-        <v>3020</v>
-      </c>
-      <c r="F27" s="264"/>
-      <c r="G27" s="264"/>
-      <c r="H27" s="264"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="250"/>
-    </row>
-    <row r="28" spans="1:10" ht="14">
-      <c r="A28" s="263"/>
-      <c r="B28" s="253" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C28" s="253" t="s">
-        <v>3021</v>
-      </c>
-      <c r="D28" s="257" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E28" s="257" t="s">
-        <v>3022</v>
-      </c>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="264"/>
-      <c r="J28" s="250"/>
-    </row>
-    <row r="29" spans="1:10" ht="14">
-      <c r="A29" s="263"/>
-      <c r="B29" s="253" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C29" s="253" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D29" s="257" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E29" s="257" t="s">
-        <v>3024</v>
-      </c>
-      <c r="F29" s="264"/>
-      <c r="G29" s="264"/>
-      <c r="H29" s="264"/>
-      <c r="I29" s="264"/>
-      <c r="J29" s="250"/>
-    </row>
-    <row r="30" spans="1:10" ht="14">
-      <c r="A30" s="263"/>
-      <c r="B30" s="253" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C30" s="253" t="s">
-        <v>3025</v>
-      </c>
-      <c r="D30" s="257" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E30" s="257" t="s">
-        <v>3026</v>
-      </c>
-      <c r="F30" s="264"/>
-      <c r="G30" s="264"/>
-      <c r="H30" s="264"/>
-      <c r="I30" s="264"/>
-      <c r="J30" s="250"/>
-    </row>
-    <row r="31" spans="1:10" ht="14">
-      <c r="A31" s="263"/>
-      <c r="B31" s="253" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C31" s="253" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D31" s="257" t="s">
-        <v>2968</v>
-      </c>
-      <c r="E31" s="257" t="s">
-        <v>3028</v>
-      </c>
-      <c r="F31" s="264"/>
-      <c r="G31" s="264"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="264"/>
-      <c r="J31" s="250"/>
-    </row>
-    <row r="32" spans="1:10" ht="14">
-      <c r="A32" s="263"/>
-      <c r="B32" s="253" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C32" s="253" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D32" s="257" t="s">
-        <v>3030</v>
-      </c>
-      <c r="E32" s="257" t="s">
-        <v>3031</v>
-      </c>
-      <c r="F32" s="264"/>
-      <c r="G32" s="264"/>
-      <c r="H32" s="264"/>
-      <c r="I32" s="264"/>
-      <c r="J32" s="250"/>
-    </row>
-    <row r="33" spans="1:10" ht="14">
-      <c r="A33" s="256" t="s">
-        <v>3097</v>
-      </c>
-      <c r="B33" s="253" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C33" s="253" t="s">
-        <v>3033</v>
-      </c>
-      <c r="D33" s="257" t="s">
-        <v>3034</v>
-      </c>
-      <c r="E33" s="257" t="s">
-        <v>3035</v>
-      </c>
-      <c r="F33" s="258" t="s">
-        <v>3065</v>
-      </c>
-      <c r="G33" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="258">
-        <v>26</v>
-      </c>
-      <c r="I33" s="258"/>
-      <c r="J33" s="250"/>
-    </row>
-    <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="256" t="s">
-        <v>3098</v>
-      </c>
-      <c r="B34" s="253" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C34" s="253" t="s">
-        <v>3037</v>
-      </c>
-      <c r="D34" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E34" s="257" t="s">
-        <v>3038</v>
-      </c>
-      <c r="F34" s="258" t="s">
-        <v>3052</v>
-      </c>
-      <c r="G34" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="258">
-        <v>27</v>
-      </c>
-      <c r="I34" s="258"/>
-      <c r="J34" s="250"/>
-    </row>
-    <row r="35" spans="1:10" ht="14">
-      <c r="A35" s="267" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B35" s="253" t="s">
-        <v>3039</v>
-      </c>
-      <c r="C35" s="253" t="s">
-        <v>3040</v>
-      </c>
-      <c r="D35" s="257" t="s">
-        <v>3041</v>
-      </c>
-      <c r="E35" s="266" t="s">
-        <v>3042</v>
-      </c>
-      <c r="F35" s="258" t="s">
-        <v>3063</v>
-      </c>
-      <c r="G35" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="258">
-        <v>24</v>
-      </c>
-      <c r="I35" s="258"/>
-      <c r="J35" s="250"/>
-    </row>
-    <row r="36" spans="1:10" ht="14">
-      <c r="A36" s="267" t="s">
-        <v>3100</v>
-      </c>
-      <c r="B36" s="253" t="s">
-        <v>3043</v>
-      </c>
-      <c r="C36" s="253" t="s">
-        <v>3044</v>
-      </c>
-      <c r="D36" s="257" t="s">
-        <v>2936</v>
-      </c>
-      <c r="E36" s="266" t="s">
-        <v>3045</v>
-      </c>
-      <c r="F36" s="258" t="s">
-        <v>3050</v>
-      </c>
-      <c r="G36" s="259" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="258">
+      <c r="H36" s="257">
         <v>28</v>
       </c>
-      <c r="I36" s="258"/>
-      <c r="J36" s="250"/>
+      <c r="I36" s="257"/>
+      <c r="J36" s="249"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="J37" s="250"/>
+      <c r="J37" s="249"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="J38" s="250"/>
+      <c r="J38" s="249"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="J39" s="250"/>
+      <c r="J39" s="249"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="J40" s="250"/>
+      <c r="J40" s="249"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="J41" s="250"/>
+      <c r="J41" s="249"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="J42" s="250"/>
+      <c r="J42" s="249"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="J43" s="250"/>
+      <c r="J43" s="249"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="J44" s="250"/>
+      <c r="J44" s="249"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="J45" s="250"/>
+      <c r="J45" s="249"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="J46" s="250"/>
+      <c r="J46" s="249"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="J47" s="250"/>
+      <c r="J47" s="249"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="J48" s="250"/>
+      <c r="J48" s="249"/>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="250"/>
+      <c r="J49" s="249"/>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="250"/>
+      <c r="J50" s="249"/>
     </row>
     <row r="51" spans="10:10">
-      <c r="J51" s="250"/>
+      <c r="J51" s="249"/>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="250"/>
+      <c r="J52" s="249"/>
     </row>
     <row r="53" spans="10:10">
-      <c r="J53" s="250"/>
+      <c r="J53" s="249"/>
     </row>
     <row r="54" spans="10:10">
-      <c r="J54" s="250"/>
+      <c r="J54" s="249"/>
     </row>
     <row r="55" spans="10:10">
-      <c r="J55" s="250"/>
+      <c r="J55" s="249"/>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="250"/>
+      <c r="J56" s="249"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R67" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}"/>
   <conditionalFormatting sqref="G2:G25 G33:G36">
-    <cfRule type="containsBlanks" dxfId="3" priority="54">
+    <cfRule type="containsBlanks" dxfId="5" priority="54">
       <formula>LEN(TRIM(#REF!))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD74196-9713-3F4E-8F95-6504DDB275B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7582F7A-3C12-FE48-BE2D-8193C418AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26800" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="26800" windowHeight="15860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -13363,8 +13363,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13403,8 +13403,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -49090,11 +49090,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E275" sqref="E275"/>
+      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -62649,27 +62649,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G255">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G255))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G256">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G256))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G261))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G265">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G265))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G273">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G273))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62694,8 +62694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -62740,775 +62740,807 @@
     </row>
     <row r="2" spans="1:10" ht="14">
       <c r="A2" s="255" t="s">
-        <v>3072</v>
+        <v>3075</v>
       </c>
       <c r="B2" s="252" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="C2" s="252" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="D2" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E2" s="256" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="F2" s="257" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="G2" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H2" s="257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="257"/>
       <c r="J2" s="249"/>
     </row>
     <row r="3" spans="1:10" ht="14">
       <c r="A3" s="255" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B3" s="252" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="C3" s="252" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="D3" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E3" s="256" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="F3" s="257" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="G3" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H3" s="257">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I3" s="257"/>
       <c r="J3" s="249"/>
     </row>
-    <row r="4" spans="1:10" ht="56">
+    <row r="4" spans="1:10" ht="14">
       <c r="A4" s="255" t="s">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="B4" s="252" t="s">
-        <v>2990</v>
+        <v>2995</v>
       </c>
       <c r="C4" s="252" t="s">
-        <v>2991</v>
+        <v>2945</v>
       </c>
       <c r="D4" s="256" t="s">
-        <v>2935</v>
+        <v>2946</v>
       </c>
       <c r="E4" s="256" t="s">
-        <v>2934</v>
+        <v>2944</v>
       </c>
       <c r="F4" s="257" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="G4" s="258" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="H4" s="257">
-        <v>14</v>
-      </c>
-      <c r="I4" s="257" t="s">
-        <v>3133</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="257"/>
       <c r="J4" s="249"/>
     </row>
     <row r="5" spans="1:10" ht="14">
       <c r="A5" s="255" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="B5" s="252" t="s">
-        <v>2992</v>
+        <v>2997</v>
       </c>
       <c r="C5" s="252" t="s">
-        <v>2937</v>
+        <v>2951</v>
       </c>
       <c r="D5" s="256" t="s">
-        <v>2935</v>
+        <v>2949</v>
       </c>
       <c r="E5" s="256" t="s">
-        <v>2936</v>
+        <v>2950</v>
       </c>
       <c r="F5" s="257" t="s">
-        <v>3054</v>
+        <v>2858</v>
       </c>
       <c r="G5" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H5" s="257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="257"/>
       <c r="J5" s="249"/>
     </row>
     <row r="6" spans="1:10" ht="14">
       <c r="A6" s="255" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="B6" s="252" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="C6" s="252" t="s">
-        <v>2994</v>
+        <v>2948</v>
       </c>
       <c r="D6" s="256" t="s">
-        <v>2943</v>
+        <v>2949</v>
       </c>
       <c r="E6" s="256" t="s">
-        <v>2942</v>
+        <v>2947</v>
       </c>
       <c r="F6" s="257" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="G6" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H6" s="257">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="257"/>
       <c r="J6" s="249"/>
     </row>
     <row r="7" spans="1:10" ht="14">
       <c r="A7" s="255" t="s">
-        <v>3077</v>
+        <v>3084</v>
       </c>
       <c r="B7" s="252" t="s">
-        <v>2995</v>
+        <v>3003</v>
       </c>
       <c r="C7" s="252" t="s">
-        <v>2945</v>
+        <v>3004</v>
       </c>
       <c r="D7" s="256" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="E7" s="256" t="s">
-        <v>2944</v>
+        <v>2971</v>
       </c>
       <c r="F7" s="257" t="s">
-        <v>2856</v>
+        <v>3058</v>
       </c>
       <c r="G7" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H7" s="257">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="257"/>
       <c r="J7" s="249"/>
     </row>
     <row r="8" spans="1:10" ht="14">
       <c r="A8" s="255" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="B8" s="252" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="C8" s="252" t="s">
-        <v>2948</v>
+        <v>2994</v>
       </c>
       <c r="D8" s="256" t="s">
-        <v>2949</v>
+        <v>2943</v>
       </c>
       <c r="E8" s="256" t="s">
-        <v>2947</v>
+        <v>2942</v>
       </c>
       <c r="F8" s="257" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="G8" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H8" s="257">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8" s="257"/>
       <c r="J8" s="249"/>
     </row>
     <row r="9" spans="1:10" ht="14">
       <c r="A9" s="255" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="B9" s="252" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="C9" s="252" t="s">
-        <v>2951</v>
+        <v>2994</v>
       </c>
       <c r="D9" s="256" t="s">
-        <v>2949</v>
+        <v>2956</v>
       </c>
       <c r="E9" s="256" t="s">
-        <v>2950</v>
+        <v>2955</v>
       </c>
       <c r="F9" s="257" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="G9" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H9" s="257">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9" s="257"/>
       <c r="J9" s="249"/>
     </row>
     <row r="10" spans="1:10" ht="17" customHeight="1">
       <c r="A10" s="255" t="s">
-        <v>3080</v>
+        <v>3085</v>
       </c>
       <c r="B10" s="252" t="s">
-        <v>2998</v>
+        <v>3005</v>
       </c>
       <c r="C10" s="252" t="s">
-        <v>2953</v>
+        <v>2960</v>
       </c>
       <c r="D10" s="256" t="s">
-        <v>2954</v>
+        <v>2961</v>
       </c>
       <c r="E10" s="256" t="s">
-        <v>2952</v>
+        <v>2959</v>
       </c>
       <c r="F10" s="257" t="s">
-        <v>2859</v>
+        <v>3060</v>
       </c>
       <c r="G10" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H10" s="257">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" s="257"/>
       <c r="J10" s="249"/>
     </row>
     <row r="11" spans="1:10" ht="14">
       <c r="A11" s="255" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="B11" s="252" t="s">
-        <v>2999</v>
+        <v>2989</v>
       </c>
       <c r="C11" s="252" t="s">
-        <v>2994</v>
+        <v>2939</v>
       </c>
       <c r="D11" s="256" t="s">
-        <v>2956</v>
+        <v>2935</v>
       </c>
       <c r="E11" s="256" t="s">
-        <v>2955</v>
+        <v>2938</v>
       </c>
       <c r="F11" s="257" t="s">
-        <v>2860</v>
+        <v>3052</v>
       </c>
       <c r="G11" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H11" s="257">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="257"/>
       <c r="J11" s="249"/>
     </row>
     <row r="12" spans="1:10" ht="14">
       <c r="A12" s="255" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="B12" s="252" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="C12" s="252" t="s">
-        <v>3001</v>
+        <v>2958</v>
       </c>
       <c r="D12" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E12" s="256" t="s">
-        <v>2970</v>
+        <v>2957</v>
       </c>
       <c r="F12" s="257" t="s">
-        <v>3061</v>
+        <v>3055</v>
       </c>
       <c r="G12" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H12" s="257">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="257"/>
       <c r="J12" s="249"/>
     </row>
     <row r="13" spans="1:10" ht="14">
       <c r="A13" s="255" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="B13" s="252" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="C13" s="252" t="s">
-        <v>2958</v>
+        <v>2953</v>
       </c>
       <c r="D13" s="256" t="s">
-        <v>2935</v>
+        <v>2954</v>
       </c>
       <c r="E13" s="256" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
       <c r="F13" s="257" t="s">
-        <v>3055</v>
+        <v>2859</v>
       </c>
       <c r="G13" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H13" s="257">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="257"/>
       <c r="J13" s="249"/>
     </row>
     <row r="14" spans="1:10" ht="14">
       <c r="A14" s="255" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="B14" s="252" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C14" s="252" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D14" s="256" t="s">
-        <v>2943</v>
+        <v>2935</v>
       </c>
       <c r="E14" s="256" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="F14" s="257" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="G14" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H14" s="257">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I14" s="257"/>
       <c r="J14" s="249"/>
     </row>
-    <row r="15" spans="1:10" ht="14">
+    <row r="15" spans="1:10" ht="56">
       <c r="A15" s="255" t="s">
-        <v>3085</v>
+        <v>3074</v>
       </c>
       <c r="B15" s="252" t="s">
-        <v>3005</v>
+        <v>2990</v>
       </c>
       <c r="C15" s="252" t="s">
-        <v>2960</v>
+        <v>2991</v>
       </c>
       <c r="D15" s="256" t="s">
-        <v>2961</v>
+        <v>2935</v>
       </c>
       <c r="E15" s="256" t="s">
-        <v>2959</v>
+        <v>2934</v>
       </c>
       <c r="F15" s="257" t="s">
-        <v>3060</v>
+        <v>2854</v>
       </c>
       <c r="G15" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="257">
+        <v>14</v>
+      </c>
+      <c r="I15" s="257" t="s">
+        <v>3133</v>
+      </c>
+      <c r="J15" s="249"/>
+    </row>
+    <row r="16" spans="1:10" ht="70">
+      <c r="A16" s="255" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B16" s="252" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C16" s="252" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D16" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E16" s="256" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F16" s="257" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G16" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="257">
+        <v>15</v>
+      </c>
+      <c r="I16" s="257" t="s">
+        <v>3134</v>
+      </c>
+      <c r="J16" s="249"/>
+    </row>
+    <row r="17" spans="1:10" ht="14">
+      <c r="A17" s="259" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B17" s="252" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C17" s="252" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D17" s="252" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E17" s="252" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F17" s="257" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G17" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="257">
-        <v>9</v>
-      </c>
-      <c r="I15" s="257"/>
-      <c r="J15" s="249"/>
-    </row>
-    <row r="16" spans="1:10" ht="14">
-      <c r="A16" s="259" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B16" s="252" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C16" s="252" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D16" s="252" t="s">
-        <v>2964</v>
-      </c>
-      <c r="E16" s="252" t="s">
-        <v>2962</v>
-      </c>
-      <c r="F16" s="257" t="s">
-        <v>3063</v>
-      </c>
-      <c r="G16" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="257">
+      <c r="H17" s="257">
         <v>16</v>
       </c>
-      <c r="I16" s="257"/>
-      <c r="J16" s="249"/>
-    </row>
-    <row r="17" spans="1:10" ht="70">
-      <c r="A17" s="255" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B17" s="252" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C17" s="252" t="s">
-        <v>2969</v>
-      </c>
-      <c r="D17" s="256" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E17" s="256" t="s">
-        <v>2968</v>
-      </c>
-      <c r="F17" s="257" t="s">
-        <v>3046</v>
-      </c>
-      <c r="G17" s="258" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="257">
-        <v>15</v>
-      </c>
-      <c r="I17" s="257" t="s">
-        <v>3134</v>
-      </c>
+      <c r="I17" s="257"/>
       <c r="J17" s="249"/>
     </row>
     <row r="18" spans="1:10" ht="14">
       <c r="A18" s="255" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B18" s="252" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C18" s="252" t="s">
-        <v>2978</v>
-      </c>
+        <v>3095</v>
+      </c>
+      <c r="B18" s="252"/>
+      <c r="C18" s="252"/>
       <c r="D18" s="256" t="s">
-        <v>2943</v>
+        <v>2976</v>
       </c>
       <c r="E18" s="256" t="s">
-        <v>2977</v>
+        <v>3045</v>
       </c>
       <c r="F18" s="257" t="s">
-        <v>3059</v>
+        <v>3066</v>
       </c>
       <c r="G18" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H18" s="257">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="257"/>
       <c r="J18" s="249"/>
     </row>
-    <row r="19" spans="1:10" ht="182">
+    <row r="19" spans="1:10" ht="14">
       <c r="A19" s="255" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B19" s="252" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C19" s="252" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D19" s="256" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E19" s="256" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F19" s="257" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G19" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="257">
+        <v>18</v>
+      </c>
+      <c r="I19" s="257"/>
+      <c r="J19" s="249"/>
+    </row>
+    <row r="20" spans="1:10" ht="154">
+      <c r="A20" s="255" t="s">
         <v>3089</v>
       </c>
-      <c r="B19" s="252" t="s">
+      <c r="B20" s="252" t="s">
         <v>3009</v>
       </c>
-      <c r="C19" s="252" t="s">
+      <c r="C20" s="252" t="s">
         <v>2973</v>
-      </c>
-      <c r="D19" s="256" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E19" s="256" t="s">
-        <v>2972</v>
-      </c>
-      <c r="F19" s="257" t="s">
-        <v>3047</v>
-      </c>
-      <c r="G19" s="260" t="s">
-        <v>3138</v>
-      </c>
-      <c r="H19" s="257">
-        <v>19</v>
-      </c>
-      <c r="I19" s="261" t="s">
-        <v>3135</v>
-      </c>
-      <c r="J19" s="249"/>
-    </row>
-    <row r="20" spans="1:10" ht="98">
-      <c r="A20" s="255" t="s">
-        <v>3090</v>
-      </c>
-      <c r="B20" s="252" t="s">
-        <v>3010</v>
-      </c>
-      <c r="C20" s="252" t="s">
-        <v>2975</v>
       </c>
       <c r="D20" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E20" s="256" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="F20" s="257" t="s">
-        <v>3048</v>
-      </c>
-      <c r="G20" s="258" t="s">
-        <v>153</v>
+        <v>3047</v>
+      </c>
+      <c r="G20" s="260" t="s">
+        <v>3138</v>
       </c>
       <c r="H20" s="257">
-        <v>20</v>
-      </c>
-      <c r="I20" s="257" t="s">
-        <v>3136</v>
+        <v>19</v>
+      </c>
+      <c r="I20" s="261" t="s">
+        <v>3135</v>
       </c>
       <c r="J20" s="249"/>
     </row>
-    <row r="21" spans="1:10" ht="126">
+    <row r="21" spans="1:10" ht="98">
       <c r="A21" s="255" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B21" s="252" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C21" s="252" t="s">
-        <v>2984</v>
+        <v>2975</v>
       </c>
       <c r="D21" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E21" s="256" t="s">
-        <v>2983</v>
+        <v>2974</v>
       </c>
       <c r="F21" s="257" t="s">
-        <v>3050</v>
-      </c>
-      <c r="G21" s="260" t="s">
-        <v>3138</v>
+        <v>3048</v>
+      </c>
+      <c r="G21" s="258" t="s">
+        <v>153</v>
       </c>
       <c r="H21" s="257">
-        <v>23</v>
-      </c>
-      <c r="I21" s="261" t="s">
-        <v>3137</v>
+        <v>20</v>
+      </c>
+      <c r="I21" s="257" t="s">
+        <v>3136</v>
       </c>
       <c r="J21" s="249"/>
     </row>
     <row r="22" spans="1:10" ht="14">
       <c r="A22" s="255" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="B22" s="252" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="C22" s="252" t="s">
-        <v>2982</v>
+        <v>3015</v>
       </c>
       <c r="D22" s="256" t="s">
-        <v>2935</v>
+        <v>2980</v>
       </c>
       <c r="E22" s="256" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="F22" s="257" t="s">
-        <v>3056</v>
+        <v>3065</v>
       </c>
       <c r="G22" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H22" s="257">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="257"/>
       <c r="J22" s="249"/>
     </row>
     <row r="23" spans="1:10" ht="14">
       <c r="A23" s="255" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="B23" s="252" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C23" s="252" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="D23" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E23" s="256" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="F23" s="257" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="G23" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H23" s="257">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I23" s="257"/>
       <c r="J23" s="249"/>
     </row>
-    <row r="24" spans="1:10" ht="14">
+    <row r="24" spans="1:10" ht="126">
       <c r="A24" s="255" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="B24" s="252" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="C24" s="252" t="s">
-        <v>3015</v>
+        <v>2984</v>
       </c>
       <c r="D24" s="256" t="s">
-        <v>2980</v>
+        <v>2935</v>
       </c>
       <c r="E24" s="256" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>3065</v>
-      </c>
-      <c r="G24" s="258" t="s">
-        <v>121</v>
+        <v>3050</v>
+      </c>
+      <c r="G24" s="260" t="s">
+        <v>3138</v>
       </c>
       <c r="H24" s="257">
-        <v>21</v>
-      </c>
-      <c r="I24" s="257"/>
+        <v>23</v>
+      </c>
+      <c r="I24" s="261" t="s">
+        <v>3137</v>
+      </c>
       <c r="J24" s="249"/>
     </row>
     <row r="25" spans="1:10" ht="14">
-      <c r="A25" s="255" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B25" s="252"/>
-      <c r="C25" s="252"/>
+      <c r="A25" s="266" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B25" s="252" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C25" s="252" t="s">
+        <v>3039</v>
+      </c>
       <c r="D25" s="256" t="s">
-        <v>2976</v>
-      </c>
-      <c r="E25" s="256" t="s">
-        <v>3045</v>
+        <v>3040</v>
+      </c>
+      <c r="E25" s="265" t="s">
+        <v>3041</v>
       </c>
       <c r="F25" s="257" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="G25" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H25" s="257">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I25" s="257"/>
       <c r="J25" s="249"/>
     </row>
     <row r="26" spans="1:10" ht="14">
-      <c r="A26" s="262"/>
+      <c r="A26" s="255" t="s">
+        <v>3093</v>
+      </c>
       <c r="B26" s="252" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="C26" s="252" t="s">
-        <v>2966</v>
+        <v>2986</v>
       </c>
       <c r="D26" s="256" t="s">
-        <v>2967</v>
+        <v>2935</v>
       </c>
       <c r="E26" s="256" t="s">
-        <v>2965</v>
-      </c>
-      <c r="F26" s="263"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="263"/>
+        <v>2985</v>
+      </c>
+      <c r="F26" s="257" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G26" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="257">
+        <v>25</v>
+      </c>
+      <c r="I26" s="257"/>
       <c r="J26" s="249"/>
     </row>
     <row r="27" spans="1:10" ht="14">
-      <c r="A27" s="264"/>
+      <c r="A27" s="255" t="s">
+        <v>3096</v>
+      </c>
       <c r="B27" s="252" t="s">
-        <v>3017</v>
+        <v>3031</v>
       </c>
       <c r="C27" s="252" t="s">
-        <v>3018</v>
+        <v>3032</v>
       </c>
       <c r="D27" s="256" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E27" s="265" t="s">
-        <v>3019</v>
-      </c>
-      <c r="F27" s="263"/>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
+        <v>3033</v>
+      </c>
+      <c r="E27" s="256" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F27" s="257" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G27" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="257">
+        <v>26</v>
+      </c>
+      <c r="I27" s="257"/>
       <c r="J27" s="249"/>
     </row>
     <row r="28" spans="1:10" ht="14">
-      <c r="A28" s="262"/>
+      <c r="A28" s="255" t="s">
+        <v>3097</v>
+      </c>
       <c r="B28" s="252" t="s">
-        <v>3017</v>
+        <v>3035</v>
       </c>
       <c r="C28" s="252" t="s">
-        <v>3020</v>
+        <v>3036</v>
       </c>
       <c r="D28" s="256" t="s">
-        <v>2967</v>
+        <v>2935</v>
       </c>
       <c r="E28" s="256" t="s">
-        <v>3021</v>
-      </c>
-      <c r="F28" s="263"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="263"/>
-      <c r="I28" s="263"/>
+        <v>3037</v>
+      </c>
+      <c r="F28" s="257" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G28" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="257">
+        <v>27</v>
+      </c>
+      <c r="I28" s="257"/>
       <c r="J28" s="249"/>
     </row>
     <row r="29" spans="1:10" ht="14">
-      <c r="A29" s="262"/>
+      <c r="A29" s="266" t="s">
+        <v>3099</v>
+      </c>
       <c r="B29" s="252" t="s">
-        <v>3017</v>
+        <v>3042</v>
       </c>
       <c r="C29" s="252" t="s">
-        <v>3022</v>
+        <v>3043</v>
       </c>
       <c r="D29" s="256" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E29" s="256" t="s">
-        <v>3023</v>
-      </c>
-      <c r="F29" s="263"/>
-      <c r="G29" s="263"/>
-      <c r="H29" s="263"/>
-      <c r="I29" s="263"/>
+        <v>2935</v>
+      </c>
+      <c r="E29" s="265" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F29" s="257" t="s">
+        <v>3049</v>
+      </c>
+      <c r="G29" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="257">
+        <v>28</v>
+      </c>
+      <c r="I29" s="257"/>
       <c r="J29" s="249"/>
     </row>
     <row r="30" spans="1:10" ht="14">
       <c r="A30" s="262"/>
       <c r="B30" s="252" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C30" s="252" t="s">
-        <v>3024</v>
+        <v>2966</v>
       </c>
       <c r="D30" s="256" t="s">
         <v>2967</v>
       </c>
       <c r="E30" s="256" t="s">
-        <v>3025</v>
+        <v>2965</v>
       </c>
       <c r="F30" s="263"/>
       <c r="G30" s="263"/>
@@ -63517,18 +63549,18 @@
       <c r="J30" s="249"/>
     </row>
     <row r="31" spans="1:10" ht="14">
-      <c r="A31" s="262"/>
+      <c r="A31" s="264"/>
       <c r="B31" s="252" t="s">
         <v>3017</v>
       </c>
       <c r="C31" s="252" t="s">
-        <v>3026</v>
+        <v>3018</v>
       </c>
       <c r="D31" s="256" t="s">
         <v>2967</v>
       </c>
-      <c r="E31" s="256" t="s">
-        <v>3027</v>
+      <c r="E31" s="265" t="s">
+        <v>3019</v>
       </c>
       <c r="F31" s="263"/>
       <c r="G31" s="263"/>
@@ -63539,16 +63571,16 @@
     <row r="32" spans="1:10" ht="14">
       <c r="A32" s="262"/>
       <c r="B32" s="252" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C32" s="252" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="D32" s="256" t="s">
-        <v>3029</v>
+        <v>2967</v>
       </c>
       <c r="E32" s="256" t="s">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="F32" s="263"/>
       <c r="G32" s="263"/>
@@ -63557,115 +63589,83 @@
       <c r="J32" s="249"/>
     </row>
     <row r="33" spans="1:10" ht="14">
-      <c r="A33" s="255" t="s">
-        <v>3096</v>
-      </c>
+      <c r="A33" s="262"/>
       <c r="B33" s="252" t="s">
-        <v>3031</v>
+        <v>3017</v>
       </c>
       <c r="C33" s="252" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="D33" s="256" t="s">
-        <v>3033</v>
+        <v>2967</v>
       </c>
       <c r="E33" s="256" t="s">
-        <v>3034</v>
-      </c>
-      <c r="F33" s="257" t="s">
-        <v>3064</v>
-      </c>
-      <c r="G33" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="257">
-        <v>26</v>
-      </c>
-      <c r="I33" s="257"/>
+        <v>3023</v>
+      </c>
+      <c r="F33" s="263"/>
+      <c r="G33" s="263"/>
+      <c r="H33" s="263"/>
+      <c r="I33" s="263"/>
       <c r="J33" s="249"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="255" t="s">
-        <v>3097</v>
-      </c>
+      <c r="A34" s="262"/>
       <c r="B34" s="252" t="s">
-        <v>3035</v>
+        <v>3017</v>
       </c>
       <c r="C34" s="252" t="s">
-        <v>3036</v>
+        <v>3024</v>
       </c>
       <c r="D34" s="256" t="s">
-        <v>2935</v>
+        <v>2967</v>
       </c>
       <c r="E34" s="256" t="s">
-        <v>3037</v>
-      </c>
-      <c r="F34" s="257" t="s">
-        <v>3051</v>
-      </c>
-      <c r="G34" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="257">
-        <v>27</v>
-      </c>
-      <c r="I34" s="257"/>
+        <v>3025</v>
+      </c>
+      <c r="F34" s="263"/>
+      <c r="G34" s="263"/>
+      <c r="H34" s="263"/>
+      <c r="I34" s="263"/>
       <c r="J34" s="249"/>
     </row>
     <row r="35" spans="1:10" ht="14">
-      <c r="A35" s="266" t="s">
-        <v>3098</v>
-      </c>
+      <c r="A35" s="262"/>
       <c r="B35" s="252" t="s">
-        <v>3038</v>
+        <v>3017</v>
       </c>
       <c r="C35" s="252" t="s">
-        <v>3039</v>
+        <v>3026</v>
       </c>
       <c r="D35" s="256" t="s">
-        <v>3040</v>
-      </c>
-      <c r="E35" s="265" t="s">
-        <v>3041</v>
-      </c>
-      <c r="F35" s="257" t="s">
-        <v>3062</v>
-      </c>
-      <c r="G35" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="257">
-        <v>24</v>
-      </c>
-      <c r="I35" s="257"/>
+        <v>2967</v>
+      </c>
+      <c r="E35" s="256" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F35" s="263"/>
+      <c r="G35" s="263"/>
+      <c r="H35" s="263"/>
+      <c r="I35" s="263"/>
       <c r="J35" s="249"/>
     </row>
     <row r="36" spans="1:10" ht="14">
-      <c r="A36" s="266" t="s">
-        <v>3099</v>
-      </c>
+      <c r="A36" s="262"/>
       <c r="B36" s="252" t="s">
-        <v>3042</v>
+        <v>3016</v>
       </c>
       <c r="C36" s="252" t="s">
-        <v>3043</v>
+        <v>3028</v>
       </c>
       <c r="D36" s="256" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E36" s="265" t="s">
-        <v>3044</v>
-      </c>
-      <c r="F36" s="257" t="s">
-        <v>3049</v>
-      </c>
-      <c r="G36" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="257">
-        <v>28</v>
-      </c>
-      <c r="I36" s="257"/>
+        <v>3029</v>
+      </c>
+      <c r="E36" s="256" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F36" s="263"/>
+      <c r="G36" s="263"/>
+      <c r="H36" s="263"/>
+      <c r="I36" s="263"/>
       <c r="J36" s="249"/>
     </row>
     <row r="37" spans="1:10">
@@ -63730,8 +63730,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R67" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J56">
+    <sortCondition ref="H2:H56"/>
+  </sortState>
   <conditionalFormatting sqref="G2:G25 G33:G36">
-    <cfRule type="containsBlanks" dxfId="5" priority="54">
+    <cfRule type="containsBlanks" dxfId="0" priority="54">
       <formula>LEN(TRIM(#REF!))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7582F7A-3C12-FE48-BE2D-8193C418AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE1FF57-2B36-D745-8F33-331D960339DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="26800" windowHeight="15860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="26800" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49090,11 +49090,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z282"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
+      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -51833,7 +51833,7 @@
         <v>2861</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="15" hidden="1" customHeight="1">
@@ -62694,7 +62694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD74196-9713-3F4E-8F95-6504DDB275B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2A89C-BF37-BB4D-BA1F-FCCB28885FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26800" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30920" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12638,7 +12638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13354,7 +13354,6 @@
     <xf numFmtId="49" fontId="67" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13363,8 +13362,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13403,8 +13402,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15887,7 +15886,7 @@
   <dimension ref="A1:M992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H280" sqref="H280"/>
     </sheetView>
   </sheetViews>
@@ -49087,14 +49086,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E275" sqref="E275"/>
+      <selection pane="bottomRight" activeCell="N245" sqref="N245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49192,7 +49190,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49240,7 +49238,7 @@
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
     </row>
-    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49282,7 +49280,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49324,7 +49322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49363,7 +49361,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49402,7 +49400,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49442,7 +49440,7 @@
       </c>
       <c r="S7" s="210"/>
     </row>
-    <row r="8" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49482,7 +49480,7 @@
       </c>
       <c r="S8" s="210"/>
     </row>
-    <row r="9" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49522,7 +49520,7 @@
       </c>
       <c r="S9" s="210"/>
     </row>
-    <row r="10" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49634,7 +49632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49813,7 +49811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -49861,7 +49859,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -49925,7 +49923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -49968,7 +49966,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -50011,7 +50009,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -50054,7 +50052,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -50156,7 +50154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -50261,7 +50259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -50309,7 +50307,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -50414,7 +50412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:25" ht="15" customHeight="1">
       <c r="A27" s="192" t="s">
         <v>365</v>
       </c>
@@ -50462,7 +50460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:25" ht="15" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -50512,7 +50510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:25" ht="15" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -50555,7 +50553,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:25" ht="15" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -50599,7 +50597,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:25" ht="15" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -50643,7 +50641,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:25" ht="15" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -50686,7 +50684,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:25" ht="15" customHeight="1">
       <c r="A33" s="192" t="s">
         <v>380</v>
       </c>
@@ -50728,7 +50726,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:25" ht="15" customHeight="1">
       <c r="A34" s="192" t="s">
         <v>382</v>
       </c>
@@ -50772,7 +50770,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:25" ht="15" customHeight="1">
       <c r="A35" s="192" t="s">
         <v>385</v>
       </c>
@@ -50871,7 +50869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:25" ht="15" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -50919,7 +50917,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:25" ht="15" customHeight="1">
       <c r="A38" s="203" t="s">
         <v>400</v>
       </c>
@@ -50964,7 +50962,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:25" ht="15" customHeight="1">
       <c r="A39" s="192" t="s">
         <v>403</v>
       </c>
@@ -51006,7 +51004,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:25" ht="15" customHeight="1">
       <c r="A40" s="192" t="s">
         <v>405</v>
       </c>
@@ -51048,7 +51046,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:25" ht="15" customHeight="1">
       <c r="A41" s="192" t="s">
         <v>408</v>
       </c>
@@ -51085,7 +51083,7 @@
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:25" ht="15" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -51133,7 +51131,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:25" ht="15" customHeight="1">
       <c r="A43" s="192" t="s">
         <v>416</v>
       </c>
@@ -51183,7 +51181,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:25" ht="15" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -51231,7 +51229,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:25" ht="15" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -51279,7 +51277,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:25" ht="15" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -51327,7 +51325,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:25" ht="15" customHeight="1">
       <c r="A47" s="192" t="s">
         <v>454</v>
       </c>
@@ -51375,7 +51373,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:25" ht="15" customHeight="1">
       <c r="A48" s="192" t="s">
         <v>457</v>
       </c>
@@ -51417,7 +51415,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:25" ht="15" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2647</v>
       </c>
@@ -51470,7 +51468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:25" ht="15" customHeight="1">
       <c r="A50" s="192" t="s">
         <v>465</v>
       </c>
@@ -51529,7 +51527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:25" ht="15" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -51588,7 +51586,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:25" ht="15" customHeight="1">
       <c r="A52" s="192" t="s">
         <v>469</v>
       </c>
@@ -51640,7 +51638,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:25" ht="15" customHeight="1">
       <c r="A53" s="192" t="s">
         <v>472</v>
       </c>
@@ -51688,7 +51686,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:25" ht="15" customHeight="1">
       <c r="A54" s="203" t="s">
         <v>474</v>
       </c>
@@ -51738,7 +51736,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:25" ht="15" customHeight="1">
       <c r="A55" s="203" t="s">
         <v>478</v>
       </c>
@@ -51836,7 +51834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:25" ht="15" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -51892,7 +51890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:25" ht="15" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -51940,7 +51938,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:25" ht="15" customHeight="1">
       <c r="A59" s="205" t="s">
         <v>490</v>
       </c>
@@ -51990,7 +51988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:25" ht="15" customHeight="1">
       <c r="A60" s="203" t="s">
         <v>493</v>
       </c>
@@ -52038,7 +52036,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:25" ht="15" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -52086,7 +52084,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:25" ht="15" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -52134,7 +52132,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:25" ht="15" customHeight="1">
       <c r="A63" s="192" t="s">
         <v>526</v>
       </c>
@@ -52190,7 +52188,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:25" ht="15" customHeight="1">
       <c r="A64" s="203" t="s">
         <v>530</v>
       </c>
@@ -52238,7 +52236,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:25" ht="15" customHeight="1">
       <c r="A65" s="192" t="s">
         <v>533</v>
       </c>
@@ -52286,7 +52284,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:25" ht="15" customHeight="1">
       <c r="A66" s="203" t="s">
         <v>535</v>
       </c>
@@ -52391,7 +52389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:25" ht="15" customHeight="1">
       <c r="A68" s="203" t="s">
         <v>539</v>
       </c>
@@ -52439,7 +52437,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:25" ht="15" customHeight="1">
       <c r="A69" s="203" t="s">
         <v>542</v>
       </c>
@@ -52481,7 +52479,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:25" ht="15" customHeight="1">
       <c r="A70" s="203" t="s">
         <v>544</v>
       </c>
@@ -52529,7 +52527,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:25" ht="15" customHeight="1">
       <c r="A71" s="203" t="s">
         <v>546</v>
       </c>
@@ -52577,7 +52575,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:25" ht="15" customHeight="1">
       <c r="A72" s="203" t="s">
         <v>548</v>
       </c>
@@ -52625,7 +52623,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:25" ht="15" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -52673,7 +52671,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:25" ht="15" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -52721,7 +52719,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:25" ht="15" customHeight="1">
       <c r="A75" s="203" t="s">
         <v>554</v>
       </c>
@@ -52769,7 +52767,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="76" spans="1:25" ht="15" customHeight="1">
       <c r="A76" s="203" t="s">
         <v>556</v>
       </c>
@@ -52817,7 +52815,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:25" ht="15" customHeight="1">
       <c r="A77" s="203" t="s">
         <v>558</v>
       </c>
@@ -52865,7 +52863,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:25" ht="15" customHeight="1">
       <c r="A78" s="203" t="s">
         <v>560</v>
       </c>
@@ -53033,7 +53031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:26" ht="15" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53158,7 +53156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:26" ht="15" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53206,7 +53204,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:26" ht="15" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53248,7 +53246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:26" ht="15" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53305,7 +53303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:26" ht="15" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -53353,7 +53351,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:26" ht="15" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -53403,7 +53401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:26" ht="15" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -53514,7 +53512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:26" ht="15" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -53568,7 +53566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:26" ht="15" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -53612,7 +53610,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:26" ht="15" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -53729,7 +53727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:26" ht="15" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -53783,7 +53781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:26" ht="15" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -53839,7 +53837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:26" ht="15" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -53889,7 +53887,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:26" ht="15" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -53950,7 +53948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:26" ht="15" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -54065,7 +54063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:26" ht="15" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54178,7 +54176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:26" ht="15" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -54305,7 +54303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:26" ht="15" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -54369,7 +54367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:26" ht="15" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -54430,7 +54428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -54494,7 +54492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:26" ht="15" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -54555,7 +54553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:26" ht="15" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -54603,7 +54601,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:26" ht="15" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -54651,7 +54649,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:26" ht="15" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -54705,7 +54703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:26" ht="15" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -54750,7 +54748,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:26" ht="15" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -54865,7 +54863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:26" ht="15" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -54915,7 +54913,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:26" ht="15" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -54962,7 +54960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:26" ht="15" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -55021,7 +55019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:26" ht="15" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -55068,7 +55066,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:26" ht="15" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -55117,7 +55115,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:26" ht="15" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -55192,7 +55190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:26" ht="15" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -55296,7 +55294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:26" ht="15" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -55355,7 +55353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:26" ht="15" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -55402,7 +55400,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:26" ht="15" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -55449,7 +55447,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:26" ht="15" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -55664,7 +55662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:25" ht="15" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -55717,7 +55715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:25" ht="15" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -55764,7 +55762,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:25" ht="15" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -55817,7 +55815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:25" ht="15" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -55870,7 +55868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:25" ht="15" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -55917,7 +55915,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:25" ht="15" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -55973,7 +55971,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:25" ht="15" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -56026,7 +56024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:25" ht="15" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -56079,7 +56077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:25" ht="15" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -56129,7 +56127,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:25" ht="15" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -56249,7 +56247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:25" ht="15" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -56362,7 +56360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:25" ht="15" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -56408,7 +56406,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:25" ht="15" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -56456,7 +56454,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:25" ht="15" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -56500,7 +56498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:25" ht="15" customHeight="1">
       <c r="A145" s="193" t="s">
         <v>934</v>
       </c>
@@ -56553,7 +56551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:25" ht="15" customHeight="1">
       <c r="A146" s="193" t="s">
         <v>938</v>
       </c>
@@ -56598,7 +56596,7 @@
       </c>
       <c r="U146" s="83"/>
     </row>
-    <row r="147" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:25" ht="15" customHeight="1">
       <c r="A147" s="193" t="s">
         <v>941</v>
       </c>
@@ -56651,7 +56649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:25" ht="15" customHeight="1">
       <c r="A148" s="193" t="s">
         <v>945</v>
       </c>
@@ -56696,7 +56694,7 @@
       </c>
       <c r="U148" s="83"/>
     </row>
-    <row r="149" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:25" ht="15" customHeight="1">
       <c r="A149" s="193" t="s">
         <v>947</v>
       </c>
@@ -56749,7 +56747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:25" ht="15" customHeight="1">
       <c r="A150" s="193" t="s">
         <v>949</v>
       </c>
@@ -56802,7 +56800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:25" ht="15" customHeight="1">
       <c r="A151" s="193" t="s">
         <v>960</v>
       </c>
@@ -56850,7 +56848,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:25" ht="15" customHeight="1">
       <c r="A152" s="193" t="s">
         <v>966</v>
       </c>
@@ -56894,7 +56892,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:25" ht="15" customHeight="1">
       <c r="A153" s="193" t="s">
         <v>969</v>
       </c>
@@ -56947,7 +56945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:25" ht="15" customHeight="1">
       <c r="A154" s="193" t="s">
         <v>973</v>
       </c>
@@ -56992,7 +56990,7 @@
       </c>
       <c r="U154" s="83"/>
     </row>
-    <row r="155" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:25" ht="15" customHeight="1">
       <c r="A155" s="193" t="s">
         <v>976</v>
       </c>
@@ -57045,7 +57043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:25" ht="15" customHeight="1">
       <c r="A156" s="193" t="s">
         <v>980</v>
       </c>
@@ -57090,7 +57088,7 @@
       </c>
       <c r="U156" s="83"/>
     </row>
-    <row r="157" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:25" ht="15" customHeight="1">
       <c r="A157" s="193" t="s">
         <v>983</v>
       </c>
@@ -57143,7 +57141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="158" spans="1:25" ht="15" customHeight="1">
       <c r="A158" s="199" t="s">
         <v>1663</v>
       </c>
@@ -57183,7 +57181,7 @@
       </c>
       <c r="U158" s="83"/>
     </row>
-    <row r="159" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:25" ht="15" customHeight="1">
       <c r="A159" s="199" t="s">
         <v>1660</v>
       </c>
@@ -57276,7 +57274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:26" ht="15" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -57341,7 +57339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:26" ht="15" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -57408,7 +57406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:26" ht="15" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -57452,7 +57450,7 @@
       </c>
       <c r="U163" s="83"/>
     </row>
-    <row r="164" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:26" ht="15" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -57507,7 +57505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:26" ht="15" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -57545,7 +57543,7 @@
       </c>
       <c r="U165" s="83"/>
     </row>
-    <row r="166" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:26" ht="15" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -57582,7 +57580,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:26" ht="15" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -57621,7 +57619,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:26" ht="15" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -57658,7 +57656,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:26" ht="15" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -57695,7 +57693,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:26" ht="15" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -57732,7 +57730,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:26" ht="15" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -57775,7 +57773,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:26" ht="15" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -57821,7 +57819,7 @@
       </c>
       <c r="U172" s="210"/>
     </row>
-    <row r="173" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:26" ht="15" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -57870,7 +57868,7 @@
       </c>
       <c r="U173" s="210"/>
     </row>
-    <row r="174" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:26" ht="15" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -57916,7 +57914,7 @@
       </c>
       <c r="U174" s="210"/>
     </row>
-    <row r="175" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:26" ht="15" customHeight="1">
       <c r="A175" s="207" t="s">
         <v>1508</v>
       </c>
@@ -57965,7 +57963,7 @@
       </c>
       <c r="U175" s="210"/>
     </row>
-    <row r="176" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:26" ht="15" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -58014,7 +58012,7 @@
       </c>
       <c r="U176" s="210"/>
     </row>
-    <row r="177" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="177" spans="1:25" ht="15" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -58063,7 +58061,7 @@
       </c>
       <c r="U177" s="210"/>
     </row>
-    <row r="178" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:25" ht="15" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -58112,7 +58110,7 @@
       </c>
       <c r="U178" s="210"/>
     </row>
-    <row r="179" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:25" ht="15" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -58161,7 +58159,7 @@
       </c>
       <c r="U179" s="210"/>
     </row>
-    <row r="180" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:25" ht="15" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -58210,7 +58208,7 @@
       </c>
       <c r="U180" s="210"/>
     </row>
-    <row r="181" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:25" ht="15" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -58259,7 +58257,7 @@
       </c>
       <c r="U181" s="210"/>
     </row>
-    <row r="182" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:25" ht="15" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -58308,7 +58306,7 @@
       </c>
       <c r="U182" s="210"/>
     </row>
-    <row r="183" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:25" ht="15" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -58354,7 +58352,7 @@
       </c>
       <c r="U183" s="210"/>
     </row>
-    <row r="184" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:25" ht="15" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -58403,7 +58401,7 @@
       </c>
       <c r="U184" s="210"/>
     </row>
-    <row r="185" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="185" spans="1:25" ht="15" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -58452,7 +58450,7 @@
       </c>
       <c r="U185" s="210"/>
     </row>
-    <row r="186" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="186" spans="1:25" ht="15" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -58501,7 +58499,7 @@
       </c>
       <c r="U186" s="210"/>
     </row>
-    <row r="187" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="187" spans="1:25" ht="15" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -58550,7 +58548,7 @@
       </c>
       <c r="U187" s="210"/>
     </row>
-    <row r="188" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="188" spans="1:25" ht="15" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -58599,7 +58597,7 @@
       </c>
       <c r="U188" s="210"/>
     </row>
-    <row r="189" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="189" spans="1:25" ht="15" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -58648,7 +58646,7 @@
       </c>
       <c r="U189" s="210"/>
     </row>
-    <row r="190" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="190" spans="1:25" ht="15" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -58697,7 +58695,7 @@
       </c>
       <c r="U190" s="210"/>
     </row>
-    <row r="191" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="191" spans="1:25" ht="15" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -58808,7 +58806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="193" spans="1:24" ht="15" customHeight="1">
       <c r="A193" s="197" t="s">
         <v>1189</v>
       </c>
@@ -58859,7 +58857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="194" spans="1:24" ht="15" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -58900,7 +58898,7 @@
       <c r="U194" s="212"/>
       <c r="W194" s="83"/>
     </row>
-    <row r="195" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="195" spans="1:24" ht="15" customHeight="1">
       <c r="A195" s="197" t="s">
         <v>1183</v>
       </c>
@@ -58947,7 +58945,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:24" ht="15" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -59003,7 +59001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="197" spans="1:24" ht="15" customHeight="1">
       <c r="A197" s="197" t="s">
         <v>1178</v>
       </c>
@@ -59051,7 +59049,7 @@
       </c>
       <c r="W197" s="83"/>
     </row>
-    <row r="198" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:24" ht="15" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -59107,7 +59105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="199" spans="1:24" ht="15" customHeight="1">
       <c r="A199" s="199" t="s">
         <v>1174</v>
       </c>
@@ -59157,7 +59155,7 @@
       </c>
       <c r="W199" s="83"/>
     </row>
-    <row r="200" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:24" ht="15" customHeight="1">
       <c r="A200" s="199" t="s">
         <v>1171</v>
       </c>
@@ -59206,7 +59204,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:24" ht="15" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -59262,7 +59260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="202" spans="1:24" ht="15" customHeight="1">
       <c r="A202" s="199" t="s">
         <v>1666</v>
       </c>
@@ -59351,7 +59349,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:24" ht="15" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -59392,7 +59390,7 @@
       <c r="T204" s="210"/>
       <c r="U204" s="210"/>
     </row>
-    <row r="205" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="205" spans="1:24" ht="15" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -59433,7 +59431,7 @@
       <c r="T205" s="210"/>
       <c r="U205" s="210"/>
     </row>
-    <row r="206" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="206" spans="1:24" ht="15" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -59474,7 +59472,7 @@
       <c r="T206" s="210"/>
       <c r="U206" s="210"/>
     </row>
-    <row r="207" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="207" spans="1:24" ht="15" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -59515,7 +59513,7 @@
       <c r="T207" s="210"/>
       <c r="U207" s="210"/>
     </row>
-    <row r="208" spans="1:24" ht="15" hidden="1" customHeight="1">
+    <row r="208" spans="1:24" ht="15" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -59556,7 +59554,7 @@
       <c r="T208" s="210"/>
       <c r="U208" s="210"/>
     </row>
-    <row r="209" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="209" spans="1:25" ht="15" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -59597,7 +59595,7 @@
       <c r="T209" s="210"/>
       <c r="U209" s="210"/>
     </row>
-    <row r="210" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="210" spans="1:25" ht="15" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -59638,7 +59636,7 @@
       <c r="T210" s="210"/>
       <c r="U210" s="210"/>
     </row>
-    <row r="211" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="211" spans="1:25" ht="15" customHeight="1">
       <c r="A211" s="199" t="s">
         <v>1683</v>
       </c>
@@ -59677,7 +59675,7 @@
       <c r="T211" s="210"/>
       <c r="U211" s="210"/>
     </row>
-    <row r="212" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="212" spans="1:25" ht="15" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -59746,7 +59744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="213" spans="1:25" ht="15" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -59785,7 +59783,7 @@
       <c r="T213" s="210"/>
       <c r="U213" s="212"/>
     </row>
-    <row r="214" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="214" spans="1:25" ht="15" customHeight="1">
       <c r="A214" s="199" t="s">
         <v>1697</v>
       </c>
@@ -59893,7 +59891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:25" ht="15" customHeight="1">
       <c r="A216" s="199" t="s">
         <v>1719</v>
       </c>
@@ -59945,7 +59943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="217" spans="1:25" ht="15" customHeight="1">
       <c r="A217" s="199" t="s">
         <v>1731</v>
       </c>
@@ -59998,7 +59996,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="218" spans="1:25" ht="15" customHeight="1">
       <c r="A218" s="199" t="s">
         <v>1734</v>
       </c>
@@ -60047,7 +60045,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="219" spans="1:25" ht="15" customHeight="1">
       <c r="A219" s="199" t="s">
         <v>1736</v>
       </c>
@@ -60104,7 +60102,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:25" ht="15" customHeight="1">
       <c r="A220" s="199" t="s">
         <v>1743</v>
       </c>
@@ -60149,7 +60147,7 @@
       <c r="T220" s="210"/>
       <c r="U220" s="212"/>
     </row>
-    <row r="221" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:25" ht="15" customHeight="1">
       <c r="A221" s="199" t="s">
         <v>1750</v>
       </c>
@@ -60194,7 +60192,7 @@
       <c r="T221" s="210"/>
       <c r="U221" s="210"/>
     </row>
-    <row r="222" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:25" ht="15" customHeight="1">
       <c r="A222" s="199" t="s">
         <v>1755</v>
       </c>
@@ -60239,7 +60237,7 @@
       <c r="T222" s="210"/>
       <c r="U222" s="210"/>
     </row>
-    <row r="223" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:25" ht="15" customHeight="1">
       <c r="A223" s="199" t="s">
         <v>1759</v>
       </c>
@@ -60284,7 +60282,7 @@
       <c r="T223" s="210"/>
       <c r="U223" s="210"/>
     </row>
-    <row r="224" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:25" ht="15" customHeight="1">
       <c r="A224" s="199" t="s">
         <v>1763</v>
       </c>
@@ -60329,7 +60327,7 @@
       <c r="T224" s="210"/>
       <c r="U224" s="210"/>
     </row>
-    <row r="225" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:25" ht="15" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -60440,7 +60438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:25" ht="15" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -60499,7 +60497,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:25" ht="15" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -60556,7 +60554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="229" spans="1:25" ht="15" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -60616,7 +60614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:25" ht="15" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -60663,7 +60661,7 @@
       <c r="T230" s="210"/>
       <c r="U230" s="212"/>
     </row>
-    <row r="231" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="231" spans="1:25" ht="15" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -60708,7 +60706,7 @@
       <c r="T231" s="210"/>
       <c r="U231" s="210"/>
     </row>
-    <row r="232" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="232" spans="1:25" ht="15" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -60745,7 +60743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="233" spans="1:25" ht="15" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -60782,7 +60780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="234" spans="1:25" ht="15" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -60821,7 +60819,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="235" spans="1:25" ht="15" customHeight="1">
       <c r="A235" s="234" t="s">
         <v>2605</v>
       </c>
@@ -60857,7 +60855,7 @@
       <c r="O235" s="229"/>
       <c r="P235" s="229"/>
     </row>
-    <row r="236" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="236" spans="1:25" ht="15" customHeight="1">
       <c r="A236" s="231" t="s">
         <v>2870</v>
       </c>
@@ -60895,7 +60893,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="237" spans="1:25" ht="15" customHeight="1">
       <c r="A237" s="221" t="s">
         <v>2885</v>
       </c>
@@ -60978,7 +60976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="239" spans="1:25" ht="15" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2880</v>
       </c>
@@ -61013,7 +61011,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="15" hidden="1" customHeight="1">
+    <row r="240" spans="1:25" ht="15" customHeight="1">
       <c r="A240" s="221" t="s">
         <v>2881</v>
       </c>
@@ -61101,7 +61099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="242" spans="1:26" ht="15" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2888</v>
       </c>
@@ -61136,7 +61134,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="243" spans="1:26" ht="15" customHeight="1">
       <c r="A243" s="221" t="s">
         <v>2889</v>
       </c>
@@ -61252,7 +61250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="246" spans="1:26" ht="15" customHeight="1">
       <c r="A246" s="221" t="s">
         <v>2891</v>
       </c>
@@ -61307,7 +61305,7 @@
       <c r="F247" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="G247" s="267" t="s">
+      <c r="G247" s="212" t="s">
         <v>120</v>
       </c>
       <c r="H247">
@@ -61369,7 +61367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="249" spans="1:26" ht="15" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2873</v>
       </c>
@@ -61414,7 +61412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="250" spans="1:26" ht="15" customHeight="1">
       <c r="A250" s="221" t="s">
         <v>2900</v>
       </c>
@@ -61449,7 +61447,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="251" spans="1:26" ht="15" customHeight="1">
       <c r="A251" s="221" t="s">
         <v>2901</v>
       </c>
@@ -61482,7 +61480,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="252" spans="1:26" ht="15" customHeight="1">
       <c r="A252" s="221" t="s">
         <v>2902</v>
       </c>
@@ -61515,7 +61513,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="253" spans="1:26" ht="15" customHeight="1">
       <c r="A253" s="221" t="s">
         <v>2903</v>
       </c>
@@ -61548,7 +61546,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="254" spans="1:26" ht="15" customHeight="1">
       <c r="A254" s="221" t="s">
         <v>2904</v>
       </c>
@@ -61676,7 +61674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="257" spans="1:26" ht="15" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2906</v>
       </c>
@@ -61809,7 +61807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="260" spans="1:26" ht="15" customHeight="1">
       <c r="A260" s="223" t="s">
         <v>2893</v>
       </c>
@@ -61886,7 +61884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="262" spans="1:26" ht="15" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2895</v>
       </c>
@@ -61923,7 +61921,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="263" spans="1:26" ht="15" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2896</v>
       </c>
@@ -61958,7 +61956,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="264" spans="1:26" ht="15" customHeight="1">
       <c r="A264" s="221" t="s">
         <v>2897</v>
       </c>
@@ -62111,7 +62109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="268" spans="1:26" ht="15" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2874</v>
       </c>
@@ -62156,7 +62154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="269" spans="1:26" ht="15" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2878</v>
       </c>
@@ -62288,7 +62286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="272" spans="1:26" ht="15" customHeight="1">
       <c r="A272" s="221" t="s">
         <v>2987</v>
       </c>
@@ -62362,13 +62360,7 @@
       <c r="K282" s="210"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z273" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z273" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X283">
     <sortCondition ref="I2:I283"/>
   </sortState>
@@ -62649,27 +62641,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G255">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G255))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G256">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G256))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G261))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G265">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G265))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G273">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G273))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62694,8 +62686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -62740,775 +62732,807 @@
     </row>
     <row r="2" spans="1:10" ht="14">
       <c r="A2" s="255" t="s">
-        <v>3072</v>
+        <v>3075</v>
       </c>
       <c r="B2" s="252" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="C2" s="252" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="D2" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E2" s="256" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="F2" s="257" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="G2" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H2" s="257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="257"/>
       <c r="J2" s="249"/>
     </row>
     <row r="3" spans="1:10" ht="14">
       <c r="A3" s="255" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B3" s="252" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="C3" s="252" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="D3" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E3" s="256" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="F3" s="257" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="G3" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H3" s="257">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I3" s="257"/>
       <c r="J3" s="249"/>
     </row>
-    <row r="4" spans="1:10" ht="56">
+    <row r="4" spans="1:10" ht="14">
       <c r="A4" s="255" t="s">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="B4" s="252" t="s">
-        <v>2990</v>
+        <v>2995</v>
       </c>
       <c r="C4" s="252" t="s">
-        <v>2991</v>
+        <v>2945</v>
       </c>
       <c r="D4" s="256" t="s">
-        <v>2935</v>
+        <v>2946</v>
       </c>
       <c r="E4" s="256" t="s">
-        <v>2934</v>
+        <v>2944</v>
       </c>
       <c r="F4" s="257" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="G4" s="258" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="H4" s="257">
-        <v>14</v>
-      </c>
-      <c r="I4" s="257" t="s">
-        <v>3133</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="257"/>
       <c r="J4" s="249"/>
     </row>
     <row r="5" spans="1:10" ht="14">
       <c r="A5" s="255" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="B5" s="252" t="s">
-        <v>2992</v>
+        <v>2997</v>
       </c>
       <c r="C5" s="252" t="s">
-        <v>2937</v>
+        <v>2951</v>
       </c>
       <c r="D5" s="256" t="s">
-        <v>2935</v>
+        <v>2949</v>
       </c>
       <c r="E5" s="256" t="s">
-        <v>2936</v>
+        <v>2950</v>
       </c>
       <c r="F5" s="257" t="s">
-        <v>3054</v>
+        <v>2858</v>
       </c>
       <c r="G5" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H5" s="257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="257"/>
       <c r="J5" s="249"/>
     </row>
     <row r="6" spans="1:10" ht="14">
       <c r="A6" s="255" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="B6" s="252" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="C6" s="252" t="s">
-        <v>2994</v>
+        <v>2948</v>
       </c>
       <c r="D6" s="256" t="s">
-        <v>2943</v>
+        <v>2949</v>
       </c>
       <c r="E6" s="256" t="s">
-        <v>2942</v>
+        <v>2947</v>
       </c>
       <c r="F6" s="257" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="G6" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H6" s="257">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="257"/>
       <c r="J6" s="249"/>
     </row>
     <row r="7" spans="1:10" ht="14">
       <c r="A7" s="255" t="s">
-        <v>3077</v>
+        <v>3084</v>
       </c>
       <c r="B7" s="252" t="s">
-        <v>2995</v>
+        <v>3003</v>
       </c>
       <c r="C7" s="252" t="s">
-        <v>2945</v>
+        <v>3004</v>
       </c>
       <c r="D7" s="256" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="E7" s="256" t="s">
-        <v>2944</v>
+        <v>2971</v>
       </c>
       <c r="F7" s="257" t="s">
-        <v>2856</v>
+        <v>3058</v>
       </c>
       <c r="G7" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H7" s="257">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="257"/>
       <c r="J7" s="249"/>
     </row>
     <row r="8" spans="1:10" ht="14">
       <c r="A8" s="255" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="B8" s="252" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="C8" s="252" t="s">
-        <v>2948</v>
+        <v>2994</v>
       </c>
       <c r="D8" s="256" t="s">
-        <v>2949</v>
+        <v>2943</v>
       </c>
       <c r="E8" s="256" t="s">
-        <v>2947</v>
+        <v>2942</v>
       </c>
       <c r="F8" s="257" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="G8" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H8" s="257">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8" s="257"/>
       <c r="J8" s="249"/>
     </row>
     <row r="9" spans="1:10" ht="14">
       <c r="A9" s="255" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="B9" s="252" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="C9" s="252" t="s">
-        <v>2951</v>
+        <v>2994</v>
       </c>
       <c r="D9" s="256" t="s">
-        <v>2949</v>
+        <v>2956</v>
       </c>
       <c r="E9" s="256" t="s">
-        <v>2950</v>
+        <v>2955</v>
       </c>
       <c r="F9" s="257" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="G9" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H9" s="257">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9" s="257"/>
       <c r="J9" s="249"/>
     </row>
     <row r="10" spans="1:10" ht="17" customHeight="1">
       <c r="A10" s="255" t="s">
-        <v>3080</v>
+        <v>3085</v>
       </c>
       <c r="B10" s="252" t="s">
-        <v>2998</v>
+        <v>3005</v>
       </c>
       <c r="C10" s="252" t="s">
-        <v>2953</v>
+        <v>2960</v>
       </c>
       <c r="D10" s="256" t="s">
-        <v>2954</v>
+        <v>2961</v>
       </c>
       <c r="E10" s="256" t="s">
-        <v>2952</v>
+        <v>2959</v>
       </c>
       <c r="F10" s="257" t="s">
-        <v>2859</v>
+        <v>3060</v>
       </c>
       <c r="G10" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H10" s="257">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" s="257"/>
       <c r="J10" s="249"/>
     </row>
     <row r="11" spans="1:10" ht="14">
       <c r="A11" s="255" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="B11" s="252" t="s">
-        <v>2999</v>
+        <v>2989</v>
       </c>
       <c r="C11" s="252" t="s">
-        <v>2994</v>
+        <v>2939</v>
       </c>
       <c r="D11" s="256" t="s">
-        <v>2956</v>
+        <v>2935</v>
       </c>
       <c r="E11" s="256" t="s">
-        <v>2955</v>
+        <v>2938</v>
       </c>
       <c r="F11" s="257" t="s">
-        <v>2860</v>
+        <v>3052</v>
       </c>
       <c r="G11" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H11" s="257">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="257"/>
       <c r="J11" s="249"/>
     </row>
     <row r="12" spans="1:10" ht="14">
       <c r="A12" s="255" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="B12" s="252" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="C12" s="252" t="s">
-        <v>3001</v>
+        <v>2958</v>
       </c>
       <c r="D12" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E12" s="256" t="s">
-        <v>2970</v>
+        <v>2957</v>
       </c>
       <c r="F12" s="257" t="s">
-        <v>3061</v>
+        <v>3055</v>
       </c>
       <c r="G12" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H12" s="257">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="257"/>
       <c r="J12" s="249"/>
     </row>
     <row r="13" spans="1:10" ht="14">
       <c r="A13" s="255" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="B13" s="252" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="C13" s="252" t="s">
-        <v>2958</v>
+        <v>2953</v>
       </c>
       <c r="D13" s="256" t="s">
-        <v>2935</v>
+        <v>2954</v>
       </c>
       <c r="E13" s="256" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
       <c r="F13" s="257" t="s">
-        <v>3055</v>
+        <v>2859</v>
       </c>
       <c r="G13" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H13" s="257">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="257"/>
       <c r="J13" s="249"/>
     </row>
     <row r="14" spans="1:10" ht="14">
       <c r="A14" s="255" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="B14" s="252" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C14" s="252" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D14" s="256" t="s">
-        <v>2943</v>
+        <v>2935</v>
       </c>
       <c r="E14" s="256" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="F14" s="257" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="G14" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H14" s="257">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I14" s="257"/>
       <c r="J14" s="249"/>
     </row>
-    <row r="15" spans="1:10" ht="14">
+    <row r="15" spans="1:10" ht="56">
       <c r="A15" s="255" t="s">
-        <v>3085</v>
+        <v>3074</v>
       </c>
       <c r="B15" s="252" t="s">
-        <v>3005</v>
+        <v>2990</v>
       </c>
       <c r="C15" s="252" t="s">
-        <v>2960</v>
+        <v>2991</v>
       </c>
       <c r="D15" s="256" t="s">
-        <v>2961</v>
+        <v>2935</v>
       </c>
       <c r="E15" s="256" t="s">
-        <v>2959</v>
+        <v>2934</v>
       </c>
       <c r="F15" s="257" t="s">
-        <v>3060</v>
+        <v>2854</v>
       </c>
       <c r="G15" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="257">
+        <v>14</v>
+      </c>
+      <c r="I15" s="257" t="s">
+        <v>3133</v>
+      </c>
+      <c r="J15" s="249"/>
+    </row>
+    <row r="16" spans="1:10" ht="70">
+      <c r="A16" s="255" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B16" s="252" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C16" s="252" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D16" s="256" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E16" s="256" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F16" s="257" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G16" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="257">
+        <v>15</v>
+      </c>
+      <c r="I16" s="257" t="s">
+        <v>3134</v>
+      </c>
+      <c r="J16" s="249"/>
+    </row>
+    <row r="17" spans="1:10" ht="14">
+      <c r="A17" s="259" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B17" s="252" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C17" s="252" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D17" s="252" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E17" s="252" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F17" s="257" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G17" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="257">
-        <v>9</v>
-      </c>
-      <c r="I15" s="257"/>
-      <c r="J15" s="249"/>
-    </row>
-    <row r="16" spans="1:10" ht="14">
-      <c r="A16" s="259" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B16" s="252" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C16" s="252" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D16" s="252" t="s">
-        <v>2964</v>
-      </c>
-      <c r="E16" s="252" t="s">
-        <v>2962</v>
-      </c>
-      <c r="F16" s="257" t="s">
-        <v>3063</v>
-      </c>
-      <c r="G16" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="257">
+      <c r="H17" s="257">
         <v>16</v>
       </c>
-      <c r="I16" s="257"/>
-      <c r="J16" s="249"/>
-    </row>
-    <row r="17" spans="1:10" ht="70">
-      <c r="A17" s="255" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B17" s="252" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C17" s="252" t="s">
-        <v>2969</v>
-      </c>
-      <c r="D17" s="256" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E17" s="256" t="s">
-        <v>2968</v>
-      </c>
-      <c r="F17" s="257" t="s">
-        <v>3046</v>
-      </c>
-      <c r="G17" s="258" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="257">
-        <v>15</v>
-      </c>
-      <c r="I17" s="257" t="s">
-        <v>3134</v>
-      </c>
+      <c r="I17" s="257"/>
       <c r="J17" s="249"/>
     </row>
     <row r="18" spans="1:10" ht="14">
       <c r="A18" s="255" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B18" s="252" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C18" s="252" t="s">
-        <v>2978</v>
-      </c>
+        <v>3095</v>
+      </c>
+      <c r="B18" s="252"/>
+      <c r="C18" s="252"/>
       <c r="D18" s="256" t="s">
-        <v>2943</v>
+        <v>2976</v>
       </c>
       <c r="E18" s="256" t="s">
-        <v>2977</v>
+        <v>3045</v>
       </c>
       <c r="F18" s="257" t="s">
-        <v>3059</v>
+        <v>3066</v>
       </c>
       <c r="G18" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H18" s="257">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="257"/>
       <c r="J18" s="249"/>
     </row>
-    <row r="19" spans="1:10" ht="182">
+    <row r="19" spans="1:10" ht="14">
       <c r="A19" s="255" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B19" s="252" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C19" s="252" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D19" s="256" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E19" s="256" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F19" s="257" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G19" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="257">
+        <v>18</v>
+      </c>
+      <c r="I19" s="257"/>
+      <c r="J19" s="249"/>
+    </row>
+    <row r="20" spans="1:10" ht="154">
+      <c r="A20" s="255" t="s">
         <v>3089</v>
       </c>
-      <c r="B19" s="252" t="s">
+      <c r="B20" s="252" t="s">
         <v>3009</v>
       </c>
-      <c r="C19" s="252" t="s">
+      <c r="C20" s="252" t="s">
         <v>2973</v>
-      </c>
-      <c r="D19" s="256" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E19" s="256" t="s">
-        <v>2972</v>
-      </c>
-      <c r="F19" s="257" t="s">
-        <v>3047</v>
-      </c>
-      <c r="G19" s="260" t="s">
-        <v>3138</v>
-      </c>
-      <c r="H19" s="257">
-        <v>19</v>
-      </c>
-      <c r="I19" s="261" t="s">
-        <v>3135</v>
-      </c>
-      <c r="J19" s="249"/>
-    </row>
-    <row r="20" spans="1:10" ht="98">
-      <c r="A20" s="255" t="s">
-        <v>3090</v>
-      </c>
-      <c r="B20" s="252" t="s">
-        <v>3010</v>
-      </c>
-      <c r="C20" s="252" t="s">
-        <v>2975</v>
       </c>
       <c r="D20" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E20" s="256" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="F20" s="257" t="s">
-        <v>3048</v>
-      </c>
-      <c r="G20" s="258" t="s">
-        <v>153</v>
+        <v>3047</v>
+      </c>
+      <c r="G20" s="260" t="s">
+        <v>3138</v>
       </c>
       <c r="H20" s="257">
-        <v>20</v>
-      </c>
-      <c r="I20" s="257" t="s">
-        <v>3136</v>
+        <v>19</v>
+      </c>
+      <c r="I20" s="261" t="s">
+        <v>3135</v>
       </c>
       <c r="J20" s="249"/>
     </row>
-    <row r="21" spans="1:10" ht="126">
+    <row r="21" spans="1:10" ht="98">
       <c r="A21" s="255" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B21" s="252" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C21" s="252" t="s">
-        <v>2984</v>
+        <v>2975</v>
       </c>
       <c r="D21" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E21" s="256" t="s">
-        <v>2983</v>
+        <v>2974</v>
       </c>
       <c r="F21" s="257" t="s">
-        <v>3050</v>
-      </c>
-      <c r="G21" s="260" t="s">
-        <v>3138</v>
+        <v>3048</v>
+      </c>
+      <c r="G21" s="258" t="s">
+        <v>153</v>
       </c>
       <c r="H21" s="257">
-        <v>23</v>
-      </c>
-      <c r="I21" s="261" t="s">
-        <v>3137</v>
+        <v>20</v>
+      </c>
+      <c r="I21" s="257" t="s">
+        <v>3136</v>
       </c>
       <c r="J21" s="249"/>
     </row>
     <row r="22" spans="1:10" ht="14">
       <c r="A22" s="255" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="B22" s="252" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="C22" s="252" t="s">
-        <v>2982</v>
+        <v>3015</v>
       </c>
       <c r="D22" s="256" t="s">
-        <v>2935</v>
+        <v>2980</v>
       </c>
       <c r="E22" s="256" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="F22" s="257" t="s">
-        <v>3056</v>
+        <v>3065</v>
       </c>
       <c r="G22" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H22" s="257">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="257"/>
       <c r="J22" s="249"/>
     </row>
     <row r="23" spans="1:10" ht="14">
       <c r="A23" s="255" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="B23" s="252" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C23" s="252" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="D23" s="256" t="s">
         <v>2935</v>
       </c>
       <c r="E23" s="256" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="F23" s="257" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="G23" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H23" s="257">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I23" s="257"/>
       <c r="J23" s="249"/>
     </row>
-    <row r="24" spans="1:10" ht="14">
+    <row r="24" spans="1:10" ht="126">
       <c r="A24" s="255" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="B24" s="252" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="C24" s="252" t="s">
-        <v>3015</v>
+        <v>2984</v>
       </c>
       <c r="D24" s="256" t="s">
-        <v>2980</v>
+        <v>2935</v>
       </c>
       <c r="E24" s="256" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="F24" s="257" t="s">
-        <v>3065</v>
-      </c>
-      <c r="G24" s="258" t="s">
-        <v>121</v>
+        <v>3050</v>
+      </c>
+      <c r="G24" s="260" t="s">
+        <v>3138</v>
       </c>
       <c r="H24" s="257">
-        <v>21</v>
-      </c>
-      <c r="I24" s="257"/>
+        <v>23</v>
+      </c>
+      <c r="I24" s="261" t="s">
+        <v>3137</v>
+      </c>
       <c r="J24" s="249"/>
     </row>
     <row r="25" spans="1:10" ht="14">
-      <c r="A25" s="255" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B25" s="252"/>
-      <c r="C25" s="252"/>
+      <c r="A25" s="266" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B25" s="252" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C25" s="252" t="s">
+        <v>3039</v>
+      </c>
       <c r="D25" s="256" t="s">
-        <v>2976</v>
-      </c>
-      <c r="E25" s="256" t="s">
-        <v>3045</v>
+        <v>3040</v>
+      </c>
+      <c r="E25" s="265" t="s">
+        <v>3041</v>
       </c>
       <c r="F25" s="257" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="G25" s="258" t="s">
         <v>121</v>
       </c>
       <c r="H25" s="257">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I25" s="257"/>
       <c r="J25" s="249"/>
     </row>
     <row r="26" spans="1:10" ht="14">
-      <c r="A26" s="262"/>
+      <c r="A26" s="255" t="s">
+        <v>3093</v>
+      </c>
       <c r="B26" s="252" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="C26" s="252" t="s">
-        <v>2966</v>
+        <v>2986</v>
       </c>
       <c r="D26" s="256" t="s">
-        <v>2967</v>
+        <v>2935</v>
       </c>
       <c r="E26" s="256" t="s">
-        <v>2965</v>
-      </c>
-      <c r="F26" s="263"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="263"/>
+        <v>2985</v>
+      </c>
+      <c r="F26" s="257" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G26" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="257">
+        <v>25</v>
+      </c>
+      <c r="I26" s="257"/>
       <c r="J26" s="249"/>
     </row>
     <row r="27" spans="1:10" ht="14">
-      <c r="A27" s="264"/>
+      <c r="A27" s="255" t="s">
+        <v>3096</v>
+      </c>
       <c r="B27" s="252" t="s">
-        <v>3017</v>
+        <v>3031</v>
       </c>
       <c r="C27" s="252" t="s">
-        <v>3018</v>
+        <v>3032</v>
       </c>
       <c r="D27" s="256" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E27" s="265" t="s">
-        <v>3019</v>
-      </c>
-      <c r="F27" s="263"/>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
+        <v>3033</v>
+      </c>
+      <c r="E27" s="256" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F27" s="257" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G27" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="257">
+        <v>26</v>
+      </c>
+      <c r="I27" s="257"/>
       <c r="J27" s="249"/>
     </row>
     <row r="28" spans="1:10" ht="14">
-      <c r="A28" s="262"/>
+      <c r="A28" s="255" t="s">
+        <v>3097</v>
+      </c>
       <c r="B28" s="252" t="s">
-        <v>3017</v>
+        <v>3035</v>
       </c>
       <c r="C28" s="252" t="s">
-        <v>3020</v>
+        <v>3036</v>
       </c>
       <c r="D28" s="256" t="s">
-        <v>2967</v>
+        <v>2935</v>
       </c>
       <c r="E28" s="256" t="s">
-        <v>3021</v>
-      </c>
-      <c r="F28" s="263"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="263"/>
-      <c r="I28" s="263"/>
+        <v>3037</v>
+      </c>
+      <c r="F28" s="257" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G28" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="257">
+        <v>27</v>
+      </c>
+      <c r="I28" s="257"/>
       <c r="J28" s="249"/>
     </row>
     <row r="29" spans="1:10" ht="14">
-      <c r="A29" s="262"/>
+      <c r="A29" s="266" t="s">
+        <v>3099</v>
+      </c>
       <c r="B29" s="252" t="s">
-        <v>3017</v>
+        <v>3042</v>
       </c>
       <c r="C29" s="252" t="s">
-        <v>3022</v>
+        <v>3043</v>
       </c>
       <c r="D29" s="256" t="s">
-        <v>2967</v>
-      </c>
-      <c r="E29" s="256" t="s">
-        <v>3023</v>
-      </c>
-      <c r="F29" s="263"/>
-      <c r="G29" s="263"/>
-      <c r="H29" s="263"/>
-      <c r="I29" s="263"/>
+        <v>2935</v>
+      </c>
+      <c r="E29" s="265" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F29" s="257" t="s">
+        <v>3049</v>
+      </c>
+      <c r="G29" s="258" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="257">
+        <v>28</v>
+      </c>
+      <c r="I29" s="257"/>
       <c r="J29" s="249"/>
     </row>
     <row r="30" spans="1:10" ht="14">
       <c r="A30" s="262"/>
       <c r="B30" s="252" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C30" s="252" t="s">
-        <v>3024</v>
+        <v>2966</v>
       </c>
       <c r="D30" s="256" t="s">
         <v>2967</v>
       </c>
       <c r="E30" s="256" t="s">
-        <v>3025</v>
+        <v>2965</v>
       </c>
       <c r="F30" s="263"/>
       <c r="G30" s="263"/>
@@ -63517,18 +63541,18 @@
       <c r="J30" s="249"/>
     </row>
     <row r="31" spans="1:10" ht="14">
-      <c r="A31" s="262"/>
+      <c r="A31" s="264"/>
       <c r="B31" s="252" t="s">
         <v>3017</v>
       </c>
       <c r="C31" s="252" t="s">
-        <v>3026</v>
+        <v>3018</v>
       </c>
       <c r="D31" s="256" t="s">
         <v>2967</v>
       </c>
-      <c r="E31" s="256" t="s">
-        <v>3027</v>
+      <c r="E31" s="265" t="s">
+        <v>3019</v>
       </c>
       <c r="F31" s="263"/>
       <c r="G31" s="263"/>
@@ -63539,16 +63563,16 @@
     <row r="32" spans="1:10" ht="14">
       <c r="A32" s="262"/>
       <c r="B32" s="252" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C32" s="252" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="D32" s="256" t="s">
-        <v>3029</v>
+        <v>2967</v>
       </c>
       <c r="E32" s="256" t="s">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="F32" s="263"/>
       <c r="G32" s="263"/>
@@ -63557,115 +63581,83 @@
       <c r="J32" s="249"/>
     </row>
     <row r="33" spans="1:10" ht="14">
-      <c r="A33" s="255" t="s">
-        <v>3096</v>
-      </c>
+      <c r="A33" s="262"/>
       <c r="B33" s="252" t="s">
-        <v>3031</v>
+        <v>3017</v>
       </c>
       <c r="C33" s="252" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="D33" s="256" t="s">
-        <v>3033</v>
+        <v>2967</v>
       </c>
       <c r="E33" s="256" t="s">
-        <v>3034</v>
-      </c>
-      <c r="F33" s="257" t="s">
-        <v>3064</v>
-      </c>
-      <c r="G33" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="257">
-        <v>26</v>
-      </c>
-      <c r="I33" s="257"/>
+        <v>3023</v>
+      </c>
+      <c r="F33" s="263"/>
+      <c r="G33" s="263"/>
+      <c r="H33" s="263"/>
+      <c r="I33" s="263"/>
       <c r="J33" s="249"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="255" t="s">
-        <v>3097</v>
-      </c>
+      <c r="A34" s="262"/>
       <c r="B34" s="252" t="s">
-        <v>3035</v>
+        <v>3017</v>
       </c>
       <c r="C34" s="252" t="s">
-        <v>3036</v>
+        <v>3024</v>
       </c>
       <c r="D34" s="256" t="s">
-        <v>2935</v>
+        <v>2967</v>
       </c>
       <c r="E34" s="256" t="s">
-        <v>3037</v>
-      </c>
-      <c r="F34" s="257" t="s">
-        <v>3051</v>
-      </c>
-      <c r="G34" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="257">
-        <v>27</v>
-      </c>
-      <c r="I34" s="257"/>
+        <v>3025</v>
+      </c>
+      <c r="F34" s="263"/>
+      <c r="G34" s="263"/>
+      <c r="H34" s="263"/>
+      <c r="I34" s="263"/>
       <c r="J34" s="249"/>
     </row>
     <row r="35" spans="1:10" ht="14">
-      <c r="A35" s="266" t="s">
-        <v>3098</v>
-      </c>
+      <c r="A35" s="262"/>
       <c r="B35" s="252" t="s">
-        <v>3038</v>
+        <v>3017</v>
       </c>
       <c r="C35" s="252" t="s">
-        <v>3039</v>
+        <v>3026</v>
       </c>
       <c r="D35" s="256" t="s">
-        <v>3040</v>
-      </c>
-      <c r="E35" s="265" t="s">
-        <v>3041</v>
-      </c>
-      <c r="F35" s="257" t="s">
-        <v>3062</v>
-      </c>
-      <c r="G35" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="257">
-        <v>24</v>
-      </c>
-      <c r="I35" s="257"/>
+        <v>2967</v>
+      </c>
+      <c r="E35" s="256" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F35" s="263"/>
+      <c r="G35" s="263"/>
+      <c r="H35" s="263"/>
+      <c r="I35" s="263"/>
       <c r="J35" s="249"/>
     </row>
     <row r="36" spans="1:10" ht="14">
-      <c r="A36" s="266" t="s">
-        <v>3099</v>
-      </c>
+      <c r="A36" s="262"/>
       <c r="B36" s="252" t="s">
-        <v>3042</v>
+        <v>3016</v>
       </c>
       <c r="C36" s="252" t="s">
-        <v>3043</v>
+        <v>3028</v>
       </c>
       <c r="D36" s="256" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E36" s="265" t="s">
-        <v>3044</v>
-      </c>
-      <c r="F36" s="257" t="s">
-        <v>3049</v>
-      </c>
-      <c r="G36" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="257">
-        <v>28</v>
-      </c>
-      <c r="I36" s="257"/>
+        <v>3029</v>
+      </c>
+      <c r="E36" s="256" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F36" s="263"/>
+      <c r="G36" s="263"/>
+      <c r="H36" s="263"/>
+      <c r="I36" s="263"/>
       <c r="J36" s="249"/>
     </row>
     <row r="37" spans="1:10">
@@ -63729,9 +63721,13 @@
       <c r="J56" s="249"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R67" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}"/>
+  <autoFilter ref="A1:R67" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J56">
+      <sortCondition ref="H1:H67"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G25 G33:G36">
-    <cfRule type="containsBlanks" dxfId="5" priority="54">
+    <cfRule type="containsBlanks" dxfId="0" priority="54">
       <formula>LEN(TRIM(#REF!))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496983EE-E5C0-734D-80C7-B177F7187DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D718ECFF-EDB5-ED4D-AE95-A30CD6F54EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1180" windowWidth="23320" windowHeight="13760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AA$275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AA$276</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$R$67</definedName>
   </definedNames>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12960" uniqueCount="3152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12986" uniqueCount="3165">
   <si>
     <t>Tab</t>
   </si>
@@ -11968,6 +11968,45 @@
   </si>
   <si>
     <t>imputation number</t>
+  </si>
+  <si>
+    <t>zikv_preg*end_ga</t>
+  </si>
+  <si>
+    <t>zikv_preg*zikv_ga</t>
+  </si>
+  <si>
+    <t>zikv_preg*denv_preg_ever</t>
+  </si>
+  <si>
+    <t>zikv_preg*chikv_preg_ever</t>
+  </si>
+  <si>
+    <t>zikv_preg*comorbid_bin</t>
+  </si>
+  <si>
+    <t>zikv_preg*comorbid_preg</t>
+  </si>
+  <si>
+    <t>zikv_preg*storch_patho</t>
+  </si>
+  <si>
+    <t>zikv_preg*arb_symp</t>
+  </si>
+  <si>
+    <t>zikv_preg*fever</t>
+  </si>
+  <si>
+    <t>zikv_preg*rash</t>
+  </si>
+  <si>
+    <t>zikv_preg*arthralgia</t>
+  </si>
+  <si>
+    <t>zikv_preg*headache</t>
+  </si>
+  <si>
+    <t>zikv_preg*arthritis</t>
   </si>
 </sst>
 </file>
@@ -12659,7 +12698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13377,17 +13416,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -49098,13 +49130,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-  <dimension ref="A1:AA276"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D278" sqref="D278"/>
+      <selection pane="bottomRight" activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49205,7 +49238,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1">
+    <row r="2" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49254,7 +49287,7 @@
       <c r="X2" s="83"/>
       <c r="Y2" s="83"/>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1">
+    <row r="3" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49297,7 +49330,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1">
+    <row r="4" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49340,7 +49373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1">
+    <row r="5" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49380,7 +49413,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1">
+    <row r="6" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49420,7 +49453,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1">
+    <row r="7" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49461,7 +49494,7 @@
       </c>
       <c r="T7" s="210"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1">
+    <row r="8" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49502,7 +49535,7 @@
       </c>
       <c r="T8" s="210"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1">
+    <row r="9" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49543,7 +49576,7 @@
       </c>
       <c r="T9" s="210"/>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1">
+    <row r="10" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49659,7 +49692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1">
+    <row r="12" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49845,7 +49878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1">
+    <row r="15" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -49894,7 +49927,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1">
+    <row r="16" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -49959,7 +49992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" customHeight="1">
+    <row r="17" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -50003,7 +50036,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1">
+    <row r="18" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -50047,7 +50080,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1">
+    <row r="19" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -50091,7 +50124,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1">
+    <row r="20" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -50197,7 +50230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1">
+    <row r="22" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -50304,7 +50337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1">
+    <row r="24" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -50353,7 +50386,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1">
+    <row r="25" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -50460,7 +50493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1">
+    <row r="27" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="192" t="s">
         <v>365</v>
       </c>
@@ -50509,7 +50542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1">
+    <row r="28" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -50560,7 +50593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1">
+    <row r="29" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -50604,7 +50637,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1">
+    <row r="30" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -50649,7 +50682,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1">
+    <row r="31" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -50694,7 +50727,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1">
+    <row r="32" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -50738,7 +50771,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1">
+    <row r="33" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="192" t="s">
         <v>380</v>
       </c>
@@ -50781,7 +50814,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" customHeight="1">
+    <row r="34" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="192" t="s">
         <v>382</v>
       </c>
@@ -50826,7 +50859,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1">
+    <row r="35" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="192" t="s">
         <v>385</v>
       </c>
@@ -50927,7 +50960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" customHeight="1">
+    <row r="37" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -50976,7 +51009,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" customHeight="1">
+    <row r="38" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="203" t="s">
         <v>400</v>
       </c>
@@ -51022,7 +51055,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" customHeight="1">
+    <row r="39" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="192" t="s">
         <v>403</v>
       </c>
@@ -51065,7 +51098,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15" customHeight="1">
+    <row r="40" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="192" t="s">
         <v>405</v>
       </c>
@@ -51108,7 +51141,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1">
+    <row r="41" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="192" t="s">
         <v>408</v>
       </c>
@@ -51146,7 +51179,7 @@
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" customHeight="1">
+    <row r="42" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -51195,7 +51228,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" customHeight="1">
+    <row r="43" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="192" t="s">
         <v>416</v>
       </c>
@@ -51246,7 +51279,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15" customHeight="1">
+    <row r="44" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -51295,7 +51328,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" customHeight="1">
+    <row r="45" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -51344,7 +51377,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" customHeight="1">
+    <row r="46" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -51393,7 +51426,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15" customHeight="1">
+    <row r="47" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="192" t="s">
         <v>454</v>
       </c>
@@ -51442,7 +51475,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1">
+    <row r="48" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="192" t="s">
         <v>457</v>
       </c>
@@ -51485,7 +51518,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" customHeight="1">
+    <row r="49" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2647</v>
       </c>
@@ -51539,7 +51572,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1">
+    <row r="50" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="192" t="s">
         <v>465</v>
       </c>
@@ -51599,7 +51632,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15" customHeight="1">
+    <row r="51" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -51659,7 +51692,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" customHeight="1">
+    <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="192" t="s">
         <v>469</v>
       </c>
@@ -51712,7 +51745,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" customHeight="1">
+    <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="192" t="s">
         <v>472</v>
       </c>
@@ -51761,7 +51794,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" customHeight="1">
+    <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="203" t="s">
         <v>474</v>
       </c>
@@ -51812,7 +51845,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15" customHeight="1">
+    <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="203" t="s">
         <v>478</v>
       </c>
@@ -51912,7 +51945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" customHeight="1">
+    <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -51969,7 +52002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15" customHeight="1">
+    <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -52018,7 +52051,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15" customHeight="1">
+    <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="205" t="s">
         <v>490</v>
       </c>
@@ -52069,7 +52102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15" customHeight="1">
+    <row r="60" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="203" t="s">
         <v>493</v>
       </c>
@@ -52118,7 +52151,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15" customHeight="1">
+    <row r="61" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -52167,7 +52200,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15" customHeight="1">
+    <row r="62" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -52216,7 +52249,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15" customHeight="1">
+    <row r="63" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="192" t="s">
         <v>526</v>
       </c>
@@ -52273,7 +52306,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="15" customHeight="1">
+    <row r="64" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="203" t="s">
         <v>530</v>
       </c>
@@ -52322,7 +52355,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15" customHeight="1">
+    <row r="65" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="192" t="s">
         <v>533</v>
       </c>
@@ -52371,7 +52404,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15" customHeight="1">
+    <row r="66" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="203" t="s">
         <v>535</v>
       </c>
@@ -52478,7 +52511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="15" customHeight="1">
+    <row r="68" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="203" t="s">
         <v>539</v>
       </c>
@@ -52527,7 +52560,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="15" customHeight="1">
+    <row r="69" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="203" t="s">
         <v>542</v>
       </c>
@@ -52570,7 +52603,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15" customHeight="1">
+    <row r="70" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="203" t="s">
         <v>544</v>
       </c>
@@ -52619,7 +52652,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15" customHeight="1">
+    <row r="71" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="203" t="s">
         <v>546</v>
       </c>
@@ -52668,7 +52701,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15" customHeight="1">
+    <row r="72" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="203" t="s">
         <v>548</v>
       </c>
@@ -52717,7 +52750,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15" customHeight="1">
+    <row r="73" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -52766,7 +52799,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="15" customHeight="1">
+    <row r="74" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -52815,7 +52848,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15" customHeight="1">
+    <row r="75" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="203" t="s">
         <v>554</v>
       </c>
@@ -52864,7 +52897,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="15" customHeight="1">
+    <row r="76" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="203" t="s">
         <v>556</v>
       </c>
@@ -52913,7 +52946,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15" customHeight="1">
+    <row r="77" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="203" t="s">
         <v>558</v>
       </c>
@@ -52962,7 +52995,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="15" customHeight="1">
+    <row r="78" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="203" t="s">
         <v>560</v>
       </c>
@@ -53137,7 +53170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15" customHeight="1">
+    <row r="81" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53266,7 +53299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15" customHeight="1">
+    <row r="83" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53315,7 +53348,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15" customHeight="1">
+    <row r="84" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53358,7 +53391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15" customHeight="1">
+    <row r="85" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53416,7 +53449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="15" customHeight="1">
+    <row r="86" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -53465,7 +53498,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="15" customHeight="1">
+    <row r="87" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -53516,7 +53549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="15" customHeight="1">
+    <row r="88" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -53631,7 +53664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15" customHeight="1">
+    <row r="90" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -53686,7 +53719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15" customHeight="1">
+    <row r="91" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -53731,7 +53764,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="15" customHeight="1">
+    <row r="92" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -53852,7 +53885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="15" customHeight="1">
+    <row r="94" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -53907,7 +53940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="15" customHeight="1">
+    <row r="95" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -53964,7 +53997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15" customHeight="1">
+    <row r="96" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -54015,7 +54048,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="15" customHeight="1">
+    <row r="97" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -54077,7 +54110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15" customHeight="1">
+    <row r="98" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -54196,7 +54229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="15" customHeight="1">
+    <row r="100" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54313,7 +54346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="15" customHeight="1">
+    <row r="102" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -54444,7 +54477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="15" customHeight="1">
+    <row r="104" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -54509,7 +54542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15" customHeight="1">
+    <row r="105" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -54571,7 +54604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="15" customHeight="1">
+    <row r="106" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -54636,7 +54669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15" customHeight="1">
+    <row r="107" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -54698,7 +54731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="15" customHeight="1">
+    <row r="108" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -54747,7 +54780,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15" customHeight="1">
+    <row r="109" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -54796,7 +54829,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="15" customHeight="1">
+    <row r="110" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -54851,7 +54884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="15" customHeight="1">
+    <row r="111" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -54897,7 +54930,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="15" customHeight="1">
+    <row r="112" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -55014,7 +55047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="15" customHeight="1">
+    <row r="114" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -55065,7 +55098,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="15" customHeight="1">
+    <row r="115" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -55113,7 +55146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="15" customHeight="1">
+    <row r="116" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -55173,7 +55206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="15" customHeight="1">
+    <row r="117" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -55221,7 +55254,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="15" customHeight="1">
+    <row r="118" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -55271,7 +55304,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="15" customHeight="1">
+    <row r="119" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -55347,7 +55380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="15" customHeight="1">
+    <row r="120" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -55453,7 +55486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="15" customHeight="1">
+    <row r="122" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -55513,7 +55546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="15" customHeight="1">
+    <row r="123" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -55561,7 +55594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="15" customHeight="1">
+    <row r="124" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -55609,7 +55642,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="15" customHeight="1">
+    <row r="125" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -55828,7 +55861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="15" customHeight="1">
+    <row r="129" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -55882,7 +55915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="15" customHeight="1">
+    <row r="130" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -55930,7 +55963,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="15" customHeight="1">
+    <row r="131" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -55984,7 +56017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="15" customHeight="1">
+    <row r="132" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -56038,7 +56071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="15" customHeight="1">
+    <row r="133" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -56086,7 +56119,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="15" customHeight="1">
+    <row r="134" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -56143,7 +56176,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:26" ht="15" customHeight="1">
+    <row r="135" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -56197,7 +56230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="15" customHeight="1">
+    <row r="136" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -56251,7 +56284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="15" customHeight="1">
+    <row r="137" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -56302,7 +56335,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="15" customHeight="1">
+    <row r="138" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -56426,7 +56459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="15" customHeight="1">
+    <row r="140" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -56543,7 +56576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="15" customHeight="1">
+    <row r="142" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -56590,7 +56623,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="15" customHeight="1">
+    <row r="143" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -56639,7 +56672,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="15" customHeight="1">
+    <row r="144" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -56684,7 +56717,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:26" ht="15" customHeight="1">
+    <row r="145" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="193" t="s">
         <v>934</v>
       </c>
@@ -56738,7 +56771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:26" ht="15" customHeight="1">
+    <row r="146" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="193" t="s">
         <v>938</v>
       </c>
@@ -56784,7 +56817,7 @@
       </c>
       <c r="V146" s="83"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1">
+    <row r="147" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="193" t="s">
         <v>941</v>
       </c>
@@ -56838,7 +56871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:26" ht="15" customHeight="1">
+    <row r="148" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="193" t="s">
         <v>945</v>
       </c>
@@ -56884,7 +56917,7 @@
       </c>
       <c r="V148" s="83"/>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1">
+    <row r="149" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="193" t="s">
         <v>947</v>
       </c>
@@ -56938,7 +56971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15" customHeight="1">
+    <row r="150" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="193" t="s">
         <v>949</v>
       </c>
@@ -56992,7 +57025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="15" customHeight="1">
+    <row r="151" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="193" t="s">
         <v>960</v>
       </c>
@@ -57041,7 +57074,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15" customHeight="1">
+    <row r="152" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="193" t="s">
         <v>966</v>
       </c>
@@ -57086,7 +57119,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="15" customHeight="1">
+    <row r="153" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="193" t="s">
         <v>969</v>
       </c>
@@ -57140,7 +57173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="15" customHeight="1">
+    <row r="154" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="193" t="s">
         <v>973</v>
       </c>
@@ -57186,7 +57219,7 @@
       </c>
       <c r="V154" s="83"/>
     </row>
-    <row r="155" spans="1:26" ht="15" customHeight="1">
+    <row r="155" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="193" t="s">
         <v>976</v>
       </c>
@@ -57240,7 +57273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="15" customHeight="1">
+    <row r="156" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="193" t="s">
         <v>980</v>
       </c>
@@ -57286,7 +57319,7 @@
       </c>
       <c r="V156" s="83"/>
     </row>
-    <row r="157" spans="1:26" ht="15" customHeight="1">
+    <row r="157" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="193" t="s">
         <v>983</v>
       </c>
@@ -57340,7 +57373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="15" customHeight="1">
+    <row r="158" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="199" t="s">
         <v>1663</v>
       </c>
@@ -57381,7 +57414,7 @@
       </c>
       <c r="V158" s="83"/>
     </row>
-    <row r="159" spans="1:26" ht="15" customHeight="1">
+    <row r="159" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="199" t="s">
         <v>1660</v>
       </c>
@@ -57476,7 +57509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="15" customHeight="1">
+    <row r="161" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -57542,7 +57575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="15" customHeight="1">
+    <row r="162" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -57610,7 +57643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="15" customHeight="1">
+    <row r="163" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -57655,7 +57688,7 @@
       </c>
       <c r="V163" s="83"/>
     </row>
-    <row r="164" spans="1:27" ht="15" customHeight="1">
+    <row r="164" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -57711,7 +57744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="15" customHeight="1">
+    <row r="165" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -57750,7 +57783,7 @@
       </c>
       <c r="V165" s="83"/>
     </row>
-    <row r="166" spans="1:27" ht="15" customHeight="1">
+    <row r="166" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -57788,7 +57821,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="15" customHeight="1">
+    <row r="167" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -57828,7 +57861,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="15" customHeight="1">
+    <row r="168" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -57866,7 +57899,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="15" customHeight="1">
+    <row r="169" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -57904,7 +57937,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="15" customHeight="1">
+    <row r="170" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -57942,7 +57975,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="15" customHeight="1">
+    <row r="171" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -57986,7 +58019,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="15" customHeight="1">
+    <row r="172" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -58033,7 +58066,7 @@
       </c>
       <c r="V172" s="210"/>
     </row>
-    <row r="173" spans="1:27" ht="15" customHeight="1">
+    <row r="173" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -58083,7 +58116,7 @@
       </c>
       <c r="V173" s="210"/>
     </row>
-    <row r="174" spans="1:27" ht="15" customHeight="1">
+    <row r="174" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -58130,7 +58163,7 @@
       </c>
       <c r="V174" s="210"/>
     </row>
-    <row r="175" spans="1:27" ht="15" customHeight="1">
+    <row r="175" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="207" t="s">
         <v>1508</v>
       </c>
@@ -58180,7 +58213,7 @@
       </c>
       <c r="V175" s="210"/>
     </row>
-    <row r="176" spans="1:27" ht="15" customHeight="1">
+    <row r="176" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -58230,7 +58263,7 @@
       </c>
       <c r="V176" s="210"/>
     </row>
-    <row r="177" spans="1:26" ht="15" customHeight="1">
+    <row r="177" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -58280,7 +58313,7 @@
       </c>
       <c r="V177" s="210"/>
     </row>
-    <row r="178" spans="1:26" ht="15" customHeight="1">
+    <row r="178" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -58330,7 +58363,7 @@
       </c>
       <c r="V178" s="210"/>
     </row>
-    <row r="179" spans="1:26" ht="15" customHeight="1">
+    <row r="179" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -58380,7 +58413,7 @@
       </c>
       <c r="V179" s="210"/>
     </row>
-    <row r="180" spans="1:26" ht="15" customHeight="1">
+    <row r="180" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -58430,7 +58463,7 @@
       </c>
       <c r="V180" s="210"/>
     </row>
-    <row r="181" spans="1:26" ht="15" customHeight="1">
+    <row r="181" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -58480,7 +58513,7 @@
       </c>
       <c r="V181" s="210"/>
     </row>
-    <row r="182" spans="1:26" ht="15" customHeight="1">
+    <row r="182" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -58530,7 +58563,7 @@
       </c>
       <c r="V182" s="210"/>
     </row>
-    <row r="183" spans="1:26" ht="15" customHeight="1">
+    <row r="183" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -58577,7 +58610,7 @@
       </c>
       <c r="V183" s="210"/>
     </row>
-    <row r="184" spans="1:26" ht="15" customHeight="1">
+    <row r="184" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -58627,7 +58660,7 @@
       </c>
       <c r="V184" s="210"/>
     </row>
-    <row r="185" spans="1:26" ht="15" customHeight="1">
+    <row r="185" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -58677,7 +58710,7 @@
       </c>
       <c r="V185" s="210"/>
     </row>
-    <row r="186" spans="1:26" ht="15" customHeight="1">
+    <row r="186" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -58727,7 +58760,7 @@
       </c>
       <c r="V186" s="210"/>
     </row>
-    <row r="187" spans="1:26" ht="15" customHeight="1">
+    <row r="187" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -58777,7 +58810,7 @@
       </c>
       <c r="V187" s="210"/>
     </row>
-    <row r="188" spans="1:26" ht="15" customHeight="1">
+    <row r="188" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -58827,7 +58860,7 @@
       </c>
       <c r="V188" s="210"/>
     </row>
-    <row r="189" spans="1:26" ht="15" customHeight="1">
+    <row r="189" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -58877,7 +58910,7 @@
       </c>
       <c r="V189" s="210"/>
     </row>
-    <row r="190" spans="1:26" ht="15" customHeight="1">
+    <row r="190" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -58927,7 +58960,7 @@
       </c>
       <c r="V190" s="210"/>
     </row>
-    <row r="191" spans="1:26" ht="15" customHeight="1">
+    <row r="191" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -59042,7 +59075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="15" customHeight="1">
+    <row r="193" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="197" t="s">
         <v>1189</v>
       </c>
@@ -59094,7 +59127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="15" customHeight="1">
+    <row r="194" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -59136,7 +59169,7 @@
       <c r="V194" s="212"/>
       <c r="X194" s="83"/>
     </row>
-    <row r="195" spans="1:25" ht="15" customHeight="1">
+    <row r="195" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="192" t="s">
         <v>1183</v>
       </c>
@@ -59186,7 +59219,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="15" customHeight="1">
+    <row r="196" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -59243,7 +59276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="15" customHeight="1">
+    <row r="197" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="197" t="s">
         <v>1178</v>
       </c>
@@ -59292,7 +59325,7 @@
       </c>
       <c r="X197" s="83"/>
     </row>
-    <row r="198" spans="1:25" ht="15" customHeight="1">
+    <row r="198" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -59349,7 +59382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="15" customHeight="1">
+    <row r="199" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="199" t="s">
         <v>1174</v>
       </c>
@@ -59402,7 +59435,7 @@
       </c>
       <c r="X199" s="83"/>
     </row>
-    <row r="200" spans="1:25" ht="15" customHeight="1">
+    <row r="200" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="199" t="s">
         <v>1171</v>
       </c>
@@ -59452,7 +59485,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="15" customHeight="1">
+    <row r="201" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -59509,7 +59542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="15" customHeight="1">
+    <row r="202" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="199" t="s">
         <v>1666</v>
       </c>
@@ -59602,7 +59635,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="15" customHeight="1">
+    <row r="204" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -59644,7 +59677,7 @@
       <c r="U204" s="210"/>
       <c r="V204" s="210"/>
     </row>
-    <row r="205" spans="1:25" ht="15" customHeight="1">
+    <row r="205" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -59686,7 +59719,7 @@
       <c r="U205" s="210"/>
       <c r="V205" s="210"/>
     </row>
-    <row r="206" spans="1:25" ht="15" customHeight="1">
+    <row r="206" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -59728,7 +59761,7 @@
       <c r="U206" s="210"/>
       <c r="V206" s="210"/>
     </row>
-    <row r="207" spans="1:25" ht="15" customHeight="1">
+    <row r="207" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -59770,7 +59803,7 @@
       <c r="U207" s="210"/>
       <c r="V207" s="210"/>
     </row>
-    <row r="208" spans="1:25" ht="15" customHeight="1">
+    <row r="208" spans="1:25" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -59812,7 +59845,7 @@
       <c r="U208" s="210"/>
       <c r="V208" s="210"/>
     </row>
-    <row r="209" spans="1:26" ht="15" customHeight="1">
+    <row r="209" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -59854,7 +59887,7 @@
       <c r="U209" s="210"/>
       <c r="V209" s="210"/>
     </row>
-    <row r="210" spans="1:26" ht="15" customHeight="1">
+    <row r="210" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -59896,7 +59929,7 @@
       <c r="U210" s="210"/>
       <c r="V210" s="210"/>
     </row>
-    <row r="211" spans="1:26" ht="15" customHeight="1">
+    <row r="211" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="199" t="s">
         <v>1683</v>
       </c>
@@ -59936,7 +59969,7 @@
       <c r="U211" s="210"/>
       <c r="V211" s="210"/>
     </row>
-    <row r="212" spans="1:26" ht="15" customHeight="1">
+    <row r="212" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -60006,7 +60039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="15" customHeight="1">
+    <row r="213" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -60046,7 +60079,7 @@
       <c r="U213" s="210"/>
       <c r="V213" s="212"/>
     </row>
-    <row r="214" spans="1:26" ht="15" customHeight="1">
+    <row r="214" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="199" t="s">
         <v>1697</v>
       </c>
@@ -60158,7 +60191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="15" customHeight="1">
+    <row r="216" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="199" t="s">
         <v>1719</v>
       </c>
@@ -60211,7 +60244,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="15" customHeight="1">
+    <row r="217" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A217" s="199" t="s">
         <v>1731</v>
       </c>
@@ -60265,7 +60298,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="15" customHeight="1">
+    <row r="218" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="199" t="s">
         <v>1734</v>
       </c>
@@ -60315,7 +60348,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="15" customHeight="1">
+    <row r="219" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="199" t="s">
         <v>1736</v>
       </c>
@@ -60373,7 +60406,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="15" customHeight="1">
+    <row r="220" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="199" t="s">
         <v>1743</v>
       </c>
@@ -60419,7 +60452,7 @@
       <c r="U220" s="210"/>
       <c r="V220" s="212"/>
     </row>
-    <row r="221" spans="1:26" ht="15" customHeight="1">
+    <row r="221" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="199" t="s">
         <v>1750</v>
       </c>
@@ -60465,7 +60498,7 @@
       <c r="U221" s="210"/>
       <c r="V221" s="210"/>
     </row>
-    <row r="222" spans="1:26" ht="15" customHeight="1">
+    <row r="222" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="199" t="s">
         <v>1755</v>
       </c>
@@ -60511,7 +60544,7 @@
       <c r="U222" s="210"/>
       <c r="V222" s="210"/>
     </row>
-    <row r="223" spans="1:26" ht="15" customHeight="1">
+    <row r="223" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="199" t="s">
         <v>1759</v>
       </c>
@@ -60557,7 +60590,7 @@
       <c r="U223" s="210"/>
       <c r="V223" s="210"/>
     </row>
-    <row r="224" spans="1:26" ht="15" customHeight="1">
+    <row r="224" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="199" t="s">
         <v>1763</v>
       </c>
@@ -60603,7 +60636,7 @@
       <c r="U224" s="210"/>
       <c r="V224" s="210"/>
     </row>
-    <row r="225" spans="1:26" ht="15" customHeight="1">
+    <row r="225" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -60716,7 +60749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15" customHeight="1">
+    <row r="227" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -60776,7 +60809,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15" customHeight="1">
+    <row r="228" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -60834,7 +60867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15" customHeight="1">
+    <row r="229" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -60895,7 +60928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="15" customHeight="1">
+    <row r="230" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -60943,7 +60976,7 @@
       <c r="U230" s="210"/>
       <c r="V230" s="212"/>
     </row>
-    <row r="231" spans="1:26" ht="15" customHeight="1">
+    <row r="231" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -60989,7 +61022,7 @@
       <c r="U231" s="210"/>
       <c r="V231" s="210"/>
     </row>
-    <row r="232" spans="1:26" ht="15" customHeight="1">
+    <row r="232" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -61027,7 +61060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15" customHeight="1">
+    <row r="233" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -61065,7 +61098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15" customHeight="1">
+    <row r="234" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -61105,7 +61138,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15" customHeight="1">
+    <row r="235" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="234" t="s">
         <v>2605</v>
       </c>
@@ -61150,7 +61183,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15" customHeight="1">
+    <row r="236" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="221" t="s">
         <v>2884</v>
       </c>
@@ -61237,7 +61270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15" customHeight="1">
+    <row r="238" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A238" s="221" t="s">
         <v>2879</v>
       </c>
@@ -61273,7 +61306,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15" customHeight="1">
+    <row r="239" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2880</v>
       </c>
@@ -61365,7 +61398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="15" customHeight="1">
+    <row r="241" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A241" s="221" t="s">
         <v>2887</v>
       </c>
@@ -61401,7 +61434,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="15" customHeight="1">
+    <row r="242" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2888</v>
       </c>
@@ -61524,7 +61557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="15" customHeight="1">
+    <row r="245" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2890</v>
       </c>
@@ -61648,7 +61681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:27" ht="15" customHeight="1">
+    <row r="248" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="221" t="s">
         <v>2872</v>
       </c>
@@ -61694,7 +61727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="15" customHeight="1">
+    <row r="249" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2899</v>
       </c>
@@ -61730,7 +61763,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="15" customHeight="1">
+    <row r="250" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="221" t="s">
         <v>2900</v>
       </c>
@@ -61764,7 +61797,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="15" customHeight="1">
+    <row r="251" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="221" t="s">
         <v>2901</v>
       </c>
@@ -61798,7 +61831,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="252" spans="1:27" ht="15" customHeight="1">
+    <row r="252" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="221" t="s">
         <v>2902</v>
       </c>
@@ -61832,7 +61865,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="15" customHeight="1">
+    <row r="253" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="221" t="s">
         <v>2903</v>
       </c>
@@ -61967,7 +62000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:27" ht="15" customHeight="1">
+    <row r="256" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="221" t="s">
         <v>2905</v>
       </c>
@@ -62107,7 +62140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="15" customHeight="1">
+    <row r="259" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="223" t="s">
         <v>2892</v>
       </c>
@@ -62188,7 +62221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="15" customHeight="1">
+    <row r="261" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2894</v>
       </c>
@@ -62226,7 +62259,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="15" customHeight="1">
+    <row r="262" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2895</v>
       </c>
@@ -62262,7 +62295,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="15" customHeight="1">
+    <row r="263" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2896</v>
       </c>
@@ -62423,7 +62456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="15" customHeight="1">
+    <row r="267" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2873</v>
       </c>
@@ -62469,7 +62502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="15" customHeight="1">
+    <row r="268" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2877</v>
       </c>
@@ -62608,7 +62641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="15" customHeight="1">
+    <row r="271" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2985</v>
       </c>
@@ -62662,72 +62695,183 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="273" spans="1:22" ht="15" customHeight="1">
-      <c r="A273" s="267" t="s">
+    <row r="273" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A273" s="221" t="s">
         <v>3145</v>
       </c>
-      <c r="C273" s="268" t="s">
+      <c r="C273" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="K273" s="269" t="s">
+      <c r="K273" s="267" t="s">
         <v>120</v>
       </c>
       <c r="O273" t="s">
         <v>3149</v>
       </c>
-      <c r="V273" s="270" t="s">
+      <c r="V273" s="212" t="s">
         <v>2861</v>
       </c>
     </row>
-    <row r="274" spans="1:22" ht="15" customHeight="1">
-      <c r="A274" s="267" t="s">
+    <row r="274" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A274" s="221" t="s">
         <v>3146</v>
       </c>
-      <c r="C274" s="268" t="s">
+      <c r="C274" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="K274" s="269" t="s">
+      <c r="K274" s="267" t="s">
         <v>120</v>
       </c>
       <c r="O274" t="s">
         <v>3148</v>
       </c>
-      <c r="V274" s="270" t="s">
+      <c r="V274" s="212" t="s">
         <v>2861</v>
       </c>
     </row>
-    <row r="275" spans="1:22" ht="15" customHeight="1">
-      <c r="A275" s="267" t="s">
+    <row r="275" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A275" s="221" t="s">
         <v>3147</v>
       </c>
-      <c r="C275" s="268" t="s">
+      <c r="C275" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="K275" s="269" t="s">
+      <c r="K275" s="267" t="s">
         <v>120</v>
       </c>
       <c r="O275" t="s">
         <v>3150</v>
       </c>
-      <c r="V275" s="270" t="s">
+      <c r="V275" s="212" t="s">
         <v>2861</v>
       </c>
     </row>
-    <row r="276" spans="1:22" ht="15" customHeight="1">
-      <c r="A276" s="267" t="s">
+    <row r="276" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A276" s="221" t="s">
         <v>3144</v>
       </c>
-      <c r="C276" s="268" t="s">
+      <c r="C276" s="218" t="s">
         <v>2869</v>
       </c>
-      <c r="K276" s="271" t="s">
+      <c r="K276" s="223" t="s">
         <v>120</v>
       </c>
       <c r="O276" t="s">
         <v>3151</v>
       </c>
     </row>
+    <row r="277" spans="1:22" ht="15" customHeight="1">
+      <c r="A277" s="268" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D277" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" ht="15" customHeight="1">
+      <c r="A278" s="268" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D278" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" ht="15" customHeight="1">
+      <c r="A279" s="268" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D279" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" ht="15" customHeight="1">
+      <c r="A280" s="268" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D280" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" ht="15" customHeight="1">
+      <c r="A281" s="268" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D281" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" ht="15" customHeight="1">
+      <c r="A282" s="268" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D282" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" ht="15" customHeight="1">
+      <c r="A283" s="268" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D283" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" ht="15" customHeight="1">
+      <c r="A284" s="268" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D284" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" ht="15" customHeight="1">
+      <c r="A285" s="268" t="s">
+        <v>3160</v>
+      </c>
+      <c r="D285" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" ht="15" customHeight="1">
+      <c r="A286" s="268" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D286" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" ht="15" customHeight="1">
+      <c r="A287" s="268" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D287" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" ht="15" customHeight="1">
+      <c r="A288" s="268" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D288" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1">
+      <c r="A289" s="268" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D289" s="210" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AA276" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y273">
     <sortCondition ref="I2:I273"/>
   </sortState>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B910805-2D2A-C24F-BBD1-2584B59F3E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5CFF9B-138A-9843-979A-33011B8E98D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,15 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AA$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AA$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$R$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13052" uniqueCount="3167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13056" uniqueCount="3170">
   <si>
     <t>Tab</t>
   </si>
@@ -12013,6 +12013,15 @@
   </si>
   <si>
     <t>Included</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>microcephaly_bin_fet</t>
+  </si>
+  <si>
+    <t>replace fet_micro</t>
   </si>
 </sst>
 </file>
@@ -12715,7 +12724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13437,16 +13446,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="162">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13906,6 +13923,838 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -14136,7 +14985,7 @@
   </sheetPr>
   <dimension ref="B1:P997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -15960,7 +16809,7 @@
   </sheetPr>
   <dimension ref="A1:M992"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I386" sqref="I386"/>
     </sheetView>
@@ -49127,27 +49976,27 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C2:D218">
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="161" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:D252">
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="160" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C219))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:D321">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="159" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C253))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C322:D346">
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="158" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C322))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C347:C388">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="157" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(C347))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49172,13 +50021,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA290"/>
+  <dimension ref="A1:AB290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M246" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V294" sqref="V294"/>
+      <selection pane="bottomRight" activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49196,7 +50045,7 @@
     <col min="20" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1">
+    <row r="1" spans="1:28" ht="15" customHeight="1">
       <c r="A1" s="228" t="s">
         <v>3098</v>
       </c>
@@ -49278,8 +50127,11 @@
       <c r="AA1" s="201" t="s">
         <v>3136</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB1" s="201" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49328,7 +50180,7 @@
       <c r="X2" s="83"/>
       <c r="Y2" s="83"/>
     </row>
-    <row r="3" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49371,7 +50223,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49414,7 +50266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49454,7 +50306,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49494,7 +50346,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49535,7 +50387,7 @@
       </c>
       <c r="T7" s="210"/>
     </row>
-    <row r="8" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49576,7 +50428,7 @@
       </c>
       <c r="T8" s="210"/>
     </row>
-    <row r="9" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49617,7 +50469,7 @@
       </c>
       <c r="T9" s="210"/>
     </row>
-    <row r="10" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49658,7 +50510,7 @@
       </c>
       <c r="T10" s="210"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1">
+    <row r="11" spans="1:28" ht="15" customHeight="1">
       <c r="A11" s="177" t="s">
         <v>167</v>
       </c>
@@ -49733,7 +50585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49795,7 +50647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1">
+    <row r="13" spans="1:28" ht="15" customHeight="1">
       <c r="A13" s="192" t="s">
         <v>174</v>
       </c>
@@ -49857,7 +50709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1">
+    <row r="14" spans="1:28" ht="15" customHeight="1">
       <c r="A14" s="177" t="s">
         <v>177</v>
       </c>
@@ -49919,7 +50771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -49968,7 +50820,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -50033,7 +50885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -50077,7 +50929,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -50121,7 +50973,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -50165,7 +51017,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -50209,7 +51061,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1">
+    <row r="21" spans="1:28" ht="15" customHeight="1">
       <c r="A21" s="192" t="s">
         <v>267</v>
       </c>
@@ -50270,8 +51122,11 @@
       <c r="Z21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -50320,7 +51175,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1">
+    <row r="23" spans="1:28" ht="15" customHeight="1">
       <c r="A23" s="192" t="s">
         <v>309</v>
       </c>
@@ -50378,7 +51233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -50427,7 +51282,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -50476,7 +51331,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1">
+    <row r="26" spans="1:28" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -50534,7 +51389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="192" t="s">
         <v>365</v>
       </c>
@@ -50583,7 +51438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -50634,7 +51489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -50678,7 +51533,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -50723,7 +51578,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -50768,7 +51623,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -53211,7 +54066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53276,7 +54131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15" customHeight="1">
+    <row r="82" spans="1:28" ht="15" customHeight="1">
       <c r="A82" s="177" t="s">
         <v>702</v>
       </c>
@@ -53339,8 +54194,11 @@
       <c r="Z82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53389,7 +54247,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53432,7 +54290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53490,7 +54348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -53539,7 +54397,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -53590,7 +54448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -53641,7 +54499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15" customHeight="1">
+    <row r="89" spans="1:28" ht="15" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -53704,8 +54562,11 @@
       <c r="Z89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -53760,7 +54621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -53805,7 +54666,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -53862,7 +54723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="15" customHeight="1">
+    <row r="93" spans="1:28" ht="15" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -53925,8 +54786,11 @@
       <c r="Z93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -53981,7 +54845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -54038,7 +54902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -54089,7 +54953,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -54151,7 +55015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -54206,7 +55070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="15" customHeight="1">
+    <row r="99" spans="1:28" ht="15" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -54269,8 +55133,11 @@
       <c r="Z99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54325,7 +55192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="15" customHeight="1">
+    <row r="101" spans="1:28" ht="15" customHeight="1">
       <c r="A101" s="177" t="s">
         <v>759</v>
       </c>
@@ -54386,8 +55253,11 @@
       <c r="Z101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -54452,7 +55322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="15" customHeight="1">
+    <row r="103" spans="1:28" ht="15" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -54517,8 +55387,11 @@
       <c r="Z103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -54583,7 +55456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -54645,7 +55518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -54710,7 +55583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -54772,7 +55645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -54821,7 +55694,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -54870,7 +55743,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -54925,7 +55798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -54971,7 +55844,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -55902,7 +56775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -55956,7 +56829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -56004,7 +56877,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -56058,7 +56931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -56112,7 +56985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -56160,7 +57033,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -56217,7 +57090,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -56271,7 +57144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -56325,7 +57198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -56376,7 +57249,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -56427,7 +57300,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="15" customHeight="1">
+    <row r="139" spans="1:28" ht="15" customHeight="1">
       <c r="A139" s="193" t="s">
         <v>913</v>
       </c>
@@ -56499,8 +57372,11 @@
       <c r="Z139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AB139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -56546,7 +57422,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="15" customHeight="1">
+    <row r="141" spans="1:28" ht="15" customHeight="1">
       <c r="A141" s="193" t="s">
         <v>918</v>
       </c>
@@ -56616,8 +57492,11 @@
       <c r="Z141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" ht="15" hidden="1" customHeight="1">
+      <c r="AB141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -56664,7 +57543,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -56713,7 +57592,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -59051,7 +59930,7 @@
       </c>
       <c r="V191" s="210"/>
     </row>
-    <row r="192" spans="1:26" ht="15" customHeight="1">
+    <row r="192" spans="1:26" ht="15" hidden="1" customHeight="1">
       <c r="A192" s="197" t="s">
         <v>1191</v>
       </c>
@@ -59067,7 +59946,7 @@
         <v>120</v>
       </c>
       <c r="G192" s="225" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="H192" s="177">
         <v>43</v>
@@ -60677,7 +61556,7 @@
       <c r="U224" s="210"/>
       <c r="V224" s="210"/>
     </row>
-    <row r="225" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -60723,7 +61602,7 @@
       <c r="U225" s="210"/>
       <c r="V225" s="210"/>
     </row>
-    <row r="226" spans="1:26" ht="15" customHeight="1">
+    <row r="226" spans="1:28" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -60790,7 +61669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -60850,7 +61729,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -60908,7 +61787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="229" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -60969,7 +61848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -61017,7 +61896,7 @@
       <c r="U230" s="210"/>
       <c r="V230" s="212"/>
     </row>
-    <row r="231" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="231" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -61063,7 +61942,7 @@
       <c r="U231" s="210"/>
       <c r="V231" s="210"/>
     </row>
-    <row r="232" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="232" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -61101,7 +61980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="233" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -61139,7 +62018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="234" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -61179,7 +62058,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="235" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="234" t="s">
         <v>2605</v>
       </c>
@@ -61224,7 +62103,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="236" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="221" t="s">
         <v>2884</v>
       </c>
@@ -61266,7 +62145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="15" customHeight="1">
+    <row r="237" spans="1:28" ht="15" customHeight="1">
       <c r="A237" s="221" t="s">
         <v>2885</v>
       </c>
@@ -61311,7 +62190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="238" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A238" s="221" t="s">
         <v>2879</v>
       </c>
@@ -61347,7 +62226,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15" hidden="1" customHeight="1">
+    <row r="239" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2880</v>
       </c>
@@ -61389,7 +62268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="15" customHeight="1">
+    <row r="240" spans="1:28" ht="15" customHeight="1">
       <c r="A240" s="221" t="s">
         <v>2886</v>
       </c>
@@ -61437,6 +62316,9 @@
       </c>
       <c r="Z240">
         <v>2</v>
+      </c>
+      <c r="AB240">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:27" ht="15" hidden="1" customHeight="1">
@@ -62087,7 +62969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="15" customHeight="1">
+    <row r="257" spans="1:28" ht="15" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2870</v>
       </c>
@@ -62134,7 +63016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="15" customHeight="1">
+    <row r="258" spans="1:28" ht="15" customHeight="1">
       <c r="A258" s="221" t="s">
         <v>2881</v>
       </c>
@@ -62181,7 +63063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="259" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="223" t="s">
         <v>2892</v>
       </c>
@@ -62217,7 +63099,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="260" spans="1:27" ht="15" customHeight="1">
+    <row r="260" spans="1:28" ht="15" customHeight="1">
       <c r="A260" s="221" t="s">
         <v>2893</v>
       </c>
@@ -62261,8 +63143,11 @@
       <c r="Z260">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AB260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2894</v>
       </c>
@@ -62300,7 +63185,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="262" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2895</v>
       </c>
@@ -62336,7 +63221,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="263" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2896</v>
       </c>
@@ -62370,7 +63255,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="15" customHeight="1">
+    <row r="264" spans="1:28" ht="15" customHeight="1">
       <c r="A264" s="221" t="s">
         <v>2874</v>
       </c>
@@ -62412,8 +63297,11 @@
       <c r="Z264">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:27" ht="15" customHeight="1">
+      <c r="AB264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:28" ht="15" customHeight="1">
       <c r="A265" s="221" t="s">
         <v>2875</v>
       </c>
@@ -62454,8 +63342,11 @@
       <c r="Z265">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:27" ht="15" customHeight="1">
+      <c r="AB265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:28" ht="15" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2906</v>
       </c>
@@ -62497,7 +63388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="267" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2873</v>
       </c>
@@ -62543,7 +63434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="268" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2877</v>
       </c>
@@ -62589,7 +63480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="15" customHeight="1">
+    <row r="269" spans="1:28" ht="15" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2876</v>
       </c>
@@ -62633,8 +63524,11 @@
       <c r="Z269">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:27" ht="15" customHeight="1">
+      <c r="AB269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28" ht="15" customHeight="1">
       <c r="A270" s="221" t="s">
         <v>2819</v>
       </c>
@@ -62682,7 +63576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="271" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2985</v>
       </c>
@@ -62710,7 +63604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="15" customHeight="1">
+    <row r="272" spans="1:28" ht="15" customHeight="1">
       <c r="A272" s="221" t="s">
         <v>3104</v>
       </c>
@@ -63218,10 +64112,25 @@
       </c>
     </row>
     <row r="290" spans="1:26" ht="15" customHeight="1">
+      <c r="A290" s="269" t="s">
+        <v>3168</v>
+      </c>
+      <c r="G290" s="270" t="s">
+        <v>120</v>
+      </c>
+      <c r="H290">
+        <v>43</v>
+      </c>
+      <c r="I290" s="272">
+        <v>290</v>
+      </c>
+      <c r="L290" s="271" t="s">
+        <v>3169</v>
+      </c>
       <c r="V290" s="212"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA289" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+  <autoFilter ref="A1:AA290" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
     <filterColumn colId="6">
       <filters>
         <filter val="yes"/>
@@ -63231,218 +64140,218 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y273">
     <sortCondition ref="I2:I273"/>
   </sortState>
-  <conditionalFormatting sqref="E86:E89 E30:E36 E58:E67 E69:E79 E84 E91:E93 E81:E82 F29:H84 E95:E99 E101:E103 F86:H104 E130:E141 F115:H158 I6:I272 F2:F270 J3:K271 K273:K276 I277:I289 E6:H28 E3:I5 E38 E41:E56 E105:H113 E115:E118 E120:E121 E123:E126 E143:E144 E146 E148 E152 E154 E156:E158 D2:D3 D11:D37 D39:E40 D42:D83 D85:D111 D113:D114 D116:D119 D121:D122 D124:D143 D145:E145 D147:E147 D149:E151 D153:E153 D155:E155 D157:D160">
-    <cfRule type="containsText" dxfId="52" priority="63" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="E86:E89 E30:E36 E58:E67 E69:E79 E84 E91:E93 E81:E82 F29:H84 E95:E99 E101:E103 F86:H104 E130:E141 F115:H158 I6:I272 F2:F270 J3:K271 K273:K276 E6:H28 E3:I5 E38 E41:E56 E105:H113 E115:E118 E120:E121 E123:E126 E143:E144 E146 E148 E152 E154 E156:E158 D2:D3 D11:D37 D39:E40 D42:D83 D85:D111 D113:D114 D116:D119 D121:D122 D124:D143 D145:E145 D147:E147 D149:E151 D153:E153 D155:E155 D157:D160 I277:I290">
+    <cfRule type="containsText" dxfId="103" priority="65" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="containsText" dxfId="51" priority="62" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="102" priority="64" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(E85))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114:H114">
-    <cfRule type="containsText" dxfId="50" priority="57" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="101" priority="59" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G114))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161:H161">
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="100" priority="58" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G161))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162:H162">
-    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="99" priority="57" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G162))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163:H163">
-    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="98" priority="56" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G163))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G193:H193">
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="97" priority="55" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G203:H203">
-    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="96" priority="54" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G204:H204">
-    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="95" priority="53" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213:H213">
-    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="94" priority="52" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G213))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G216:H216">
-    <cfRule type="containsText" dxfId="42" priority="49" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="93" priority="51" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G216))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218:H218">
-    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="92" priority="50" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G218))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G227:H227">
-    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="91" priority="49" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G227))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G230:H230">
-    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="90" priority="48" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G230))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G238:H238">
-    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="89" priority="47" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G238))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G241:H241">
-    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="88" priority="46" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G241))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G245:H245">
-    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="87" priority="45" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G245))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236:H236">
-    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="86" priority="44" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G236))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248:H248">
-    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="85" priority="43" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G248))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G249:H249">
-    <cfRule type="containsText" dxfId="33" priority="40" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="84" priority="42" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G249))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H254">
-    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="83" priority="41" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(H254))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G256:H256">
-    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="82" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G256))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G257:H257">
-    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="81" priority="39" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G257))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G258:H258">
-    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="80" priority="38" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G258))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:H259">
-    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G259))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261:H261">
-    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="78" priority="36" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G261))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G265:H265">
-    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G265))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G266:H266">
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="76" priority="34" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G266))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G268:H268">
-    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="75" priority="33" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G268))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G267:H267">
-    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="74" priority="32" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G267))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G269:H269">
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="73" priority="31" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G269))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G270:H271 H277:H289">
-    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="72" priority="30" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G270))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:K108">
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="71" priority="26" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:K158">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="70" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(J109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L82">
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="69" priority="24" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83:L108">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="68" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109:L158">
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="67" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(L109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M82">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:M108">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="20" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M83))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:M158">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="64" priority="19" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(M109))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="63" priority="16" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -63454,42 +64363,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:F107">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="61" priority="12" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(F82))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108:F157">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(F108))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G254">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="59" priority="10" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G254))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G255">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G255))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G260">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G260))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G264">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G264))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G272">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G272))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R271">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -63501,7 +64410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -63513,18 +64422,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G277:G289">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(G277))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277:F289">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(F277))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D277:D289 D242:D272 D239:D240 D237 D235 D226:D228 D202:D203">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D202))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -63548,8 +64469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -64638,7 +65559,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G25 G33:G36">
-    <cfRule type="containsBlanks" dxfId="0" priority="54">
+    <cfRule type="containsBlanks" dxfId="156" priority="54">
       <formula>LEN(TRIM(#REF!))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C84A8-0359-4140-B880-8D79B1253855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72154A59-4B22-5244-AD27-DFE8F59C1CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="237 key" sheetId="7" r:id="rId3"/>
     <sheet name="StudyID" sheetId="12" r:id="rId4"/>
     <sheet name="Missings" sheetId="8" r:id="rId5"/>
-    <sheet name="Outflux" r:id="rId11" sheetId="13"/>
+    <sheet name="Outflux" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AD$290</definedName>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14002" uniqueCount="3184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13620" uniqueCount="3184">
   <si>
     <t>Tab</t>
   </si>
@@ -13919,18 +13919,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.1640625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="39.1640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="34.1640625" collapsed="true"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="24.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="34.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="82.5" customHeight="1">
@@ -15729,2679 +15729,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>702</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9398063528269864</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9170693835042978</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.911376287213609</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8817050070804011</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>918</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.853350200127165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8402861821226373</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8301163022985434</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8241758484998901</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8229462548025815</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8173677066196079</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8100294338833303</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.805792260642875</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7992486308180893</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7945128689541979</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.7686836540957036</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7249318106735595</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7115905530460113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>742</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.7101053012532227</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6999365281741309</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>725</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6984130936787706</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.6905231085589572</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>755</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.6799758286891546</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.6777927741725559</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.6556650679735112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.628318505717168</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>562</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.6184828628837016</v>
-      </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6061692179905827</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>870</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5989366394020036</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>3154</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5972117773162651</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>811</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5970579397609763</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.594895913399417</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" t="n">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5878000178185945</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>864</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5865350082812195</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>813</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.575931284416311</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5758504920311593</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" t="n">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5729408594206965</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>835</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5705884729187799</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" t="n">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>763</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5671033329072365</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>860</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5652661362037872</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" t="n">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5643752064771145</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="n">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5576998739970815</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="n">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>846</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5453297851088567</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" t="n">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5373999571689684</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.515220233954826</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>395</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5029735471343328</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" t="n">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.48884594718280827</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D49" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>493</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.4879815793361854</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D50" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.4760663626438146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D51" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.46601213767243777</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D52" t="n">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>854</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.4614473679113674</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D53" t="n">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>850</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.4606715396649108</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D54" t="n">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>467</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.45479417033137604</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D55" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>2895</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.4547891899788667</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>2897</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.44980551723450984</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>921</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.44255910433340473</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D58" t="n">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>565</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.4407833319775707</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D59" t="n">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>759</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.4383971897530907</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D60" t="n">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.4379124354421806</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D61" t="n">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>385</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.4037732257355842</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.398755797268664</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D63" t="n">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>403</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.3957780998405734</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D64" t="n">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>548</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.3903578161928968</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D65" t="n">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.3686230044695897</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D66" t="n">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.3669191705388907</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D67" t="n">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>856</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.35858704079074716</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D68" t="n">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>495</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.35809785949982875</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D69" t="n">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>983</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.35497296498646175</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D70" t="n">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>751</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.35456457608069497</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D71" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.35413903262739604</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D72" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.3529144192825968</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D73" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>947</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.3528208993299212</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>829</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.3404419564816798</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D75" t="n">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>712</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.33444284519791645</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D76" t="n">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.3266369726982609</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D77" t="n">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>960</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.319833811170488</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D78" t="n">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>832</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.319763532862856</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D79" t="n">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>372</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.31234170087892155</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D80" t="n">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>3152</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.30840832914153665</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D81" t="n">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.30434436149390653</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D82" t="n">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.2991786291967079</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D83" t="n">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>924</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.2989943561538619</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D84" t="n">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>405</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.2843410523263503</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D85" t="n">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>267</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.28160130507370645</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D86" t="n">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>558</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.2625365156679123</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D87" t="n">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>556</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.26211650593962377</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>780</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.258000521276896</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.25330128199807317</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>791</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.24966949827375448</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>332</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.24963629592369216</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D92" t="n">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>934</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.23843714324766574</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D93" t="n">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>770</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.23789317807914445</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>717</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.23685117765968808</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>472</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.23233344456120605</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>180</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.23103689279127176</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D97" t="n">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>526</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.22401016877307908</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D98" t="n">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>715</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.22251329615776871</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D99" t="n">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>530</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.22149675087336015</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D100" t="n">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>465</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.21705316969001734</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>347</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.21694028169980537</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D102" t="n">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.21683790778711318</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D103" t="n">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.21665861509677656</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D104" t="n">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>757</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.21584073054024097</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D105" t="n">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>474</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.21056321699783245</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D106" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.20250500663770316</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D107" t="n">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>533</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.20170040302119252</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D108" t="n">
-        <v>107.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.19397089592668035</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D109" t="n">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>3165</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.19339262166309465</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D110" t="n">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.19314471078262918</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D111" t="n">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.1888450064495565</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D112" t="n">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>913</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.17737304113051788</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D113" t="n">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.17660717358907996</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D114" t="n">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>497</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.17471353289052466</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D115" t="n">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>916</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.17342638845310804</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D116" t="n">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>550</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.16734427129418886</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D117" t="n">
-        <v>116.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>805</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.16371636117737748</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D118" t="n">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>488</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.15907411926616166</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D119" t="n">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>744</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.15805038013923958</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D120" t="n">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>728</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.15529126484905936</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D121" t="n">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>802</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.14637975409232798</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D122" t="n">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>552</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.14271974837045634</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D123" t="n">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>374</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.13658893443144574</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D124" t="n">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>761</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.1318979957401385</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D125" t="n">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>378</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.1260770704017097</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D126" t="n">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>768</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.11954450802694482</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>969</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.10473349303663713</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D128" t="n">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>798</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.10308720984604623</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D129" t="n">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.10135736740779845</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D130" t="n">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>778</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0980653543991177</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D131" t="n">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>484</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.09784621888870627</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D132" t="n">
-        <v>131.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>183</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.09147413453924269</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D133" t="n">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>397</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.0896391513257975</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D134" t="n">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.08865525501895025</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D135" t="n">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>441</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.08694920759824713</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D136" t="n">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>414</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.08210885833165939</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.0781588854192433</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>890</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.07337110654025425</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D139" t="n">
-        <v>138.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>879</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.059271175213781634</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D140" t="n">
-        <v>139.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>885</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.058414554582173324</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D141" t="n">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.05679040629162399</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D142" t="n">
-        <v>141.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.05597141499008633</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D143" t="n">
-        <v>142.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.05566872023201802</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D144" t="n">
-        <v>143.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>2899</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.05551432930422815</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D145" t="n">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>739</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.05523487619120348</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D146" t="n">
-        <v>145.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.055088785850929196</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D147" t="n">
-        <v>146.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>941</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.053339575375145054</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D148" t="n">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>478</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.05279505683412272</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D149" t="n">
-        <v>148.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.05060038149500222</v>
-      </c>
-      <c r="C150" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D150" t="n">
-        <v>149.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>574</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.046289056339407705</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D151" t="n">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>546</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.04450609014106018</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D152" t="n">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.044328457568226676</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D153" t="n">
-        <v>152.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>380</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.04299538321322383</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D154" t="n">
-        <v>153.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>247</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.03923023671615477</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D155" t="n">
-        <v>154.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>746</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.03785676616857608</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D156" t="n">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>437</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.03518176349855376</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D157" t="n">
-        <v>156.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>539</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.034845866390423114</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D158" t="n">
-        <v>157.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>905</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.03072545474768704</v>
-      </c>
-      <c r="C159" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D159" t="n">
-        <v>158.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>704</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.02953238363544705</v>
-      </c>
-      <c r="C160" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D160" t="n">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>544</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.029418388900233024</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D161" t="n">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>874</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.025018524144472278</v>
-      </c>
-      <c r="C162" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D162" t="n">
-        <v>161.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>721</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.02047588928344348</v>
-      </c>
-      <c r="C163" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D163" t="n">
-        <v>162.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>2889</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.020452094265898807</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D164" t="n">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>976</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.017036125816985326</v>
-      </c>
-      <c r="C165" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D165" t="n">
-        <v>164.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>909</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.016643231341247667</v>
-      </c>
-      <c r="C166" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D166" t="n">
-        <v>165.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>376</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.015366047608849754</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D167" t="n">
-        <v>166.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>454</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.015366047608849754</v>
-      </c>
-      <c r="C168" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D168" t="n">
-        <v>167.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>901</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.015366047608849754</v>
-      </c>
-      <c r="C169" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D169" t="n">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>469</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.013444184912741457</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D170" t="n">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>894</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.008176078702850588</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D171" t="n">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.006565764724827223</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D172" t="n">
-        <v>171.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>535</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.0048193211115482755</v>
-      </c>
-      <c r="C173" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D173" t="n">
-        <v>172.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>753</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.0047379753538955485</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D174" t="n">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>748</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.0036422978018384143</v>
-      </c>
-      <c r="C175" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D175" t="n">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>949</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.0032012599185103656</v>
-      </c>
-      <c r="C176" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D176" t="n">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>250</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.001438768502701288</v>
-      </c>
-      <c r="C177" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D177" t="n">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>416</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.001359636235052717</v>
-      </c>
-      <c r="C178" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D178" t="n">
-        <v>177.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>542</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.0010065845793898625</v>
-      </c>
-      <c r="C179" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D179" t="n">
-        <v>178.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>554</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9.944103843670055E-4</v>
-      </c>
-      <c r="C180" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D180" t="n">
-        <v>179.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>254</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.926619486127228E-4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D181" t="n">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>839</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.504452158457109E-4</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D182" t="n">
-        <v>181.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>439</v>
-      </c>
-      <c r="B183" t="n">
-        <v>6.585132762363587E-5</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D183" t="n">
-        <v>182.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>382</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D184" t="n">
-        <v>183.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>457</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D185" t="n">
-        <v>184.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>490</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D186" t="n">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>560</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C187" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D187" t="n">
-        <v>186.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D188" t="n">
-        <v>187.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>881</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D189" t="n">
-        <v>188.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>898</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C190" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D190" t="n">
-        <v>189.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
@@ -18417,18 +15744,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="10.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.1640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" width="10.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.1640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.1640625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
@@ -51622,28 +48949,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="T140" sqref="T140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.1640625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.1640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="37.1640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="208" width="10.83203125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="22" max="27" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.83203125" style="208" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="27" width="10.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1">
@@ -51738,7 +49066,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1">
+    <row r="2" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -51795,7 +49123,7 @@
       <c r="Z2" s="83"/>
       <c r="AA2" s="83"/>
     </row>
-    <row r="3" spans="1:30" ht="15" customHeight="1">
+    <row r="3" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -51846,7 +49174,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1">
+    <row r="4" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -51897,7 +49225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1">
+    <row r="5" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -51945,7 +49273,7 @@
         <v>76.291901936959505</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1">
+    <row r="6" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -51993,7 +49321,7 @@
         <v>77.342577371167195</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1">
+    <row r="7" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -52042,7 +49370,7 @@
       </c>
       <c r="V7" s="210"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1">
+    <row r="8" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -52091,7 +49419,7 @@
       </c>
       <c r="V8" s="210"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1">
+    <row r="9" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -52140,7 +49468,7 @@
       </c>
       <c r="V9" s="210"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1">
+    <row r="10" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -52220,7 +49548,7 @@
       </c>
       <c r="J11" s="177">
         <f>VLOOKUP(A11,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11" s="177">
         <v>10</v>
@@ -52272,7 +49600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1">
+    <row r="12" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -52344,7 +49672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1">
+    <row r="13" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="192" t="s">
         <v>174</v>
       </c>
@@ -52416,7 +49744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1">
+    <row r="14" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="177" t="s">
         <v>177</v>
       </c>
@@ -52488,7 +49816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1">
+    <row r="15" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -52545,7 +49873,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" customHeight="1">
+    <row r="16" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -52620,7 +49948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1">
+    <row r="17" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -52672,7 +50000,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15" customHeight="1">
+    <row r="18" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -52724,7 +50052,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15" customHeight="1">
+    <row r="19" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -52776,7 +50104,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" customHeight="1">
+    <row r="20" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -52828,7 +50156,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15" customHeight="1">
+    <row r="21" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="192" t="s">
         <v>267</v>
       </c>
@@ -52903,7 +50231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15" customHeight="1">
+    <row r="22" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -52960,7 +50288,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15" customHeight="1">
+    <row r="23" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="192" t="s">
         <v>309</v>
       </c>
@@ -52989,7 +50317,7 @@
       </c>
       <c r="J23" s="177">
         <f>VLOOKUP(A23,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" s="177">
         <v>22</v>
@@ -53026,7 +50354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15" customHeight="1">
+    <row r="24" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -53049,7 +50377,7 @@
       <c r="I24" s="177"/>
       <c r="J24" s="177">
         <f>VLOOKUP(A24,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" s="177">
         <v>23</v>
@@ -53083,7 +50411,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15" customHeight="1">
+    <row r="25" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -53169,7 +50497,7 @@
       </c>
       <c r="J26" s="177">
         <f>VLOOKUP(A26,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K26" s="177">
         <v>25</v>
@@ -53206,7 +50534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15" customHeight="1">
+    <row r="27" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="192" t="s">
         <v>365</v>
       </c>
@@ -53221,7 +50549,7 @@
       </c>
       <c r="E27" s="177" t="str">
         <f>VLOOKUP(A27,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="F27" s="188"/>
       <c r="G27" s="177"/>
@@ -53231,7 +50559,7 @@
       </c>
       <c r="J27" s="177">
         <f>VLOOKUP(A27,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="K27" s="177">
         <v>26</v>
@@ -53268,7 +50596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15" customHeight="1">
+    <row r="28" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -53291,7 +50619,7 @@
       <c r="I28" s="177"/>
       <c r="J28" s="177">
         <f>VLOOKUP(A28,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K28" s="177">
         <v>27</v>
@@ -53323,7 +50651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15" customHeight="1">
+    <row r="29" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -53375,7 +50703,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15" customHeight="1">
+    <row r="30" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -53428,7 +50756,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1">
+    <row r="31" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -53481,7 +50809,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1">
+    <row r="32" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -53533,7 +50861,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15" customHeight="1">
+    <row r="33" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="192" t="s">
         <v>380</v>
       </c>
@@ -53584,7 +50912,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15" customHeight="1">
+    <row r="34" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="192" t="s">
         <v>382</v>
       </c>
@@ -53637,7 +50965,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15" customHeight="1">
+    <row r="35" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="192" t="s">
         <v>385</v>
       </c>
@@ -53688,7 +51016,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15" customHeight="1">
+    <row r="36" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="204" t="s">
         <v>395</v>
       </c>
@@ -53717,7 +51045,7 @@
       </c>
       <c r="J36" s="177">
         <f>VLOOKUP(A36,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" s="177">
         <v>35</v>
@@ -53754,7 +51082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15" customHeight="1">
+    <row r="37" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="177" t="s">
         <v>397</v>
       </c>
@@ -53811,7 +51139,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15" customHeight="1">
+    <row r="38" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="203" t="s">
         <v>400</v>
       </c>
@@ -53865,7 +51193,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15" customHeight="1">
+    <row r="39" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="192" t="s">
         <v>403</v>
       </c>
@@ -53916,7 +51244,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15" customHeight="1">
+    <row r="40" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="192" t="s">
         <v>405</v>
       </c>
@@ -53967,7 +51295,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15" customHeight="1">
+    <row r="41" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="192" t="s">
         <v>408</v>
       </c>
@@ -54013,7 +51341,7 @@
         <v>98.499035093988994</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15" customHeight="1">
+    <row r="42" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="177" t="s">
         <v>414</v>
       </c>
@@ -54070,7 +51398,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15" customHeight="1">
+    <row r="43" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="192" t="s">
         <v>416</v>
       </c>
@@ -54129,7 +51457,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15" customHeight="1">
+    <row r="44" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="177" t="s">
         <v>437</v>
       </c>
@@ -54186,7 +51514,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15" customHeight="1">
+    <row r="45" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="177" t="s">
         <v>439</v>
       </c>
@@ -54243,7 +51571,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15" customHeight="1">
+    <row r="46" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="177" t="s">
         <v>441</v>
       </c>
@@ -54300,7 +51628,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15" customHeight="1">
+    <row r="47" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="192" t="s">
         <v>454</v>
       </c>
@@ -54357,7 +51685,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15" customHeight="1">
+    <row r="48" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="192" t="s">
         <v>457</v>
       </c>
@@ -54408,7 +51736,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15" customHeight="1">
+    <row r="49" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2647</v>
       </c>
@@ -54470,7 +51798,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15" customHeight="1">
+    <row r="50" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="192" t="s">
         <v>465</v>
       </c>
@@ -54538,7 +51866,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15" customHeight="1">
+    <row r="51" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -54606,7 +51934,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15" customHeight="1">
+    <row r="52" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="192" t="s">
         <v>469</v>
       </c>
@@ -54667,7 +51995,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15" customHeight="1">
+    <row r="53" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="192" t="s">
         <v>472</v>
       </c>
@@ -54724,7 +52052,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15" customHeight="1">
+    <row r="54" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="203" t="s">
         <v>474</v>
       </c>
@@ -54783,7 +52111,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="15" customHeight="1">
+    <row r="55" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="203" t="s">
         <v>478</v>
       </c>
@@ -54865,7 +52193,7 @@
       </c>
       <c r="J56" s="177">
         <f>VLOOKUP(A56,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K56" s="177">
         <v>55</v>
@@ -54899,7 +52227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="15" customHeight="1">
+    <row r="57" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -54964,7 +52292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="15" customHeight="1">
+    <row r="58" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -55021,7 +52349,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="15" customHeight="1">
+    <row r="59" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="205" t="s">
         <v>490</v>
       </c>
@@ -55080,7 +52408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15" customHeight="1">
+    <row r="60" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="203" t="s">
         <v>493</v>
       </c>
@@ -55137,7 +52465,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15" customHeight="1">
+    <row r="61" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -55194,7 +52522,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="15" customHeight="1">
+    <row r="62" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -55251,7 +52579,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15" customHeight="1">
+    <row r="63" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="192" t="s">
         <v>526</v>
       </c>
@@ -55322,7 +52650,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15" customHeight="1">
+    <row r="64" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="203" t="s">
         <v>530</v>
       </c>
@@ -55379,7 +52707,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="15" customHeight="1">
+    <row r="65" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="192" t="s">
         <v>533</v>
       </c>
@@ -55436,7 +52764,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="15" customHeight="1">
+    <row r="66" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="203" t="s">
         <v>535</v>
       </c>
@@ -55493,7 +52821,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15" customHeight="1">
+    <row r="67" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="203" t="s">
         <v>537</v>
       </c>
@@ -55522,7 +52850,7 @@
       </c>
       <c r="J67" s="177">
         <f>VLOOKUP(A67,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K67" s="177">
         <v>66</v>
@@ -55559,7 +52887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="15" customHeight="1">
+    <row r="68" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="203" t="s">
         <v>539</v>
       </c>
@@ -55616,7 +52944,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="15" customHeight="1">
+    <row r="69" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="203" t="s">
         <v>542</v>
       </c>
@@ -55667,7 +52995,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="15" customHeight="1">
+    <row r="70" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="203" t="s">
         <v>544</v>
       </c>
@@ -55690,7 +53018,7 @@
       <c r="I70" s="188"/>
       <c r="J70" s="177">
         <f>VLOOKUP(A70,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K70" s="177">
         <v>69</v>
@@ -55724,7 +53052,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15" customHeight="1">
+    <row r="71" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="203" t="s">
         <v>546</v>
       </c>
@@ -55781,7 +53109,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15" customHeight="1">
+    <row r="72" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="203" t="s">
         <v>548</v>
       </c>
@@ -55838,7 +53166,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="15" customHeight="1">
+    <row r="73" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="177" t="s">
         <v>550</v>
       </c>
@@ -55895,7 +53223,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="15" customHeight="1">
+    <row r="74" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="177" t="s">
         <v>552</v>
       </c>
@@ -55952,7 +53280,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="15" customHeight="1">
+    <row r="75" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="203" t="s">
         <v>554</v>
       </c>
@@ -56009,7 +53337,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="15" customHeight="1">
+    <row r="76" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="203" t="s">
         <v>556</v>
       </c>
@@ -56066,7 +53394,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15" customHeight="1">
+    <row r="77" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="203" t="s">
         <v>558</v>
       </c>
@@ -56123,7 +53451,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="15" customHeight="1">
+    <row r="78" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="203" t="s">
         <v>560</v>
       </c>
@@ -56211,7 +53539,7 @@
       </c>
       <c r="J79" s="177">
         <f>VLOOKUP(A79,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K79" s="177">
         <v>78</v>
@@ -56252,7 +53580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="15" customHeight="1">
+    <row r="80" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="203" t="s">
         <v>565</v>
       </c>
@@ -56324,7 +53652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="15" customHeight="1">
+    <row r="81" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -56474,7 +53802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="15" customHeight="1">
+    <row r="83" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -56497,7 +53825,7 @@
       <c r="I83" s="177"/>
       <c r="J83" s="177">
         <f>VLOOKUP(A83,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K83" s="177">
         <v>82</v>
@@ -56531,7 +53859,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="15" customHeight="1">
+    <row r="84" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -56582,7 +53910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15" customHeight="1">
+    <row r="85" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -56648,7 +53976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15" customHeight="1">
+    <row r="86" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -56705,7 +54033,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15" customHeight="1">
+    <row r="87" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -56764,7 +54092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15" customHeight="1">
+    <row r="88" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -56823,7 +54151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15" customHeight="1">
+    <row r="89" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -56854,7 +54182,7 @@
       </c>
       <c r="J89" s="177">
         <f>VLOOKUP(A89,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K89" s="177">
         <v>88</v>
@@ -56898,7 +54226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15" customHeight="1">
+    <row r="90" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -56961,7 +54289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15" customHeight="1">
+    <row r="91" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -57014,7 +54342,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="15" customHeight="1">
+    <row r="92" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -57079,7 +54407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="15" customHeight="1">
+    <row r="93" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -57110,7 +54438,7 @@
       </c>
       <c r="J93" s="177">
         <f>VLOOKUP(A93,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K93" s="177">
         <v>92</v>
@@ -57154,7 +54482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="15" customHeight="1">
+    <row r="94" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -57217,7 +54545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="15" customHeight="1">
+    <row r="95" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -57282,7 +54610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="15" customHeight="1">
+    <row r="96" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -57341,7 +54669,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="15" customHeight="1">
+    <row r="97" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -57372,7 +54700,7 @@
       </c>
       <c r="J97" s="177">
         <f>VLOOKUP(A97,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K97" s="177">
         <v>96</v>
@@ -57413,7 +54741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="15" customHeight="1">
+    <row r="98" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -57476,7 +54804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="15" customHeight="1">
+    <row r="99" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -57507,7 +54835,7 @@
       </c>
       <c r="J99" s="177">
         <f>VLOOKUP(A99,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K99" s="177">
         <v>98</v>
@@ -57551,7 +54879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="15" customHeight="1">
+    <row r="100" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -57614,7 +54942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="15" customHeight="1">
+    <row r="101" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="177" t="s">
         <v>759</v>
       </c>
@@ -57689,7 +55017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15" customHeight="1">
+    <row r="102" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -57764,7 +55092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="15" customHeight="1">
+    <row r="103" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -57795,7 +55123,7 @@
       </c>
       <c r="J103" s="177">
         <f>VLOOKUP(A103,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K103" s="177">
         <v>102</v>
@@ -57841,7 +55169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="15" customHeight="1">
+    <row r="104" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -57916,7 +55244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="15" customHeight="1">
+    <row r="105" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -57988,7 +55316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="15" customHeight="1">
+    <row r="106" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -58063,7 +55391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="15" customHeight="1">
+    <row r="107" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -58135,7 +55463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="15" customHeight="1">
+    <row r="108" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -58158,7 +55486,7 @@
       <c r="I108" s="177"/>
       <c r="J108" s="177">
         <f>VLOOKUP(A108,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K108" s="177">
         <v>107</v>
@@ -58192,7 +55520,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="15" customHeight="1">
+    <row r="109" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -58249,7 +55577,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="15" customHeight="1">
+    <row r="110" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -58312,7 +55640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="15" customHeight="1">
+    <row r="111" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -58366,7 +55694,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="15" customHeight="1">
+    <row r="112" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -58422,7 +55750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="15" customHeight="1">
+    <row r="113" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="193" t="s">
         <v>811</v>
       </c>
@@ -58451,7 +55779,7 @@
       </c>
       <c r="J113" s="177">
         <f>VLOOKUP(A113,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K113" s="177">
         <v>112</v>
@@ -58499,7 +55827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="15" customHeight="1">
+    <row r="114" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -58522,7 +55850,7 @@
       <c r="I114" s="177"/>
       <c r="J114" s="177">
         <f>VLOOKUP(A114,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K114" s="177">
         <v>113</v>
@@ -58558,7 +55886,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="15" customHeight="1">
+    <row r="115" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -58614,7 +55942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="15" customHeight="1">
+    <row r="116" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -58682,7 +56010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="15" customHeight="1">
+    <row r="117" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -58738,7 +56066,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="15" customHeight="1">
+    <row r="118" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -58761,7 +56089,7 @@
       <c r="I118" s="177"/>
       <c r="J118" s="177">
         <f>VLOOKUP(A118,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K118" s="177">
         <v>117</v>
@@ -58794,7 +56122,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="15" customHeight="1">
+    <row r="119" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -58880,7 +56208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="15" customHeight="1">
+    <row r="120" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -58937,7 +56265,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="15" customHeight="1">
+    <row r="121" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="193" t="s">
         <v>846</v>
       </c>
@@ -58966,7 +56294,7 @@
       </c>
       <c r="J121" s="177">
         <f>VLOOKUP(A121,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121" s="177">
         <v>120</v>
@@ -59002,7 +56330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="15" customHeight="1">
+    <row r="122" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -59070,7 +56398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="15" customHeight="1">
+    <row r="123" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -59126,7 +56454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="15" customHeight="1">
+    <row r="124" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -59182,7 +56510,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="15" customHeight="1">
+    <row r="125" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -59238,7 +56566,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="15" customHeight="1">
+    <row r="126" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="193" t="s">
         <v>860</v>
       </c>
@@ -59267,7 +56595,7 @@
       </c>
       <c r="J126" s="177">
         <f>VLOOKUP(A126,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K126" s="177">
         <v>125</v>
@@ -59303,7 +56631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="15" customHeight="1">
+    <row r="127" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="193" t="s">
         <v>864</v>
       </c>
@@ -59332,7 +56660,7 @@
       </c>
       <c r="J127" s="177">
         <f>VLOOKUP(A127,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K127" s="177">
         <v>126</v>
@@ -59368,7 +56696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="15" customHeight="1">
+    <row r="128" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="193" t="s">
         <v>870</v>
       </c>
@@ -59397,7 +56725,7 @@
       </c>
       <c r="J128" s="177">
         <f>VLOOKUP(A128,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K128" s="177">
         <v>127</v>
@@ -59433,7 +56761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="15" customHeight="1">
+    <row r="129" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -59495,7 +56823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="15" customHeight="1">
+    <row r="130" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -59551,7 +56879,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="15" customHeight="1">
+    <row r="131" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -59613,7 +56941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="15" customHeight="1">
+    <row r="132" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -59675,7 +57003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="15" customHeight="1">
+    <row r="133" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -59731,7 +57059,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="15" customHeight="1">
+    <row r="134" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -59796,7 +57124,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="15" customHeight="1">
+    <row r="135" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -59858,7 +57186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="15" customHeight="1">
+    <row r="136" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -59920,7 +57248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="15" customHeight="1">
+    <row r="137" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -59979,7 +57307,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="15" customHeight="1">
+    <row r="138" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -60124,7 +57452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="15" customHeight="1">
+    <row r="140" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -60260,7 +57588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="15" customHeight="1">
+    <row r="142" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -60315,7 +57643,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="15" customHeight="1">
+    <row r="143" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -60372,7 +57700,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="15" customHeight="1">
+    <row r="144" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -60425,7 +57753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="15" customHeight="1">
+    <row r="145" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="193" t="s">
         <v>934</v>
       </c>
@@ -60487,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="15" customHeight="1">
+    <row r="146" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="193" t="s">
         <v>938</v>
       </c>
@@ -60541,7 +57869,7 @@
       </c>
       <c r="X146" s="83"/>
     </row>
-    <row r="147" spans="1:28" ht="15" customHeight="1">
+    <row r="147" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="193" t="s">
         <v>941</v>
       </c>
@@ -60603,7 +57931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="15" customHeight="1">
+    <row r="148" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="193" t="s">
         <v>945</v>
       </c>
@@ -60657,7 +57985,7 @@
       </c>
       <c r="X148" s="83"/>
     </row>
-    <row r="149" spans="1:28" ht="15" customHeight="1">
+    <row r="149" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="193" t="s">
         <v>947</v>
       </c>
@@ -60680,7 +58008,7 @@
       <c r="I149" s="177"/>
       <c r="J149" s="177">
         <f>VLOOKUP(A149,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K149" s="177">
         <v>148</v>
@@ -60719,7 +58047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="15" customHeight="1">
+    <row r="150" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="193" t="s">
         <v>949</v>
       </c>
@@ -60781,7 +58109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="15" customHeight="1">
+    <row r="151" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="193" t="s">
         <v>960</v>
       </c>
@@ -60838,7 +58166,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="15" customHeight="1">
+    <row r="152" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="193" t="s">
         <v>966</v>
       </c>
@@ -60891,7 +58219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="15" customHeight="1">
+    <row r="153" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="193" t="s">
         <v>969</v>
       </c>
@@ -60953,7 +58281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="15" customHeight="1">
+    <row r="154" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="193" t="s">
         <v>973</v>
       </c>
@@ -61007,7 +58335,7 @@
       </c>
       <c r="X154" s="83"/>
     </row>
-    <row r="155" spans="1:28" ht="15" customHeight="1">
+    <row r="155" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="193" t="s">
         <v>976</v>
       </c>
@@ -61069,7 +58397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="15" customHeight="1">
+    <row r="156" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="193" t="s">
         <v>980</v>
       </c>
@@ -61123,7 +58451,7 @@
       </c>
       <c r="X156" s="83"/>
     </row>
-    <row r="157" spans="1:28" ht="15" customHeight="1">
+    <row r="157" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="193" t="s">
         <v>983</v>
       </c>
@@ -61185,7 +58513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:28" ht="15" customHeight="1">
+    <row r="158" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="199" t="s">
         <v>1663</v>
       </c>
@@ -61234,7 +58562,7 @@
       </c>
       <c r="X158" s="83"/>
     </row>
-    <row r="159" spans="1:28" ht="15" customHeight="1">
+    <row r="159" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="199" t="s">
         <v>1660</v>
       </c>
@@ -61285,7 +58613,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="15" customHeight="1">
+    <row r="160" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="199" t="s">
         <v>1658</v>
       </c>
@@ -61345,7 +58673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="15" customHeight="1">
+    <row r="161" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -61421,7 +58749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="15" customHeight="1">
+    <row r="162" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -61499,7 +58827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="15" customHeight="1">
+    <row r="163" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -61552,7 +58880,7 @@
       </c>
       <c r="X163" s="83"/>
     </row>
-    <row r="164" spans="1:29" ht="15" customHeight="1">
+    <row r="164" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -61616,7 +58944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="15" customHeight="1">
+    <row r="165" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -61663,7 +58991,7 @@
       </c>
       <c r="X165" s="83"/>
     </row>
-    <row r="166" spans="1:29" ht="15" customHeight="1">
+    <row r="166" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -61709,7 +59037,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="15" customHeight="1">
+    <row r="167" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -61757,7 +59085,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="15" customHeight="1">
+    <row r="168" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -61803,7 +59131,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="15" customHeight="1">
+    <row r="169" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -61849,7 +59177,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="15" customHeight="1">
+    <row r="170" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -61895,7 +59223,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="15" customHeight="1">
+    <row r="171" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -61947,7 +59275,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="15" customHeight="1">
+    <row r="172" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -62002,7 +59330,7 @@
       </c>
       <c r="X172" s="210"/>
     </row>
-    <row r="173" spans="1:29" ht="15" customHeight="1">
+    <row r="173" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -62060,7 +59388,7 @@
       </c>
       <c r="X173" s="210"/>
     </row>
-    <row r="174" spans="1:29" ht="15" customHeight="1">
+    <row r="174" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -62115,7 +59443,7 @@
       </c>
       <c r="X174" s="210"/>
     </row>
-    <row r="175" spans="1:29" ht="15" customHeight="1">
+    <row r="175" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="207" t="s">
         <v>1508</v>
       </c>
@@ -62173,7 +59501,7 @@
       </c>
       <c r="X175" s="210"/>
     </row>
-    <row r="176" spans="1:29" ht="15" customHeight="1">
+    <row r="176" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -62231,7 +59559,7 @@
       </c>
       <c r="X176" s="210"/>
     </row>
-    <row r="177" spans="1:28" ht="15" customHeight="1">
+    <row r="177" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -62289,7 +59617,7 @@
       </c>
       <c r="X177" s="210"/>
     </row>
-    <row r="178" spans="1:28" ht="15" customHeight="1">
+    <row r="178" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -62347,7 +59675,7 @@
       </c>
       <c r="X178" s="210"/>
     </row>
-    <row r="179" spans="1:28" ht="15" customHeight="1">
+    <row r="179" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -62405,7 +59733,7 @@
       </c>
       <c r="X179" s="210"/>
     </row>
-    <row r="180" spans="1:28" ht="15" customHeight="1">
+    <row r="180" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -62463,7 +59791,7 @@
       </c>
       <c r="X180" s="210"/>
     </row>
-    <row r="181" spans="1:28" ht="15" customHeight="1">
+    <row r="181" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -62521,7 +59849,7 @@
       </c>
       <c r="X181" s="210"/>
     </row>
-    <row r="182" spans="1:28" ht="15" customHeight="1">
+    <row r="182" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -62579,7 +59907,7 @@
       </c>
       <c r="X182" s="210"/>
     </row>
-    <row r="183" spans="1:28" ht="15" customHeight="1">
+    <row r="183" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -62634,7 +59962,7 @@
       </c>
       <c r="X183" s="210"/>
     </row>
-    <row r="184" spans="1:28" ht="15" customHeight="1">
+    <row r="184" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -62692,7 +60020,7 @@
       </c>
       <c r="X184" s="210"/>
     </row>
-    <row r="185" spans="1:28" ht="15" customHeight="1">
+    <row r="185" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -62750,7 +60078,7 @@
       </c>
       <c r="X185" s="210"/>
     </row>
-    <row r="186" spans="1:28" ht="15" customHeight="1">
+    <row r="186" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -62808,7 +60136,7 @@
       </c>
       <c r="X186" s="210"/>
     </row>
-    <row r="187" spans="1:28" ht="15" customHeight="1">
+    <row r="187" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -62866,7 +60194,7 @@
       </c>
       <c r="X187" s="210"/>
     </row>
-    <row r="188" spans="1:28" ht="15" customHeight="1">
+    <row r="188" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -62924,7 +60252,7 @@
       </c>
       <c r="X188" s="210"/>
     </row>
-    <row r="189" spans="1:28" ht="15" customHeight="1">
+    <row r="189" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -62982,7 +60310,7 @@
       </c>
       <c r="X189" s="210"/>
     </row>
-    <row r="190" spans="1:28" ht="15" customHeight="1">
+    <row r="190" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -63040,7 +60368,7 @@
       </c>
       <c r="X190" s="210"/>
     </row>
-    <row r="191" spans="1:28" ht="15" customHeight="1">
+    <row r="191" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -63098,7 +60426,7 @@
       </c>
       <c r="X191" s="210"/>
     </row>
-    <row r="192" spans="1:28" ht="15" customHeight="1">
+    <row r="192" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A192" s="197" t="s">
         <v>1191</v>
       </c>
@@ -63169,7 +60497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="15" customHeight="1">
+    <row r="193" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="197" t="s">
         <v>1189</v>
       </c>
@@ -63229,7 +60557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="15" customHeight="1">
+    <row r="194" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -63279,7 +60607,7 @@
       <c r="X194" s="212"/>
       <c r="Z194" s="83"/>
     </row>
-    <row r="195" spans="1:27" ht="15" customHeight="1">
+    <row r="195" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="192" t="s">
         <v>1183</v>
       </c>
@@ -63337,7 +60665,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="15" customHeight="1">
+    <row r="196" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -63402,7 +60730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="15" customHeight="1">
+    <row r="197" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="197" t="s">
         <v>1178</v>
       </c>
@@ -63459,7 +60787,7 @@
       </c>
       <c r="Z197" s="83"/>
     </row>
-    <row r="198" spans="1:27" ht="15" customHeight="1">
+    <row r="198" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -63524,7 +60852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="15" customHeight="1">
+    <row r="199" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="199" t="s">
         <v>1174</v>
       </c>
@@ -63585,7 +60913,7 @@
       </c>
       <c r="Z199" s="83"/>
     </row>
-    <row r="200" spans="1:27" ht="15" customHeight="1">
+    <row r="200" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="199" t="s">
         <v>1171</v>
       </c>
@@ -63643,7 +60971,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="15" customHeight="1">
+    <row r="201" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -63708,7 +61036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="15" customHeight="1">
+    <row r="202" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="199" t="s">
         <v>1666</v>
       </c>
@@ -63818,7 +61146,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="15" customHeight="1">
+    <row r="204" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -63868,7 +61196,7 @@
       <c r="W204" s="210"/>
       <c r="X204" s="210"/>
     </row>
-    <row r="205" spans="1:27" ht="15" customHeight="1">
+    <row r="205" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -63918,7 +61246,7 @@
       <c r="W205" s="210"/>
       <c r="X205" s="210"/>
     </row>
-    <row r="206" spans="1:27" ht="15" customHeight="1">
+    <row r="206" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -63968,7 +61296,7 @@
       <c r="W206" s="210"/>
       <c r="X206" s="210"/>
     </row>
-    <row r="207" spans="1:27" ht="15" customHeight="1">
+    <row r="207" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -64018,7 +61346,7 @@
       <c r="W207" s="210"/>
       <c r="X207" s="210"/>
     </row>
-    <row r="208" spans="1:27" ht="15" customHeight="1">
+    <row r="208" spans="1:27" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -64068,7 +61396,7 @@
       <c r="W208" s="210"/>
       <c r="X208" s="210"/>
     </row>
-    <row r="209" spans="1:28" ht="15" customHeight="1">
+    <row r="209" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -64118,7 +61446,7 @@
       <c r="W209" s="210"/>
       <c r="X209" s="210"/>
     </row>
-    <row r="210" spans="1:28" ht="15" customHeight="1">
+    <row r="210" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -64168,7 +61496,7 @@
       <c r="W210" s="210"/>
       <c r="X210" s="210"/>
     </row>
-    <row r="211" spans="1:28" ht="15" customHeight="1">
+    <row r="211" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="199" t="s">
         <v>1683</v>
       </c>
@@ -64216,7 +61544,7 @@
       <c r="W211" s="210"/>
       <c r="X211" s="210"/>
     </row>
-    <row r="212" spans="1:28" ht="15" customHeight="1">
+    <row r="212" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -64292,7 +61620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="15" customHeight="1">
+    <row r="213" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -64340,7 +61668,7 @@
       <c r="W213" s="210"/>
       <c r="X213" s="212"/>
     </row>
-    <row r="214" spans="1:28" ht="15" customHeight="1">
+    <row r="214" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="199" t="s">
         <v>1697</v>
       </c>
@@ -64419,7 +61747,7 @@
       </c>
       <c r="J215" s="177">
         <f>VLOOKUP(A215,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K215" s="177">
         <v>214</v>
@@ -64472,7 +61800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="15" customHeight="1">
+    <row r="216" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="199" t="s">
         <v>1719</v>
       </c>
@@ -64562,7 +61890,7 @@
       </c>
       <c r="J217" s="177">
         <f>VLOOKUP(A217,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K217" s="177">
         <v>216</v>
@@ -64604,7 +61932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="15" customHeight="1">
+    <row r="218" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="199" t="s">
         <v>1734</v>
       </c>
@@ -64662,7 +61990,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="15" customHeight="1">
+    <row r="219" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="199" t="s">
         <v>1736</v>
       </c>
@@ -64732,7 +62060,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="15" customHeight="1">
+    <row r="220" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="199" t="s">
         <v>1743</v>
       </c>
@@ -64786,7 +62114,7 @@
       <c r="W220" s="210"/>
       <c r="X220" s="212"/>
     </row>
-    <row r="221" spans="1:28" ht="15" customHeight="1">
+    <row r="221" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="199" t="s">
         <v>1750</v>
       </c>
@@ -64840,7 +62168,7 @@
       <c r="W221" s="210"/>
       <c r="X221" s="210"/>
     </row>
-    <row r="222" spans="1:28" ht="15" customHeight="1">
+    <row r="222" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="199" t="s">
         <v>1755</v>
       </c>
@@ -64894,7 +62222,7 @@
       <c r="W222" s="210"/>
       <c r="X222" s="210"/>
     </row>
-    <row r="223" spans="1:28" ht="15" customHeight="1">
+    <row r="223" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="199" t="s">
         <v>1759</v>
       </c>
@@ -64948,7 +62276,7 @@
       <c r="W223" s="210"/>
       <c r="X223" s="210"/>
     </row>
-    <row r="224" spans="1:28" ht="15" customHeight="1">
+    <row r="224" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="199" t="s">
         <v>1763</v>
       </c>
@@ -65002,7 +62330,7 @@
       <c r="W224" s="210"/>
       <c r="X224" s="210"/>
     </row>
-    <row r="225" spans="1:30" ht="15" customHeight="1">
+    <row r="225" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -65085,7 +62413,7 @@
       </c>
       <c r="J226" s="177">
         <f>VLOOKUP(A226,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K226" s="177">
         <v>225</v>
@@ -65131,7 +62459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="15" customHeight="1">
+    <row r="227" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -65199,7 +62527,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="15" customHeight="1">
+    <row r="228" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -65265,7 +62593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="15" customHeight="1">
+    <row r="229" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -65336,7 +62664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="15" customHeight="1">
+    <row r="230" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -65392,7 +62720,7 @@
       <c r="W230" s="210"/>
       <c r="X230" s="212"/>
     </row>
-    <row r="231" spans="1:30" ht="15" customHeight="1">
+    <row r="231" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -65446,7 +62774,7 @@
       <c r="W231" s="210"/>
       <c r="X231" s="210"/>
     </row>
-    <row r="232" spans="1:30" ht="15" customHeight="1">
+    <row r="232" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -65492,7 +62820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="15" customHeight="1">
+    <row r="233" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -65538,7 +62866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="15" customHeight="1">
+    <row r="234" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -65586,7 +62914,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="15" customHeight="1">
+    <row r="235" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="232" t="s">
         <v>2605</v>
       </c>
@@ -65645,7 +62973,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="15" customHeight="1">
+    <row r="236" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="221" t="s">
         <v>2883</v>
       </c>
@@ -65755,7 +63083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="15" customHeight="1">
+    <row r="238" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A238" s="221" t="s">
         <v>2879</v>
       </c>
@@ -65803,7 +63131,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="15" customHeight="1">
+    <row r="239" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2880</v>
       </c>
@@ -65921,7 +63249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:29" ht="15" customHeight="1">
+    <row r="241" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A241" s="221" t="s">
         <v>2886</v>
       </c>
@@ -65969,7 +63297,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="242" spans="1:29" ht="15" customHeight="1">
+    <row r="242" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2887</v>
       </c>
@@ -65994,7 +63322,7 @@
       </c>
       <c r="J242" s="177">
         <f>VLOOKUP(A242,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K242" s="177">
         <v>242</v>
@@ -66044,7 +63372,7 @@
       </c>
       <c r="J243" s="177">
         <f>VLOOKUP(A243,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K243" s="177">
         <v>243</v>
@@ -66071,7 +63399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:29" ht="15" customHeight="1">
+    <row r="244" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A244" s="221" t="s">
         <v>2881</v>
       </c>
@@ -66099,7 +63427,7 @@
       </c>
       <c r="J244" s="177">
         <f>VLOOKUP(A244,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K244" s="177">
         <v>244</v>
@@ -66126,7 +63454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:29" ht="15" customHeight="1">
+    <row r="245" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2889</v>
       </c>
@@ -66287,7 +63615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:29" ht="15" customHeight="1">
+    <row r="248" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="221" t="s">
         <v>2872</v>
       </c>
@@ -66343,7 +63671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:29" ht="15" customHeight="1">
+    <row r="249" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2898</v>
       </c>
@@ -66391,7 +63719,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="250" spans="1:29" ht="15" customHeight="1">
+    <row r="250" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="221" t="s">
         <v>2899</v>
       </c>
@@ -66438,7 +63766,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="251" spans="1:29" ht="15" customHeight="1">
+    <row r="251" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="221" t="s">
         <v>2900</v>
       </c>
@@ -66485,7 +63813,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="252" spans="1:29" ht="15" customHeight="1">
+    <row r="252" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="221" t="s">
         <v>2901</v>
       </c>
@@ -66532,7 +63860,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="253" spans="1:29" ht="15" customHeight="1">
+    <row r="253" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="221" t="s">
         <v>2902</v>
       </c>
@@ -66643,7 +63971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:29" ht="15" customHeight="1">
+    <row r="255" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A255" s="221" t="s">
         <v>2890</v>
       </c>
@@ -66671,7 +63999,7 @@
       </c>
       <c r="J255" s="177">
         <f>VLOOKUP(A255,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K255" s="177">
         <v>255</v>
@@ -66698,7 +64026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:29" ht="15" customHeight="1">
+    <row r="256" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="221" t="s">
         <v>2904</v>
       </c>
@@ -66782,7 +64110,7 @@
       </c>
       <c r="J257" s="177">
         <f>VLOOKUP(A257,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K257" s="177">
         <v>257</v>
@@ -66864,7 +64192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="15" customHeight="1">
+    <row r="259" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="223" t="s">
         <v>2891</v>
       </c>
@@ -66912,7 +64240,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="15" customHeight="1">
+    <row r="260" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="221" t="s">
         <v>2892</v>
       </c>
@@ -66940,7 +64268,7 @@
       </c>
       <c r="J260" s="177">
         <f>VLOOKUP(A260,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K260" s="177">
         <v>260</v>
@@ -66994,7 +64322,7 @@
       </c>
       <c r="J261" s="177">
         <f>VLOOKUP(A261,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K261" s="177">
         <v>261</v>
@@ -67069,7 +64397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="15" customHeight="1">
+    <row r="263" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2895</v>
       </c>
@@ -67116,7 +64444,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="15" customHeight="1">
+    <row r="264" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="221" t="s">
         <v>2874</v>
       </c>
@@ -67144,7 +64472,7 @@
       </c>
       <c r="J264" s="177">
         <f>VLOOKUP(A264,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K264" s="177">
         <v>264</v>
@@ -67172,7 +64500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="15" customHeight="1">
+    <row r="265" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A265" s="221" t="s">
         <v>2875</v>
       </c>
@@ -67227,7 +64555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="15" customHeight="1">
+    <row r="266" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2905</v>
       </c>
@@ -67255,7 +64583,7 @@
       </c>
       <c r="J266" s="177">
         <f>VLOOKUP(A266,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K266" s="177">
         <v>266</v>
@@ -67280,7 +64608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="15" customHeight="1">
+    <row r="267" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2873</v>
       </c>
@@ -67336,7 +64664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="15" customHeight="1">
+    <row r="268" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2877</v>
       </c>
@@ -67420,7 +64748,7 @@
       </c>
       <c r="J269" s="177">
         <f>VLOOKUP(A269,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K269" s="177">
         <v>269</v>
@@ -67448,7 +64776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="15" customHeight="1">
+    <row r="270" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A270" s="221" t="s">
         <v>2819</v>
       </c>
@@ -67506,7 +64834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="15" customHeight="1">
+    <row r="271" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2984</v>
       </c>
@@ -67587,7 +64915,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="273" spans="1:28" ht="15" customHeight="1">
+    <row r="273" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A273" s="221" t="s">
         <v>3142</v>
       </c>
@@ -67617,7 +64945,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="274" spans="1:28" ht="15" customHeight="1">
+    <row r="274" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A274" s="221" t="s">
         <v>3143</v>
       </c>
@@ -67654,7 +64982,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="275" spans="1:28" ht="15" customHeight="1">
+    <row r="275" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A275" s="221" t="s">
         <v>3144</v>
       </c>
@@ -67691,7 +65019,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="276" spans="1:28" ht="15" customHeight="1">
+    <row r="276" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A276" s="221" t="s">
         <v>3141</v>
       </c>
@@ -67722,7 +65050,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="277" spans="1:28" ht="15" customHeight="1">
+    <row r="277" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A277" s="221" t="s">
         <v>3149</v>
       </c>
@@ -67750,7 +65078,7 @@
       </c>
       <c r="J277" s="177">
         <f>VLOOKUP(A277,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K277" s="177">
         <v>277</v>
@@ -67765,7 +65093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:28" ht="15" customHeight="1">
+    <row r="278" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A278" s="221" t="s">
         <v>3150</v>
       </c>
@@ -67808,7 +65136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:28" ht="15" customHeight="1">
+    <row r="279" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A279" s="221" t="s">
         <v>3151</v>
       </c>
@@ -67851,7 +65179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:28" ht="15" customHeight="1">
+    <row r="280" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A280" s="221" t="s">
         <v>3152</v>
       </c>
@@ -67894,7 +65222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:28" ht="15" customHeight="1">
+    <row r="281" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A281" s="221" t="s">
         <v>3153</v>
       </c>
@@ -67937,7 +65265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:28" ht="15" customHeight="1">
+    <row r="282" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A282" s="221" t="s">
         <v>3154</v>
       </c>
@@ -67965,7 +65293,7 @@
       </c>
       <c r="J282" s="177">
         <f>VLOOKUP(A282,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K282" s="177">
         <v>282</v>
@@ -67980,7 +65308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:28" ht="15" customHeight="1">
+    <row r="283" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A283" s="221" t="s">
         <v>3155</v>
       </c>
@@ -68008,7 +65336,7 @@
       </c>
       <c r="J283" s="177">
         <f>VLOOKUP(A283,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K283" s="177">
         <v>283</v>
@@ -68023,7 +65351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:28" ht="15" customHeight="1">
+    <row r="284" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A284" s="221" t="s">
         <v>3156</v>
       </c>
@@ -68051,7 +65379,7 @@
       </c>
       <c r="J284" s="177">
         <f>VLOOKUP(A284,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K284" s="177">
         <v>284</v>
@@ -68066,7 +65394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:28" ht="15" customHeight="1">
+    <row r="285" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A285" s="221" t="s">
         <v>3157</v>
       </c>
@@ -68094,7 +65422,7 @@
       </c>
       <c r="J285" s="177">
         <f>VLOOKUP(A285,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K285" s="177">
         <v>285</v>
@@ -68109,7 +65437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:28" ht="15" customHeight="1">
+    <row r="286" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A286" s="221" t="s">
         <v>3158</v>
       </c>
@@ -68137,7 +65465,7 @@
       </c>
       <c r="J286" s="177">
         <f>VLOOKUP(A286,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K286" s="177">
         <v>286</v>
@@ -68152,7 +65480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:28" ht="15" customHeight="1">
+    <row r="287" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A287" s="221" t="s">
         <v>3159</v>
       </c>
@@ -68180,7 +65508,7 @@
       </c>
       <c r="J287" s="177">
         <f>VLOOKUP(A287,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K287" s="177">
         <v>287</v>
@@ -68195,7 +65523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:28" ht="15" customHeight="1">
+    <row r="288" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A288" s="221" t="s">
         <v>3160</v>
       </c>
@@ -68238,7 +65566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:28" ht="15" customHeight="1">
+    <row r="289" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A289" s="221" t="s">
         <v>3161</v>
       </c>
@@ -68266,7 +65594,7 @@
       </c>
       <c r="J289" s="177">
         <f>VLOOKUP(A289,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K289" s="177">
         <v>289</v>
@@ -68329,7 +65657,13 @@
       <c r="J291" s="212"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD290" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}"/>
+  <autoFilter ref="A1:AD290" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA273">
     <sortCondition ref="K2:K273"/>
   </sortState>
@@ -68493,13 +65827,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" style="245" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="245" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -69595,7 +66929,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.1640625" collapsed="true"/>
+    <col min="1" max="1" width="54.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -73054,4 +70388,2677 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D190"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4">
+        <v>0.93980635282698644</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B5">
+        <v>0.91706938350429779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B6">
+        <v>0.91137628721360897</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B7">
+        <v>0.88170500708040112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B8">
+        <v>0.853350200127165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B9">
+        <v>0.84028618212263728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10">
+        <v>0.83011630229854338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B11">
+        <v>0.82417584849989012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B12">
+        <v>0.82294625480258154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13">
+        <v>0.81736770661960789</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B14">
+        <v>0.81002943388333026</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B15">
+        <v>0.80579226064287501</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16">
+        <v>0.79924863081808928</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B17">
+        <v>0.79451286895419793</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B18">
+        <v>0.76868365409570361</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B19">
+        <v>0.7249318106735595</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B20">
+        <v>0.71159055304601126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21">
+        <v>0.71010530125322269</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B22">
+        <v>0.69993652817413088</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>725</v>
+      </c>
+      <c r="B23">
+        <v>0.69841309367877058</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24">
+        <v>0.69052310855895715</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>755</v>
+      </c>
+      <c r="B25">
+        <v>0.67997582868915463</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B26">
+        <v>0.6777927741725559</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27">
+        <v>0.65566506797351121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B28">
+        <v>0.62831850571716796</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>562</v>
+      </c>
+      <c r="B29">
+        <v>0.61848286288370158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>0.60616921799058265</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B31">
+        <v>0.59893663940200359</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B32">
+        <v>0.59721177731626507</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>811</v>
+      </c>
+      <c r="B33">
+        <v>0.59705793976097632</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>537</v>
+      </c>
+      <c r="B34">
+        <v>0.59489591339941705</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B35">
+        <v>0.58780001781859448</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>864</v>
+      </c>
+      <c r="B36">
+        <v>0.58653500828121952</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B37">
+        <v>0.57593128441631103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B38">
+        <v>0.57585049203115934</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B39">
+        <v>0.5729408594206965</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>835</v>
+      </c>
+      <c r="B40">
+        <v>0.5705884729187799</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41">
+        <v>0.56710333290723647</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>860</v>
+      </c>
+      <c r="B42">
+        <v>0.56526613620378718</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B43">
+        <v>0.56437520647711448</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B44">
+        <v>0.55769987399708154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>846</v>
+      </c>
+      <c r="B45">
+        <v>0.54532978510885666</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B46">
+        <v>0.53739995716896838</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B47">
+        <v>0.51522023395482597</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48">
+        <v>0.50297354713433284</v>
+      </c>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B49">
+        <v>0.48884594718280827</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>493</v>
+      </c>
+      <c r="B50">
+        <v>0.48798157933618541</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51">
+        <v>0.47606636264381458</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B52">
+        <v>0.46601213767243777</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>854</v>
+      </c>
+      <c r="B53">
+        <v>0.46144736791136742</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>850</v>
+      </c>
+      <c r="B54">
+        <v>0.46067153966491081</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55">
+        <v>0.45479417033137604</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B56">
+        <v>0.45478918997886669</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B57">
+        <v>0.44980551723450984</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>921</v>
+      </c>
+      <c r="B58">
+        <v>0.44255910433340473</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>565</v>
+      </c>
+      <c r="B59">
+        <v>0.44078333197757069</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>759</v>
+      </c>
+      <c r="B60">
+        <v>0.43839718975309072</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B61">
+        <v>0.43791243544218061</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62">
+        <v>0.40377322573558422</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B63">
+        <v>0.398755797268664</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64">
+        <v>0.39577809984057338</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>548</v>
+      </c>
+      <c r="B65">
+        <v>0.39035781619289678</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B66">
+        <v>0.36862300446958968</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B67">
+        <v>0.36691917053889073</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>856</v>
+      </c>
+      <c r="B68">
+        <v>0.35858704079074716</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>495</v>
+      </c>
+      <c r="B69">
+        <v>0.35809785949982875</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>983</v>
+      </c>
+      <c r="B70">
+        <v>0.35497296498646175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>751</v>
+      </c>
+      <c r="B71">
+        <v>0.35456457608069497</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B72">
+        <v>0.35413903262739604</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B73">
+        <v>0.35291441928259681</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>947</v>
+      </c>
+      <c r="B74">
+        <v>0.35282089932992122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>829</v>
+      </c>
+      <c r="B75">
+        <v>0.3404419564816798</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>712</v>
+      </c>
+      <c r="B76">
+        <v>0.33444284519791645</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B77">
+        <v>0.32663697269826092</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>960</v>
+      </c>
+      <c r="B78">
+        <v>0.31983381117048798</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>832</v>
+      </c>
+      <c r="B79">
+        <v>0.31976353286285603</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80">
+        <v>0.31234170087892155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B81">
+        <v>0.30840832914153665</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82">
+        <v>0.30434436149390653</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B83">
+        <v>0.2991786291967079</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>924</v>
+      </c>
+      <c r="B84">
+        <v>0.29899435615386188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85">
+        <v>0.28434105232635032</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86">
+        <v>0.28160130507370645</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>558</v>
+      </c>
+      <c r="B87">
+        <v>0.26253651566791231</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>556</v>
+      </c>
+      <c r="B88">
+        <v>0.26211650593962377</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>780</v>
+      </c>
+      <c r="B89">
+        <v>0.25800052127689599</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B90">
+        <v>0.25330128199807317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>791</v>
+      </c>
+      <c r="B91">
+        <v>0.24966949827375448</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>332</v>
+      </c>
+      <c r="B92">
+        <v>0.24963629592369216</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>934</v>
+      </c>
+      <c r="B93">
+        <v>0.23843714324766574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>770</v>
+      </c>
+      <c r="B94">
+        <v>0.23789317807914445</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>717</v>
+      </c>
+      <c r="B95">
+        <v>0.23685117765968808</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>472</v>
+      </c>
+      <c r="B96">
+        <v>0.23233344456120605</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97">
+        <v>0.23103689279127176</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>526</v>
+      </c>
+      <c r="B98">
+        <v>0.22401016877307908</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>715</v>
+      </c>
+      <c r="B99">
+        <v>0.22251329615776871</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>530</v>
+      </c>
+      <c r="B100">
+        <v>0.22149675087336015</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>465</v>
+      </c>
+      <c r="B101">
+        <v>0.21705316969001734</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102">
+        <v>0.21694028169980537</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103">
+        <v>0.21683790778711318</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104">
+        <v>0.21665861509677656</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>757</v>
+      </c>
+      <c r="B105">
+        <v>0.21584073054024097</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106">
+        <v>0.21056321699783245</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B107">
+        <v>0.20250500663770316</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>533</v>
+      </c>
+      <c r="B108">
+        <v>0.20170040302119252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B109">
+        <v>0.19397089592668035</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B110">
+        <v>0.19339262166309465</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111">
+        <v>0.19314471078262918</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B112">
+        <v>0.18884500644955651</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>913</v>
+      </c>
+      <c r="B113">
+        <v>0.17737304113051788</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B114">
+        <v>0.17660717358907996</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>497</v>
+      </c>
+      <c r="B115">
+        <v>0.17471353289052466</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>916</v>
+      </c>
+      <c r="B116">
+        <v>0.17342638845310804</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>550</v>
+      </c>
+      <c r="B117">
+        <v>0.16734427129418886</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>805</v>
+      </c>
+      <c r="B118">
+        <v>0.16371636117737748</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119">
+        <v>0.15907411926616166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>744</v>
+      </c>
+      <c r="B120">
+        <v>0.15805038013923958</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>728</v>
+      </c>
+      <c r="B121">
+        <v>0.15529126484905936</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>802</v>
+      </c>
+      <c r="B122">
+        <v>0.14637975409232798</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>552</v>
+      </c>
+      <c r="B123">
+        <v>0.14271974837045634</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>374</v>
+      </c>
+      <c r="B124">
+        <v>0.13658893443144574</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>761</v>
+      </c>
+      <c r="B125">
+        <v>0.1318979957401385</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>378</v>
+      </c>
+      <c r="B126">
+        <v>0.12607707040170971</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>768</v>
+      </c>
+      <c r="B127">
+        <v>0.11954450802694482</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>969</v>
+      </c>
+      <c r="B128">
+        <v>0.10473349303663713</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>798</v>
+      </c>
+      <c r="B129">
+        <v>0.10308720984604623</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B130">
+        <v>0.10135736740779845</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>778</v>
+      </c>
+      <c r="B131">
+        <v>9.8065354399117705E-2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>484</v>
+      </c>
+      <c r="B132">
+        <v>9.7846218888706274E-2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133">
+        <v>9.1474134539242691E-2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134">
+        <v>8.96391513257975E-2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B135">
+        <v>8.8655255018950246E-2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>441</v>
+      </c>
+      <c r="B136">
+        <v>8.6949207598247133E-2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>414</v>
+      </c>
+      <c r="B137">
+        <v>8.2108858331659387E-2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B138">
+        <v>7.8158885419243304E-2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>890</v>
+      </c>
+      <c r="B139">
+        <v>7.3371106540254249E-2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>879</v>
+      </c>
+      <c r="B140">
+        <v>5.9271175213781634E-2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>885</v>
+      </c>
+      <c r="B141">
+        <v>5.8414554582173324E-2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B142">
+        <v>5.679040629162399E-2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B143">
+        <v>5.5971414990086329E-2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B144">
+        <v>5.5668720232018021E-2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B145">
+        <v>5.5514329304228151E-2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>739</v>
+      </c>
+      <c r="B146">
+        <v>5.5234876191203479E-2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B147">
+        <v>5.5088785850929196E-2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>941</v>
+      </c>
+      <c r="B148">
+        <v>5.3339575375145054E-2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>478</v>
+      </c>
+      <c r="B149">
+        <v>5.2795056834122722E-2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B150">
+        <v>5.060038149500222E-2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>574</v>
+      </c>
+      <c r="B151">
+        <v>4.6289056339407705E-2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>546</v>
+      </c>
+      <c r="B152">
+        <v>4.4506090141060183E-2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B153">
+        <v>4.4328457568226676E-2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>380</v>
+      </c>
+      <c r="B154">
+        <v>4.2995383213223833E-2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>247</v>
+      </c>
+      <c r="B155">
+        <v>3.9230236716154769E-2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>746</v>
+      </c>
+      <c r="B156">
+        <v>3.7856766168576077E-2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>437</v>
+      </c>
+      <c r="B157">
+        <v>3.5181763498553759E-2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>539</v>
+      </c>
+      <c r="B158">
+        <v>3.4845866390423114E-2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>905</v>
+      </c>
+      <c r="B159">
+        <v>3.072545474768704E-2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>704</v>
+      </c>
+      <c r="B160">
+        <v>2.9532383635447051E-2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>544</v>
+      </c>
+      <c r="B161">
+        <v>2.9418388900233024E-2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>874</v>
+      </c>
+      <c r="B162">
+        <v>2.5018524144472278E-2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>721</v>
+      </c>
+      <c r="B163">
+        <v>2.0475889283443481E-2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B164">
+        <v>2.0452094265898807E-2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>976</v>
+      </c>
+      <c r="B165">
+        <v>1.7036125816985326E-2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>909</v>
+      </c>
+      <c r="B166">
+        <v>1.6643231341247667E-2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>376</v>
+      </c>
+      <c r="B167">
+        <v>1.5366047608849754E-2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>454</v>
+      </c>
+      <c r="B168">
+        <v>1.5366047608849754E-2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>901</v>
+      </c>
+      <c r="B169">
+        <v>1.5366047608849754E-2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>469</v>
+      </c>
+      <c r="B170">
+        <v>1.3444184912741457E-2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>894</v>
+      </c>
+      <c r="B171">
+        <v>8.1760787028505883E-3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B172">
+        <v>6.5657647248272234E-3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>535</v>
+      </c>
+      <c r="B173">
+        <v>4.8193211115482755E-3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>753</v>
+      </c>
+      <c r="B174">
+        <v>4.7379753538955485E-3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>748</v>
+      </c>
+      <c r="B175">
+        <v>3.6422978018384143E-3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>949</v>
+      </c>
+      <c r="B176">
+        <v>3.2012599185103656E-3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177">
+        <v>1.4387685027012879E-3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>416</v>
+      </c>
+      <c r="B178">
+        <v>1.3596362350527171E-3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>542</v>
+      </c>
+      <c r="B179">
+        <v>1.0065845793898625E-3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>554</v>
+      </c>
+      <c r="B180">
+        <v>9.944103843670055E-4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181">
+        <v>5.9266194861272285E-4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>839</v>
+      </c>
+      <c r="B182">
+        <v>4.5044521584571088E-4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>439</v>
+      </c>
+      <c r="B183">
+        <v>6.5851327623635866E-5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>382</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>457</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>490</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>560</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>881</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>898</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D190">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72154A59-4B22-5244-AD27-DFE8F59C1CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A938259-9117-BA47-8817-4806A625C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21880" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Outflux" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AD$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AF$293</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$992</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StudyID!$A$1:$R$67</definedName>
   </definedNames>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13620" uniqueCount="3184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13801" uniqueCount="3191">
   <si>
     <t>Tab</t>
   </si>
@@ -11883,9 +11883,6 @@
     <t>Missing %</t>
   </si>
   <si>
-    <t>GA of microcephaly at birth</t>
-  </si>
-  <si>
     <t>Oro-facial abnormalities (cleft palate, cleft lip)</t>
   </si>
   <si>
@@ -12073,6 +12070,30 @@
   </si>
   <si>
     <t>Imp_obj1_all</t>
+  </si>
+  <si>
+    <t>Var_ga</t>
+  </si>
+  <si>
+    <t>Type_ga</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>GA of microcephaly of fetus</t>
+  </si>
+  <si>
+    <t>zikv_tri_n</t>
+  </si>
+  <si>
+    <t>zikv_ga_n</t>
+  </si>
+  <si>
+    <t>order_ga</t>
+  </si>
+  <si>
+    <t>zikv_tri_n2</t>
   </si>
 </sst>
 </file>
@@ -12775,7 +12796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13490,6 +13511,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -48950,13 +48974,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD291"/>
+  <dimension ref="A1:AG293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="W180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T140" sqref="T140"/>
+      <selection pane="bottomRight" activeCell="AG294" sqref="AG294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -48972,9 +48996,10 @@
     <col min="20" max="20" width="10.83203125" style="208" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="21.6640625" customWidth="1" collapsed="1"/>
     <col min="22" max="27" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="28" max="30" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" customHeight="1">
+    <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="226" t="s">
         <v>3097</v>
       </c>
@@ -48982,7 +49007,7 @@
         <v>111</v>
       </c>
       <c r="C1" s="231" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="D1" s="230" t="s">
         <v>113</v>
@@ -48991,19 +49016,19 @@
         <v>3098</v>
       </c>
       <c r="F1" s="200" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="G1" s="200" t="s">
         <v>3099</v>
       </c>
       <c r="H1" s="201" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="I1" s="201" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="J1" s="201" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="K1" s="200" t="s">
         <v>3100</v>
@@ -49012,7 +49037,7 @@
         <v>3104</v>
       </c>
       <c r="M1" s="230" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="N1" s="230" t="s">
         <v>3105</v>
@@ -49057,16 +49082,25 @@
         <v>2841</v>
       </c>
       <c r="AB1" s="201" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="AC1" s="201" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="AD1" s="201" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15" hidden="1" customHeight="1">
+        <v>3163</v>
+      </c>
+      <c r="AE1" s="201" t="s">
+        <v>3183</v>
+      </c>
+      <c r="AF1" s="201" t="s">
+        <v>3184</v>
+      </c>
+      <c r="AG1" s="201" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>123</v>
       </c>
@@ -49123,7 +49157,7 @@
       <c r="Z2" s="83"/>
       <c r="AA2" s="83"/>
     </row>
-    <row r="3" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
@@ -49174,7 +49208,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:33" ht="15" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49224,8 +49258,17 @@
       <c r="X4" s="210" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49272,8 +49315,20 @@
       <c r="T5" s="208">
         <v>76.291901936959505</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="X5" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49320,8 +49375,20 @@
       <c r="T6" s="208">
         <v>77.342577371167195</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="X6" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49369,8 +49436,20 @@
         <v>83.732399399614096</v>
       </c>
       <c r="V7" s="210"/>
-    </row>
-    <row r="8" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="X7" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49418,8 +49497,20 @@
         <v>88.249589021513799</v>
       </c>
       <c r="V8" s="210"/>
-    </row>
-    <row r="9" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="X8" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49467,8 +49558,20 @@
         <v>94.617968694160595</v>
       </c>
       <c r="V9" s="210"/>
-    </row>
-    <row r="10" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="X9" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="15" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49516,8 +49619,20 @@
         <v>92.116360517475499</v>
       </c>
       <c r="V10" s="210"/>
-    </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1">
+      <c r="X10" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="177" t="s">
         <v>167</v>
       </c>
@@ -49600,7 +49715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="177" t="s">
         <v>171</v>
       </c>
@@ -49672,7 +49787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="192" t="s">
         <v>174</v>
       </c>
@@ -49744,7 +49859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="177" t="s">
         <v>177</v>
       </c>
@@ -49816,7 +49931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="177" t="s">
         <v>180</v>
       </c>
@@ -49873,7 +49988,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="177" t="s">
         <v>183</v>
       </c>
@@ -50468,7 +50583,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15" customHeight="1">
+    <row r="26" spans="1:30" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -51736,7 +51851,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="177" t="s">
         <v>2647</v>
       </c>
@@ -51798,7 +51913,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="192" t="s">
         <v>465</v>
       </c>
@@ -51866,7 +51981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="177" t="s">
         <v>467</v>
       </c>
@@ -51934,7 +52049,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="192" t="s">
         <v>469</v>
       </c>
@@ -51995,7 +52110,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="192" t="s">
         <v>472</v>
       </c>
@@ -52052,7 +52167,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="203" t="s">
         <v>474</v>
       </c>
@@ -52111,7 +52226,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="203" t="s">
         <v>478</v>
       </c>
@@ -52164,7 +52279,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="15" customHeight="1">
+    <row r="56" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -52227,7 +52342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:33" ht="15" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -52291,8 +52406,17 @@
       <c r="AA57">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="AE57" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG57">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="177" t="s">
         <v>488</v>
       </c>
@@ -52349,7 +52473,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="205" t="s">
         <v>490</v>
       </c>
@@ -52408,7 +52532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="203" t="s">
         <v>493</v>
       </c>
@@ -52465,7 +52589,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="177" t="s">
         <v>495</v>
       </c>
@@ -52522,7 +52646,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="177" t="s">
         <v>497</v>
       </c>
@@ -52579,7 +52703,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="192" t="s">
         <v>526</v>
       </c>
@@ -52650,7 +52774,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="203" t="s">
         <v>530</v>
       </c>
@@ -53508,7 +53632,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="15" customHeight="1">
+    <row r="79" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="203" t="s">
         <v>562</v>
       </c>
@@ -53652,7 +53776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="192" t="s">
         <v>574</v>
       </c>
@@ -53727,7 +53851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="15" customHeight="1">
+    <row r="82" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="177" t="s">
         <v>702</v>
       </c>
@@ -53802,7 +53926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="177" t="s">
         <v>704</v>
       </c>
@@ -53858,8 +53982,11 @@
       <c r="X83" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AG83">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" ht="15" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -53909,8 +54036,17 @@
       <c r="X84" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AE84" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG84">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" ht="15" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -53975,8 +54111,17 @@
       <c r="AA85">
         <v>46</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AE85" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG85">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" ht="15" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -54032,8 +54177,17 @@
       <c r="X86" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AE86" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG86">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="177" t="s">
         <v>717</v>
       </c>
@@ -54092,7 +54246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="177" t="s">
         <v>721</v>
       </c>
@@ -54151,7 +54305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -54226,7 +54380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="177" t="s">
         <v>728</v>
       </c>
@@ -54289,7 +54443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="192" t="s">
         <v>733</v>
       </c>
@@ -54342,7 +54496,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="177" t="s">
         <v>739</v>
       </c>
@@ -54407,7 +54561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -54482,7 +54636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="177" t="s">
         <v>744</v>
       </c>
@@ -54545,7 +54699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="177" t="s">
         <v>746</v>
       </c>
@@ -54610,7 +54764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="177" t="s">
         <v>748</v>
       </c>
@@ -54669,7 +54823,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="177" t="s">
         <v>751</v>
       </c>
@@ -54741,7 +54895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="177" t="s">
         <v>753</v>
       </c>
@@ -54804,7 +54958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -54879,7 +55033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="177" t="s">
         <v>757</v>
       </c>
@@ -54942,7 +55096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="177" t="s">
         <v>759</v>
       </c>
@@ -55017,7 +55171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="177" t="s">
         <v>761</v>
       </c>
@@ -55092,7 +55246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -55169,7 +55323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="177" t="s">
         <v>768</v>
       </c>
@@ -55244,7 +55398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="177" t="s">
         <v>770</v>
       </c>
@@ -55316,7 +55470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="177" t="s">
         <v>778</v>
       </c>
@@ -55391,7 +55545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="177" t="s">
         <v>780</v>
       </c>
@@ -55463,7 +55617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="193" t="s">
         <v>791</v>
       </c>
@@ -55520,7 +55674,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="193" t="s">
         <v>798</v>
       </c>
@@ -55577,7 +55731,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:33" ht="15" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -55639,8 +55793,17 @@
       <c r="AA110">
         <v>46</v>
       </c>
-    </row>
-    <row r="111" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AE110" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" ht="15" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -55693,8 +55856,17 @@
       <c r="X111" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="112" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AE111" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" ht="15" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -55749,8 +55921,17 @@
       <c r="X112" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG112">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" ht="15" customHeight="1">
       <c r="A113" s="193" t="s">
         <v>811</v>
       </c>
@@ -55826,8 +56007,17 @@
       <c r="AB113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE113" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG113">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="15" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -55885,8 +56075,17 @@
       <c r="X114" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" ht="15" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -55941,8 +56140,17 @@
       <c r="X115" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE115" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG115">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" ht="15" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -56009,8 +56217,17 @@
       <c r="AA116">
         <v>46</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE116" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG116">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" ht="15" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -56065,8 +56282,17 @@
       <c r="X117" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE117" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG117">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="193" t="s">
         <v>835</v>
       </c>
@@ -56122,7 +56348,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="193" t="s">
         <v>839</v>
       </c>
@@ -56208,7 +56434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="193" t="s">
         <v>842</v>
       </c>
@@ -56265,7 +56491,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="193" t="s">
         <v>846</v>
       </c>
@@ -56330,7 +56556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:33" ht="15" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -56397,8 +56623,17 @@
       <c r="AA122">
         <v>46</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE122" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG122">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" ht="15" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -56453,8 +56688,17 @@
       <c r="X123" s="212" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE123" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG123">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" ht="15" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -56509,8 +56753,17 @@
       <c r="X124" s="210" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="125" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE124" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG124">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="193" t="s">
         <v>856</v>
       </c>
@@ -56566,7 +56819,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="193" t="s">
         <v>860</v>
       </c>
@@ -56631,7 +56884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="193" t="s">
         <v>864</v>
       </c>
@@ -56696,7 +56949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="193" t="s">
         <v>870</v>
       </c>
@@ -56761,7 +57014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="193" t="s">
         <v>874</v>
       </c>
@@ -56823,7 +57076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="193" t="s">
         <v>879</v>
       </c>
@@ -56879,7 +57132,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="193" t="s">
         <v>881</v>
       </c>
@@ -56941,7 +57194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="193" t="s">
         <v>885</v>
       </c>
@@ -57003,7 +57256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="193" t="s">
         <v>890</v>
       </c>
@@ -57059,7 +57312,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="193" t="s">
         <v>894</v>
       </c>
@@ -57124,7 +57377,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="193" t="s">
         <v>898</v>
       </c>
@@ -57186,7 +57439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="193" t="s">
         <v>901</v>
       </c>
@@ -57248,7 +57501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="193" t="s">
         <v>905</v>
       </c>
@@ -57307,7 +57560,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="193" t="s">
         <v>909</v>
       </c>
@@ -57366,7 +57619,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="15" customHeight="1">
+    <row r="139" spans="1:33" ht="15" customHeight="1">
       <c r="A139" s="193" t="s">
         <v>913</v>
       </c>
@@ -57451,8 +57704,17 @@
       <c r="AD139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:30" ht="15" hidden="1" customHeight="1">
+      <c r="AE139" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF139" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG139">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" ht="15" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -57505,8 +57767,17 @@
       <c r="X140" s="212" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="141" spans="1:30" ht="15" customHeight="1">
+      <c r="AE140" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG140">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="193" t="s">
         <v>918</v>
       </c>
@@ -57588,7 +57859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="193" t="s">
         <v>921</v>
       </c>
@@ -57643,7 +57914,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="193" t="s">
         <v>924</v>
       </c>
@@ -57700,7 +57971,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="193" t="s">
         <v>931</v>
       </c>
@@ -58673,7 +58944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="197" t="s">
         <v>1649</v>
       </c>
@@ -58749,7 +59020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="197" t="s">
         <v>1640</v>
       </c>
@@ -58827,7 +59098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:33" ht="15" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -58878,9 +59149,20 @@
       <c r="V163" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="X163" s="83"/>
-    </row>
-    <row r="164" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="X163" s="212" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG163">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" ht="15" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -58943,8 +59225,17 @@
       <c r="AA164">
         <v>46</v>
       </c>
-    </row>
-    <row r="165" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE164" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG164">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="199" t="s">
         <v>1632</v>
       </c>
@@ -58991,7 +59282,7 @@
       </c>
       <c r="X165" s="83"/>
     </row>
-    <row r="166" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="199" t="s">
         <v>1628</v>
       </c>
@@ -59037,7 +59328,7 @@
         <v>99.635479951397301</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="199" t="s">
         <v>1625</v>
       </c>
@@ -59085,7 +59376,7 @@
         <v>97.920091487384795</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="199" t="s">
         <v>1621</v>
       </c>
@@ -59131,7 +59422,7 @@
         <v>98.827817882924705</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="199" t="s">
         <v>1619</v>
       </c>
@@ -59177,7 +59468,7 @@
         <v>99.849903509398899</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="199" t="s">
         <v>1616</v>
       </c>
@@ -59223,7 +59514,7 @@
         <v>99.978557644199896</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="199" t="s">
         <v>1612</v>
       </c>
@@ -59275,7 +59566,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="197" t="s">
         <v>1522</v>
       </c>
@@ -59328,9 +59619,14 @@
       <c r="W172" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X172" s="210"/>
-    </row>
-    <row r="173" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="X172" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" ht="15" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -59386,9 +59682,20 @@
       <c r="W173" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="X173" s="210"/>
-    </row>
-    <row r="174" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="X173" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" ht="15" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -59441,10 +59748,21 @@
       <c r="W174" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X174" s="210"/>
-    </row>
-    <row r="175" spans="1:29" ht="15" hidden="1" customHeight="1">
-      <c r="A175" s="207" t="s">
+      <c r="X174" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" ht="15" customHeight="1">
+      <c r="A175" s="267" t="s">
         <v>1508</v>
       </c>
       <c r="B175" s="207" t="s">
@@ -59499,9 +59817,20 @@
       <c r="W175" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X175" s="210"/>
-    </row>
-    <row r="176" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="X175" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" ht="15" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -59557,9 +59886,20 @@
       <c r="W176" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X176" s="210"/>
-    </row>
-    <row r="177" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X176" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" ht="15" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -59615,9 +59955,20 @@
       <c r="W177" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X177" s="210"/>
-    </row>
-    <row r="178" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X177" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG177">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" ht="15" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -59673,9 +60024,20 @@
       <c r="W178" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X178" s="210"/>
-    </row>
-    <row r="179" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X178" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG178">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33" ht="15" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -59731,9 +60093,20 @@
       <c r="W179" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X179" s="210"/>
-    </row>
-    <row r="180" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X179" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG179">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33" ht="15" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -59789,9 +60162,20 @@
       <c r="W180" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X180" s="210"/>
-    </row>
-    <row r="181" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X180" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG180">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" ht="15" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -59847,9 +60231,20 @@
       <c r="W181" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X181" s="210"/>
-    </row>
-    <row r="182" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X181" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG181">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33" ht="15" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -59905,9 +60300,20 @@
       <c r="W182" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X182" s="210"/>
-    </row>
-    <row r="183" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X182" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG182">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33" ht="15" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -59960,9 +60366,20 @@
       <c r="W183" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X183" s="210"/>
-    </row>
-    <row r="184" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X183" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG183">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" ht="15" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -60018,9 +60435,20 @@
       <c r="W184" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X184" s="210"/>
-    </row>
-    <row r="185" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X184" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG184">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" ht="15" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -60076,9 +60504,20 @@
       <c r="W185" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X185" s="210"/>
-    </row>
-    <row r="186" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X185" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG185">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33" ht="15" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -60134,9 +60573,20 @@
       <c r="W186" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X186" s="210"/>
-    </row>
-    <row r="187" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X186" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG186">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33" ht="15" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -60192,9 +60642,20 @@
       <c r="W187" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X187" s="210"/>
-    </row>
-    <row r="188" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X187" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG187">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33" ht="15" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -60250,9 +60711,20 @@
       <c r="W188" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X188" s="210"/>
-    </row>
-    <row r="189" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X188" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG188">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33" ht="15" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -60308,9 +60780,20 @@
       <c r="W189" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X189" s="210"/>
-    </row>
-    <row r="190" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X189" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG189">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33" ht="15" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -60366,9 +60849,20 @@
       <c r="W190" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X190" s="210"/>
-    </row>
-    <row r="191" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X190" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG190">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33" ht="15" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -60424,9 +60918,20 @@
       <c r="W191" s="210" t="s">
         <v>2826</v>
       </c>
-      <c r="X191" s="210"/>
-    </row>
-    <row r="192" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X191" s="212" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG191">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A192" s="197" t="s">
         <v>1191</v>
       </c>
@@ -60497,8 +61002,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="15" hidden="1" customHeight="1">
-      <c r="A193" s="197" t="s">
+    <row r="193" spans="1:33" ht="15" customHeight="1">
+      <c r="A193" s="192" t="s">
         <v>1189</v>
       </c>
       <c r="B193" s="197" t="s">
@@ -60556,8 +61061,17 @@
       <c r="AA193">
         <v>46</v>
       </c>
-    </row>
-    <row r="194" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AE193" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG193">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33" ht="15" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -60604,10 +61118,21 @@
       </c>
       <c r="U194" s="210"/>
       <c r="W194" s="210"/>
-      <c r="X194" s="212"/>
+      <c r="X194" s="212" t="s">
+        <v>322</v>
+      </c>
       <c r="Z194" s="83"/>
-    </row>
-    <row r="195" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AE194" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG194">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="192" t="s">
         <v>1183</v>
       </c>
@@ -60665,7 +61190,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:33" ht="15" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -60729,8 +61254,17 @@
       <c r="AA196">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AE196" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG196">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="197" t="s">
         <v>1178</v>
       </c>
@@ -60787,7 +61321,7 @@
       </c>
       <c r="Z197" s="83"/>
     </row>
-    <row r="198" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:33" ht="15" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -60851,8 +61385,17 @@
       <c r="AA198">
         <v>46</v>
       </c>
-    </row>
-    <row r="199" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AE198" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG198">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="199" t="s">
         <v>1174</v>
       </c>
@@ -60913,7 +61456,7 @@
       </c>
       <c r="Z199" s="83"/>
     </row>
-    <row r="200" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="199" t="s">
         <v>1171</v>
       </c>
@@ -60971,7 +61514,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:33" ht="15" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -61035,8 +61578,17 @@
       <c r="AA201">
         <v>46</v>
       </c>
-    </row>
-    <row r="202" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="AE201" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG201">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="199" t="s">
         <v>1666</v>
       </c>
@@ -61087,7 +61639,7 @@
       <c r="W202" s="210"/>
       <c r="X202" s="212"/>
     </row>
-    <row r="203" spans="1:27" ht="15" customHeight="1">
+    <row r="203" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A203" s="199" t="s">
         <v>1669</v>
       </c>
@@ -61146,7 +61698,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:33" ht="15" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -61194,9 +61746,20 @@
         <v>80.187263240654701</v>
       </c>
       <c r="W204" s="210"/>
-      <c r="X204" s="210"/>
-    </row>
-    <row r="205" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="X204" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG204">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33" ht="15" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -61244,9 +61807,20 @@
         <v>87.734972482310098</v>
       </c>
       <c r="W205" s="210"/>
-      <c r="X205" s="210"/>
-    </row>
-    <row r="206" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="X205" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG205">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33" ht="15" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -61294,9 +61868,20 @@
         <v>89.521835465656494</v>
       </c>
       <c r="W206" s="210"/>
-      <c r="X206" s="210"/>
-    </row>
-    <row r="207" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="X206" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG206">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33" ht="15" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -61344,9 +61929,20 @@
         <v>93.367164605818004</v>
       </c>
       <c r="W207" s="210"/>
-      <c r="X207" s="210"/>
-    </row>
-    <row r="208" spans="1:27" ht="15" hidden="1" customHeight="1">
+      <c r="X207" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG207">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33" ht="15" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -61394,9 +61990,20 @@
         <v>94.339218068758498</v>
       </c>
       <c r="W208" s="210"/>
-      <c r="X208" s="210"/>
-    </row>
-    <row r="209" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X208" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG208">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" ht="15" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -61444,9 +62051,20 @@
         <v>96.919448216710805</v>
       </c>
       <c r="W209" s="210"/>
-      <c r="X209" s="210"/>
-    </row>
-    <row r="210" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X209" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG209">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" ht="15" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -61494,9 +62112,20 @@
         <v>98.870702594525099</v>
       </c>
       <c r="W210" s="210"/>
-      <c r="X210" s="210"/>
-    </row>
-    <row r="211" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X210" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG210">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="199" t="s">
         <v>1683</v>
       </c>
@@ -61544,7 +62173,7 @@
       <c r="W211" s="210"/>
       <c r="X211" s="210"/>
     </row>
-    <row r="212" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="212" spans="1:33" ht="15" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -61619,8 +62248,17 @@
       <c r="AB212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="AE212" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG212">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33" ht="15" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -61666,9 +62304,20 @@
         <v>41.862625973840302</v>
       </c>
       <c r="W213" s="210"/>
-      <c r="X213" s="212"/>
-    </row>
-    <row r="214" spans="1:28" ht="15" hidden="1" customHeight="1">
+      <c r="X213" s="212" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG213">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="199" t="s">
         <v>1697</v>
       </c>
@@ -61716,7 +62365,7 @@
       <c r="W214" s="210"/>
       <c r="X214" s="210"/>
     </row>
-    <row r="215" spans="1:28" ht="15" customHeight="1">
+    <row r="215" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A215" s="199" t="s">
         <v>1716</v>
       </c>
@@ -61800,7 +62449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="199" t="s">
         <v>1719</v>
       </c>
@@ -61861,7 +62510,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="15" customHeight="1">
+    <row r="217" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A217" s="199" t="s">
         <v>1731</v>
       </c>
@@ -61900,7 +62549,7 @@
       </c>
       <c r="M217" s="188"/>
       <c r="N217" s="176" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="O217" s="176" t="s">
         <v>1664</v>
@@ -61932,7 +62581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="218" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="199" t="s">
         <v>1734</v>
       </c>
@@ -61990,7 +62639,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="219" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="199" t="s">
         <v>1736</v>
       </c>
@@ -62060,7 +62709,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="199" t="s">
         <v>1743</v>
       </c>
@@ -62114,7 +62763,7 @@
       <c r="W220" s="210"/>
       <c r="X220" s="212"/>
     </row>
-    <row r="221" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="199" t="s">
         <v>1750</v>
       </c>
@@ -62168,7 +62817,7 @@
       <c r="W221" s="210"/>
       <c r="X221" s="210"/>
     </row>
-    <row r="222" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="199" t="s">
         <v>1755</v>
       </c>
@@ -62222,7 +62871,7 @@
       <c r="W222" s="210"/>
       <c r="X222" s="210"/>
     </row>
-    <row r="223" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="199" t="s">
         <v>1759</v>
       </c>
@@ -62276,7 +62925,7 @@
       <c r="W223" s="210"/>
       <c r="X223" s="210"/>
     </row>
-    <row r="224" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="199" t="s">
         <v>1763</v>
       </c>
@@ -62330,7 +62979,7 @@
       <c r="W224" s="210"/>
       <c r="X224" s="210"/>
     </row>
-    <row r="225" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="199" t="s">
         <v>1765</v>
       </c>
@@ -62384,7 +63033,7 @@
       <c r="W225" s="210"/>
       <c r="X225" s="210"/>
     </row>
-    <row r="226" spans="1:30" ht="15" customHeight="1">
+    <row r="226" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -62459,7 +63108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="177" t="s">
         <v>1777</v>
       </c>
@@ -62527,7 +63176,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="177" t="s">
         <v>1779</v>
       </c>
@@ -62593,7 +63242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="229" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="199" t="s">
         <v>1782</v>
       </c>
@@ -62664,7 +63313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="199" t="s">
         <v>1875</v>
       </c>
@@ -62720,7 +63369,7 @@
       <c r="W230" s="210"/>
       <c r="X230" s="212"/>
     </row>
-    <row r="231" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="231" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A231" s="199" t="s">
         <v>1956</v>
       </c>
@@ -62774,7 +63423,7 @@
       <c r="W231" s="210"/>
       <c r="X231" s="210"/>
     </row>
-    <row r="232" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="232" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A232" s="199" t="s">
         <v>1958</v>
       </c>
@@ -62820,7 +63469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="233" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A233" s="199" t="s">
         <v>1961</v>
       </c>
@@ -62866,7 +63515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="234" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A234" s="197" t="s">
         <v>2194</v>
       </c>
@@ -62914,7 +63563,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="235" spans="1:33" ht="15" customHeight="1">
       <c r="A235" s="232" t="s">
         <v>2605</v>
       </c>
@@ -62953,7 +63602,7 @@
         <v>120</v>
       </c>
       <c r="N235" s="212" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="O235" s="236" t="s">
         <v>2853</v>
@@ -62967,13 +63616,19 @@
       <c r="R235" s="227"/>
       <c r="S235" s="227"/>
       <c r="T235" s="208" t="s">
-        <v>3139</v>
-      </c>
-      <c r="X235" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="236" spans="1:30" ht="15" hidden="1" customHeight="1">
+        <v>3138</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A236" s="221" t="s">
         <v>2883</v>
       </c>
@@ -63027,7 +63682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="15" customHeight="1">
+    <row r="237" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A237" s="221" t="s">
         <v>2884</v>
       </c>
@@ -63071,7 +63726,7 @@
         <v>2916</v>
       </c>
       <c r="R237" s="266" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="T237" s="208">
         <v>11.270726129216699</v>
@@ -63083,7 +63738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="238" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A238" s="221" t="s">
         <v>2879</v>
       </c>
@@ -63119,7 +63774,7 @@
       </c>
       <c r="M238" s="262"/>
       <c r="N238" s="210" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="Q238" t="s">
         <v>2912</v>
@@ -63131,7 +63786,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="239" spans="1:33" ht="15" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2880</v>
       </c>
@@ -63167,7 +63822,7 @@
       </c>
       <c r="M239" s="262"/>
       <c r="N239" s="210" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="Q239" t="s">
         <v>2913</v>
@@ -63184,8 +63839,17 @@
       <c r="AA239">
         <v>46</v>
       </c>
-    </row>
-    <row r="240" spans="1:30" ht="15" customHeight="1">
+      <c r="AE239" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG239">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:33" ht="15" customHeight="1">
       <c r="A240" s="221" t="s">
         <v>2885</v>
       </c>
@@ -63248,8 +63912,17 @@
       <c r="AD240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:29" ht="15" hidden="1" customHeight="1">
+      <c r="AE240" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG240">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A241" s="221" t="s">
         <v>2886</v>
       </c>
@@ -63297,7 +63970,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="242" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="242" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2887</v>
       </c>
@@ -63344,7 +64017,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="243" spans="1:29" ht="15" customHeight="1">
+    <row r="243" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A243" s="221" t="s">
         <v>2888</v>
       </c>
@@ -63384,7 +64057,7 @@
         <v>120</v>
       </c>
       <c r="N243" s="83" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="Q243" s="210" t="s">
         <v>2906</v>
@@ -63399,7 +64072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="244" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A244" s="221" t="s">
         <v>2881</v>
       </c>
@@ -63454,7 +64127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="245" spans="1:33" ht="15" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2889</v>
       </c>
@@ -63493,7 +64166,7 @@
         <v>3106</v>
       </c>
       <c r="Q245" s="210" t="s">
-        <v>3120</v>
+        <v>3186</v>
       </c>
       <c r="T245" s="208">
         <v>97.770154373927994</v>
@@ -63507,8 +64180,17 @@
       <c r="AA245">
         <v>46</v>
       </c>
-    </row>
-    <row r="246" spans="1:29" ht="15" customHeight="1">
+      <c r="AE245" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG245">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="246" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A246" s="221" t="s">
         <v>2882</v>
       </c>
@@ -63548,7 +64230,7 @@
         <v>120</v>
       </c>
       <c r="N246" s="83" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="Q246" t="s">
         <v>2907</v>
@@ -63563,7 +64245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:29" ht="15" customHeight="1">
+    <row r="247" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A247" s="221" t="s">
         <v>2897</v>
       </c>
@@ -63615,7 +64297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="248" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A248" s="221" t="s">
         <v>2872</v>
       </c>
@@ -63671,7 +64353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="249" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A249" s="221" t="s">
         <v>2898</v>
       </c>
@@ -63719,7 +64401,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="250" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="250" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A250" s="221" t="s">
         <v>2899</v>
       </c>
@@ -63766,7 +64448,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="251" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="251" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A251" s="221" t="s">
         <v>2900</v>
       </c>
@@ -63804,7 +64486,7 @@
         <v>3106</v>
       </c>
       <c r="Q251" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="T251" s="208">
         <v>93.6392224128073</v>
@@ -63813,7 +64495,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="252" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="252" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A252" s="221" t="s">
         <v>2901</v>
       </c>
@@ -63860,7 +64542,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="253" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="253" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A253" s="221" t="s">
         <v>2902</v>
       </c>
@@ -63901,7 +64583,7 @@
         <v>3106</v>
       </c>
       <c r="Q253" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="T253" s="208">
         <v>94.153802172670098</v>
@@ -63916,7 +64598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:29" ht="15" customHeight="1">
+    <row r="254" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A254" s="221" t="s">
         <v>2903</v>
       </c>
@@ -63971,7 +64653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="255" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A255" s="221" t="s">
         <v>2890</v>
       </c>
@@ -64026,7 +64708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:29" ht="15" hidden="1" customHeight="1">
+    <row r="256" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A256" s="221" t="s">
         <v>2904</v>
       </c>
@@ -64082,7 +64764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="15" customHeight="1">
+    <row r="257" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2870</v>
       </c>
@@ -64137,9 +64819,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="15" customHeight="1">
+    <row r="258" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A258" s="221" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C258" s="218" t="s">
         <v>2869</v>
@@ -64177,7 +64859,7 @@
         <v>120</v>
       </c>
       <c r="N258" s="210" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="Q258" t="s">
         <v>2896</v>
@@ -64192,7 +64874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="259" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A259" s="223" t="s">
         <v>2891</v>
       </c>
@@ -64240,7 +64922,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="260" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A260" s="221" t="s">
         <v>2892</v>
       </c>
@@ -64296,7 +64978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="15" customHeight="1">
+    <row r="261" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2893</v>
       </c>
@@ -64347,7 +65029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="15" customHeight="1">
+    <row r="262" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2894</v>
       </c>
@@ -64397,7 +65079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="263" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A263" s="221" t="s">
         <v>2895</v>
       </c>
@@ -64444,7 +65126,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="264" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A264" s="221" t="s">
         <v>2874</v>
       </c>
@@ -64500,7 +65182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="265" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A265" s="221" t="s">
         <v>2875</v>
       </c>
@@ -64555,7 +65237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="266" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2905</v>
       </c>
@@ -64596,7 +65278,7 @@
         <v>3118</v>
       </c>
       <c r="Q266" s="210" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="T266" s="208">
         <v>41.616638078902199</v>
@@ -64608,7 +65290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="267" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A267" s="221" t="s">
         <v>2873</v>
       </c>
@@ -64664,7 +65346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="268" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A268" s="221" t="s">
         <v>2877</v>
       </c>
@@ -64705,7 +65387,7 @@
         <v>3106</v>
       </c>
       <c r="Q268" s="210" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="T268" s="208">
         <v>99.299599771297906</v>
@@ -64720,7 +65402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="15" customHeight="1">
+    <row r="269" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2876</v>
       </c>
@@ -64776,7 +65458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="270" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A270" s="221" t="s">
         <v>2819</v>
       </c>
@@ -64816,7 +65498,7 @@
         <v>120</v>
       </c>
       <c r="Q270" s="210" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="T270" s="208">
         <v>78.930817610062903</v>
@@ -64834,7 +65516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="271" spans="1:33" ht="15" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2984</v>
       </c>
@@ -64874,8 +65556,17 @@
       <c r="AA271">
         <v>46</v>
       </c>
-    </row>
-    <row r="272" spans="1:30" ht="15" customHeight="1">
+      <c r="AE271" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG271">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:33" ht="15" customHeight="1">
       <c r="A272" s="221" t="s">
         <v>3103</v>
       </c>
@@ -64906,7 +65597,7 @@
         <v>272</v>
       </c>
       <c r="Q272" s="210" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="T272" s="208">
         <v>0</v>
@@ -64914,10 +65605,19 @@
       <c r="X272" s="212" t="s">
         <v>2864</v>
       </c>
+      <c r="AE272" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AG272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A273" s="221" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="C273" s="218" t="s">
         <v>2869</v>
@@ -64939,7 +65639,7 @@
         <v>120</v>
       </c>
       <c r="Q273" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="X273" s="212" t="s">
         <v>2861</v>
@@ -64947,7 +65647,7 @@
     </row>
     <row r="274" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A274" s="221" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="C274" s="218" t="s">
         <v>2869</v>
@@ -64973,10 +65673,10 @@
         <v>120</v>
       </c>
       <c r="N274" s="210" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="Q274" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="X274" s="212" t="s">
         <v>2861</v>
@@ -64984,7 +65684,7 @@
     </row>
     <row r="275" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A275" s="221" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="C275" s="218" t="s">
         <v>2869</v>
@@ -65010,10 +65710,10 @@
         <v>120</v>
       </c>
       <c r="N275" s="210" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="Q275" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="X275" s="212" t="s">
         <v>2861</v>
@@ -65021,7 +65721,7 @@
     </row>
     <row r="276" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A276" s="221" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="C276" s="218" t="s">
         <v>2869</v>
@@ -65047,12 +65747,12 @@
         <v>120</v>
       </c>
       <c r="Q276" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="277" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A277" s="221" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="C277" s="222" t="s">
         <v>2869</v>
@@ -65084,7 +65784,7 @@
         <v>277</v>
       </c>
       <c r="Q277" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X277" s="212" t="s">
         <v>328</v>
@@ -65095,7 +65795,7 @@
     </row>
     <row r="278" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A278" s="221" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="C278" s="218" t="s">
         <v>2869</v>
@@ -65127,7 +65827,7 @@
         <v>278</v>
       </c>
       <c r="Q278" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X278" s="212" t="s">
         <v>328</v>
@@ -65138,7 +65838,7 @@
     </row>
     <row r="279" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A279" s="221" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C279" s="218" t="s">
         <v>2869</v>
@@ -65170,7 +65870,7 @@
         <v>279</v>
       </c>
       <c r="Q279" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X279" s="212" t="s">
         <v>2861</v>
@@ -65181,7 +65881,7 @@
     </row>
     <row r="280" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A280" s="221" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C280" s="218" t="s">
         <v>2869</v>
@@ -65213,7 +65913,7 @@
         <v>280</v>
       </c>
       <c r="Q280" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X280" s="212" t="s">
         <v>2861</v>
@@ -65224,7 +65924,7 @@
     </row>
     <row r="281" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A281" s="221" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C281" s="218" t="s">
         <v>2869</v>
@@ -65256,7 +65956,7 @@
         <v>281</v>
       </c>
       <c r="Q281" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X281" s="212" t="s">
         <v>2861</v>
@@ -65267,7 +65967,7 @@
     </row>
     <row r="282" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A282" s="221" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="C282" s="218" t="s">
         <v>2869</v>
@@ -65299,7 +65999,7 @@
         <v>282</v>
       </c>
       <c r="Q282" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X282" s="212" t="s">
         <v>2861</v>
@@ -65310,7 +66010,7 @@
     </row>
     <row r="283" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A283" s="221" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C283" s="218" t="s">
         <v>2869</v>
@@ -65342,7 +66042,7 @@
         <v>283</v>
       </c>
       <c r="Q283" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X283" s="212" t="s">
         <v>2861</v>
@@ -65353,7 +66053,7 @@
     </row>
     <row r="284" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A284" s="221" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C284" s="218" t="s">
         <v>2869</v>
@@ -65385,7 +66085,7 @@
         <v>284</v>
       </c>
       <c r="Q284" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X284" s="212" t="s">
         <v>2861</v>
@@ -65396,7 +66096,7 @@
     </row>
     <row r="285" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A285" s="221" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="C285" s="218" t="s">
         <v>2869</v>
@@ -65428,7 +66128,7 @@
         <v>285</v>
       </c>
       <c r="Q285" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X285" s="212" t="s">
         <v>2861</v>
@@ -65439,7 +66139,7 @@
     </row>
     <row r="286" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A286" s="221" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="C286" s="218" t="s">
         <v>2869</v>
@@ -65471,7 +66171,7 @@
         <v>286</v>
       </c>
       <c r="Q286" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X286" s="212" t="s">
         <v>2861</v>
@@ -65482,7 +66182,7 @@
     </row>
     <row r="287" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A287" s="221" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="C287" s="218" t="s">
         <v>2869</v>
@@ -65514,7 +66214,7 @@
         <v>287</v>
       </c>
       <c r="Q287" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X287" s="212" t="s">
         <v>2861</v>
@@ -65525,7 +66225,7 @@
     </row>
     <row r="288" spans="1:28" ht="15" hidden="1" customHeight="1">
       <c r="A288" s="221" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="C288" s="218" t="s">
         <v>2869</v>
@@ -65557,7 +66257,7 @@
         <v>288</v>
       </c>
       <c r="Q288" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X288" s="212" t="s">
         <v>2861</v>
@@ -65566,9 +66266,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="289" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A289" s="221" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C289" s="218" t="s">
         <v>2869</v>
@@ -65600,7 +66300,7 @@
         <v>289</v>
       </c>
       <c r="Q289" s="210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="X289" s="212" t="s">
         <v>2861</v>
@@ -65609,9 +66309,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:28" ht="15" customHeight="1">
+    <row r="290" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A290" s="221" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="D290" s="263" t="s">
         <v>120</v>
@@ -65637,10 +66337,10 @@
         <v>290</v>
       </c>
       <c r="N290" s="83" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="Q290" s="210" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="X290" s="212" t="s">
         <v>2861</v>
@@ -65649,19 +66349,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:28" ht="15" customHeight="1">
-      <c r="A291" s="221"/>
-      <c r="C291" s="222"/>
-      <c r="H291" s="212"/>
-      <c r="I291" s="212"/>
-      <c r="J291" s="212"/>
+    <row r="291" spans="1:33" ht="15" customHeight="1">
+      <c r="A291" t="s">
+        <v>3187</v>
+      </c>
+      <c r="X291" s="212" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG291">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="292" spans="1:33" ht="15" customHeight="1">
+      <c r="A292" t="s">
+        <v>3190</v>
+      </c>
+      <c r="X292" s="212" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG292">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="293" spans="1:33" ht="15" customHeight="1">
+      <c r="A293" t="s">
+        <v>3188</v>
+      </c>
+      <c r="X293" s="212" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG293">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD290" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="yes"/>
-      </filters>
+  <autoFilter ref="A1:AF293" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
+    <filterColumn colId="30">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA273">
@@ -65862,10 +66606,10 @@
         <v>3103</v>
       </c>
       <c r="I1" s="249" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="J1" s="264" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14">
@@ -66282,7 +67026,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="252" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="J15" s="244">
         <v>1</v>
@@ -66314,7 +67058,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="252" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="J16" s="244">
         <v>1</v>
@@ -66426,13 +67170,13 @@
         <v>3044</v>
       </c>
       <c r="G20" s="255" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="H20" s="252">
         <v>19</v>
       </c>
       <c r="I20" s="256" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="J20" s="244"/>
     </row>
@@ -66462,7 +67206,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="252" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="J21" s="244">
         <v>1</v>
@@ -66546,13 +67290,13 @@
         <v>3047</v>
       </c>
       <c r="G24" s="255" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="H24" s="252">
         <v>23</v>
       </c>
       <c r="I24" s="256" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="J24" s="244"/>
     </row>
@@ -70400,16 +71144,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C1" t="s">
         <v>3180</v>
       </c>
-      <c r="B1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -70596,7 +71340,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B15">
         <v>0.80579226064287501</v>
@@ -70666,7 +71410,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B20">
         <v>0.71159055304601126</v>
@@ -70750,7 +71494,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="B26">
         <v>0.6777927741725559</v>
@@ -70834,7 +71578,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B32">
         <v>0.59721177731626507</v>
@@ -70932,7 +71676,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B39">
         <v>0.5729408594206965</v>
@@ -70988,7 +71732,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B43">
         <v>0.56437520647711448</v>
@@ -71002,7 +71746,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B44">
         <v>0.55769987399708154</v>
@@ -71072,7 +71816,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B49">
         <v>0.48884594718280827</v>
@@ -71114,7 +71858,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B52">
         <v>0.46601213767243777</v>
@@ -71408,7 +72152,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B73">
         <v>0.35291441928259681</v>
@@ -71520,7 +72264,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B81">
         <v>0.30840832914153665</v>
@@ -71548,7 +72292,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B83">
         <v>0.2991786291967079</v>
@@ -71646,7 +72390,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B90">
         <v>0.25330128199807317</v>
@@ -71926,7 +72670,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="B110">
         <v>0.19339262166309465</v>
@@ -71982,7 +72726,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="B114">
         <v>0.17660717358907996</v>

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A938259-9117-BA47-8817-4806A625C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A5EC7-EF6A-EE43-A71B-30FF449DCEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="21880" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48977,10 +48977,10 @@
   <dimension ref="A1:AG293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG294" sqref="AG294"/>
+      <selection pane="bottomRight" activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -49208,7 +49208,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1">
+    <row r="4" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="177" t="s">
         <v>132</v>
       </c>
@@ -49268,7 +49268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1">
+    <row r="5" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>136</v>
       </c>
@@ -49328,7 +49328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1">
+    <row r="6" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="177" t="s">
         <v>138</v>
       </c>
@@ -49388,7 +49388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1">
+    <row r="7" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="177" t="s">
         <v>140</v>
       </c>
@@ -49449,7 +49449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1">
+    <row r="8" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="177" t="s">
         <v>142</v>
       </c>
@@ -49510,7 +49510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1">
+    <row r="9" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="177" t="s">
         <v>144</v>
       </c>
@@ -49571,7 +49571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1">
+    <row r="10" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="177" t="s">
         <v>146</v>
       </c>
@@ -49632,7 +49632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="11" spans="1:33" ht="15" customHeight="1">
       <c r="A11" s="177" t="s">
         <v>167</v>
       </c>
@@ -50403,7 +50403,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:30" ht="15" customHeight="1">
       <c r="A23" s="192" t="s">
         <v>309</v>
       </c>
@@ -50583,7 +50583,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:30" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
         <v>361</v>
       </c>
@@ -51131,7 +51131,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:28" ht="15" customHeight="1">
       <c r="A36" s="204" t="s">
         <v>395</v>
       </c>
@@ -52279,7 +52279,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:33" ht="15" customHeight="1">
       <c r="A56" s="177" t="s">
         <v>482</v>
       </c>
@@ -52342,7 +52342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15" customHeight="1">
+    <row r="57" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="203" t="s">
         <v>484</v>
       </c>
@@ -52945,7 +52945,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:28" ht="15" customHeight="1">
       <c r="A67" s="203" t="s">
         <v>537</v>
       </c>
@@ -53632,7 +53632,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="79" spans="1:28" ht="15" customHeight="1">
       <c r="A79" s="203" t="s">
         <v>562</v>
       </c>
@@ -53851,7 +53851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="82" spans="1:33" ht="15" customHeight="1">
       <c r="A82" s="177" t="s">
         <v>702</v>
       </c>
@@ -53986,7 +53986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="15" customHeight="1">
+    <row r="84" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="177" t="s">
         <v>710</v>
       </c>
@@ -54046,7 +54046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="15" customHeight="1">
+    <row r="85" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="177" t="s">
         <v>712</v>
       </c>
@@ -54121,7 +54121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="15" customHeight="1">
+    <row r="86" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="177" t="s">
         <v>715</v>
       </c>
@@ -54305,7 +54305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:33" ht="15" customHeight="1">
       <c r="A89" s="177" t="s">
         <v>725</v>
       </c>
@@ -54561,7 +54561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:33" ht="15" customHeight="1">
       <c r="A93" s="177" t="s">
         <v>742</v>
       </c>
@@ -54958,7 +54958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:33" ht="15" customHeight="1">
       <c r="A99" s="177" t="s">
         <v>755</v>
       </c>
@@ -55246,7 +55246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:33" ht="15" customHeight="1">
       <c r="A103" s="177" t="s">
         <v>763</v>
       </c>
@@ -55731,7 +55731,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="15" customHeight="1">
+    <row r="110" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="193" t="s">
         <v>802</v>
       </c>
@@ -55803,7 +55803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="15" customHeight="1">
+    <row r="111" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="193" t="s">
         <v>805</v>
       </c>
@@ -55866,7 +55866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="15" customHeight="1">
+    <row r="112" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="193" t="s">
         <v>809</v>
       </c>
@@ -56017,7 +56017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="15" customHeight="1">
+    <row r="114" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="193" t="s">
         <v>813</v>
       </c>
@@ -56085,7 +56085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="15" customHeight="1">
+    <row r="115" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="193" t="s">
         <v>815</v>
       </c>
@@ -56150,7 +56150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="15" customHeight="1">
+    <row r="116" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="193" t="s">
         <v>829</v>
       </c>
@@ -56227,7 +56227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="15" customHeight="1">
+    <row r="117" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="193" t="s">
         <v>832</v>
       </c>
@@ -56491,7 +56491,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:33" ht="15" customHeight="1">
       <c r="A121" s="193" t="s">
         <v>846</v>
       </c>
@@ -56556,7 +56556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="15" customHeight="1">
+    <row r="122" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="193" t="s">
         <v>850</v>
       </c>
@@ -56633,7 +56633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="15" customHeight="1">
+    <row r="123" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="193" t="s">
         <v>852</v>
       </c>
@@ -56698,7 +56698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="15" customHeight="1">
+    <row r="124" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="193" t="s">
         <v>854</v>
       </c>
@@ -56884,7 +56884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:33" ht="15" customHeight="1">
       <c r="A127" s="193" t="s">
         <v>864</v>
       </c>
@@ -56949,7 +56949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:33" ht="15" customHeight="1">
       <c r="A128" s="193" t="s">
         <v>870</v>
       </c>
@@ -57714,7 +57714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="15" customHeight="1">
+    <row r="140" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="193" t="s">
         <v>916</v>
       </c>
@@ -57777,7 +57777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="141" spans="1:33" ht="15" customHeight="1">
       <c r="A141" s="193" t="s">
         <v>918</v>
       </c>
@@ -58884,7 +58884,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:28" ht="15" customHeight="1">
       <c r="A160" s="199" t="s">
         <v>1658</v>
       </c>
@@ -59098,7 +59098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="15" customHeight="1">
+    <row r="163" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="197" t="s">
         <v>1042</v>
       </c>
@@ -59162,7 +59162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="15" customHeight="1">
+    <row r="164" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="197" t="s">
         <v>1039</v>
       </c>
@@ -59626,7 +59626,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="15" customHeight="1">
+    <row r="173" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="207" t="s">
         <v>1517</v>
       </c>
@@ -59695,7 +59695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:33" ht="15" customHeight="1">
+    <row r="174" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="199" t="s">
         <v>1511</v>
       </c>
@@ -59761,7 +59761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:33" ht="15" customHeight="1">
+    <row r="175" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="267" t="s">
         <v>1508</v>
       </c>
@@ -59830,7 +59830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:33" ht="15" customHeight="1">
+    <row r="176" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="207" t="s">
         <v>1504</v>
       </c>
@@ -59899,7 +59899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:33" ht="15" customHeight="1">
+    <row r="177" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="207" t="s">
         <v>1490</v>
       </c>
@@ -59968,7 +59968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:33" ht="15" customHeight="1">
+    <row r="178" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="207" t="s">
         <v>1475</v>
       </c>
@@ -60037,7 +60037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:33" ht="15" customHeight="1">
+    <row r="179" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="207" t="s">
         <v>1459</v>
       </c>
@@ -60106,7 +60106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:33" ht="15" customHeight="1">
+    <row r="180" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="207" t="s">
         <v>1445</v>
       </c>
@@ -60175,7 +60175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:33" ht="15" customHeight="1">
+    <row r="181" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="207" t="s">
         <v>1441</v>
       </c>
@@ -60244,7 +60244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:33" ht="15" customHeight="1">
+    <row r="182" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="207" t="s">
         <v>1429</v>
       </c>
@@ -60313,7 +60313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:33" ht="15" customHeight="1">
+    <row r="183" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="199" t="s">
         <v>1419</v>
       </c>
@@ -60379,7 +60379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:33" ht="15" customHeight="1">
+    <row r="184" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="207" t="s">
         <v>1416</v>
       </c>
@@ -60448,7 +60448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:33" ht="15" customHeight="1">
+    <row r="185" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="207" t="s">
         <v>1412</v>
       </c>
@@ -60517,7 +60517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:33" ht="15" customHeight="1">
+    <row r="186" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="207" t="s">
         <v>1396</v>
       </c>
@@ -60586,7 +60586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:33" ht="15" customHeight="1">
+    <row r="187" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="207" t="s">
         <v>1380</v>
       </c>
@@ -60655,7 +60655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:33" ht="15" customHeight="1">
+    <row r="188" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="207" t="s">
         <v>1362</v>
       </c>
@@ -60724,7 +60724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:33" ht="15" customHeight="1">
+    <row r="189" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="207" t="s">
         <v>1345</v>
       </c>
@@ -60793,7 +60793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="15" customHeight="1">
+    <row r="190" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="207" t="s">
         <v>1335</v>
       </c>
@@ -60862,7 +60862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:33" ht="15" customHeight="1">
+    <row r="191" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="207" t="s">
         <v>1320</v>
       </c>
@@ -61002,7 +61002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:33" ht="15" customHeight="1">
+    <row r="193" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="192" t="s">
         <v>1189</v>
       </c>
@@ -61071,7 +61071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:33" ht="15" customHeight="1">
+    <row r="194" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="197" t="s">
         <v>1186</v>
       </c>
@@ -61190,7 +61190,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="196" spans="1:33" ht="15" customHeight="1">
+    <row r="196" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="197" t="s">
         <v>1181</v>
       </c>
@@ -61321,7 +61321,7 @@
       </c>
       <c r="Z197" s="83"/>
     </row>
-    <row r="198" spans="1:33" ht="15" customHeight="1">
+    <row r="198" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="197" t="s">
         <v>1176</v>
       </c>
@@ -61514,7 +61514,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="15" customHeight="1">
+    <row r="201" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="199" t="s">
         <v>1165</v>
       </c>
@@ -61639,7 +61639,7 @@
       <c r="W202" s="210"/>
       <c r="X202" s="212"/>
     </row>
-    <row r="203" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="203" spans="1:33" ht="15" customHeight="1">
       <c r="A203" s="199" t="s">
         <v>1669</v>
       </c>
@@ -61698,7 +61698,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="15" customHeight="1">
+    <row r="204" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="199" t="s">
         <v>1671</v>
       </c>
@@ -61759,7 +61759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="205" spans="1:33" ht="15" customHeight="1">
+    <row r="205" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="199" t="s">
         <v>1674</v>
       </c>
@@ -61820,7 +61820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="15" customHeight="1">
+    <row r="206" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="199" t="s">
         <v>1675</v>
       </c>
@@ -61881,7 +61881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:33" ht="15" customHeight="1">
+    <row r="207" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="199" t="s">
         <v>1676</v>
       </c>
@@ -61942,7 +61942,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:33" ht="15" customHeight="1">
+    <row r="208" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="199" t="s">
         <v>1677</v>
       </c>
@@ -62003,7 +62003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="15" customHeight="1">
+    <row r="209" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="199" t="s">
         <v>1678</v>
       </c>
@@ -62064,7 +62064,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="210" spans="1:33" ht="15" customHeight="1">
+    <row r="210" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="199" t="s">
         <v>1679</v>
       </c>
@@ -62173,7 +62173,7 @@
       <c r="W211" s="210"/>
       <c r="X211" s="210"/>
     </row>
-    <row r="212" spans="1:33" ht="15" customHeight="1">
+    <row r="212" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="197" t="s">
         <v>1690</v>
       </c>
@@ -62258,7 +62258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="1:33" ht="15" customHeight="1">
+    <row r="213" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="199" t="s">
         <v>1693</v>
       </c>
@@ -62365,7 +62365,7 @@
       <c r="W214" s="210"/>
       <c r="X214" s="210"/>
     </row>
-    <row r="215" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="215" spans="1:33" ht="15" customHeight="1">
       <c r="A215" s="199" t="s">
         <v>1716</v>
       </c>
@@ -62510,7 +62510,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="217" spans="1:33" ht="15" customHeight="1">
       <c r="A217" s="199" t="s">
         <v>1731</v>
       </c>
@@ -63033,7 +63033,7 @@
       <c r="W225" s="210"/>
       <c r="X225" s="210"/>
     </row>
-    <row r="226" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="226" spans="1:33" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
         <v>1770</v>
       </c>
@@ -63563,7 +63563,7 @@
         <v>97.012365091844799</v>
       </c>
     </row>
-    <row r="235" spans="1:33" ht="15" customHeight="1">
+    <row r="235" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="232" t="s">
         <v>2605</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="237" spans="1:33" ht="15" customHeight="1">
       <c r="A237" s="221" t="s">
         <v>2884</v>
       </c>
@@ -63786,7 +63786,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="15" customHeight="1">
+    <row r="239" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A239" s="221" t="s">
         <v>2880</v>
       </c>
@@ -64017,7 +64017,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="243" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="243" spans="1:33" ht="15" customHeight="1">
       <c r="A243" s="221" t="s">
         <v>2888</v>
       </c>
@@ -64127,7 +64127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:33" ht="15" customHeight="1">
+    <row r="245" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A245" s="221" t="s">
         <v>2889</v>
       </c>
@@ -64190,7 +64190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="246" spans="1:33" ht="15" customHeight="1">
       <c r="A246" s="221" t="s">
         <v>2882</v>
       </c>
@@ -64245,7 +64245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="247" spans="1:33" ht="15" customHeight="1">
       <c r="A247" s="221" t="s">
         <v>2897</v>
       </c>
@@ -64598,7 +64598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="254" spans="1:33" ht="15" customHeight="1">
       <c r="A254" s="221" t="s">
         <v>2903</v>
       </c>
@@ -64653,7 +64653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="255" spans="1:33" ht="15" customHeight="1">
       <c r="A255" s="221" t="s">
         <v>2890</v>
       </c>
@@ -64764,7 +64764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="257" spans="1:33" ht="15" customHeight="1">
       <c r="A257" s="221" t="s">
         <v>2870</v>
       </c>
@@ -64819,7 +64819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="258" spans="1:33" ht="15" customHeight="1">
       <c r="A258" s="221" t="s">
         <v>3172</v>
       </c>
@@ -64922,7 +64922,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="260" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="260" spans="1:33" ht="15" customHeight="1">
       <c r="A260" s="221" t="s">
         <v>2892</v>
       </c>
@@ -64978,7 +64978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="261" spans="1:33" ht="15" customHeight="1">
       <c r="A261" s="221" t="s">
         <v>2893</v>
       </c>
@@ -65029,7 +65029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="262" spans="1:33" ht="15" customHeight="1">
       <c r="A262" s="221" t="s">
         <v>2894</v>
       </c>
@@ -65237,7 +65237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="266" spans="1:33" ht="15" customHeight="1">
       <c r="A266" s="221" t="s">
         <v>2905</v>
       </c>
@@ -65402,7 +65402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="269" spans="1:33" ht="15" customHeight="1">
       <c r="A269" s="221" t="s">
         <v>2876</v>
       </c>
@@ -65516,7 +65516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:33" ht="15" customHeight="1">
+    <row r="271" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A271" s="221" t="s">
         <v>2984</v>
       </c>
@@ -66309,7 +66309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="290" spans="1:33" ht="15" customHeight="1">
       <c r="A290" s="221" t="s">
         <v>3164</v>
       </c>
@@ -66349,7 +66349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:33" ht="15" customHeight="1">
+    <row r="291" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A291" t="s">
         <v>3187</v>
       </c>
@@ -66366,7 +66366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="15" customHeight="1">
+    <row r="292" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A292" t="s">
         <v>3190</v>
       </c>
@@ -66383,7 +66383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="15" customHeight="1">
+    <row r="293" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A293" t="s">
         <v>3188</v>
       </c>
@@ -66402,10 +66402,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AF293" xr:uid="{B522DC56-3FF5-3344-845C-95A0430599ED}">
-    <filterColumn colId="30">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="yes"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA273">

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
     <sheet name="237 key" sheetId="7" r:id="rId3"/>
     <sheet name="StudyID" sheetId="12" r:id="rId4"/>
     <sheet name="Missings" sheetId="8" r:id="rId5"/>
-    <sheet name="Outflux" sheetId="13" r:id="rId6"/>
+    <sheet name="Outflux" r:id="rId11" sheetId="13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AF$293</definedName>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13801" uniqueCount="3191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14183" uniqueCount="3191">
   <si>
     <t>Tab</t>
   </si>
@@ -13943,18 +13943,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="24.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="39.1640625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="34.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="39.1640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="34.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="82.5" customHeight="1">
@@ -15753,6 +15753,2679 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9398063528269864</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9170693835042978</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.911376287213609</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8817050070804011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.853350200127165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8402861821226373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8301163022985434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8241758484998901</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8229462548025815</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8173677066196079</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8100294338833303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.805792260642875</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7992486308180893</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7945128689541979</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7686836540957036</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7249318106735595</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7115905530460113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7101053012532227</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6999365281741309</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>725</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6984130936787706</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6905231085589572</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>755</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6799758286891546</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6777927741725559</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6556650679735112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.628318505717168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>562</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6184828628837016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6061692179905827</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5989366394020036</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5972117773162651</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>811</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5970579397609763</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>537</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.594895913399417</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5878000178185945</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>864</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5865350082812195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.575931284416311</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5758504920311593</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5729408594206965</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>835</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5705884729187799</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5671033329072365</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>860</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5652661362037872</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5643752064771145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5576998739970815</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>846</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5453297851088567</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5373999571689684</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.515220233954826</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5029735471343328</v>
+      </c>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.48884594718280827</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D49" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>493</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4879815793361854</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D50" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4760663626438146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.46601213767243777</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D52" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>854</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4614473679113674</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D53" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>850</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4606715396649108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D54" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.45479417033137604</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D55" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4547891899788667</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D56" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.44980551723450984</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D57" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>921</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.44255910433340473</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D58" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>565</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4407833319775707</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D59" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>759</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4383971897530907</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D60" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4379124354421806</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D61" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4037732257355842</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D62" t="n">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.398755797268664</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D63" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3957780998405734</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D64" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>548</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3903578161928968</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D65" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3686230044695897</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D66" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3669191705388907</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D67" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>856</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.35858704079074716</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D68" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>495</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.35809785949982875</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D69" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>983</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.35497296498646175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D70" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>751</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.35456457608069497</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D71" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.35413903262739604</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D72" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3529144192825968</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D73" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>947</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3528208993299212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D74" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>829</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3404419564816798</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D75" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>712</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.33444284519791645</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D76" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3266369726982609</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D77" t="n">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>960</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.319833811170488</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D78" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>832</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.319763532862856</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D79" t="n">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.31234170087892155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D80" t="n">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.30840832914153665</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D81" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.30434436149390653</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D82" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.2991786291967079</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D83" t="n">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>924</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.2989943561538619</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D84" t="n">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.2843410523263503</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D85" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.28160130507370645</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D86" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>558</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.2625365156679123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D87" t="n">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>556</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.26211650593962377</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D88" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>780</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.258000521276896</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D89" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.25330128199807317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D90" t="n">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>791</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.24966949827375448</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D91" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>332</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.24963629592369216</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D92" t="n">
+        <v>91.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>934</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.23843714324766574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D93" t="n">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>770</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.23789317807914445</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D94" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>717</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.23685117765968808</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D95" t="n">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>472</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.23233344456120605</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D96" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.23103689279127176</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D97" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>526</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.22401016877307908</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D98" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>715</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.22251329615776871</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D99" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>530</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.22149675087336015</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D100" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>465</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.21705316969001734</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D101" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.21694028169980537</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D102" t="n">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.21683790778711318</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D103" t="n">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.21665861509677656</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D104" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>757</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.21584073054024097</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D105" t="n">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.21056321699783245</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D106" t="n">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.20250500663770316</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D107" t="n">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>533</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.20170040302119252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D108" t="n">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.19397089592668035</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D109" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.19339262166309465</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D110" t="n">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.19314471078262918</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D111" t="n">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1888450064495565</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D112" t="n">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>913</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.17737304113051788</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D113" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.17660717358907996</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D114" t="n">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>497</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.17471353289052466</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D115" t="n">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>916</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.17342638845310804</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D116" t="n">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>550</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.16734427129418886</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D117" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>805</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.16371636117737748</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D118" t="n">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.15907411926616166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D119" t="n">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>744</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.15805038013923958</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D120" t="n">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>728</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.15529126484905936</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D121" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>802</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.14637975409232798</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D122" t="n">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>552</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.14271974837045634</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D123" t="n">
+        <v>122.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>374</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.13658893443144574</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D124" t="n">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>761</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1318979957401385</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D125" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>378</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1260770704017097</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D126" t="n">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>768</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.11954450802694482</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D127" t="n">
+        <v>126.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>969</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.10473349303663713</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D128" t="n">
+        <v>127.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>798</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.10308720984604623</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D129" t="n">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.10135736740779845</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D130" t="n">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>778</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0980653543991177</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D131" t="n">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>484</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.09784621888870627</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D132" t="n">
+        <v>131.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.09147413453924269</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D133" t="n">
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0896391513257975</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D134" t="n">
+        <v>133.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.08865525501895025</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D135" t="n">
+        <v>134.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>441</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.08694920759824713</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D136" t="n">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>414</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.08210885833165939</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D137" t="n">
+        <v>136.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0781588854192433</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D138" t="n">
+        <v>137.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>890</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.07337110654025425</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D139" t="n">
+        <v>138.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>879</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.059271175213781634</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D140" t="n">
+        <v>139.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>885</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.058414554582173324</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D141" t="n">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.05679040629162399</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D142" t="n">
+        <v>141.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.05597141499008633</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D143" t="n">
+        <v>142.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.05566872023201802</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D144" t="n">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.05551432930422815</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D145" t="n">
+        <v>144.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>739</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.05523487619120348</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D146" t="n">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.055088785850929196</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D147" t="n">
+        <v>146.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>941</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.053339575375145054</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D148" t="n">
+        <v>147.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>478</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.05279505683412272</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D149" t="n">
+        <v>148.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.05060038149500222</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D150" t="n">
+        <v>149.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>574</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.046289056339407705</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D151" t="n">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>546</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.04450609014106018</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D152" t="n">
+        <v>151.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.044328457568226676</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D153" t="n">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>380</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.04299538321322383</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D154" t="n">
+        <v>153.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>247</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.03923023671615477</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D155" t="n">
+        <v>154.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>746</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.03785676616857608</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D156" t="n">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>437</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.03518176349855376</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D157" t="n">
+        <v>156.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>539</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.034845866390423114</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D158" t="n">
+        <v>157.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>905</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.03072545474768704</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D159" t="n">
+        <v>158.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>704</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.02953238363544705</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D160" t="n">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>544</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.029418388900233024</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D161" t="n">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>874</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.025018524144472278</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D162" t="n">
+        <v>161.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>721</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.02047588928344348</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D163" t="n">
+        <v>162.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.020452094265898807</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D164" t="n">
+        <v>163.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>976</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.017036125816985326</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D165" t="n">
+        <v>164.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>909</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.016643231341247667</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D166" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>376</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.015366047608849754</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D167" t="n">
+        <v>166.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>454</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.015366047608849754</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D168" t="n">
+        <v>167.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>901</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.015366047608849754</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D169" t="n">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>469</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.013444184912741457</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D170" t="n">
+        <v>169.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>894</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.008176078702850588</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D171" t="n">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.006565764724827223</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D172" t="n">
+        <v>171.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>535</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.0048193211115482755</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D173" t="n">
+        <v>172.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>753</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.0047379753538955485</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D174" t="n">
+        <v>173.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>748</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0036422978018384143</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D175" t="n">
+        <v>174.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>949</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.0032012599185103656</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D176" t="n">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.001438768502701288</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D177" t="n">
+        <v>176.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>416</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.001359636235052717</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D178" t="n">
+        <v>177.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>542</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0010065845793898625</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D179" t="n">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>554</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9.944103843670055E-4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D180" t="n">
+        <v>179.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.926619486127228E-4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D181" t="n">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>839</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.504452158457109E-4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D182" t="n">
+        <v>181.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>439</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.585132762363587E-5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D183" t="n">
+        <v>182.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>382</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D184" t="n">
+        <v>183.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>457</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D185" t="n">
+        <v>184.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>490</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D186" t="n">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>560</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D187" t="n">
+        <v>186.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D188" t="n">
+        <v>187.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>881</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D189" t="n">
+        <v>188.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>898</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D190" t="n">
+        <v>189.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
@@ -15768,18 +18441,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.1640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.1640625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="10.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.1640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="38.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" width="10.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
@@ -48985,18 +51658,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="10.83203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="35" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.1640625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.83203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="37.1640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.83203125" style="208" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="22" max="27" width="10.83203125" customWidth="1" collapsed="1"/>
-    <col min="28" max="30" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.1640625" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="37.1640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="208" width="10.83203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="22" max="27" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="28" max="30" customWidth="true" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
@@ -66576,13 +69249,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="245" collapsed="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="245" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -67678,7 +70351,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="54.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -71137,2677 +73810,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D190"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>702</v>
-      </c>
-      <c r="B4">
-        <v>0.93980635282698644</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B5">
-        <v>0.91706938350429779</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B6">
-        <v>0.91137628721360897</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B7">
-        <v>0.88170500708040112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>918</v>
-      </c>
-      <c r="B8">
-        <v>0.853350200127165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B9">
-        <v>0.84028618212263728</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10">
-        <v>0.83011630229854338</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B11">
-        <v>0.82417584849989012</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B12">
-        <v>0.82294625480258154</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13">
-        <v>0.81736770661960789</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B14">
-        <v>0.81002943388333026</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B15">
-        <v>0.80579226064287501</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16">
-        <v>0.79924863081808928</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B17">
-        <v>0.79451286895419793</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B18">
-        <v>0.76868365409570361</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B19">
-        <v>0.7249318106735595</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>3148</v>
-      </c>
-      <c r="B20">
-        <v>0.71159055304601126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>742</v>
-      </c>
-      <c r="B21">
-        <v>0.71010530125322269</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B22">
-        <v>0.69993652817413088</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>725</v>
-      </c>
-      <c r="B23">
-        <v>0.69841309367877058</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24">
-        <v>0.69052310855895715</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>755</v>
-      </c>
-      <c r="B25">
-        <v>0.67997582868915463</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>3154</v>
-      </c>
-      <c r="B26">
-        <v>0.6777927741725559</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B27">
-        <v>0.65566506797351121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B28">
-        <v>0.62831850571716796</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>562</v>
-      </c>
-      <c r="B29">
-        <v>0.61848286288370158</v>
-      </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30">
-        <v>0.60616921799058265</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>870</v>
-      </c>
-      <c r="B31">
-        <v>0.59893663940200359</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B32">
-        <v>0.59721177731626507</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>811</v>
-      </c>
-      <c r="B33">
-        <v>0.59705793976097632</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34">
-        <v>0.59489591339941705</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B35">
-        <v>0.58780001781859448</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>864</v>
-      </c>
-      <c r="B36">
-        <v>0.58653500828121952</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>813</v>
-      </c>
-      <c r="B37">
-        <v>0.57593128441631103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B38">
-        <v>0.57585049203115934</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B39">
-        <v>0.5729408594206965</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>835</v>
-      </c>
-      <c r="B40">
-        <v>0.5705884729187799</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>763</v>
-      </c>
-      <c r="B41">
-        <v>0.56710333290723647</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>860</v>
-      </c>
-      <c r="B42">
-        <v>0.56526613620378718</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B43">
-        <v>0.56437520647711448</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B44">
-        <v>0.55769987399708154</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>846</v>
-      </c>
-      <c r="B45">
-        <v>0.54532978510885666</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B46">
-        <v>0.53739995716896838</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B47">
-        <v>0.51522023395482597</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>395</v>
-      </c>
-      <c r="B48">
-        <v>0.50297354713433284</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B49">
-        <v>0.48884594718280827</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>493</v>
-      </c>
-      <c r="B50">
-        <v>0.48798157933618541</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51">
-        <v>0.47606636264381458</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B52">
-        <v>0.46601213767243777</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>854</v>
-      </c>
-      <c r="B53">
-        <v>0.46144736791136742</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>850</v>
-      </c>
-      <c r="B54">
-        <v>0.46067153966491081</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>467</v>
-      </c>
-      <c r="B55">
-        <v>0.45479417033137604</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>2895</v>
-      </c>
-      <c r="B56">
-        <v>0.45478918997886669</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>2897</v>
-      </c>
-      <c r="B57">
-        <v>0.44980551723450984</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>921</v>
-      </c>
-      <c r="B58">
-        <v>0.44255910433340473</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>565</v>
-      </c>
-      <c r="B59">
-        <v>0.44078333197757069</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>759</v>
-      </c>
-      <c r="B60">
-        <v>0.43839718975309072</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B61">
-        <v>0.43791243544218061</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>385</v>
-      </c>
-      <c r="B62">
-        <v>0.40377322573558422</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B63">
-        <v>0.398755797268664</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>403</v>
-      </c>
-      <c r="B64">
-        <v>0.39577809984057338</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>548</v>
-      </c>
-      <c r="B65">
-        <v>0.39035781619289678</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B66">
-        <v>0.36862300446958968</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B67">
-        <v>0.36691917053889073</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>856</v>
-      </c>
-      <c r="B68">
-        <v>0.35858704079074716</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>495</v>
-      </c>
-      <c r="B69">
-        <v>0.35809785949982875</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>983</v>
-      </c>
-      <c r="B70">
-        <v>0.35497296498646175</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>751</v>
-      </c>
-      <c r="B71">
-        <v>0.35456457608069497</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B72">
-        <v>0.35413903262739604</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B73">
-        <v>0.35291441928259681</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>947</v>
-      </c>
-      <c r="B74">
-        <v>0.35282089932992122</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>829</v>
-      </c>
-      <c r="B75">
-        <v>0.3404419564816798</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>712</v>
-      </c>
-      <c r="B76">
-        <v>0.33444284519791645</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B77">
-        <v>0.32663697269826092</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>960</v>
-      </c>
-      <c r="B78">
-        <v>0.31983381117048798</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>832</v>
-      </c>
-      <c r="B79">
-        <v>0.31976353286285603</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>372</v>
-      </c>
-      <c r="B80">
-        <v>0.31234170087892155</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B81">
-        <v>0.30840832914153665</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B82">
-        <v>0.30434436149390653</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B83">
-        <v>0.2991786291967079</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>924</v>
-      </c>
-      <c r="B84">
-        <v>0.29899435615386188</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>405</v>
-      </c>
-      <c r="B85">
-        <v>0.28434105232635032</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>267</v>
-      </c>
-      <c r="B86">
-        <v>0.28160130507370645</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>558</v>
-      </c>
-      <c r="B87">
-        <v>0.26253651566791231</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>556</v>
-      </c>
-      <c r="B88">
-        <v>0.26211650593962377</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>780</v>
-      </c>
-      <c r="B89">
-        <v>0.25800052127689599</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>3152</v>
-      </c>
-      <c r="B90">
-        <v>0.25330128199807317</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>791</v>
-      </c>
-      <c r="B91">
-        <v>0.24966949827375448</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>332</v>
-      </c>
-      <c r="B92">
-        <v>0.24963629592369216</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>934</v>
-      </c>
-      <c r="B93">
-        <v>0.23843714324766574</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>770</v>
-      </c>
-      <c r="B94">
-        <v>0.23789317807914445</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>717</v>
-      </c>
-      <c r="B95">
-        <v>0.23685117765968808</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>472</v>
-      </c>
-      <c r="B96">
-        <v>0.23233344456120605</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>180</v>
-      </c>
-      <c r="B97">
-        <v>0.23103689279127176</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>526</v>
-      </c>
-      <c r="B98">
-        <v>0.22401016877307908</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>715</v>
-      </c>
-      <c r="B99">
-        <v>0.22251329615776871</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>530</v>
-      </c>
-      <c r="B100">
-        <v>0.22149675087336015</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>465</v>
-      </c>
-      <c r="B101">
-        <v>0.21705316969001734</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>347</v>
-      </c>
-      <c r="B102">
-        <v>0.21694028169980537</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103">
-        <v>0.21683790778711318</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104">
-        <v>0.21665861509677656</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>757</v>
-      </c>
-      <c r="B105">
-        <v>0.21584073054024097</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>474</v>
-      </c>
-      <c r="B106">
-        <v>0.21056321699783245</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B107">
-        <v>0.20250500663770316</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>533</v>
-      </c>
-      <c r="B108">
-        <v>0.20170040302119252</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B109">
-        <v>0.19397089592668035</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B110">
-        <v>0.19339262166309465</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111">
-        <v>0.19314471078262918</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B112">
-        <v>0.18884500644955651</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>913</v>
-      </c>
-      <c r="B113">
-        <v>0.17737304113051788</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B114">
-        <v>0.17660717358907996</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D114">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>497</v>
-      </c>
-      <c r="B115">
-        <v>0.17471353289052466</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D115">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>916</v>
-      </c>
-      <c r="B116">
-        <v>0.17342638845310804</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D116">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>550</v>
-      </c>
-      <c r="B117">
-        <v>0.16734427129418886</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D117">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>805</v>
-      </c>
-      <c r="B118">
-        <v>0.16371636117737748</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D118">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>488</v>
-      </c>
-      <c r="B119">
-        <v>0.15907411926616166</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>744</v>
-      </c>
-      <c r="B120">
-        <v>0.15805038013923958</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>728</v>
-      </c>
-      <c r="B121">
-        <v>0.15529126484905936</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>802</v>
-      </c>
-      <c r="B122">
-        <v>0.14637975409232798</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>552</v>
-      </c>
-      <c r="B123">
-        <v>0.14271974837045634</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D123">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>374</v>
-      </c>
-      <c r="B124">
-        <v>0.13658893443144574</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D124">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>761</v>
-      </c>
-      <c r="B125">
-        <v>0.1318979957401385</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D125">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>378</v>
-      </c>
-      <c r="B126">
-        <v>0.12607707040170971</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D126">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>768</v>
-      </c>
-      <c r="B127">
-        <v>0.11954450802694482</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D127">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>969</v>
-      </c>
-      <c r="B128">
-        <v>0.10473349303663713</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D128">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>798</v>
-      </c>
-      <c r="B129">
-        <v>0.10308720984604623</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D129">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B130">
-        <v>0.10135736740779845</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D130">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>778</v>
-      </c>
-      <c r="B131">
-        <v>9.8065354399117705E-2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>484</v>
-      </c>
-      <c r="B132">
-        <v>9.7846218888706274E-2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D132">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>183</v>
-      </c>
-      <c r="B133">
-        <v>9.1474134539242691E-2</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D133">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>397</v>
-      </c>
-      <c r="B134">
-        <v>8.96391513257975E-2</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D134">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B135">
-        <v>8.8655255018950246E-2</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D135">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>441</v>
-      </c>
-      <c r="B136">
-        <v>8.6949207598247133E-2</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D136">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>414</v>
-      </c>
-      <c r="B137">
-        <v>8.2108858331659387E-2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D137">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B138">
-        <v>7.8158885419243304E-2</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D138">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>890</v>
-      </c>
-      <c r="B139">
-        <v>7.3371106540254249E-2</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D139">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>879</v>
-      </c>
-      <c r="B140">
-        <v>5.9271175213781634E-2</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D140">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>885</v>
-      </c>
-      <c r="B141">
-        <v>5.8414554582173324E-2</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D141">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B142">
-        <v>5.679040629162399E-2</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D142">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B143">
-        <v>5.5971414990086329E-2</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D143">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B144">
-        <v>5.5668720232018021E-2</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D144">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>2899</v>
-      </c>
-      <c r="B145">
-        <v>5.5514329304228151E-2</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D145">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>739</v>
-      </c>
-      <c r="B146">
-        <v>5.5234876191203479E-2</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D146">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B147">
-        <v>5.5088785850929196E-2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D147">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>941</v>
-      </c>
-      <c r="B148">
-        <v>5.3339575375145054E-2</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D148">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>478</v>
-      </c>
-      <c r="B149">
-        <v>5.2795056834122722E-2</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D149">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B150">
-        <v>5.060038149500222E-2</v>
-      </c>
-      <c r="C150" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D150">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>574</v>
-      </c>
-      <c r="B151">
-        <v>4.6289056339407705E-2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D151">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>546</v>
-      </c>
-      <c r="B152">
-        <v>4.4506090141060183E-2</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D152">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B153">
-        <v>4.4328457568226676E-2</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D153">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>380</v>
-      </c>
-      <c r="B154">
-        <v>4.2995383213223833E-2</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D154">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>247</v>
-      </c>
-      <c r="B155">
-        <v>3.9230236716154769E-2</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D155">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>746</v>
-      </c>
-      <c r="B156">
-        <v>3.7856766168576077E-2</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D156">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>437</v>
-      </c>
-      <c r="B157">
-        <v>3.5181763498553759E-2</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D157">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>539</v>
-      </c>
-      <c r="B158">
-        <v>3.4845866390423114E-2</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D158">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>905</v>
-      </c>
-      <c r="B159">
-        <v>3.072545474768704E-2</v>
-      </c>
-      <c r="C159" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D159">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>704</v>
-      </c>
-      <c r="B160">
-        <v>2.9532383635447051E-2</v>
-      </c>
-      <c r="C160" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D160">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>544</v>
-      </c>
-      <c r="B161">
-        <v>2.9418388900233024E-2</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D161">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>874</v>
-      </c>
-      <c r="B162">
-        <v>2.5018524144472278E-2</v>
-      </c>
-      <c r="C162" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D162">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>721</v>
-      </c>
-      <c r="B163">
-        <v>2.0475889283443481E-2</v>
-      </c>
-      <c r="C163" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D163">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>2889</v>
-      </c>
-      <c r="B164">
-        <v>2.0452094265898807E-2</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D164">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>976</v>
-      </c>
-      <c r="B165">
-        <v>1.7036125816985326E-2</v>
-      </c>
-      <c r="C165" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D165">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>909</v>
-      </c>
-      <c r="B166">
-        <v>1.6643231341247667E-2</v>
-      </c>
-      <c r="C166" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D166">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>376</v>
-      </c>
-      <c r="B167">
-        <v>1.5366047608849754E-2</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D167">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>454</v>
-      </c>
-      <c r="B168">
-        <v>1.5366047608849754E-2</v>
-      </c>
-      <c r="C168" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D168">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>901</v>
-      </c>
-      <c r="B169">
-        <v>1.5366047608849754E-2</v>
-      </c>
-      <c r="C169" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D169">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>469</v>
-      </c>
-      <c r="B170">
-        <v>1.3444184912741457E-2</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D170">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>894</v>
-      </c>
-      <c r="B171">
-        <v>8.1760787028505883E-3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D171">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B172">
-        <v>6.5657647248272234E-3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D172">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>535</v>
-      </c>
-      <c r="B173">
-        <v>4.8193211115482755E-3</v>
-      </c>
-      <c r="C173" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D173">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>753</v>
-      </c>
-      <c r="B174">
-        <v>4.7379753538955485E-3</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D174">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>748</v>
-      </c>
-      <c r="B175">
-        <v>3.6422978018384143E-3</v>
-      </c>
-      <c r="C175" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D175">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>949</v>
-      </c>
-      <c r="B176">
-        <v>3.2012599185103656E-3</v>
-      </c>
-      <c r="C176" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D176">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>250</v>
-      </c>
-      <c r="B177">
-        <v>1.4387685027012879E-3</v>
-      </c>
-      <c r="C177" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D177">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>416</v>
-      </c>
-      <c r="B178">
-        <v>1.3596362350527171E-3</v>
-      </c>
-      <c r="C178" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D178">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>542</v>
-      </c>
-      <c r="B179">
-        <v>1.0065845793898625E-3</v>
-      </c>
-      <c r="C179" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D179">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>554</v>
-      </c>
-      <c r="B180">
-        <v>9.944103843670055E-4</v>
-      </c>
-      <c r="C180" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D180">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>254</v>
-      </c>
-      <c r="B181">
-        <v>5.9266194861272285E-4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D181">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>839</v>
-      </c>
-      <c r="B182">
-        <v>4.5044521584571088E-4</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D182">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>439</v>
-      </c>
-      <c r="B183">
-        <v>6.5851327623635866E-5</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D183">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>382</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D184">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>457</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D185">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>490</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D186">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>560</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D187">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D188">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>881</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D189">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>898</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D190">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A5EC7-EF6A-EE43-A71B-30FF449DCEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E478A63B-8E3E-1843-AA1D-8E796230BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="237 key" sheetId="7" r:id="rId3"/>
     <sheet name="StudyID" sheetId="12" r:id="rId4"/>
     <sheet name="Missings" sheetId="8" r:id="rId5"/>
-    <sheet name="Outflux" r:id="rId11" sheetId="13"/>
+    <sheet name="Outflux" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AF$293</definedName>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14183" uniqueCount="3191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13801" uniqueCount="3191">
   <si>
     <t>Tab</t>
   </si>
@@ -13519,100 +13519,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE599"/>
           <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13943,18 +13855,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.1640625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="39.1640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="34.1640625" collapsed="true"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="24.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="34.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="82.5" customHeight="1">
@@ -15753,2679 +15665,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>702</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9398063528269864</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9170693835042978</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.911376287213609</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8817050070804011</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>918</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.853350200127165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8402861821226373</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8301163022985434</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8241758484998901</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8229462548025815</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8173677066196079</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8100294338833303</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.805792260642875</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7992486308180893</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7945128689541979</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.7686836540957036</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7249318106735595</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>3148</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7115905530460113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>742</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.7101053012532227</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6999365281741309</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>725</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6984130936787706</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.6905231085589572</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>755</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.6799758286891546</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>3154</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.6777927741725559</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.6556650679735112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.628318505717168</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>562</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.6184828628837016</v>
-      </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6061692179905827</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>870</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5989366394020036</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5972117773162651</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>811</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5970579397609763</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.594895913399417</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" t="n">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5878000178185945</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>864</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5865350082812195</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>813</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.575931284416311</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5758504920311593</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" t="n">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5729408594206965</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>835</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5705884729187799</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" t="n">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>763</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5671033329072365</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>860</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5652661362037872</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" t="n">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5643752064771145</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="n">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>3158</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5576998739970815</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="n">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>846</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5453297851088567</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" t="n">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5373999571689684</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.515220233954826</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>395</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5029735471343328</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" t="n">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.48884594718280827</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D49" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>493</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.4879815793361854</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D50" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.4760663626438146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D51" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.46601213767243777</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D52" t="n">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>854</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.4614473679113674</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D53" t="n">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>850</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.4606715396649108</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D54" t="n">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>467</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.45479417033137604</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D55" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>2895</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.4547891899788667</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>2897</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.44980551723450984</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>921</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.44255910433340473</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D58" t="n">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>565</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.4407833319775707</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D59" t="n">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>759</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.4383971897530907</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D60" t="n">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.4379124354421806</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D61" t="n">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>385</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.4037732257355842</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.398755797268664</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D63" t="n">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>403</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.3957780998405734</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D64" t="n">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>548</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.3903578161928968</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D65" t="n">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.3686230044695897</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D66" t="n">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.3669191705388907</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D67" t="n">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>856</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.35858704079074716</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D68" t="n">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>495</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.35809785949982875</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D69" t="n">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>983</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.35497296498646175</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D70" t="n">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>751</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.35456457608069497</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D71" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.35413903262739604</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D72" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.3529144192825968</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D73" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>947</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.3528208993299212</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>829</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.3404419564816798</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D75" t="n">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>712</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.33444284519791645</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D76" t="n">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.3266369726982609</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D77" t="n">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>960</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.319833811170488</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D78" t="n">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>832</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.319763532862856</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D79" t="n">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>372</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.31234170087892155</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D80" t="n">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.30840832914153665</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D81" t="n">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.30434436149390653</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D82" t="n">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.2991786291967079</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D83" t="n">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>924</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.2989943561538619</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D84" t="n">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>405</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.2843410523263503</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D85" t="n">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>267</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.28160130507370645</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D86" t="n">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>558</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.2625365156679123</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D87" t="n">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>556</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.26211650593962377</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>780</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.258000521276896</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>3152</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.25330128199807317</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>791</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.24966949827375448</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>332</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.24963629592369216</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D92" t="n">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>934</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.23843714324766574</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D93" t="n">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>770</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.23789317807914445</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>717</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.23685117765968808</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>472</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.23233344456120605</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>180</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.23103689279127176</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D97" t="n">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>526</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.22401016877307908</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D98" t="n">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>715</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.22251329615776871</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D99" t="n">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>530</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.22149675087336015</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D100" t="n">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>465</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.21705316969001734</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>347</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.21694028169980537</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D102" t="n">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.21683790778711318</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D103" t="n">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.21665861509677656</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D104" t="n">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>757</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.21584073054024097</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D105" t="n">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>474</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.21056321699783245</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D106" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.20250500663770316</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D107" t="n">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>533</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.20170040302119252</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D108" t="n">
-        <v>107.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.19397089592668035</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D109" t="n">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.19339262166309465</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D110" t="n">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.19314471078262918</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D111" t="n">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.1888450064495565</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D112" t="n">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>913</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.17737304113051788</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D113" t="n">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.17660717358907996</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D114" t="n">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>497</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.17471353289052466</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D115" t="n">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>916</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.17342638845310804</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D116" t="n">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>550</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.16734427129418886</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D117" t="n">
-        <v>116.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>805</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.16371636117737748</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D118" t="n">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>488</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.15907411926616166</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D119" t="n">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>744</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.15805038013923958</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D120" t="n">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>728</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.15529126484905936</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D121" t="n">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>802</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.14637975409232798</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D122" t="n">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>552</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.14271974837045634</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D123" t="n">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>374</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.13658893443144574</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D124" t="n">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>761</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.1318979957401385</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D125" t="n">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>378</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.1260770704017097</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D126" t="n">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>768</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.11954450802694482</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>969</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.10473349303663713</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D128" t="n">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>798</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.10308720984604623</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D129" t="n">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.10135736740779845</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D130" t="n">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>778</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0980653543991177</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D131" t="n">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>484</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.09784621888870627</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D132" t="n">
-        <v>131.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>183</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.09147413453924269</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D133" t="n">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>397</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.0896391513257975</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D134" t="n">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.08865525501895025</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D135" t="n">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>441</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.08694920759824713</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D136" t="n">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>414</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.08210885833165939</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.0781588854192433</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>890</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.07337110654025425</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D139" t="n">
-        <v>138.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>879</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.059271175213781634</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D140" t="n">
-        <v>139.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>885</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.058414554582173324</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D141" t="n">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.05679040629162399</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D142" t="n">
-        <v>141.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.05597141499008633</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D143" t="n">
-        <v>142.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.05566872023201802</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D144" t="n">
-        <v>143.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>2899</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.05551432930422815</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D145" t="n">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>739</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.05523487619120348</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D146" t="n">
-        <v>145.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.055088785850929196</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D147" t="n">
-        <v>146.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>941</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.053339575375145054</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D148" t="n">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>478</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.05279505683412272</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D149" t="n">
-        <v>148.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.05060038149500222</v>
-      </c>
-      <c r="C150" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D150" t="n">
-        <v>149.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>574</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.046289056339407705</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D151" t="n">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>546</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.04450609014106018</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D152" t="n">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.044328457568226676</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D153" t="n">
-        <v>152.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>380</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.04299538321322383</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D154" t="n">
-        <v>153.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>247</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.03923023671615477</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D155" t="n">
-        <v>154.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>746</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.03785676616857608</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D156" t="n">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>437</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.03518176349855376</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D157" t="n">
-        <v>156.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>539</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.034845866390423114</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D158" t="n">
-        <v>157.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>905</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.03072545474768704</v>
-      </c>
-      <c r="C159" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D159" t="n">
-        <v>158.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>704</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.02953238363544705</v>
-      </c>
-      <c r="C160" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D160" t="n">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>544</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.029418388900233024</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D161" t="n">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>874</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.025018524144472278</v>
-      </c>
-      <c r="C162" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D162" t="n">
-        <v>161.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>721</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.02047588928344348</v>
-      </c>
-      <c r="C163" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D163" t="n">
-        <v>162.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>2889</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.020452094265898807</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D164" t="n">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>976</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.017036125816985326</v>
-      </c>
-      <c r="C165" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D165" t="n">
-        <v>164.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>909</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.016643231341247667</v>
-      </c>
-      <c r="C166" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D166" t="n">
-        <v>165.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>376</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.015366047608849754</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D167" t="n">
-        <v>166.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>454</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.015366047608849754</v>
-      </c>
-      <c r="C168" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D168" t="n">
-        <v>167.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>901</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.015366047608849754</v>
-      </c>
-      <c r="C169" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D169" t="n">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>469</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.013444184912741457</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D170" t="n">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>894</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.008176078702850588</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D171" t="n">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.006565764724827223</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D172" t="n">
-        <v>171.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>535</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.0048193211115482755</v>
-      </c>
-      <c r="C173" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D173" t="n">
-        <v>172.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>753</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.0047379753538955485</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D174" t="n">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>748</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.0036422978018384143</v>
-      </c>
-      <c r="C175" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D175" t="n">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>949</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.0032012599185103656</v>
-      </c>
-      <c r="C176" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D176" t="n">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>250</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.001438768502701288</v>
-      </c>
-      <c r="C177" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D177" t="n">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>416</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.001359636235052717</v>
-      </c>
-      <c r="C178" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D178" t="n">
-        <v>177.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>542</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.0010065845793898625</v>
-      </c>
-      <c r="C179" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D179" t="n">
-        <v>178.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>554</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9.944103843670055E-4</v>
-      </c>
-      <c r="C180" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D180" t="n">
-        <v>179.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>254</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.926619486127228E-4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D181" t="n">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>839</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.504452158457109E-4</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D182" t="n">
-        <v>181.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>439</v>
-      </c>
-      <c r="B183" t="n">
-        <v>6.585132762363587E-5</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D183" t="n">
-        <v>182.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>382</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D184" t="n">
-        <v>183.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>457</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D185" t="n">
-        <v>184.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>490</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D186" t="n">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>560</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C187" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D187" t="n">
-        <v>186.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D188" t="n">
-        <v>187.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>881</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D189" t="n">
-        <v>188.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>898</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C190" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D190" t="n">
-        <v>189.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
@@ -18441,18 +15680,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="10.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.1640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" width="10.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.1640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.1640625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
@@ -51601,29 +48840,14 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="C2:D218">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(C2))))</formula>
+  <conditionalFormatting sqref="C347:C388">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(C347))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C219:D252">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(C219))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253:D321">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(C253))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C322:D346">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(C322))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C347:C388">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(C347))))</formula>
+  <conditionalFormatting sqref="C2:D346">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -51649,7 +48873,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -51658,18 +48882,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.1640625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.1640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="37.1640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="208" width="10.83203125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="22" max="27" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="28" max="30" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.83203125" style="208" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="30" width="10.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
@@ -69089,64 +66312,49 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA273">
     <sortCondition ref="K2:K273"/>
   </sortState>
-  <conditionalFormatting sqref="E86:E89 E30:E36 E58:E67 E69:E79 E84 E91:E93 E81:E82 F29:H84 E95:E99 E101:E103 F86:H104 E130:E141 F2:F270 L3:M271 M273:M276 E26:H28 E38 E41:E56 E105:H113 E115:E118 E120:E121 E123:E126 E143:E144 E146 E148 E152 E154 E156:E158 D2:D3 D11:D37 D39:E40 D42:D83 D85:D111 D113:D114 D116:D119 D121:D122 D124:D143 D145:E145 D147:E147 D149:E151 D153:E153 D155:E155 D157:D160 K6:K290 F3:H25 J3:K5 J6:J84 I3:I84 F115:J158 I86:J113 G114:J114 G161:J163 G193:J193 G203:J204 G213:J213 G216:J216 G218:J218 G227:J227 G230:J230 G238:J238 G241:J241 G245:J245 G236:J236 G248:J249 G254:J260 G264:J272 G1:J1 G277:J289">
-    <cfRule type="containsText" dxfId="17" priority="66" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(D1))))</formula>
+  <conditionalFormatting sqref="D2:D3 D11:D37 D42:D83 D85:D111 D113:D114 D116:D119 D121:D122 D124:D143 D157:D160 D39:E40 D145:E145 D147:E147 D149:E151 D153:E153 D155:E155 E30:E36 E38 E41:E56 E58:E67 E69:E79 E81:E82 E91:E93 E95:E99 E101:E103 E115:E118 E120:E121 E123:E126 E130:E141 E143:E144 E146 E148 E152 E154 E156:E158 E26:H28 E105:H113 F3:H25 F29:H84 F86:H104 F115:J158 G114:J114 G161:J163 G193:J193 G203:J204 G213:J213 G216:J216 G218:J218 G227:J227 G230:J230 G236:J236 G238:J238 G241:J241 G245:J245 G248:J249 G264:J272 I3:I84 I86:J113 J6:J84 J3:K5 K6:K290 M273:M276">
+    <cfRule type="containsText" dxfId="9" priority="66" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="containsText" dxfId="16" priority="65" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(E85))))</formula>
+  <conditionalFormatting sqref="D202:D203 D226:D228 D235 D237 D239:D240 D242:D272 D277:D290">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(D202))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G261 J261">
-    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(G261))))</formula>
+  <conditionalFormatting sqref="E84:E89">
+    <cfRule type="containsText" dxfId="7" priority="65" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(E84))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L83:M108">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L83))))</formula>
+  <conditionalFormatting sqref="F2:F270">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L109:M158">
-    <cfRule type="containsText" dxfId="13" priority="26" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(L109))))</formula>
+  <conditionalFormatting sqref="F277:J289">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(F277))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N82">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N3))))</formula>
+  <conditionalFormatting sqref="G254:J261">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G254))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N83:N108">
-    <cfRule type="containsText" dxfId="11" priority="24" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N83))))</formula>
+  <conditionalFormatting sqref="G1:K1">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N109:N158">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(N109))))</formula>
+  <conditionalFormatting sqref="L3:M271">
+    <cfRule type="containsText" dxfId="2" priority="26" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O82">
-    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(O3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O83:O108">
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(O83))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O109:O158">
-    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(O109))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(K1))))</formula>
+  <conditionalFormatting sqref="N3:O158">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(N3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
@@ -69161,14 +66369,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82:F107">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(F82))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108:F157">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(F108))))</formula>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T271">
@@ -69195,33 +66405,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F277:F289">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(F277))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D242:D272 D239:D240 D237 D235 D226:D228 D202:D203 D277:D290">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(D202))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H261:I261">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(H261))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="K3:K290 G193:I193 D85:D111 G203:I204 D113:D114 D116:D119 D121:D122 D124:D143 D145 D147 D149:D151 D153 D157:D160 D202:D203 D226:D228 D235 D237 D239:D240 G213:I213 G216:I216 G218:I218 G227:I227 G230:I230 G238:I238 G241:I241 G245:I245 G248:I249 F86:I113 F3:I84 F115:I158 G254:I261 D242:D272 F2:F157 G264:I272 G236:I236 G114:I114 L3:O158 M192 M203 M215 M235 M237 M240 M243:M244 M246:M247 M254:M255 M257:M258 M260 M264:M265 M269:M270 D277:D289 D155 D2:D3 D11:D37 D39:D40 D42:D83 F277:I289 G161:I163 G1:K1" xr:uid="{C25E2909-9A0E-B247-AB1D-C899C2A71044}">
       <formula1>"Yes,No"</formula1>
@@ -69243,19 +66426,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" style="245" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="245" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -69316,7 +66499,9 @@
         <v>1</v>
       </c>
       <c r="I2" s="252"/>
-      <c r="J2" s="244"/>
+      <c r="J2" s="244">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="14">
       <c r="A3" s="250" t="s">
@@ -69856,7 +67041,9 @@
       <c r="I20" s="256" t="s">
         <v>3129</v>
       </c>
-      <c r="J20" s="244"/>
+      <c r="J20" s="244">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="98">
       <c r="A21" s="250" t="s">
@@ -69946,7 +67133,9 @@
         <v>22</v>
       </c>
       <c r="I23" s="252"/>
-      <c r="J23" s="244"/>
+      <c r="J23" s="244">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="126">
       <c r="A24" s="250" t="s">
@@ -69976,7 +67165,9 @@
       <c r="I24" s="256" t="s">
         <v>3131</v>
       </c>
-      <c r="J24" s="244"/>
+      <c r="J24" s="244">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="14">
       <c r="A25" s="261" t="s">
@@ -70351,7 +67542,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.1640625" collapsed="true"/>
+    <col min="1" max="1" width="54.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -73810,4 +71001,2677 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D190"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4">
+        <v>0.93980635282698644</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B5">
+        <v>0.91706938350429779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B6">
+        <v>0.91137628721360897</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B7">
+        <v>0.88170500708040112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B8">
+        <v>0.853350200127165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B9">
+        <v>0.84028618212263728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10">
+        <v>0.83011630229854338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B11">
+        <v>0.82417584849989012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B12">
+        <v>0.82294625480258154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13">
+        <v>0.81736770661960789</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B14">
+        <v>0.81002943388333026</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B15">
+        <v>0.80579226064287501</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16">
+        <v>0.79924863081808928</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B17">
+        <v>0.79451286895419793</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B18">
+        <v>0.76868365409570361</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B19">
+        <v>0.7249318106735595</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B20">
+        <v>0.71159055304601126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21">
+        <v>0.71010530125322269</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B22">
+        <v>0.69993652817413088</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>725</v>
+      </c>
+      <c r="B23">
+        <v>0.69841309367877058</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24">
+        <v>0.69052310855895715</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>755</v>
+      </c>
+      <c r="B25">
+        <v>0.67997582868915463</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B26">
+        <v>0.6777927741725559</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27">
+        <v>0.65566506797351121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B28">
+        <v>0.62831850571716796</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>562</v>
+      </c>
+      <c r="B29">
+        <v>0.61848286288370158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>0.60616921799058265</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B31">
+        <v>0.59893663940200359</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B32">
+        <v>0.59721177731626507</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>811</v>
+      </c>
+      <c r="B33">
+        <v>0.59705793976097632</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>537</v>
+      </c>
+      <c r="B34">
+        <v>0.59489591339941705</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B35">
+        <v>0.58780001781859448</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>864</v>
+      </c>
+      <c r="B36">
+        <v>0.58653500828121952</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B37">
+        <v>0.57593128441631103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B38">
+        <v>0.57585049203115934</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B39">
+        <v>0.5729408594206965</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>835</v>
+      </c>
+      <c r="B40">
+        <v>0.5705884729187799</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41">
+        <v>0.56710333290723647</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>860</v>
+      </c>
+      <c r="B42">
+        <v>0.56526613620378718</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B43">
+        <v>0.56437520647711448</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B44">
+        <v>0.55769987399708154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>846</v>
+      </c>
+      <c r="B45">
+        <v>0.54532978510885666</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B46">
+        <v>0.53739995716896838</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B47">
+        <v>0.51522023395482597</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48">
+        <v>0.50297354713433284</v>
+      </c>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B49">
+        <v>0.48884594718280827</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>493</v>
+      </c>
+      <c r="B50">
+        <v>0.48798157933618541</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51">
+        <v>0.47606636264381458</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B52">
+        <v>0.46601213767243777</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>854</v>
+      </c>
+      <c r="B53">
+        <v>0.46144736791136742</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>850</v>
+      </c>
+      <c r="B54">
+        <v>0.46067153966491081</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55">
+        <v>0.45479417033137604</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B56">
+        <v>0.45478918997886669</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B57">
+        <v>0.44980551723450984</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>921</v>
+      </c>
+      <c r="B58">
+        <v>0.44255910433340473</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>565</v>
+      </c>
+      <c r="B59">
+        <v>0.44078333197757069</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>759</v>
+      </c>
+      <c r="B60">
+        <v>0.43839718975309072</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B61">
+        <v>0.43791243544218061</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62">
+        <v>0.40377322573558422</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B63">
+        <v>0.398755797268664</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64">
+        <v>0.39577809984057338</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>548</v>
+      </c>
+      <c r="B65">
+        <v>0.39035781619289678</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B66">
+        <v>0.36862300446958968</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B67">
+        <v>0.36691917053889073</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>856</v>
+      </c>
+      <c r="B68">
+        <v>0.35858704079074716</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>495</v>
+      </c>
+      <c r="B69">
+        <v>0.35809785949982875</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>983</v>
+      </c>
+      <c r="B70">
+        <v>0.35497296498646175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>751</v>
+      </c>
+      <c r="B71">
+        <v>0.35456457608069497</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B72">
+        <v>0.35413903262739604</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B73">
+        <v>0.35291441928259681</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>947</v>
+      </c>
+      <c r="B74">
+        <v>0.35282089932992122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>829</v>
+      </c>
+      <c r="B75">
+        <v>0.3404419564816798</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>712</v>
+      </c>
+      <c r="B76">
+        <v>0.33444284519791645</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B77">
+        <v>0.32663697269826092</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>960</v>
+      </c>
+      <c r="B78">
+        <v>0.31983381117048798</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>832</v>
+      </c>
+      <c r="B79">
+        <v>0.31976353286285603</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80">
+        <v>0.31234170087892155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B81">
+        <v>0.30840832914153665</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82">
+        <v>0.30434436149390653</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B83">
+        <v>0.2991786291967079</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>924</v>
+      </c>
+      <c r="B84">
+        <v>0.29899435615386188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85">
+        <v>0.28434105232635032</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86">
+        <v>0.28160130507370645</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>558</v>
+      </c>
+      <c r="B87">
+        <v>0.26253651566791231</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>556</v>
+      </c>
+      <c r="B88">
+        <v>0.26211650593962377</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>780</v>
+      </c>
+      <c r="B89">
+        <v>0.25800052127689599</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B90">
+        <v>0.25330128199807317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>791</v>
+      </c>
+      <c r="B91">
+        <v>0.24966949827375448</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>332</v>
+      </c>
+      <c r="B92">
+        <v>0.24963629592369216</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>934</v>
+      </c>
+      <c r="B93">
+        <v>0.23843714324766574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>770</v>
+      </c>
+      <c r="B94">
+        <v>0.23789317807914445</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>717</v>
+      </c>
+      <c r="B95">
+        <v>0.23685117765968808</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>472</v>
+      </c>
+      <c r="B96">
+        <v>0.23233344456120605</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97">
+        <v>0.23103689279127176</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>526</v>
+      </c>
+      <c r="B98">
+        <v>0.22401016877307908</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>715</v>
+      </c>
+      <c r="B99">
+        <v>0.22251329615776871</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>530</v>
+      </c>
+      <c r="B100">
+        <v>0.22149675087336015</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>465</v>
+      </c>
+      <c r="B101">
+        <v>0.21705316969001734</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102">
+        <v>0.21694028169980537</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103">
+        <v>0.21683790778711318</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104">
+        <v>0.21665861509677656</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>757</v>
+      </c>
+      <c r="B105">
+        <v>0.21584073054024097</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106">
+        <v>0.21056321699783245</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B107">
+        <v>0.20250500663770316</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>533</v>
+      </c>
+      <c r="B108">
+        <v>0.20170040302119252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B109">
+        <v>0.19397089592668035</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B110">
+        <v>0.19339262166309465</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111">
+        <v>0.19314471078262918</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B112">
+        <v>0.18884500644955651</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>913</v>
+      </c>
+      <c r="B113">
+        <v>0.17737304113051788</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B114">
+        <v>0.17660717358907996</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>497</v>
+      </c>
+      <c r="B115">
+        <v>0.17471353289052466</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>916</v>
+      </c>
+      <c r="B116">
+        <v>0.17342638845310804</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>550</v>
+      </c>
+      <c r="B117">
+        <v>0.16734427129418886</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>805</v>
+      </c>
+      <c r="B118">
+        <v>0.16371636117737748</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119">
+        <v>0.15907411926616166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>744</v>
+      </c>
+      <c r="B120">
+        <v>0.15805038013923958</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>728</v>
+      </c>
+      <c r="B121">
+        <v>0.15529126484905936</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>802</v>
+      </c>
+      <c r="B122">
+        <v>0.14637975409232798</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>552</v>
+      </c>
+      <c r="B123">
+        <v>0.14271974837045634</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>374</v>
+      </c>
+      <c r="B124">
+        <v>0.13658893443144574</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>761</v>
+      </c>
+      <c r="B125">
+        <v>0.1318979957401385</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>378</v>
+      </c>
+      <c r="B126">
+        <v>0.12607707040170971</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>768</v>
+      </c>
+      <c r="B127">
+        <v>0.11954450802694482</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>969</v>
+      </c>
+      <c r="B128">
+        <v>0.10473349303663713</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>798</v>
+      </c>
+      <c r="B129">
+        <v>0.10308720984604623</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B130">
+        <v>0.10135736740779845</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>778</v>
+      </c>
+      <c r="B131">
+        <v>9.8065354399117705E-2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>484</v>
+      </c>
+      <c r="B132">
+        <v>9.7846218888706274E-2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133">
+        <v>9.1474134539242691E-2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134">
+        <v>8.96391513257975E-2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B135">
+        <v>8.8655255018950246E-2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>441</v>
+      </c>
+      <c r="B136">
+        <v>8.6949207598247133E-2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>414</v>
+      </c>
+      <c r="B137">
+        <v>8.2108858331659387E-2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B138">
+        <v>7.8158885419243304E-2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>890</v>
+      </c>
+      <c r="B139">
+        <v>7.3371106540254249E-2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>879</v>
+      </c>
+      <c r="B140">
+        <v>5.9271175213781634E-2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>885</v>
+      </c>
+      <c r="B141">
+        <v>5.8414554582173324E-2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B142">
+        <v>5.679040629162399E-2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B143">
+        <v>5.5971414990086329E-2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B144">
+        <v>5.5668720232018021E-2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B145">
+        <v>5.5514329304228151E-2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>739</v>
+      </c>
+      <c r="B146">
+        <v>5.5234876191203479E-2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B147">
+        <v>5.5088785850929196E-2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>941</v>
+      </c>
+      <c r="B148">
+        <v>5.3339575375145054E-2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>478</v>
+      </c>
+      <c r="B149">
+        <v>5.2795056834122722E-2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B150">
+        <v>5.060038149500222E-2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>574</v>
+      </c>
+      <c r="B151">
+        <v>4.6289056339407705E-2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>546</v>
+      </c>
+      <c r="B152">
+        <v>4.4506090141060183E-2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B153">
+        <v>4.4328457568226676E-2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>380</v>
+      </c>
+      <c r="B154">
+        <v>4.2995383213223833E-2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>247</v>
+      </c>
+      <c r="B155">
+        <v>3.9230236716154769E-2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>746</v>
+      </c>
+      <c r="B156">
+        <v>3.7856766168576077E-2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>437</v>
+      </c>
+      <c r="B157">
+        <v>3.5181763498553759E-2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>539</v>
+      </c>
+      <c r="B158">
+        <v>3.4845866390423114E-2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>905</v>
+      </c>
+      <c r="B159">
+        <v>3.072545474768704E-2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>704</v>
+      </c>
+      <c r="B160">
+        <v>2.9532383635447051E-2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>544</v>
+      </c>
+      <c r="B161">
+        <v>2.9418388900233024E-2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>874</v>
+      </c>
+      <c r="B162">
+        <v>2.5018524144472278E-2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>721</v>
+      </c>
+      <c r="B163">
+        <v>2.0475889283443481E-2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B164">
+        <v>2.0452094265898807E-2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>976</v>
+      </c>
+      <c r="B165">
+        <v>1.7036125816985326E-2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>909</v>
+      </c>
+      <c r="B166">
+        <v>1.6643231341247667E-2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>376</v>
+      </c>
+      <c r="B167">
+        <v>1.5366047608849754E-2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>454</v>
+      </c>
+      <c r="B168">
+        <v>1.5366047608849754E-2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>901</v>
+      </c>
+      <c r="B169">
+        <v>1.5366047608849754E-2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>469</v>
+      </c>
+      <c r="B170">
+        <v>1.3444184912741457E-2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>894</v>
+      </c>
+      <c r="B171">
+        <v>8.1760787028505883E-3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B172">
+        <v>6.5657647248272234E-3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>535</v>
+      </c>
+      <c r="B173">
+        <v>4.8193211115482755E-3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>753</v>
+      </c>
+      <c r="B174">
+        <v>4.7379753538955485E-3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>748</v>
+      </c>
+      <c r="B175">
+        <v>3.6422978018384143E-3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>949</v>
+      </c>
+      <c r="B176">
+        <v>3.2012599185103656E-3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177">
+        <v>1.4387685027012879E-3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>416</v>
+      </c>
+      <c r="B178">
+        <v>1.3596362350527171E-3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>542</v>
+      </c>
+      <c r="B179">
+        <v>1.0065845793898625E-3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>554</v>
+      </c>
+      <c r="B180">
+        <v>9.944103843670055E-4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181">
+        <v>5.9266194861272285E-4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>839</v>
+      </c>
+      <c r="B182">
+        <v>4.5044521584571088E-4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>439</v>
+      </c>
+      <c r="B183">
+        <v>6.5851327623635866E-5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>382</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>457</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>490</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>560</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>881</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>898</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D190">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1468D7-802A-D345-B47F-CEFA77F603D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49531982-825D-8347-B4AD-01BA1A657B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="1320" windowWidth="25400" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -461,6 +461,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="A89" authorId="0" shapeId="0" xr:uid="{913F9291-72DD-7E48-891C-27537B96FBA6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Variables in this 'light red" are not included in the metadata.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Mabel Carabali
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">----
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">These variables in blue/green, need to be paired to the ones in the metadata.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Mabel Carabali</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P172" authorId="0" shapeId="0" xr:uid="{D0D0BE47-6882-044E-9A52-7AE9944FD7DA}">
       <text>
         <r>
@@ -532,59 +585,6 @@
     Can be used to impute missing. If this is 0, all other abnormalities are also 0.</t>
       </text>
     </comment>
-    <comment ref="A211" authorId="0" shapeId="0" xr:uid="{913F9291-72DD-7E48-891C-27537B96FBA6}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Variables in this 'light red" are not included in the metadata.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Mabel Carabali
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">----
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">These variables in blue/green, need to be paired to the ones in the metadata.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Mabel Carabali</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A213" authorId="0" shapeId="0" xr:uid="{0FA0E1EC-2A8E-1C41-ABA8-6406650DCC15}">
       <text>
         <r>
@@ -646,14 +646,6 @@
           </rPr>
           <t xml:space="preserve">	-Mabel Carabali</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="N217" authorId="2" shapeId="0" xr:uid="{C6E2C962-11A1-704C-A708-6E4947D2341A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Johanna, we need both ch_czs as czs as we are doing a sensitivity analyses for the two different definitions.</t>
       </text>
     </comment>
     <comment ref="A218" authorId="0" shapeId="0" xr:uid="{717EA8D1-D7EB-1845-B93A-A44E4D1FA3C5}">
@@ -719,12 +711,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="N256" authorId="2" shapeId="0" xr:uid="{C6E2C962-11A1-704C-A708-6E4947D2341A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Johanna, we need both ch_czs as czs as we are doing a sensitivity analyses for the two different definitions.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14896" uniqueCount="3194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15581" uniqueCount="3193">
   <si>
     <t>Tab</t>
   </si>
@@ -12094,9 +12094,6 @@
   </si>
   <si>
     <t>0,1, 2= no applicable..</t>
-  </si>
-  <si>
-    <t>45.5</t>
   </si>
   <si>
     <t>11.5</t>
@@ -12805,7 +12802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13518,19 +13515,53 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13838,7 +13869,7 @@
   <threadedComment ref="U172" dT="2022-07-15T09:29:37.57" personId="{180709C5-47DB-034C-BE70-810A4CB1B15D}" id="{3C191CB6-7D0E-2E4F-AF3E-FF84F11654AB}">
     <text>Can be used to impute missing. If this is 0, all other abnormalities are also 0.</text>
   </threadedComment>
-  <threadedComment ref="N217" dT="2023-02-15T07:57:33.49" personId="{180709C5-47DB-034C-BE70-810A4CB1B15D}" id="{C6E2C962-11A1-704C-A708-6E4947D2341A}">
+  <threadedComment ref="N256" dT="2023-02-15T07:57:33.49" personId="{180709C5-47DB-034C-BE70-810A4CB1B15D}" id="{C6E2C962-11A1-704C-A708-6E4947D2341A}">
     <text>@Johanna, we need both ch_czs as czs as we are doing a sensitivity analyses for the two different definitions.</text>
   </threadedComment>
 </ThreadedComments>
@@ -15691,7 +15722,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2605</v>
+        <v>3101</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -15705,7 +15736,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3101</v>
+        <v>2605</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -15736,7 +15767,7 @@
         <v>702</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9402954859217838</v>
+        <v>0.9405694302627761</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
@@ -15750,7 +15781,7 @@
         <v>1658</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9177593187697948</v>
+        <v>0.918156055561122</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -15764,7 +15795,7 @@
         <v>2893</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9146049166444308</v>
+        <v>0.9147650038833478</v>
       </c>
       <c r="C7" t="s">
         <v>120</v>
@@ -15778,7 +15809,7 @@
         <v>1183</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8843608246226666</v>
+        <v>0.8851183508889999</v>
       </c>
       <c r="C8" t="s">
         <v>120</v>
@@ -15792,7 +15823,7 @@
         <v>2884</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8816298711092033</v>
+        <v>0.8824002969993682</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
@@ -15806,7 +15837,7 @@
         <v>918</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8589196839797208</v>
+        <v>0.8593724208749782</v>
       </c>
       <c r="C10" t="s">
         <v>120</v>
@@ -15817,10 +15848,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2885</v>
+        <v>1683</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8379781198881632</v>
+        <v>0.8516926010206168</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
@@ -15831,10 +15862,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>2885</v>
       </c>
       <c r="B12" t="n">
-        <v>0.831682657169043</v>
+        <v>0.8392954257579768</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
@@ -15845,10 +15876,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>1716</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8188898685569104</v>
+        <v>0.8092531983322165</v>
       </c>
       <c r="C13" t="s">
         <v>120</v>
@@ -15859,10 +15890,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1716</v>
+        <v>369</v>
       </c>
       <c r="B14" t="n">
-        <v>0.807918489042542</v>
+        <v>0.8025104786682289</v>
       </c>
       <c r="C14" t="s">
         <v>120</v>
@@ -15873,10 +15904,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>2892</v>
       </c>
       <c r="B15" t="n">
-        <v>0.801346914625799</v>
+        <v>0.7972689726590305</v>
       </c>
       <c r="C15" t="s">
         <v>120</v>
@@ -15887,10 +15918,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2892</v>
+        <v>1770</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7972104597607805</v>
+        <v>0.7688322098363086</v>
       </c>
       <c r="C16" t="s">
         <v>120</v>
@@ -15901,10 +15932,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1770</v>
+        <v>742</v>
       </c>
       <c r="B17" t="n">
-        <v>0.766820190957922</v>
+        <v>0.7159914583723068</v>
       </c>
       <c r="C17" t="s">
         <v>120</v>
@@ -15915,10 +15946,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2887</v>
+        <v>725</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7221597039340116</v>
+        <v>0.704134071352824</v>
       </c>
       <c r="C18" t="s">
         <v>120</v>
@@ -15929,10 +15960,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2881</v>
+        <v>2891</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7221597039340116</v>
+        <v>0.7034164773257083</v>
       </c>
       <c r="C19" t="s">
         <v>120</v>
@@ -15943,10 +15974,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>742</v>
+        <v>1734</v>
       </c>
       <c r="B20" t="n">
-        <v>0.716527837395733</v>
+        <v>0.702188632824106</v>
       </c>
       <c r="C20" t="s">
         <v>120</v>
@@ -15957,10 +15988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>725</v>
+        <v>309</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7046701161293316</v>
+        <v>0.6913679635677686</v>
       </c>
       <c r="C21" t="s">
         <v>120</v>
@@ -15971,10 +16002,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2891</v>
+        <v>755</v>
       </c>
       <c r="B22" t="n">
-        <v>0.702661345522466</v>
+        <v>0.686940194126849</v>
       </c>
       <c r="C22" t="s">
         <v>120</v>
@@ -15985,10 +16016,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1734</v>
+        <v>482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7013039896980173</v>
+        <v>0.6553544734950651</v>
       </c>
       <c r="C23" t="s">
         <v>120</v>
@@ -15999,10 +16030,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>2876</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6910611738227549</v>
+        <v>0.6313900763522362</v>
       </c>
       <c r="C24" t="s">
         <v>120</v>
@@ -16013,10 +16044,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>755</v>
+        <v>562</v>
       </c>
       <c r="B25" t="n">
-        <v>0.687452579556133</v>
+        <v>0.623029729474581</v>
       </c>
       <c r="C25" t="s">
         <v>120</v>
@@ -16027,10 +16058,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>482</v>
+        <v>167</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6540581458751464</v>
+        <v>0.6098999017145227</v>
       </c>
       <c r="C26" t="s">
         <v>120</v>
@@ -16041,10 +16072,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2876</v>
+        <v>870</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6301779644303166</v>
+        <v>0.6024679674482206</v>
       </c>
       <c r="C27" t="s">
         <v>120</v>
@@ -16055,10 +16086,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>562</v>
+        <v>811</v>
       </c>
       <c r="B28" t="n">
-        <v>0.621700291193429</v>
+        <v>0.5982637583741022</v>
       </c>
       <c r="C28" t="s">
         <v>120</v>
@@ -16069,10 +16100,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>537</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6109795004466513</v>
+        <v>0.5969751008193546</v>
       </c>
       <c r="C29" t="s">
         <v>120</v>
@@ -16083,10 +16114,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6016079445920391</v>
+        <v>0.5902758190504708</v>
       </c>
       <c r="C30" t="s">
         <v>120</v>
@@ -16097,10 +16128,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>811</v>
+        <v>361</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5972493242224207</v>
+        <v>0.5852323898429459</v>
       </c>
       <c r="C31" t="s">
         <v>120</v>
@@ -16111,10 +16142,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>813</v>
       </c>
       <c r="B32" t="n">
-        <v>0.595779435479193</v>
+        <v>0.5774118312084481</v>
       </c>
       <c r="C32" t="s">
         <v>120</v>
@@ -16125,10 +16156,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>864</v>
+        <v>2904</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5894126245693005</v>
+        <v>0.5729446780759677</v>
       </c>
       <c r="C33" t="s">
         <v>120</v>
@@ -16139,10 +16170,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5763309627945288</v>
+        <v>0.5723869355028341</v>
       </c>
       <c r="C34" t="s">
         <v>120</v>
@@ -16153,10 +16184,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5733981461071731</v>
+        <v>0.5683582155249354</v>
       </c>
       <c r="C35" t="s">
         <v>120</v>
@@ -16167,10 +16198,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2904</v>
+        <v>835</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5720634128797986</v>
+        <v>0.568007816504431</v>
       </c>
       <c r="C36" t="s">
         <v>120</v>
@@ -16181,10 +16212,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5673184681601448</v>
+        <v>0.5431213776415308</v>
       </c>
       <c r="C37" t="s">
         <v>120</v>
@@ -16195,10 +16226,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>835</v>
+        <v>1736</v>
       </c>
       <c r="B38" t="n">
-        <v>0.567161270113809</v>
+        <v>0.5403714692954895</v>
       </c>
       <c r="C38" t="s">
         <v>120</v>
@@ -16209,10 +16240,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>846</v>
+        <v>1731</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5426459157511282</v>
+        <v>0.5336629207756503</v>
       </c>
       <c r="C39" t="s">
         <v>120</v>
@@ -16223,10 +16254,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1736</v>
+        <v>2889</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5389218882327691</v>
+        <v>0.5135083166193966</v>
       </c>
       <c r="C40" t="s">
         <v>120</v>
@@ -16237,10 +16268,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1731</v>
+        <v>395</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5322928872234532</v>
+        <v>0.5001184406606498</v>
       </c>
       <c r="C41" t="s">
         <v>120</v>
@@ -16251,13 +16282,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2889</v>
+        <v>365</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5135097509194055</v>
+        <v>0.49365777772886993</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="D42" t="n">
         <v>41.0</v>
@@ -16265,10 +16296,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>493</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4993213220877757</v>
+        <v>0.4883044915362709</v>
       </c>
       <c r="C43" t="s">
         <v>2284</v>
@@ -16279,10 +16310,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>493</v>
+        <v>177</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4872768193788647</v>
+        <v>0.48007445834392737</v>
       </c>
       <c r="C44" t="s">
         <v>2284</v>
@@ -16293,10 +16324,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>854</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4807330881585206</v>
+        <v>0.4637018469213826</v>
       </c>
       <c r="C45" t="s">
         <v>2284</v>
@@ -16307,10 +16338,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2894</v>
+        <v>850</v>
       </c>
       <c r="B46" t="n">
-        <v>0.462828172674223</v>
+        <v>0.46310008728121055</v>
       </c>
       <c r="C46" t="s">
         <v>2284</v>
@@ -16321,10 +16352,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>854</v>
+        <v>2894</v>
       </c>
       <c r="B47" t="n">
-        <v>0.46269533742473634</v>
+        <v>0.46214445358892575</v>
       </c>
       <c r="C47" t="s">
         <v>2284</v>
@@ -16335,10 +16366,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>850</v>
+        <v>467</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4621042495678504</v>
+        <v>0.4584018445467777</v>
       </c>
       <c r="C48" t="s">
         <v>2284</v>
@@ -16349,10 +16380,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>467</v>
+        <v>2896</v>
       </c>
       <c r="B49" t="n">
-        <v>0.45718992540343634</v>
+        <v>0.446860685403651</v>
       </c>
       <c r="C49" t="s">
         <v>2284</v>
@@ -16363,10 +16394,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2896</v>
+        <v>2870</v>
       </c>
       <c r="B50" t="n">
-        <v>0.44684907827418585</v>
+        <v>0.4468207225401554</v>
       </c>
       <c r="C50" t="s">
         <v>2284</v>
@@ -16380,7 +16411,7 @@
         <v>2890</v>
       </c>
       <c r="B51" t="n">
-        <v>0.44621738575588477</v>
+        <v>0.44550484390447603</v>
       </c>
       <c r="C51" t="s">
         <v>2284</v>
@@ -16391,10 +16422,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2870</v>
+        <v>759</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4455758321055257</v>
+        <v>0.4449013467484998</v>
       </c>
       <c r="C52" t="s">
         <v>2284</v>
@@ -16405,10 +16436,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>759</v>
+        <v>565</v>
       </c>
       <c r="B53" t="n">
-        <v>0.44539311112915764</v>
+        <v>0.43858373928459526</v>
       </c>
       <c r="C53" t="s">
         <v>2284</v>
@@ -16419,10 +16450,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>565</v>
+        <v>921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.43733308583825425</v>
+        <v>0.4380613261994796</v>
       </c>
       <c r="C54" t="s">
         <v>2284</v>
@@ -16433,10 +16464,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>921</v>
+        <v>385</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4371857489239765</v>
+        <v>0.4063082248785621</v>
       </c>
       <c r="C55" t="s">
         <v>2284</v>
@@ -16447,10 +16478,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>385</v>
+        <v>1779</v>
       </c>
       <c r="B56" t="n">
-        <v>0.40618118960056615</v>
+        <v>0.39467555656974995</v>
       </c>
       <c r="C56" t="s">
         <v>2284</v>
@@ -16461,10 +16492,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1779</v>
+        <v>403</v>
       </c>
       <c r="B57" t="n">
-        <v>0.39420223441651103</v>
+        <v>0.3936336262591922</v>
       </c>
       <c r="C57" t="s">
         <v>2284</v>
@@ -16475,10 +16506,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>548</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3925699270276228</v>
+        <v>0.38902052179916286</v>
       </c>
       <c r="C58" t="s">
         <v>2284</v>
@@ -16489,10 +16520,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>548</v>
+        <v>2875</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3881248767358493</v>
+        <v>0.3756428084510452</v>
       </c>
       <c r="C59" t="s">
         <v>2284</v>
@@ -16503,10 +16534,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2875</v>
+        <v>1777</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3759782823068088</v>
+        <v>0.3630724607799245</v>
       </c>
       <c r="C60" t="s">
         <v>2284</v>
@@ -16517,10 +16548,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1777</v>
+        <v>2874</v>
       </c>
       <c r="B61" t="n">
-        <v>0.36294186572618536</v>
+        <v>0.3614368792362807</v>
       </c>
       <c r="C61" t="s">
         <v>2284</v>
@@ -16531,10 +16562,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2874</v>
+        <v>2882</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3617944940079121</v>
+        <v>0.35739425913194867</v>
       </c>
       <c r="C62" t="s">
         <v>2284</v>
@@ -16545,10 +16576,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2882</v>
+        <v>495</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3568291239834333</v>
+        <v>0.3553289320127441</v>
       </c>
       <c r="C63" t="s">
         <v>2284</v>
@@ -16559,10 +16590,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3557513602561574</v>
+        <v>0.35507409636146814</v>
       </c>
       <c r="C64" t="s">
         <v>2284</v>
@@ -16573,10 +16604,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>856</v>
+        <v>751</v>
       </c>
       <c r="B65" t="n">
-        <v>0.35418924092485815</v>
+        <v>0.35433391462889846</v>
       </c>
       <c r="C65" t="s">
         <v>2284</v>
@@ -16587,10 +16618,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>495</v>
+        <v>983</v>
       </c>
       <c r="B66" t="n">
-        <v>0.35418402032553337</v>
+        <v>0.352510681378406</v>
       </c>
       <c r="C66" t="s">
         <v>2284</v>
@@ -16601,10 +16632,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>983</v>
+        <v>947</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3513753378887896</v>
+        <v>0.3500358797013558</v>
       </c>
       <c r="C67" t="s">
         <v>2284</v>
@@ -16615,10 +16646,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>947</v>
+        <v>829</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3487029711010824</v>
+        <v>0.340060222297772</v>
       </c>
       <c r="C68" t="s">
         <v>2284</v>
@@ -16629,10 +16660,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>829</v>
+        <v>712</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33943698736614963</v>
+        <v>0.33348372497904843</v>
       </c>
       <c r="C69" t="s">
         <v>2284</v>
@@ -16643,10 +16674,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>712</v>
+        <v>960</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3336241400512779</v>
+        <v>0.32729527285658605</v>
       </c>
       <c r="C70" t="s">
         <v>2284</v>
@@ -16657,10 +16688,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>960</v>
+        <v>832</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327489935844635</v>
+        <v>0.31967105350795755</v>
       </c>
       <c r="C71" t="s">
         <v>2284</v>
@@ -16671,10 +16702,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>832</v>
+        <v>372</v>
       </c>
       <c r="B72" t="n">
-        <v>0.31897339814610715</v>
+        <v>0.3149403771451805</v>
       </c>
       <c r="C72" t="s">
         <v>2284</v>
@@ -16685,10 +16716,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3144912235924684</v>
+        <v>0.30996934442949536</v>
       </c>
       <c r="C73" t="s">
         <v>2284</v>
@@ -16699,10 +16730,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>924</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3103976936552316</v>
+        <v>0.30611321768814254</v>
       </c>
       <c r="C74" t="s">
         <v>2284</v>
@@ -16713,10 +16744,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>924</v>
+        <v>267</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3062658793229463</v>
+        <v>0.2883007848358887</v>
       </c>
       <c r="C75" t="s">
         <v>2284</v>
@@ -16727,10 +16758,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>405</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2888592410408715</v>
+        <v>0.2835313039534855</v>
       </c>
       <c r="C76" t="s">
         <v>2284</v>
@@ -16741,10 +16772,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>405</v>
+        <v>780</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2827267770340035</v>
+        <v>0.26404506420989654</v>
       </c>
       <c r="C77" t="s">
         <v>2284</v>
@@ -16755,10 +16786,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>780</v>
+        <v>558</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2647128090304767</v>
+        <v>0.2595072521013806</v>
       </c>
       <c r="C78" t="s">
         <v>2284</v>
@@ -16769,10 +16800,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25842140677749803</v>
+        <v>0.25908851079257944</v>
       </c>
       <c r="C79" t="s">
         <v>2284</v>
@@ -16783,10 +16814,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>556</v>
+        <v>332</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2580043388981055</v>
+        <v>0.2549926068702533</v>
       </c>
       <c r="C80" t="s">
         <v>2284</v>
@@ -16797,10 +16828,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>332</v>
+        <v>791</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25519391626158683</v>
+        <v>0.25274541976354725</v>
       </c>
       <c r="C81" t="s">
         <v>2284</v>
@@ -16811,10 +16842,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2532176293838533</v>
+        <v>0.24282478369376168</v>
       </c>
       <c r="C82" t="s">
         <v>2284</v>
@@ -16825,10 +16856,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>770</v>
+        <v>934</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24333909532814368</v>
+        <v>0.23975111823621295</v>
       </c>
       <c r="C83" t="s">
         <v>2284</v>
@@ -16839,10 +16870,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>934</v>
+        <v>717</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23955474088425352</v>
+        <v>0.2367759120075663</v>
       </c>
       <c r="C84" t="s">
         <v>2284</v>
@@ -16853,10 +16884,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>717</v>
+        <v>472</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23645776535146235</v>
+        <v>0.23608032651396993</v>
       </c>
       <c r="C85" t="s">
         <v>2284</v>
@@ -16870,7 +16901,7 @@
         <v>180</v>
       </c>
       <c r="B86" t="n">
-        <v>0.23626460317644465</v>
+        <v>0.23603515110306192</v>
       </c>
       <c r="C86" t="s">
         <v>2284</v>
@@ -16881,10 +16912,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="B87" t="n">
-        <v>0.236211817116605</v>
+        <v>0.22405382128954948</v>
       </c>
       <c r="C87" t="s">
         <v>2284</v>
@@ -16895,10 +16926,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>526</v>
+        <v>715</v>
       </c>
       <c r="B88" t="n">
-        <v>0.22436801744840307</v>
+        <v>0.22268871303941903</v>
       </c>
       <c r="C88" t="s">
         <v>2284</v>
@@ -16909,10 +16940,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>715</v>
+        <v>269</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2232502291263037</v>
+        <v>0.2224182397459057</v>
       </c>
       <c r="C89" t="s">
         <v>2284</v>
@@ -16926,7 +16957,7 @@
         <v>347</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2225315266192559</v>
+        <v>0.22240086458786415</v>
       </c>
       <c r="C90" t="s">
         <v>2284</v>
@@ -16937,10 +16968,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>269</v>
+        <v>530</v>
       </c>
       <c r="B91" t="n">
-        <v>0.22250658375581517</v>
+        <v>0.22159581559860606</v>
       </c>
       <c r="C91" t="s">
         <v>2284</v>
@@ -16951,10 +16982,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>530</v>
+        <v>208</v>
       </c>
       <c r="B92" t="n">
-        <v>0.22193579822963677</v>
+        <v>0.22118286600915207</v>
       </c>
       <c r="C92" t="s">
         <v>2284</v>
@@ -16965,10 +16996,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>208</v>
+        <v>757</v>
       </c>
       <c r="B93" t="n">
-        <v>0.22142823996194763</v>
+        <v>0.22097610162845774</v>
       </c>
       <c r="C93" t="s">
         <v>2284</v>
@@ -16979,10 +17010,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>757</v>
+        <v>465</v>
       </c>
       <c r="B94" t="n">
-        <v>0.22076928431383924</v>
+        <v>0.21493533834934841</v>
       </c>
       <c r="C94" t="s">
         <v>2284</v>
@@ -16993,10 +17024,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B95" t="n">
-        <v>0.21397670452567955</v>
+        <v>0.2134949377477046</v>
       </c>
       <c r="C95" t="s">
         <v>2284</v>
@@ -17007,10 +17038,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="B96" t="n">
-        <v>0.21375859948722115</v>
+        <v>0.20189470306723664</v>
       </c>
       <c r="C96" t="s">
         <v>2284</v>
@@ -17021,10 +17052,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>533</v>
+        <v>2819</v>
       </c>
       <c r="B97" t="n">
-        <v>0.20192060048493568</v>
+        <v>0.200568978508667</v>
       </c>
       <c r="C97" t="s">
         <v>2284</v>
@@ -17038,7 +17069,7 @@
         <v>2982</v>
       </c>
       <c r="B98" t="n">
-        <v>0.20036718215251112</v>
+        <v>0.2004722567955691</v>
       </c>
       <c r="C98" t="s">
         <v>2284</v>
@@ -17049,10 +17080,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2819</v>
+        <v>2647</v>
       </c>
       <c r="B99" t="n">
-        <v>0.19966240124366277</v>
+        <v>0.19534426848557543</v>
       </c>
       <c r="C99" t="s">
         <v>2284</v>
@@ -17063,10 +17094,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2647</v>
+        <v>171</v>
       </c>
       <c r="B100" t="n">
-        <v>0.19531132173973573</v>
+        <v>0.1929019004368694</v>
       </c>
       <c r="C100" t="s">
         <v>2284</v>
@@ -17077,10 +17108,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>3162</v>
       </c>
       <c r="B101" t="n">
-        <v>0.19363086882374098</v>
+        <v>0.19260594357822847</v>
       </c>
       <c r="C101" t="s">
         <v>2284</v>
@@ -17091,10 +17122,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>3162</v>
+        <v>497</v>
       </c>
       <c r="B102" t="n">
-        <v>0.19323004280891445</v>
+        <v>0.17861083294770136</v>
       </c>
       <c r="C102" t="s">
         <v>2284</v>
@@ -17105,10 +17136,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>497</v>
+        <v>913</v>
       </c>
       <c r="B103" t="n">
-        <v>0.17873359861712124</v>
+        <v>0.1781434411963839</v>
       </c>
       <c r="C103" t="s">
         <v>2284</v>
@@ -17119,10 +17150,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B104" t="n">
-        <v>0.17831189020499552</v>
+        <v>0.17409155434109636</v>
       </c>
       <c r="C104" t="s">
         <v>2284</v>
@@ -17133,10 +17164,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>916</v>
+        <v>550</v>
       </c>
       <c r="B105" t="n">
-        <v>0.17425780479599057</v>
+        <v>0.16788051451317992</v>
       </c>
       <c r="C105" t="s">
         <v>2284</v>
@@ -17147,10 +17178,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>550</v>
+        <v>805</v>
       </c>
       <c r="B106" t="n">
-        <v>0.16778078123368562</v>
+        <v>0.16561479390456288</v>
       </c>
       <c r="C106" t="s">
         <v>2284</v>
@@ -17161,10 +17192,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>805</v>
+        <v>744</v>
       </c>
       <c r="B107" t="n">
-        <v>0.16594081000498856</v>
+        <v>0.1641077885304265</v>
       </c>
       <c r="C107" t="s">
         <v>2284</v>
@@ -17175,10 +17206,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B108" t="n">
-        <v>0.16411650057426594</v>
+        <v>0.1611922370110558</v>
       </c>
       <c r="C108" t="s">
         <v>2284</v>
@@ -17189,10 +17220,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>728</v>
+        <v>488</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16122892908105851</v>
+        <v>0.15985377066992237</v>
       </c>
       <c r="C109" t="s">
         <v>2284</v>
@@ -17203,10 +17234,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>488</v>
+        <v>802</v>
       </c>
       <c r="B110" t="n">
-        <v>0.15979268420014617</v>
+        <v>0.1485448594726176</v>
       </c>
       <c r="C110" t="s">
         <v>2284</v>
@@ -17217,10 +17248,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>802</v>
+        <v>552</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1487482162952307</v>
+        <v>0.14261471803303943</v>
       </c>
       <c r="C111" t="s">
         <v>2284</v>
@@ -17231,10 +17262,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>552</v>
+        <v>374</v>
       </c>
       <c r="B112" t="n">
-        <v>0.14238778611784633</v>
+        <v>0.14118126749461224</v>
       </c>
       <c r="C112" t="s">
         <v>2284</v>
@@ -17245,10 +17276,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>374</v>
+        <v>761</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14157685302272702</v>
+        <v>0.13162319305596018</v>
       </c>
       <c r="C113" t="s">
         <v>2284</v>
@@ -17259,10 +17290,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>761</v>
+        <v>378</v>
       </c>
       <c r="B114" t="n">
-        <v>0.13250519159599522</v>
+        <v>0.13037681505244691</v>
       </c>
       <c r="C114" t="s">
         <v>2284</v>
@@ -17273,10 +17304,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>378</v>
+        <v>768</v>
       </c>
       <c r="B115" t="n">
-        <v>0.13099527825794402</v>
+        <v>0.11915651716115401</v>
       </c>
       <c r="C115" t="s">
         <v>2284</v>
@@ -17287,10 +17318,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>768</v>
+        <v>969</v>
       </c>
       <c r="B116" t="n">
-        <v>0.11990092462614708</v>
+        <v>0.10708831155743387</v>
       </c>
       <c r="C116" t="s">
         <v>2284</v>
@@ -17301,10 +17332,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>969</v>
+        <v>798</v>
       </c>
       <c r="B117" t="n">
-        <v>0.10720152673526921</v>
+        <v>0.1046610019790305</v>
       </c>
       <c r="C117" t="s">
         <v>2284</v>
@@ -17315,10 +17346,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>798</v>
+        <v>2880</v>
       </c>
       <c r="B118" t="n">
-        <v>0.104871979303224</v>
+        <v>0.10123172495356489</v>
       </c>
       <c r="C118" t="s">
         <v>2284</v>
@@ -17329,10 +17360,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>2880</v>
+        <v>778</v>
       </c>
       <c r="B119" t="n">
-        <v>0.10156850006380733</v>
+        <v>0.0993905373730962</v>
       </c>
       <c r="C119" t="s">
         <v>2284</v>
@@ -17343,10 +17374,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>778</v>
+        <v>484</v>
       </c>
       <c r="B120" t="n">
-        <v>0.10021346450572526</v>
+        <v>0.09759336685966606</v>
       </c>
       <c r="C120" t="s">
         <v>2284</v>
@@ -17357,10 +17388,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>484</v>
+        <v>183</v>
       </c>
       <c r="B121" t="n">
-        <v>0.09752369572026869</v>
+        <v>0.09067805395913248</v>
       </c>
       <c r="C121" t="s">
         <v>2284</v>
@@ -17371,10 +17402,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>397</v>
       </c>
       <c r="B122" t="n">
-        <v>0.09127637852825504</v>
+        <v>0.0901434782633877</v>
       </c>
       <c r="C122" t="s">
         <v>2284</v>
@@ -17388,7 +17419,7 @@
         <v>2873</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09024502012831073</v>
+        <v>0.0898869050963076</v>
       </c>
       <c r="C123" t="s">
         <v>2284</v>
@@ -17399,10 +17430,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="B124" t="n">
-        <v>0.09017251180435513</v>
+        <v>0.08816213107471724</v>
       </c>
       <c r="C124" t="s">
         <v>2284</v>
@@ -17413,10 +17444,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B125" t="n">
-        <v>0.08852280241771755</v>
+        <v>0.08102152029157832</v>
       </c>
       <c r="C125" t="s">
         <v>2284</v>
@@ -17427,10 +17458,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>414</v>
+        <v>2903</v>
       </c>
       <c r="B126" t="n">
-        <v>0.08134447834611414</v>
+        <v>0.07701422967526408</v>
       </c>
       <c r="C126" t="s">
         <v>2284</v>
@@ -17441,10 +17472,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>2903</v>
+        <v>890</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0774696335139274</v>
+        <v>0.07199975906447516</v>
       </c>
       <c r="C127" t="s">
         <v>2284</v>
@@ -17455,10 +17486,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="B128" t="n">
-        <v>0.072008886620184</v>
+        <v>0.05932168541349691</v>
       </c>
       <c r="C128" t="s">
         <v>2284</v>
@@ -17469,10 +17500,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="B129" t="n">
-        <v>0.05942956251377658</v>
+        <v>0.05718222428664841</v>
       </c>
       <c r="C129" t="s">
         <v>2284</v>
@@ -17483,10 +17514,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>885</v>
+        <v>2902</v>
       </c>
       <c r="B130" t="n">
-        <v>0.05721718853324362</v>
+        <v>0.0565179140775268</v>
       </c>
       <c r="C130" t="s">
         <v>2284</v>
@@ -17497,10 +17528,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="B131" t="n">
-        <v>0.05674327412786988</v>
+        <v>0.0556839064915328</v>
       </c>
       <c r="C131" t="s">
         <v>2284</v>
@@ -17511,10 +17542,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>2897</v>
+        <v>739</v>
       </c>
       <c r="B132" t="n">
-        <v>0.055907398169309834</v>
+        <v>0.055535059304310255</v>
       </c>
       <c r="C132" t="s">
         <v>2284</v>
@@ -17525,10 +17556,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>739</v>
+        <v>2899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.05586621344130306</v>
+        <v>0.05540127058739038</v>
       </c>
       <c r="C133" t="s">
         <v>2284</v>
@@ -17539,10 +17570,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B134" t="n">
-        <v>0.055623165539403926</v>
+        <v>0.05524315664921235</v>
       </c>
       <c r="C134" t="s">
         <v>2284</v>
@@ -17553,10 +17584,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>2898</v>
+        <v>2872</v>
       </c>
       <c r="B135" t="n">
-        <v>0.05546480735988491</v>
+        <v>0.054810515213977964</v>
       </c>
       <c r="C135" t="s">
         <v>2284</v>
@@ -17567,10 +17598,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>2872</v>
+        <v>478</v>
       </c>
       <c r="B136" t="n">
-        <v>0.05503207768251795</v>
+        <v>0.054215126465087804</v>
       </c>
       <c r="C136" t="s">
         <v>2284</v>
@@ -17581,10 +17612,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>478</v>
+        <v>941</v>
       </c>
       <c r="B137" t="n">
-        <v>0.05412949406591877</v>
+        <v>0.05324327595863091</v>
       </c>
       <c r="C137" t="s">
         <v>2284</v>
@@ -17595,10 +17626,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>941</v>
+        <v>2901</v>
       </c>
       <c r="B138" t="n">
-        <v>0.05335858556562293</v>
+        <v>0.05055707652540856</v>
       </c>
       <c r="C138" t="s">
         <v>2284</v>
@@ -17609,10 +17640,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>2901</v>
+        <v>574</v>
       </c>
       <c r="B139" t="n">
-        <v>0.050746545703446756</v>
+        <v>0.046510402217533504</v>
       </c>
       <c r="C139" t="s">
         <v>2284</v>
@@ -17623,10 +17654,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04667389816350917</v>
+        <v>0.04483254112265529</v>
       </c>
       <c r="C140" t="s">
         <v>2284</v>
@@ -17637,10 +17668,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>546</v>
+        <v>2900</v>
       </c>
       <c r="B141" t="n">
-        <v>0.044973142916806846</v>
+        <v>0.04431649892882151</v>
       </c>
       <c r="C141" t="s">
         <v>2284</v>
@@ -17651,10 +17682,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>2900</v>
+        <v>380</v>
       </c>
       <c r="B142" t="n">
-        <v>0.044446442451593446</v>
+        <v>0.04350623739215095</v>
       </c>
       <c r="C142" t="s">
         <v>2284</v>
@@ -17665,10 +17696,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>380</v>
+        <v>247</v>
       </c>
       <c r="B143" t="n">
-        <v>0.04341392391846584</v>
+        <v>0.03915318113081004</v>
       </c>
       <c r="C143" t="s">
         <v>2284</v>
@@ -17679,10 +17710,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>746</v>
       </c>
       <c r="B144" t="n">
-        <v>0.039170156733993065</v>
+        <v>0.038196968266590525</v>
       </c>
       <c r="C144" t="s">
         <v>2284</v>
@@ -17693,10 +17724,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>746</v>
+        <v>437</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03845377449331183</v>
+        <v>0.03622604617274498</v>
       </c>
       <c r="C145" t="s">
         <v>2284</v>
@@ -17707,10 +17738,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="B146" t="n">
-        <v>0.036279104841235775</v>
+        <v>0.03462058156970653</v>
       </c>
       <c r="C146" t="s">
         <v>2284</v>
@@ -17721,10 +17752,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>539</v>
+        <v>905</v>
       </c>
       <c r="B147" t="n">
-        <v>0.034677540981704696</v>
+        <v>0.030452860327475396</v>
       </c>
       <c r="C147" t="s">
         <v>2284</v>
@@ -17735,10 +17766,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>905</v>
+        <v>704</v>
       </c>
       <c r="B148" t="n">
-        <v>0.030478438924788565</v>
+        <v>0.029294516458039283</v>
       </c>
       <c r="C148" t="s">
         <v>2284</v>
@@ -17749,10 +17780,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>704</v>
+        <v>544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0293867535993132</v>
+        <v>0.0291346650040571</v>
       </c>
       <c r="C149" t="s">
         <v>2284</v>
@@ -17763,10 +17794,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>544</v>
+        <v>874</v>
       </c>
       <c r="B150" t="n">
-        <v>0.028999269116094527</v>
+        <v>0.025422172902514358</v>
       </c>
       <c r="C150" t="s">
         <v>2284</v>
@@ -17777,10 +17808,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>874</v>
+        <v>721</v>
       </c>
       <c r="B151" t="n">
-        <v>0.025600658955648108</v>
+        <v>0.020836868695351507</v>
       </c>
       <c r="C151" t="s">
         <v>2284</v>
@@ -17791,10 +17822,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>721</v>
+        <v>2888</v>
       </c>
       <c r="B152" t="n">
-        <v>0.020802928176154624</v>
+        <v>0.020235688227114166</v>
       </c>
       <c r="C152" t="s">
         <v>2284</v>
@@ -17805,10 +17836,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>2888</v>
+        <v>976</v>
       </c>
       <c r="B153" t="n">
-        <v>0.020288409109365756</v>
+        <v>0.01728770307939926</v>
       </c>
       <c r="C153" t="s">
         <v>2284</v>
@@ -17819,10 +17850,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>976</v>
+        <v>909</v>
       </c>
       <c r="B154" t="n">
-        <v>0.017201874775224196</v>
+        <v>0.016574742427761333</v>
       </c>
       <c r="C154" t="s">
         <v>2284</v>
@@ -17833,10 +17864,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>909</v>
+        <v>376</v>
       </c>
       <c r="B155" t="n">
-        <v>0.01654523939348237</v>
+        <v>0.01582761063197504</v>
       </c>
       <c r="C155" t="s">
         <v>2284</v>
@@ -17847,10 +17878,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="B156" t="n">
-        <v>0.015961692402287782</v>
+        <v>0.01582761063197504</v>
       </c>
       <c r="C156" t="s">
         <v>2284</v>
@@ -17861,10 +17892,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>454</v>
+        <v>901</v>
       </c>
       <c r="B157" t="n">
-        <v>0.015961692402287782</v>
+        <v>0.01582761063197504</v>
       </c>
       <c r="C157" t="s">
         <v>2284</v>
@@ -17875,10 +17906,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>901</v>
+        <v>469</v>
       </c>
       <c r="B158" t="n">
-        <v>0.015961692402287782</v>
+        <v>0.0130388977663076</v>
       </c>
       <c r="C158" t="s">
         <v>2284</v>
@@ -17889,10 +17920,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>469</v>
+        <v>894</v>
       </c>
       <c r="B159" t="n">
-        <v>0.013065419910205692</v>
+        <v>0.007846042199625508</v>
       </c>
       <c r="C159" t="s">
         <v>2284</v>
@@ -17903,10 +17934,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>894</v>
+        <v>2877</v>
       </c>
       <c r="B160" t="n">
-        <v>0.00787614418135202</v>
+        <v>0.006501784139144899</v>
       </c>
       <c r="C160" t="s">
         <v>2284</v>
@@ -17917,10 +17948,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>2877</v>
+        <v>535</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0065054468252955435</v>
+        <v>0.005072966976195454</v>
       </c>
       <c r="C161" t="s">
         <v>2284</v>
@@ -17931,10 +17962,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>535</v>
+        <v>753</v>
       </c>
       <c r="B162" t="n">
-        <v>0.005029757416151374</v>
+        <v>0.004989566217596054</v>
       </c>
       <c r="C162" t="s">
         <v>2284</v>
@@ -17945,10 +17976,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0049462278269545345</v>
+        <v>0.0037744634985575724</v>
       </c>
       <c r="C163" t="s">
         <v>2284</v>
@@ -17959,10 +17990,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>748</v>
+        <v>949</v>
       </c>
       <c r="B164" t="n">
-        <v>0.003775653445015488</v>
+        <v>0.0032595796485932202</v>
       </c>
       <c r="C164" t="s">
         <v>2284</v>
@@ -17973,10 +18004,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>949</v>
+        <v>250</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0032756360430177384</v>
+        <v>0.0014803634651393517</v>
       </c>
       <c r="C165" t="s">
         <v>2284</v>
@@ -17987,10 +18018,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>416</v>
       </c>
       <c r="B166" t="n">
-        <v>0.001473369142777591</v>
+        <v>0.0013859584397803086</v>
       </c>
       <c r="C166" t="s">
         <v>2284</v>
@@ -18001,10 +18032,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0013822986878893697</v>
+        <v>0.0010118133699524442</v>
       </c>
       <c r="C167" t="s">
         <v>2284</v>
@@ -18015,10 +18046,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B168" t="n">
-        <v>0.001019757068111419</v>
+        <v>9.99650759323365E-4</v>
       </c>
       <c r="C168" t="s">
         <v>2284</v>
@@ -18029,10 +18060,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>542</v>
+        <v>254</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0010000348039954988</v>
+        <v>5.843844821305187E-4</v>
       </c>
       <c r="C169" t="s">
         <v>2284</v>
@@ -18043,10 +18074,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>254</v>
+        <v>839</v>
       </c>
       <c r="B170" t="n">
-        <v>5.852871909695233E-4</v>
+        <v>4.459623897329033E-4</v>
       </c>
       <c r="C170" t="s">
         <v>2284</v>
@@ -18057,10 +18088,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>839</v>
+        <v>439</v>
       </c>
       <c r="B171" t="n">
-        <v>4.5129180829959277E-4</v>
+        <v>6.776311636201258E-5</v>
       </c>
       <c r="C171" t="s">
         <v>2284</v>
@@ -18071,10 +18102,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="B172" t="n">
-        <v>6.786779122243233E-5</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="s">
         <v>2284</v>
@@ -18085,7 +18116,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>382</v>
+        <v>457</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -18099,7 +18130,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -18113,7 +18144,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -18127,7 +18158,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>560</v>
+        <v>2623</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -18141,7 +18172,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>2623</v>
+        <v>881</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -18155,7 +18186,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -18165,20 +18196,6 @@
       </c>
       <c r="D178" t="n">
         <v>177.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>898</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C179" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D179" t="n">
-        <v>178.0</v>
       </c>
     </row>
   </sheetData>
@@ -51390,10 +51407,10 @@
   <dimension ref="A1:AG294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G245" sqref="G245"/>
+      <selection pane="bottomRight" activeCell="J218" sqref="J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -51437,7 +51454,7 @@
         <v>3163</v>
       </c>
       <c r="I1" s="201" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="J1" s="201" t="s">
         <v>3174</v>
@@ -52045,25 +52062,23 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="176" t="s">
+      <c r="A11" s="199" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B11" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="194" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="177" t="str">
+      <c r="E11" s="177" t="e">
         <f>VLOOKUP(A11,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
-      </c>
-      <c r="F11" s="177" t="s">
-        <v>120</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="188"/>
       <c r="G11" s="177" t="s">
         <v>120</v>
       </c>
@@ -52074,57 +52089,35 @@
         <v>120</v>
       </c>
       <c r="J11" s="177">
-        <f>VLOOKUP(A11,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="177">
-        <v>10</v>
-      </c>
-      <c r="L11" s="177" t="s">
-        <v>120</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="L11" s="188"/>
       <c r="M11" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N11" s="177"/>
-      <c r="O11" s="177" t="s">
-        <v>1155</v>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176" t="s">
+        <v>1664</v>
       </c>
       <c r="P11" s="177" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="176" t="s">
-        <v>168</v>
+        <v>1670</v>
       </c>
       <c r="R11" s="176" t="s">
-        <v>169</v>
-      </c>
-      <c r="S11" s="176" t="s">
-        <v>170</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="S11" s="176"/>
       <c r="T11" s="208">
-        <v>39.608347627215601</v>
-      </c>
-      <c r="U11" s="228" t="s">
-        <v>2806</v>
-      </c>
-      <c r="V11" s="210" t="s">
-        <v>2809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W11" s="210"/>
       <c r="X11" s="210" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>2842</v>
-      </c>
-      <c r="Z11">
-        <v>10</v>
-      </c>
-      <c r="AA11">
-        <v>55</v>
-      </c>
-      <c r="AB11">
-        <v>2</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -52158,7 +52151,7 @@
       </c>
       <c r="J12" s="177">
         <f>VLOOKUP(A12,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K12" s="177">
         <v>11</v>
@@ -52230,7 +52223,7 @@
       </c>
       <c r="J13" s="177">
         <f>VLOOKUP(A13,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K13" s="177">
         <v>12</v>
@@ -52302,7 +52295,7 @@
       </c>
       <c r="J14" s="177">
         <f>VLOOKUP(A14,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K14" s="177">
         <v>13</v>
@@ -52366,7 +52359,7 @@
       <c r="I15" s="177"/>
       <c r="J15" s="177">
         <f>VLOOKUP(A15,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K15" s="177">
         <v>14</v>
@@ -52431,7 +52424,7 @@
       </c>
       <c r="J16" s="177">
         <f>VLOOKUP(A16,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K16" s="177">
         <v>15</v>
@@ -52475,7 +52468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>208</v>
       </c>
@@ -52498,7 +52491,7 @@
       <c r="I17" s="177"/>
       <c r="J17" s="177">
         <f>VLOOKUP(A17,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K17" s="177">
         <v>16</v>
@@ -52527,7 +52520,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="177" t="s">
         <v>247</v>
       </c>
@@ -52550,7 +52543,7 @@
       <c r="I18" s="177"/>
       <c r="J18" s="177">
         <f>VLOOKUP(A18,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K18" s="177">
         <v>17</v>
@@ -52579,7 +52572,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="177" t="s">
         <v>250</v>
       </c>
@@ -52602,7 +52595,7 @@
       <c r="I19" s="177"/>
       <c r="J19" s="177">
         <f>VLOOKUP(A19,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K19" s="177">
         <v>18</v>
@@ -52631,7 +52624,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="177" t="s">
         <v>254</v>
       </c>
@@ -52654,7 +52647,7 @@
       <c r="I20" s="177"/>
       <c r="J20" s="177">
         <f>VLOOKUP(A20,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="K20" s="177">
         <v>19</v>
@@ -52683,7 +52676,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="192" t="s">
         <v>267</v>
       </c>
@@ -52714,7 +52707,7 @@
       </c>
       <c r="J21" s="177">
         <f>VLOOKUP(A21,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K21" s="177">
         <v>20</v>
@@ -52758,7 +52751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="202" t="s">
         <v>269</v>
       </c>
@@ -52781,7 +52774,7 @@
       <c r="I22" s="186"/>
       <c r="J22" s="177">
         <f>VLOOKUP(A22,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K22" s="177">
         <v>21</v>
@@ -52815,15 +52808,13 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15" customHeight="1">
-      <c r="A23" s="192" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="177" t="s">
-        <v>120</v>
-      </c>
+    <row r="23" spans="1:33" ht="15" customHeight="1">
+      <c r="A23" s="177" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B23" s="227"/>
       <c r="C23" s="176" t="s">
-        <v>120</v>
+        <v>2869</v>
       </c>
       <c r="D23" s="177" t="s">
         <v>120</v>
@@ -52832,7 +52823,7 @@
         <f>VLOOKUP(A23,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F23" s="188"/>
+      <c r="F23" s="227"/>
       <c r="G23" s="177" t="s">
         <v>120</v>
       </c>
@@ -52844,44 +52835,38 @@
       </c>
       <c r="J23" s="177">
         <f>VLOOKUP(A23,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K23" s="177">
-        <v>22</v>
-      </c>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="177" t="s">
-        <v>1155</v>
-      </c>
-      <c r="P23" s="177" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="184" t="s">
-        <v>310</v>
-      </c>
-      <c r="R23" s="180" t="s">
-        <v>311</v>
-      </c>
-      <c r="S23" s="176"/>
+        <v>272</v>
+      </c>
+      <c r="L23" s="227"/>
+      <c r="M23" s="227"/>
+      <c r="N23" s="227"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="227"/>
+      <c r="Q23" s="232" t="s">
+        <v>3166</v>
+      </c>
+      <c r="R23" s="227"/>
+      <c r="S23" s="227"/>
       <c r="T23" s="208">
-        <v>23.629476091773299</v>
-      </c>
-      <c r="U23" t="s">
-        <v>2810</v>
-      </c>
-      <c r="V23" s="210" t="s">
-        <v>2809</v>
+        <v>0</v>
       </c>
       <c r="X23" s="210" t="s">
-        <v>2861</v>
-      </c>
-      <c r="AB23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15" hidden="1" customHeight="1">
+        <v>2864</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="177" t="s">
         <v>332</v>
       </c>
@@ -52904,7 +52889,7 @@
       <c r="I24" s="177"/>
       <c r="J24" s="177">
         <f>VLOOKUP(A24,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K24" s="177">
         <v>23</v>
@@ -52938,7 +52923,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="177" t="s">
         <v>347</v>
       </c>
@@ -52961,7 +52946,7 @@
       <c r="I25" s="177"/>
       <c r="J25" s="177">
         <f>VLOOKUP(A25,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K25" s="177">
         <v>24</v>
@@ -52995,14 +52980,14 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15" customHeight="1">
+    <row r="26" spans="1:33" ht="15" customHeight="1">
       <c r="A26" s="177" t="s">
-        <v>361</v>
+        <v>702</v>
       </c>
       <c r="B26" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="182" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="177" t="s">
@@ -53012,7 +52997,9 @@
         <f>VLOOKUP(A26,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F26" s="188"/>
+      <c r="F26" s="188" t="s">
+        <v>120</v>
+      </c>
       <c r="G26" s="177" t="s">
         <v>120</v>
       </c>
@@ -53024,51 +53011,58 @@
       </c>
       <c r="J26" s="177">
         <f>VLOOKUP(A26,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K26" s="177">
-        <v>25</v>
-      </c>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
+        <v>81</v>
+      </c>
+      <c r="L26" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="177" t="s">
+        <v>120</v>
+      </c>
       <c r="N26" s="177"/>
       <c r="O26" s="177" t="s">
-        <v>1155</v>
+        <v>15</v>
       </c>
       <c r="P26" s="177" t="s">
-        <v>360</v>
+        <v>701</v>
       </c>
       <c r="Q26" s="176" t="s">
-        <v>362</v>
-      </c>
-      <c r="R26" s="176" t="s">
-        <v>363</v>
-      </c>
-      <c r="S26" s="176" t="s">
-        <v>364</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="R26" s="191" t="s">
+        <v>278</v>
+      </c>
+      <c r="S26" s="176"/>
       <c r="T26" s="208">
-        <v>9.7062397255378396</v>
-      </c>
-      <c r="V26" s="210"/>
+        <v>5.88193253287593</v>
+      </c>
+      <c r="U26" s="210" t="s">
+        <v>2836</v>
+      </c>
+      <c r="V26" s="210" t="s">
+        <v>2809</v>
+      </c>
       <c r="X26" s="210" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z26">
+        <v>2861</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="AB26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="15" hidden="1" customHeight="1">
-      <c r="A27" s="192" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="176" t="s">
+      <c r="AD26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="15" customHeight="1">
+      <c r="A27" s="199" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B27" s="199" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="194" t="s">
         <v>120</v>
       </c>
       <c r="D27" s="177" t="s">
@@ -53079,51 +53073,49 @@
         <v>yes</v>
       </c>
       <c r="F27" s="188"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177" t="s">
+      <c r="G27" s="224" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="224" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="224" t="s">
         <v>120</v>
       </c>
       <c r="J27" s="177">
         <f>VLOOKUP(A27,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K27" s="177">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="L27" s="188"/>
       <c r="M27" s="188"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="177" t="s">
-        <v>1155</v>
+      <c r="N27" s="176"/>
+      <c r="O27" s="176" t="s">
+        <v>1160</v>
       </c>
       <c r="P27" s="177" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q27" s="184" t="s">
-        <v>366</v>
-      </c>
-      <c r="R27" s="180" t="s">
-        <v>363</v>
-      </c>
-      <c r="S27" s="176" t="s">
-        <v>216</v>
-      </c>
+        <v>1643</v>
+      </c>
+      <c r="Q27" s="176" t="s">
+        <v>1657</v>
+      </c>
+      <c r="R27" s="176" t="s">
+        <v>1656</v>
+      </c>
+      <c r="S27" s="176"/>
       <c r="T27" s="208">
-        <v>16.6321206489886</v>
-      </c>
-      <c r="V27" s="210"/>
+        <v>7.3189907797870104</v>
+      </c>
       <c r="X27" s="210" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z27">
+        <v>2861</v>
+      </c>
+      <c r="AB27">
         <v>1</v>
       </c>
-      <c r="AB27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15" hidden="1" customHeight="1">
+    </row>
+    <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="192" t="s">
         <v>369</v>
       </c>
@@ -53146,7 +53138,7 @@
       <c r="I28" s="177"/>
       <c r="J28" s="177">
         <f>VLOOKUP(A28,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K28" s="177">
         <v>27</v>
@@ -53178,7 +53170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="203" t="s">
         <v>372</v>
       </c>
@@ -53201,7 +53193,7 @@
       <c r="I29" s="177"/>
       <c r="J29" s="177">
         <f>VLOOKUP(A29,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K29" s="177">
         <v>28</v>
@@ -53230,7 +53222,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="203" t="s">
         <v>374</v>
       </c>
@@ -53253,7 +53245,7 @@
       <c r="I30" s="177"/>
       <c r="J30" s="177">
         <f>VLOOKUP(A30,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K30" s="177">
         <v>29</v>
@@ -53283,7 +53275,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="203" t="s">
         <v>376</v>
       </c>
@@ -53306,7 +53298,7 @@
       <c r="I31" s="177"/>
       <c r="J31" s="177">
         <f>VLOOKUP(A31,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K31" s="177">
         <v>30</v>
@@ -53336,7 +53328,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="203" t="s">
         <v>378</v>
       </c>
@@ -53359,7 +53351,7 @@
       <c r="I32" s="177"/>
       <c r="J32" s="177">
         <f>VLOOKUP(A32,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K32" s="177">
         <v>31</v>
@@ -53411,7 +53403,7 @@
       <c r="I33" s="177"/>
       <c r="J33" s="177">
         <f>VLOOKUP(A33,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K33" s="177">
         <v>32</v>
@@ -53462,7 +53454,7 @@
       <c r="I34" s="177"/>
       <c r="J34" s="177">
         <f>VLOOKUP(A34,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K34" s="177">
         <v>33</v>
@@ -53515,7 +53507,7 @@
       <c r="I35" s="177"/>
       <c r="J35" s="177">
         <f>VLOOKUP(A35,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K35" s="177">
         <v>34</v>
@@ -53558,7 +53550,7 @@
       </c>
       <c r="E36" s="177" t="str">
         <f>VLOOKUP(A36,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="F36" s="188"/>
       <c r="G36" s="177" t="s">
@@ -53572,7 +53564,7 @@
       </c>
       <c r="J36" s="177">
         <f>VLOOKUP(A36,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K36" s="177">
         <v>35</v>
@@ -53632,7 +53624,7 @@
       <c r="I37" s="177"/>
       <c r="J37" s="177">
         <f>VLOOKUP(A37,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K37" s="177">
         <v>36</v>
@@ -53743,7 +53735,7 @@
       <c r="I39" s="177"/>
       <c r="J39" s="177">
         <f>VLOOKUP(A39,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K39" s="177">
         <v>38</v>
@@ -53794,7 +53786,7 @@
       <c r="I40" s="177"/>
       <c r="J40" s="177">
         <f>VLOOKUP(A40,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K40" s="177">
         <v>39</v>
@@ -53891,7 +53883,7 @@
       <c r="I42" s="177"/>
       <c r="J42" s="177">
         <f>VLOOKUP(A42,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K42" s="177">
         <v>41</v>
@@ -53948,7 +53940,7 @@
       <c r="I43" s="177"/>
       <c r="J43" s="177">
         <f>VLOOKUP(A43,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K43" s="177">
         <v>42</v>
@@ -54007,7 +53999,7 @@
       <c r="I44" s="177"/>
       <c r="J44" s="177">
         <f>VLOOKUP(A44,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="K44" s="177">
         <v>43</v>
@@ -54064,7 +54056,7 @@
       <c r="I45" s="177"/>
       <c r="J45" s="177">
         <f>VLOOKUP(A45,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K45" s="177">
         <v>44</v>
@@ -54121,7 +54113,7 @@
       <c r="I46" s="177"/>
       <c r="J46" s="177">
         <f>VLOOKUP(A46,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K46" s="177">
         <v>45</v>
@@ -54178,7 +54170,7 @@
       <c r="I47" s="177"/>
       <c r="J47" s="177">
         <f>VLOOKUP(A47,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="K47" s="177">
         <v>46</v>
@@ -54235,7 +54227,7 @@
       <c r="I48" s="177"/>
       <c r="J48" s="177">
         <f>VLOOKUP(A48,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K48" s="177">
         <v>47</v>
@@ -54286,7 +54278,7 @@
       <c r="I49" s="177"/>
       <c r="J49" s="177">
         <f>VLOOKUP(A49,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K49" s="177">
         <v>48</v>
@@ -54348,7 +54340,7 @@
       <c r="I50" s="177"/>
       <c r="J50" s="177">
         <f>VLOOKUP(A50,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K50" s="177">
         <v>49</v>
@@ -54416,7 +54408,7 @@
       <c r="I51" s="177"/>
       <c r="J51" s="177">
         <f>VLOOKUP(A51,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K51" s="177">
         <v>50</v>
@@ -54484,7 +54476,7 @@
       <c r="I52" s="177"/>
       <c r="J52" s="177">
         <f>VLOOKUP(A52,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K52" s="177">
         <v>51</v>
@@ -54545,7 +54537,7 @@
       <c r="I53" s="177"/>
       <c r="J53" s="177">
         <f>VLOOKUP(A53,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K53" s="177">
         <v>52</v>
@@ -54602,7 +54594,7 @@
       <c r="I54" s="188"/>
       <c r="J54" s="177">
         <f>VLOOKUP(A54,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K54" s="177">
         <v>53</v>
@@ -54661,7 +54653,7 @@
       <c r="I55" s="188"/>
       <c r="J55" s="177">
         <f>VLOOKUP(A55,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K55" s="177">
         <v>54</v>
@@ -54693,13 +54685,11 @@
     </row>
     <row r="56" spans="1:33" ht="15" customHeight="1">
       <c r="A56" s="177" t="s">
-        <v>482</v>
-      </c>
-      <c r="B56" s="177" t="s">
-        <v>120</v>
-      </c>
+        <v>2893</v>
+      </c>
+      <c r="B56" s="227"/>
       <c r="C56" s="176" t="s">
-        <v>120</v>
+        <v>2869</v>
       </c>
       <c r="D56" s="177" t="s">
         <v>120</v>
@@ -54708,50 +54698,45 @@
         <f>VLOOKUP(A56,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F56" s="188"/>
-      <c r="G56" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="H56" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" s="177" t="s">
+      <c r="F56" s="188" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G56" s="227"/>
+      <c r="H56" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="232" t="s">
         <v>120</v>
       </c>
       <c r="J56" s="177">
         <f>VLOOKUP(A56,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K56" s="177">
-        <v>55</v>
-      </c>
-      <c r="L56" s="188"/>
+        <v>262</v>
+      </c>
+      <c r="L56" s="188" t="s">
+        <v>2284</v>
+      </c>
       <c r="M56" s="188"/>
-      <c r="N56" s="188"/>
-      <c r="O56" s="177" t="s">
-        <v>1155</v>
-      </c>
-      <c r="P56" s="188" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q56" s="190" t="s">
-        <v>483</v>
-      </c>
-      <c r="R56" s="176" t="s">
-        <v>349</v>
-      </c>
-      <c r="S56" s="176"/>
+      <c r="N56" s="232" t="s">
+        <v>3115</v>
+      </c>
+      <c r="O56" s="227"/>
+      <c r="P56" s="227"/>
+      <c r="Q56" s="227" t="s">
+        <v>2926</v>
+      </c>
+      <c r="R56" s="227"/>
+      <c r="S56" s="227"/>
       <c r="T56" s="208">
-        <v>25.959545422057001</v>
-      </c>
-      <c r="V56" s="213" t="s">
-        <v>2824</v>
+        <v>7.3256146369353896</v>
       </c>
       <c r="X56" s="210" t="s">
         <v>2861</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -54777,7 +54762,7 @@
       <c r="I57" s="188"/>
       <c r="J57" s="177">
         <f>VLOOKUP(A57,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="K57" s="177">
         <v>56</v>
@@ -54851,7 +54836,7 @@
       <c r="I58" s="188"/>
       <c r="J58" s="177">
         <f>VLOOKUP(A58,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K58" s="177">
         <v>57</v>
@@ -54908,7 +54893,7 @@
       <c r="I59" s="188"/>
       <c r="J59" s="177">
         <f>VLOOKUP(A59,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K59" s="177">
         <v>58</v>
@@ -54967,7 +54952,7 @@
       <c r="I60" s="188"/>
       <c r="J60" s="177">
         <f>VLOOKUP(A60,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K60" s="177">
         <v>59</v>
@@ -55024,7 +55009,7 @@
       <c r="I61" s="188"/>
       <c r="J61" s="177">
         <f>VLOOKUP(A61,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K61" s="177">
         <v>60</v>
@@ -55081,7 +55066,7 @@
       <c r="I62" s="188"/>
       <c r="J62" s="177">
         <f>VLOOKUP(A62,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K62" s="177">
         <v>61</v>
@@ -55146,7 +55131,7 @@
       </c>
       <c r="J63" s="177">
         <f>VLOOKUP(A63,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K63" s="177">
         <v>62</v>
@@ -55209,7 +55194,7 @@
       <c r="I64" s="188"/>
       <c r="J64" s="177">
         <f>VLOOKUP(A64,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K64" s="177">
         <v>63</v>
@@ -55266,7 +55251,7 @@
       <c r="I65" s="188"/>
       <c r="J65" s="177">
         <f>VLOOKUP(A65,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K65" s="177">
         <v>64</v>
@@ -55323,7 +55308,7 @@
       <c r="I66" s="188"/>
       <c r="J66" s="177">
         <f>VLOOKUP(A66,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K66" s="177">
         <v>65</v>
@@ -55386,7 +55371,7 @@
       </c>
       <c r="J67" s="177">
         <f>VLOOKUP(A67,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K67" s="177">
         <v>66</v>
@@ -55446,7 +55431,7 @@
       <c r="I68" s="188"/>
       <c r="J68" s="177">
         <f>VLOOKUP(A68,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K68" s="177">
         <v>67</v>
@@ -55503,7 +55488,7 @@
       <c r="I69" s="188"/>
       <c r="J69" s="177">
         <f>VLOOKUP(A69,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="K69" s="177">
         <v>68</v>
@@ -55554,7 +55539,7 @@
       <c r="I70" s="188"/>
       <c r="J70" s="177">
         <f>VLOOKUP(A70,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K70" s="177">
         <v>69</v>
@@ -55611,7 +55596,7 @@
       <c r="I71" s="188"/>
       <c r="J71" s="177">
         <f>VLOOKUP(A71,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K71" s="177">
         <v>70</v>
@@ -55668,7 +55653,7 @@
       <c r="I72" s="188"/>
       <c r="J72" s="177">
         <f>VLOOKUP(A72,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K72" s="177">
         <v>71</v>
@@ -55725,7 +55710,7 @@
       <c r="I73" s="188"/>
       <c r="J73" s="177">
         <f>VLOOKUP(A73,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K73" s="177">
         <v>72</v>
@@ -55782,7 +55767,7 @@
       <c r="I74" s="188"/>
       <c r="J74" s="177">
         <f>VLOOKUP(A74,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K74" s="177">
         <v>73</v>
@@ -55839,7 +55824,7 @@
       <c r="I75" s="188"/>
       <c r="J75" s="177">
         <f>VLOOKUP(A75,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="K75" s="177">
         <v>74</v>
@@ -55896,7 +55881,7 @@
       <c r="I76" s="188"/>
       <c r="J76" s="177">
         <f>VLOOKUP(A76,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K76" s="177">
         <v>75</v>
@@ -55953,7 +55938,7 @@
       <c r="I77" s="188"/>
       <c r="J77" s="177">
         <f>VLOOKUP(A77,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K77" s="177">
         <v>76</v>
@@ -56010,7 +55995,7 @@
       <c r="I78" s="188"/>
       <c r="J78" s="177">
         <f>VLOOKUP(A78,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K78" s="177">
         <v>77</v>
@@ -56045,14 +56030,12 @@
       </c>
     </row>
     <row r="79" spans="1:28" ht="15" customHeight="1">
-      <c r="A79" s="203" t="s">
-        <v>562</v>
-      </c>
-      <c r="B79" s="177" t="s">
-        <v>120</v>
-      </c>
+      <c r="A79" s="177" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B79" s="227"/>
       <c r="C79" s="176" t="s">
-        <v>120</v>
+        <v>2869</v>
       </c>
       <c r="D79" s="177" t="s">
         <v>120</v>
@@ -56075,10 +56058,10 @@
       </c>
       <c r="J79" s="177">
         <f>VLOOKUP(A79,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K79" s="177">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="L79" s="188" t="s">
         <v>120</v>
@@ -56086,28 +56069,18 @@
       <c r="M79" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N79" s="188"/>
-      <c r="O79" s="177" t="s">
-        <v>1155</v>
-      </c>
-      <c r="P79" s="188" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q79" s="190" t="s">
-        <v>563</v>
-      </c>
-      <c r="R79" s="176" t="s">
-        <v>564</v>
-      </c>
-      <c r="S79" s="184"/>
+      <c r="N79" s="227"/>
+      <c r="O79" s="227"/>
+      <c r="P79" s="227"/>
+      <c r="Q79" s="227" t="s">
+        <v>2914</v>
+      </c>
+      <c r="R79" s="195" t="s">
+        <v>3175</v>
+      </c>
+      <c r="S79" s="227"/>
       <c r="T79" s="208">
-        <v>35.127215551743902</v>
-      </c>
-      <c r="U79" s="210" t="s">
-        <v>2820</v>
-      </c>
-      <c r="V79" s="210" t="s">
-        <v>2809</v>
+        <v>11.270726129216699</v>
       </c>
       <c r="X79" s="210" t="s">
         <v>2861</v>
@@ -56147,7 +56120,7 @@
       </c>
       <c r="J80" s="177">
         <f>VLOOKUP(A80,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K80" s="177">
         <v>79</v>
@@ -56219,7 +56192,7 @@
       </c>
       <c r="J81" s="177">
         <f>VLOOKUP(A81,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="K81" s="177">
         <v>80</v>
@@ -56264,13 +56237,13 @@
       </c>
     </row>
     <row r="82" spans="1:33" ht="15" customHeight="1">
-      <c r="A82" s="177" t="s">
-        <v>702</v>
-      </c>
-      <c r="B82" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="182" t="s">
+      <c r="A82" s="193" t="s">
+        <v>918</v>
+      </c>
+      <c r="B82" s="193" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="187" t="s">
         <v>120</v>
       </c>
       <c r="D82" s="177" t="s">
@@ -56294,10 +56267,10 @@
       </c>
       <c r="J82" s="177">
         <f>VLOOKUP(A82,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K82" s="177">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="L82" s="188" t="s">
         <v>120</v>
@@ -56305,28 +56278,35 @@
       <c r="M82" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N82" s="177"/>
+      <c r="N82" s="177" t="s">
+        <v>3108</v>
+      </c>
       <c r="O82" s="177" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P82" s="177" t="s">
-        <v>701</v>
+        <v>808</v>
       </c>
       <c r="Q82" s="176" t="s">
-        <v>703</v>
-      </c>
-      <c r="R82" s="191" t="s">
-        <v>278</v>
-      </c>
-      <c r="S82" s="176"/>
+        <v>919</v>
+      </c>
+      <c r="R82" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="S82" s="176" t="s">
+        <v>920</v>
+      </c>
       <c r="T82" s="208">
-        <v>5.88193253287593</v>
-      </c>
-      <c r="U82" s="210" t="s">
-        <v>2836</v>
-      </c>
-      <c r="V82" s="210" t="s">
-        <v>2809</v>
+        <v>12.5571755288736</v>
+      </c>
+      <c r="U82" s="228" t="s">
+        <v>2802</v>
+      </c>
+      <c r="V82" t="s">
+        <v>124</v>
+      </c>
+      <c r="W82" s="210" t="s">
+        <v>2827</v>
       </c>
       <c r="X82" s="210" t="s">
         <v>2861</v>
@@ -56361,7 +56341,7 @@
       <c r="I83" s="177"/>
       <c r="J83" s="177">
         <f>VLOOKUP(A83,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K83" s="177">
         <v>82</v>
@@ -56481,7 +56461,7 @@
       <c r="I85" s="177"/>
       <c r="J85" s="177">
         <f>VLOOKUP(A85,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K85" s="177">
         <v>84</v>
@@ -56556,7 +56536,7 @@
       <c r="I86" s="177"/>
       <c r="J86" s="177">
         <f>VLOOKUP(A86,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K86" s="177">
         <v>85</v>
@@ -56622,7 +56602,7 @@
       <c r="I87" s="177"/>
       <c r="J87" s="177">
         <f>VLOOKUP(A87,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K87" s="177">
         <v>86</v>
@@ -56681,7 +56661,7 @@
       <c r="I88" s="177"/>
       <c r="J88" s="177">
         <f>VLOOKUP(A88,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K88" s="177">
         <v>87</v>
@@ -56719,76 +56699,58 @@
     </row>
     <row r="89" spans="1:33" ht="15" customHeight="1">
       <c r="A89" s="177" t="s">
-        <v>725</v>
-      </c>
-      <c r="B89" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="182" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" s="177" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B89" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="176" t="s">
         <v>120</v>
       </c>
       <c r="E89" s="177" t="str">
         <f>VLOOKUP(A89,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F89" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="H89" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="I89" s="177" t="s">
-        <v>120</v>
-      </c>
+      <c r="F89" s="188"/>
+      <c r="G89" s="194"/>
+      <c r="H89" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="I89" s="194"/>
       <c r="J89" s="177">
         <f>VLOOKUP(A89,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K89" s="177">
-        <v>88</v>
-      </c>
-      <c r="L89" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="M89" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="N89" s="177"/>
-      <c r="O89" s="177" t="s">
-        <v>15</v>
+        <v>210</v>
+      </c>
+      <c r="L89" s="188"/>
+      <c r="M89" s="188"/>
+      <c r="N89" s="176"/>
+      <c r="O89" s="176" t="s">
+        <v>1664</v>
       </c>
       <c r="P89" s="177" t="s">
-        <v>724</v>
+        <v>1680</v>
       </c>
       <c r="Q89" s="176" t="s">
-        <v>726</v>
+        <v>1684</v>
       </c>
       <c r="R89" s="176" t="s">
-        <v>727</v>
-      </c>
-      <c r="S89" s="187"/>
+        <v>1685</v>
+      </c>
+      <c r="S89" s="176"/>
       <c r="T89" s="208">
-        <v>29.088050314465399</v>
-      </c>
-      <c r="U89" s="210" t="s">
-        <v>2838</v>
-      </c>
-      <c r="V89" s="210" t="s">
-        <v>2809</v>
-      </c>
+        <v>14.4307054535058</v>
+      </c>
+      <c r="W89" s="210"/>
       <c r="X89" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB89">
-        <v>2</v>
-      </c>
-      <c r="AD89">
         <v>1</v>
       </c>
     </row>
@@ -56815,7 +56777,7 @@
       <c r="I90" s="177"/>
       <c r="J90" s="177">
         <f>VLOOKUP(A90,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K90" s="177">
         <v>89</v>
@@ -56878,7 +56840,7 @@
       <c r="I91" s="177"/>
       <c r="J91" s="177">
         <f>VLOOKUP(A91,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K91" s="177">
         <v>90</v>
@@ -56931,7 +56893,7 @@
       <c r="I92" s="177"/>
       <c r="J92" s="177">
         <f>VLOOKUP(A92,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K92" s="177">
         <v>91</v>
@@ -56975,13 +56937,11 @@
     </row>
     <row r="93" spans="1:33" ht="15" customHeight="1">
       <c r="A93" s="177" t="s">
-        <v>742</v>
-      </c>
-      <c r="B93" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="182" t="s">
-        <v>120</v>
+        <v>2885</v>
+      </c>
+      <c r="B93" s="227"/>
+      <c r="C93" s="176" t="s">
+        <v>2869</v>
       </c>
       <c r="D93" s="177" t="s">
         <v>120</v>
@@ -57004,10 +56964,10 @@
       </c>
       <c r="J93" s="177">
         <f>VLOOKUP(A93,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K93" s="177">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="L93" s="188" t="s">
         <v>120</v>
@@ -57015,37 +56975,42 @@
       <c r="M93" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N93" s="177"/>
-      <c r="O93" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="P93" s="177" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q93" s="176" t="s">
-        <v>743</v>
-      </c>
-      <c r="R93" s="176" t="s">
-        <v>727</v>
-      </c>
-      <c r="S93" s="176"/>
+      <c r="N93" s="227"/>
+      <c r="O93" s="227"/>
+      <c r="P93" s="227"/>
+      <c r="Q93" s="227" t="s">
+        <v>2912</v>
+      </c>
+      <c r="R93" s="195" t="s">
+        <v>328</v>
+      </c>
+      <c r="S93" s="227"/>
       <c r="T93" s="208">
-        <v>27.930245854774199</v>
-      </c>
-      <c r="U93" s="210" t="s">
-        <v>2838</v>
-      </c>
-      <c r="V93" s="210" t="s">
-        <v>2809</v>
+        <v>14.944253859348199</v>
       </c>
       <c r="X93" s="212" t="s">
-        <v>2861</v>
+        <v>328</v>
+      </c>
+      <c r="Z93">
+        <v>1E-3</v>
+      </c>
+      <c r="AA93">
+        <v>46</v>
       </c>
       <c r="AB93">
         <v>2</v>
       </c>
       <c r="AD93">
         <v>1</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AG93">
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -57071,7 +57036,7 @@
       <c r="I94" s="177"/>
       <c r="J94" s="177">
         <f>VLOOKUP(A94,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K94" s="177">
         <v>93</v>
@@ -57134,7 +57099,7 @@
       <c r="I95" s="177"/>
       <c r="J95" s="177">
         <f>VLOOKUP(A95,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K95" s="177">
         <v>94</v>
@@ -57199,7 +57164,7 @@
       <c r="I96" s="177"/>
       <c r="J96" s="177">
         <f>VLOOKUP(A96,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K96" s="177">
         <v>95</v>
@@ -57266,7 +57231,7 @@
       </c>
       <c r="J97" s="177">
         <f>VLOOKUP(A97,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K97" s="177">
         <v>96</v>
@@ -57330,7 +57295,7 @@
       <c r="I98" s="177"/>
       <c r="J98" s="177">
         <f>VLOOKUP(A98,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K98" s="177">
         <v>97</v>
@@ -57372,14 +57337,10 @@
     </row>
     <row r="99" spans="1:33" ht="15" customHeight="1">
       <c r="A99" s="177" t="s">
-        <v>755</v>
-      </c>
-      <c r="B99" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="182" t="s">
-        <v>120</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="B99" s="227"/>
+      <c r="C99" s="227"/>
       <c r="D99" s="177" t="s">
         <v>120</v>
       </c>
@@ -57387,61 +57348,34 @@
         <f>VLOOKUP(A99,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F99" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" s="177" t="s">
-        <v>120</v>
-      </c>
+      <c r="F99" s="227"/>
+      <c r="G99" s="227"/>
       <c r="H99" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="I99" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="J99" s="177">
-        <f>VLOOKUP(A99,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>26</v>
+      <c r="I99" s="232" t="s">
+        <v>2284</v>
+      </c>
+      <c r="J99" s="268">
+        <v>11.5</v>
       </c>
       <c r="K99" s="177">
-        <v>98</v>
-      </c>
-      <c r="L99" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="M99" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="N99" s="177"/>
-      <c r="O99" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="P99" s="177" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q99" s="176" t="s">
-        <v>756</v>
-      </c>
-      <c r="R99" s="176" t="s">
-        <v>727</v>
-      </c>
-      <c r="S99" s="176"/>
-      <c r="T99" s="208">
-        <v>31.046312178387598</v>
-      </c>
-      <c r="U99" s="210" t="s">
-        <v>2838</v>
-      </c>
-      <c r="V99" s="210" t="s">
-        <v>2809</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="L99" s="227"/>
+      <c r="M99" s="227"/>
+      <c r="N99" s="227" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O99" s="227"/>
+      <c r="P99" s="227"/>
+      <c r="Q99" s="227"/>
+      <c r="R99" s="227"/>
+      <c r="S99" s="227"/>
       <c r="X99" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB99">
-        <v>2</v>
-      </c>
-      <c r="AD99">
         <v>1</v>
       </c>
     </row>
@@ -57468,7 +57402,7 @@
       <c r="I100" s="177"/>
       <c r="J100" s="177">
         <f>VLOOKUP(A100,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="K100" s="177">
         <v>99</v>
@@ -57539,7 +57473,7 @@
       </c>
       <c r="J101" s="177">
         <f>VLOOKUP(A101,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K101" s="177">
         <v>100</v>
@@ -57614,7 +57548,7 @@
       </c>
       <c r="J102" s="177">
         <f>VLOOKUP(A102,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K102" s="177">
         <v>101</v>
@@ -57689,7 +57623,7 @@
       </c>
       <c r="J103" s="177">
         <f>VLOOKUP(A103,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K103" s="177">
         <v>102</v>
@@ -57766,7 +57700,7 @@
       </c>
       <c r="J104" s="177">
         <f>VLOOKUP(A104,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="K104" s="177">
         <v>103</v>
@@ -57841,7 +57775,7 @@
       </c>
       <c r="J105" s="177">
         <f>VLOOKUP(A105,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K105" s="177">
         <v>104</v>
@@ -57913,7 +57847,7 @@
       </c>
       <c r="J106" s="177">
         <f>VLOOKUP(A106,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K106" s="177">
         <v>105</v>
@@ -57988,7 +57922,7 @@
       </c>
       <c r="J107" s="177">
         <f>VLOOKUP(A107,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K107" s="177">
         <v>106</v>
@@ -58052,7 +57986,7 @@
       <c r="I108" s="177"/>
       <c r="J108" s="177">
         <f>VLOOKUP(A108,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K108" s="177">
         <v>107</v>
@@ -58109,7 +58043,7 @@
       <c r="I109" s="177"/>
       <c r="J109" s="177">
         <f>VLOOKUP(A109,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K109" s="177">
         <v>108</v>
@@ -58166,7 +58100,7 @@
       <c r="I110" s="177"/>
       <c r="J110" s="177">
         <f>VLOOKUP(A110,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K110" s="177">
         <v>109</v>
@@ -58238,7 +58172,7 @@
       <c r="I111" s="177"/>
       <c r="J111" s="177">
         <f>VLOOKUP(A111,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K111" s="177">
         <v>110</v>
@@ -58372,7 +58306,7 @@
       </c>
       <c r="J113" s="177">
         <f>VLOOKUP(A113,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K113" s="177">
         <v>112</v>
@@ -58452,7 +58386,7 @@
       <c r="I114" s="177"/>
       <c r="J114" s="177">
         <f>VLOOKUP(A114,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K114" s="177">
         <v>113</v>
@@ -58585,7 +58519,7 @@
       <c r="I116" s="177"/>
       <c r="J116" s="177">
         <f>VLOOKUP(A116,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K116" s="177">
         <v>115</v>
@@ -58662,7 +58596,7 @@
       <c r="I117" s="177"/>
       <c r="J117" s="177">
         <f>VLOOKUP(A117,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K117" s="177">
         <v>116</v>
@@ -58727,7 +58661,7 @@
       <c r="I118" s="177"/>
       <c r="J118" s="177">
         <f>VLOOKUP(A118,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K118" s="177">
         <v>117</v>
@@ -58791,7 +58725,7 @@
       </c>
       <c r="J119" s="177">
         <f>VLOOKUP(A119,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K119" s="177">
         <v>118</v>
@@ -58932,7 +58866,7 @@
       </c>
       <c r="J121" s="177">
         <f>VLOOKUP(A121,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K121" s="177">
         <v>120</v>
@@ -58991,7 +58925,7 @@
       <c r="I122" s="177"/>
       <c r="J122" s="177">
         <f>VLOOKUP(A122,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K122" s="177">
         <v>121</v>
@@ -59133,7 +59067,7 @@
       <c r="I124" s="177"/>
       <c r="J124" s="177">
         <f>VLOOKUP(A124,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K124" s="177">
         <v>123</v>
@@ -59198,7 +59132,7 @@
       <c r="I125" s="177"/>
       <c r="J125" s="177">
         <f>VLOOKUP(A125,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K125" s="177">
         <v>124</v>
@@ -59260,7 +59194,7 @@
       </c>
       <c r="J126" s="177">
         <f>VLOOKUP(A126,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K126" s="177">
         <v>125</v>
@@ -59325,7 +59259,7 @@
       </c>
       <c r="J127" s="177">
         <f>VLOOKUP(A127,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K127" s="177">
         <v>126</v>
@@ -59390,7 +59324,7 @@
       </c>
       <c r="J128" s="177">
         <f>VLOOKUP(A128,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K128" s="177">
         <v>127</v>
@@ -59449,7 +59383,7 @@
       <c r="I129" s="177"/>
       <c r="J129" s="177">
         <f>VLOOKUP(A129,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K129" s="177">
         <v>128</v>
@@ -59511,7 +59445,7 @@
       <c r="I130" s="177"/>
       <c r="J130" s="177">
         <f>VLOOKUP(A130,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="K130" s="177">
         <v>129</v>
@@ -59557,17 +59491,17 @@
       <c r="D131" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="E131" s="177" t="e">
+      <c r="E131" s="177" t="str">
         <f>VLOOKUP(A131,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>no</v>
       </c>
       <c r="F131" s="188"/>
       <c r="G131" s="177"/>
       <c r="H131" s="177"/>
       <c r="I131" s="177"/>
-      <c r="J131" s="177" t="e">
+      <c r="J131" s="177">
         <f>VLOOKUP(A131,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>176</v>
       </c>
       <c r="K131" s="177">
         <v>130</v>
@@ -59629,7 +59563,7 @@
       <c r="I132" s="177"/>
       <c r="J132" s="177">
         <f>VLOOKUP(A132,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K132" s="177">
         <v>131</v>
@@ -59691,7 +59625,7 @@
       <c r="I133" s="177"/>
       <c r="J133" s="177">
         <f>VLOOKUP(A133,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="K133" s="177">
         <v>132</v>
@@ -59747,7 +59681,7 @@
       <c r="I134" s="177"/>
       <c r="J134" s="177">
         <f>VLOOKUP(A134,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K134" s="177">
         <v>133</v>
@@ -59802,17 +59736,17 @@
       <c r="D135" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="E135" s="177" t="e">
+      <c r="E135" s="177" t="str">
         <f>VLOOKUP(A135,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>no</v>
       </c>
       <c r="F135" s="188"/>
       <c r="G135" s="177"/>
       <c r="H135" s="177"/>
       <c r="I135" s="177"/>
-      <c r="J135" s="177" t="e">
+      <c r="J135" s="177">
         <f>VLOOKUP(A135,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>177</v>
       </c>
       <c r="K135" s="177">
         <v>134</v>
@@ -59874,7 +59808,7 @@
       <c r="I136" s="177"/>
       <c r="J136" s="177">
         <f>VLOOKUP(A136,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K136" s="177">
         <v>135</v>
@@ -59936,7 +59870,7 @@
       <c r="I137" s="177"/>
       <c r="J137" s="177">
         <f>VLOOKUP(A137,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K137" s="177">
         <v>136</v>
@@ -59995,7 +59929,7 @@
       <c r="I138" s="177"/>
       <c r="J138" s="177">
         <f>VLOOKUP(A138,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K138" s="177">
         <v>137</v>
@@ -60032,21 +59966,21 @@
       </c>
     </row>
     <row r="139" spans="1:33" ht="15" customHeight="1">
-      <c r="A139" s="193" t="s">
-        <v>913</v>
-      </c>
-      <c r="B139" s="193" t="s">
-        <v>120</v>
-      </c>
-      <c r="C139" s="187" t="s">
-        <v>120</v>
-      </c>
-      <c r="D139" s="177" t="s">
+      <c r="A139" s="199" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B139" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" s="176" t="s">
         <v>120</v>
       </c>
       <c r="E139" s="177" t="str">
         <f>VLOOKUP(A139,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="F139" s="188" t="s">
         <v>120</v>
@@ -60062,10 +59996,10 @@
       </c>
       <c r="J139" s="177">
         <f>VLOOKUP(A139,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="K139" s="177">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="L139" s="188" t="s">
         <v>120</v>
@@ -60073,57 +60007,46 @@
       <c r="M139" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N139" s="177" t="s">
-        <v>3107</v>
-      </c>
-      <c r="O139" s="177" t="s">
-        <v>20</v>
+      <c r="N139" s="176"/>
+      <c r="O139" s="176" t="s">
+        <v>1664</v>
       </c>
       <c r="P139" s="177" t="s">
-        <v>808</v>
+        <v>1715</v>
       </c>
       <c r="Q139" s="176" t="s">
-        <v>914</v>
-      </c>
-      <c r="R139" s="176" t="s">
-        <v>74</v>
-      </c>
-      <c r="S139" s="176"/>
+        <v>1717</v>
+      </c>
+      <c r="R139" s="195" t="s">
+        <v>328</v>
+      </c>
+      <c r="S139" s="176" t="s">
+        <v>1718</v>
+      </c>
       <c r="T139" s="208">
-        <v>83.919382504288194</v>
+        <v>17.824471126357899</v>
       </c>
       <c r="U139" s="210" t="s">
-        <v>2834</v>
-      </c>
-      <c r="V139" t="s">
-        <v>124</v>
-      </c>
+        <v>2817</v>
+      </c>
+      <c r="V139" s="210" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W139" s="210"/>
       <c r="X139" s="212" t="s">
         <v>328</v>
       </c>
       <c r="Y139" t="s">
-        <v>2845</v>
-      </c>
-      <c r="Z139" s="210">
-        <v>1E-3</v>
+        <v>2847</v>
+      </c>
+      <c r="Z139">
+        <v>100</v>
       </c>
       <c r="AA139">
-        <v>46</v>
+        <v>6000</v>
       </c>
       <c r="AB139">
-        <v>1</v>
-      </c>
-      <c r="AD139">
-        <v>1</v>
-      </c>
-      <c r="AE139" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF139" t="s">
-        <v>913</v>
-      </c>
-      <c r="AG139">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -60149,7 +60072,7 @@
       <c r="I140" s="177"/>
       <c r="J140" s="177">
         <f>VLOOKUP(A140,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K140" s="177">
         <v>139</v>
@@ -60190,14 +60113,12 @@
       </c>
     </row>
     <row r="141" spans="1:33" ht="15" customHeight="1">
-      <c r="A141" s="193" t="s">
-        <v>918</v>
-      </c>
-      <c r="B141" s="193" t="s">
-        <v>120</v>
-      </c>
-      <c r="C141" s="187" t="s">
-        <v>120</v>
+      <c r="A141" s="177" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B141" s="227"/>
+      <c r="C141" s="176" t="s">
+        <v>2869</v>
       </c>
       <c r="D141" s="177" t="s">
         <v>120</v>
@@ -60207,11 +60128,9 @@
         <v>yes</v>
       </c>
       <c r="F141" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="G141" s="177" t="s">
-        <v>120</v>
-      </c>
+        <v>2284</v>
+      </c>
+      <c r="G141" s="227"/>
       <c r="H141" s="177" t="s">
         <v>120</v>
       </c>
@@ -60220,54 +60139,32 @@
       </c>
       <c r="J141" s="177">
         <f>VLOOKUP(A141,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K141" s="177">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="L141" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="M141" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="N141" s="177" t="s">
-        <v>3108</v>
-      </c>
-      <c r="O141" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="P141" s="177" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q141" s="176" t="s">
-        <v>919</v>
-      </c>
-      <c r="R141" s="176" t="s">
-        <v>94</v>
-      </c>
-      <c r="S141" s="176" t="s">
-        <v>920</v>
-      </c>
+        <v>2284</v>
+      </c>
+      <c r="M141" s="188"/>
+      <c r="N141" s="232" t="s">
+        <v>3115</v>
+      </c>
+      <c r="O141" s="227"/>
+      <c r="P141" s="227"/>
+      <c r="Q141" s="227" t="s">
+        <v>2925</v>
+      </c>
+      <c r="R141" s="227"/>
+      <c r="S141" s="227"/>
       <c r="T141" s="208">
-        <v>12.5571755288736</v>
-      </c>
-      <c r="U141" s="228" t="s">
-        <v>2802</v>
-      </c>
-      <c r="V141" t="s">
-        <v>124</v>
-      </c>
-      <c r="W141" s="210" t="s">
-        <v>2827</v>
+        <v>18.138936535162902</v>
       </c>
       <c r="X141" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB141">
-        <v>2</v>
-      </c>
-      <c r="AD141">
         <v>1</v>
       </c>
     </row>
@@ -60294,7 +60191,7 @@
       <c r="I142" s="177"/>
       <c r="J142" s="177">
         <f>VLOOKUP(A142,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K142" s="177">
         <v>141</v>
@@ -60349,7 +60246,7 @@
       <c r="I143" s="177"/>
       <c r="J143" s="177">
         <f>VLOOKUP(A143,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K143" s="177">
         <v>142</v>
@@ -60459,7 +60356,7 @@
       <c r="I145" s="177"/>
       <c r="J145" s="177">
         <f>VLOOKUP(A145,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K145" s="177">
         <v>144</v>
@@ -60575,7 +60472,7 @@
       <c r="I147" s="177"/>
       <c r="J147" s="177">
         <f>VLOOKUP(A147,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K147" s="177">
         <v>146</v>
@@ -60691,7 +60588,7 @@
       <c r="I149" s="177"/>
       <c r="J149" s="177">
         <f>VLOOKUP(A149,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K149" s="177">
         <v>148</v>
@@ -60753,7 +60650,7 @@
       <c r="I150" s="177"/>
       <c r="J150" s="177">
         <f>VLOOKUP(A150,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="K150" s="177">
         <v>149</v>
@@ -60815,7 +60712,7 @@
       <c r="I151" s="177"/>
       <c r="J151" s="177">
         <f>VLOOKUP(A151,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K151" s="177">
         <v>150</v>
@@ -60925,7 +60822,7 @@
       <c r="I153" s="177"/>
       <c r="J153" s="177">
         <f>VLOOKUP(A153,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K153" s="177">
         <v>152</v>
@@ -61041,7 +60938,7 @@
       <c r="I155" s="177"/>
       <c r="J155" s="177">
         <f>VLOOKUP(A155,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K155" s="177">
         <v>154</v>
@@ -61157,7 +61054,7 @@
       <c r="I157" s="177"/>
       <c r="J157" s="177">
         <f>VLOOKUP(A157,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K157" s="177">
         <v>156</v>
@@ -61296,11 +61193,11 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="15" hidden="1" customHeight="1">
-      <c r="A160" s="199" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B160" s="199" t="s">
+    <row r="160" spans="1:28" ht="15" customHeight="1">
+      <c r="A160" s="177" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B160" s="194" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="194" t="s">
@@ -61314,43 +61211,58 @@
         <v>yes</v>
       </c>
       <c r="F160" s="188"/>
-      <c r="G160" s="224" t="s">
-        <v>120</v>
-      </c>
-      <c r="H160" s="224" t="s">
-        <v>2284</v>
-      </c>
-      <c r="I160" s="224" t="s">
+      <c r="G160" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H160" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="I160" s="177" t="s">
         <v>120</v>
       </c>
       <c r="J160" s="177">
         <f>VLOOKUP(A160,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K160" s="177">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="L160" s="188"/>
       <c r="M160" s="188"/>
       <c r="N160" s="176"/>
       <c r="O160" s="176" t="s">
-        <v>1160</v>
+        <v>1664</v>
       </c>
       <c r="P160" s="177" t="s">
-        <v>1643</v>
-      </c>
-      <c r="Q160" s="176" t="s">
-        <v>1657</v>
-      </c>
-      <c r="R160" s="176" t="s">
-        <v>1656</v>
+        <v>1769</v>
+      </c>
+      <c r="Q160" s="195" t="s">
+        <v>1771</v>
+      </c>
+      <c r="R160" s="195" t="s">
+        <v>1772</v>
       </c>
       <c r="S160" s="176"/>
       <c r="T160" s="208">
-        <v>7.3189907797870104</v>
+        <v>21.442355800157198</v>
+      </c>
+      <c r="U160" s="210" t="s">
+        <v>2813</v>
+      </c>
+      <c r="V160" s="210" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W160" s="210" t="s">
+        <v>2813</v>
       </c>
       <c r="X160" s="212" t="s">
-        <v>2861</v>
+        <v>328</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>2844</v>
+      </c>
+      <c r="Z160" s="210" t="s">
+        <v>2865</v>
       </c>
       <c r="AB160">
         <v>2</v>
@@ -62174,7 +62086,7 @@
       </c>
     </row>
     <row r="175" spans="1:33" ht="15" hidden="1" customHeight="1">
-      <c r="A175" s="267" t="s">
+      <c r="A175" s="266" t="s">
         <v>1508</v>
       </c>
       <c r="B175" s="207" t="s">
@@ -64052,23 +63964,25 @@
       <c r="X202" s="212"/>
     </row>
     <row r="203" spans="1:33" ht="15" customHeight="1">
-      <c r="A203" s="199" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B203" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="C203" s="194" t="s">
+      <c r="A203" s="177" t="s">
+        <v>742</v>
+      </c>
+      <c r="B203" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="C203" s="182" t="s">
         <v>120</v>
       </c>
       <c r="D203" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="E203" s="177" t="e">
+      <c r="E203" s="177" t="str">
         <f>VLOOKUP(A203,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F203" s="188"/>
+        <v>yes</v>
+      </c>
+      <c r="F203" s="188" t="s">
+        <v>120</v>
+      </c>
       <c r="G203" s="177" t="s">
         <v>120</v>
       </c>
@@ -64079,35 +63993,49 @@
         <v>120</v>
       </c>
       <c r="J203" s="177">
-        <v>-1</v>
+        <f>VLOOKUP(A203,Outflux!$A$1:$D$190,4,FALSE)</f>
+        <v>16</v>
       </c>
       <c r="K203" s="177">
-        <v>202</v>
-      </c>
-      <c r="L203" s="188"/>
+        <v>92</v>
+      </c>
+      <c r="L203" s="188" t="s">
+        <v>120</v>
+      </c>
       <c r="M203" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N203" s="176"/>
-      <c r="O203" s="176" t="s">
-        <v>1664</v>
+      <c r="N203" s="177"/>
+      <c r="O203" s="177" t="s">
+        <v>15</v>
       </c>
       <c r="P203" s="177" t="s">
-        <v>122</v>
+        <v>724</v>
       </c>
       <c r="Q203" s="176" t="s">
-        <v>1670</v>
+        <v>743</v>
       </c>
       <c r="R203" s="176" t="s">
-        <v>130</v>
+        <v>727</v>
       </c>
       <c r="S203" s="176"/>
       <c r="T203" s="208">
-        <v>0</v>
-      </c>
-      <c r="W203" s="210"/>
+        <v>27.930245854774199</v>
+      </c>
+      <c r="U203" s="210" t="s">
+        <v>2838</v>
+      </c>
+      <c r="V203" s="210" t="s">
+        <v>2809</v>
+      </c>
       <c r="X203" s="210" t="s">
-        <v>2864</v>
+        <v>2861</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
+      </c>
+      <c r="AD203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -64537,53 +64465,66 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:33" ht="15" hidden="1" customHeight="1">
-      <c r="A211" s="199" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B211" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="C211" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="D211" s="194"/>
-      <c r="E211" s="177" t="e">
+    <row r="211" spans="1:33" ht="15" customHeight="1">
+      <c r="A211" s="177" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B211" s="227"/>
+      <c r="C211" s="176" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D211" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="E211" s="177" t="str">
         <f>VLOOKUP(A211,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F211" s="188"/>
-      <c r="G211" s="194"/>
-      <c r="H211" s="194"/>
-      <c r="I211" s="194"/>
-      <c r="J211" s="177" t="e">
+        <v>yes</v>
+      </c>
+      <c r="F211" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="G211" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H211" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="I211" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="J211" s="177">
         <f>VLOOKUP(A211,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="K211" s="177">
-        <v>210</v>
-      </c>
-      <c r="L211" s="188"/>
-      <c r="M211" s="188"/>
-      <c r="N211" s="176"/>
-      <c r="O211" s="176" t="s">
-        <v>1664</v>
-      </c>
-      <c r="P211" s="177" t="s">
-        <v>1680</v>
-      </c>
-      <c r="Q211" s="176" t="s">
-        <v>1684</v>
-      </c>
-      <c r="R211" s="176" t="s">
-        <v>1685</v>
-      </c>
-      <c r="S211" s="176"/>
+        <v>260</v>
+      </c>
+      <c r="L211" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="M211" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="N211" s="227"/>
+      <c r="O211" s="227"/>
+      <c r="P211" s="227"/>
+      <c r="Q211" s="227" t="s">
+        <v>2924</v>
+      </c>
+      <c r="R211" s="227"/>
+      <c r="S211" s="227"/>
       <c r="T211" s="208">
-        <v>14.4307054535058</v>
-      </c>
-      <c r="W211" s="210"/>
-      <c r="X211" s="210"/>
+        <v>27.394225271583799</v>
+      </c>
+      <c r="X211" s="210" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AB211">
+        <v>2</v>
+      </c>
+      <c r="AD211">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="197" t="s">
@@ -64778,16 +64719,16 @@
       <c r="X214" s="210"/>
     </row>
     <row r="215" spans="1:33" ht="15" customHeight="1">
-      <c r="A215" s="199" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B215" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="C215" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="D215" s="176" t="s">
+      <c r="A215" s="177" t="s">
+        <v>725</v>
+      </c>
+      <c r="B215" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" s="182" t="s">
+        <v>120</v>
+      </c>
+      <c r="D215" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E215" s="177" t="str">
@@ -64808,10 +64749,10 @@
       </c>
       <c r="J215" s="177">
         <f>VLOOKUP(A215,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K215" s="177">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="L215" s="188" t="s">
         <v>120</v>
@@ -64819,46 +64760,37 @@
       <c r="M215" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N215" s="176"/>
-      <c r="O215" s="176" t="s">
-        <v>1664</v>
+      <c r="N215" s="177"/>
+      <c r="O215" s="177" t="s">
+        <v>15</v>
       </c>
       <c r="P215" s="177" t="s">
-        <v>1715</v>
+        <v>724</v>
       </c>
       <c r="Q215" s="176" t="s">
-        <v>1717</v>
-      </c>
-      <c r="R215" s="195" t="s">
-        <v>328</v>
-      </c>
-      <c r="S215" s="176" t="s">
-        <v>1718</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="R215" s="176" t="s">
+        <v>727</v>
+      </c>
+      <c r="S215" s="187"/>
       <c r="T215" s="208">
-        <v>17.824471126357899</v>
+        <v>29.088050314465399</v>
       </c>
       <c r="U215" s="210" t="s">
-        <v>2817</v>
+        <v>2838</v>
       </c>
       <c r="V215" s="210" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W215" s="210"/>
+        <v>2809</v>
+      </c>
       <c r="X215" s="210" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y215" t="s">
-        <v>2847</v>
-      </c>
-      <c r="Z215">
-        <v>100</v>
-      </c>
-      <c r="AA215">
-        <v>6000</v>
+        <v>2861</v>
       </c>
       <c r="AB215">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -64924,7 +64856,7 @@
     </row>
     <row r="217" spans="1:33" ht="15" customHeight="1">
       <c r="A217" s="199" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="B217" s="194" t="s">
         <v>120</v>
@@ -64942,52 +64874,56 @@
       <c r="F217" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="G217" s="177"/>
-      <c r="H217" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="I217" s="177" t="s">
+      <c r="G217" s="176"/>
+      <c r="H217" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="I217" s="176" t="s">
         <v>120</v>
       </c>
       <c r="J217" s="177">
         <f>VLOOKUP(A217,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K217" s="177">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L217" s="188" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="M217" s="188"/>
       <c r="N217" s="176" t="s">
-        <v>3168</v>
+        <v>3109</v>
       </c>
       <c r="O217" s="176" t="s">
         <v>1664</v>
       </c>
       <c r="P217" s="177" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="Q217" s="195" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="R217" s="195" t="s">
-        <v>249</v>
-      </c>
-      <c r="S217" s="176"/>
+        <v>1738</v>
+      </c>
+      <c r="S217" s="187" t="s">
+        <v>1739</v>
+      </c>
       <c r="T217" s="208">
-        <v>45.890508862207</v>
+        <v>45.175814751286403</v>
       </c>
       <c r="U217" s="210" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="V217" s="210" t="s">
         <v>1667</v>
       </c>
-      <c r="W217" s="210"/>
+      <c r="W217" s="210" t="s">
+        <v>2813</v>
+      </c>
       <c r="X217" s="212" t="s">
-        <v>2861</v>
+        <v>322</v>
       </c>
       <c r="AB217">
         <v>2</v>
@@ -65020,8 +64956,8 @@
       <c r="I218" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="J218" s="270" t="s">
-        <v>3191</v>
+      <c r="J218" s="268">
+        <v>37.5</v>
       </c>
       <c r="K218" s="177">
         <v>218</v>
@@ -65057,77 +64993,74 @@
       <c r="X218" s="212" t="s">
         <v>2861</v>
       </c>
+      <c r="AB218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:33" ht="15" customHeight="1">
-      <c r="A219" s="199" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B219" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="C219" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="D219" s="176" t="s">
+      <c r="A219" s="192" t="s">
+        <v>309</v>
+      </c>
+      <c r="B219" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="C219" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="D219" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E219" s="177" t="str">
         <f>VLOOKUP(A219,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F219" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="G219" s="176"/>
-      <c r="H219" s="176" t="s">
-        <v>120</v>
-      </c>
-      <c r="I219" s="176" t="s">
+      <c r="F219" s="188"/>
+      <c r="G219" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H219" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="I219" s="177" t="s">
         <v>120</v>
       </c>
       <c r="J219" s="177">
         <f>VLOOKUP(A219,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K219" s="177">
-        <v>217</v>
-      </c>
-      <c r="L219" s="188" t="s">
-        <v>2284</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L219" s="188"/>
       <c r="M219" s="188"/>
-      <c r="N219" s="176" t="s">
-        <v>3109</v>
-      </c>
-      <c r="O219" s="176" t="s">
-        <v>1664</v>
+      <c r="N219" s="177"/>
+      <c r="O219" s="177" t="s">
+        <v>1155</v>
       </c>
       <c r="P219" s="177" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q219" s="195" t="s">
-        <v>1737</v>
-      </c>
-      <c r="R219" s="195" t="s">
-        <v>1738</v>
-      </c>
-      <c r="S219" s="187" t="s">
-        <v>1739</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="Q219" s="184" t="s">
+        <v>310</v>
+      </c>
+      <c r="R219" s="180" t="s">
+        <v>311</v>
+      </c>
+      <c r="S219" s="176"/>
       <c r="T219" s="208">
-        <v>45.175814751286403</v>
-      </c>
-      <c r="U219" s="210" t="s">
-        <v>2813</v>
+        <v>23.629476091773299</v>
+      </c>
+      <c r="U219" t="s">
+        <v>2810</v>
       </c>
       <c r="V219" s="210" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W219" s="210" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="X219" s="212" t="s">
-        <v>322</v>
+        <v>2861</v>
+      </c>
+      <c r="AB219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -65456,12 +65389,12 @@
     </row>
     <row r="226" spans="1:33" ht="15" customHeight="1">
       <c r="A226" s="177" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B226" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="C226" s="194" t="s">
+        <v>755</v>
+      </c>
+      <c r="B226" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="C226" s="182" t="s">
         <v>120</v>
       </c>
       <c r="D226" s="177" t="s">
@@ -65471,7 +65404,9 @@
         <f>VLOOKUP(A226,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F226" s="188"/>
+      <c r="F226" s="188" t="s">
+        <v>120</v>
+      </c>
       <c r="G226" s="177" t="s">
         <v>120</v>
       </c>
@@ -65483,50 +65418,48 @@
       </c>
       <c r="J226" s="177">
         <f>VLOOKUP(A226,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K226" s="177">
-        <v>225</v>
-      </c>
-      <c r="L226" s="188"/>
-      <c r="M226" s="188"/>
-      <c r="N226" s="176"/>
-      <c r="O226" s="176" t="s">
-        <v>1664</v>
+        <v>98</v>
+      </c>
+      <c r="L226" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="M226" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="N226" s="177"/>
+      <c r="O226" s="177" t="s">
+        <v>15</v>
       </c>
       <c r="P226" s="177" t="s">
-        <v>1769</v>
-      </c>
-      <c r="Q226" s="195" t="s">
-        <v>1771</v>
-      </c>
-      <c r="R226" s="195" t="s">
-        <v>1772</v>
+        <v>724</v>
+      </c>
+      <c r="Q226" s="176" t="s">
+        <v>756</v>
+      </c>
+      <c r="R226" s="176" t="s">
+        <v>727</v>
       </c>
       <c r="S226" s="176"/>
       <c r="T226" s="208">
-        <v>21.442355800157198</v>
+        <v>31.046312178387598</v>
       </c>
       <c r="U226" s="240" t="s">
-        <v>2813</v>
+        <v>2838</v>
       </c>
       <c r="V226" s="210" t="s">
-        <v>1667</v>
-      </c>
-      <c r="W226" s="210" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="X226" s="210" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>2844</v>
-      </c>
-      <c r="Z226" s="210" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="AB226">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -65552,7 +65485,7 @@
       <c r="I227" s="176"/>
       <c r="J227" s="177">
         <f>VLOOKUP(A227,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K227" s="177">
         <v>226</v>
@@ -65620,7 +65553,7 @@
       <c r="I228" s="176"/>
       <c r="J228" s="177">
         <f>VLOOKUP(A228,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K228" s="177">
         <v>227</v>
@@ -66105,10 +66038,13 @@
     </row>
     <row r="237" spans="1:33" ht="15" customHeight="1">
       <c r="A237" s="221" t="s">
-        <v>2884</v>
+        <v>482</v>
+      </c>
+      <c r="B237" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="C237" s="218" t="s">
-        <v>2869</v>
+        <v>120</v>
       </c>
       <c r="D237" s="177" t="s">
         <v>120</v>
@@ -66117,9 +66053,7 @@
         <f>VLOOKUP(A237,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>yes</v>
       </c>
-      <c r="F237" s="188" t="s">
-        <v>120</v>
-      </c>
+      <c r="F237" s="188"/>
       <c r="G237" s="229" t="s">
         <v>120</v>
       </c>
@@ -66131,32 +66065,38 @@
       </c>
       <c r="J237" s="177">
         <f>VLOOKUP(A237,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K237" s="177">
-        <v>237</v>
-      </c>
-      <c r="L237" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="M237" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="N237" s="83"/>
-      <c r="Q237" s="239" t="s">
-        <v>2914</v>
-      </c>
-      <c r="R237" s="266" t="s">
-        <v>3175</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L237" s="188"/>
+      <c r="M237" s="188"/>
+      <c r="N237" s="262"/>
+      <c r="O237" s="229" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P237" s="275" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q237" s="281" t="s">
+        <v>483</v>
+      </c>
+      <c r="R237" s="218" t="s">
+        <v>349</v>
+      </c>
+      <c r="S237" s="228"/>
       <c r="T237" s="208">
-        <v>11.270726129216699</v>
+        <v>25.959545422057001</v>
+      </c>
+      <c r="V237" s="213" t="s">
+        <v>2824</v>
       </c>
       <c r="X237" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -66233,7 +66173,7 @@
       </c>
       <c r="J239" s="177">
         <f>VLOOKUP(A239,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K239" s="177">
         <v>239</v>
@@ -66272,7 +66212,7 @@
     </row>
     <row r="240" spans="1:33" ht="15" customHeight="1">
       <c r="A240" s="221" t="s">
-        <v>2885</v>
+        <v>2876</v>
       </c>
       <c r="C240" s="218" t="s">
         <v>2869</v>
@@ -66298,10 +66238,10 @@
       </c>
       <c r="J240" s="177">
         <f>VLOOKUP(A240,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K240" s="177">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="L240" s="188" t="s">
         <v>120</v>
@@ -66310,37 +66250,20 @@
         <v>120</v>
       </c>
       <c r="Q240" t="s">
-        <v>2912</v>
-      </c>
-      <c r="R240" s="266" t="s">
-        <v>328</v>
-      </c>
+        <v>2923</v>
+      </c>
+      <c r="R240" s="274"/>
       <c r="T240" s="208">
-        <v>14.944253859348199</v>
+        <v>33.8979416809605</v>
       </c>
       <c r="X240" s="212" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z240">
-        <v>1E-3</v>
-      </c>
-      <c r="AA240">
-        <v>46</v>
+        <v>2861</v>
       </c>
       <c r="AB240">
         <v>2</v>
       </c>
       <c r="AD240">
         <v>1</v>
-      </c>
-      <c r="AE240" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF240" t="s">
-        <v>2885</v>
-      </c>
-      <c r="AG240">
-        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -66391,7 +66314,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="242" spans="1:33" ht="15" customHeight="1">
+    <row r="242" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A242" s="221" t="s">
         <v>2887</v>
       </c>
@@ -66399,26 +66322,27 @@
         <v>2869</v>
       </c>
       <c r="D242" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="E242" s="177" t="str">
+        <v>2284</v>
+      </c>
+      <c r="E242" s="177" t="e">
         <f>VLOOKUP(A242,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F242" s="188" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="G242" s="210" t="s">
         <v>120</v>
       </c>
       <c r="H242" s="210" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="I242" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="J242" s="177">
-        <v>11</v>
+      <c r="J242" s="177" t="e">
+        <f>VLOOKUP(A242,Outflux!$A$1:$D$190,4,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="K242" s="177">
         <v>243</v>
@@ -66445,7 +66369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:33" ht="15" customHeight="1">
+    <row r="243" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A243" s="221" t="s">
         <v>2881</v>
       </c>
@@ -66453,11 +66377,11 @@
         <v>2869</v>
       </c>
       <c r="D243" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="E243" s="177" t="str">
+        <v>2284</v>
+      </c>
+      <c r="E243" s="177" t="e">
         <f>VLOOKUP(A243,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F243" s="188" t="s">
         <v>2284</v>
@@ -66466,13 +66390,13 @@
         <v>120</v>
       </c>
       <c r="H243" s="229" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="I243" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="J243" s="270" t="s">
-        <v>3192</v>
+        <v>2284</v>
+      </c>
+      <c r="J243" s="268" t="s">
+        <v>3191</v>
       </c>
       <c r="K243" s="177">
         <v>244</v>
@@ -66496,7 +66420,7 @@
         <v>2861</v>
       </c>
       <c r="AB243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -66525,7 +66449,7 @@
       </c>
       <c r="J244" s="177">
         <f>VLOOKUP(A244,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K244" s="177">
         <v>245</v>
@@ -66563,37 +66487,40 @@
       </c>
     </row>
     <row r="245" spans="1:33" ht="15" customHeight="1">
-      <c r="A245" s="221" t="s">
-        <v>2882</v>
+      <c r="A245" s="278" t="s">
+        <v>562</v>
+      </c>
+      <c r="B245" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="C245" s="218" t="s">
-        <v>2869</v>
+        <v>120</v>
       </c>
       <c r="D245" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E245" s="177" t="str">
         <f>VLOOKUP(A245,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="F245" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="G245" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="H245" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="I245" s="212" t="s">
+      <c r="G245" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="H245" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="I245" s="223" t="s">
         <v>120</v>
       </c>
       <c r="J245" s="177">
         <f>VLOOKUP(A245,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="K245" s="177">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="L245" s="188" t="s">
         <v>120</v>
@@ -66601,20 +66528,31 @@
       <c r="M245" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N245" s="83" t="s">
-        <v>3172</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>2906</v>
-      </c>
-      <c r="R245" s="268" t="s">
-        <v>3190</v>
-      </c>
+      <c r="N245" s="262"/>
+      <c r="O245" s="229" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P245" s="275" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q245" s="280" t="s">
+        <v>563</v>
+      </c>
+      <c r="R245" s="222" t="s">
+        <v>564</v>
+      </c>
+      <c r="S245" s="279"/>
       <c r="T245" s="208">
-        <v>66.938250428816502</v>
+        <v>35.127215551743902</v>
+      </c>
+      <c r="U245" s="210" t="s">
+        <v>2820</v>
+      </c>
+      <c r="V245" s="210" t="s">
+        <v>2809</v>
       </c>
       <c r="X245" s="212" t="s">
-        <v>322</v>
+        <v>2861</v>
       </c>
       <c r="AB245">
         <v>2</v>
@@ -66622,19 +66560,22 @@
     </row>
     <row r="246" spans="1:33" ht="15" customHeight="1">
       <c r="A246" s="221" t="s">
-        <v>2896</v>
+        <v>167</v>
+      </c>
+      <c r="B246" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="C246" s="218" t="s">
-        <v>2869</v>
+        <v>120</v>
       </c>
       <c r="D246" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E246" s="177" t="str">
         <f>VLOOKUP(A246,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="F246" s="188" t="s">
+        <v>yes</v>
+      </c>
+      <c r="F246" s="177" t="s">
         <v>120</v>
       </c>
       <c r="G246" s="229" t="s">
@@ -66648,28 +66589,56 @@
       </c>
       <c r="J246" s="177">
         <f>VLOOKUP(A246,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="K246" s="177">
-        <v>247</v>
-      </c>
-      <c r="L246" s="188" t="s">
+        <v>10</v>
+      </c>
+      <c r="L246" s="177" t="s">
         <v>120</v>
       </c>
       <c r="M246" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="Q246" t="s">
-        <v>2907</v>
+      <c r="N246" s="229"/>
+      <c r="O246" s="229" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P246" s="229" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q246" s="228" t="s">
+        <v>168</v>
+      </c>
+      <c r="R246" s="228" t="s">
+        <v>169</v>
+      </c>
+      <c r="S246" s="228" t="s">
+        <v>170</v>
       </c>
       <c r="T246" s="208">
-        <v>54.638364779874202</v>
+        <v>39.608347627215601</v>
+      </c>
+      <c r="U246" s="228" t="s">
+        <v>2806</v>
+      </c>
+      <c r="V246" s="210" t="s">
+        <v>2809</v>
       </c>
       <c r="X246" s="212" t="s">
-        <v>2861</v>
+        <v>328</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>2842</v>
+      </c>
+      <c r="Z246">
+        <v>10</v>
+      </c>
+      <c r="AA246">
+        <v>55</v>
       </c>
       <c r="AB246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -66700,7 +66669,7 @@
       </c>
       <c r="J247" s="177">
         <f>VLOOKUP(A247,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K247" s="177">
         <v>248</v>
@@ -66754,7 +66723,7 @@
       </c>
       <c r="J248" s="177">
         <f>VLOOKUP(A248,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K248" s="177">
         <v>249</v>
@@ -66801,7 +66770,7 @@
       </c>
       <c r="J249" s="177">
         <f>VLOOKUP(A249,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K249" s="177">
         <v>250</v>
@@ -66848,7 +66817,7 @@
       </c>
       <c r="J250" s="177">
         <f>VLOOKUP(A250,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K250" s="177">
         <v>251</v>
@@ -66895,7 +66864,7 @@
       </c>
       <c r="J251" s="177">
         <f>VLOOKUP(A251,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K251" s="177">
         <v>252</v>
@@ -66945,7 +66914,7 @@
       </c>
       <c r="J252" s="177">
         <f>VLOOKUP(A252,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K252" s="177">
         <v>253</v>
@@ -66975,21 +66944,22 @@
     </row>
     <row r="253" spans="1:33" ht="15" customHeight="1">
       <c r="A253" s="221" t="s">
-        <v>2902</v>
+        <v>361</v>
+      </c>
+      <c r="B253" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="C253" s="218" t="s">
-        <v>2869</v>
+        <v>120</v>
       </c>
       <c r="D253" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E253" s="177" t="str">
         <f>VLOOKUP(A253,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="F253" s="188" t="s">
-        <v>120</v>
-      </c>
+        <v>yes</v>
+      </c>
+      <c r="F253" s="188"/>
       <c r="G253" s="177" t="s">
         <v>120</v>
       </c>
@@ -67001,28 +66971,38 @@
       </c>
       <c r="J253" s="177">
         <f>VLOOKUP(A253,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K253" s="177">
-        <v>254</v>
-      </c>
-      <c r="L253" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="M253" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="N253" t="s">
-        <v>3112</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>2918</v>
+        <v>25</v>
+      </c>
+      <c r="L253" s="188"/>
+      <c r="M253" s="188"/>
+      <c r="N253" s="229"/>
+      <c r="O253" s="229" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P253" s="229" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q253" s="228" t="s">
+        <v>362</v>
+      </c>
+      <c r="R253" s="228" t="s">
+        <v>363</v>
+      </c>
+      <c r="S253" s="228" t="s">
+        <v>364</v>
       </c>
       <c r="T253" s="208">
-        <v>93.532018296169198</v>
-      </c>
+        <v>9.7062397255378396</v>
+      </c>
+      <c r="V253" s="210"/>
       <c r="X253" s="212" t="s">
-        <v>2861</v>
+        <v>328</v>
+      </c>
+      <c r="Z253">
+        <v>1</v>
       </c>
       <c r="AB253">
         <v>1</v>
@@ -67030,7 +67010,7 @@
     </row>
     <row r="254" spans="1:33" ht="15" customHeight="1">
       <c r="A254" s="221" t="s">
-        <v>2889</v>
+        <v>2904</v>
       </c>
       <c r="C254" s="218" t="s">
         <v>2869</v>
@@ -67056,31 +67036,29 @@
       </c>
       <c r="J254" s="177">
         <f>VLOOKUP(A254,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K254" s="177">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="L254" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="M254" s="177" t="s">
-        <v>120</v>
-      </c>
+        <v>2284</v>
+      </c>
+      <c r="M254" s="188"/>
       <c r="N254" s="210" t="s">
-        <v>3113</v>
-      </c>
-      <c r="Q254" t="s">
-        <v>2919</v>
+        <v>3116</v>
+      </c>
+      <c r="Q254" s="210" t="s">
+        <v>3164</v>
       </c>
       <c r="T254" s="208">
-        <v>48.1132075471698</v>
+        <v>41.616638078902199</v>
       </c>
       <c r="X254" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -67111,7 +67089,7 @@
       </c>
       <c r="J255" s="177">
         <f>VLOOKUP(A255,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K255" s="177">
         <v>256</v>
@@ -67140,25 +67118,26 @@
       </c>
     </row>
     <row r="256" spans="1:33" ht="15" customHeight="1">
-      <c r="A256" s="221" t="s">
-        <v>2870</v>
-      </c>
-      <c r="C256" s="218" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D256" s="177" t="s">
+      <c r="A256" s="270" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B256" s="272" t="s">
+        <v>120</v>
+      </c>
+      <c r="C256" s="273" t="s">
+        <v>120</v>
+      </c>
+      <c r="D256" s="176" t="s">
         <v>120</v>
       </c>
       <c r="E256" s="177" t="str">
         <f>VLOOKUP(A256,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="F256" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="G256" s="177" t="s">
-        <v>120</v>
-      </c>
+      <c r="G256" s="177"/>
       <c r="H256" s="223" t="s">
         <v>120</v>
       </c>
@@ -67167,28 +67146,43 @@
       </c>
       <c r="J256" s="177">
         <f>VLOOKUP(A256,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K256" s="177">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="L256" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="M256" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="N256" t="s">
-        <v>3108</v>
-      </c>
-      <c r="Q256" t="s">
-        <v>2871</v>
-      </c>
+      <c r="M256" s="188"/>
+      <c r="N256" s="228" t="s">
+        <v>3168</v>
+      </c>
+      <c r="O256" s="228" t="s">
+        <v>1664</v>
+      </c>
+      <c r="P256" s="229" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Q256" s="276" t="s">
+        <v>1732</v>
+      </c>
+      <c r="R256" s="276" t="s">
+        <v>249</v>
+      </c>
+      <c r="S256" s="228"/>
       <c r="T256" s="208">
-        <v>53.6878216123499</v>
-      </c>
+        <v>45.890508862207</v>
+      </c>
+      <c r="U256" s="210" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V256" s="210" t="s">
+        <v>1667</v>
+      </c>
+      <c r="W256" s="210"/>
       <c r="X256" s="212" t="s">
-        <v>322</v>
+        <v>2861</v>
       </c>
       <c r="AB256">
         <v>2</v>
@@ -67249,9 +67243,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="258" spans="1:33" ht="15" customHeight="1">
       <c r="A258" s="223" t="s">
-        <v>2890</v>
+        <v>2896</v>
       </c>
       <c r="C258" s="222" t="s">
         <v>2869</v>
@@ -67264,42 +67258,46 @@
         <v>no</v>
       </c>
       <c r="F258" s="188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="G258" s="232"/>
-      <c r="H258" s="212" t="s">
-        <v>2284</v>
-      </c>
-      <c r="I258" s="212" t="s">
-        <v>2284</v>
+        <v>120</v>
+      </c>
+      <c r="G258" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="H258" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="I258" s="223" t="s">
+        <v>120</v>
       </c>
       <c r="J258" s="177">
         <f>VLOOKUP(A258,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K258" s="177">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L258" s="188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="M258" s="262"/>
-      <c r="N258" s="210" t="s">
-        <v>3114</v>
+        <v>120</v>
+      </c>
+      <c r="M258" s="223" t="s">
+        <v>120</v>
       </c>
       <c r="Q258" t="s">
-        <v>2928</v>
+        <v>2907</v>
       </c>
       <c r="T258" s="208">
-        <v>53.7449971412236</v>
+        <v>54.638364779874202</v>
       </c>
       <c r="X258" s="212" t="s">
         <v>2861</v>
       </c>
+      <c r="AB258">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" spans="1:33" ht="15" customHeight="1">
       <c r="A259" s="221" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="C259" s="218" t="s">
         <v>2869</v>
@@ -67312,7 +67310,7 @@
         <v>yes</v>
       </c>
       <c r="F259" s="188" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="G259" s="177" t="s">
         <v>120</v>
@@ -67323,12 +67321,11 @@
       <c r="I259" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="J259" s="177">
-        <f>VLOOKUP(A259,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>23</v>
+      <c r="J259" s="268">
+        <v>129.5</v>
       </c>
       <c r="K259" s="177">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L259" s="188" t="s">
         <v>120</v>
@@ -67336,41 +67333,41 @@
       <c r="M259" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N259" s="83"/>
+      <c r="N259" s="212" t="s">
+        <v>3113</v>
+      </c>
       <c r="Q259" t="s">
-        <v>2924</v>
+        <v>2919</v>
       </c>
       <c r="T259" s="208">
-        <v>27.394225271583799</v>
+        <v>48.1132075471698</v>
       </c>
       <c r="X259" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB259">
-        <v>2</v>
-      </c>
-      <c r="AD259">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:33" ht="15" customHeight="1">
-      <c r="A260" s="221" t="s">
-        <v>2892</v>
+      <c r="A260" s="277" t="s">
+        <v>365</v>
+      </c>
+      <c r="B260" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="C260" s="218" t="s">
-        <v>2869</v>
+        <v>120</v>
       </c>
       <c r="D260" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E260" s="177" t="str">
         <f>VLOOKUP(A260,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
-      </c>
-      <c r="F260" s="188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="G260" s="227"/>
+        <v>no</v>
+      </c>
+      <c r="F260" s="188"/>
+      <c r="G260" s="177"/>
       <c r="H260" s="223" t="s">
         <v>120</v>
       </c>
@@ -67379,34 +67376,46 @@
       </c>
       <c r="J260" s="177">
         <f>VLOOKUP(A260,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="K260" s="177">
-        <v>261</v>
-      </c>
-      <c r="L260" s="188" t="s">
-        <v>2284</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L260" s="188"/>
       <c r="M260" s="262"/>
-      <c r="N260" s="210" t="s">
-        <v>3115</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>2925</v>
+      <c r="N260" s="229"/>
+      <c r="O260" s="229" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P260" s="229" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q260" s="279" t="s">
+        <v>366</v>
+      </c>
+      <c r="R260" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="S260" s="228" t="s">
+        <v>216</v>
       </c>
       <c r="T260" s="208">
-        <v>18.138936535162902</v>
-      </c>
+        <v>16.6321206489886</v>
+      </c>
+      <c r="V260" s="210"/>
       <c r="X260" s="212" t="s">
-        <v>2861</v>
+        <v>328</v>
+      </c>
+      <c r="Z260">
+        <v>1</v>
       </c>
       <c r="AB260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="15" customHeight="1">
       <c r="A261" s="221" t="s">
-        <v>2893</v>
+        <v>2870</v>
       </c>
       <c r="C261" s="218" t="s">
         <v>2869</v>
@@ -67416,39 +67425,44 @@
       </c>
       <c r="E261" s="177" t="str">
         <f>VLOOKUP(A261,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="F261" s="188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="H261" s="210" t="s">
-        <v>120</v>
-      </c>
-      <c r="I261" s="210" t="s">
+        <v>120</v>
+      </c>
+      <c r="G261" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="H261" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I261" s="229" t="s">
         <v>120</v>
       </c>
       <c r="J261" s="177">
         <f>VLOOKUP(A261,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="K261" s="177">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L261" s="188" t="s">
-        <v>2284</v>
-      </c>
-      <c r="M261" s="262"/>
-      <c r="N261" s="212" t="s">
-        <v>3115</v>
+        <v>120</v>
+      </c>
+      <c r="M261" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="N261" s="83" t="s">
+        <v>3108</v>
       </c>
       <c r="Q261" t="s">
-        <v>2926</v>
+        <v>2871</v>
       </c>
       <c r="T261" s="208">
-        <v>7.3256146369353896</v>
+        <v>53.6878216123499</v>
       </c>
       <c r="X261" s="212" t="s">
-        <v>2861</v>
+        <v>322</v>
       </c>
       <c r="AB261">
         <v>2</v>
@@ -67479,7 +67493,7 @@
       </c>
       <c r="J262" s="177">
         <f>VLOOKUP(A262,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K262" s="177">
         <v>263</v>
@@ -67529,7 +67543,7 @@
       </c>
       <c r="J263" s="177">
         <f>VLOOKUP(A263,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K263" s="177">
         <v>264</v>
@@ -67585,7 +67599,7 @@
       </c>
       <c r="J264" s="177">
         <f>VLOOKUP(A264,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K264" s="177">
         <v>265</v>
@@ -67612,9 +67626,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:33" ht="15" hidden="1" customHeight="1">
+    <row r="265" spans="1:33" ht="15" customHeight="1">
       <c r="A265" s="221" t="s">
-        <v>2904</v>
+        <v>2890</v>
       </c>
       <c r="C265" s="218" t="s">
         <v>2869</v>
@@ -67624,45 +67638,43 @@
       </c>
       <c r="E265" s="177" t="str">
         <f>VLOOKUP(A265,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="F265" s="188" t="s">
         <v>2284</v>
       </c>
-      <c r="G265" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="H265" s="223" t="s">
+      <c r="G265" s="232"/>
+      <c r="H265" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="I265" s="212" t="s">
         <v>2284</v>
-      </c>
-      <c r="I265" s="223" t="s">
-        <v>120</v>
       </c>
       <c r="J265" s="177">
         <f>VLOOKUP(A265,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K265" s="177">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L265" s="188" t="s">
         <v>2284</v>
       </c>
       <c r="M265" s="262"/>
       <c r="N265" s="210" t="s">
-        <v>3116</v>
-      </c>
-      <c r="Q265" s="210" t="s">
-        <v>3164</v>
+        <v>3114</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>2928</v>
       </c>
       <c r="T265" s="208">
-        <v>41.616638078902199</v>
+        <v>53.7449971412236</v>
       </c>
       <c r="X265" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -67693,7 +67705,7 @@
       </c>
       <c r="J266" s="177">
         <f>VLOOKUP(A266,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K266" s="177">
         <v>267</v>
@@ -67749,7 +67761,7 @@
       </c>
       <c r="J267" s="177">
         <f>VLOOKUP(A267,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="K267" s="177">
         <v>268</v>
@@ -67779,7 +67791,7 @@
     </row>
     <row r="268" spans="1:33" ht="15" customHeight="1">
       <c r="A268" s="221" t="s">
-        <v>2876</v>
+        <v>2882</v>
       </c>
       <c r="C268" s="218" t="s">
         <v>2869</v>
@@ -67789,26 +67801,26 @@
       </c>
       <c r="E268" s="177" t="str">
         <f>VLOOKUP(A268,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="F268" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="G268" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="H268" s="223" t="s">
-        <v>120</v>
-      </c>
-      <c r="I268" s="223" t="s">
+      <c r="G268" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H268" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="I268" s="212" t="s">
         <v>120</v>
       </c>
       <c r="J268" s="177">
         <f>VLOOKUP(A268,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="K268" s="177">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="L268" s="188" t="s">
         <v>120</v>
@@ -67816,21 +67828,23 @@
       <c r="M268" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="N268" s="83"/>
+      <c r="N268" s="83" t="s">
+        <v>3172</v>
+      </c>
       <c r="Q268" t="s">
-        <v>2923</v>
+        <v>2906</v>
+      </c>
+      <c r="R268" s="276" t="s">
+        <v>3190</v>
       </c>
       <c r="T268" s="208">
-        <v>33.8979416809605</v>
+        <v>66.938250428816502</v>
       </c>
       <c r="X268" s="212" t="s">
-        <v>2861</v>
+        <v>322</v>
       </c>
       <c r="AB268">
         <v>2</v>
-      </c>
-      <c r="AD268">
-        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -67861,7 +67875,7 @@
       </c>
       <c r="J269" s="177">
         <f>VLOOKUP(A269,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K269" s="177">
         <v>270</v>
@@ -67914,7 +67928,7 @@
       </c>
       <c r="J270" s="177">
         <f>VLOOKUP(A270,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="K270" s="177">
         <v>271</v>
@@ -67943,50 +67957,42 @@
     </row>
     <row r="271" spans="1:33" ht="15" customHeight="1">
       <c r="A271" s="221" t="s">
-        <v>3101</v>
-      </c>
-      <c r="C271" s="218" t="s">
-        <v>2869</v>
-      </c>
+        <v>3162</v>
+      </c>
+      <c r="C271" s="274"/>
       <c r="D271" s="177" t="s">
         <v>120</v>
       </c>
       <c r="E271" s="177" t="str">
         <f>VLOOKUP(A271,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
-      </c>
-      <c r="G271" s="177" t="s">
-        <v>120</v>
-      </c>
-      <c r="H271" s="223" t="s">
-        <v>120</v>
-      </c>
-      <c r="I271" s="223" t="s">
+        <v>no</v>
+      </c>
+      <c r="G271" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="H271" s="212" t="s">
+        <v>120</v>
+      </c>
+      <c r="I271" s="212" t="s">
         <v>120</v>
       </c>
       <c r="J271" s="177">
         <f>VLOOKUP(A271,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="K271" s="177">
-        <v>272</v>
+        <v>290</v>
+      </c>
+      <c r="N271" t="s">
+        <v>3173</v>
       </c>
       <c r="Q271" s="210" t="s">
-        <v>3166</v>
-      </c>
-      <c r="T271" s="208">
-        <v>0</v>
+        <v>3165</v>
       </c>
       <c r="X271" s="212" t="s">
-        <v>2864</v>
-      </c>
-      <c r="AE271" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF271" t="s">
-        <v>3182</v>
-      </c>
-      <c r="AG271">
+        <v>2861</v>
+      </c>
+      <c r="AB271">
         <v>1</v>
       </c>
     </row>
@@ -68135,9 +68141,9 @@
       <c r="D276" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E276" s="177" t="str">
+      <c r="E276" s="177" t="e">
         <f>VLOOKUP(A276,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F276" s="177" t="s">
         <v>120</v>
@@ -68151,9 +68157,9 @@
       <c r="I276" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J276" s="177">
+      <c r="J276" s="177" t="e">
         <f>VLOOKUP(A276,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>21</v>
+        <v>#N/A</v>
       </c>
       <c r="K276" s="177">
         <v>277</v>
@@ -68178,9 +68184,9 @@
       <c r="D277" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E277" s="177" t="str">
+      <c r="E277" s="177" t="e">
         <f>VLOOKUP(A277,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>#N/A</v>
       </c>
       <c r="F277" s="177" t="s">
         <v>120</v>
@@ -68194,9 +68200,9 @@
       <c r="I277" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J277" s="177">
+      <c r="J277" s="177" t="e">
         <f>VLOOKUP(A277,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>115</v>
+        <v>#N/A</v>
       </c>
       <c r="K277" s="177">
         <v>278</v>
@@ -68221,9 +68227,9 @@
       <c r="D278" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E278" s="177" t="str">
+      <c r="E278" s="177" t="e">
         <f>VLOOKUP(A278,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>#N/A</v>
       </c>
       <c r="F278" s="177" t="s">
         <v>120</v>
@@ -68237,9 +68243,9 @@
       <c r="I278" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J278" s="177">
+      <c r="J278" s="177" t="e">
         <f>VLOOKUP(A278,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>84</v>
+        <v>#N/A</v>
       </c>
       <c r="K278" s="177">
         <v>279</v>
@@ -68264,9 +68270,9 @@
       <c r="D279" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E279" s="177" t="str">
+      <c r="E279" s="177" t="e">
         <f>VLOOKUP(A279,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>#N/A</v>
       </c>
       <c r="F279" s="177" t="s">
         <v>120</v>
@@ -68280,9 +68286,9 @@
       <c r="I279" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J279" s="177">
+      <c r="J279" s="177" t="e">
         <f>VLOOKUP(A279,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>82</v>
+        <v>#N/A</v>
       </c>
       <c r="K279" s="177">
         <v>280</v>
@@ -68307,9 +68313,9 @@
       <c r="D280" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E280" s="177" t="str">
+      <c r="E280" s="177" t="e">
         <f>VLOOKUP(A280,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>#N/A</v>
       </c>
       <c r="F280" s="177" t="s">
         <v>120</v>
@@ -68323,9 +68329,9 @@
       <c r="I280" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J280" s="177">
+      <c r="J280" s="177" t="e">
         <f>VLOOKUP(A280,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>91</v>
+        <v>#N/A</v>
       </c>
       <c r="K280" s="177">
         <v>281</v>
@@ -68350,9 +68356,9 @@
       <c r="D281" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E281" s="177" t="str">
+      <c r="E281" s="177" t="e">
         <f>VLOOKUP(A281,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F281" s="177" t="s">
         <v>120</v>
@@ -68366,9 +68372,9 @@
       <c r="I281" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J281" s="177">
+      <c r="J281" s="177" t="e">
         <f>VLOOKUP(A281,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>33</v>
+        <v>#N/A</v>
       </c>
       <c r="K281" s="177">
         <v>282</v>
@@ -68393,9 +68399,9 @@
       <c r="D282" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E282" s="177" t="str">
+      <c r="E282" s="177" t="e">
         <f>VLOOKUP(A282,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F282" s="177" t="s">
         <v>120</v>
@@ -68409,9 +68415,9 @@
       <c r="I282" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J282" s="177">
+      <c r="J282" s="177" t="e">
         <f>VLOOKUP(A282,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>27</v>
+        <v>#N/A</v>
       </c>
       <c r="K282" s="177">
         <v>283</v>
@@ -68436,9 +68442,9 @@
       <c r="D283" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E283" s="177" t="str">
+      <c r="E283" s="177" t="e">
         <f>VLOOKUP(A283,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F283" s="177" t="s">
         <v>120</v>
@@ -68452,9 +68458,9 @@
       <c r="I283" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J283" s="177">
+      <c r="J283" s="177" t="e">
         <f>VLOOKUP(A283,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="K283" s="177">
         <v>284</v>
@@ -68479,9 +68485,9 @@
       <c r="D284" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E284" s="177" t="str">
+      <c r="E284" s="177" t="e">
         <f>VLOOKUP(A284,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F284" s="177" t="s">
         <v>120</v>
@@ -68495,9 +68501,9 @@
       <c r="I284" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J284" s="177">
+      <c r="J284" s="177" t="e">
         <f>VLOOKUP(A284,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>42</v>
+        <v>#N/A</v>
       </c>
       <c r="K284" s="177">
         <v>285</v>
@@ -68522,9 +68528,9 @@
       <c r="D285" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E285" s="177" t="str">
+      <c r="E285" s="177" t="e">
         <f>VLOOKUP(A285,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F285" s="177" t="s">
         <v>120</v>
@@ -68538,9 +68544,9 @@
       <c r="I285" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J285" s="177">
+      <c r="J285" s="177" t="e">
         <f>VLOOKUP(A285,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>39</v>
+        <v>#N/A</v>
       </c>
       <c r="K285" s="177">
         <v>286</v>
@@ -68565,9 +68571,9 @@
       <c r="D286" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E286" s="177" t="str">
+      <c r="E286" s="177" t="e">
         <f>VLOOKUP(A286,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>#N/A</v>
       </c>
       <c r="F286" s="177" t="s">
         <v>120</v>
@@ -68581,9 +68587,9 @@
       <c r="I286" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J286" s="177">
+      <c r="J286" s="177" t="e">
         <f>VLOOKUP(A286,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>44</v>
+        <v>#N/A</v>
       </c>
       <c r="K286" s="177">
         <v>287</v>
@@ -68608,9 +68614,9 @@
       <c r="D287" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E287" s="177" t="str">
+      <c r="E287" s="177" t="e">
         <f>VLOOKUP(A287,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>#N/A</v>
       </c>
       <c r="F287" s="177" t="s">
         <v>120</v>
@@ -68624,9 +68630,9 @@
       <c r="I287" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J287" s="177">
+      <c r="J287" s="177" t="e">
         <f>VLOOKUP(A287,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>52</v>
+        <v>#N/A</v>
       </c>
       <c r="K287" s="177">
         <v>288</v>
@@ -68651,9 +68657,9 @@
       <c r="D288" s="177" t="s">
         <v>2284</v>
       </c>
-      <c r="E288" s="177" t="str">
+      <c r="E288" s="177" t="e">
         <f>VLOOKUP(A288,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>no</v>
+        <v>#N/A</v>
       </c>
       <c r="F288" s="177" t="s">
         <v>120</v>
@@ -68667,9 +68673,9 @@
       <c r="I288" s="223" t="s">
         <v>2284</v>
       </c>
-      <c r="J288" s="177">
+      <c r="J288" s="177" t="e">
         <f>VLOOKUP(A288,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>74</v>
+        <v>#N/A</v>
       </c>
       <c r="K288" s="177">
         <v>289</v>
@@ -68685,8 +68691,14 @@
       </c>
     </row>
     <row r="289" spans="1:33" ht="15" customHeight="1">
-      <c r="A289" s="221" t="s">
-        <v>3162</v>
+      <c r="A289" s="269" t="s">
+        <v>913</v>
+      </c>
+      <c r="B289" s="271" t="s">
+        <v>120</v>
+      </c>
+      <c r="C289" s="238" t="s">
+        <v>120</v>
       </c>
       <c r="D289" s="263" t="s">
         <v>120</v>
@@ -68695,33 +68707,82 @@
         <f>VLOOKUP(A289,Outflux!$A$1:$D$190,3,FALSE)</f>
         <v>no</v>
       </c>
-      <c r="G289" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="H289" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="I289" s="212" t="s">
+      <c r="F289" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="G289" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="H289" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="I289" s="223" t="s">
         <v>120</v>
       </c>
       <c r="J289" s="177">
         <f>VLOOKUP(A289,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K289" s="177">
-        <v>290</v>
-      </c>
-      <c r="N289" s="83" t="s">
-        <v>3173</v>
-      </c>
-      <c r="Q289" s="210" t="s">
-        <v>3165</v>
+        <v>138</v>
+      </c>
+      <c r="L289" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="M289" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N289" s="223" t="s">
+        <v>3107</v>
+      </c>
+      <c r="O289" s="229" t="s">
+        <v>20</v>
+      </c>
+      <c r="P289" s="229" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q289" s="228" t="s">
+        <v>914</v>
+      </c>
+      <c r="R289" s="228" t="s">
+        <v>74</v>
+      </c>
+      <c r="S289" s="228"/>
+      <c r="T289" s="208">
+        <v>83.919382504288194</v>
+      </c>
+      <c r="U289" s="210" t="s">
+        <v>2834</v>
+      </c>
+      <c r="V289" t="s">
+        <v>124</v>
       </c>
       <c r="X289" s="212" t="s">
-        <v>2861</v>
+        <v>328</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>2845</v>
+      </c>
+      <c r="Z289" s="210">
+        <v>1E-3</v>
+      </c>
+      <c r="AA289">
+        <v>46</v>
       </c>
       <c r="AB289">
         <v>1</v>
+      </c>
+      <c r="AD289">
+        <v>1</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG289">
+        <v>47</v>
       </c>
     </row>
     <row r="290" spans="1:33" ht="15" hidden="1" customHeight="1">
@@ -68775,11 +68836,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="15" customHeight="1">
+    <row r="293" spans="1:33" ht="15" hidden="1" customHeight="1">
       <c r="A293" t="s">
         <v>3188</v>
       </c>
-      <c r="C293" s="269" t="s">
+      <c r="C293" s="267" t="s">
         <v>2869</v>
       </c>
       <c r="D293" s="263" t="s">
@@ -68790,10 +68851,10 @@
         <v>yes</v>
       </c>
       <c r="H293" s="223" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="I293" s="210" t="s">
-        <v>120</v>
+        <v>2284</v>
       </c>
       <c r="J293" s="177">
         <f>VLOOKUP(A293,Outflux!$A$1:$D$190,4,FALSE)</f>
@@ -68817,36 +68878,57 @@
     </row>
     <row r="294" spans="1:33" ht="15" customHeight="1">
       <c r="A294" s="223" t="s">
-        <v>1183</v>
+        <v>2902</v>
+      </c>
+      <c r="C294" s="228" t="s">
+        <v>2869</v>
       </c>
       <c r="D294" s="263" t="s">
         <v>120</v>
       </c>
       <c r="E294" s="177" t="str">
         <f>VLOOKUP(A294,Outflux!$A$1:$D$190,3,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
+      </c>
+      <c r="F294" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="G294" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="H294" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="I294" s="210" t="s">
+      <c r="I294" s="229" t="s">
         <v>120</v>
       </c>
       <c r="J294" s="177">
         <f>VLOOKUP(A294,Outflux!$A$1:$D$190,4,FALSE)</f>
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="K294" s="177">
-        <v>295</v>
+        <v>254</v>
+      </c>
+      <c r="L294" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="M294" s="229" t="s">
+        <v>120</v>
       </c>
       <c r="N294" s="83" t="s">
-        <v>1183</v>
+        <v>3112</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>2918</v>
+      </c>
+      <c r="T294" s="208">
+        <v>93.532018296169198</v>
       </c>
       <c r="X294" s="212" t="s">
         <v>2861</v>
       </c>
       <c r="AB294">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -68856,11 +68938,14 @@
         <filter val="yes"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:AG294">
+      <sortCondition ref="J1:J294"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA272">
     <sortCondition ref="K2:K272"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D3 D11:D37 D42:D83 D85:D111 D113:D114 D116:D119 D121:D122 D124:D143 D157:D160 D39:E40 D145:E145 D147:E147 D149:E151 D153:E153 D155:E155 E30:E35 E38 E41:E55 E58:E66 E69:E78 E81 E91:E92 E95:E98 E101:E102 E115:E118 E120 E123:E126 E130:E138 E143:E144 E146 E148 E152 E154 E156:E158 E28:H28 E105:H112 F29:H84 F86:H104 F115:J158 G114:J114 G161:J163 G193:J193 G203:J204 G213:J213 G216:J216 G218:J218 G227:J227 G230:J230 G236:J236 G238:J238 G241:J241 G244:J244 G247:J248 G263:J271 H293:H294 I3:I84 I86:J113 J6:J84 J3:K5 K293:K294 M272:M275 F3:H27 F113:H113 E140 K6:K289 D242:D271 F2:F269 L3:M270">
+  <conditionalFormatting sqref="D2:D3 D11:D37 D42:D83 D85:D111 D113:D114 D116:D119 D121:D122 D124:D143 D157:D160 D39:E40 D145:E145 D147:E147 D149:E151 D153:E153 D155:E155 E30:E35 E38 E41:E55 E58:E66 E69:E78 E81 E91:E92 E95:E98 E101:E102 E115:E118 E120 E123:E126 E130:E138 E143:E144 E146 E148 E152 E154 E156:E158 E28:H28 E105:H112 F29:H84 F86:H104 F115:J138 G114:J114 G161:J163 G193:J193 G204:J204 G213:J213 G216:J216 G218:I218 G227:J227 G230:J230 G236:J236 G238:J238 G241:J241 G244:J244 G247:J248 G263:J264 H293:H294 I3:I84 I86:J88 J6:J84 J3:K5 K293:K294 M272:M275 F3:H27 F113:H113 K6:K289 D242:D271 F2:F269 L3:M270 G271:I271 G269:J270 G268:I268 G266:J267 G265:I265 G203:I203 F142:J158 F141:I141 E140:J140 F139:I139 I100:J113 I99 I94:J98 I93 I90:J92 I89">
     <cfRule type="containsText" dxfId="7" priority="66" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH(("Yes"),(D2))))</formula>
     </cfRule>
@@ -68880,9 +68965,9 @@
       <formula>NOT(ISERROR(SEARCH(("Yes"),(F276))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G253:J260">
+  <conditionalFormatting sqref="J245:J246 J242 J240 J237 G253:J260 J261 J265 J268 J271 J289 J294 J226 J160 J141 J139 J99 J93 J89 J217:J219 J215 J211 J203">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH(("Yes"),(G253))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Yes"),(G89))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">

--- a/1_Input_data/MasterCodebook_October.xlsx
+++ b/1_Input_data/MasterCodebook_October.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49531982-825D-8347-B4AD-01BA1A657B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65040DD1-90A7-3E4B-BBD5-7E2BC9EE98D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1320" windowWidth="25400" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="1160" windowWidth="25400" windowHeight="15180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var count and directions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="237 key" sheetId="7" r:id="rId3"/>
     <sheet name="StudyID" sheetId="12" r:id="rId4"/>
     <sheet name="Missings" sheetId="8" r:id="rId5"/>
-    <sheet name="Outflux" r:id="rId11" sheetId="13"/>
+    <sheet name="Outflux" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'237 key'!$A$1:$AG$294</definedName>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3AF2D2F3-3B31-4BFE-9B21-6EF5937D96DE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{9C9CF54D-CE09-4329-9468-764052FC28B8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{EB9D8945-92F8-48A6-B1A8-0874D0F705AD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15581" uniqueCount="3193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13792" uniqueCount="3194">
   <si>
     <t>Tab</t>
   </si>
@@ -12100,6 +12100,9 @@
   </si>
   <si>
     <t>Imp_obj1_interactions</t>
+  </si>
+  <si>
+    <t>Included_mis</t>
   </si>
 </sst>
 </file>
@@ -12802,7 +12805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13564,6 +13567,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13888,18 +13892,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.1640625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="39.1640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="34.1640625" collapsed="true"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="24.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="39.1640625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="34.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="82.5" customHeight="1">
@@ -15698,2511 +15702,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3101</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>702</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9405694302627761</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.918156055561122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9147650038833478</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8851183508889999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8824002969993682</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>918</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8593724208749782</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8516926010206168</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8392954257579768</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8092531983322165</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8025104786682289</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.7972689726590305</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7688322098363086</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>742</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7159914583723068</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>725</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.704134071352824</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7034164773257083</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.702188632824106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6913679635677686</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>755</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.686940194126849</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6553544734950651</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.6313900763522362</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>562</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.623029729474581</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.6098999017145227</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>870</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.6024679674482206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>811</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5982637583741022</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>537</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5969751008193546</v>
-      </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>864</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5902758190504708</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>361</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5852323898429459</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>813</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5774118312084481</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5729446780759677</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>763</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5723869355028341</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" t="n">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>860</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5683582155249354</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>835</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.568007816504431</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>846</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5431213776415308</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5403714692954895</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" t="n">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5336629207756503</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>2889</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5135083166193966</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" t="n">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>395</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5001184406606498</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.49365777772886993</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D42" t="n">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>493</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4883044915362709</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D43" t="n">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.48007445834392737</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D44" t="n">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>854</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.4637018469213826</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D45" t="n">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>850</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.46310008728121055</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.46214445358892575</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D47" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>467</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.4584018445467777</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D48" t="n">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.446860685403651</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D49" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.4468207225401554</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D50" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.44550484390447603</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D51" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>759</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.4449013467484998</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D52" t="n">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>565</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.43858373928459526</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D53" t="n">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>921</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.4380613261994796</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D54" t="n">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>385</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.4063082248785621</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D55" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.39467555656974995</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>403</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.3936336262591922</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>548</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.38902052179916286</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D58" t="n">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.3756428084510452</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D59" t="n">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.3630724607799245</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D60" t="n">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.3614368792362807</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D61" t="n">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.35739425913194867</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>495</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.3553289320127441</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D63" t="n">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>856</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.35507409636146814</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D64" t="n">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>751</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.35433391462889846</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D65" t="n">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>983</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.352510681378406</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D66" t="n">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>947</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.3500358797013558</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D67" t="n">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>829</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.340060222297772</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D68" t="n">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>712</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.33348372497904843</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D69" t="n">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>960</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.32729527285658605</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D70" t="n">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>832</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.31967105350795755</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D71" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>372</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.3149403771451805</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D72" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>174</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.30996934442949536</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D73" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>924</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.30611321768814254</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.2883007848358887</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D75" t="n">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>405</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.2835313039534855</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D76" t="n">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>780</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.26404506420989654</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D77" t="n">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>558</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.2595072521013806</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D78" t="n">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>556</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.25908851079257944</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D79" t="n">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>332</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.2549926068702533</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D80" t="n">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>791</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.25274541976354725</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D81" t="n">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>770</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.24282478369376168</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D82" t="n">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>934</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.23975111823621295</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D83" t="n">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>717</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.2367759120075663</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D84" t="n">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>472</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.23608032651396993</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D85" t="n">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.23603515110306192</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D86" t="n">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>526</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.22405382128954948</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D87" t="n">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.22268871303941903</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>269</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.2224182397459057</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>347</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.22240086458786415</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>530</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.22159581559860606</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>208</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.22118286600915207</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D92" t="n">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>757</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.22097610162845774</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D93" t="n">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>465</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.21493533834934841</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>474</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.2134949377477046</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>533</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.20189470306723664</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.200568978508667</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D97" t="n">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>2982</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.2004722567955691</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D98" t="n">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.19534426848557543</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D99" t="n">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>171</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.1929019004368694</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D100" t="n">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>3162</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.19260594357822847</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>497</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.17861083294770136</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D102" t="n">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>913</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.1781434411963839</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D103" t="n">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>916</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.17409155434109636</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D104" t="n">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>550</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.16788051451317992</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D105" t="n">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>805</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.16561479390456288</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D106" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>744</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.1641077885304265</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D107" t="n">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>728</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.1611922370110558</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D108" t="n">
-        <v>107.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>488</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.15985377066992237</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D109" t="n">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>802</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.1485448594726176</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D110" t="n">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>552</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.14261471803303943</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D111" t="n">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>374</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.14118126749461224</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D112" t="n">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>761</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.13162319305596018</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D113" t="n">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>378</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.13037681505244691</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D114" t="n">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>768</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.11915651716115401</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D115" t="n">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>969</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.10708831155743387</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D116" t="n">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>798</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.1046610019790305</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D117" t="n">
-        <v>116.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.10123172495356489</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D118" t="n">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>778</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.0993905373730962</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D119" t="n">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>484</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.09759336685966606</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D120" t="n">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>183</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.09067805395913248</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D121" t="n">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>397</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.0901434782633877</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D122" t="n">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.0898869050963076</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D123" t="n">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>441</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.08816213107471724</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D124" t="n">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>414</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.08102152029157832</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D125" t="n">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.07701422967526408</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D126" t="n">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>890</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.07199975906447516</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>879</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.05932168541349691</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D128" t="n">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>885</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.05718222428664841</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D129" t="n">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.0565179140775268</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D130" t="n">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>2897</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0556839064915328</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D131" t="n">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>739</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.055535059304310255</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D132" t="n">
-        <v>131.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>2899</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.05540127058739038</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D133" t="n">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.05524315664921235</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D134" t="n">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.054810515213977964</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D135" t="n">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>478</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.054215126465087804</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D136" t="n">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>941</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.05324327595863091</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.05055707652540856</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>574</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.046510402217533504</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D139" t="n">
-        <v>138.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>546</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.04483254112265529</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D140" t="n">
-        <v>139.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.04431649892882151</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D141" t="n">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>380</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.04350623739215095</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D142" t="n">
-        <v>141.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>247</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.03915318113081004</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D143" t="n">
-        <v>142.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>746</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.038196968266590525</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D144" t="n">
-        <v>143.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>437</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.03622604617274498</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D145" t="n">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>539</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.03462058156970653</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D146" t="n">
-        <v>145.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>905</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.030452860327475396</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D147" t="n">
-        <v>146.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>704</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.029294516458039283</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D148" t="n">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>544</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.0291346650040571</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D149" t="n">
-        <v>148.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>874</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.025422172902514358</v>
-      </c>
-      <c r="C150" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D150" t="n">
-        <v>149.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>721</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.020836868695351507</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D151" t="n">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.020235688227114166</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D152" t="n">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>976</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.01728770307939926</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D153" t="n">
-        <v>152.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>909</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.016574742427761333</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D154" t="n">
-        <v>153.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>376</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.01582761063197504</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D155" t="n">
-        <v>154.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>454</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.01582761063197504</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D156" t="n">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>901</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.01582761063197504</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D157" t="n">
-        <v>156.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>469</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.0130388977663076</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D158" t="n">
-        <v>157.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>894</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.007846042199625508</v>
-      </c>
-      <c r="C159" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D159" t="n">
-        <v>158.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.006501784139144899</v>
-      </c>
-      <c r="C160" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D160" t="n">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>535</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.005072966976195454</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D161" t="n">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>753</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.004989566217596054</v>
-      </c>
-      <c r="C162" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D162" t="n">
-        <v>161.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>748</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.0037744634985575724</v>
-      </c>
-      <c r="C163" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D163" t="n">
-        <v>162.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>949</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.0032595796485932202</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D164" t="n">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>250</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.0014803634651393517</v>
-      </c>
-      <c r="C165" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D165" t="n">
-        <v>164.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>416</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.0013859584397803086</v>
-      </c>
-      <c r="C166" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D166" t="n">
-        <v>165.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>554</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.0010118133699524442</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D167" t="n">
-        <v>166.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>542</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9.99650759323365E-4</v>
-      </c>
-      <c r="C168" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D168" t="n">
-        <v>167.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>254</v>
-      </c>
-      <c r="B169" t="n">
-        <v>5.843844821305187E-4</v>
-      </c>
-      <c r="C169" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D169" t="n">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>839</v>
-      </c>
-      <c r="B170" t="n">
-        <v>4.459623897329033E-4</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D170" t="n">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>439</v>
-      </c>
-      <c r="B171" t="n">
-        <v>6.776311636201258E-5</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D171" t="n">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>382</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D172" t="n">
-        <v>171.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>457</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D173" t="n">
-        <v>172.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>490</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D174" t="n">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>560</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C175" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D175" t="n">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C176" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D176" t="n">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>881</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C177" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D177" t="n">
-        <v>176.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>898</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C178" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D178" t="n">
-        <v>177.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
@@ -18218,18 +15717,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="10.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.1640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" width="10.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.1640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.1640625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
@@ -51406,7 +48905,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -51415,17 +48914,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.1640625" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.1640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="37.1640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="208" width="10.83203125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="22" max="30" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.83203125" style="208" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="30" width="10.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
@@ -69047,24 +66546,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DA957-6899-A948-BF9C-0A6CA3970A65}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" style="245" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="245" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="246" t="s">
         <v>2801</v>
       </c>
@@ -69095,8 +66594,11 @@
       <c r="J1" s="264" t="s">
         <v>3160</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14">
+      <c r="K1" s="283" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14">
       <c r="A2" s="250" t="s">
         <v>3070</v>
       </c>
@@ -69125,8 +66627,11 @@
       <c r="J2" s="244">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14">
       <c r="A3" s="250" t="s">
         <v>3067</v>
       </c>
@@ -69155,8 +66660,11 @@
       <c r="J3" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14">
       <c r="A4" s="250" t="s">
         <v>3072</v>
       </c>
@@ -69185,8 +66693,11 @@
       <c r="J4" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14">
       <c r="A5" s="250" t="s">
         <v>3074</v>
       </c>
@@ -69215,8 +66726,11 @@
       <c r="J5" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14">
       <c r="A6" s="250" t="s">
         <v>3073</v>
       </c>
@@ -69245,8 +66759,11 @@
       <c r="J6" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14">
       <c r="A7" s="250" t="s">
         <v>3079</v>
       </c>
@@ -69275,8 +66792,11 @@
       <c r="J7" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14">
       <c r="A8" s="250" t="s">
         <v>3071</v>
       </c>
@@ -69305,8 +66825,11 @@
       <c r="J8" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14">
       <c r="A9" s="250" t="s">
         <v>3076</v>
       </c>
@@ -69335,8 +66858,11 @@
       <c r="J9" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" customHeight="1">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" customHeight="1">
       <c r="A10" s="250" t="s">
         <v>3080</v>
       </c>
@@ -69365,8 +66891,11 @@
       <c r="J10" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14">
       <c r="A11" s="250" t="s">
         <v>3068</v>
       </c>
@@ -69395,8 +66924,11 @@
       <c r="J11" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14">
       <c r="A12" s="250" t="s">
         <v>3078</v>
       </c>
@@ -69425,8 +66957,11 @@
       <c r="J12" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14">
       <c r="A13" s="250" t="s">
         <v>3075</v>
       </c>
@@ -69455,8 +66990,11 @@
       <c r="J13" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14">
       <c r="A14" s="250" t="s">
         <v>3077</v>
       </c>
@@ -69485,8 +67023,11 @@
       <c r="J14" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="56">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="56">
       <c r="A15" s="250" t="s">
         <v>3069</v>
       </c>
@@ -69517,8 +67058,11 @@
       <c r="J15" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="70">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="70">
       <c r="A16" s="250" t="s">
         <v>3082</v>
       </c>
@@ -69549,8 +67093,11 @@
       <c r="J16" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14">
       <c r="A17" s="254" t="s">
         <v>3081</v>
       </c>
@@ -69579,8 +67126,11 @@
       <c r="J17" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14">
       <c r="A18" s="250" t="s">
         <v>3090</v>
       </c>
@@ -69605,8 +67155,11 @@
       <c r="J18" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14">
       <c r="A19" s="250" t="s">
         <v>3083</v>
       </c>
@@ -69635,8 +67188,11 @@
       <c r="J19" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="154">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="154">
       <c r="A20" s="250" t="s">
         <v>3084</v>
       </c>
@@ -69667,8 +67223,11 @@
       <c r="J20" s="244">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="98">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="98">
       <c r="A21" s="250" t="s">
         <v>3085</v>
       </c>
@@ -69699,8 +67258,11 @@
       <c r="J21" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14">
       <c r="A22" s="250" t="s">
         <v>3089</v>
       </c>
@@ -69729,8 +67291,11 @@
       <c r="J22" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14">
       <c r="A23" s="250" t="s">
         <v>3087</v>
       </c>
@@ -69759,8 +67324,11 @@
       <c r="J23" s="244">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="126">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="126">
       <c r="A24" s="250" t="s">
         <v>3086</v>
       </c>
@@ -69791,8 +67359,11 @@
       <c r="J24" s="244">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14">
       <c r="A25" s="261" t="s">
         <v>3093</v>
       </c>
@@ -69821,8 +67392,11 @@
       <c r="J25" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14">
       <c r="A26" s="250" t="s">
         <v>3088</v>
       </c>
@@ -69851,8 +67425,11 @@
       <c r="J26" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14">
       <c r="A27" s="250" t="s">
         <v>3091</v>
       </c>
@@ -69881,8 +67458,11 @@
       <c r="J27" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14">
       <c r="A28" s="250" t="s">
         <v>3092</v>
       </c>
@@ -69911,8 +67491,11 @@
       <c r="J28" s="244">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14">
       <c r="A29" s="261" t="s">
         <v>3094</v>
       </c>
@@ -69940,7 +67523,7 @@
       <c r="I29" s="252"/>
       <c r="J29" s="244"/>
     </row>
-    <row r="30" spans="1:10" ht="14">
+    <row r="30" spans="1:11" ht="14">
       <c r="A30" s="257"/>
       <c r="B30" s="247" t="s">
         <v>3011</v>
@@ -69960,7 +67543,7 @@
       <c r="I30" s="258"/>
       <c r="J30" s="244"/>
     </row>
-    <row r="31" spans="1:10" ht="14">
+    <row r="31" spans="1:11" ht="14">
       <c r="A31" s="259"/>
       <c r="B31" s="247" t="s">
         <v>3012</v>
@@ -69980,7 +67563,7 @@
       <c r="I31" s="258"/>
       <c r="J31" s="244"/>
     </row>
-    <row r="32" spans="1:10" ht="14">
+    <row r="32" spans="1:11" ht="14">
       <c r="A32" s="257"/>
       <c r="B32" s="247" t="s">
         <v>3012</v>
@@ -70165,7 +67748,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.1640625" collapsed="true"/>
+    <col min="1" max="1" width="54.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -73624,4 +71207,2509 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D178"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5">
+        <v>0.94056943026277606</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B6">
+        <v>0.91815605556112201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B7">
+        <v>0.9147650038833478</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B8">
+        <v>0.88511835088899993</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B9">
+        <v>0.88240029699936817</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>918</v>
+      </c>
+      <c r="B10">
+        <v>0.85937242087497823</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B11">
+        <v>0.85169260102061684</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B12">
+        <v>0.83929542575797678</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B13">
+        <v>0.80925319833221654</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14">
+        <v>0.80251047866822889</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B15">
+        <v>0.79726897265903052</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B16">
+        <v>0.76883220983630862</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>742</v>
+      </c>
+      <c r="B17">
+        <v>0.71599145837230682</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>725</v>
+      </c>
+      <c r="B18">
+        <v>0.70413407135282402</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B19">
+        <v>0.70341647732570833</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B20">
+        <v>0.70218863282410604</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21">
+        <v>0.69136796356776864</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>755</v>
+      </c>
+      <c r="B22">
+        <v>0.68694019412684904</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23">
+        <v>0.65535447349506515</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B24">
+        <v>0.63139007635223621</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25">
+        <v>0.62302972947458102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26">
+        <v>0.60989990171452269</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>870</v>
+      </c>
+      <c r="B27">
+        <v>0.60246796744822062</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>811</v>
+      </c>
+      <c r="B28">
+        <v>0.59826375837410217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B29">
+        <v>0.59697510081935456</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>864</v>
+      </c>
+      <c r="B30">
+        <v>0.59027581905047077</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31">
+        <v>0.5852323898429459</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>813</v>
+      </c>
+      <c r="B32">
+        <v>0.57741183120844808</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B33">
+        <v>0.57294467807596772</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>763</v>
+      </c>
+      <c r="B34">
+        <v>0.57238693550283415</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>860</v>
+      </c>
+      <c r="B35">
+        <v>0.56835821552493537</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>835</v>
+      </c>
+      <c r="B36">
+        <v>0.568007816504431</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>846</v>
+      </c>
+      <c r="B37">
+        <v>0.54312137764153079</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B38">
+        <v>0.54037146929548951</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B39">
+        <v>0.53366292077565025</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B40">
+        <v>0.51350831661939655</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B41">
+        <v>0.50011844066064981</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42">
+        <v>0.49365777772886993</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>493</v>
+      </c>
+      <c r="B43">
+        <v>0.48830449153627092</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44">
+        <v>0.48007445834392737</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>854</v>
+      </c>
+      <c r="B45">
+        <v>0.46370184692138261</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>850</v>
+      </c>
+      <c r="B46">
+        <v>0.46310008728121055</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B47">
+        <v>0.46214445358892575</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>467</v>
+      </c>
+      <c r="B48">
+        <v>0.45840184454677768</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B49">
+        <v>0.44686068540365098</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B50">
+        <v>0.44682072254015542</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B51">
+        <v>0.44550484390447603</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>759</v>
+      </c>
+      <c r="B52">
+        <v>0.44490134674849979</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>565</v>
+      </c>
+      <c r="B53">
+        <v>0.43858373928459526</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>921</v>
+      </c>
+      <c r="B54">
+        <v>0.43806132619947957</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>385</v>
+      </c>
+      <c r="B55">
+        <v>0.40630822487856211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B56">
+        <v>0.39467555656974995</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>403</v>
+      </c>
+      <c r="B57">
+        <v>0.39363362625919218</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58">
+        <v>0.38902052179916286</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B59">
+        <v>0.3756428084510452</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B60">
+        <v>0.3630724607799245</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B61">
+        <v>0.36143687923628071</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B62">
+        <v>0.35739425913194867</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>495</v>
+      </c>
+      <c r="B63">
+        <v>0.35532893201274413</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>856</v>
+      </c>
+      <c r="B64">
+        <v>0.35507409636146814</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>751</v>
+      </c>
+      <c r="B65">
+        <v>0.35433391462889846</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>983</v>
+      </c>
+      <c r="B66">
+        <v>0.35251068137840602</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>947</v>
+      </c>
+      <c r="B67">
+        <v>0.3500358797013558</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>829</v>
+      </c>
+      <c r="B68">
+        <v>0.340060222297772</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>712</v>
+      </c>
+      <c r="B69">
+        <v>0.33348372497904843</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>960</v>
+      </c>
+      <c r="B70">
+        <v>0.32729527285658605</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>832</v>
+      </c>
+      <c r="B71">
+        <v>0.31967105350795755</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72">
+        <v>0.31494037714518047</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73">
+        <v>0.30996934442949536</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>924</v>
+      </c>
+      <c r="B74">
+        <v>0.30611321768814254</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75">
+        <v>0.28830078483588872</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>405</v>
+      </c>
+      <c r="B76">
+        <v>0.28353130395348553</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>780</v>
+      </c>
+      <c r="B77">
+        <v>0.26404506420989654</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D